--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="244">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -56,12 +56,18 @@
     <t>出现概率</t>
   </si>
   <si>
-    <t>游戏多少回合后出现</t>
-  </si>
-  <si>
     <t>图标</t>
   </si>
   <si>
+    <t>执行方法</t>
+  </si>
+  <si>
+    <t>普通技能值</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
     <t>GoodsKey</t>
   </si>
   <si>
@@ -80,22 +86,31 @@
     <t>probability</t>
   </si>
   <si>
-    <t>round</t>
-  </si>
-  <si>
     <t>AbilityTextureName</t>
   </si>
   <si>
+    <t>ret_action</t>
+  </si>
+  <si>
+    <t>BuffName</t>
+  </si>
+  <si>
+    <t>AbilityValues[{]</t>
+  </si>
+  <si>
+    <t>[}]</t>
+  </si>
+  <si>
     <t>prop_1</t>
   </si>
   <si>
-    <t>道具1</t>
+    <t>【常客优惠I】</t>
   </si>
   <si>
     <t>介绍1</t>
   </si>
   <si>
-    <t>效果1</t>
+    <t>在之后的灵魂商店购买其他圣物时，消耗降低25%。</t>
   </si>
   <si>
     <t>null</t>
@@ -104,106 +119,151 @@
     <t>brewmaster_primal_companion_fire</t>
   </si>
   <si>
+    <t>LowerConsume</t>
+  </si>
+  <si>
+    <t>value 25</t>
+  </si>
+  <si>
     <t>prop_2</t>
   </si>
   <si>
-    <t>道具2</t>
+    <t>【双倍灵魂】</t>
   </si>
   <si>
     <t>介绍2</t>
   </si>
   <si>
-    <t>效果2</t>
+    <t>获得灵魂时，有20%概率获得双倍灵魂。（上限100%）</t>
   </si>
   <si>
     <t>bounty_hunter_twinblade_jinada</t>
   </si>
   <si>
+    <t>GetDoubleSoulPro</t>
+  </si>
+  <si>
+    <t>value 20</t>
+  </si>
+  <si>
+    <t>max 100</t>
+  </si>
+  <si>
     <t>prop_3</t>
   </si>
   <si>
-    <t>道具3</t>
+    <t>【啊，是火！】</t>
   </si>
   <si>
     <t>介绍3</t>
   </si>
   <si>
-    <t>效果3</t>
+    <t>火元素技能造成伤害的灼烧会额外增加攻击力40%的伤害，并降低元素抗性20%，持续3秒。</t>
   </si>
   <si>
     <t>brewmaster_fire_permanent_immolation</t>
   </si>
   <si>
+    <t>AddBuff</t>
+  </si>
+  <si>
+    <t>attack_pro 40</t>
+  </si>
+  <si>
+    <t>str_up 50</t>
+  </si>
+  <si>
+    <t>time 3</t>
+  </si>
+  <si>
     <t>prop_4</t>
   </si>
   <si>
-    <t>道具4</t>
+    <t>【火元素·I】</t>
   </si>
   <si>
     <t>介绍4</t>
   </si>
   <si>
-    <t>效果4</t>
+    <t>购买之后，元素羁绊中火元素+1（稀有，当局限购1）</t>
   </si>
   <si>
     <t>broodmother_spin_web</t>
   </si>
   <si>
+    <t>AddElement</t>
+  </si>
+  <si>
+    <t>name fire</t>
+  </si>
+  <si>
+    <t>count 1</t>
+  </si>
+  <si>
     <t>prop_5</t>
   </si>
   <si>
-    <t>道具5</t>
+    <t>【雷元素·I】</t>
   </si>
   <si>
     <t>介绍5</t>
   </si>
   <si>
-    <t>效果5</t>
+    <t>购买之后，元素羁绊中雷元素+1（稀有，当局限购1）</t>
   </si>
   <si>
     <t>centaur_return</t>
   </si>
   <si>
+    <t>name thunder</t>
+  </si>
+  <si>
     <t>prop_6</t>
   </si>
   <si>
-    <t>道具6</t>
+    <t>【冰元素·I】</t>
   </si>
   <si>
     <t>介绍6</t>
   </si>
   <si>
-    <t>效果6</t>
+    <t>购买之后，元素羁绊中冰元素+1（稀有，当局限购1）</t>
   </si>
   <si>
     <t>chaos_knight_chaos_strike</t>
   </si>
   <si>
+    <t>name water</t>
+  </si>
+  <si>
     <t>prop_7</t>
   </si>
   <si>
-    <t>道具7</t>
+    <t>【风元素·I】</t>
   </si>
   <si>
     <t>介绍7</t>
   </si>
   <si>
-    <t>效果7</t>
+    <t>购买之后，元素羁绊中风元素+1（稀有，当局限购1）</t>
   </si>
   <si>
     <t>chaos_knight_reality_rift</t>
   </si>
   <si>
+    <t>name wind</t>
+  </si>
+  <si>
     <t>prop_8</t>
   </si>
   <si>
-    <t>道具8</t>
+    <t>【否定信仰】</t>
   </si>
   <si>
     <t>介绍8</t>
   </si>
   <si>
-    <t>效果8</t>
+    <t>敌人在被控制时，受到的伤害加深20% 对受到控制的敌人多造成20%伤害。</t>
   </si>
   <si>
     <t>centaur_work_horse</t>
@@ -212,157 +272,494 @@
     <t>prop_9</t>
   </si>
   <si>
-    <t>道具9</t>
+    <t>【常客优惠II】</t>
   </si>
   <si>
     <t>介绍9</t>
   </si>
   <si>
-    <t>效果9</t>
+    <t>在之后的灵魂商店购买其他圣物时，消耗降低50%。</t>
   </si>
   <si>
     <t>clinkz_searing_arrows_immortal</t>
   </si>
   <si>
+    <t>value 50</t>
+  </si>
+  <si>
     <t>prop_10</t>
   </si>
   <si>
-    <t>道具10</t>
+    <t>【生人勿进】</t>
   </si>
   <si>
     <t>介绍10</t>
   </si>
   <si>
-    <t>效果10</t>
+    <t>对自身250码范围内的敌人造成的伤害提升25%</t>
   </si>
   <si>
     <t>clinkz_death_pact</t>
   </si>
   <si>
+    <t>range 250</t>
+  </si>
+  <si>
+    <t>harm 25</t>
+  </si>
+  <si>
     <t>prop_11</t>
   </si>
   <si>
-    <t>道具11</t>
+    <t>【远有远的好处】</t>
   </si>
   <si>
     <t>介绍11</t>
   </si>
   <si>
-    <t>效果11</t>
+    <t>对自身600码以外的敌人造成的伤害提升25%</t>
   </si>
   <si>
     <t>death_prophet/awakened_thirst_ult_bat_icon/death_prophet_exorcism</t>
   </si>
   <si>
+    <t>range 600</t>
+  </si>
+  <si>
     <t>prop_12</t>
   </si>
   <si>
-    <t>道具12</t>
+    <t>【勇气勋章】</t>
   </si>
   <si>
     <t>介绍12</t>
   </si>
   <si>
-    <t>效果12</t>
+    <t>生命值大于50%，攻击力提高20%；生命值低于50%，防御力提高20%</t>
   </si>
   <si>
     <t>dragon_knight_fireball</t>
   </si>
   <si>
+    <t>damage_add 20</t>
+  </si>
+  <si>
+    <t>defense_add 20</t>
+  </si>
+  <si>
     <t>prop_13</t>
   </si>
   <si>
-    <t>道具13</t>
+    <t>【魔力盈能】</t>
   </si>
   <si>
     <t>介绍13</t>
   </si>
   <si>
-    <t>效果13</t>
+    <t>每击杀一个单位，回复1点法力值。最大法力值减少25%</t>
+  </si>
+  <si>
+    <t>AddAttr</t>
+  </si>
+  <si>
+    <t>kill_mana 1</t>
+  </si>
+  <si>
+    <t>mana_max_pro 25</t>
   </si>
   <si>
     <t>prop_14</t>
   </si>
   <si>
-    <t>道具14</t>
+    <t>【圣剑】</t>
   </si>
   <si>
     <t>介绍14</t>
   </si>
   <si>
-    <t>效果14</t>
+    <t>攻击力+30%，但死亡掉落（移除物品）</t>
+  </si>
+  <si>
+    <t>damage 30</t>
   </si>
   <si>
     <t>prop_15</t>
   </si>
   <si>
-    <t>道具15</t>
+    <t>【走钢索】</t>
   </si>
   <si>
     <t>介绍15</t>
   </si>
   <si>
-    <t>效果15</t>
+    <t>血量越低伤害越高，最低临界值10%血量，提高伤害100%</t>
+  </si>
+  <si>
+    <t>health_damage_pro 1.1</t>
   </si>
   <si>
     <t>prop_16</t>
   </si>
   <si>
-    <t>道具16</t>
+    <t>【迈达斯之手】</t>
   </si>
   <si>
     <t>介绍16</t>
   </si>
   <si>
-    <t>效果16</t>
+    <t>自动拾取被自身击杀的怪物掉落的经验值（超稀有）</t>
   </si>
   <si>
     <t>prop_17</t>
   </si>
   <si>
-    <t>道具17</t>
+    <t>【刃甲】</t>
   </si>
   <si>
     <t>介绍17</t>
   </si>
   <si>
-    <t>效果17</t>
+    <t>反弹40%受到的伤害</t>
+  </si>
+  <si>
+    <t>value 40</t>
   </si>
   <si>
     <t>prop_18</t>
   </si>
   <si>
-    <t>道具18</t>
+    <t>【致命及砍到】</t>
   </si>
   <si>
     <t>介绍18</t>
   </si>
   <si>
-    <t>效果18</t>
+    <t>对生命值大于80%小于20%的单位造成的伤害提升15%</t>
+  </si>
+  <si>
+    <t>max 80</t>
+  </si>
+  <si>
+    <t>min 20</t>
+  </si>
+  <si>
+    <t>damage 15</t>
   </si>
   <si>
     <t>prop_19</t>
   </si>
   <si>
-    <t>道具19</t>
+    <t>【一麻袋】</t>
   </si>
   <si>
     <t>介绍19</t>
   </si>
   <si>
-    <t>效果19</t>
+    <t>提升拾取范围100码</t>
   </si>
   <si>
     <t>prop_20</t>
   </si>
   <si>
-    <t>道具20</t>
+    <t>【你的滑板孩】</t>
   </si>
   <si>
     <t>介绍20</t>
   </si>
   <si>
-    <t>效果20</t>
+    <t>常驻移动速度+25%，但在受到伤害后变为移动速度降低50%持续3秒</t>
+  </si>
+  <si>
+    <t>per_hp 10</t>
+  </si>
+  <si>
+    <t>bonus_ad 1</t>
+  </si>
+  <si>
+    <t>prop_21</t>
+  </si>
+  <si>
+    <t>【斯嘉蒂之眼】</t>
+  </si>
+  <si>
+    <t>介绍21</t>
+  </si>
+  <si>
+    <t>冰元素技能降低移速时，同时降低敌人30%攻击速度和20%元素抗性，持续3秒</t>
+  </si>
+  <si>
+    <t>red_attack_speed 30</t>
+  </si>
+  <si>
+    <t>bonus_jt 1</t>
+  </si>
+  <si>
+    <t>prop_22</t>
+  </si>
+  <si>
+    <t>【雷神之锤】</t>
+  </si>
+  <si>
+    <t>介绍22</t>
+  </si>
+  <si>
+    <t>雷元素技能命中敌人时，50%概率额外追加3秒麻痹效果（相同敌人只受到一次效果）</t>
+  </si>
+  <si>
+    <t>per_jt 1</t>
+  </si>
+  <si>
+    <t>prop_23</t>
+  </si>
+  <si>
+    <t>【风儿吹】</t>
+  </si>
+  <si>
+    <t>介绍23</t>
+  </si>
+  <si>
+    <t>风元素技能命中敌人时，被击退的敌人降低20%元素抗性并眩晕1秒</t>
+  </si>
+  <si>
+    <t>chance 6</t>
+  </si>
+  <si>
+    <t>duration 5</t>
+  </si>
+  <si>
+    <t>prop_24</t>
+  </si>
+  <si>
+    <t>【无极】</t>
+  </si>
+  <si>
+    <t>介绍24</t>
+  </si>
+  <si>
+    <t>敌人受到debuff效果时，受到的伤害加深15% 对有debuff的敌人多造成15%伤害。</t>
+  </si>
+  <si>
+    <t>cooldown 90</t>
+  </si>
+  <si>
+    <t>prop_25</t>
+  </si>
+  <si>
+    <t>【相位鞋】</t>
+  </si>
+  <si>
+    <t>介绍25</t>
+  </si>
+  <si>
+    <t>移动速度+5%，获得相位状态可穿越单位</t>
+  </si>
+  <si>
+    <t>damage 1</t>
+  </si>
+  <si>
+    <t>prop_26</t>
+  </si>
+  <si>
+    <t>【不朽之守护】</t>
+  </si>
+  <si>
+    <t>介绍26</t>
+  </si>
+  <si>
+    <t>阵亡时不消耗复活次数原地复活，一次性物品 复活次数+1</t>
+  </si>
+  <si>
+    <t>prop_27</t>
+  </si>
+  <si>
+    <t>【永世法衣】</t>
+  </si>
+  <si>
+    <t>介绍27</t>
+  </si>
+  <si>
+    <t>增加40%技能强度，受到伤害时回复5点法力值（超稀有）</t>
+  </si>
+  <si>
+    <t>prop_28</t>
+  </si>
+  <si>
+    <t>【血祭】</t>
+  </si>
+  <si>
+    <t>介绍28</t>
+  </si>
+  <si>
+    <t>不在消耗蓝量，任意技能消耗变为1%最大生命值，生命值临界值10%</t>
+  </si>
+  <si>
+    <t>prop_29</t>
+  </si>
+  <si>
+    <t>【指挥官头带】</t>
+  </si>
+  <si>
+    <t>介绍29</t>
+  </si>
+  <si>
+    <t>对精英及boss单位造成伤害提高25%</t>
+  </si>
+  <si>
+    <t>prop_30</t>
+  </si>
+  <si>
+    <t>【极速护符】</t>
+  </si>
+  <si>
+    <t>介绍30</t>
+  </si>
+  <si>
+    <t>原地不动时，技能极速+15%（可突破上限）</t>
+  </si>
+  <si>
+    <t>prop_31</t>
+  </si>
+  <si>
+    <t>【聪明人的帽子】</t>
+  </si>
+  <si>
+    <t>介绍31</t>
+  </si>
+  <si>
+    <t>最大蓝量+200，但最大生命值减少25%</t>
+  </si>
+  <si>
+    <t>prop_32</t>
+  </si>
+  <si>
+    <t>【秘法球】</t>
+  </si>
+  <si>
+    <t>介绍32</t>
+  </si>
+  <si>
+    <t>技能强度+10%，杀敌回蓝1</t>
+  </si>
+  <si>
+    <t>prop_33</t>
+  </si>
+  <si>
+    <t>【小短剑】</t>
+  </si>
+  <si>
+    <t>介绍33</t>
+  </si>
+  <si>
+    <t>攻击力+15%</t>
+  </si>
+  <si>
+    <t>prop_34</t>
+  </si>
+  <si>
+    <t>【元素亲和力】</t>
+  </si>
+  <si>
+    <t>介绍34</t>
+  </si>
+  <si>
+    <t>全元素伤害+10%</t>
+  </si>
+  <si>
+    <t>prop_35</t>
+  </si>
+  <si>
+    <t>【奥术指环】</t>
+  </si>
+  <si>
+    <t>介绍35</t>
+  </si>
+  <si>
+    <t>自身及友军每秒回蓝2点（效果可叠加）</t>
+  </si>
+  <si>
+    <t>prop_36</t>
+  </si>
+  <si>
+    <t>【大宗师】</t>
+  </si>
+  <si>
+    <t>介绍36</t>
+  </si>
+  <si>
+    <t>仙人之上一换一：自身阵亡时强制带走击杀你的单位（可带走小boss，不包括最终boss）（超稀有）</t>
+  </si>
+  <si>
+    <t>prop_37</t>
+  </si>
+  <si>
+    <t>【骑士团印章】</t>
+  </si>
+  <si>
+    <t>介绍37</t>
+  </si>
+  <si>
+    <t>生命恢复及吸血效果增强20%</t>
+  </si>
+  <si>
+    <t>prop_38</t>
+  </si>
+  <si>
+    <t>【缚灵索】</t>
+  </si>
+  <si>
+    <t>介绍38</t>
+  </si>
+  <si>
+    <t>攻击自身的敌人会被束缚1秒</t>
+  </si>
+  <si>
+    <t>prop_39</t>
+  </si>
+  <si>
+    <t>【迈达斯点金手】</t>
+  </si>
+  <si>
+    <t>介绍39</t>
+  </si>
+  <si>
+    <t>对单位造成伤害时有1%概率秒杀，并获取10倍灵魂</t>
+  </si>
+  <si>
+    <t>prop_40</t>
+  </si>
+  <si>
+    <t>【急不可耐】</t>
+  </si>
+  <si>
+    <t>介绍40</t>
+  </si>
+  <si>
+    <t>每秒钟获得1点灵魂（上限10）</t>
+  </si>
+  <si>
+    <t>prop_41</t>
+  </si>
+  <si>
+    <t>【神秘齿轮】</t>
+  </si>
+  <si>
+    <t>介绍41</t>
+  </si>
+  <si>
+    <t>每60秒转动一次，每次获得随机效果，持续10秒</t>
+  </si>
+  <si>
+    <t>prop_42</t>
+  </si>
+  <si>
+    <t>【神罚】</t>
+  </si>
+  <si>
+    <t>介绍42</t>
+  </si>
+  <si>
+    <t>每过10秒，从天而降一道雷，对自身及自身周围500码敌人造成无差别伤害，伤害系数为攻击力*1000%无视元素抗性的伤害
+但自身具有抗性，只会受到10%的伤害。（慎选）</t>
   </si>
 </sst>
 </file>
@@ -375,7 +772,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,13 +783,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -547,7 +950,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,12 +960,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5A5A5A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,7 +1156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -768,81 +1165,56 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF5A5A5A"/>
+      <left style="thick">
+        <color rgb="FF595959"/>
       </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
+      <right style="medium">
+        <color theme="0"/>
       </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
+      <top style="thick">
+        <color rgb="FF595959"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
+      <left style="medium">
+        <color theme="0"/>
       </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
+      <right style="medium">
+        <color theme="0"/>
       </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
+      <top style="thick">
+        <color rgb="FF595959"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
+      <left style="thick">
+        <color rgb="FF595959"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FFFFFFFF"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF5A5A5A"/>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF5A5A5A"/>
+      <left style="thick">
+        <color rgb="FF595959"/>
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
@@ -867,6 +1239,84 @@
       </top>
       <bottom style="thin">
         <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,154 +1423,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1128,22 +1584,61 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1198,7 +1693,152 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FF595959"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF595959"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF595959"/>
+        </top>
+        <bottom/>
+        <vertical style="medium">
+          <color theme="0"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FF5A5A5A"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF5A5A5A"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF5A5A5A"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF5A5A5A"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFEBEBEB"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFEBEBEB"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE6E6E6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thick">
+          <color rgb="FF5A5A5A"/>
+        </left>
+        <right style="thick">
+          <color rgb="FF5A5A5A"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5A5A5A"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5A5A5A"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF5A5A5A"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thick">
+          <color rgb="FF595959"/>
+        </left>
+        <right style="thick">
+          <color rgb="FF595959"/>
+        </right>
+        <top style="thick">
+          <color rgb="FF595959"/>
+        </top>
+        <bottom/>
+        <vertical style="medium">
+          <color theme="0"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thick">
+          <color rgb="FF595959"/>
+        </left>
+        <right style="thick">
+          <color rgb="FF595959"/>
+        </right>
+        <top style="thick">
+          <color rgb="FF595959"/>
+        </top>
+        <bottom style="thick">
+          <color rgb="FF595959"/>
+        </bottom>
+        <vertical style="medium">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{494A409A-D84D-4A03-ADDE-E6D67D9E473C}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C01C114A-552D-4C74-91E8-04493CA84C98}">
+      <tableStyleElement type="wholeTable" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1494,787 +2134,2088 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.5083333333333" customWidth="1"/>
-    <col min="2" max="6" width="13.3416666666667" customWidth="1"/>
-    <col min="7" max="7" width="23.675" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="41.375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="13.3416666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
     <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="14.625" customWidth="1"/>
-    <col min="10" max="10" width="23.5083333333333" customWidth="1"/>
-    <col min="11" max="11" width="34.8416666666667" customWidth="1"/>
+    <col min="10" max="12" width="34.8416666666667" customWidth="1"/>
+    <col min="13" max="13" width="17.175" customWidth="1"/>
+    <col min="14" max="14" width="36.8416666666667" customWidth="1"/>
+    <col min="15" max="16" width="30.175" customWidth="1"/>
+    <col min="17" max="17" width="8.34166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="39" customHeight="1" spans="1:17">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:17">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A3" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="M2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7">
-        <v>100</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="N2" s="19">
+        <v>1</v>
+      </c>
+      <c r="O2" s="19">
+        <v>2</v>
+      </c>
+      <c r="P2" s="19">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="62" customHeight="1" spans="1:17">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="8">
+        <v>288</v>
+      </c>
+      <c r="F3" s="8">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="7">
+        <v>28</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <f>(4-F3)*16</f>
+        <v>48</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="22"/>
+    </row>
+    <row r="4" ht="62" customHeight="1" spans="1:17">
+      <c r="A4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="10">
+        <v>488</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="10">
         <v>0</v>
       </c>
-      <c r="I3" s="7">
-        <v>100</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="7">
-        <v>100</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>100</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="I4" s="10">
+        <f t="shared" ref="I4:I44" si="0">(4-F4)*16</f>
         <v>32</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="7">
-        <v>100</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="J4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="21"/>
+    </row>
+    <row r="5" ht="62" customHeight="1" spans="1:17">
+      <c r="A5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="8">
+        <v>288</v>
+      </c>
+      <c r="F5" s="8">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>100</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="7">
-        <v>100</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>100</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="7">
-        <v>100</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="22"/>
+    </row>
+    <row r="6" ht="62" customHeight="1" spans="1:17">
+      <c r="A6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="10">
+        <v>488</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="21"/>
+    </row>
+    <row r="7" ht="62" customHeight="1" spans="1:17">
+      <c r="A7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="8">
+        <v>488</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>100</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="7">
-        <v>100</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>100</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="7">
-        <v>100</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="22"/>
+    </row>
+    <row r="8" ht="62" customHeight="1" spans="1:17">
+      <c r="A8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="10">
+        <v>488</v>
+      </c>
+      <c r="F8" s="10">
+        <v>2</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="21"/>
+    </row>
+    <row r="9" ht="62" customHeight="1" spans="1:17">
+      <c r="A9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="8">
+        <v>488</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>100</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="L9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="P9" s="8"/>
+      <c r="Q9" s="22"/>
+    </row>
+    <row r="10" ht="62" customHeight="1" spans="1:17">
+      <c r="A10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="10">
+        <v>488</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="21"/>
+    </row>
+    <row r="11" ht="62" customHeight="1" spans="1:17">
+      <c r="A11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="8">
+        <v>488</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="22"/>
+    </row>
+    <row r="12" ht="62" customHeight="1" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="10">
+        <v>288</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="21"/>
+    </row>
+    <row r="13" ht="62" customHeight="1" spans="1:17">
+      <c r="A13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="8">
+        <v>288</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="22"/>
+    </row>
+    <row r="14" customFormat="1" ht="62" customHeight="1" spans="1:17">
+      <c r="A14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="C14" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="10">
+        <v>488</v>
+      </c>
+      <c r="F14" s="10">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="21"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="62" customHeight="1" spans="1:17">
+      <c r="A15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="8">
+        <v>288</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="22"/>
+    </row>
+    <row r="16" ht="62" customHeight="1" spans="1:17">
+      <c r="A16" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="10">
+        <v>488</v>
+      </c>
+      <c r="F16" s="10">
+        <v>2</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="10">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>100</v>
-      </c>
-      <c r="J10" s="8">
+      <c r="I16" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="21"/>
+    </row>
+    <row r="17" ht="62" customHeight="1" spans="1:17">
+      <c r="A17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="8">
+        <v>288</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="22"/>
+    </row>
+    <row r="18" ht="62" customHeight="1" spans="1:17">
+      <c r="A18" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="10">
+        <v>888</v>
+      </c>
+      <c r="F18" s="10">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="21"/>
+    </row>
+    <row r="19" ht="62" customHeight="1" spans="1:17">
+      <c r="A19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="8">
+        <v>288</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="22"/>
+    </row>
+    <row r="20" ht="62" customHeight="1" spans="1:17">
+      <c r="A20" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="10">
+        <v>488</v>
+      </c>
+      <c r="F20" s="10">
+        <v>2</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="21"/>
+    </row>
+    <row r="21" ht="62" customHeight="1" spans="1:17">
+      <c r="A21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="8">
+        <v>288</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="8">
         <v>0</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="I21" s="8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="22"/>
+    </row>
+    <row r="22" ht="62" customHeight="1" spans="1:17">
+      <c r="A22" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="10">
+        <v>388</v>
+      </c>
+      <c r="F22" s="10">
+        <v>2</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="21"/>
+    </row>
+    <row r="23" ht="62" customHeight="1" spans="1:17">
+      <c r="A23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="11">
+        <v>288</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="11">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="22"/>
+    </row>
+    <row r="24" ht="62" customHeight="1" spans="1:17">
+      <c r="A24" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="13">
+        <v>288</v>
+      </c>
+      <c r="F24" s="13">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="13">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="21"/>
+    </row>
+    <row r="25" ht="62" customHeight="1" spans="1:17">
+      <c r="A25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="11">
+        <v>288</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="11">
+        <v>1</v>
+      </c>
+      <c r="I25" s="8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="22"/>
+    </row>
+    <row r="26" ht="62" customHeight="1" spans="1:17">
+      <c r="A26" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" s="13">
+        <v>488</v>
+      </c>
+      <c r="F26" s="13">
+        <v>2</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="13">
+        <v>1</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="21"/>
+    </row>
+    <row r="27" ht="62" customHeight="1" spans="1:17">
+      <c r="A27" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="11">
+        <v>188</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="11">
+        <v>1</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="7">
-        <v>100</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="K27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="22"/>
+    </row>
+    <row r="28" ht="62" customHeight="1" spans="1:17">
+      <c r="A28" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" s="13">
+        <v>388</v>
+      </c>
+      <c r="F28" s="13">
+        <v>2</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="13">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>100</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="I28" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="21"/>
+    </row>
+    <row r="29" ht="62" customHeight="1" spans="1:17">
+      <c r="A29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" s="11">
+        <v>888</v>
+      </c>
+      <c r="F29" s="11">
+        <v>3</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="22"/>
+    </row>
+    <row r="30" ht="62" customHeight="1" spans="1:17">
+      <c r="A30" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="13">
+        <v>488</v>
+      </c>
+      <c r="F30" s="13">
+        <v>2</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="13">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="21"/>
+    </row>
+    <row r="31" ht="62" customHeight="1" spans="1:17">
+      <c r="A31" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="11">
+        <v>288</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1</v>
+      </c>
+      <c r="I31" s="8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="22"/>
+    </row>
+    <row r="32" ht="62" customHeight="1" spans="1:17">
+      <c r="A32" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" s="13">
+        <v>288</v>
+      </c>
+      <c r="F32" s="13">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="13">
+        <v>1</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="21"/>
+    </row>
+    <row r="33" ht="62" customHeight="1" spans="1:17">
+      <c r="A33" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="11">
+        <v>288</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="11">
+        <v>1</v>
+      </c>
+      <c r="I33" s="8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="22"/>
+    </row>
+    <row r="34" ht="62" customHeight="1" spans="1:17">
+      <c r="A34" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34" s="13">
+        <v>388</v>
+      </c>
+      <c r="F34" s="13">
+        <v>2</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="13">
         <v>0</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="I34" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="21"/>
+    </row>
+    <row r="35" ht="62" customHeight="1" spans="1:17">
+      <c r="A35" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" s="11">
+        <v>388</v>
+      </c>
+      <c r="F35" s="11">
+        <v>2</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="22"/>
+    </row>
+    <row r="36" ht="62" customHeight="1" spans="1:17">
+      <c r="A36" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="13">
+        <v>388</v>
+      </c>
+      <c r="F36" s="13">
+        <v>2</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="21"/>
+    </row>
+    <row r="37" ht="62" customHeight="1" spans="1:17">
+      <c r="A37" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" s="11">
+        <v>288</v>
+      </c>
+      <c r="F37" s="11">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="11">
+        <v>1</v>
+      </c>
+      <c r="I37" s="8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="22"/>
+    </row>
+    <row r="38" ht="62" customHeight="1" spans="1:17">
+      <c r="A38" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" s="13">
+        <v>888</v>
+      </c>
+      <c r="F38" s="13">
+        <v>3</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="13">
+        <v>1</v>
+      </c>
+      <c r="I38" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="21"/>
+    </row>
+    <row r="39" ht="62" customHeight="1" spans="1:17">
+      <c r="A39" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" s="11">
+        <v>388</v>
+      </c>
+      <c r="F39" s="11">
+        <v>2</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="11">
+        <v>1</v>
+      </c>
+      <c r="I39" s="8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="22"/>
+    </row>
+    <row r="40" ht="62" customHeight="1" spans="1:17">
+      <c r="A40" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40" s="13">
+        <v>488</v>
+      </c>
+      <c r="F40" s="13">
+        <v>2</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="13">
+        <v>1</v>
+      </c>
+      <c r="I40" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J40" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="7">
-        <v>100</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="K40" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="21"/>
+    </row>
+    <row r="41" ht="62" customHeight="1" spans="1:17">
+      <c r="A41" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E41" s="11">
+        <v>488</v>
+      </c>
+      <c r="F41" s="11">
+        <v>2</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="11">
+        <v>1</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="22"/>
+    </row>
+    <row r="42" ht="62" customHeight="1" spans="1:17">
+      <c r="A42" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="E42" s="13">
+        <v>288</v>
+      </c>
+      <c r="F42" s="13">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="13">
         <v>0</v>
       </c>
-      <c r="I12" s="7">
-        <v>100</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="I42" s="10">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="21"/>
+    </row>
+    <row r="43" ht="62" customHeight="1" spans="1:17">
+      <c r="A43" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" s="11">
+        <v>488</v>
+      </c>
+      <c r="F43" s="11">
+        <v>2</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="11">
+        <v>1</v>
+      </c>
+      <c r="I43" s="8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J43" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="7">
-        <v>100</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>100</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="7">
-        <v>100</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>100</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="K43" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="22"/>
+    </row>
+    <row r="44" ht="62" customHeight="1" spans="1:17">
+      <c r="A44" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E44" s="16">
+        <v>888</v>
+      </c>
+      <c r="F44" s="16">
+        <v>3</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="16">
+        <v>1</v>
+      </c>
+      <c r="I44" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J44" s="17" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="7">
-        <v>100</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>100</v>
-      </c>
-      <c r="J15" s="7">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="7">
-        <v>100</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>100</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A17" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="7">
-        <v>100</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>100</v>
-      </c>
-      <c r="J17" s="7">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A18" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="7">
-        <v>100</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="8">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>100</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A19" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="7">
-        <v>100</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>100</v>
-      </c>
-      <c r="J19" s="7">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A20" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="7">
-        <v>100</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>100</v>
-      </c>
-      <c r="J20" s="8">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A21" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="7">
-        <v>100</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7">
-        <v>100</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A22" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="7">
-        <v>100</v>
-      </c>
-      <c r="F22" s="7">
-        <v>1</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>100</v>
-      </c>
-      <c r="J22" s="8">
-        <v>0</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
+      <c r="K44" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="23"/>
+    </row>
+    <row r="45" ht="14.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="248">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -56,12 +56,21 @@
     <t>出现概率</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>图标</t>
   </si>
   <si>
     <t>执行方法</t>
   </si>
   <si>
+    <t>添加的buff名字</t>
+  </si>
+  <si>
+    <t>驱动方式</t>
+  </si>
+  <si>
     <t>普通技能值</t>
   </si>
   <si>
@@ -95,6 +104,9 @@
     <t>BuffName</t>
   </si>
   <si>
+    <t>Drive</t>
+  </si>
+  <si>
     <t>AbilityValues[{]</t>
   </si>
   <si>
@@ -116,12 +128,18 @@
     <t>null</t>
   </si>
   <si>
+    <t>和常客优惠II加算</t>
+  </si>
+  <si>
     <t>brewmaster_primal_companion_fire</t>
   </si>
   <si>
     <t>LowerConsume</t>
   </si>
   <si>
+    <t>Script</t>
+  </si>
+  <si>
     <t>value 25</t>
   </si>
   <si>
@@ -194,7 +212,7 @@
     <t>AddElement</t>
   </si>
   <si>
-    <t>name fire</t>
+    <t>element_number 1</t>
   </si>
   <si>
     <t>count 1</t>
@@ -215,7 +233,7 @@
     <t>centaur_return</t>
   </si>
   <si>
-    <t>name thunder</t>
+    <t>element_number 3</t>
   </si>
   <si>
     <t>prop_6</t>
@@ -233,7 +251,7 @@
     <t>chaos_knight_chaos_strike</t>
   </si>
   <si>
-    <t>name water</t>
+    <t>element_number 2</t>
   </si>
   <si>
     <t>prop_7</t>
@@ -251,7 +269,7 @@
     <t>chaos_knight_reality_rift</t>
   </si>
   <si>
-    <t>name wind</t>
+    <t>element_number 4</t>
   </si>
   <si>
     <t>prop_8</t>
@@ -362,10 +380,7 @@
     <t>AddAttr</t>
   </si>
   <si>
-    <t>kill_mana 1</t>
-  </si>
-  <si>
-    <t>mana_max_pro 25</t>
+    <t>HealthPoints|Base 1</t>
   </si>
   <si>
     <t>prop_14</t>
@@ -380,9 +395,6 @@
     <t>攻击力+30%，但死亡掉落（移除物品）</t>
   </si>
   <si>
-    <t>damage 30</t>
-  </si>
-  <si>
     <t>prop_15</t>
   </si>
   <si>
@@ -554,9 +566,6 @@
     <t>移动速度+5%，获得相位状态可穿越单位</t>
   </si>
   <si>
-    <t>damage 1</t>
-  </si>
-  <si>
     <t>prop_26</t>
   </si>
   <si>
@@ -567,6 +576,9 @@
   </si>
   <si>
     <t>阵亡时不消耗复活次数原地复活，一次性物品 复活次数+1</t>
+  </si>
+  <si>
+    <t>AddPlayerLife</t>
   </si>
   <si>
     <t>prop_27</t>
@@ -950,12 +962,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1444,7 +1480,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1468,16 +1504,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1486,25 +1522,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1567,21 +1591,45 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1596,16 +1644,40 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1614,6 +1686,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1629,13 +1731,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1829,11 +1946,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{494A409A-D84D-4A03-ADDE-E6D67D9E473C}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{CFF84E2A-55F9-4862-A709-A3103C4DFA93}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C01C114A-552D-4C74-91E8-04493CA84C98}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4DF9270B-B4FF-4553-8EEB-CF50A934A5CC}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2134,12 +2251,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N8" sqref="N8"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2147,2075 +2264,2259 @@
     <col min="1" max="1" width="21.5083333333333" customWidth="1"/>
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="41.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.375" style="6" customWidth="1"/>
     <col min="5" max="6" width="13.3416666666667" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
     <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="14.625" customWidth="1"/>
-    <col min="10" max="12" width="34.8416666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.175" customWidth="1"/>
-    <col min="14" max="14" width="36.8416666666667" customWidth="1"/>
-    <col min="15" max="16" width="30.175" customWidth="1"/>
-    <col min="17" max="17" width="8.34166666666667" customWidth="1"/>
+    <col min="9" max="10" width="14.625" customWidth="1"/>
+    <col min="11" max="12" width="34.8416666666667" customWidth="1"/>
+    <col min="13" max="14" width="24.625" customWidth="1"/>
+    <col min="15" max="15" width="12.375" customWidth="1"/>
+    <col min="16" max="16" width="36.8416666666667" customWidth="1"/>
+    <col min="17" max="18" width="30.175" customWidth="1"/>
+    <col min="19" max="19" width="8.34166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:17">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="39" customHeight="1" spans="1:19">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="20" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="42" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:17">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="6" t="s">
+    <row r="2" ht="22.5" customHeight="1" spans="1:19">
+      <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="H2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="I2" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="M2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="19">
-        <v>1</v>
-      </c>
-      <c r="O2" s="19">
+        <v>24</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="41">
         <v>2</v>
       </c>
-      <c r="P2" s="19">
+      <c r="R2" s="41">
         <v>3</v>
       </c>
-      <c r="Q2" s="21" t="s">
-        <v>23</v>
+      <c r="S2" s="43" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" ht="62" customHeight="1" spans="1:17">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="8">
+    <row r="3" s="1" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="12">
         <v>288</v>
       </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12">
         <f>(4-F3)*16</f>
         <v>48</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="22"/>
+      <c r="J3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="44"/>
     </row>
-    <row r="4" ht="62" customHeight="1" spans="1:17">
-      <c r="A4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="10">
+    <row r="4" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="14">
         <v>488</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="14">
         <v>2</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="G4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="14">
         <v>0</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="14">
         <f t="shared" ref="I4:I44" si="0">(4-F4)*16</f>
         <v>32</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="21"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="45"/>
     </row>
-    <row r="5" ht="62" customHeight="1" spans="1:17">
-      <c r="A5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="8">
+    <row r="5" ht="62" customHeight="1" spans="1:19">
+      <c r="A5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="16">
         <v>288</v>
       </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
+      <c r="I5" s="16">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="S5" s="46"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="14">
+        <v>488</v>
+      </c>
+      <c r="F6" s="14">
+        <v>2</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="14"/>
+      <c r="S6" s="45"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="12">
+        <v>488</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="44"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="14">
+        <v>488</v>
+      </c>
+      <c r="F8" s="14">
+        <v>2</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" s="14"/>
+      <c r="S8" s="45"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="12">
+        <v>488</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" s="12"/>
+      <c r="S9" s="44"/>
+    </row>
+    <row r="10" ht="62" customHeight="1" spans="1:19">
+      <c r="A10" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="18">
+        <v>488</v>
+      </c>
+      <c r="F10" s="18">
+        <v>2</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="22"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="43"/>
     </row>
-    <row r="6" ht="62" customHeight="1" spans="1:17">
-      <c r="A6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="10">
+    <row r="11" s="1" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="12">
         <v>488</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F11" s="12">
         <v>2</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="G11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="21"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="44"/>
     </row>
-    <row r="7" ht="62" customHeight="1" spans="1:17">
-      <c r="A7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="8">
-        <v>488</v>
-      </c>
-      <c r="F7" s="8">
-        <v>2</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="22"/>
-    </row>
-    <row r="8" ht="62" customHeight="1" spans="1:17">
-      <c r="A8" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="10">
-        <v>488</v>
-      </c>
-      <c r="F8" s="10">
-        <v>2</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="21"/>
-    </row>
-    <row r="9" ht="62" customHeight="1" spans="1:17">
-      <c r="A9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="8">
-        <v>488</v>
-      </c>
-      <c r="F9" s="8">
-        <v>2</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="22"/>
-    </row>
-    <row r="10" ht="62" customHeight="1" spans="1:17">
-      <c r="A10" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="10">
-        <v>488</v>
-      </c>
-      <c r="F10" s="10">
-        <v>2</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="10">
+    <row r="12" ht="62" customHeight="1" spans="1:19">
+      <c r="A12" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="18">
+        <v>288</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="18">
         <v>0</v>
       </c>
-      <c r="I10" s="10">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="21"/>
-    </row>
-    <row r="11" ht="62" customHeight="1" spans="1:17">
-      <c r="A11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="8">
-        <v>488</v>
-      </c>
-      <c r="F11" s="8">
-        <v>2</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="22"/>
-    </row>
-    <row r="12" ht="62" customHeight="1" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="10">
-        <v>288</v>
-      </c>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="I12" s="18">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="21"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12" s="18"/>
+      <c r="S12" s="43"/>
     </row>
-    <row r="13" ht="62" customHeight="1" spans="1:17">
-      <c r="A13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="8">
+    <row r="13" ht="62" customHeight="1" spans="1:19">
+      <c r="A13" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="16">
         <v>288</v>
       </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="8">
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="16">
         <v>0</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="16">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8" t="s">
+      <c r="J13" s="16"/>
+      <c r="K13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q13" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="O13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="22"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="46"/>
     </row>
-    <row r="14" customFormat="1" ht="62" customHeight="1" spans="1:17">
-      <c r="A14" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="10">
+    <row r="14" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A14" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="18">
         <v>488</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="18">
         <v>2</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10">
+      <c r="G14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
+      <c r="I14" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="21"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="R14" s="18"/>
+      <c r="S14" s="43"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="62" customHeight="1" spans="1:17">
-      <c r="A15" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="8">
+    <row r="15" s="3" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A15" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="20">
         <v>288</v>
       </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8">
+      <c r="F15" s="20">
+        <v>1</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="20">
+        <v>1</v>
+      </c>
+      <c r="I15" s="20">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="22"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="47"/>
     </row>
-    <row r="16" ht="62" customHeight="1" spans="1:17">
-      <c r="A16" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="10" t="s">
+    <row r="16" s="4" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A16" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="22">
+        <v>488</v>
+      </c>
+      <c r="F16" s="22">
+        <v>2</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="22">
+        <v>0</v>
+      </c>
+      <c r="I16" s="22">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="10">
-        <v>488</v>
-      </c>
-      <c r="F16" s="10">
-        <v>2</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="J16" s="10" t="s">
+      <c r="M16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10" t="s">
+      <c r="O16" s="22"/>
+      <c r="P16" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="21"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="48"/>
     </row>
-    <row r="17" ht="62" customHeight="1" spans="1:17">
-      <c r="A17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="8">
+    <row r="17" ht="62" customHeight="1" spans="1:19">
+      <c r="A17" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="16">
         <v>288</v>
       </c>
-      <c r="F17" s="8">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8">
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="16">
+        <v>1</v>
+      </c>
+      <c r="I17" s="16">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="22"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="46"/>
     </row>
-    <row r="18" ht="62" customHeight="1" spans="1:17">
-      <c r="A18" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="10">
+    <row r="18" ht="62" customHeight="1" spans="1:19">
+      <c r="A18" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="18">
         <v>888</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="18">
         <v>3</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1</v>
-      </c>
-      <c r="I18" s="10">
+      <c r="G18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="21"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="43"/>
     </row>
-    <row r="19" ht="62" customHeight="1" spans="1:17">
-      <c r="A19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="8">
+    <row r="19" ht="62" customHeight="1" spans="1:19">
+      <c r="A19" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="16">
         <v>288</v>
       </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="8">
-        <v>1</v>
-      </c>
-      <c r="I19" s="8">
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="16">
+        <v>1</v>
+      </c>
+      <c r="I19" s="16">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="22"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="46"/>
     </row>
-    <row r="20" ht="62" customHeight="1" spans="1:17">
-      <c r="A20" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="10">
+    <row r="20" ht="62" customHeight="1" spans="1:19">
+      <c r="A20" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="18">
         <v>488</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="18">
         <v>2</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="10">
-        <v>1</v>
-      </c>
-      <c r="I20" s="10">
+      <c r="G20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1</v>
+      </c>
+      <c r="I20" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q20" s="21"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="R20" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="S20" s="43"/>
     </row>
-    <row r="21" ht="62" customHeight="1" spans="1:17">
-      <c r="A21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="8">
+    <row r="21" s="5" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A21" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="20">
         <v>288</v>
       </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="8">
+      <c r="F21" s="20">
+        <v>1</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="20">
         <v>0</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="20">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="22"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="47"/>
     </row>
-    <row r="22" ht="62" customHeight="1" spans="1:17">
-      <c r="A22" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="10">
+    <row r="22" ht="62" customHeight="1" spans="1:19">
+      <c r="A22" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="18">
         <v>388</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="18">
         <v>2</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="10">
-        <v>1</v>
-      </c>
-      <c r="I22" s="10">
+      <c r="G22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="18">
+        <v>1</v>
+      </c>
+      <c r="I22" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="21"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q22" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="R22" s="18"/>
+      <c r="S22" s="43"/>
     </row>
-    <row r="23" ht="62" customHeight="1" spans="1:17">
-      <c r="A23" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" s="11">
+    <row r="23" ht="62" customHeight="1" spans="1:19">
+      <c r="A23" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="23">
         <v>288</v>
       </c>
-      <c r="F23" s="11">
-        <v>1</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="11">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8">
+      <c r="F23" s="23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="16">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="22"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="R23" s="16"/>
+      <c r="S23" s="46"/>
     </row>
-    <row r="24" ht="62" customHeight="1" spans="1:17">
-      <c r="A24" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="E24" s="13">
+    <row r="24" ht="62" customHeight="1" spans="1:19">
+      <c r="A24" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="25">
         <v>288</v>
       </c>
-      <c r="F24" s="13">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="13">
-        <v>1</v>
-      </c>
-      <c r="I24" s="10">
+      <c r="F24" s="25">
+        <v>1</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="25">
+        <v>1</v>
+      </c>
+      <c r="I24" s="18">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="18"/>
+      <c r="K24" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="21"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q24" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="R24" s="18"/>
+      <c r="S24" s="43"/>
     </row>
-    <row r="25" ht="62" customHeight="1" spans="1:17">
-      <c r="A25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E25" s="11">
+    <row r="25" ht="62" customHeight="1" spans="1:19">
+      <c r="A25" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="23">
         <v>288</v>
       </c>
-      <c r="F25" s="11">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="11">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8">
+      <c r="F25" s="23">
+        <v>1</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="23">
+        <v>1</v>
+      </c>
+      <c r="I25" s="16">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="22"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="R25" s="16"/>
+      <c r="S25" s="46"/>
     </row>
-    <row r="26" ht="62" customHeight="1" spans="1:17">
-      <c r="A26" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D26" s="14" t="s">
+    <row r="26" ht="62" customHeight="1" spans="1:19">
+      <c r="A26" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="25">
+        <v>488</v>
+      </c>
+      <c r="F26" s="25">
+        <v>2</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="25">
+        <v>1</v>
+      </c>
+      <c r="I26" s="18">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E26" s="13">
-        <v>488</v>
-      </c>
-      <c r="F26" s="13">
-        <v>2</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="13">
-        <v>1</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="21"/>
+      <c r="Q26" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="R26" s="18"/>
+      <c r="S26" s="43"/>
     </row>
-    <row r="27" ht="62" customHeight="1" spans="1:17">
-      <c r="A27" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" s="11">
+    <row r="27" ht="62" customHeight="1" spans="1:19">
+      <c r="A27" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="23">
         <v>188</v>
       </c>
-      <c r="F27" s="11">
-        <v>1</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="11">
-        <v>1</v>
-      </c>
-      <c r="I27" s="8">
+      <c r="F27" s="23">
+        <v>1</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="23">
+        <v>1</v>
+      </c>
+      <c r="I27" s="16">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="22"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="46"/>
     </row>
-    <row r="28" ht="62" customHeight="1" spans="1:17">
-      <c r="A28" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" s="14" t="s">
+    <row r="28" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A28" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="E28" s="13">
+      <c r="B28" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="27">
         <v>388</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="27">
         <v>2</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="13">
+      <c r="G28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="27">
         <v>0</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="14">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="21"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="45"/>
     </row>
-    <row r="29" ht="62" customHeight="1" spans="1:17">
-      <c r="A29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E29" s="11">
+    <row r="29" ht="62" customHeight="1" spans="1:19">
+      <c r="A29" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="23">
         <v>888</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="23">
         <v>3</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="11">
-        <v>1</v>
-      </c>
-      <c r="I29" s="8">
+      <c r="G29" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="23">
+        <v>1</v>
+      </c>
+      <c r="I29" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J29" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="22"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="46"/>
     </row>
-    <row r="30" ht="62" customHeight="1" spans="1:17">
-      <c r="A30" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E30" s="13">
+    <row r="30" ht="62" customHeight="1" spans="1:19">
+      <c r="A30" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" s="25">
         <v>488</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="25">
         <v>2</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="13">
-        <v>1</v>
-      </c>
-      <c r="I30" s="10">
+      <c r="G30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="25">
+        <v>1</v>
+      </c>
+      <c r="I30" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J30" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="21"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" s="18"/>
+      <c r="P30" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="43"/>
     </row>
-    <row r="31" ht="62" customHeight="1" spans="1:17">
-      <c r="A31" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" s="11">
+    <row r="31" s="5" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A31" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="29">
         <v>288</v>
       </c>
-      <c r="F31" s="11">
-        <v>1</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="11">
-        <v>1</v>
-      </c>
-      <c r="I31" s="8">
+      <c r="F31" s="29">
+        <v>1</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="29">
+        <v>1</v>
+      </c>
+      <c r="I31" s="20">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J31" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="22"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="47"/>
     </row>
-    <row r="32" ht="62" customHeight="1" spans="1:17">
-      <c r="A32" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="E32" s="13">
+    <row r="32" ht="62" customHeight="1" spans="1:19">
+      <c r="A32" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="E32" s="25">
         <v>288</v>
       </c>
-      <c r="F32" s="13">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="13">
-        <v>1</v>
-      </c>
-      <c r="I32" s="10">
+      <c r="F32" s="25">
+        <v>1</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="25">
+        <v>1</v>
+      </c>
+      <c r="I32" s="18">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J32" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="21"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" s="18"/>
+      <c r="P32" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="43"/>
     </row>
-    <row r="33" ht="62" customHeight="1" spans="1:17">
-      <c r="A33" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E33" s="11">
+    <row r="33" s="5" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A33" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" s="29">
         <v>288</v>
       </c>
-      <c r="F33" s="11">
-        <v>1</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="11">
-        <v>1</v>
-      </c>
-      <c r="I33" s="8">
+      <c r="F33" s="29">
+        <v>1</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="29">
+        <v>1</v>
+      </c>
+      <c r="I33" s="20">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J33" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="22"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M33" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="47"/>
     </row>
-    <row r="34" ht="62" customHeight="1" spans="1:17">
-      <c r="A34" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="E34" s="13">
+    <row r="34" s="4" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A34" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34" s="31">
         <v>388</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="31">
         <v>2</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="13">
+      <c r="G34" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="31">
         <v>0</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="22">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J34" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="21"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="L34" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N34" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" s="22"/>
+      <c r="P34" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="48"/>
     </row>
-    <row r="35" ht="62" customHeight="1" spans="1:17">
-      <c r="A35" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E35" s="11">
+    <row r="35" s="5" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A35" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="29">
         <v>388</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="29">
         <v>2</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="11">
+      <c r="G35" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="29">
         <v>0</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="20">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J35" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="22"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M35" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="47"/>
     </row>
-    <row r="36" ht="62" customHeight="1" spans="1:17">
-      <c r="A36" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E36" s="13">
+    <row r="36" s="5" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A36" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="E36" s="34">
         <v>388</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="34">
         <v>2</v>
       </c>
-      <c r="G36" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="13">
+      <c r="G36" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="34">
         <v>0</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="35">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="35"/>
+      <c r="K36" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="M36" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="K36" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="21"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="49"/>
     </row>
-    <row r="37" ht="62" customHeight="1" spans="1:17">
-      <c r="A37" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="E37" s="11">
+    <row r="37" ht="62" customHeight="1" spans="1:19">
+      <c r="A37" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="23">
         <v>288</v>
       </c>
-      <c r="F37" s="11">
-        <v>1</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="11">
-        <v>1</v>
-      </c>
-      <c r="I37" s="8">
+      <c r="F37" s="23">
+        <v>1</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="23">
+        <v>1</v>
+      </c>
+      <c r="I37" s="16">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J37" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="22"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M37" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="46"/>
     </row>
-    <row r="38" ht="62" customHeight="1" spans="1:17">
-      <c r="A38" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="E38" s="13">
+    <row r="38" ht="62" customHeight="1" spans="1:19">
+      <c r="A38" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="E38" s="25">
         <v>888</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="25">
         <v>3</v>
       </c>
-      <c r="G38" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" s="13">
-        <v>1</v>
-      </c>
-      <c r="I38" s="10">
+      <c r="G38" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="25">
+        <v>1</v>
+      </c>
+      <c r="I38" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="21"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O38" s="18"/>
+      <c r="P38" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="43"/>
     </row>
-    <row r="39" ht="62" customHeight="1" spans="1:17">
-      <c r="A39" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="E39" s="11">
+    <row r="39" s="5" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A39" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="29">
         <v>388</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="29">
         <v>2</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="11">
-        <v>1</v>
-      </c>
-      <c r="I39" s="8">
+      <c r="G39" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="29">
+        <v>1</v>
+      </c>
+      <c r="I39" s="20">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J39" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="22"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M39" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="47"/>
     </row>
-    <row r="40" ht="62" customHeight="1" spans="1:17">
-      <c r="A40" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="E40" s="13">
+    <row r="40" ht="62" customHeight="1" spans="1:19">
+      <c r="A40" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="E40" s="25">
         <v>488</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="25">
         <v>2</v>
       </c>
-      <c r="G40" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="13">
-        <v>1</v>
-      </c>
-      <c r="I40" s="10">
+      <c r="G40" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="25">
+        <v>1</v>
+      </c>
+      <c r="I40" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="21"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L40" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M40" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O40" s="18"/>
+      <c r="P40" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="43"/>
     </row>
-    <row r="41" ht="62" customHeight="1" spans="1:17">
-      <c r="A41" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E41" s="11">
+    <row r="41" ht="62" customHeight="1" spans="1:19">
+      <c r="A41" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="23">
         <v>488</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="23">
         <v>2</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" s="11">
-        <v>1</v>
-      </c>
-      <c r="I41" s="8">
+      <c r="G41" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="23">
+        <v>1</v>
+      </c>
+      <c r="I41" s="16">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J41" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="22"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M41" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N41" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="46"/>
     </row>
-    <row r="42" ht="62" customHeight="1" spans="1:17">
-      <c r="A42" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="E42" s="13">
+    <row r="42" ht="62" customHeight="1" spans="1:19">
+      <c r="A42" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E42" s="25">
         <v>288</v>
       </c>
-      <c r="F42" s="13">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" s="13">
+      <c r="F42" s="25">
+        <v>1</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="25">
         <v>0</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="18">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="18"/>
+      <c r="K42" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L42" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M42" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N42" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O42" s="18"/>
+      <c r="P42" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="43"/>
+    </row>
+    <row r="43" ht="62" customHeight="1" spans="1:19">
+      <c r="A43" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="E43" s="23">
+        <v>488</v>
+      </c>
+      <c r="F43" s="23">
+        <v>2</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="23">
+        <v>1</v>
+      </c>
+      <c r="I43" s="16">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="K42" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="21"/>
+      <c r="L43" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M43" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N43" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="46"/>
     </row>
-    <row r="43" ht="62" customHeight="1" spans="1:17">
-      <c r="A43" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="E43" s="11">
-        <v>488</v>
-      </c>
-      <c r="F43" s="11">
-        <v>2</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" s="11">
-        <v>1</v>
-      </c>
-      <c r="I43" s="8">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="22"/>
-    </row>
-    <row r="44" ht="62" customHeight="1" spans="1:17">
-      <c r="A44" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="E44" s="16">
+    <row r="44" ht="62" customHeight="1" spans="1:19">
+      <c r="A44" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="E44" s="38">
         <v>888</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="38">
         <v>3</v>
       </c>
-      <c r="G44" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="16">
-        <v>1</v>
-      </c>
-      <c r="I44" s="17">
+      <c r="G44" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="38">
+        <v>1</v>
+      </c>
+      <c r="I44" s="39">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J44" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="K44" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="L44" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="23"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="L44" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="M44" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="N44" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O44" s="39"/>
+      <c r="P44" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="50"/>
     </row>
-    <row r="45" ht="14.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="249">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -687,6 +687,9 @@
   </si>
   <si>
     <t>自身及友军每秒回蓝2点（效果可叠加）</t>
+  </si>
+  <si>
+    <t>AddBuffOfAll</t>
   </si>
   <si>
     <t>prop_36</t>
@@ -962,7 +965,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -972,18 +975,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1480,7 +1471,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1504,16 +1495,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1522,89 +1513,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1612,24 +1603,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1638,6 +1620,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1650,34 +1656,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1686,36 +1668,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1731,28 +1701,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1946,11 +1913,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{CFF84E2A-55F9-4862-A709-A3103C4DFA93}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C6BA05F9-9CE8-4F97-82F0-C7EAFFDF0B78}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4DF9270B-B4FF-4553-8EEB-CF50A934A5CC}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0480E61B-00EC-4575-83C2-1872F779E839}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2251,12 +2218,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2264,7 +2231,7 @@
     <col min="1" max="1" width="21.5083333333333" customWidth="1"/>
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="41.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="41.375" style="3" customWidth="1"/>
     <col min="5" max="6" width="13.3416666666667" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
     <col min="8" max="8" width="16.625" customWidth="1"/>
@@ -2278,2245 +2245,2246 @@
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:19">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="42" t="s">
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:19">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="41">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="41">
+      <c r="P2" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="34">
         <v>2</v>
       </c>
-      <c r="R2" s="41">
+      <c r="R2" s="34">
         <v>3</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="36" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <v>288</v>
       </c>
-      <c r="F3" s="12">
-        <v>1</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="12">
-        <v>1</v>
-      </c>
-      <c r="I3" s="12">
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
         <f>(4-F3)*16</f>
         <v>48</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="12" t="s">
+      <c r="M3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12" t="s">
+      <c r="O3" s="9"/>
+      <c r="P3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="44"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="37"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A4" s="13" t="s">
+    <row r="4" s="1" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>488</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>2</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="14">
+      <c r="G4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="11">
         <v>0</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="11">
         <f t="shared" ref="I4:I44" si="0">(4-F4)*16</f>
         <v>32</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="11"/>
+      <c r="K4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="12" t="s">
+      <c r="M4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14" t="s">
+      <c r="O4" s="11"/>
+      <c r="P4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="45"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="38"/>
     </row>
     <row r="5" ht="62" customHeight="1" spans="1:19">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="13">
         <v>288</v>
       </c>
-      <c r="F5" s="16">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="16">
-        <v>1</v>
-      </c>
-      <c r="I5" s="16">
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="18" t="s">
+      <c r="M5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16" t="s">
+      <c r="O5" s="13"/>
+      <c r="P5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="46"/>
+      <c r="S5" s="39"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A6" s="13" t="s">
+    <row r="6" s="1" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>488</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="11">
         <v>2</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="14">
-        <v>1</v>
-      </c>
-      <c r="I6" s="14">
+      <c r="G6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14" t="s">
+      <c r="J6" s="11"/>
+      <c r="K6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="12" t="s">
+      <c r="M6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14" t="s">
+      <c r="O6" s="11"/>
+      <c r="P6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="R6" s="14"/>
-      <c r="S6" s="45"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="38"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A7" s="11" t="s">
+    <row r="7" s="1" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <v>488</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="9">
         <v>2</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12">
+      <c r="G7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="12" t="s">
+      <c r="M7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12" t="s">
+      <c r="O7" s="9"/>
+      <c r="P7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="44"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="37"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A8" s="13" t="s">
+    <row r="8" s="1" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="11">
         <v>488</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="11">
         <v>2</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="14">
-        <v>1</v>
-      </c>
-      <c r="I8" s="14">
+      <c r="G8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14" t="s">
+      <c r="J8" s="11"/>
+      <c r="K8" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="12" t="s">
+      <c r="M8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14" t="s">
+      <c r="O8" s="11"/>
+      <c r="P8" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="Q8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="R8" s="14"/>
-      <c r="S8" s="45"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="38"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="1" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <v>488</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="9">
         <v>2</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12">
+      <c r="G9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="12" t="s">
+      <c r="M9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12" t="s">
+      <c r="O9" s="9"/>
+      <c r="P9" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="44"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="37"/>
     </row>
     <row r="10" ht="62" customHeight="1" spans="1:19">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="15">
         <v>488</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="15">
         <v>2</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="18">
+      <c r="G10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="15">
         <v>0</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="18" t="s">
+      <c r="M10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18" t="s">
+      <c r="O10" s="15"/>
+      <c r="P10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="43"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="36"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="9">
         <v>488</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="9">
         <v>2</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12">
+      <c r="G11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="12" t="s">
+      <c r="M11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12" t="s">
+      <c r="O11" s="9"/>
+      <c r="P11" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="44"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="37"/>
     </row>
     <row r="12" ht="62" customHeight="1" spans="1:19">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <v>288</v>
       </c>
-      <c r="F12" s="18">
-        <v>1</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="18">
+      <c r="F12" s="15">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="15">
         <v>0</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="15">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18" t="s">
+      <c r="J12" s="15"/>
+      <c r="K12" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="18" t="s">
+      <c r="M12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18" t="s">
+      <c r="O12" s="15"/>
+      <c r="P12" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="Q12" s="18" t="s">
+      <c r="Q12" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="R12" s="18"/>
-      <c r="S12" s="43"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="36"/>
     </row>
     <row r="13" ht="62" customHeight="1" spans="1:19">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="13">
         <v>288</v>
       </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="16">
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="13">
         <v>0</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16" t="s">
+      <c r="J13" s="13"/>
+      <c r="K13" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="18" t="s">
+      <c r="M13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16" t="s">
+      <c r="O13" s="13"/>
+      <c r="P13" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="Q13" s="16" t="s">
+      <c r="Q13" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="46"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="39"/>
     </row>
     <row r="14" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="15">
         <v>488</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="15">
         <v>2</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="18">
-        <v>1</v>
-      </c>
-      <c r="I14" s="18">
+      <c r="G14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1</v>
+      </c>
+      <c r="I14" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18" t="s">
+      <c r="J14" s="15"/>
+      <c r="K14" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="18" t="s">
+      <c r="M14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18" t="s">
+      <c r="O14" s="15"/>
+      <c r="P14" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="Q14" s="18" t="s">
+      <c r="Q14" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="R14" s="18"/>
-      <c r="S14" s="43"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="36"/>
     </row>
-    <row r="15" s="3" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A15" s="19" t="s">
+    <row r="15" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A15" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="17">
         <v>288</v>
       </c>
-      <c r="F15" s="20">
-        <v>1</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="20">
-        <v>1</v>
-      </c>
-      <c r="I15" s="20">
+      <c r="F15" s="17">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="17">
+        <v>1</v>
+      </c>
+      <c r="I15" s="17">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20" t="s">
+      <c r="J15" s="17"/>
+      <c r="K15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="M15" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="35" t="s">
+      <c r="M15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20" t="s">
+      <c r="O15" s="17"/>
+      <c r="P15" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="47"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="40"/>
     </row>
-    <row r="16" s="4" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A16" s="21" t="s">
+    <row r="16" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A16" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="19">
         <v>488</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="19">
         <v>2</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="22">
+      <c r="G16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="19">
         <v>0</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="19">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22" t="s">
+      <c r="J16" s="19"/>
+      <c r="K16" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="M16" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="22" t="s">
+      <c r="M16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22" t="s">
+      <c r="O16" s="19"/>
+      <c r="P16" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="48"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="41"/>
     </row>
     <row r="17" ht="62" customHeight="1" spans="1:19">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="13">
         <v>288</v>
       </c>
-      <c r="F17" s="16">
-        <v>1</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="16">
-        <v>1</v>
-      </c>
-      <c r="I17" s="16">
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1</v>
+      </c>
+      <c r="I17" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16" t="s">
+      <c r="J17" s="13"/>
+      <c r="K17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="18" t="s">
+      <c r="M17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16" t="s">
+      <c r="O17" s="13"/>
+      <c r="P17" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="46"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="39"/>
     </row>
     <row r="18" ht="62" customHeight="1" spans="1:19">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="15">
         <v>888</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="15">
         <v>3</v>
       </c>
-      <c r="G18" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="18">
-        <v>1</v>
-      </c>
-      <c r="I18" s="18">
+      <c r="G18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1</v>
+      </c>
+      <c r="I18" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18" t="s">
+      <c r="J18" s="15"/>
+      <c r="K18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M18" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" s="18" t="s">
+      <c r="M18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18" t="s">
+      <c r="O18" s="15"/>
+      <c r="P18" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="43"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="36"/>
     </row>
     <row r="19" ht="62" customHeight="1" spans="1:19">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="13">
         <v>288</v>
       </c>
-      <c r="F19" s="16">
-        <v>1</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="16">
-        <v>1</v>
-      </c>
-      <c r="I19" s="16">
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1</v>
+      </c>
+      <c r="I19" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16" t="s">
+      <c r="J19" s="13"/>
+      <c r="K19" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" s="18" t="s">
+      <c r="M19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16" t="s">
+      <c r="O19" s="13"/>
+      <c r="P19" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="46"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="39"/>
     </row>
     <row r="20" ht="62" customHeight="1" spans="1:19">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="15">
         <v>488</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="15">
         <v>2</v>
       </c>
-      <c r="G20" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="18">
-        <v>1</v>
-      </c>
-      <c r="I20" s="18">
+      <c r="G20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1</v>
+      </c>
+      <c r="I20" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18" t="s">
+      <c r="J20" s="15"/>
+      <c r="K20" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="L20" s="18" t="s">
+      <c r="L20" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M20" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" s="18" t="s">
+      <c r="M20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18" t="s">
+      <c r="O20" s="15"/>
+      <c r="P20" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="Q20" s="18" t="s">
+      <c r="Q20" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="18" t="s">
+      <c r="R20" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="S20" s="43"/>
+      <c r="S20" s="36"/>
     </row>
-    <row r="21" s="5" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A21" s="19" t="s">
+    <row r="21" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A21" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="17">
         <v>288</v>
       </c>
-      <c r="F21" s="20">
-        <v>1</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="20">
+      <c r="F21" s="17">
+        <v>1</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="17">
         <v>0</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="17">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20" t="s">
+      <c r="J21" s="17"/>
+      <c r="K21" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="M21" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="N21" s="35" t="s">
+      <c r="M21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20" t="s">
+      <c r="O21" s="17"/>
+      <c r="P21" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="47"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="40"/>
     </row>
     <row r="22" ht="62" customHeight="1" spans="1:19">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="15">
         <v>388</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="15">
         <v>2</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="18">
-        <v>1</v>
-      </c>
-      <c r="I22" s="18">
+      <c r="G22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="15">
+        <v>1</v>
+      </c>
+      <c r="I22" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18" t="s">
+      <c r="J22" s="15"/>
+      <c r="K22" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="18" t="s">
+      <c r="L22" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" s="18" t="s">
+      <c r="M22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18" t="s">
+      <c r="O22" s="15"/>
+      <c r="P22" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="Q22" s="18" t="s">
+      <c r="Q22" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="R22" s="18"/>
-      <c r="S22" s="43"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="36"/>
     </row>
     <row r="23" ht="62" customHeight="1" spans="1:19">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="20">
         <v>288</v>
       </c>
-      <c r="F23" s="23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="23">
-        <v>1</v>
-      </c>
-      <c r="I23" s="16">
+      <c r="F23" s="20">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="20">
+        <v>1</v>
+      </c>
+      <c r="I23" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16" t="s">
+      <c r="J23" s="13"/>
+      <c r="K23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M23" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="18" t="s">
+      <c r="M23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16" t="s">
+      <c r="O23" s="13"/>
+      <c r="P23" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q23" s="16" t="s">
+      <c r="Q23" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="R23" s="16"/>
-      <c r="S23" s="46"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="39"/>
     </row>
     <row r="24" ht="62" customHeight="1" spans="1:19">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="22">
         <v>288</v>
       </c>
-      <c r="F24" s="25">
-        <v>1</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="25">
-        <v>1</v>
-      </c>
-      <c r="I24" s="18">
+      <c r="F24" s="22">
+        <v>1</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="22">
+        <v>1</v>
+      </c>
+      <c r="I24" s="15">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18" t="s">
+      <c r="J24" s="15"/>
+      <c r="K24" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="L24" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M24" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24" s="18" t="s">
+      <c r="M24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18" t="s">
+      <c r="O24" s="15"/>
+      <c r="P24" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="Q24" s="18" t="s">
+      <c r="Q24" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="R24" s="18"/>
-      <c r="S24" s="43"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="36"/>
     </row>
     <row r="25" ht="62" customHeight="1" spans="1:19">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="20">
         <v>288</v>
       </c>
-      <c r="F25" s="23">
-        <v>1</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="23">
-        <v>1</v>
-      </c>
-      <c r="I25" s="16">
+      <c r="F25" s="20">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="20">
+        <v>1</v>
+      </c>
+      <c r="I25" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16" t="s">
+      <c r="J25" s="13"/>
+      <c r="K25" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="L25" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25" s="18" t="s">
+      <c r="M25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16" t="s">
+      <c r="O25" s="13"/>
+      <c r="P25" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="Q25" s="16" t="s">
+      <c r="Q25" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="R25" s="16"/>
-      <c r="S25" s="46"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="39"/>
     </row>
     <row r="26" ht="62" customHeight="1" spans="1:19">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="22">
         <v>488</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="22">
         <v>2</v>
       </c>
-      <c r="G26" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="25">
-        <v>1</v>
-      </c>
-      <c r="I26" s="18">
+      <c r="G26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="22">
+        <v>1</v>
+      </c>
+      <c r="I26" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18" t="s">
+      <c r="J26" s="15"/>
+      <c r="K26" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="L26" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N26" s="18" t="s">
+      <c r="M26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18" t="s">
+      <c r="O26" s="15"/>
+      <c r="P26" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="Q26" s="18" t="s">
+      <c r="Q26" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="R26" s="18"/>
-      <c r="S26" s="43"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="36"/>
     </row>
     <row r="27" ht="62" customHeight="1" spans="1:19">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="20">
         <v>188</v>
       </c>
-      <c r="F27" s="23">
-        <v>1</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="23">
-        <v>1</v>
-      </c>
-      <c r="I27" s="16">
+      <c r="F27" s="20">
+        <v>1</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="20">
+        <v>1</v>
+      </c>
+      <c r="I27" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16" t="s">
+      <c r="J27" s="13"/>
+      <c r="K27" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="L27" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M27" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N27" s="18" t="s">
+      <c r="M27" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16" t="s">
+      <c r="O27" s="13"/>
+      <c r="P27" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="46"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="39"/>
     </row>
-    <row r="28" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A28" s="13" t="s">
+    <row r="28" s="1" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A28" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="24">
         <v>388</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="24">
         <v>2</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="27">
+      <c r="G28" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="24">
         <v>0</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14" t="s">
+      <c r="J28" s="11"/>
+      <c r="K28" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="L28" s="14" t="s">
+      <c r="L28" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="M28" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N28" s="14" t="s">
+      <c r="M28" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14" t="s">
+      <c r="O28" s="11"/>
+      <c r="P28" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="45"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="38"/>
     </row>
     <row r="29" ht="62" customHeight="1" spans="1:19">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="20">
         <v>888</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="20">
         <v>3</v>
       </c>
-      <c r="G29" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="23">
-        <v>1</v>
-      </c>
-      <c r="I29" s="16">
+      <c r="G29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="20">
+        <v>1</v>
+      </c>
+      <c r="I29" s="13">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16" t="s">
+      <c r="J29" s="13"/>
+      <c r="K29" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="L29" s="16" t="s">
+      <c r="L29" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M29" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N29" s="18" t="s">
+      <c r="M29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16" t="s">
+      <c r="O29" s="13"/>
+      <c r="P29" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="46"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="39"/>
     </row>
     <row r="30" ht="62" customHeight="1" spans="1:19">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="22">
         <v>488</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="22">
         <v>2</v>
       </c>
-      <c r="G30" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="25">
-        <v>1</v>
-      </c>
-      <c r="I30" s="18">
+      <c r="G30" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="22">
+        <v>1</v>
+      </c>
+      <c r="I30" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18" t="s">
+      <c r="J30" s="15"/>
+      <c r="K30" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L30" s="18" t="s">
+      <c r="L30" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M30" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N30" s="18" t="s">
+      <c r="M30" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O30" s="18"/>
-      <c r="P30" s="16" t="s">
+      <c r="O30" s="15"/>
+      <c r="P30" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="43"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="36"/>
     </row>
-    <row r="31" s="5" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A31" s="19" t="s">
+    <row r="31" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A31" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="26">
         <v>288</v>
       </c>
-      <c r="F31" s="29">
-        <v>1</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="29">
-        <v>1</v>
-      </c>
-      <c r="I31" s="20">
+      <c r="F31" s="26">
+        <v>1</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="26">
+        <v>1</v>
+      </c>
+      <c r="I31" s="17">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20" t="s">
+      <c r="J31" s="17"/>
+      <c r="K31" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="L31" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="M31" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="N31" s="35" t="s">
+      <c r="M31" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20" t="s">
+      <c r="O31" s="17"/>
+      <c r="P31" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="47"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="40"/>
     </row>
     <row r="32" ht="62" customHeight="1" spans="1:19">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="22">
         <v>288</v>
       </c>
-      <c r="F32" s="25">
-        <v>1</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="25">
-        <v>1</v>
-      </c>
-      <c r="I32" s="18">
+      <c r="F32" s="22">
+        <v>1</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="22">
+        <v>1</v>
+      </c>
+      <c r="I32" s="15">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18" t="s">
+      <c r="J32" s="15"/>
+      <c r="K32" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="L32" s="18" t="s">
+      <c r="L32" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M32" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N32" s="18" t="s">
+      <c r="M32" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O32" s="18"/>
-      <c r="P32" s="16" t="s">
+      <c r="O32" s="15"/>
+      <c r="P32" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="43"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="36"/>
     </row>
-    <row r="33" s="5" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A33" s="19" t="s">
+    <row r="33" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A33" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="26">
         <v>288</v>
       </c>
-      <c r="F33" s="29">
-        <v>1</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="29">
-        <v>1</v>
-      </c>
-      <c r="I33" s="20">
+      <c r="F33" s="26">
+        <v>1</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="26">
+        <v>1</v>
+      </c>
+      <c r="I33" s="17">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20" t="s">
+      <c r="J33" s="17"/>
+      <c r="K33" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="L33" s="20" t="s">
+      <c r="L33" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="M33" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="N33" s="35" t="s">
+      <c r="M33" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20" t="s">
+      <c r="O33" s="17"/>
+      <c r="P33" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="47"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="40"/>
     </row>
-    <row r="34" s="4" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A34" s="21" t="s">
+    <row r="34" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A34" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="28">
         <v>388</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="28">
         <v>2</v>
       </c>
-      <c r="G34" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="31">
+      <c r="G34" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="28">
         <v>0</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="19">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22" t="s">
+      <c r="J34" s="19"/>
+      <c r="K34" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="L34" s="22" t="s">
+      <c r="L34" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="M34" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N34" s="22" t="s">
+      <c r="M34" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O34" s="22"/>
-      <c r="P34" s="20" t="s">
+      <c r="O34" s="19"/>
+      <c r="P34" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="48"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="41"/>
     </row>
-    <row r="35" s="5" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A35" s="19" t="s">
+    <row r="35" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A35" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="26">
         <v>388</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="26">
         <v>2</v>
       </c>
-      <c r="G35" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="29">
+      <c r="G35" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="26">
         <v>0</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="17">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20" t="s">
+      <c r="J35" s="17"/>
+      <c r="K35" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="L35" s="20" t="s">
+      <c r="L35" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="M35" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="N35" s="35" t="s">
+      <c r="M35" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20" t="s">
+      <c r="O35" s="17"/>
+      <c r="P35" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="47"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="40"/>
     </row>
-    <row r="36" s="5" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A36" s="33" t="s">
+    <row r="36" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A36" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="28">
         <v>388</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="28">
         <v>2</v>
       </c>
-      <c r="G36" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="34">
+      <c r="G36" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="28">
         <v>0</v>
       </c>
-      <c r="I36" s="35">
+      <c r="I36" s="19">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35" t="s">
+      <c r="J36" s="19"/>
+      <c r="K36" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="35" t="s">
+      <c r="L36" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="M36" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="N36" s="35" t="s">
+      <c r="M36" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O36" s="35"/>
-      <c r="P36" s="20" t="s">
+      <c r="O36" s="19"/>
+      <c r="P36" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="49"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="41"/>
     </row>
     <row r="37" ht="62" customHeight="1" spans="1:19">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="20">
         <v>288</v>
       </c>
-      <c r="F37" s="23">
-        <v>1</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="23">
-        <v>1</v>
-      </c>
-      <c r="I37" s="16">
+      <c r="F37" s="20">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="20">
+        <v>1</v>
+      </c>
+      <c r="I37" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16" t="s">
+      <c r="J37" s="13"/>
+      <c r="K37" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L37" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="M37" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N37" s="18" t="s">
+      <c r="L37" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16" t="s">
+      <c r="O37" s="13"/>
+      <c r="P37" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="46"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="39"/>
     </row>
     <row r="38" ht="62" customHeight="1" spans="1:19">
-      <c r="A38" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="B38" s="25" t="s">
+      <c r="A38" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="B38" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="C38" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="E38" s="25">
+      <c r="D38" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="E38" s="22">
         <v>888</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="22">
         <v>3</v>
       </c>
-      <c r="G38" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="25">
-        <v>1</v>
-      </c>
-      <c r="I38" s="18">
+      <c r="G38" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="22">
+        <v>1</v>
+      </c>
+      <c r="I38" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18" t="s">
+      <c r="J38" s="15"/>
+      <c r="K38" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L38" s="18" t="s">
+      <c r="L38" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M38" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N38" s="18" t="s">
+      <c r="M38" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O38" s="18"/>
-      <c r="P38" s="16" t="s">
+      <c r="O38" s="15"/>
+      <c r="P38" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="43"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="36"/>
     </row>
-    <row r="39" s="5" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A39" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B39" s="29" t="s">
+    <row r="39" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="A39" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="B39" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="C39" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="E39" s="29">
+      <c r="D39" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E39" s="26">
         <v>388</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="26">
         <v>2</v>
       </c>
-      <c r="G39" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="29">
-        <v>1</v>
-      </c>
-      <c r="I39" s="20">
+      <c r="G39" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="26">
+        <v>1</v>
+      </c>
+      <c r="I39" s="17">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20" t="s">
+      <c r="J39" s="17"/>
+      <c r="K39" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="L39" s="20" t="s">
+      <c r="L39" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="M39" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="N39" s="35" t="s">
+      <c r="M39" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20" t="s">
+      <c r="O39" s="17"/>
+      <c r="P39" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="47"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="40"/>
     </row>
     <row r="40" ht="62" customHeight="1" spans="1:19">
-      <c r="A40" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="B40" s="25" t="s">
+      <c r="A40" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="B40" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="C40" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E40" s="25">
+      <c r="D40" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="E40" s="22">
         <v>488</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="22">
         <v>2</v>
       </c>
-      <c r="G40" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="25">
-        <v>1</v>
-      </c>
-      <c r="I40" s="18">
+      <c r="G40" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="22">
+        <v>1</v>
+      </c>
+      <c r="I40" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18" t="s">
+      <c r="J40" s="15"/>
+      <c r="K40" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="L40" s="18" t="s">
+      <c r="L40" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M40" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N40" s="18" t="s">
+      <c r="M40" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O40" s="18"/>
-      <c r="P40" s="16" t="s">
+      <c r="O40" s="15"/>
+      <c r="P40" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="43"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="36"/>
     </row>
     <row r="41" ht="62" customHeight="1" spans="1:19">
-      <c r="A41" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B41" s="23" t="s">
+      <c r="A41" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="B41" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="C41" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="E41" s="23">
+      <c r="D41" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="E41" s="20">
         <v>488</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="20">
         <v>2</v>
       </c>
-      <c r="G41" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" s="23">
-        <v>1</v>
-      </c>
-      <c r="I41" s="16">
+      <c r="G41" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="20">
+        <v>1</v>
+      </c>
+      <c r="I41" s="13">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16" t="s">
+      <c r="J41" s="13"/>
+      <c r="K41" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="L41" s="16" t="s">
+      <c r="L41" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M41" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N41" s="18" t="s">
+      <c r="M41" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N41" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16" t="s">
+      <c r="O41" s="13"/>
+      <c r="P41" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="46"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="39"/>
     </row>
     <row r="42" ht="62" customHeight="1" spans="1:19">
-      <c r="A42" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="B42" s="25" t="s">
+      <c r="A42" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="B42" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="C42" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="E42" s="25">
+      <c r="D42" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="E42" s="22">
         <v>288</v>
       </c>
-      <c r="F42" s="25">
-        <v>1</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="25">
+      <c r="F42" s="22">
+        <v>1</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="22">
         <v>0</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="15">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18" t="s">
+      <c r="J42" s="15"/>
+      <c r="K42" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L42" s="18" t="s">
+      <c r="L42" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M42" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N42" s="18" t="s">
+      <c r="M42" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N42" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O42" s="18"/>
-      <c r="P42" s="16" t="s">
+      <c r="O42" s="15"/>
+      <c r="P42" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="43"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="36"/>
     </row>
     <row r="43" ht="62" customHeight="1" spans="1:19">
-      <c r="A43" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B43" s="23" t="s">
+      <c r="A43" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="B43" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="E43" s="23">
+      <c r="D43" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E43" s="20">
         <v>488</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="20">
         <v>2</v>
       </c>
-      <c r="G43" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="23">
-        <v>1</v>
-      </c>
-      <c r="I43" s="16">
+      <c r="G43" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="20">
+        <v>1</v>
+      </c>
+      <c r="I43" s="13">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16" t="s">
+      <c r="J43" s="13"/>
+      <c r="K43" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="L43" s="16" t="s">
+      <c r="L43" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M43" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N43" s="18" t="s">
+      <c r="M43" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N43" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16" t="s">
+      <c r="O43" s="13"/>
+      <c r="P43" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="46"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="39"/>
     </row>
     <row r="44" ht="62" customHeight="1" spans="1:19">
-      <c r="A44" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="B44" s="38" t="s">
+      <c r="A44" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="B44" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="C44" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="E44" s="38">
+      <c r="D44" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="E44" s="31">
         <v>888</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="31">
         <v>3</v>
       </c>
-      <c r="G44" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" s="38">
-        <v>1</v>
-      </c>
-      <c r="I44" s="39">
+      <c r="G44" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="31">
+        <v>1</v>
+      </c>
+      <c r="I44" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39" t="s">
+      <c r="J44" s="32"/>
+      <c r="K44" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="L44" s="39" t="s">
+      <c r="L44" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="M44" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="N44" s="18" t="s">
+      <c r="M44" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="N44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O44" s="39"/>
-      <c r="P44" s="16" t="s">
+      <c r="O44" s="32"/>
+      <c r="P44" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="50"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="42"/>
     </row>
+    <row r="45" ht="14.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="23145" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -1913,11 +1913,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C6BA05F9-9CE8-4F97-82F0-C7EAFFDF0B78}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{15A4595A-69C9-468A-97EB-DD7EE4B19086}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0480E61B-00EC-4575-83C2-1872F779E839}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C57C349C-F403-436B-806C-931BFF35C5F8}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2220,10 +2220,10 @@
   <sheetPr/>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L37" sqref="L37"/>
+      <selection pane="topRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="212">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -35,9 +35,6 @@
     <t>中文名</t>
   </si>
   <si>
-    <t>简介</t>
-  </si>
-  <si>
     <t>效果</t>
   </si>
   <si>
@@ -77,9 +74,18 @@
     <t>end</t>
   </si>
   <si>
+    <t>属性</t>
+  </si>
+  <si>
     <t>GoodsKey</t>
   </si>
   <si>
+    <t>#Loccustom_shopitem_{}</t>
+  </si>
+  <si>
+    <t>#Loccustom_shopitem_{}_Description</t>
+  </si>
+  <si>
     <t>soul</t>
   </si>
   <si>
@@ -113,15 +119,15 @@
     <t>[}]</t>
   </si>
   <si>
+    <t>ObjectValues[{]</t>
+  </si>
+  <si>
     <t>prop_1</t>
   </si>
   <si>
     <t>【常客优惠I】</t>
   </si>
   <si>
-    <t>介绍1</t>
-  </si>
-  <si>
     <t>在之后的灵魂商店购买其他圣物时，消耗降低25%。</t>
   </si>
   <si>
@@ -149,9 +155,6 @@
     <t>【双倍灵魂】</t>
   </si>
   <si>
-    <t>介绍2</t>
-  </si>
-  <si>
     <t>获得灵魂时，有20%概率获得双倍灵魂。（上限100%）</t>
   </si>
   <si>
@@ -173,9 +176,6 @@
     <t>【啊，是火！】</t>
   </si>
   <si>
-    <t>介绍3</t>
-  </si>
-  <si>
     <t>火元素技能造成伤害的灼烧会额外增加攻击力40%的伤害，并降低元素抗性20%，持续3秒。</t>
   </si>
   <si>
@@ -200,9 +200,6 @@
     <t>【火元素·I】</t>
   </si>
   <si>
-    <t>介绍4</t>
-  </si>
-  <si>
     <t>购买之后，元素羁绊中火元素+1（稀有，当局限购1）</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
     <t>【雷元素·I】</t>
   </si>
   <si>
-    <t>介绍5</t>
-  </si>
-  <si>
     <t>购买之后，元素羁绊中雷元素+1（稀有，当局限购1）</t>
   </si>
   <si>
@@ -242,9 +236,6 @@
     <t>【冰元素·I】</t>
   </si>
   <si>
-    <t>介绍6</t>
-  </si>
-  <si>
     <t>购买之后，元素羁绊中冰元素+1（稀有，当局限购1）</t>
   </si>
   <si>
@@ -260,9 +251,6 @@
     <t>【风元素·I】</t>
   </si>
   <si>
-    <t>介绍7</t>
-  </si>
-  <si>
     <t>购买之后，元素羁绊中风元素+1（稀有，当局限购1）</t>
   </si>
   <si>
@@ -278,9 +266,6 @@
     <t>【否定信仰】</t>
   </si>
   <si>
-    <t>介绍8</t>
-  </si>
-  <si>
     <t>敌人在被控制时，受到的伤害加深20% 对受到控制的敌人多造成20%伤害。</t>
   </si>
   <si>
@@ -293,9 +278,6 @@
     <t>【常客优惠II】</t>
   </si>
   <si>
-    <t>介绍9</t>
-  </si>
-  <si>
     <t>在之后的灵魂商店购买其他圣物时，消耗降低50%。</t>
   </si>
   <si>
@@ -311,9 +293,6 @@
     <t>【生人勿进】</t>
   </si>
   <si>
-    <t>介绍10</t>
-  </si>
-  <si>
     <t>对自身250码范围内的敌人造成的伤害提升25%</t>
   </si>
   <si>
@@ -332,9 +311,6 @@
     <t>【远有远的好处】</t>
   </si>
   <si>
-    <t>介绍11</t>
-  </si>
-  <si>
     <t>对自身600码以外的敌人造成的伤害提升25%</t>
   </si>
   <si>
@@ -350,9 +326,6 @@
     <t>【勇气勋章】</t>
   </si>
   <si>
-    <t>介绍12</t>
-  </si>
-  <si>
     <t>生命值大于50%，攻击力提高20%；生命值低于50%，防御力提高20%</t>
   </si>
   <si>
@@ -371,9 +344,6 @@
     <t>【魔力盈能】</t>
   </si>
   <si>
-    <t>介绍13</t>
-  </si>
-  <si>
     <t>每击杀一个单位，回复1点法力值。最大法力值减少25%</t>
   </si>
   <si>
@@ -389,9 +359,6 @@
     <t>【圣剑】</t>
   </si>
   <si>
-    <t>介绍14</t>
-  </si>
-  <si>
     <t>攻击力+30%，但死亡掉落（移除物品）</t>
   </si>
   <si>
@@ -401,9 +368,6 @@
     <t>【走钢索】</t>
   </si>
   <si>
-    <t>介绍15</t>
-  </si>
-  <si>
     <t>血量越低伤害越高，最低临界值10%血量，提高伤害100%</t>
   </si>
   <si>
@@ -416,9 +380,6 @@
     <t>【迈达斯之手】</t>
   </si>
   <si>
-    <t>介绍16</t>
-  </si>
-  <si>
     <t>自动拾取被自身击杀的怪物掉落的经验值（超稀有）</t>
   </si>
   <si>
@@ -428,9 +389,6 @@
     <t>【刃甲】</t>
   </si>
   <si>
-    <t>介绍17</t>
-  </si>
-  <si>
     <t>反弹40%受到的伤害</t>
   </si>
   <si>
@@ -443,9 +401,6 @@
     <t>【致命及砍到】</t>
   </si>
   <si>
-    <t>介绍18</t>
-  </si>
-  <si>
     <t>对生命值大于80%小于20%的单位造成的伤害提升15%</t>
   </si>
   <si>
@@ -464,21 +419,24 @@
     <t>【一麻袋】</t>
   </si>
   <si>
-    <t>介绍19</t>
-  </si>
-  <si>
     <t>提升拾取范围100码</t>
   </si>
   <si>
+    <t>PickItemRadius|Base 100,BasePercent 10</t>
+  </si>
+  <si>
+    <t>PickItemRadius {
+"Base" "100"
+"BasePercent" "10"
+}</t>
+  </si>
+  <si>
     <t>prop_20</t>
   </si>
   <si>
     <t>【你的滑板孩】</t>
   </si>
   <si>
-    <t>介绍20</t>
-  </si>
-  <si>
     <t>常驻移动速度+25%，但在受到伤害后变为移动速度降低50%持续3秒</t>
   </si>
   <si>
@@ -494,9 +452,6 @@
     <t>【斯嘉蒂之眼】</t>
   </si>
   <si>
-    <t>介绍21</t>
-  </si>
-  <si>
     <t>冰元素技能降低移速时，同时降低敌人30%攻击速度和20%元素抗性，持续3秒</t>
   </si>
   <si>
@@ -512,9 +467,6 @@
     <t>【雷神之锤】</t>
   </si>
   <si>
-    <t>介绍22</t>
-  </si>
-  <si>
     <t>雷元素技能命中敌人时，50%概率额外追加3秒麻痹效果（相同敌人只受到一次效果）</t>
   </si>
   <si>
@@ -527,9 +479,6 @@
     <t>【风儿吹】</t>
   </si>
   <si>
-    <t>介绍23</t>
-  </si>
-  <si>
     <t>风元素技能命中敌人时，被击退的敌人降低20%元素抗性并眩晕1秒</t>
   </si>
   <si>
@@ -545,9 +494,6 @@
     <t>【无极】</t>
   </si>
   <si>
-    <t>介绍24</t>
-  </si>
-  <si>
     <t>敌人受到debuff效果时，受到的伤害加深15% 对有debuff的敌人多造成15%伤害。</t>
   </si>
   <si>
@@ -560,9 +506,6 @@
     <t>【相位鞋】</t>
   </si>
   <si>
-    <t>介绍25</t>
-  </si>
-  <si>
     <t>移动速度+5%，获得相位状态可穿越单位</t>
   </si>
   <si>
@@ -572,9 +515,6 @@
     <t>【不朽之守护】</t>
   </si>
   <si>
-    <t>介绍26</t>
-  </si>
-  <si>
     <t>阵亡时不消耗复活次数原地复活，一次性物品 复活次数+1</t>
   </si>
   <si>
@@ -587,9 +527,6 @@
     <t>【永世法衣】</t>
   </si>
   <si>
-    <t>介绍27</t>
-  </si>
-  <si>
     <t>增加40%技能强度，受到伤害时回复5点法力值（超稀有）</t>
   </si>
   <si>
@@ -599,9 +536,6 @@
     <t>【血祭】</t>
   </si>
   <si>
-    <t>介绍28</t>
-  </si>
-  <si>
     <t>不在消耗蓝量，任意技能消耗变为1%最大生命值，生命值临界值10%</t>
   </si>
   <si>
@@ -611,9 +545,6 @@
     <t>【指挥官头带】</t>
   </si>
   <si>
-    <t>介绍29</t>
-  </si>
-  <si>
     <t>对精英及boss单位造成伤害提高25%</t>
   </si>
   <si>
@@ -623,9 +554,6 @@
     <t>【极速护符】</t>
   </si>
   <si>
-    <t>介绍30</t>
-  </si>
-  <si>
     <t>原地不动时，技能极速+15%（可突破上限）</t>
   </si>
   <si>
@@ -635,9 +563,6 @@
     <t>【聪明人的帽子】</t>
   </si>
   <si>
-    <t>介绍31</t>
-  </si>
-  <si>
     <t>最大蓝量+200，但最大生命值减少25%</t>
   </si>
   <si>
@@ -647,9 +572,6 @@
     <t>【秘法球】</t>
   </si>
   <si>
-    <t>介绍32</t>
-  </si>
-  <si>
     <t>技能强度+10%，杀敌回蓝1</t>
   </si>
   <si>
@@ -659,9 +581,6 @@
     <t>【小短剑】</t>
   </si>
   <si>
-    <t>介绍33</t>
-  </si>
-  <si>
     <t>攻击力+15%</t>
   </si>
   <si>
@@ -671,9 +590,6 @@
     <t>【元素亲和力】</t>
   </si>
   <si>
-    <t>介绍34</t>
-  </si>
-  <si>
     <t>全元素伤害+10%</t>
   </si>
   <si>
@@ -683,9 +599,6 @@
     <t>【奥术指环】</t>
   </si>
   <si>
-    <t>介绍35</t>
-  </si>
-  <si>
     <t>自身及友军每秒回蓝2点（效果可叠加）</t>
   </si>
   <si>
@@ -698,9 +611,6 @@
     <t>【大宗师】</t>
   </si>
   <si>
-    <t>介绍36</t>
-  </si>
-  <si>
     <t>仙人之上一换一：自身阵亡时强制带走击杀你的单位（可带走小boss，不包括最终boss）（超稀有）</t>
   </si>
   <si>
@@ -710,9 +620,6 @@
     <t>【骑士团印章】</t>
   </si>
   <si>
-    <t>介绍37</t>
-  </si>
-  <si>
     <t>生命恢复及吸血效果增强20%</t>
   </si>
   <si>
@@ -722,9 +629,6 @@
     <t>【缚灵索】</t>
   </si>
   <si>
-    <t>介绍38</t>
-  </si>
-  <si>
     <t>攻击自身的敌人会被束缚1秒</t>
   </si>
   <si>
@@ -734,9 +638,6 @@
     <t>【迈达斯点金手】</t>
   </si>
   <si>
-    <t>介绍39</t>
-  </si>
-  <si>
     <t>对单位造成伤害时有1%概率秒杀，并获取10倍灵魂</t>
   </si>
   <si>
@@ -746,9 +647,6 @@
     <t>【急不可耐】</t>
   </si>
   <si>
-    <t>介绍40</t>
-  </si>
-  <si>
     <t>每秒钟获得1点灵魂（上限10）</t>
   </si>
   <si>
@@ -758,9 +656,6 @@
     <t>【神秘齿轮】</t>
   </si>
   <si>
-    <t>介绍41</t>
-  </si>
-  <si>
     <t>每60秒转动一次，每次获得随机效果，持续10秒</t>
   </si>
   <si>
@@ -768,9 +663,6 @@
   </si>
   <si>
     <t>【神罚】</t>
-  </si>
-  <si>
-    <t>介绍42</t>
   </si>
   <si>
     <t>每过10秒，从天而降一道雷，对自身及自身周围500码敌人造成无差别伤害，伤害系数为攻击力*1000%无视元素抗性的伤害
@@ -980,7 +872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1595,7 +1487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1692,12 +1584,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1721,6 +1613,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1913,11 +1808,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{15A4595A-69C9-468A-97EB-DD7EE4B19086}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0461B89A-594C-4968-9DAD-724DB804CBD3}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C57C349C-F403-436B-806C-931BFF35C5F8}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{905BA4E6-1FC7-4158-B021-4BD4AFAF930D}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2218,30 +2113,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D12" sqref="D12"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.5083333333333" customWidth="1"/>
     <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="41.375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="13.3416666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="10" width="14.625" customWidth="1"/>
-    <col min="11" max="12" width="34.8416666666667" customWidth="1"/>
-    <col min="13" max="14" width="24.625" customWidth="1"/>
-    <col min="15" max="15" width="12.375" customWidth="1"/>
-    <col min="16" max="16" width="36.8416666666667" customWidth="1"/>
-    <col min="17" max="18" width="30.175" customWidth="1"/>
-    <col min="19" max="19" width="8.34166666666667" customWidth="1"/>
+    <col min="3" max="3" width="41.375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="13.3416666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="11" width="34.8416666666667" customWidth="1"/>
+    <col min="12" max="13" width="24.625" customWidth="1"/>
+    <col min="14" max="14" width="12.375" customWidth="1"/>
+    <col min="15" max="15" width="36.8416666666667" customWidth="1"/>
+    <col min="16" max="17" width="30.175" customWidth="1"/>
+    <col min="18" max="18" width="8.34166666666667" customWidth="1"/>
+    <col min="19" max="19" width="17.125" customWidth="1"/>
+    <col min="20" max="20" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:19">
@@ -2287,226 +2183,235 @@
       <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="35" t="s">
+      <c r="R1" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:19">
+    <row r="2" ht="22.5" customHeight="1" spans="1:23">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="E2" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="K2" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="34">
+        <v>1</v>
       </c>
       <c r="P2" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="34">
+        <v>3</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
         <v>2</v>
       </c>
-      <c r="R2" s="34">
+      <c r="V2">
         <v>3</v>
       </c>
-      <c r="S2" s="36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="W2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="62" customHeight="1" spans="1:18">
       <c r="A3" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="D3" s="9">
+        <v>288</v>
       </c>
       <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <f>(4-E3)*16</f>
+        <v>48</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="37"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="62" customHeight="1" spans="1:18">
+      <c r="A4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="11">
+        <v>488</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" ref="H4:H44" si="0">(4-E4)*16</f>
+        <v>32</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="38"/>
+    </row>
+    <row r="5" ht="62" customHeight="1" spans="1:18">
+      <c r="A5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="13">
         <v>288</v>
       </c>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9">
-        <f>(4-F3)*16</f>
-        <v>48</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="37"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="11">
-        <v>488</v>
-      </c>
-      <c r="F4" s="11">
-        <v>2</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <f t="shared" ref="I4:I44" si="0">(4-F4)*16</f>
-        <v>32</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="38"/>
-    </row>
-    <row r="5" ht="62" customHeight="1" spans="1:19">
-      <c r="A5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="E5" s="13">
-        <v>288</v>
-      </c>
-      <c r="F5" s="13">
-        <v>1</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
       </c>
       <c r="H5" s="13">
-        <v>1</v>
-      </c>
-      <c r="I5" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="K5" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="P5" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="R5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="39"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="R5" s="39"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="62" customHeight="1" spans="1:18">
       <c r="A6" s="10" t="s">
         <v>55</v>
       </c>
@@ -2516,1975 +2421,1860 @@
       <c r="C6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>58</v>
+      <c r="D6" s="11">
+        <v>488</v>
       </c>
       <c r="E6" s="11">
-        <v>488</v>
-      </c>
-      <c r="F6" s="11">
         <v>2</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>32</v>
+      <c r="F6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
       </c>
       <c r="H6" s="11">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="K6" s="11" t="s">
         <v>59</v>
       </c>
       <c r="L6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="11"/>
       <c r="P6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="11"/>
+      <c r="R6" s="38"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="62" customHeight="1" spans="1:18">
+      <c r="A7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="38"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>66</v>
+      <c r="D7" s="9">
+        <v>488</v>
       </c>
       <c r="E7" s="9">
-        <v>488</v>
-      </c>
-      <c r="F7" s="9">
         <v>2</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>32</v>
+      <c r="F7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
       </c>
       <c r="H7" s="9">
-        <v>1</v>
-      </c>
-      <c r="I7" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="37"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="62" customHeight="1" spans="1:18">
+      <c r="A8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="R7" s="9"/>
-      <c r="S7" s="37"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>72</v>
+      <c r="D8" s="11">
+        <v>488</v>
       </c>
       <c r="E8" s="11">
-        <v>488</v>
-      </c>
-      <c r="F8" s="11">
         <v>2</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>32</v>
+      <c r="F8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
       </c>
       <c r="H8" s="11">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="K8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="38"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="62" customHeight="1" spans="1:18">
+      <c r="A9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="Q8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="38"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>78</v>
+      <c r="D9" s="9">
+        <v>488</v>
       </c>
       <c r="E9" s="9">
-        <v>488</v>
-      </c>
-      <c r="F9" s="9">
         <v>2</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>32</v>
+      <c r="F9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
       </c>
       <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="K9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="37"/>
+    </row>
+    <row r="10" ht="62" customHeight="1" spans="1:18">
+      <c r="A10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="R9" s="9"/>
-      <c r="S9" s="37"/>
-    </row>
-    <row r="10" ht="62" customHeight="1" spans="1:19">
-      <c r="A10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>84</v>
+      <c r="D10" s="15">
+        <v>488</v>
       </c>
       <c r="E10" s="15">
-        <v>488</v>
-      </c>
-      <c r="F10" s="15">
         <v>2</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>32</v>
+      <c r="F10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
       </c>
       <c r="H10" s="15">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15" t="s">
-        <v>85</v>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="15">
+        <v>1</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="36"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="R10" s="36"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="62" customHeight="1" spans="1:18">
       <c r="A11" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
+      </c>
+      <c r="D11" s="9">
+        <v>488</v>
       </c>
       <c r="E11" s="9">
-        <v>488</v>
-      </c>
-      <c r="F11" s="9">
         <v>2</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>32</v>
+      <c r="F11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
       </c>
       <c r="H11" s="9">
-        <v>1</v>
-      </c>
-      <c r="I11" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="K11" s="9" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9" t="s">
-        <v>91</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="37"/>
-    </row>
-    <row r="12" ht="62" customHeight="1" spans="1:19">
+      <c r="R11" s="37"/>
+    </row>
+    <row r="12" ht="62" customHeight="1" spans="1:18">
       <c r="A12" s="14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>95</v>
+        <v>88</v>
+      </c>
+      <c r="D12" s="15">
+        <v>288</v>
       </c>
       <c r="E12" s="15">
-        <v>288</v>
-      </c>
-      <c r="F12" s="15">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
       </c>
       <c r="H12" s="15">
-        <v>0</v>
-      </c>
-      <c r="I12" s="15">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15" t="s">
-        <v>96</v>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="15">
+        <v>1</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="P12" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q12" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="R12" s="15"/>
-      <c r="S12" s="36"/>
-    </row>
-    <row r="13" ht="62" customHeight="1" spans="1:19">
+        <v>91</v>
+      </c>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="36"/>
+    </row>
+    <row r="13" ht="62" customHeight="1" spans="1:18">
       <c r="A13" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>102</v>
+        <v>94</v>
+      </c>
+      <c r="D13" s="13">
+        <v>288</v>
       </c>
       <c r="E13" s="13">
-        <v>288</v>
-      </c>
-      <c r="F13" s="13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
       </c>
       <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13" t="s">
-        <v>103</v>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="13">
+        <v>1</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="P13" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="39"/>
+    </row>
+    <row r="14" customFormat="1" ht="62" customHeight="1" spans="1:18">
+      <c r="A14" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="39"/>
-    </row>
-    <row r="14" customFormat="1" ht="62" customHeight="1" spans="1:19">
-      <c r="A14" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>106</v>
-      </c>
       <c r="C14" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>108</v>
+        <v>99</v>
+      </c>
+      <c r="D14" s="15">
+        <v>488</v>
       </c>
       <c r="E14" s="15">
-        <v>488</v>
-      </c>
-      <c r="F14" s="15">
         <v>2</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>32</v>
+      <c r="F14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1</v>
       </c>
       <c r="H14" s="15">
-        <v>1</v>
-      </c>
-      <c r="I14" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15" t="s">
-        <v>109</v>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="15">
+        <v>1</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O14" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="P14" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q14" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="R14" s="15"/>
-      <c r="S14" s="36"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="36"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="62" customHeight="1" spans="1:18">
       <c r="A15" s="16" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="D15" s="17">
+        <v>288</v>
       </c>
       <c r="E15" s="17">
-        <v>288</v>
-      </c>
-      <c r="F15" s="17">
-        <v>1</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="17">
+        <v>1</v>
       </c>
       <c r="H15" s="17">
-        <v>1</v>
-      </c>
-      <c r="I15" s="17">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="K15" s="17" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17" t="s">
-        <v>117</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="40"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="R15" s="40"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="62" customHeight="1" spans="1:18">
       <c r="A16" s="18" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>121</v>
+        <v>110</v>
+      </c>
+      <c r="D16" s="19">
+        <v>488</v>
       </c>
       <c r="E16" s="19">
-        <v>488</v>
-      </c>
-      <c r="F16" s="19">
         <v>2</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>32</v>
+      <c r="F16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
       </c>
       <c r="H16" s="19">
-        <v>0</v>
-      </c>
-      <c r="I16" s="19">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="K16" s="19" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19" t="s">
-        <v>117</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="41"/>
-    </row>
-    <row r="17" ht="62" customHeight="1" spans="1:19">
+      <c r="R16" s="41"/>
+    </row>
+    <row r="17" ht="62" customHeight="1" spans="1:18">
       <c r="A17" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>125</v>
+        <v>113</v>
+      </c>
+      <c r="D17" s="13">
+        <v>288</v>
       </c>
       <c r="E17" s="13">
-        <v>288</v>
-      </c>
-      <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
       </c>
       <c r="H17" s="13">
-        <v>1</v>
-      </c>
-      <c r="I17" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="K17" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13" t="s">
-        <v>126</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="39"/>
-    </row>
-    <row r="18" ht="62" customHeight="1" spans="1:19">
+      <c r="R17" s="39"/>
+    </row>
+    <row r="18" ht="62" customHeight="1" spans="1:18">
       <c r="A18" s="14" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>130</v>
+        <v>117</v>
+      </c>
+      <c r="D18" s="15">
+        <v>888</v>
       </c>
       <c r="E18" s="15">
-        <v>888</v>
-      </c>
-      <c r="F18" s="15">
         <v>3</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>32</v>
+      <c r="F18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1</v>
       </c>
       <c r="H18" s="15">
-        <v>1</v>
-      </c>
-      <c r="I18" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15" t="s">
-        <v>59</v>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="15">
+        <v>1</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15" t="s">
-        <v>117</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="36"/>
-    </row>
-    <row r="19" ht="62" customHeight="1" spans="1:19">
+      <c r="R18" s="36"/>
+    </row>
+    <row r="19" ht="62" customHeight="1" spans="1:18">
       <c r="A19" s="12" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>134</v>
+        <v>120</v>
+      </c>
+      <c r="D19" s="13">
+        <v>288</v>
       </c>
       <c r="E19" s="13">
-        <v>288</v>
-      </c>
-      <c r="F19" s="13">
-        <v>1</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1</v>
       </c>
       <c r="H19" s="13">
-        <v>1</v>
-      </c>
-      <c r="I19" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13" t="s">
-        <v>67</v>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="13">
+        <v>1</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13" t="s">
-        <v>135</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="39"/>
-    </row>
-    <row r="20" ht="62" customHeight="1" spans="1:19">
+      <c r="R19" s="39"/>
+    </row>
+    <row r="20" ht="62" customHeight="1" spans="1:18">
       <c r="A20" s="14" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="D20" s="15">
+        <v>488</v>
       </c>
       <c r="E20" s="15">
-        <v>488</v>
-      </c>
-      <c r="F20" s="15">
         <v>2</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>32</v>
+      <c r="F20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="15">
+        <v>1</v>
       </c>
       <c r="H20" s="15">
-        <v>1</v>
-      </c>
-      <c r="I20" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15" t="s">
-        <v>73</v>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="15">
+        <v>1</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O20" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="P20" s="15" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="R20" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="S20" s="36"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+        <v>127</v>
+      </c>
+      <c r="R20" s="36"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="62" customHeight="1" spans="1:20">
       <c r="A21" s="16" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>146</v>
+        <v>130</v>
+      </c>
+      <c r="D21" s="17">
+        <v>288</v>
       </c>
       <c r="E21" s="17">
-        <v>288</v>
-      </c>
-      <c r="F21" s="17">
-        <v>1</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0</v>
       </c>
       <c r="H21" s="17">
-        <v>0</v>
-      </c>
-      <c r="I21" s="17">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17" t="s">
+        <v>75</v>
+      </c>
       <c r="K21" s="17" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17" t="s">
-        <v>117</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="40"/>
-    </row>
-    <row r="22" ht="62" customHeight="1" spans="1:19">
+      <c r="R21" s="40"/>
+      <c r="T21" s="42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" ht="62" customHeight="1" spans="1:18">
       <c r="A22" s="14" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>150</v>
+        <v>135</v>
+      </c>
+      <c r="D22" s="15">
+        <v>388</v>
       </c>
       <c r="E22" s="15">
-        <v>388</v>
-      </c>
-      <c r="F22" s="15">
         <v>2</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>32</v>
+      <c r="F22" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1</v>
       </c>
       <c r="H22" s="15">
-        <v>1</v>
-      </c>
-      <c r="I22" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="K22" s="15" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O22" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15" t="s">
+        <v>136</v>
+      </c>
       <c r="P22" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q22" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="R22" s="15"/>
-      <c r="S22" s="36"/>
-    </row>
-    <row r="23" ht="62" customHeight="1" spans="1:19">
+        <v>137</v>
+      </c>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="36"/>
+    </row>
+    <row r="23" ht="62" customHeight="1" spans="1:18">
       <c r="A23" s="12" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>156</v>
+        <v>139</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="20">
+        <v>288</v>
       </c>
       <c r="E23" s="20">
-        <v>288</v>
-      </c>
-      <c r="F23" s="20">
-        <v>1</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="20">
-        <v>1</v>
-      </c>
-      <c r="I23" s="13">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="20">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13" t="s">
-        <v>34</v>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="13">
+        <v>1</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O23" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13" t="s">
+        <v>141</v>
+      </c>
       <c r="P23" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q23" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="R23" s="13"/>
-      <c r="S23" s="39"/>
-    </row>
-    <row r="24" ht="62" customHeight="1" spans="1:19">
+        <v>142</v>
+      </c>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="39"/>
+    </row>
+    <row r="24" ht="62" customHeight="1" spans="1:18">
       <c r="A24" s="14" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>162</v>
+        <v>144</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="22">
+        <v>288</v>
       </c>
       <c r="E24" s="22">
-        <v>288</v>
-      </c>
-      <c r="F24" s="22">
-        <v>1</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="22">
-        <v>1</v>
-      </c>
-      <c r="I24" s="15">
+        <v>1</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="22">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15" t="s">
-        <v>42</v>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="15">
+        <v>1</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O24" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="P24" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q24" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="R24" s="15"/>
-      <c r="S24" s="36"/>
-    </row>
-    <row r="25" ht="62" customHeight="1" spans="1:19">
+        <v>137</v>
+      </c>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="36"/>
+    </row>
+    <row r="25" ht="62" customHeight="1" spans="1:18">
       <c r="A25" s="12" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>167</v>
+        <v>148</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="20">
+        <v>288</v>
       </c>
       <c r="E25" s="20">
-        <v>288</v>
-      </c>
-      <c r="F25" s="20">
-        <v>1</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="20">
-        <v>1</v>
-      </c>
-      <c r="I25" s="13">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="20">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13" t="s">
+      <c r="I25" s="13"/>
+      <c r="J25" s="13" t="s">
         <v>50</v>
       </c>
+      <c r="K25" s="13">
+        <v>1</v>
+      </c>
       <c r="L25" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O25" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13" t="s">
+        <v>150</v>
+      </c>
       <c r="P25" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="R25" s="13"/>
-      <c r="S25" s="39"/>
-    </row>
-    <row r="26" ht="62" customHeight="1" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="39"/>
+    </row>
+    <row r="26" ht="62" customHeight="1" spans="1:18">
       <c r="A26" s="14" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>173</v>
+        <v>153</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="22">
+        <v>488</v>
       </c>
       <c r="E26" s="22">
-        <v>488</v>
-      </c>
-      <c r="F26" s="22">
         <v>2</v>
       </c>
-      <c r="G26" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="22">
-        <v>1</v>
-      </c>
-      <c r="I26" s="15">
+      <c r="F26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="22">
+        <v>1</v>
+      </c>
+      <c r="H26" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15" t="s">
-        <v>59</v>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="15">
+        <v>1</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O26" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15" t="s">
+        <v>151</v>
+      </c>
       <c r="P26" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q26" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="R26" s="15"/>
-      <c r="S26" s="36"/>
-    </row>
-    <row r="27" ht="62" customHeight="1" spans="1:19">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="36"/>
+    </row>
+    <row r="27" ht="62" customHeight="1" spans="1:18">
       <c r="A27" s="12" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>178</v>
+        <v>157</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="20">
+        <v>188</v>
       </c>
       <c r="E27" s="20">
-        <v>188</v>
-      </c>
-      <c r="F27" s="20">
-        <v>1</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="20">
-        <v>1</v>
-      </c>
-      <c r="I27" s="13">
+        <v>1</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="20">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="K27" s="13" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N27" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13" t="s">
-        <v>117</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="39"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="R27" s="39"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="62" customHeight="1" spans="1:18">
       <c r="A28" s="10" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>182</v>
+        <v>160</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="24">
+        <v>388</v>
       </c>
       <c r="E28" s="24">
-        <v>388</v>
-      </c>
-      <c r="F28" s="24">
         <v>2</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="24">
+      <c r="F28" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="24">
         <v>0</v>
       </c>
-      <c r="I28" s="11">
+      <c r="H28" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="K28" s="11" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="38"/>
-    </row>
-    <row r="29" ht="62" customHeight="1" spans="1:19">
+      <c r="R28" s="38"/>
+    </row>
+    <row r="29" ht="62" customHeight="1" spans="1:18">
       <c r="A29" s="12" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>187</v>
+        <v>164</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="20">
+        <v>888</v>
       </c>
       <c r="E29" s="20">
-        <v>888</v>
-      </c>
-      <c r="F29" s="20">
         <v>3</v>
       </c>
-      <c r="G29" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="20">
-        <v>1</v>
-      </c>
-      <c r="I29" s="13">
+      <c r="F29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="20">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13" t="s">
-        <v>79</v>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K29" s="13">
+        <v>1</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N29" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13" t="s">
-        <v>117</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="39"/>
-    </row>
-    <row r="30" ht="62" customHeight="1" spans="1:19">
+      <c r="R29" s="39"/>
+    </row>
+    <row r="30" ht="62" customHeight="1" spans="1:18">
       <c r="A30" s="14" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>191</v>
+        <v>167</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="22">
+        <v>488</v>
       </c>
       <c r="E30" s="22">
-        <v>488</v>
-      </c>
-      <c r="F30" s="22">
         <v>2</v>
       </c>
-      <c r="G30" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="22">
-        <v>1</v>
-      </c>
-      <c r="I30" s="15">
+      <c r="F30" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="22">
+        <v>1</v>
+      </c>
+      <c r="H30" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="K30" s="15" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N30" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O30" s="15"/>
-      <c r="P30" s="13" t="s">
-        <v>117</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="N30" s="15"/>
+      <c r="O30" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="36"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="R30" s="36"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="62" customHeight="1" spans="1:18">
       <c r="A31" s="16" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>195</v>
+        <v>170</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="26">
+        <v>288</v>
       </c>
       <c r="E31" s="26">
-        <v>288</v>
-      </c>
-      <c r="F31" s="26">
-        <v>1</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="26">
-        <v>1</v>
-      </c>
-      <c r="I31" s="17">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="26">
+        <v>1</v>
+      </c>
+      <c r="H31" s="17">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17" t="s">
-        <v>90</v>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31" s="17">
+        <v>1</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="N31" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17" t="s">
-        <v>117</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="40"/>
-    </row>
-    <row r="32" ht="62" customHeight="1" spans="1:19">
+      <c r="R31" s="40"/>
+    </row>
+    <row r="32" ht="62" customHeight="1" spans="1:18">
       <c r="A32" s="14" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>199</v>
+        <v>173</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="22">
+        <v>288</v>
       </c>
       <c r="E32" s="22">
-        <v>288</v>
-      </c>
-      <c r="F32" s="22">
-        <v>1</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="22">
-        <v>1</v>
-      </c>
-      <c r="I32" s="15">
+        <v>1</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="22">
+        <v>1</v>
+      </c>
+      <c r="H32" s="15">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="K32" s="15" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N32" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O32" s="15"/>
-      <c r="P32" s="13" t="s">
-        <v>117</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="N32" s="15"/>
+      <c r="O32" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="36"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="R32" s="36"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="62" customHeight="1" spans="1:18">
       <c r="A33" s="16" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>203</v>
+        <v>176</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" s="26">
+        <v>288</v>
       </c>
       <c r="E33" s="26">
-        <v>288</v>
-      </c>
-      <c r="F33" s="26">
-        <v>1</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="26">
-        <v>1</v>
-      </c>
-      <c r="I33" s="17">
+        <v>1</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="26">
+        <v>1</v>
+      </c>
+      <c r="H33" s="17">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="K33" s="17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="M33" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="N33" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17" t="s">
-        <v>117</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="40"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="R33" s="40"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="62" customHeight="1" spans="1:18">
       <c r="A34" s="18" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>207</v>
+        <v>179</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="28">
+        <v>388</v>
       </c>
       <c r="E34" s="28">
-        <v>388</v>
-      </c>
-      <c r="F34" s="28">
         <v>2</v>
       </c>
-      <c r="G34" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="28">
+      <c r="F34" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="28">
         <v>0</v>
       </c>
-      <c r="I34" s="19">
+      <c r="H34" s="19">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="K34" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="N34" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O34" s="19"/>
-      <c r="P34" s="17" t="s">
-        <v>117</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="N34" s="19"/>
+      <c r="O34" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="41"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="R34" s="41"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="62" customHeight="1" spans="1:18">
       <c r="A35" s="16" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>211</v>
+        <v>182</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="26">
+        <v>388</v>
       </c>
       <c r="E35" s="26">
-        <v>388</v>
-      </c>
-      <c r="F35" s="26">
         <v>2</v>
       </c>
-      <c r="G35" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="26">
+      <c r="F35" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="26">
         <v>0</v>
       </c>
-      <c r="I35" s="17">
+      <c r="H35" s="17">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="K35" s="17" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="N35" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17" t="s">
-        <v>117</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="40"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="R35" s="40"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="62" customHeight="1" spans="1:18">
       <c r="A36" s="18" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>215</v>
+        <v>185</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="28">
+        <v>388</v>
       </c>
       <c r="E36" s="28">
-        <v>388</v>
-      </c>
-      <c r="F36" s="28">
         <v>2</v>
       </c>
-      <c r="G36" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="28">
+      <c r="F36" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="28">
         <v>0</v>
       </c>
-      <c r="I36" s="19">
+      <c r="H36" s="19">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="K36" s="19" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="N36" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O36" s="19"/>
-      <c r="P36" s="17" t="s">
-        <v>117</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="N36" s="19"/>
+      <c r="O36" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="41"/>
-    </row>
-    <row r="37" ht="62" customHeight="1" spans="1:19">
+      <c r="R36" s="41"/>
+    </row>
+    <row r="37" ht="62" customHeight="1" spans="1:18">
       <c r="A37" s="12" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>219</v>
+        <v>188</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="20">
+        <v>288</v>
       </c>
       <c r="E37" s="20">
-        <v>288</v>
-      </c>
-      <c r="F37" s="20">
-        <v>1</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="20">
-        <v>1</v>
-      </c>
-      <c r="I37" s="13">
+        <v>1</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="20">
+        <v>1</v>
+      </c>
+      <c r="H37" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="K37" s="13" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N37" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13" t="s">
-        <v>117</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="39"/>
-    </row>
-    <row r="38" ht="62" customHeight="1" spans="1:19">
+      <c r="R37" s="39"/>
+    </row>
+    <row r="38" ht="62" customHeight="1" spans="1:18">
       <c r="A38" s="14" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>224</v>
+        <v>192</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" s="22">
+        <v>888</v>
       </c>
       <c r="E38" s="22">
-        <v>888</v>
-      </c>
-      <c r="F38" s="22">
         <v>3</v>
       </c>
-      <c r="G38" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="22">
-        <v>1</v>
-      </c>
-      <c r="I38" s="15">
+      <c r="F38" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="22">
+        <v>1</v>
+      </c>
+      <c r="H38" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="K38" s="15" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M38" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N38" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O38" s="15"/>
-      <c r="P38" s="13" t="s">
-        <v>117</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="N38" s="15"/>
+      <c r="O38" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="36"/>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="62" customHeight="1" spans="1:19">
+      <c r="R38" s="36"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="62" customHeight="1" spans="1:18">
       <c r="A39" s="16" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>228</v>
+        <v>195</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" s="26">
+        <v>388</v>
       </c>
       <c r="E39" s="26">
-        <v>388</v>
-      </c>
-      <c r="F39" s="26">
         <v>2</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="26">
-        <v>1</v>
-      </c>
-      <c r="I39" s="17">
+      <c r="F39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="26">
+        <v>1</v>
+      </c>
+      <c r="H39" s="17">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="K39" s="17" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="M39" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="N39" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17" t="s">
-        <v>117</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="40"/>
-    </row>
-    <row r="40" ht="62" customHeight="1" spans="1:19">
+      <c r="R39" s="40"/>
+    </row>
+    <row r="40" ht="62" customHeight="1" spans="1:18">
       <c r="A40" s="14" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>232</v>
+        <v>198</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D40" s="22">
+        <v>488</v>
       </c>
       <c r="E40" s="22">
-        <v>488</v>
-      </c>
-      <c r="F40" s="22">
         <v>2</v>
       </c>
-      <c r="G40" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="22">
-        <v>1</v>
-      </c>
-      <c r="I40" s="15">
+      <c r="F40" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="22">
+        <v>1</v>
+      </c>
+      <c r="H40" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15" t="s">
-        <v>73</v>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K40" s="15">
+        <v>1</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M40" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N40" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O40" s="15"/>
-      <c r="P40" s="13" t="s">
-        <v>117</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="N40" s="15"/>
+      <c r="O40" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="36"/>
-    </row>
-    <row r="41" ht="62" customHeight="1" spans="1:19">
+      <c r="R40" s="36"/>
+    </row>
+    <row r="41" ht="62" customHeight="1" spans="1:18">
       <c r="A41" s="12" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>236</v>
+        <v>201</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" s="20">
+        <v>488</v>
       </c>
       <c r="E41" s="20">
-        <v>488</v>
-      </c>
-      <c r="F41" s="20">
         <v>2</v>
       </c>
-      <c r="G41" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" s="20">
-        <v>1</v>
-      </c>
-      <c r="I41" s="13">
+      <c r="F41" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="20">
+        <v>1</v>
+      </c>
+      <c r="H41" s="13">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13" t="s">
-        <v>79</v>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K41" s="13">
+        <v>1</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M41" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N41" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13" t="s">
-        <v>117</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P41" s="13"/>
       <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="39"/>
-    </row>
-    <row r="42" ht="62" customHeight="1" spans="1:19">
+      <c r="R41" s="39"/>
+    </row>
+    <row r="42" ht="62" customHeight="1" spans="1:18">
       <c r="A42" s="14" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>240</v>
+        <v>204</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="22">
+        <v>288</v>
       </c>
       <c r="E42" s="22">
-        <v>288</v>
-      </c>
-      <c r="F42" s="22">
-        <v>1</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="22">
+        <v>1</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="22">
         <v>0</v>
       </c>
-      <c r="I42" s="15">
+      <c r="H42" s="15">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="K42" s="15" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M42" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N42" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O42" s="15"/>
-      <c r="P42" s="13" t="s">
-        <v>117</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="N42" s="15"/>
+      <c r="O42" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="36"/>
-    </row>
-    <row r="43" ht="62" customHeight="1" spans="1:19">
+      <c r="R42" s="36"/>
+    </row>
+    <row r="43" ht="62" customHeight="1" spans="1:18">
       <c r="A43" s="12" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>244</v>
+        <v>207</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="20">
+        <v>488</v>
       </c>
       <c r="E43" s="20">
-        <v>488</v>
-      </c>
-      <c r="F43" s="20">
         <v>2</v>
       </c>
-      <c r="G43" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="20">
-        <v>1</v>
-      </c>
-      <c r="I43" s="13">
+      <c r="F43" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="20">
+        <v>1</v>
+      </c>
+      <c r="H43" s="13">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="K43" s="13" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M43" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N43" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13" t="s">
-        <v>117</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="39"/>
-    </row>
-    <row r="44" ht="62" customHeight="1" spans="1:19">
+      <c r="R43" s="39"/>
+    </row>
+    <row r="44" ht="62" customHeight="1" spans="1:18">
       <c r="A44" s="30" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>248</v>
+        <v>211</v>
+      </c>
+      <c r="D44" s="31">
+        <v>888</v>
       </c>
       <c r="E44" s="31">
-        <v>888</v>
-      </c>
-      <c r="F44" s="31">
         <v>3</v>
       </c>
-      <c r="G44" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" s="31">
-        <v>1</v>
-      </c>
-      <c r="I44" s="32">
+      <c r="F44" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="31">
+        <v>1</v>
+      </c>
+      <c r="H44" s="33">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="L44" s="32" t="s">
+      <c r="I44" s="33"/>
+      <c r="J44" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="K44" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="M44" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="N44" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O44" s="32"/>
-      <c r="P44" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="42"/>
-    </row>
-    <row r="45" ht="14.25"/>
+      <c r="L44" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N44" s="33"/>
+      <c r="O44" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="43"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="276">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>在之后的灵魂商店购买其他圣物时，消耗降低50%。</t>
+  </si>
+  <si>
+    <t>和常客优惠I加算</t>
   </si>
   <si>
     <t>clinkz_searing_arrows_immortal</t>
@@ -452,7 +455,7 @@
     <t>【斯嘉蒂之眼】</t>
   </si>
   <si>
-    <t>冰元素技能降低移速时，同时降低敌人30%攻击速度和20%元素抗性，持续3秒</t>
+    <t>冰元素技能降低移速时，同时降低敌人30%攻击速度和20%冰元素抗性，持续3秒</t>
   </si>
   <si>
     <t>red_attack_speed 30</t>
@@ -494,7 +497,7 @@
     <t>【无极】</t>
   </si>
   <si>
-    <t>敌人受到debuff效果时，受到的伤害加深15% 对有debuff的敌人多造成15%伤害。</t>
+    <t>敌人受到debuff效果时，受到的伤害加深15%。</t>
   </si>
   <si>
     <t>cooldown 90</t>
@@ -515,7 +518,7 @@
     <t>【不朽之守护】</t>
   </si>
   <si>
-    <t>阵亡时不消耗复活次数原地复活，一次性物品 复活次数+1</t>
+    <t>消耗品,阵亡时原地复活,获得3秒无敌</t>
   </si>
   <si>
     <t>AddPlayerLife</t>
@@ -536,7 +539,7 @@
     <t>【血祭】</t>
   </si>
   <si>
-    <t>不在消耗蓝量，任意技能消耗变为1%最大生命值，生命值临界值10%</t>
+    <t>不在消耗蓝量，任意技能消耗变为1%最大生命值，生命值临界值10%(低于时不再使用技能)</t>
   </si>
   <si>
     <t>prop_29</t>
@@ -554,7 +557,7 @@
     <t>【极速护符】</t>
   </si>
   <si>
-    <t>原地不动时，技能极速+15%（可突破上限）</t>
+    <t>原地不动时，技能冷却+15%（可突破上限）</t>
   </si>
   <si>
     <t>prop_31</t>
@@ -566,6 +569,9 @@
     <t>最大蓝量+200，但最大生命值减少25%</t>
   </si>
   <si>
+    <t>独立乘区减少</t>
+  </si>
+  <si>
     <t>prop_32</t>
   </si>
   <si>
@@ -614,6 +620,9 @@
     <t>仙人之上一换一：自身阵亡时强制带走击杀你的单位（可带走小boss，不包括最终boss）（超稀有）</t>
   </si>
   <si>
+    <t>毎5关的BOSS也可以带走</t>
+  </si>
+  <si>
     <t>prop_37</t>
   </si>
   <si>
@@ -623,6 +632,9 @@
     <t>生命恢复及吸血效果增强20%</t>
   </si>
   <si>
+    <t>RestoreIncrease</t>
+  </si>
+  <si>
     <t>prop_38</t>
   </si>
   <si>
@@ -630,6 +642,9 @@
   </si>
   <si>
     <t>攻击自身的敌人会被束缚1秒</t>
+  </si>
+  <si>
+    <t>碰撞时触发,无内置冷却</t>
   </si>
   <si>
     <t>prop_39</t>
@@ -667,6 +682,183 @@
   <si>
     <t>每过10秒，从天而降一道雷，对自身及自身周围500码敌人造成无差别伤害，伤害系数为攻击力*1000%无视元素抗性的伤害
 但自身具有抗性，只会受到10%的伤害。（慎选）</t>
+  </si>
+  <si>
+    <t>prop_43</t>
+  </si>
+  <si>
+    <t>【定时收获】</t>
+  </si>
+  <si>
+    <t>自己无法拾取经验球，但每过120秒会自动拾取全地图的经验球</t>
+  </si>
+  <si>
+    <t>prop_44</t>
+  </si>
+  <si>
+    <t>【重修之书】</t>
+  </si>
+  <si>
+    <t>重置当前技能点</t>
+  </si>
+  <si>
+    <t>prop_45</t>
+  </si>
+  <si>
+    <t>【冰霜之心】</t>
+  </si>
+  <si>
+    <t>每过10秒，冻结自身半径500码敌人1秒</t>
+  </si>
+  <si>
+    <t>prop_46</t>
+  </si>
+  <si>
+    <t>【原力护符】</t>
+  </si>
+  <si>
+    <t>敌人受到的首次伤害增加50%</t>
+  </si>
+  <si>
+    <t>第一次伤害</t>
+  </si>
+  <si>
+    <t>prop_47</t>
+  </si>
+  <si>
+    <t>【不休尸王的钢盔】</t>
+  </si>
+  <si>
+    <t>复活时间减少15%，受到致死打击后还能继续存活6秒</t>
+  </si>
+  <si>
+    <t>prop_48</t>
+  </si>
+  <si>
+    <t>【忍者头巾】</t>
+  </si>
+  <si>
+    <t>闪避+25%</t>
+  </si>
+  <si>
+    <t>乘算</t>
+  </si>
+  <si>
+    <t>prop_49</t>
+  </si>
+  <si>
+    <t>【石中剑】</t>
+  </si>
+  <si>
+    <t>每击杀100个敌军增加1%攻击力（精英怪算5个敌军，boss算15个）</t>
+  </si>
+  <si>
+    <t>prop_50</t>
+  </si>
+  <si>
+    <t>【裁决项链】</t>
+  </si>
+  <si>
+    <t>最大蓝量减少50%，但技能伤害+50%</t>
+  </si>
+  <si>
+    <t>蓝量是独立乘区</t>
+  </si>
+  <si>
+    <t>prop_51</t>
+  </si>
+  <si>
+    <t>【圣坛遗物】</t>
+  </si>
+  <si>
+    <t>击杀敌军有3%概率获得随机圣坛效果，持续5秒</t>
+  </si>
+  <si>
+    <t>prop_52</t>
+  </si>
+  <si>
+    <t>【巨人杀手】</t>
+  </si>
+  <si>
+    <t>对精英怪和boss造成的伤害提高25%</t>
+  </si>
+  <si>
+    <t>prop_53</t>
+  </si>
+  <si>
+    <t>【矮子杀手】</t>
+  </si>
+  <si>
+    <t>对敌军造成伤害提高50%，但对精英怪和boss造成伤害降低25%</t>
+  </si>
+  <si>
+    <t>prop_54</t>
+  </si>
+  <si>
+    <t>【望远镜】</t>
+  </si>
+  <si>
+    <t>视野范围增加200码</t>
+  </si>
+  <si>
+    <t>prop_55</t>
+  </si>
+  <si>
+    <t>【神圣指向】</t>
+  </si>
+  <si>
+    <t>地图上出现圣坛时，会给玩家指引（箭头指引）</t>
+  </si>
+  <si>
+    <t>箭头其他玩家不可见</t>
+  </si>
+  <si>
+    <t>prop_56</t>
+  </si>
+  <si>
+    <t>【天辉军团的肯定】</t>
+  </si>
+  <si>
+    <t>完成天辉任务时，全队灵魂奖励+20%（可叠加）</t>
+  </si>
+  <si>
+    <t>prop_57</t>
+  </si>
+  <si>
+    <t>【夜魇军团的肯定】</t>
+  </si>
+  <si>
+    <t>完成夜魇任务时，全队经验值奖励+20%（可叠加）</t>
+  </si>
+  <si>
+    <t>prop_58</t>
+  </si>
+  <si>
+    <t>【尸鬼封尽】</t>
+  </si>
+  <si>
+    <t>随机封印一个技能（完全禁用），同时自身造成伤害提高30%</t>
+  </si>
+  <si>
+    <t>伤害加成加算</t>
+  </si>
+  <si>
+    <t>prop_59</t>
+  </si>
+  <si>
+    <t>【任务小子】</t>
+  </si>
+  <si>
+    <t>天辉任务进行时，增加30%移动速度；夜魇任务进行时，阵亡时瞬间重生，重生每次任务只生效1次</t>
+  </si>
+  <si>
+    <t>prop_60</t>
+  </si>
+  <si>
+    <t>【林野长弓】</t>
+  </si>
+  <si>
+    <t>攻击范围+200码</t>
   </si>
 </sst>
 </file>
@@ -679,7 +871,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,12 +883,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1342,152 +1528,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1512,112 +1698,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1808,11 +1925,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0461B89A-594C-4968-9DAD-724DB804CBD3}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{6C6DF386-E897-405E-8DCB-623DC0CAF12B}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{905BA4E6-1FC7-4158-B021-4BD4AFAF930D}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F011A68D-571D-4E8E-B879-F499ABB7ABB7}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2113,34 +2230,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.5083333333333" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="41.375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="13.3416666666667" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="9" width="14.625" customWidth="1"/>
-    <col min="10" max="11" width="34.8416666666667" customWidth="1"/>
-    <col min="12" max="13" width="24.625" customWidth="1"/>
-    <col min="14" max="14" width="12.375" customWidth="1"/>
-    <col min="15" max="15" width="36.8416666666667" customWidth="1"/>
-    <col min="16" max="17" width="30.175" customWidth="1"/>
-    <col min="18" max="18" width="8.34166666666667" customWidth="1"/>
-    <col min="19" max="19" width="17.125" customWidth="1"/>
-    <col min="20" max="20" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="13.0083333333333" customWidth="1"/>
+    <col min="2" max="2" width="21.3416666666667" customWidth="1"/>
+    <col min="3" max="3" width="37.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.675" customWidth="1"/>
+    <col min="5" max="5" width="11.175" customWidth="1"/>
+    <col min="6" max="6" width="13.0083333333333" customWidth="1"/>
+    <col min="7" max="7" width="25.3416666666667" customWidth="1"/>
+    <col min="8" max="8" width="10.675" customWidth="1"/>
+    <col min="9" max="9" width="14.675" customWidth="1"/>
+    <col min="10" max="10" width="31.4833333333333" customWidth="1"/>
+    <col min="11" max="11" width="16.8416666666667" customWidth="1"/>
+    <col min="12" max="12" width="14.8416666666667" customWidth="1"/>
+    <col min="13" max="13" width="9.34166666666667" customWidth="1"/>
+    <col min="14" max="14" width="14.175" customWidth="1"/>
+    <col min="15" max="15" width="31.4833333333333" customWidth="1"/>
+    <col min="16" max="16" width="14.5083333333333" customWidth="1"/>
+    <col min="17" max="17" width="11.0083333333333" customWidth="1"/>
+    <col min="18" max="18" width="5.34166666666667" customWidth="1"/>
+    <col min="19" max="19" width="14.3416666666667" customWidth="1"/>
+    <col min="20" max="20" width="17.175" customWidth="1"/>
+    <col min="21" max="22" width="3.24166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:19">
+    <row r="1" ht="18.5" customHeight="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2186,21 +2309,24 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:23">
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="17"/>
+    </row>
+    <row r="2" ht="18.5" customHeight="1" spans="1:23">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -2219,7 +2345,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="7" t="s">
@@ -2231,2051 +2357,3091 @@
       <c r="M2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="34">
-        <v>1</v>
-      </c>
-      <c r="P2" s="34">
+      <c r="O2" s="15">
+        <v>1</v>
+      </c>
+      <c r="P2" s="16">
         <v>2</v>
       </c>
-      <c r="Q2" s="34">
+      <c r="Q2" s="16">
         <v>3</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
+      <c r="T2" s="7">
+        <v>1</v>
+      </c>
+      <c r="U2" s="7">
         <v>2</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="18">
         <v>3</v>
       </c>
       <c r="W2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="62" customHeight="1" spans="1:18">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="1" customFormat="1" ht="35" customHeight="1" spans="1:22">
+      <c r="A3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="10">
         <v>288</v>
       </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
         <f>(4-E3)*16</f>
         <v>48</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9" t="s">
+      <c r="L3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="O3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="37"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="62" customHeight="1" spans="1:18">
-      <c r="A4" s="10" t="s">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="19"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:22">
+      <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="7">
         <v>488</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="7">
         <v>2</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="F4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="7">
         <v>0</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="7">
         <f t="shared" ref="H4:H44" si="0">(4-E4)*16</f>
         <v>32</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11" t="s">
+      <c r="L4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="38"/>
-    </row>
-    <row r="5" ht="62" customHeight="1" spans="1:18">
-      <c r="A5" s="12" t="s">
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="18"/>
+    </row>
+    <row r="5" ht="51.5" customHeight="1" spans="1:22">
+      <c r="A5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>288</v>
       </c>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="13">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13">
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13" t="s">
+      <c r="L5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="39"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="62" customHeight="1" spans="1:18">
-      <c r="A6" s="10" t="s">
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="19"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="35" customHeight="1" spans="1:22">
+      <c r="A6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7">
         <v>488</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="7">
         <v>2</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="F6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="18"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="35" customHeight="1" spans="1:22">
+      <c r="A7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="10">
+        <v>488</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="19"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="35" customHeight="1" spans="1:22">
+      <c r="A8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="7">
+        <v>488</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="18"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="35" customHeight="1" spans="1:22">
+      <c r="A9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="10">
+        <v>488</v>
+      </c>
+      <c r="E9" s="10">
+        <v>2</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="19"/>
+    </row>
+    <row r="10" ht="35" customHeight="1" spans="1:22">
+      <c r="A10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="7">
+        <v>488</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="38"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="62" customHeight="1" spans="1:18">
-      <c r="A7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="I10" s="7"/>
+      <c r="J10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="18"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:22">
+      <c r="A11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="10">
         <v>488</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E11" s="10">
         <v>2</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="F11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="37"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="62" customHeight="1" spans="1:18">
-      <c r="A8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="I11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="19"/>
+    </row>
+    <row r="12" ht="35" customHeight="1" spans="1:22">
+      <c r="A12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="7">
+        <v>288</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="18"/>
+    </row>
+    <row r="13" ht="35" customHeight="1" spans="1:22">
+      <c r="A13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="10">
+        <v>288</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="10">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="19"/>
+    </row>
+    <row r="14" customFormat="1" ht="35" customHeight="1" spans="1:22">
+      <c r="A14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="7">
         <v>488</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E14" s="7">
         <v>2</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="F14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="38"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="62" customHeight="1" spans="1:18">
-      <c r="A9" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="I14" s="7"/>
+      <c r="J14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="18"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="35" customHeight="1" spans="1:22">
+      <c r="A15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="10">
+        <v>288</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="19"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="7">
         <v>488</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E16" s="7">
         <v>2</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="F16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="37"/>
-    </row>
-    <row r="10" ht="62" customHeight="1" spans="1:18">
-      <c r="A10" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="I16" s="7"/>
+      <c r="J16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="18"/>
+    </row>
+    <row r="17" ht="35" customHeight="1" spans="1:22">
+      <c r="A17" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="10">
+        <v>288</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="19"/>
+    </row>
+    <row r="18" ht="35" customHeight="1" spans="1:22">
+      <c r="A18" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="7">
+        <v>888</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="18"/>
+    </row>
+    <row r="19" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A19" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="10">
+        <v>288</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="10">
+        <v>1</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="19"/>
+    </row>
+    <row r="20" ht="35" customHeight="1" spans="1:22">
+      <c r="A20" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="7">
         <v>488</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E20" s="7">
         <v>2</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="F20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="15">
-        <v>1</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="36"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="62" customHeight="1" spans="1:18">
-      <c r="A11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="9">
-        <v>488</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="I20" s="7"/>
+      <c r="J20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="18"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="68" customHeight="1" spans="1:22">
+      <c r="A21" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="10">
+        <v>288</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="U21" s="10"/>
+      <c r="V21" s="19"/>
+    </row>
+    <row r="22" ht="35" customHeight="1" spans="1:22">
+      <c r="A22" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="7">
+        <v>388</v>
+      </c>
+      <c r="E22" s="7">
         <v>2</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9">
+      <c r="F22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="37"/>
-    </row>
-    <row r="12" ht="62" customHeight="1" spans="1:18">
-      <c r="A12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="I22" s="7"/>
+      <c r="J22" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="18"/>
+    </row>
+    <row r="23" ht="35" customHeight="1" spans="1:22">
+      <c r="A23" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="10">
         <v>288</v>
       </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="15">
-        <v>1</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="36"/>
-    </row>
-    <row r="13" ht="62" customHeight="1" spans="1:18">
-      <c r="A13" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="I23" s="10"/>
+      <c r="J23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="10">
+        <v>1</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="19"/>
+    </row>
+    <row r="24" ht="35" customHeight="1" spans="1:22">
+      <c r="A24" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="7">
         <v>288</v>
       </c>
-      <c r="E13" s="13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13">
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="K13" s="13">
-        <v>1</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="39"/>
-    </row>
-    <row r="14" customFormat="1" ht="62" customHeight="1" spans="1:18">
-      <c r="A14" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="15">
+      <c r="I24" s="7"/>
+      <c r="J24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="7">
+        <v>1</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="18"/>
+    </row>
+    <row r="25" ht="35" customHeight="1" spans="1:22">
+      <c r="A25" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="10">
+        <v>288</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="10">
+        <v>1</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="19"/>
+    </row>
+    <row r="26" ht="35" customHeight="1" spans="1:22">
+      <c r="A26" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="7">
         <v>488</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E26" s="7">
         <v>2</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="15">
-        <v>1</v>
-      </c>
-      <c r="H14" s="15">
+      <c r="F26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14" s="15">
-        <v>1</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="36"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="62" customHeight="1" spans="1:18">
-      <c r="A15" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="17">
-        <v>288</v>
-      </c>
-      <c r="E15" s="17">
-        <v>1</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="17">
-        <v>1</v>
-      </c>
-      <c r="H15" s="17">
+      <c r="I26" s="7"/>
+      <c r="J26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="7">
+        <v>1</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" s="7"/>
+      <c r="O26" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="18"/>
+    </row>
+    <row r="27" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A27" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="10">
+        <v>188</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="40"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="62" customHeight="1" spans="1:18">
-      <c r="A16" s="18" t="s">
+      <c r="I27" s="10"/>
+      <c r="J27" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N27" s="10"/>
+      <c r="O27" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="19">
-        <v>488</v>
-      </c>
-      <c r="E16" s="19">
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="19"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="35" customHeight="1" spans="1:22">
+      <c r="A28" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="7">
+        <v>388</v>
+      </c>
+      <c r="E28" s="7">
         <v>2</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="19">
+      <c r="F28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H28" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="41"/>
-    </row>
-    <row r="17" ht="62" customHeight="1" spans="1:18">
-      <c r="A17" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="I28" s="7"/>
+      <c r="J28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="7"/>
+      <c r="O28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="18"/>
+    </row>
+    <row r="29" ht="35" customHeight="1" spans="1:22">
+      <c r="A29" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="10">
+        <v>888</v>
+      </c>
+      <c r="E29" s="10">
+        <v>3</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K29" s="10">
+        <v>1</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" s="10"/>
+      <c r="O29" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="19"/>
+    </row>
+    <row r="30" ht="35" customHeight="1" spans="1:22">
+      <c r="A30" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="7">
+        <v>488</v>
+      </c>
+      <c r="E30" s="7">
+        <v>2</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N30" s="7"/>
+      <c r="O30" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="18"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A31" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="10">
         <v>288</v>
       </c>
-      <c r="E17" s="13">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="13">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13">
+      <c r="E31" s="10">
+        <v>1</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="10">
+        <v>1</v>
+      </c>
+      <c r="H31" s="10">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13" t="s">
+      <c r="I31" s="10"/>
+      <c r="J31" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31" s="10">
+        <v>1</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N31" s="10"/>
+      <c r="O31" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="19"/>
+    </row>
+    <row r="32" ht="35" customHeight="1" spans="1:22">
+      <c r="A32" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="7">
+        <v>288</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N32" s="7"/>
+      <c r="O32" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="18"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="35" customHeight="1" spans="1:22">
+      <c r="A33" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="10">
+        <v>288</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="10">
+        <v>1</v>
+      </c>
+      <c r="H33" s="10">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" s="10"/>
+      <c r="O33" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="19"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A34" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="7">
+        <v>388</v>
+      </c>
+      <c r="E34" s="7">
+        <v>2</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34" s="7"/>
+      <c r="O34" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="18"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A35" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="10">
+        <v>388</v>
+      </c>
+      <c r="E35" s="10">
+        <v>2</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N35" s="10"/>
+      <c r="O35" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="19"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A36" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="7">
+        <v>388</v>
+      </c>
+      <c r="E36" s="7">
+        <v>2</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N36" s="7"/>
+      <c r="O36" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="18"/>
+    </row>
+    <row r="37" ht="35" customHeight="1" spans="1:22">
+      <c r="A37" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" s="10">
+        <v>288</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1</v>
+      </c>
+      <c r="H37" s="10">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="39"/>
-    </row>
-    <row r="18" ht="62" customHeight="1" spans="1:18">
-      <c r="A18" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="15">
+      <c r="K37" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N37" s="10"/>
+      <c r="O37" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="19"/>
+    </row>
+    <row r="38" ht="51.5" customHeight="1" spans="1:22">
+      <c r="A38" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="7">
         <v>888</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E38" s="7">
         <v>3</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="15">
-        <v>1</v>
-      </c>
-      <c r="H18" s="15">
+      <c r="F38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1</v>
+      </c>
+      <c r="H38" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15" t="s">
+      <c r="I38" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J38" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K18" s="15">
-        <v>1</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15" t="s">
+      <c r="K38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N38" s="7"/>
+      <c r="O38" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="18"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A39" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="10">
+        <v>388</v>
+      </c>
+      <c r="E39" s="10">
+        <v>2</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="10">
+        <v>1</v>
+      </c>
+      <c r="H39" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K39" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="36"/>
-    </row>
-    <row r="19" ht="62" customHeight="1" spans="1:18">
-      <c r="A19" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="L39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N39" s="10"/>
+      <c r="O39" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="19"/>
+    </row>
+    <row r="40" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A40" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="7">
+        <v>488</v>
+      </c>
+      <c r="E40" s="7">
+        <v>2</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K40" s="7">
+        <v>1</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N40" s="7"/>
+      <c r="O40" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="18"/>
+    </row>
+    <row r="41" ht="35" customHeight="1" spans="1:22">
+      <c r="A41" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="10">
+        <v>488</v>
+      </c>
+      <c r="E41" s="10">
+        <v>2</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="10">
+        <v>1</v>
+      </c>
+      <c r="H41" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I41" s="10"/>
+      <c r="J41" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K41" s="10">
+        <v>1</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N41" s="10"/>
+      <c r="O41" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="19"/>
+    </row>
+    <row r="42" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A42" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="7">
         <v>288</v>
       </c>
-      <c r="E19" s="13">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="13">
-        <v>1</v>
-      </c>
-      <c r="H19" s="13">
+      <c r="E42" s="7">
+        <v>1</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="13">
-        <v>1</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="39"/>
-    </row>
-    <row r="20" ht="62" customHeight="1" spans="1:18">
-      <c r="A20" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="15">
+      <c r="I42" s="7"/>
+      <c r="J42" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N42" s="7"/>
+      <c r="O42" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="18"/>
+    </row>
+    <row r="43" ht="35" customHeight="1" spans="1:22">
+      <c r="A43" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" s="10">
         <v>488</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E43" s="10">
         <v>2</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="15">
-        <v>1</v>
-      </c>
-      <c r="H20" s="15">
+      <c r="F43" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="10">
+        <v>1</v>
+      </c>
+      <c r="H43" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" s="15">
-        <v>1</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q20" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="R20" s="36"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="62" customHeight="1" spans="1:20">
-      <c r="A21" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="17">
-        <v>288</v>
-      </c>
-      <c r="E21" s="17">
-        <v>1</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="17">
-        <v>0</v>
-      </c>
-      <c r="H21" s="17">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17" t="s">
+      <c r="I43" s="10"/>
+      <c r="J43" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="40"/>
-      <c r="T21" s="42" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" ht="62" customHeight="1" spans="1:18">
-      <c r="A22" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="15">
-        <v>388</v>
-      </c>
-      <c r="E22" s="15">
-        <v>2</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="15">
-        <v>1</v>
-      </c>
-      <c r="H22" s="15">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K22" s="15" t="s">
+      <c r="K43" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="P22" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="36"/>
-    </row>
-    <row r="23" ht="62" customHeight="1" spans="1:18">
-      <c r="A23" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="20">
-        <v>288</v>
-      </c>
-      <c r="E23" s="20">
-        <v>1</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="20">
-        <v>1</v>
-      </c>
-      <c r="H23" s="13">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K23" s="13">
-        <v>1</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="39"/>
-    </row>
-    <row r="24" ht="62" customHeight="1" spans="1:18">
-      <c r="A24" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="22">
-        <v>288</v>
-      </c>
-      <c r="E24" s="22">
-        <v>1</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="22">
-        <v>1</v>
-      </c>
-      <c r="H24" s="15">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="15">
-        <v>1</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="P24" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="36"/>
-    </row>
-    <row r="25" ht="62" customHeight="1" spans="1:18">
-      <c r="A25" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="20">
-        <v>288</v>
-      </c>
-      <c r="E25" s="20">
-        <v>1</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="20">
-        <v>1</v>
-      </c>
-      <c r="H25" s="13">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" s="13">
-        <v>1</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M25" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="P25" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="39"/>
-    </row>
-    <row r="26" ht="62" customHeight="1" spans="1:18">
-      <c r="A26" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="22">
-        <v>488</v>
-      </c>
-      <c r="E26" s="22">
-        <v>2</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="22">
-        <v>1</v>
-      </c>
-      <c r="H26" s="15">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="K26" s="15">
-        <v>1</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M26" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="P26" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="36"/>
-    </row>
-    <row r="27" ht="62" customHeight="1" spans="1:18">
-      <c r="A27" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="20">
-        <v>188</v>
-      </c>
-      <c r="E27" s="20">
-        <v>1</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="20">
-        <v>1</v>
-      </c>
-      <c r="H27" s="13">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M27" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="39"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="62" customHeight="1" spans="1:18">
-      <c r="A28" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="24">
-        <v>388</v>
-      </c>
-      <c r="E28" s="24">
-        <v>2</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="24">
-        <v>0</v>
-      </c>
-      <c r="H28" s="11">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="38"/>
-    </row>
-    <row r="29" ht="62" customHeight="1" spans="1:18">
-      <c r="A29" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="20">
+      <c r="L43" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N43" s="10"/>
+      <c r="O43" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="19"/>
+    </row>
+    <row r="44" ht="84.5" customHeight="1" spans="1:22">
+      <c r="A44" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="7">
         <v>888</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E44" s="7">
         <v>3</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="20">
-        <v>1</v>
-      </c>
-      <c r="H29" s="13">
+      <c r="F44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K29" s="13">
-        <v>1</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="39"/>
-    </row>
-    <row r="30" ht="62" customHeight="1" spans="1:18">
-      <c r="A30" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" s="22">
+      <c r="I44" s="7"/>
+      <c r="J44" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N44" s="7"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="18"/>
+    </row>
+    <row r="45" ht="35" customHeight="1" spans="1:22">
+      <c r="A45" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" s="10">
         <v>488</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E45" s="10">
         <v>2</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="22">
-        <v>1</v>
-      </c>
-      <c r="H30" s="15">
-        <f t="shared" si="0"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10">
+        <v>1</v>
+      </c>
+      <c r="H45" s="10">
+        <f t="shared" ref="H45:H62" si="1">(4-E45)*16</f>
         <v>32</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15" t="s">
+      <c r="I45" s="10"/>
+      <c r="J45" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K45" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N30" s="15"/>
-      <c r="O30" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="36"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="62" customHeight="1" spans="1:18">
-      <c r="A31" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="26">
+      <c r="L45" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N45" s="10"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="19"/>
+    </row>
+    <row r="46" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A46" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" s="7">
+        <v>488</v>
+      </c>
+      <c r="E46" s="7">
+        <v>2</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N46" s="7"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="18"/>
+    </row>
+    <row r="47" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A47" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" s="10">
+        <v>888</v>
+      </c>
+      <c r="E47" s="10">
+        <v>3</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10">
+        <v>1</v>
+      </c>
+      <c r="H47" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I47" s="10"/>
+      <c r="J47" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N47" s="10"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="19"/>
+    </row>
+    <row r="48" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A48" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" s="7">
+        <v>488</v>
+      </c>
+      <c r="E48" s="7">
+        <v>2</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N48" s="7"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="18"/>
+    </row>
+    <row r="49" ht="35" customHeight="1" spans="1:22">
+      <c r="A49" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D49" s="10">
+        <v>888</v>
+      </c>
+      <c r="E49" s="10">
+        <v>3</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10">
+        <v>1</v>
+      </c>
+      <c r="H49" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I49" s="10"/>
+      <c r="J49" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N49" s="10"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="19"/>
+    </row>
+    <row r="50" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A50" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D50" s="7">
+        <v>888</v>
+      </c>
+      <c r="E50" s="7">
+        <v>3</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7">
+        <v>1</v>
+      </c>
+      <c r="H50" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N50" s="7"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="18"/>
+    </row>
+    <row r="51" ht="35" customHeight="1" spans="1:22">
+      <c r="A51" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D51" s="10">
+        <v>888</v>
+      </c>
+      <c r="E51" s="10">
+        <v>3</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10">
+        <v>1</v>
+      </c>
+      <c r="H51" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I51" s="10"/>
+      <c r="J51" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N51" s="10"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="19"/>
+    </row>
+    <row r="52" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A52" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D52" s="7">
+        <v>488</v>
+      </c>
+      <c r="E52" s="7">
+        <v>2</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N52" s="7"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="18"/>
+    </row>
+    <row r="53" ht="35" customHeight="1" spans="1:22">
+      <c r="A53" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D53" s="10">
+        <v>888</v>
+      </c>
+      <c r="E53" s="10">
+        <v>3</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10">
+        <v>1</v>
+      </c>
+      <c r="H53" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I53" s="10"/>
+      <c r="J53" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N53" s="10"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="19"/>
+    </row>
+    <row r="54" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A54" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D54" s="7">
+        <v>488</v>
+      </c>
+      <c r="E54" s="7">
+        <v>2</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I54" s="7"/>
+      <c r="J54" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N54" s="7"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="18"/>
+    </row>
+    <row r="55" ht="35" customHeight="1" spans="1:22">
+      <c r="A55" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" s="10">
+        <v>388</v>
+      </c>
+      <c r="E55" s="10">
+        <v>2</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10">
+        <v>1</v>
+      </c>
+      <c r="H55" s="10">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I55" s="10"/>
+      <c r="J55" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N55" s="10"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="19"/>
+    </row>
+    <row r="56" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A56" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D56" s="7">
         <v>288</v>
       </c>
-      <c r="E31" s="26">
-        <v>1</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="26">
-        <v>1</v>
-      </c>
-      <c r="H31" s="17">
-        <f t="shared" si="0"/>
+      <c r="E56" s="7">
+        <v>1</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="K31" s="17">
-        <v>1</v>
-      </c>
-      <c r="L31" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M31" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="40"/>
-    </row>
-    <row r="32" ht="62" customHeight="1" spans="1:18">
-      <c r="A32" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D32" s="22">
+      <c r="I56" s="7"/>
+      <c r="J56" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N56" s="7"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="18"/>
+    </row>
+    <row r="57" ht="35" customHeight="1" spans="1:22">
+      <c r="A57" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D57" s="10">
         <v>288</v>
       </c>
-      <c r="E32" s="22">
-        <v>1</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="22">
-        <v>1</v>
-      </c>
-      <c r="H32" s="15">
-        <f t="shared" si="0"/>
+      <c r="E57" s="10">
+        <v>1</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10">
+        <v>1</v>
+      </c>
+      <c r="H57" s="10">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K32" s="15" t="s">
+      <c r="I57" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K57" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L32" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N32" s="15"/>
-      <c r="O32" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="36"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="62" customHeight="1" spans="1:18">
-      <c r="A33" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D33" s="26">
-        <v>288</v>
-      </c>
-      <c r="E33" s="26">
-        <v>1</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="26">
-        <v>1</v>
-      </c>
-      <c r="H33" s="17">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="L33" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M33" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="40"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="62" customHeight="1" spans="1:18">
-      <c r="A34" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="28">
-        <v>388</v>
-      </c>
-      <c r="E34" s="28">
+      <c r="L57" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M57" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N57" s="10"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="19"/>
+    </row>
+    <row r="58" ht="35" customHeight="1" spans="1:22">
+      <c r="A58" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D58" s="7">
+        <v>488</v>
+      </c>
+      <c r="E58" s="7">
         <v>2</v>
       </c>
-      <c r="F34" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="28">
+      <c r="F58" s="7"/>
+      <c r="G58" s="7">
         <v>0</v>
       </c>
-      <c r="H34" s="19">
-        <f t="shared" si="0"/>
+      <c r="H58" s="7">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="L34" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M34" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="N34" s="19"/>
-      <c r="O34" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="41"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="62" customHeight="1" spans="1:18">
-      <c r="A35" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" s="26">
-        <v>388</v>
-      </c>
-      <c r="E35" s="26">
+      <c r="I58" s="7"/>
+      <c r="J58" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N58" s="7"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="18"/>
+    </row>
+    <row r="59" ht="35" customHeight="1" spans="1:22">
+      <c r="A59" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D59" s="10">
+        <v>488</v>
+      </c>
+      <c r="E59" s="10">
         <v>2</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="26">
+      <c r="F59" s="10"/>
+      <c r="G59" s="10">
         <v>0</v>
       </c>
-      <c r="H35" s="17">
-        <f t="shared" si="0"/>
+      <c r="H59" s="10">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K35" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M35" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="40"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="62" customHeight="1" spans="1:18">
-      <c r="A36" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" s="28">
-        <v>388</v>
-      </c>
-      <c r="E36" s="28">
+      <c r="I59" s="10"/>
+      <c r="J59" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M59" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N59" s="10"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="19"/>
+    </row>
+    <row r="60" ht="35" customHeight="1" spans="1:22">
+      <c r="A60" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" s="7">
+        <v>888</v>
+      </c>
+      <c r="E60" s="7">
+        <v>3</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N60" s="7"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="18"/>
+    </row>
+    <row r="61" ht="51.5" customHeight="1" spans="1:22">
+      <c r="A61" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" s="10">
+        <v>488</v>
+      </c>
+      <c r="E61" s="10">
         <v>2</v>
       </c>
-      <c r="F36" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="28">
-        <v>0</v>
-      </c>
-      <c r="H36" s="19">
-        <f t="shared" si="0"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10">
+        <v>1</v>
+      </c>
+      <c r="H61" s="10">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M36" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="N36" s="19"/>
-      <c r="O36" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="41"/>
-    </row>
-    <row r="37" ht="62" customHeight="1" spans="1:18">
-      <c r="A37" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D37" s="20">
-        <v>288</v>
-      </c>
-      <c r="E37" s="20">
-        <v>1</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="20">
-        <v>1</v>
-      </c>
-      <c r="H37" s="13">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M37" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="39"/>
-    </row>
-    <row r="38" ht="62" customHeight="1" spans="1:18">
-      <c r="A38" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="D38" s="22">
-        <v>888</v>
-      </c>
-      <c r="E38" s="22">
-        <v>3</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="22">
-        <v>1</v>
-      </c>
-      <c r="H38" s="15">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="K38" s="15" t="s">
+      <c r="I61" s="10"/>
+      <c r="J61" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K61" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L38" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M38" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N38" s="15"/>
-      <c r="O38" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="36"/>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="62" customHeight="1" spans="1:18">
-      <c r="A39" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" s="26">
-        <v>388</v>
-      </c>
-      <c r="E39" s="26">
+      <c r="L61" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M61" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N61" s="10"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="19"/>
+    </row>
+    <row r="62" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A62" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D62" s="13">
+        <v>488</v>
+      </c>
+      <c r="E62" s="13">
         <v>2</v>
       </c>
-      <c r="F39" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="26">
-        <v>1</v>
-      </c>
-      <c r="H39" s="17">
-        <f t="shared" si="0"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13">
+        <v>1</v>
+      </c>
+      <c r="H62" s="13">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="K39" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="L39" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M39" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="40"/>
-    </row>
-    <row r="40" ht="62" customHeight="1" spans="1:18">
-      <c r="A40" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="D40" s="22">
-        <v>488</v>
-      </c>
-      <c r="E40" s="22">
-        <v>2</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="22">
-        <v>1</v>
-      </c>
-      <c r="H40" s="15">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="K40" s="15">
-        <v>1</v>
-      </c>
-      <c r="L40" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M40" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N40" s="15"/>
-      <c r="O40" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="36"/>
-    </row>
-    <row r="41" ht="62" customHeight="1" spans="1:18">
-      <c r="A41" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" s="20">
-        <v>488</v>
-      </c>
-      <c r="E41" s="20">
-        <v>2</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="20">
-        <v>1</v>
-      </c>
-      <c r="H41" s="13">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K41" s="13">
-        <v>1</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M41" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="39"/>
-    </row>
-    <row r="42" ht="62" customHeight="1" spans="1:18">
-      <c r="A42" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D42" s="22">
-        <v>288</v>
-      </c>
-      <c r="E42" s="22">
-        <v>1</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="22">
-        <v>0</v>
-      </c>
-      <c r="H42" s="15">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15" t="s">
+      <c r="I62" s="13"/>
+      <c r="J62" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="K42" s="15" t="s">
+      <c r="K62" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L42" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M42" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N42" s="15"/>
-      <c r="O42" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="36"/>
-    </row>
-    <row r="43" ht="62" customHeight="1" spans="1:18">
-      <c r="A43" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="D43" s="20">
-        <v>488</v>
-      </c>
-      <c r="E43" s="20">
-        <v>2</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="20">
-        <v>1</v>
-      </c>
-      <c r="H43" s="13">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M43" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="39"/>
-    </row>
-    <row r="44" ht="62" customHeight="1" spans="1:18">
-      <c r="A44" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="D44" s="31">
-        <v>888</v>
-      </c>
-      <c r="E44" s="31">
-        <v>3</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="31">
-        <v>1</v>
-      </c>
-      <c r="H44" s="33">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="K44" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="L44" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="M44" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N44" s="33"/>
-      <c r="O44" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="43"/>
-    </row>
+      <c r="L62" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M62" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N62" s="13"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="20"/>
+    </row>
+    <row r="63" ht="14.25"/>
   </sheetData>
+  <conditionalFormatting sqref="H$1:H$1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="299">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -182,7 +182,7 @@
     <t>brewmaster_fire_permanent_immolation</t>
   </si>
   <si>
-    <t>AddBuff</t>
+    <t>Null</t>
   </si>
   <si>
     <t>attack_pro 40</t>
@@ -335,10 +335,13 @@
     <t>dragon_knight_fireball</t>
   </si>
   <si>
-    <t>damage_add 20</t>
-  </si>
-  <si>
-    <t>defense_add 20</t>
+    <t>heal_pct 50</t>
+  </si>
+  <si>
+    <t>attack_pct 20</t>
+  </si>
+  <si>
+    <t>armor_pct 20</t>
   </si>
   <si>
     <t>prop_13</t>
@@ -353,7 +356,14 @@
     <t>AddAttr</t>
   </si>
   <si>
-    <t>HealthPoints|Base 1</t>
+    <t>KillRestoreHp {
+"Base" "1"
+}</t>
+  </si>
+  <si>
+    <t>MaxMana {
+"BasePercent" "-25"
+}</t>
   </si>
   <si>
     <t>prop_14</t>
@@ -374,7 +384,10 @@
     <t>血量越低伤害越高，最低临界值10%血量，提高伤害100%</t>
   </si>
   <si>
-    <t>health_damage_pro 1.1</t>
+    <t>damage_bonus_max 100</t>
+  </si>
+  <si>
+    <t>heal_pct 10</t>
   </si>
   <si>
     <t>prop_16</t>
@@ -386,6 +399,9 @@
     <t>自动拾取被自身击杀的怪物掉落的经验值（超稀有）</t>
   </si>
   <si>
+    <t>auto_pick_kill 1</t>
+  </si>
+  <si>
     <t>prop_17</t>
   </si>
   <si>
@@ -407,13 +423,13 @@
     <t>对生命值大于80%小于20%的单位造成的伤害提升15%</t>
   </si>
   <si>
-    <t>max 80</t>
-  </si>
-  <si>
-    <t>min 20</t>
-  </si>
-  <si>
-    <t>damage 15</t>
+    <t>more_than_pct 80</t>
+  </si>
+  <si>
+    <t>less_than_pct 20</t>
+  </si>
+  <si>
+    <t>damage_bonus 15</t>
   </si>
   <si>
     <t>prop_19</t>
@@ -423,173 +439,203 @@
   </si>
   <si>
     <t>提升拾取范围100码</t>
-  </si>
-  <si>
-    <t>PickItemRadius|Base 100,BasePercent 10</t>
   </si>
   <si>
     <t>PickItemRadius {
 "Base" "100"
+}</t>
+  </si>
+  <si>
+    <t>prop_20</t>
+  </si>
+  <si>
+    <t>【你的滑板孩】</t>
+  </si>
+  <si>
+    <t>常驻移动速度+25%，但在受到伤害后变为移动速度降低50%持续3秒</t>
+  </si>
+  <si>
+    <t>move_speed_pct -50</t>
+  </si>
+  <si>
+    <t>prop_21</t>
+  </si>
+  <si>
+    <t>【斯嘉蒂之眼】</t>
+  </si>
+  <si>
+    <t>冰元素技能降低移速时，同时降低敌人30%攻击速度和20%冰元素抗性，持续3秒</t>
+  </si>
+  <si>
+    <t>prop_22</t>
+  </si>
+  <si>
+    <t>【雷神之锤】</t>
+  </si>
+  <si>
+    <t>雷元素技能命中敌人时，50%概率额外追加3秒麻痹效果（相同敌人只受到一次效果）</t>
+  </si>
+  <si>
+    <t>prop_23</t>
+  </si>
+  <si>
+    <t>【风儿吹】</t>
+  </si>
+  <si>
+    <t>风元素技能命中敌人时，被击退的敌人降低20%元素抗性并眩晕1秒</t>
+  </si>
+  <si>
+    <t>prop_24</t>
+  </si>
+  <si>
+    <t>【无极】</t>
+  </si>
+  <si>
+    <t>敌人受到debuff效果时，受到的伤害加深15%。</t>
+  </si>
+  <si>
+    <t>prop_25</t>
+  </si>
+  <si>
+    <t>【相位鞋】</t>
+  </si>
+  <si>
+    <t>移动速度+5%，获得相位状态可穿越单位</t>
+  </si>
+  <si>
+    <t>MoveSpeed {
+"BasePercent" "5"
+}</t>
+  </si>
+  <si>
+    <t>prop_26</t>
+  </si>
+  <si>
+    <t>【不朽之守护】</t>
+  </si>
+  <si>
+    <t>消耗品,阵亡时原地复活,获得3秒无敌</t>
+  </si>
+  <si>
+    <t>AddPlayerLife</t>
+  </si>
+  <si>
+    <t>prop_27</t>
+  </si>
+  <si>
+    <t>【永世法衣】</t>
+  </si>
+  <si>
+    <t>增加40%技能强度，受到伤害时回复5点法力值（超稀有）</t>
+  </si>
+  <si>
+    <t>AbilityImproved {
+"Base" "40"
+}</t>
+  </si>
+  <si>
+    <t>prop_28</t>
+  </si>
+  <si>
+    <t>【血祭】</t>
+  </si>
+  <si>
+    <t>不在消耗蓝量，任意技能消耗变为1%最大生命值，生命值临界值10%(低于时不再使用技能)</t>
+  </si>
+  <si>
+    <t>AddAbility</t>
+  </si>
+  <si>
+    <t>special_blood_mage</t>
+  </si>
+  <si>
+    <t>blood_mage 1</t>
+  </si>
+  <si>
+    <t>health_pct 10</t>
+  </si>
+  <si>
+    <t>prop_29</t>
+  </si>
+  <si>
+    <t>【指挥官头带】</t>
+  </si>
+  <si>
+    <t>对精英及boss单位造成伤害提高25%</t>
+  </si>
+  <si>
+    <t>CreatureDmgLeader {
+"Base" "25"
+}</t>
+  </si>
+  <si>
+    <t>prop_30</t>
+  </si>
+  <si>
+    <t>【极速护符】</t>
+  </si>
+  <si>
+    <t>原地不动时，技能冷却+15%（可突破上限）</t>
+  </si>
+  <si>
+    <t>ability_cd_pct 15</t>
+  </si>
+  <si>
+    <t>prop_31</t>
+  </si>
+  <si>
+    <t>【聪明人的帽子】</t>
+  </si>
+  <si>
+    <t>最大蓝量+200，但最大生命值减少25%</t>
+  </si>
+  <si>
+    <t>独立乘区减少</t>
+  </si>
+  <si>
+    <t>MaxMana {
+"Base" "200"
+}</t>
+  </si>
+  <si>
+    <t>MaxHealth {
+"BasePercent" "-25"
+}</t>
+  </si>
+  <si>
+    <t>prop_32</t>
+  </si>
+  <si>
+    <t>【秘法球】</t>
+  </si>
+  <si>
+    <t>技能强度+10%，杀敌回蓝1</t>
+  </si>
+  <si>
+    <t>KillRestoreMp {
+"Base" "1"
+}</t>
+  </si>
+  <si>
+    <t>AbilityImproved {
+"Base" "10"
+}</t>
+  </si>
+  <si>
+    <t>prop_33</t>
+  </si>
+  <si>
+    <t>【小短剑】</t>
+  </si>
+  <si>
+    <t>攻击力+15%</t>
+  </si>
+  <si>
+    <t>AttackDamage {
 "BasePercent" "10"
 }</t>
   </si>
   <si>
-    <t>prop_20</t>
-  </si>
-  <si>
-    <t>【你的滑板孩】</t>
-  </si>
-  <si>
-    <t>常驻移动速度+25%，但在受到伤害后变为移动速度降低50%持续3秒</t>
-  </si>
-  <si>
-    <t>per_hp 10</t>
-  </si>
-  <si>
-    <t>bonus_ad 1</t>
-  </si>
-  <si>
-    <t>prop_21</t>
-  </si>
-  <si>
-    <t>【斯嘉蒂之眼】</t>
-  </si>
-  <si>
-    <t>冰元素技能降低移速时，同时降低敌人30%攻击速度和20%冰元素抗性，持续3秒</t>
-  </si>
-  <si>
-    <t>red_attack_speed 30</t>
-  </si>
-  <si>
-    <t>bonus_jt 1</t>
-  </si>
-  <si>
-    <t>prop_22</t>
-  </si>
-  <si>
-    <t>【雷神之锤】</t>
-  </si>
-  <si>
-    <t>雷元素技能命中敌人时，50%概率额外追加3秒麻痹效果（相同敌人只受到一次效果）</t>
-  </si>
-  <si>
-    <t>per_jt 1</t>
-  </si>
-  <si>
-    <t>prop_23</t>
-  </si>
-  <si>
-    <t>【风儿吹】</t>
-  </si>
-  <si>
-    <t>风元素技能命中敌人时，被击退的敌人降低20%元素抗性并眩晕1秒</t>
-  </si>
-  <si>
-    <t>chance 6</t>
-  </si>
-  <si>
-    <t>duration 5</t>
-  </si>
-  <si>
-    <t>prop_24</t>
-  </si>
-  <si>
-    <t>【无极】</t>
-  </si>
-  <si>
-    <t>敌人受到debuff效果时，受到的伤害加深15%。</t>
-  </si>
-  <si>
-    <t>cooldown 90</t>
-  </si>
-  <si>
-    <t>prop_25</t>
-  </si>
-  <si>
-    <t>【相位鞋】</t>
-  </si>
-  <si>
-    <t>移动速度+5%，获得相位状态可穿越单位</t>
-  </si>
-  <si>
-    <t>prop_26</t>
-  </si>
-  <si>
-    <t>【不朽之守护】</t>
-  </si>
-  <si>
-    <t>消耗品,阵亡时原地复活,获得3秒无敌</t>
-  </si>
-  <si>
-    <t>AddPlayerLife</t>
-  </si>
-  <si>
-    <t>prop_27</t>
-  </si>
-  <si>
-    <t>【永世法衣】</t>
-  </si>
-  <si>
-    <t>增加40%技能强度，受到伤害时回复5点法力值（超稀有）</t>
-  </si>
-  <si>
-    <t>prop_28</t>
-  </si>
-  <si>
-    <t>【血祭】</t>
-  </si>
-  <si>
-    <t>不在消耗蓝量，任意技能消耗变为1%最大生命值，生命值临界值10%(低于时不再使用技能)</t>
-  </si>
-  <si>
-    <t>prop_29</t>
-  </si>
-  <si>
-    <t>【指挥官头带】</t>
-  </si>
-  <si>
-    <t>对精英及boss单位造成伤害提高25%</t>
-  </si>
-  <si>
-    <t>prop_30</t>
-  </si>
-  <si>
-    <t>【极速护符】</t>
-  </si>
-  <si>
-    <t>原地不动时，技能冷却+15%（可突破上限）</t>
-  </si>
-  <si>
-    <t>prop_31</t>
-  </si>
-  <si>
-    <t>【聪明人的帽子】</t>
-  </si>
-  <si>
-    <t>最大蓝量+200，但最大生命值减少25%</t>
-  </si>
-  <si>
-    <t>独立乘区减少</t>
-  </si>
-  <si>
-    <t>prop_32</t>
-  </si>
-  <si>
-    <t>【秘法球】</t>
-  </si>
-  <si>
-    <t>技能强度+10%，杀敌回蓝1</t>
-  </si>
-  <si>
-    <t>prop_33</t>
-  </si>
-  <si>
-    <t>【小短剑】</t>
-  </si>
-  <si>
-    <t>攻击力+15%</t>
-  </si>
-  <si>
     <t>prop_34</t>
   </si>
   <si>
@@ -599,6 +645,11 @@
     <t>全元素伤害+10%</t>
   </si>
   <si>
+    <t>AllElementDamageBonus {
+"Base" "10"
+}</t>
+  </si>
+  <si>
     <t>prop_35</t>
   </si>
   <si>
@@ -608,7 +659,7 @@
     <t>自身及友军每秒回蓝2点（效果可叠加）</t>
   </si>
   <si>
-    <t>AddBuffOfAll</t>
+    <t>NullOfAll</t>
   </si>
   <si>
     <t>prop_36</t>
@@ -633,6 +684,11 @@
   </si>
   <si>
     <t>RestoreIncrease</t>
+  </si>
+  <si>
+    <t>RestoreIncrease {
+"Base" "20"
+}</t>
   </si>
   <si>
     <t>prop_38</t>
@@ -693,6 +749,14 @@
     <t>自己无法拾取经验球，但每过120秒会自动拾取全地图的经验球</t>
   </si>
   <si>
+    <t>auto_pick_interval 120</t>
+  </si>
+  <si>
+    <t>PickItemRadius {
+"TotalPercent" "-999"
+}</t>
+  </si>
+  <si>
     <t>prop_44</t>
   </si>
   <si>
@@ -711,6 +775,15 @@
     <t>每过10秒，冻结自身半径500码敌人1秒</t>
   </si>
   <si>
+    <t>interval 10</t>
+  </si>
+  <si>
+    <t>root_duration 1</t>
+  </si>
+  <si>
+    <t>root_radius 500</t>
+  </si>
+  <si>
     <t>prop_46</t>
   </si>
   <si>
@@ -744,6 +817,11 @@
     <t>乘算</t>
   </si>
   <si>
+    <t>EvasionProb {
+"Base" "25"
+}</t>
+  </si>
+  <si>
     <t>prop_49</t>
   </si>
   <si>
@@ -765,6 +843,16 @@
     <t>蓝量是独立乘区</t>
   </si>
   <si>
+    <t>MaxMana {
+"BasePercent" "-50"
+}</t>
+  </si>
+  <si>
+    <t>AbilityImproved {
+"Base" "50"
+}</t>
+  </si>
+  <si>
     <t>prop_51</t>
   </si>
   <si>
@@ -792,6 +880,16 @@
     <t>对敌军造成伤害提高50%，但对精英怪和boss造成伤害降低25%</t>
   </si>
   <si>
+    <t>CreatureDmgLeader {
+"Base" "-25"
+}</t>
+  </si>
+  <si>
+    <t>CreatureDmgNormal {
+"Base" "50"
+}</t>
+  </si>
+  <si>
     <t>prop_54</t>
   </si>
   <si>
@@ -801,6 +899,11 @@
     <t>视野范围增加200码</t>
   </si>
   <si>
+    <t>VisionRange {
+"Base" "200"
+}</t>
+  </si>
+  <si>
     <t>prop_55</t>
   </si>
   <si>
@@ -859,6 +962,11 @@
   </si>
   <si>
     <t>攻击范围+200码</t>
+  </si>
+  <si>
+    <t>AttackRange {
+"Bonus" "200"
+}</t>
   </si>
 </sst>
 </file>
@@ -882,13 +990,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF08090C"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1052,25 +1160,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5A5A5A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6E6"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,65 +1378,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF595959"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF595959"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
+      <left style="thin">
+        <color theme="1"/>
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1340,88 +1400,154 @@
         <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
+      <left style="thin">
+        <color theme="1"/>
       </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
       </right>
       <top/>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
       </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
       </right>
       <top/>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0"/>
+      <left style="thin">
+        <color theme="1"/>
       </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
       </right>
-      <top style="thick">
-        <color rgb="FF595959"/>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
       </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
+      <right style="thin">
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
       </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
+      <right style="thin">
+        <color theme="1"/>
       </right>
       <top/>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1673,68 +1799,77 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1789,7 +1924,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="20">
     <dxf>
       <font>
         <b val="1"/>
@@ -1923,16 +2058,386 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.6"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.66"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.66"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.66"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.66"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1" tint="0.8"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFFFF"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <u val="none"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{6C6DF386-E897-405E-8DCB-623DC0CAF12B}">
+  <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{69AA9621-E5DF-4F9C-9A48-2C060FC76735}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F011A68D-571D-4E8E-B879-F499ABB7ABB7}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{02643E3F-D0BC-4B20-938C-4537D69955E1}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
+    </tableStyle>
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{D654C4D1-46F6-4233-8EEF-6036656C63A8}">
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="lastColumn" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="7"/>
+      <tableStyleElement type="firstTotalCell" dxfId="6"/>
+      <tableStyleElement type="lastTotalCell" dxfId="5"/>
+    </tableStyle>
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{E0BCF264-28CC-4482-8798-3280E8800DBB}">
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="totalRow" dxfId="17"/>
+      <tableStyleElement type="firstColumn" dxfId="16"/>
+      <tableStyleElement type="lastColumn" dxfId="15"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2230,3205 +2735,3270 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.0083333333333" customWidth="1"/>
-    <col min="2" max="2" width="21.3416666666667" customWidth="1"/>
-    <col min="3" max="3" width="37.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.675" customWidth="1"/>
-    <col min="5" max="5" width="11.175" customWidth="1"/>
-    <col min="6" max="6" width="13.0083333333333" customWidth="1"/>
-    <col min="7" max="7" width="25.3416666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.675" customWidth="1"/>
-    <col min="9" max="9" width="14.675" customWidth="1"/>
-    <col min="10" max="10" width="31.4833333333333" customWidth="1"/>
-    <col min="11" max="11" width="16.8416666666667" customWidth="1"/>
-    <col min="12" max="12" width="14.8416666666667" customWidth="1"/>
-    <col min="13" max="13" width="9.34166666666667" customWidth="1"/>
-    <col min="14" max="14" width="14.175" customWidth="1"/>
-    <col min="15" max="15" width="31.4833333333333" customWidth="1"/>
-    <col min="16" max="16" width="14.5083333333333" customWidth="1"/>
-    <col min="17" max="17" width="11.0083333333333" customWidth="1"/>
-    <col min="18" max="18" width="5.34166666666667" customWidth="1"/>
-    <col min="19" max="19" width="14.3416666666667" customWidth="1"/>
-    <col min="20" max="20" width="17.175" customWidth="1"/>
-    <col min="21" max="22" width="3.24166666666667" customWidth="1"/>
+    <col min="1" max="1" width="13.0083333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.0333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.675" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.175" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.0083333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.3416666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.675" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.675" style="1" customWidth="1"/>
+    <col min="10" max="10" width="32.0333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.8416666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.34166666666667" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.175" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5083333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.0083333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="5.34166666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="24.875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="25.5" style="1" customWidth="1"/>
+    <col min="22" max="23" width="3.24166666666667" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="18.5" customHeight="1" spans="1:23">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="17"/>
-    </row>
-    <row r="2" ht="18.5" customHeight="1" spans="1:23">
-      <c r="A2" s="6" t="s">
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="20"/>
+    </row>
+    <row r="2" ht="18.5" customHeight="1" spans="1:24">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="15">
-        <v>1</v>
-      </c>
-      <c r="P2" s="16">
+      <c r="O2" s="18">
+        <v>1</v>
+      </c>
+      <c r="P2" s="19">
         <v>2</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="19">
         <v>3</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="19">
+        <v>4</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="7">
-        <v>1</v>
-      </c>
-      <c r="U2" s="7">
+      <c r="U2" s="6">
+        <v>1</v>
+      </c>
+      <c r="V2" s="6">
         <v>2</v>
       </c>
-      <c r="V2" s="18">
+      <c r="W2" s="21">
         <v>3</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="35" customHeight="1" spans="1:22">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="1" customFormat="1" ht="35" customHeight="1" spans="1:23">
+      <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>288</v>
       </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10">
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
         <f>(4-E3)*16</f>
         <v>48</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="10" t="s">
+      <c r="L3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="19"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:22">
-      <c r="A4" s="6" t="s">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:23">
+      <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="9">
         <v>488</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="9">
         <v>2</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="F4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="9">
         <v>0</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="9">
         <f t="shared" ref="H4:H44" si="0">(4-E4)*16</f>
         <v>32</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="L4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="8" t="s">
+      <c r="N4" s="9"/>
+      <c r="O4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="18"/>
-    </row>
-    <row r="5" ht="51.5" customHeight="1" spans="1:22">
-      <c r="A5" s="9" t="s">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" ht="51.5" customHeight="1" spans="1:23">
+      <c r="A5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>288</v>
       </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="10" t="s">
+      <c r="L5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11" t="s">
+      <c r="N5" s="9"/>
+      <c r="O5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="19"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="35" customHeight="1" spans="1:22">
-      <c r="A6" s="6" t="s">
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="35" customHeight="1" spans="1:23">
+      <c r="A6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="9">
         <v>488</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="9">
         <v>2</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="F6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9">
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="L6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="8" t="s">
+      <c r="N6" s="9"/>
+      <c r="O6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="18"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="35" customHeight="1" spans="1:22">
-      <c r="A7" s="9" t="s">
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="35" customHeight="1" spans="1:23">
+      <c r="A7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>488</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="F7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
         <v>0</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="10" t="s">
+      <c r="L7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11" t="s">
+      <c r="N7" s="9"/>
+      <c r="O7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="19"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="35" customHeight="1" spans="1:22">
-      <c r="A8" s="6" t="s">
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="22"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="35" customHeight="1" spans="1:23">
+      <c r="A8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="9">
         <v>488</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="9">
         <v>2</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="F8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9">
         <v>0</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="7" t="s">
+      <c r="L8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8" t="s">
+      <c r="N8" s="9"/>
+      <c r="O8" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="18"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="35" customHeight="1" spans="1:22">
-      <c r="A9" s="9" t="s">
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="22"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="35" customHeight="1" spans="1:23">
+      <c r="A9" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>488</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>2</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="F9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
         <v>0</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="10" t="s">
+      <c r="L9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="11" t="s">
+      <c r="N9" s="9"/>
+      <c r="O9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="19"/>
-    </row>
-    <row r="10" ht="35" customHeight="1" spans="1:22">
-      <c r="A10" s="6" t="s">
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="22"/>
+    </row>
+    <row r="10" ht="35" customHeight="1" spans="1:23">
+      <c r="A10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <v>488</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="9">
         <v>2</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="9">
         <v>0</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="7">
-        <v>1</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="7" t="s">
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="8" t="s">
+      <c r="N10" s="9"/>
+      <c r="O10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="18"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:22">
-      <c r="A11" s="9" t="s">
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="22"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:23">
+      <c r="A11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>488</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>2</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10">
+      <c r="F11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="10" t="s">
+      <c r="L11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11" t="s">
+      <c r="N11" s="9"/>
+      <c r="O11" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="19"/>
-    </row>
-    <row r="12" ht="35" customHeight="1" spans="1:22">
-      <c r="A12" s="6" t="s">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="22"/>
+    </row>
+    <row r="12" ht="35" customHeight="1" spans="1:23">
+      <c r="A12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>288</v>
       </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="9">
         <v>0</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8" t="s">
+      <c r="I12" s="9"/>
+      <c r="J12" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K12" s="7">
-        <v>1</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="7" t="s">
+      <c r="K12" s="9">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="8" t="s">
+      <c r="N12" s="9"/>
+      <c r="O12" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="18"/>
-    </row>
-    <row r="13" ht="35" customHeight="1" spans="1:22">
-      <c r="A13" s="9" t="s">
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="22"/>
+    </row>
+    <row r="13" ht="35" customHeight="1" spans="1:23">
+      <c r="A13" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>288</v>
       </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="9">
         <v>0</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11" t="s">
+      <c r="I13" s="9"/>
+      <c r="J13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="K13" s="10">
-        <v>1</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="10" t="s">
+      <c r="K13" s="9">
+        <v>1</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="11" t="s">
+      <c r="N13" s="9"/>
+      <c r="O13" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="P13" s="10" t="s">
+      <c r="P13" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="19"/>
-    </row>
-    <row r="14" customFormat="1" ht="35" customHeight="1" spans="1:22">
-      <c r="A14" s="6" t="s">
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="22"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:23">
+      <c r="A14" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <v>488</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="9">
         <v>2</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="F14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7">
-        <v>1</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="7" t="s">
+      <c r="K14" s="9">
+        <v>1</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="8" t="s">
+      <c r="N14" s="9"/>
+      <c r="O14" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="18"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="35" customHeight="1" spans="1:22">
-      <c r="A15" s="9" t="s">
+      <c r="Q14" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="22"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="49.5" spans="1:23">
+      <c r="A15" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="10">
+      <c r="C15" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="9">
         <v>288</v>
       </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11" t="s">
+      <c r="I15" s="9"/>
+      <c r="J15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="10" t="s">
+      <c r="K15" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="19"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A16" s="6" t="s">
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="U15" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="V15" s="9"/>
+      <c r="W15" s="22"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+      <c r="A16" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="7">
+      <c r="B16" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="9">
         <v>488</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="9">
         <v>2</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="F16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="9">
         <v>0</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8" t="s">
+      <c r="I16" s="9"/>
+      <c r="J16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="7" t="s">
+      <c r="K16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="18"/>
-    </row>
-    <row r="17" ht="35" customHeight="1" spans="1:22">
-      <c r="A17" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="22"/>
+    </row>
+    <row r="17" ht="35" customHeight="1" spans="1:23">
+      <c r="A17" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="10">
+      <c r="B17" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="9">
         <v>288</v>
       </c>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10">
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11" t="s">
+      <c r="I17" s="9"/>
+      <c r="J17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="10" t="s">
+      <c r="L17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="19"/>
-    </row>
-    <row r="18" ht="35" customHeight="1" spans="1:22">
-      <c r="A18" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="N17" s="9"/>
+      <c r="O17" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="P17" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="7">
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="22"/>
+    </row>
+    <row r="18" ht="35" customHeight="1" spans="1:23">
+      <c r="A18" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="9">
         <v>888</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="9">
         <v>3</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="F18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8" t="s">
+      <c r="I18" s="9"/>
+      <c r="J18" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K18" s="7">
-        <v>1</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="7" t="s">
+      <c r="K18" s="9">
+        <v>1</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="18"/>
-    </row>
-    <row r="19" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A19" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="N18" s="9"/>
+      <c r="O18" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="22"/>
+    </row>
+    <row r="19" ht="18.5" customHeight="1" spans="1:23">
+      <c r="A19" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="9">
         <v>288</v>
       </c>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1</v>
-      </c>
-      <c r="H19" s="10">
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11" t="s">
+      <c r="I19" s="9"/>
+      <c r="J19" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="10">
-        <v>1</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="10" t="s">
+      <c r="K19" s="9">
+        <v>1</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="19"/>
-    </row>
-    <row r="20" ht="35" customHeight="1" spans="1:22">
-      <c r="A20" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="N19" s="9"/>
+      <c r="O19" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="22"/>
+    </row>
+    <row r="20" ht="35" customHeight="1" spans="1:23">
+      <c r="A20" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="9">
         <v>488</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="9">
         <v>2</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="7">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7">
+      <c r="F20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8" t="s">
+      <c r="I20" s="9"/>
+      <c r="J20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="K20" s="7">
-        <v>1</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="7" t="s">
+      <c r="K20" s="9">
+        <v>1</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="7"/>
-      <c r="O20" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="18"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="68" customHeight="1" spans="1:22">
-      <c r="A21" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="N20" s="9"/>
+      <c r="O20" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="P20" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="10">
+      <c r="Q20" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="22"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="68" customHeight="1" spans="1:23">
+      <c r="A21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="9">
         <v>288</v>
       </c>
-      <c r="E21" s="10">
-        <v>1</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="10">
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="9">
         <v>0</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11" t="s">
+      <c r="I21" s="9"/>
+      <c r="J21" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M21" s="10" t="s">
+      <c r="K21" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="U21" s="10"/>
-      <c r="V21" s="19"/>
-    </row>
-    <row r="22" ht="35" customHeight="1" spans="1:22">
-      <c r="A22" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="7">
+      <c r="V21" s="9"/>
+      <c r="W21" s="22"/>
+    </row>
+    <row r="22" ht="35" customHeight="1" spans="1:23">
+      <c r="A22" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="9">
         <v>388</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="9">
         <v>2</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="7">
-        <v>1</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="F22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8" t="s">
+      <c r="I22" s="9"/>
+      <c r="J22" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="7" t="s">
+      <c r="L22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="18"/>
-    </row>
-    <row r="23" ht="35" customHeight="1" spans="1:22">
-      <c r="A23" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="N22" s="9"/>
+      <c r="O22" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="22"/>
+    </row>
+    <row r="23" ht="35" customHeight="1" spans="1:23">
+      <c r="A23" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="10">
+      <c r="B23" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="9">
         <v>288</v>
       </c>
-      <c r="E23" s="10">
-        <v>1</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="10">
-        <v>1</v>
-      </c>
-      <c r="H23" s="10">
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11" t="s">
+      <c r="I23" s="9"/>
+      <c r="J23" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K23" s="10">
-        <v>1</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M23" s="10" t="s">
+      <c r="K23" s="9">
+        <v>1</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="19"/>
-    </row>
-    <row r="24" ht="35" customHeight="1" spans="1:22">
-      <c r="A24" s="6" t="s">
+      <c r="N23" s="9"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="22"/>
+    </row>
+    <row r="24" ht="35" customHeight="1" spans="1:23">
+      <c r="A24" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="9">
         <v>288</v>
       </c>
-      <c r="E24" s="7">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="7">
-        <v>1</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8" t="s">
+      <c r="I24" s="9"/>
+      <c r="J24" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K24" s="7">
-        <v>1</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" s="7" t="s">
+      <c r="K24" s="9">
+        <v>1</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N24" s="7"/>
-      <c r="O24" s="8" t="s">
+      <c r="N24" s="9"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="22"/>
+    </row>
+    <row r="25" ht="35" customHeight="1" spans="1:23">
+      <c r="A25" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="18"/>
-    </row>
-    <row r="25" ht="35" customHeight="1" spans="1:22">
-      <c r="A25" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>288</v>
       </c>
-      <c r="E25" s="10">
-        <v>1</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="10">
-        <v>1</v>
-      </c>
-      <c r="H25" s="10">
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11" t="s">
+      <c r="I25" s="9"/>
+      <c r="J25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="10">
-        <v>1</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M25" s="10" t="s">
+      <c r="K25" s="9">
+        <v>1</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N25" s="10"/>
-      <c r="O25" s="11" t="s">
+      <c r="N25" s="9"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="22"/>
+    </row>
+    <row r="26" ht="35" customHeight="1" spans="1:23">
+      <c r="A26" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="P25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="19"/>
-    </row>
-    <row r="26" ht="35" customHeight="1" spans="1:22">
-      <c r="A26" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="D26" s="9">
         <v>488</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="9">
         <v>2</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="7">
-        <v>1</v>
-      </c>
-      <c r="H26" s="7">
+      <c r="F26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="8" t="s">
+      <c r="I26" s="9"/>
+      <c r="J26" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K26" s="7">
-        <v>1</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M26" s="7" t="s">
+      <c r="K26" s="9">
+        <v>1</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N26" s="7"/>
-      <c r="O26" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="18"/>
-    </row>
-    <row r="27" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A27" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="10">
+      <c r="N26" s="9"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="22"/>
+    </row>
+    <row r="27" ht="49.5" spans="1:23">
+      <c r="A27" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="9">
         <v>188</v>
       </c>
-      <c r="E27" s="10">
-        <v>1</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="10">
-        <v>1</v>
-      </c>
-      <c r="H27" s="10">
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11" t="s">
+      <c r="I27" s="9"/>
+      <c r="J27" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M27" s="10" t="s">
+      <c r="L27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N27" s="10"/>
-      <c r="O27" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="19"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="35" customHeight="1" spans="1:22">
-      <c r="A28" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="N27" s="9"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="22"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+      <c r="A28" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="9">
         <v>388</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="9">
         <v>2</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="F28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="9">
         <v>0</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="8" t="s">
+      <c r="I28" s="9"/>
+      <c r="J28" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="9"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="22"/>
+    </row>
+    <row r="29" ht="49.5" spans="1:23">
+      <c r="A29" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N28" s="7"/>
-      <c r="O28" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="18"/>
-    </row>
-    <row r="29" ht="35" customHeight="1" spans="1:22">
-      <c r="A29" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>888</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="9">
         <v>3</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="10">
+      <c r="F29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="11" t="s">
+      <c r="I29" s="9"/>
+      <c r="J29" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="K29" s="10">
-        <v>1</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" s="10" t="s">
+      <c r="K29" s="9">
+        <v>1</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N29" s="10"/>
-      <c r="O29" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="19"/>
-    </row>
-    <row r="30" ht="35" customHeight="1" spans="1:22">
-      <c r="A30" s="6" t="s">
+      <c r="N29" s="9"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="22"/>
+    </row>
+    <row r="30" ht="51.5" customHeight="1" spans="1:23">
+      <c r="A30" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="7">
+      <c r="D30" s="9">
         <v>488</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="9">
         <v>2</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="7">
-        <v>1</v>
-      </c>
-      <c r="H30" s="7">
+      <c r="F30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="8" t="s">
+      <c r="I30" s="9"/>
+      <c r="J30" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M30" s="7" t="s">
+      <c r="K30" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="M30" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="18"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A31" s="9" t="s">
+      <c r="N30" s="9"/>
+      <c r="O30" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="P30" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="22"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="49.5" spans="1:23">
+      <c r="A31" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D31" s="10">
+      <c r="B31" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="9">
         <v>288</v>
       </c>
-      <c r="E31" s="10">
-        <v>1</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="10">
-        <v>1</v>
-      </c>
-      <c r="H31" s="10">
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="11" t="s">
+      <c r="I31" s="9"/>
+      <c r="J31" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="K31" s="10">
-        <v>1</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M31" s="10" t="s">
+      <c r="K31" s="9">
+        <v>1</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="10"/>
-      <c r="O31" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="19"/>
-    </row>
-    <row r="32" ht="35" customHeight="1" spans="1:22">
-      <c r="A32" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C32" s="8" t="s">
+      <c r="N31" s="9"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="7">
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="22"/>
+    </row>
+    <row r="32" ht="35" customHeight="1" spans="1:23">
+      <c r="A32" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="9">
         <v>288</v>
       </c>
-      <c r="E32" s="7">
-        <v>1</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="7">
-        <v>1</v>
-      </c>
-      <c r="H32" s="7">
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="9">
+        <v>1</v>
+      </c>
+      <c r="H32" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="8" t="s">
+      <c r="I32" s="9"/>
+      <c r="J32" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M32" s="7" t="s">
+      <c r="L32" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N32" s="7"/>
-      <c r="O32" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="18"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="35" customHeight="1" spans="1:22">
-      <c r="A33" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D33" s="10">
+      <c r="N32" s="9"/>
+      <c r="O32" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="22"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="49.5" spans="1:23">
+      <c r="A33" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="9">
         <v>288</v>
       </c>
-      <c r="E33" s="10">
-        <v>1</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="10">
-        <v>1</v>
-      </c>
-      <c r="H33" s="10">
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I33" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="J33" s="11" t="s">
+      <c r="I33" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J33" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="K33" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M33" s="10" t="s">
+      <c r="K33" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N33" s="10"/>
-      <c r="O33" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="19"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A34" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="N33" s="9"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="U33" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="V33" s="9"/>
+      <c r="W33" s="22"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="49.5" spans="1:23">
+      <c r="A34" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" s="9">
         <v>388</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="9">
         <v>2</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="F34" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="9">
         <v>0</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="8" t="s">
+      <c r="I34" s="9"/>
+      <c r="J34" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M34" s="7" t="s">
+      <c r="K34" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N34" s="7"/>
-      <c r="O34" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="18"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A35" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D35" s="10">
+      <c r="N34" s="9"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="U34" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="V34" s="9"/>
+      <c r="W34" s="22"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="49.5" spans="1:23">
+      <c r="A35" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="9">
         <v>388</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="9">
         <v>2</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="10">
+      <c r="F35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="9">
         <v>0</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="11" t="s">
+      <c r="I35" s="9"/>
+      <c r="J35" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K35" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M35" s="10" t="s">
+      <c r="K35" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N35" s="10"/>
-      <c r="O35" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="19"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A36" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D36" s="7">
+      <c r="N35" s="9"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="22"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="49.5" spans="1:23">
+      <c r="A36" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="9">
         <v>388</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="9">
         <v>2</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="7">
+      <c r="F36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="9">
         <v>0</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="8" t="s">
+      <c r="I36" s="9"/>
+      <c r="J36" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M36" s="7" t="s">
+      <c r="K36" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N36" s="7"/>
-      <c r="O36" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="18"/>
-    </row>
-    <row r="37" ht="35" customHeight="1" spans="1:22">
-      <c r="A37" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D37" s="10">
+      <c r="N36" s="9"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="22"/>
+    </row>
+    <row r="37" ht="35" customHeight="1" spans="1:23">
+      <c r="A37" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" s="9">
         <v>288</v>
       </c>
-      <c r="E37" s="10">
-        <v>1</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="10">
-        <v>1</v>
-      </c>
-      <c r="H37" s="10">
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="9">
+        <v>1</v>
+      </c>
+      <c r="H37" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I37" s="10"/>
-      <c r="J37" s="11" t="s">
+      <c r="I37" s="9"/>
+      <c r="J37" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K37" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M37" s="10" t="s">
+      <c r="K37" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N37" s="10"/>
-      <c r="O37" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="19"/>
-    </row>
-    <row r="38" ht="51.5" customHeight="1" spans="1:22">
-      <c r="A38" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" s="7">
+      <c r="N37" s="9"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="22"/>
+    </row>
+    <row r="38" ht="51.5" customHeight="1" spans="1:23">
+      <c r="A38" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="9">
         <v>888</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="9">
         <v>3</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="7">
-        <v>1</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="F38" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I38" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J38" s="8" t="s">
+      <c r="I38" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J38" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M38" s="7" t="s">
+      <c r="L38" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N38" s="7"/>
-      <c r="O38" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="18"/>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A39" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D39" s="10">
+      <c r="N38" s="9"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="22"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="49.5" spans="1:23">
+      <c r="A39" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" s="9">
         <v>388</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="9">
         <v>2</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="10">
-        <v>1</v>
-      </c>
-      <c r="H39" s="10">
+      <c r="F39" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1</v>
+      </c>
+      <c r="H39" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I39" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="J39" s="11" t="s">
+      <c r="I39" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J39" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K39" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M39" s="10" t="s">
+      <c r="K39" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N39" s="10"/>
-      <c r="O39" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="19"/>
-    </row>
-    <row r="40" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A40" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="N39" s="9"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="22"/>
+    </row>
+    <row r="40" ht="18.5" customHeight="1" spans="1:23">
+      <c r="A40" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="9">
         <v>488</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="9">
         <v>2</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="7">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7">
+      <c r="F40" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="9">
+        <v>1</v>
+      </c>
+      <c r="H40" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I40" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="J40" s="8" t="s">
+      <c r="I40" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J40" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="K40" s="7">
-        <v>1</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M40" s="7" t="s">
+      <c r="K40" s="9">
+        <v>1</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N40" s="7"/>
-      <c r="O40" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="18"/>
-    </row>
-    <row r="41" ht="35" customHeight="1" spans="1:22">
-      <c r="A41" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D41" s="10">
+      <c r="N40" s="9"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="22"/>
+    </row>
+    <row r="41" ht="35" customHeight="1" spans="1:23">
+      <c r="A41" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D41" s="9">
         <v>488</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="9">
         <v>2</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="10">
-        <v>1</v>
-      </c>
-      <c r="H41" s="10">
+      <c r="F41" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
+      <c r="H41" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="11" t="s">
+      <c r="I41" s="9"/>
+      <c r="J41" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="K41" s="10">
-        <v>1</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M41" s="10" t="s">
+      <c r="K41" s="9">
+        <v>1</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N41" s="10"/>
-      <c r="O41" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="19"/>
-    </row>
-    <row r="42" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A42" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D42" s="7">
+      <c r="N41" s="9"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="22"/>
+    </row>
+    <row r="42" ht="18.5" customHeight="1" spans="1:23">
+      <c r="A42" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" s="9">
         <v>288</v>
       </c>
-      <c r="E42" s="7">
-        <v>1</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="7">
+      <c r="E42" s="9">
+        <v>1</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="9">
         <v>0</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="8" t="s">
+      <c r="I42" s="9"/>
+      <c r="J42" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="K42" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M42" s="7" t="s">
+      <c r="L42" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="7"/>
-      <c r="O42" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="18"/>
-    </row>
-    <row r="43" ht="35" customHeight="1" spans="1:22">
-      <c r="A43" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D43" s="10">
+      <c r="N42" s="9"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="22"/>
+    </row>
+    <row r="43" ht="35" customHeight="1" spans="1:23">
+      <c r="A43" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="9">
         <v>488</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="9">
         <v>2</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="10">
-        <v>1</v>
-      </c>
-      <c r="H43" s="10">
+      <c r="F43" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="9">
+        <v>1</v>
+      </c>
+      <c r="H43" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="11" t="s">
+      <c r="I43" s="9"/>
+      <c r="J43" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L43" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M43" s="10" t="s">
+      <c r="L43" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N43" s="10"/>
-      <c r="O43" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="19"/>
-    </row>
-    <row r="44" ht="84.5" customHeight="1" spans="1:22">
-      <c r="A44" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D44" s="7">
+      <c r="N43" s="9"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="22"/>
+    </row>
+    <row r="44" ht="84.5" customHeight="1" spans="1:23">
+      <c r="A44" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D44" s="9">
         <v>888</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="9">
         <v>3</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="7">
-        <v>1</v>
-      </c>
-      <c r="H44" s="7">
+      <c r="F44" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1</v>
+      </c>
+      <c r="H44" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="8" t="s">
+      <c r="I44" s="9"/>
+      <c r="J44" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="K44" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L44" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M44" s="7" t="s">
+      <c r="L44" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M44" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N44" s="7"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="18"/>
-    </row>
-    <row r="45" ht="35" customHeight="1" spans="1:22">
-      <c r="A45" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D45" s="10">
+      <c r="N44" s="9"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="22"/>
+    </row>
+    <row r="45" ht="49.5" spans="1:23">
+      <c r="A45" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D45" s="9">
         <v>488</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="9">
         <v>2</v>
       </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10">
-        <v>1</v>
-      </c>
-      <c r="H45" s="10">
+      <c r="F45" s="9"/>
+      <c r="G45" s="9">
+        <v>1</v>
+      </c>
+      <c r="H45" s="9">
         <f t="shared" ref="H45:H62" si="1">(4-E45)*16</f>
         <v>32</v>
       </c>
-      <c r="I45" s="10"/>
-      <c r="J45" s="11" t="s">
+      <c r="I45" s="9"/>
+      <c r="J45" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L45" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M45" s="10" t="s">
+      <c r="L45" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M45" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N45" s="10"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="19"/>
-    </row>
-    <row r="46" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A46" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D46" s="7">
+      <c r="N45" s="9"/>
+      <c r="O45" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="22"/>
+    </row>
+    <row r="46" ht="18.5" customHeight="1" spans="1:23">
+      <c r="A46" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" s="9">
         <v>488</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="9">
         <v>2</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7">
-        <v>1</v>
-      </c>
-      <c r="H46" s="7">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9">
+        <v>1</v>
+      </c>
+      <c r="H46" s="9">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="8" t="s">
+      <c r="I46" s="9"/>
+      <c r="J46" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="K46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L46" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M46" s="7" t="s">
+      <c r="L46" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N46" s="7"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="18"/>
-    </row>
-    <row r="47" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A47" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D47" s="10">
+      <c r="N46" s="9"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="22"/>
+    </row>
+    <row r="47" ht="18.5" customHeight="1" spans="1:23">
+      <c r="A47" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="9">
         <v>888</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="9">
         <v>3</v>
       </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10">
-        <v>1</v>
-      </c>
-      <c r="H47" s="10">
+      <c r="F47" s="9"/>
+      <c r="G47" s="9">
+        <v>1</v>
+      </c>
+      <c r="H47" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I47" s="10"/>
-      <c r="J47" s="11" t="s">
+      <c r="I47" s="9"/>
+      <c r="J47" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K47" s="10" t="s">
+      <c r="K47" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L47" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M47" s="10" t="s">
+      <c r="L47" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M47" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N47" s="10"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="19"/>
-    </row>
-    <row r="48" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A48" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D48" s="7">
+      <c r="N47" s="9"/>
+      <c r="O47" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="P47" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q47" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="22"/>
+    </row>
+    <row r="48" ht="18.5" customHeight="1" spans="1:23">
+      <c r="A48" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48" s="9">
         <v>488</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="9">
         <v>2</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7">
-        <v>1</v>
-      </c>
-      <c r="H48" s="7">
+      <c r="F48" s="9"/>
+      <c r="G48" s="9">
+        <v>1</v>
+      </c>
+      <c r="H48" s="9">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I48" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="J48" s="8" t="s">
+      <c r="I48" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="J48" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="K48" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L48" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M48" s="7" t="s">
+      <c r="L48" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M48" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N48" s="7"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="18"/>
-    </row>
-    <row r="49" ht="35" customHeight="1" spans="1:22">
-      <c r="A49" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D49" s="10">
+      <c r="N48" s="9"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="22"/>
+    </row>
+    <row r="49" ht="35" customHeight="1" spans="1:23">
+      <c r="A49" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D49" s="9">
         <v>888</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="9">
         <v>3</v>
       </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10">
-        <v>1</v>
-      </c>
-      <c r="H49" s="10">
+      <c r="F49" s="9"/>
+      <c r="G49" s="9">
+        <v>1</v>
+      </c>
+      <c r="H49" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I49" s="10"/>
-      <c r="J49" s="11" t="s">
+      <c r="I49" s="9"/>
+      <c r="J49" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="K49" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L49" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M49" s="10" t="s">
+      <c r="L49" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M49" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N49" s="10"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="19"/>
-    </row>
-    <row r="50" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A50" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D50" s="7">
+      <c r="N49" s="9"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="22"/>
+    </row>
+    <row r="50" ht="49.5" spans="1:23">
+      <c r="A50" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D50" s="9">
         <v>888</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="9">
         <v>3</v>
       </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7">
-        <v>1</v>
-      </c>
-      <c r="H50" s="7">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9">
+        <v>1</v>
+      </c>
+      <c r="H50" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I50" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J50" s="8" t="s">
+      <c r="I50" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="J50" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="K50" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L50" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M50" s="7" t="s">
+      <c r="L50" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M50" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N50" s="7"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="18"/>
-    </row>
-    <row r="51" ht="35" customHeight="1" spans="1:22">
-      <c r="A51" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D51" s="10">
+      <c r="N50" s="9"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="22"/>
+    </row>
+    <row r="51" ht="35" customHeight="1" spans="1:23">
+      <c r="A51" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D51" s="9">
         <v>888</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="9">
         <v>3</v>
       </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10">
-        <v>1</v>
-      </c>
-      <c r="H51" s="10">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9">
+        <v>1</v>
+      </c>
+      <c r="H51" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I51" s="10"/>
-      <c r="J51" s="11" t="s">
+      <c r="I51" s="9"/>
+      <c r="J51" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K51" s="10" t="s">
+      <c r="K51" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L51" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M51" s="10" t="s">
+      <c r="L51" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M51" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="10"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="19"/>
-    </row>
-    <row r="52" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A52" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D52" s="7">
+      <c r="N51" s="9"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="22"/>
+    </row>
+    <row r="52" ht="49.5" spans="1:23">
+      <c r="A52" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="9">
         <v>488</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="9">
         <v>2</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7">
-        <v>1</v>
-      </c>
-      <c r="H52" s="7">
+      <c r="F52" s="9"/>
+      <c r="G52" s="9">
+        <v>1</v>
+      </c>
+      <c r="H52" s="9">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I52" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J52" s="8" t="s">
+      <c r="I52" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="J52" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="K52" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L52" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M52" s="7" t="s">
+      <c r="L52" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M52" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N52" s="7"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="18"/>
-    </row>
-    <row r="53" ht="35" customHeight="1" spans="1:22">
-      <c r="A53" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D53" s="10">
+      <c r="N52" s="9"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="U52" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="V52" s="9"/>
+      <c r="W52" s="22"/>
+    </row>
+    <row r="53" ht="35" customHeight="1" spans="1:23">
+      <c r="A53" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" s="9">
         <v>888</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="9">
         <v>3</v>
       </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10">
-        <v>1</v>
-      </c>
-      <c r="H53" s="10">
+      <c r="F53" s="9"/>
+      <c r="G53" s="9">
+        <v>1</v>
+      </c>
+      <c r="H53" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I53" s="10"/>
-      <c r="J53" s="11" t="s">
+      <c r="I53" s="9"/>
+      <c r="J53" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="K53" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L53" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M53" s="10" t="s">
+      <c r="L53" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M53" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N53" s="10"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="19"/>
-    </row>
-    <row r="54" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A54" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D54" s="7">
+      <c r="N53" s="9"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="22"/>
+    </row>
+    <row r="54" ht="18.5" customHeight="1" spans="1:23">
+      <c r="A54" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" s="9">
         <v>488</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="9">
         <v>2</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7">
-        <v>1</v>
-      </c>
-      <c r="H54" s="7">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9">
+        <v>1</v>
+      </c>
+      <c r="H54" s="9">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I54" s="7"/>
-      <c r="J54" s="8" t="s">
+      <c r="I54" s="9"/>
+      <c r="J54" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="K54" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L54" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M54" s="7" t="s">
+      <c r="L54" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M54" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N54" s="7"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="18"/>
-    </row>
-    <row r="55" ht="35" customHeight="1" spans="1:22">
-      <c r="A55" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="D55" s="10">
+      <c r="N54" s="9"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="22"/>
+    </row>
+    <row r="55" ht="49.5" spans="1:23">
+      <c r="A55" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D55" s="9">
         <v>388</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="9">
         <v>2</v>
       </c>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10">
-        <v>1</v>
-      </c>
-      <c r="H55" s="10">
+      <c r="F55" s="9"/>
+      <c r="G55" s="9">
+        <v>1</v>
+      </c>
+      <c r="H55" s="9">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I55" s="10"/>
-      <c r="J55" s="11" t="s">
+      <c r="I55" s="9"/>
+      <c r="J55" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K55" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L55" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M55" s="10" t="s">
+      <c r="L55" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M55" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N55" s="10"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="19"/>
-    </row>
-    <row r="56" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A56" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D56" s="7">
+      <c r="N55" s="9"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="U55" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="V55" s="9"/>
+      <c r="W55" s="22"/>
+    </row>
+    <row r="56" ht="49.5" spans="1:23">
+      <c r="A56" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D56" s="9">
         <v>288</v>
       </c>
-      <c r="E56" s="7">
-        <v>1</v>
-      </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7">
+      <c r="E56" s="9">
+        <v>1</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9">
         <v>0</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="9">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="8" t="s">
+      <c r="I56" s="9"/>
+      <c r="J56" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="K56" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L56" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M56" s="7" t="s">
+      <c r="L56" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M56" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N56" s="7"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="18"/>
-    </row>
-    <row r="57" ht="35" customHeight="1" spans="1:22">
-      <c r="A57" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D57" s="10">
+      <c r="N56" s="9"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="22"/>
+    </row>
+    <row r="57" ht="35" customHeight="1" spans="1:23">
+      <c r="A57" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D57" s="9">
         <v>288</v>
       </c>
-      <c r="E57" s="10">
-        <v>1</v>
-      </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10">
-        <v>1</v>
-      </c>
-      <c r="H57" s="10">
+      <c r="E57" s="9">
+        <v>1</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
+      <c r="H57" s="9">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="I57" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="J57" s="11" t="s">
+      <c r="I57" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="J57" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K57" s="10" t="s">
+      <c r="K57" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L57" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M57" s="10" t="s">
+      <c r="L57" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M57" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N57" s="10"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="19"/>
-    </row>
-    <row r="58" ht="35" customHeight="1" spans="1:22">
-      <c r="A58" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="D58" s="7">
+      <c r="N57" s="9"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="22"/>
+    </row>
+    <row r="58" ht="35" customHeight="1" spans="1:23">
+      <c r="A58" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D58" s="9">
         <v>488</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="9">
         <v>2</v>
       </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7">
+      <c r="F58" s="9"/>
+      <c r="G58" s="9">
         <v>0</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="9">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I58" s="7"/>
-      <c r="J58" s="8" t="s">
+      <c r="I58" s="9"/>
+      <c r="J58" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="K58" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L58" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M58" s="7" t="s">
+      <c r="L58" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M58" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N58" s="7"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="18"/>
-    </row>
-    <row r="59" ht="35" customHeight="1" spans="1:22">
-      <c r="A59" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D59" s="10">
+      <c r="N58" s="9"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="22"/>
+    </row>
+    <row r="59" ht="35" customHeight="1" spans="1:23">
+      <c r="A59" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D59" s="9">
         <v>488</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="9">
         <v>2</v>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9">
         <v>0</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H59" s="9">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I59" s="10"/>
-      <c r="J59" s="11" t="s">
+      <c r="I59" s="9"/>
+      <c r="J59" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K59" s="10" t="s">
+      <c r="K59" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L59" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M59" s="10" t="s">
+      <c r="L59" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M59" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N59" s="10"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="19"/>
-    </row>
-    <row r="60" ht="35" customHeight="1" spans="1:22">
-      <c r="A60" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D60" s="7">
+      <c r="N59" s="9"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="22"/>
+    </row>
+    <row r="60" ht="35" customHeight="1" spans="1:23">
+      <c r="A60" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D60" s="9">
         <v>888</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="9">
         <v>3</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7">
+      <c r="F60" s="9"/>
+      <c r="G60" s="9">
         <v>0</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I60" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="J60" s="8" t="s">
+      <c r="I60" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="J60" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K60" s="7" t="s">
+      <c r="K60" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L60" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M60" s="7" t="s">
+      <c r="L60" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M60" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N60" s="7"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="18"/>
-    </row>
-    <row r="61" ht="51.5" customHeight="1" spans="1:22">
-      <c r="A61" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="D61" s="10">
+      <c r="N60" s="9"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="22"/>
+    </row>
+    <row r="61" ht="51.5" customHeight="1" spans="1:23">
+      <c r="A61" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D61" s="9">
         <v>488</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="9">
         <v>2</v>
       </c>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10">
-        <v>1</v>
-      </c>
-      <c r="H61" s="10">
+      <c r="F61" s="9"/>
+      <c r="G61" s="9">
+        <v>1</v>
+      </c>
+      <c r="H61" s="9">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I61" s="10"/>
-      <c r="J61" s="11" t="s">
+      <c r="I61" s="9"/>
+      <c r="J61" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K61" s="10" t="s">
+      <c r="K61" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L61" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M61" s="10" t="s">
+      <c r="L61" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M61" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N61" s="10"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="19"/>
-    </row>
-    <row r="62" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A62" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D62" s="13">
+      <c r="N61" s="9"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="22"/>
+    </row>
+    <row r="62" ht="49.5" spans="1:23">
+      <c r="A62" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D62" s="17">
         <v>488</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="17">
         <v>2</v>
       </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13">
-        <v>1</v>
-      </c>
-      <c r="H62" s="13">
+      <c r="F62" s="17"/>
+      <c r="G62" s="17">
+        <v>1</v>
+      </c>
+      <c r="H62" s="17">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I62" s="13"/>
-      <c r="J62" s="14" t="s">
+      <c r="I62" s="17"/>
+      <c r="J62" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="K62" s="13" t="s">
+      <c r="K62" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="L62" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M62" s="13" t="s">
+      <c r="L62" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M62" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="N62" s="13"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
-      <c r="V62" s="20"/>
-    </row>
-    <row r="63" ht="14.25"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="U62" s="17"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="23"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="H$1:H$1048576">
     <cfRule type="colorScale" priority="1">

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="310">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -302,6 +302,12 @@
     <t>clinkz_death_pact</t>
   </si>
   <si>
+    <t>AddBuff</t>
+  </si>
+  <si>
+    <t>modifier_shop_prop_10</t>
+  </si>
+  <si>
     <t>range 250</t>
   </si>
   <si>
@@ -320,6 +326,9 @@
     <t>death_prophet/awakened_thirst_ult_bat_icon/death_prophet_exorcism</t>
   </si>
   <si>
+    <t>modifier_shop_prop_11</t>
+  </si>
+  <si>
     <t>range 600</t>
   </si>
   <si>
@@ -351,9 +360,6 @@
   </si>
   <si>
     <t>每击杀一个单位，回复1点法力值。最大法力值减少25%</t>
-  </si>
-  <si>
-    <t>AddAttr</t>
   </si>
   <si>
     <t>KillRestoreHp {
@@ -476,6 +482,12 @@
     <t>雷元素技能命中敌人时，50%概率额外追加3秒麻痹效果（相同敌人只受到一次效果）</t>
   </si>
   <si>
+    <t>chance 50</t>
+  </si>
+  <si>
+    <t>duration 3</t>
+  </si>
+  <si>
     <t>prop_23</t>
   </si>
   <si>
@@ -485,6 +497,12 @@
     <t>风元素技能命中敌人时，被击退的敌人降低20%元素抗性并眩晕1秒</t>
   </si>
   <si>
+    <t>value -20</t>
+  </si>
+  <si>
+    <t>stun 1</t>
+  </si>
+  <si>
     <t>prop_24</t>
   </si>
   <si>
@@ -492,6 +510,9 @@
   </si>
   <si>
     <t>敌人受到debuff效果时，受到的伤害加深15%。</t>
+  </si>
+  <si>
+    <t>value -15</t>
   </si>
   <si>
     <t>prop_25</t>
@@ -703,13 +724,22 @@
     <t>碰撞时触发,无内置冷却</t>
   </si>
   <si>
+    <t>root_duration 1</t>
+  </si>
+  <si>
     <t>prop_39</t>
   </si>
   <si>
     <t>【迈达斯点金手】</t>
   </si>
   <si>
-    <t>对单位造成伤害时有1%概率秒杀，并获取10倍灵魂</t>
+    <t>对单位造成伤害时有1%概率秒杀，并获取10倍灵魂,不掉灵魂</t>
+  </si>
+  <si>
+    <t>chance 1</t>
+  </si>
+  <si>
+    <t>mul 10</t>
   </si>
   <si>
     <t>prop_40</t>
@@ -719,6 +749,12 @@
   </si>
   <si>
     <t>每秒钟获得1点灵魂（上限10）</t>
+  </si>
+  <si>
+    <t>value 1</t>
+  </si>
+  <si>
+    <t>limit 10</t>
   </si>
   <si>
     <t>prop_41</t>
@@ -776,9 +812,6 @@
   </si>
   <si>
     <t>interval 10</t>
-  </si>
-  <si>
-    <t>root_duration 1</t>
   </si>
   <si>
     <t>root_radius 500</t>
@@ -1151,7 +1184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1172,13 +1205,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCE292F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,7 +1714,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1699,16 +1738,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1717,89 +1756,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1836,16 +1875,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2411,16 +2456,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{69AA9621-E5DF-4F9C-9A48-2C060FC76735}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A74B0955-FDF5-4880-BD8B-E8C91B6EF74C}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{02643E3F-D0BC-4B20-938C-4537D69955E1}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{DBDA7EA7-0380-4E35-8BAE-B2DC77D8A4AB}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{D654C4D1-46F6-4233-8EEF-6036656C63A8}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{600981E3-9DC9-435C-9190-58066E29C54D}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2432,7 +2477,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{E0BCF264-28CC-4482-8798-3280E8800DBB}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{91442802-46C4-4794-9B1B-D89EBFEDA4CB}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -2440,6 +2485,11 @@
       <tableStyleElement type="lastColumn" dxfId="15"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="00CE292F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2735,12 +2785,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X62"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C21" sqref="C21"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2751,7 +2801,7 @@
     <col min="4" max="4" width="5.675" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.175" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.0083333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.3416666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.675" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.675" style="1" customWidth="1"/>
     <col min="10" max="10" width="32.0333333333333" style="1" customWidth="1"/>
@@ -2764,13 +2814,14 @@
     <col min="17" max="17" width="17.375" style="1" customWidth="1"/>
     <col min="18" max="18" width="11.0083333333333" style="1" customWidth="1"/>
     <col min="19" max="19" width="5.34166666666667" style="1" customWidth="1"/>
-    <col min="20" max="20" width="24.875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="25.5" style="1" customWidth="1"/>
-    <col min="22" max="23" width="3.24166666666667" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="20" max="20" width="12.25" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="25.5" style="1" customWidth="1"/>
+    <col min="23" max="24" width="3.24166666666667" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" customHeight="1" spans="1:23">
+    <row r="1" ht="18.5" customHeight="1" spans="1:24">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2820,14 +2871,15 @@
       <c r="S1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="4"/>
+      <c r="U1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="4"/>
       <c r="V1" s="4"/>
-      <c r="W1" s="20"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="22"/>
     </row>
-    <row r="2" ht="18.5" customHeight="1" spans="1:24">
+    <row r="2" ht="18.5" customHeight="1" spans="1:25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -2868,16 +2920,16 @@
       <c r="N2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="18">
-        <v>1</v>
-      </c>
-      <c r="P2" s="19">
+      <c r="O2" s="20">
+        <v>1</v>
+      </c>
+      <c r="P2" s="21">
         <v>2</v>
       </c>
-      <c r="Q2" s="19">
+      <c r="Q2" s="21">
         <v>3</v>
       </c>
-      <c r="R2" s="19">
+      <c r="R2" s="21">
         <v>4</v>
       </c>
       <c r="S2" s="6" t="s">
@@ -2892,14 +2944,17 @@
       <c r="V2" s="6">
         <v>2</v>
       </c>
-      <c r="W2" s="21">
+      <c r="W2" s="6">
         <v>3</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="23">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="35" customHeight="1" spans="1:23">
+    <row r="3" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -2951,9 +3006,10 @@
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
-      <c r="W3" s="22"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="24"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:23">
+    <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
@@ -3005,9 +3061,10 @@
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
-      <c r="W4" s="22"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="24"/>
     </row>
-    <row r="5" ht="51.5" customHeight="1" spans="1:23">
+    <row r="5" ht="51.5" customHeight="1" spans="1:24">
       <c r="A5" s="8" t="s">
         <v>47</v>
       </c>
@@ -3061,9 +3118,10 @@
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
-      <c r="W5" s="22"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="24"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="35" customHeight="1" spans="1:23">
+    <row r="6" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A6" s="8" t="s">
         <v>55</v>
       </c>
@@ -3114,9 +3172,10 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
-      <c r="W6" s="22"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="24"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="35" customHeight="1" spans="1:23">
+    <row r="7" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A7" s="8" t="s">
         <v>62</v>
       </c>
@@ -3167,9 +3226,10 @@
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
-      <c r="W7" s="22"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="24"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="35" customHeight="1" spans="1:23">
+    <row r="8" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A8" s="8" t="s">
         <v>67</v>
       </c>
@@ -3220,9 +3280,10 @@
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
-      <c r="W8" s="22"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="24"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="35" customHeight="1" spans="1:23">
+    <row r="9" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A9" s="8" t="s">
         <v>72</v>
       </c>
@@ -3273,9 +3334,10 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
-      <c r="W9" s="22"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="24"/>
     </row>
-    <row r="10" ht="35" customHeight="1" spans="1:23">
+    <row r="10" ht="35" customHeight="1" spans="1:24">
       <c r="A10" s="8" t="s">
         <v>77</v>
       </c>
@@ -3325,9 +3387,10 @@
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
-      <c r="W10" s="22"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="24"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:23">
+    <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A11" s="8" t="s">
         <v>81</v>
       </c>
@@ -3379,13 +3442,14 @@
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
-      <c r="W11" s="22"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="24"/>
     </row>
-    <row r="12" ht="35" customHeight="1" spans="1:23">
+    <row r="12" ht="35" customHeight="1" spans="1:24">
       <c r="A12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -3411,21 +3475,21 @@
       <c r="J12" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K12" s="9">
-        <v>1</v>
+      <c r="K12" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
@@ -3433,17 +3497,18 @@
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
-      <c r="W12" s="22"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="24"/>
     </row>
-    <row r="13" ht="35" customHeight="1" spans="1:23">
+    <row r="13" ht="35" customHeight="1" spans="1:24">
       <c r="A13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D13" s="9">
         <v>288</v>
@@ -3463,23 +3528,23 @@
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="K13" s="9">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>38</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
@@ -3487,17 +3552,18 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
-      <c r="W13" s="22"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="24"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:23">
+    <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A14" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D14" s="9">
         <v>488</v>
@@ -3517,7 +3583,7 @@
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K14" s="9">
         <v>1</v>
@@ -3530,30 +3596,31 @@
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
-      <c r="W14" s="22"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="24"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="49.5" spans="1:23">
+    <row r="15" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A15" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D15" s="9">
         <v>288</v>
@@ -3576,7 +3643,7 @@
         <v>36</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>34</v>
@@ -3590,24 +3657,25 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
-      <c r="T15" s="9" t="s">
-        <v>109</v>
-      </c>
+      <c r="T15" s="9"/>
       <c r="U15" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="V15" s="9"/>
-      <c r="W15" s="22"/>
+        <v>111</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="W15" s="9"/>
+      <c r="X15" s="24"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+    <row r="16" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:24">
       <c r="A16" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D16" s="9">
         <v>488</v>
@@ -3630,7 +3698,7 @@
         <v>43</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>34</v>
@@ -3647,17 +3715,18 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
-      <c r="W16" s="22"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="24"/>
     </row>
-    <row r="17" ht="35" customHeight="1" spans="1:23">
+    <row r="17" ht="35" customHeight="1" spans="1:24">
       <c r="A17" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D17" s="9">
         <v>288</v>
@@ -3690,10 +3759,10 @@
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
@@ -3701,17 +3770,18 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
-      <c r="W17" s="22"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="24"/>
     </row>
-    <row r="18" ht="35" customHeight="1" spans="1:23">
+    <row r="18" ht="35" customHeight="1" spans="1:24">
       <c r="A18" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D18" s="9">
         <v>888</v>
@@ -3744,7 +3814,7 @@
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
@@ -3753,17 +3823,18 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
-      <c r="W18" s="22"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="24"/>
     </row>
-    <row r="19" ht="18.5" customHeight="1" spans="1:23">
+    <row r="19" ht="18.5" customHeight="1" spans="1:24">
       <c r="A19" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D19" s="9">
         <v>288</v>
@@ -3796,7 +3867,7 @@
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -3805,17 +3876,18 @@
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
-      <c r="W19" s="22"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="24"/>
     </row>
-    <row r="20" ht="35" customHeight="1" spans="1:23">
+    <row r="20" ht="35" customHeight="1" spans="1:24">
       <c r="A20" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D20" s="9">
         <v>488</v>
@@ -3848,30 +3920,31 @@
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
-      <c r="W20" s="22"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="24"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="68" customHeight="1" spans="1:23">
+    <row r="21" s="1" customFormat="1" ht="68" customHeight="1" spans="1:24">
       <c r="A21" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D21" s="9">
         <v>288</v>
@@ -3894,7 +3967,7 @@
         <v>75</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>34</v>
@@ -3909,21 +3982,22 @@
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
-      <c r="U21" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="V21" s="9"/>
-      <c r="W21" s="22"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="W21" s="9"/>
+      <c r="X21" s="24"/>
     </row>
-    <row r="22" ht="35" customHeight="1" spans="1:23">
+    <row r="22" ht="35" customHeight="1" spans="1:24">
       <c r="A22" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D22" s="9">
         <v>388</v>
@@ -3956,7 +4030,7 @@
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
@@ -3965,17 +4039,18 @@
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
-      <c r="W22" s="22"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="24"/>
     </row>
-    <row r="23" ht="35" customHeight="1" spans="1:23">
+    <row r="23" ht="35" customHeight="1" spans="1:24">
       <c r="A23" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D23" s="9">
         <v>288</v>
@@ -4015,17 +4090,18 @@
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
-      <c r="W23" s="22"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="24"/>
     </row>
-    <row r="24" ht="35" customHeight="1" spans="1:23">
+    <row r="24" ht="35" customHeight="1" spans="1:24">
       <c r="A24" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D24" s="9">
         <v>288</v>
@@ -4057,25 +4133,30 @@
         <v>38</v>
       </c>
       <c r="N24" s="9"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="9"/>
+      <c r="O24" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>150</v>
+      </c>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
-      <c r="W24" s="22"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="24"/>
     </row>
-    <row r="25" ht="35" customHeight="1" spans="1:23">
+    <row r="25" ht="35" customHeight="1" spans="1:24">
       <c r="A25" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D25" s="9">
         <v>288</v>
@@ -4107,25 +4188,30 @@
         <v>38</v>
       </c>
       <c r="N25" s="9"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="9"/>
+      <c r="O25" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
-      <c r="W25" s="22"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="24"/>
     </row>
-    <row r="26" ht="35" customHeight="1" spans="1:23">
+    <row r="26" ht="35" customHeight="1" spans="1:24">
       <c r="A26" s="8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>152</v>
+        <v>157</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="D26" s="9">
         <v>488</v>
@@ -4157,7 +4243,9 @@
         <v>38</v>
       </c>
       <c r="N26" s="9"/>
-      <c r="O26" s="10"/>
+      <c r="O26" s="10" t="s">
+        <v>159</v>
+      </c>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
@@ -4165,17 +4253,18 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
-      <c r="W26" s="22"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="24"/>
     </row>
-    <row r="27" ht="49.5" spans="1:23">
+    <row r="27" ht="49.5" spans="1:24">
       <c r="A27" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>154</v>
+        <v>160</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D27" s="9">
         <v>188</v>
@@ -4212,22 +4301,23 @@
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
-      <c r="T27" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="U27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="V27" s="9"/>
-      <c r="W27" s="22"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="24"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+    <row r="28" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:24">
       <c r="A28" s="8" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D28" s="9">
         <v>388</v>
@@ -4250,7 +4340,7 @@
         <v>70</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="L28" s="9" t="s">
         <v>34</v>
@@ -4267,17 +4357,18 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
-      <c r="W28" s="22"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="24"/>
     </row>
-    <row r="29" ht="49.5" spans="1:23">
+    <row r="29" ht="49.5" spans="1:24">
       <c r="A29" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>162</v>
+        <v>168</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D29" s="9">
         <v>888</v>
@@ -4314,22 +4405,23 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="U29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9" t="s">
+        <v>171</v>
+      </c>
       <c r="V29" s="9"/>
-      <c r="W29" s="22"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="24"/>
     </row>
-    <row r="30" ht="51.5" customHeight="1" spans="1:23">
+    <row r="30" ht="51.5" customHeight="1" spans="1:24">
       <c r="A30" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>166</v>
+        <v>172</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>173</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D30" s="9">
         <v>488</v>
@@ -4352,20 +4444,20 @@
         <v>80</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>38</v>
       </c>
       <c r="N30" s="9"/>
       <c r="O30" s="10" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
@@ -4373,17 +4465,18 @@
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
-      <c r="W30" s="22"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="24"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="49.5" spans="1:23">
+    <row r="31" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A31" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>173</v>
+        <v>179</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D31" s="9">
         <v>288</v>
@@ -4420,22 +4513,23 @@
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
-      <c r="T31" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="U31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9" t="s">
+        <v>182</v>
+      </c>
       <c r="V31" s="9"/>
-      <c r="W31" s="22"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="24"/>
     </row>
-    <row r="32" ht="35" customHeight="1" spans="1:23">
+    <row r="32" ht="35" customHeight="1" spans="1:24">
       <c r="A32" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>177</v>
+        <v>183</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D32" s="9">
         <v>288</v>
@@ -4468,7 +4562,7 @@
       </c>
       <c r="N32" s="9"/>
       <c r="O32" s="10" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
@@ -4477,17 +4571,18 @@
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
-      <c r="W32" s="22"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="24"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="49.5" spans="1:23">
+    <row r="33" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A33" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>181</v>
+        <v>187</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D33" s="9">
         <v>288</v>
@@ -4506,13 +4601,13 @@
         <v>48</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="L33" s="9" t="s">
         <v>34</v>
@@ -4526,24 +4621,25 @@
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
-      <c r="T33" s="9" t="s">
-        <v>184</v>
-      </c>
+      <c r="T33" s="9"/>
       <c r="U33" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="V33" s="9"/>
-      <c r="W33" s="22"/>
+        <v>191</v>
+      </c>
+      <c r="V33" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="W33" s="9"/>
+      <c r="X33" s="24"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="49.5" spans="1:23">
+    <row r="34" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A34" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>187</v>
+        <v>193</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D34" s="9">
         <v>388</v>
@@ -4563,10 +4659,10 @@
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="L34" s="9" t="s">
         <v>34</v>
@@ -4580,24 +4676,25 @@
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
-      <c r="T34" s="9" t="s">
-        <v>189</v>
-      </c>
+      <c r="T34" s="9"/>
       <c r="U34" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="V34" s="9"/>
-      <c r="W34" s="22"/>
+        <v>196</v>
+      </c>
+      <c r="V34" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W34" s="9"/>
+      <c r="X34" s="24"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="49.5" spans="1:23">
+    <row r="35" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A35" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>192</v>
+        <v>198</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>199</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D35" s="9">
         <v>388</v>
@@ -4620,7 +4717,7 @@
         <v>36</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="L35" s="9" t="s">
         <v>34</v>
@@ -4634,22 +4731,23 @@
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
-      <c r="T35" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="U35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9" t="s">
+        <v>201</v>
+      </c>
       <c r="V35" s="9"/>
-      <c r="W35" s="22"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="24"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="49.5" spans="1:23">
+    <row r="36" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A36" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>196</v>
+        <v>202</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D36" s="9">
         <v>388</v>
@@ -4672,7 +4770,7 @@
         <v>43</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="L36" s="9" t="s">
         <v>34</v>
@@ -4686,22 +4784,23 @@
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
-      <c r="T36" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="U36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="V36" s="9"/>
-      <c r="W36" s="22"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="24"/>
     </row>
-    <row r="37" ht="35" customHeight="1" spans="1:23">
+    <row r="37" ht="35" customHeight="1" spans="1:24">
       <c r="A37" s="8" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D37" s="9">
         <v>288</v>
@@ -4724,7 +4823,7 @@
         <v>50</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L37" s="9" t="s">
         <v>34</v>
@@ -4741,17 +4840,18 @@
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
-      <c r="W37" s="22"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="24"/>
     </row>
-    <row r="38" ht="51.5" customHeight="1" spans="1:23">
+    <row r="38" ht="51.5" customHeight="1" spans="1:24">
       <c r="A38" s="8" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D38" s="9">
         <v>888</v>
@@ -4770,7 +4870,7 @@
         <v>16</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="J38" s="10" t="s">
         <v>58</v>
@@ -4793,17 +4893,18 @@
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
-      <c r="W38" s="22"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="24"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="49.5" spans="1:23">
+    <row r="39" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A39" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>208</v>
+        <v>214</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D39" s="9">
         <v>388</v>
@@ -4822,13 +4923,13 @@
         <v>32</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="J39" s="10" t="s">
         <v>65</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="L39" s="9" t="s">
         <v>34</v>
@@ -4842,22 +4943,23 @@
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
-      <c r="T39" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="U39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9" t="s">
+        <v>218</v>
+      </c>
       <c r="V39" s="9"/>
-      <c r="W39" s="22"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="24"/>
     </row>
-    <row r="40" ht="18.5" customHeight="1" spans="1:23">
+    <row r="40" ht="18.5" customHeight="1" spans="1:24">
       <c r="A40" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>213</v>
+        <v>219</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>220</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D40" s="9">
         <v>488</v>
@@ -4876,7 +4978,7 @@
         <v>32</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="J40" s="10" t="s">
         <v>70</v>
@@ -4891,7 +4993,9 @@
         <v>38</v>
       </c>
       <c r="N40" s="9"/>
-      <c r="O40" s="10"/>
+      <c r="O40" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
@@ -4899,17 +5003,18 @@
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
-      <c r="W40" s="22"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="24"/>
     </row>
-    <row r="41" ht="35" customHeight="1" spans="1:23">
+    <row r="41" ht="35" customHeight="1" spans="1:24">
       <c r="A41" s="8" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D41" s="9">
         <v>488</v>
@@ -4941,25 +5046,30 @@
         <v>38</v>
       </c>
       <c r="N41" s="9"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="9"/>
+      <c r="O41" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
-      <c r="W41" s="22"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="24"/>
     </row>
-    <row r="42" ht="18.5" customHeight="1" spans="1:23">
+    <row r="42" ht="18.5" customHeight="1" spans="1:24">
       <c r="A42" s="8" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D42" s="9">
         <v>288</v>
@@ -4991,25 +5101,30 @@
         <v>38</v>
       </c>
       <c r="N42" s="9"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="9"/>
+      <c r="O42" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
-      <c r="W42" s="22"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="24"/>
     </row>
-    <row r="43" ht="35" customHeight="1" spans="1:23">
+    <row r="43" ht="35" customHeight="1" spans="1:24">
       <c r="A43" s="8" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="D43" s="9">
         <v>488</v>
@@ -5049,17 +5164,18 @@
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
-      <c r="W43" s="22"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="24"/>
     </row>
-    <row r="44" ht="84.5" customHeight="1" spans="1:23">
+    <row r="44" ht="84.5" customHeight="1" spans="1:24">
       <c r="A44" s="8" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="D44" s="9">
         <v>888</v>
@@ -5099,17 +5215,18 @@
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
-      <c r="W44" s="22"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="24"/>
     </row>
-    <row r="45" ht="49.5" spans="1:23">
+    <row r="45" ht="49.5" spans="1:24">
       <c r="A45" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>229</v>
+        <v>240</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>241</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D45" s="9">
         <v>488</v>
@@ -5140,28 +5257,29 @@
       </c>
       <c r="N45" s="9"/>
       <c r="O45" s="10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
-      <c r="T45" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="U45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9" t="s">
+        <v>244</v>
+      </c>
       <c r="V45" s="9"/>
-      <c r="W45" s="22"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="24"/>
     </row>
-    <row r="46" ht="18.5" customHeight="1" spans="1:23">
+    <row r="46" ht="18.5" customHeight="1" spans="1:24">
       <c r="A46" s="8" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="D46" s="9">
         <v>488</v>
@@ -5199,17 +5317,18 @@
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
-      <c r="W46" s="22"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="24"/>
     </row>
-    <row r="47" ht="18.5" customHeight="1" spans="1:23">
+    <row r="47" ht="18.5" customHeight="1" spans="1:24">
       <c r="A47" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>237</v>
+        <v>248</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>249</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D47" s="9">
         <v>888</v>
@@ -5240,30 +5359,31 @@
       </c>
       <c r="N47" s="9"/>
       <c r="O47" s="10" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="P47" s="9" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
-      <c r="W47" s="22"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="24"/>
     </row>
-    <row r="48" ht="18.5" customHeight="1" spans="1:23">
+    <row r="48" ht="18.5" customHeight="1" spans="1:24">
       <c r="A48" s="8" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D48" s="9">
         <v>488</v>
@@ -5280,7 +5400,7 @@
         <v>32</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="J48" s="10" t="s">
         <v>80</v>
@@ -5303,17 +5423,18 @@
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
-      <c r="W48" s="22"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="24"/>
     </row>
-    <row r="49" ht="35" customHeight="1" spans="1:23">
+    <row r="49" ht="35" customHeight="1" spans="1:24">
       <c r="A49" s="8" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>248</v>
+        <v>258</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>259</v>
       </c>
       <c r="D49" s="9">
         <v>888</v>
@@ -5351,17 +5472,18 @@
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
-      <c r="W49" s="22"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="24"/>
     </row>
-    <row r="50" ht="49.5" spans="1:23">
+    <row r="50" ht="49.5" spans="1:24">
       <c r="A50" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>250</v>
+        <v>260</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D50" s="9">
         <v>888</v>
@@ -5378,7 +5500,7 @@
         <v>16</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="J50" s="10" t="s">
         <v>80</v>
@@ -5398,22 +5520,23 @@
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
-      <c r="T50" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="U50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9" t="s">
+        <v>264</v>
+      </c>
       <c r="V50" s="9"/>
-      <c r="W50" s="22"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="24"/>
     </row>
-    <row r="51" ht="35" customHeight="1" spans="1:23">
+    <row r="51" ht="35" customHeight="1" spans="1:24">
       <c r="A51" s="8" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D51" s="9">
         <v>888</v>
@@ -5451,17 +5574,18 @@
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
-      <c r="W51" s="22"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="24"/>
     </row>
-    <row r="52" ht="49.5" spans="1:23">
+    <row r="52" ht="49.5" spans="1:24">
       <c r="A52" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>258</v>
+        <v>268</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D52" s="9">
         <v>488</v>
@@ -5478,7 +5602,7 @@
         <v>32</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="J52" s="10" t="s">
         <v>80</v>
@@ -5498,24 +5622,25 @@
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
-      <c r="T52" s="9" t="s">
-        <v>261</v>
-      </c>
+      <c r="T52" s="9"/>
       <c r="U52" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="V52" s="9"/>
-      <c r="W52" s="22"/>
+        <v>272</v>
+      </c>
+      <c r="V52" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="W52" s="9"/>
+      <c r="X52" s="24"/>
     </row>
-    <row r="53" ht="35" customHeight="1" spans="1:23">
+    <row r="53" ht="35" customHeight="1" spans="1:24">
       <c r="A53" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>264</v>
+        <v>274</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>275</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="D53" s="9">
         <v>888</v>
@@ -5553,17 +5678,18 @@
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
-      <c r="W53" s="22"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="24"/>
     </row>
-    <row r="54" ht="18.5" customHeight="1" spans="1:23">
+    <row r="54" ht="18.5" customHeight="1" spans="1:24">
       <c r="A54" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>267</v>
+        <v>277</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="D54" s="9">
         <v>488</v>
@@ -5601,17 +5727,18 @@
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
       <c r="V54" s="9"/>
-      <c r="W54" s="22"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="24"/>
     </row>
-    <row r="55" ht="49.5" spans="1:23">
+    <row r="55" ht="49.5" spans="1:24">
       <c r="A55" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>270</v>
+        <v>280</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>281</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D55" s="9">
         <v>388</v>
@@ -5646,24 +5773,25 @@
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
-      <c r="T55" s="9" t="s">
-        <v>272</v>
-      </c>
+      <c r="T55" s="9"/>
       <c r="U55" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="V55" s="9"/>
-      <c r="W55" s="22"/>
+        <v>283</v>
+      </c>
+      <c r="V55" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="W55" s="9"/>
+      <c r="X55" s="24"/>
     </row>
-    <row r="56" ht="49.5" spans="1:23">
+    <row r="56" ht="49.5" spans="1:24">
       <c r="A56" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>275</v>
+        <v>285</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>286</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="D56" s="9">
         <v>288</v>
@@ -5698,22 +5826,23 @@
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
-      <c r="T56" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="U56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="V56" s="9"/>
-      <c r="W56" s="22"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="24"/>
     </row>
-    <row r="57" ht="35" customHeight="1" spans="1:23">
+    <row r="57" ht="35" customHeight="1" spans="1:24">
       <c r="A57" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>279</v>
+        <v>289</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>290</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D57" s="9">
         <v>288</v>
@@ -5726,11 +5855,10 @@
         <v>1</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="1"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="J57" s="10" t="s">
         <v>80</v>
@@ -5753,17 +5881,18 @@
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
-      <c r="W57" s="22"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="24"/>
     </row>
-    <row r="58" ht="35" customHeight="1" spans="1:23">
+    <row r="58" ht="35" customHeight="1" spans="1:24">
       <c r="A58" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>283</v>
+        <v>293</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>294</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D58" s="9">
         <v>488</v>
@@ -5776,8 +5905,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="10" t="s">
@@ -5801,17 +5929,18 @@
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
       <c r="V58" s="9"/>
-      <c r="W58" s="22"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="24"/>
     </row>
-    <row r="59" ht="35" customHeight="1" spans="1:23">
+    <row r="59" ht="35" customHeight="1" spans="1:24">
       <c r="A59" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>286</v>
+        <v>296</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>297</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="D59" s="9">
         <v>488</v>
@@ -5824,8 +5953,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="9">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="10" t="s">
@@ -5849,17 +5977,18 @@
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
       <c r="V59" s="9"/>
-      <c r="W59" s="22"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="24"/>
     </row>
-    <row r="60" ht="35" customHeight="1" spans="1:23">
+    <row r="60" ht="35" customHeight="1" spans="1:24">
       <c r="A60" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>290</v>
+        <v>299</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>301</v>
       </c>
       <c r="D60" s="9">
         <v>888</v>
@@ -5876,7 +6005,7 @@
         <v>16</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="J60" s="10" t="s">
         <v>80</v>
@@ -5899,17 +6028,18 @@
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
       <c r="V60" s="9"/>
-      <c r="W60" s="22"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="24"/>
     </row>
-    <row r="61" ht="51.5" customHeight="1" spans="1:23">
+    <row r="61" ht="51.5" customHeight="1" spans="1:24">
       <c r="A61" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>293</v>
+        <v>303</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>304</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="D61" s="9">
         <v>488</v>
@@ -5922,8 +6052,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="9">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="10" t="s">
@@ -5947,57 +6076,59 @@
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
-      <c r="W61" s="22"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="24"/>
     </row>
-    <row r="62" ht="49.5" spans="1:23">
-      <c r="A62" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="D62" s="17">
+    <row r="62" ht="49.5" spans="1:24">
+      <c r="A62" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D62" s="19">
         <v>488</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="19">
         <v>2</v>
       </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17">
-        <v>1</v>
-      </c>
-      <c r="H62" s="17">
+      <c r="F62" s="19"/>
+      <c r="G62" s="19">
+        <v>1</v>
+      </c>
+      <c r="H62" s="19">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I62" s="17"/>
-      <c r="J62" s="16" t="s">
+      <c r="I62" s="19"/>
+      <c r="J62" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="K62" s="17" t="s">
+      <c r="K62" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="L62" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M62" s="17" t="s">
+      <c r="L62" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M62" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="N62" s="17"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="U62" s="17"/>
-      <c r="V62" s="17"/>
-      <c r="W62" s="23"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="V62" s="19"/>
+      <c r="W62" s="19"/>
+      <c r="X62" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H$1:H$1048576">

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="357">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -137,7 +137,7 @@
     <t>和常客优惠II加算</t>
   </si>
   <si>
-    <t>brewmaster_primal_companion_fire</t>
+    <t>item_prop/常客优惠I</t>
   </si>
   <si>
     <t>LowerConsume</t>
@@ -158,7 +158,7 @@
     <t>获得灵魂时，有20%概率获得双倍灵魂。（上限100%）</t>
   </si>
   <si>
-    <t>bounty_hunter_twinblade_jinada</t>
+    <t>item_prop/双倍灵魂</t>
   </si>
   <si>
     <t>GetDoubleSoulPro</t>
@@ -176,22 +176,24 @@
     <t>【啊，是火！】</t>
   </si>
   <si>
-    <t>火元素技能造成伤害的灼烧会额外增加攻击力40%的伤害，并降低元素抗性20%，持续3秒。</t>
-  </si>
-  <si>
-    <t>brewmaster_fire_permanent_immolation</t>
+    <t>火元素技能造成伤害的灼烧会额外增加攻击力40%的伤害，并降低火元素抗性20%，持续3秒。</t>
+  </si>
+  <si>
+    <t>item_prop/啊，是火！</t>
   </si>
   <si>
     <t>Null</t>
   </si>
   <si>
-    <t>attack_pro 40</t>
-  </si>
-  <si>
-    <t>str_up 50</t>
-  </si>
-  <si>
-    <t>time 3</t>
+    <t>FireResist -20</t>
+  </si>
+  <si>
+    <t>duration 3</t>
+  </si>
+  <si>
+    <t>BurningDmg {
+"Base" "40"
+}</t>
   </si>
   <si>
     <t>prop_4</t>
@@ -203,7 +205,7 @@
     <t>购买之后，元素羁绊中火元素+1（稀有，当局限购1）</t>
   </si>
   <si>
-    <t>broodmother_spin_web</t>
+    <t>item_prop/火元素</t>
   </si>
   <si>
     <t>AddElement</t>
@@ -224,7 +226,7 @@
     <t>购买之后，元素羁绊中雷元素+1（稀有，当局限购1）</t>
   </si>
   <si>
-    <t>centaur_return</t>
+    <t>item_prop/雷元素</t>
   </si>
   <si>
     <t>element_number 3</t>
@@ -239,7 +241,7 @@
     <t>购买之后，元素羁绊中冰元素+1（稀有，当局限购1）</t>
   </si>
   <si>
-    <t>chaos_knight_chaos_strike</t>
+    <t>item_prop/冰元素</t>
   </si>
   <si>
     <t>element_number 2</t>
@@ -254,7 +256,7 @@
     <t>购买之后，元素羁绊中风元素+1（稀有，当局限购1）</t>
   </si>
   <si>
-    <t>chaos_knight_reality_rift</t>
+    <t>item_prop/风元素</t>
   </si>
   <si>
     <t>element_number 4</t>
@@ -266,10 +268,16 @@
     <t>【否定信仰】</t>
   </si>
   <si>
-    <t>敌人在被控制时，受到的伤害加深20% 对受到控制的敌人多造成20%伤害。</t>
-  </si>
-  <si>
-    <t>centaur_work_horse</t>
+    <t>队伍对有控制状态效果的人额外造成15%伤害</t>
+  </si>
+  <si>
+    <t>眩晕,击飞,冰冻,击退击飞</t>
+  </si>
+  <si>
+    <t>item_prop/否定信仰</t>
+  </si>
+  <si>
+    <t>value 15</t>
   </si>
   <si>
     <t>prop_9</t>
@@ -284,7 +292,7 @@
     <t>和常客优惠I加算</t>
   </si>
   <si>
-    <t>clinkz_searing_arrows_immortal</t>
+    <t>item_prop/常客优惠II</t>
   </si>
   <si>
     <t>value 50</t>
@@ -299,7 +307,7 @@
     <t>对自身250码范围内的敌人造成的伤害提升25%</t>
   </si>
   <si>
-    <t>clinkz_death_pact</t>
+    <t>item_prop/生人勿进</t>
   </si>
   <si>
     <t>AddBuff</t>
@@ -323,7 +331,7 @@
     <t>对自身600码以外的敌人造成的伤害提升25%</t>
   </si>
   <si>
-    <t>death_prophet/awakened_thirst_ult_bat_icon/death_prophet_exorcism</t>
+    <t>item_prop/远有远的好处</t>
   </si>
   <si>
     <t>modifier_shop_prop_11</t>
@@ -341,7 +349,7 @@
     <t>生命值大于50%，攻击力提高20%；生命值低于50%，防御力提高20%</t>
   </si>
   <si>
-    <t>dragon_knight_fireball</t>
+    <t>item_prop/勇气勋章</t>
   </si>
   <si>
     <t>heal_pct 50</t>
@@ -360,6 +368,9 @@
   </si>
   <si>
     <t>每击杀一个单位，回复1点法力值。最大法力值减少25%</t>
+  </si>
+  <si>
+    <t>item_prop/魔力盈能</t>
   </si>
   <si>
     <t>KillRestoreHp {
@@ -368,7 +379,7 @@
   </si>
   <si>
     <t>MaxMana {
-"BasePercent" "-25"
+"MulRegion" "-25"
 }</t>
   </si>
   <si>
@@ -381,6 +392,9 @@
     <t>攻击力+30%，但死亡掉落（移除物品）</t>
   </si>
   <si>
+    <t>item_prop/圣剑</t>
+  </si>
+  <si>
     <t>prop_15</t>
   </si>
   <si>
@@ -390,6 +404,9 @@
     <t>血量越低伤害越高，最低临界值10%血量，提高伤害100%</t>
   </si>
   <si>
+    <t>item_prop/走钢索</t>
+  </si>
+  <si>
     <t>damage_bonus_max 100</t>
   </si>
   <si>
@@ -405,6 +422,9 @@
     <t>自动拾取被自身击杀的怪物掉落的经验值（超稀有）</t>
   </si>
   <si>
+    <t>item_prop/迈达斯之手</t>
+  </si>
+  <si>
     <t>auto_pick_kill 1</t>
   </si>
   <si>
@@ -417,6 +437,9 @@
     <t>反弹40%受到的伤害</t>
   </si>
   <si>
+    <t>item_prop/刃甲</t>
+  </si>
+  <si>
     <t>value 40</t>
   </si>
   <si>
@@ -429,6 +452,9 @@
     <t>对生命值大于80%小于20%的单位造成的伤害提升15%</t>
   </si>
   <si>
+    <t>item_prop/致命及砍到</t>
+  </si>
+  <si>
     <t>more_than_pct 80</t>
   </si>
   <si>
@@ -445,6 +471,9 @@
   </si>
   <si>
     <t>提升拾取范围100码</t>
+  </si>
+  <si>
+    <t>item_prop/一麻袋</t>
   </si>
   <si>
     <t>PickItemRadius {
@@ -461,9 +490,17 @@
     <t>常驻移动速度+25%，但在受到伤害后变为移动速度降低50%持续3秒</t>
   </si>
   <si>
+    <t>item_prop/你的滑板孩</t>
+  </si>
+  <si>
     <t>move_speed_pct -50</t>
   </si>
   <si>
+    <t>MoveSpeed {
+"BasePercent" "25"
+}</t>
+  </si>
+  <si>
     <t>prop_21</t>
   </si>
   <si>
@@ -473,6 +510,9 @@
     <t>冰元素技能降低移速时，同时降低敌人30%攻击速度和20%冰元素抗性，持续3秒</t>
   </si>
   <si>
+    <t>item_prop/斯嘉蒂之眼</t>
+  </si>
+  <si>
     <t>prop_22</t>
   </si>
   <si>
@@ -482,12 +522,12 @@
     <t>雷元素技能命中敌人时，50%概率额外追加3秒麻痹效果（相同敌人只受到一次效果）</t>
   </si>
   <si>
+    <t>item_prop/雷神之锤</t>
+  </si>
+  <si>
     <t>chance 50</t>
   </si>
   <si>
-    <t>duration 3</t>
-  </si>
-  <si>
     <t>prop_23</t>
   </si>
   <si>
@@ -497,6 +537,9 @@
     <t>风元素技能命中敌人时，被击退的敌人降低20%元素抗性并眩晕1秒</t>
   </si>
   <si>
+    <t>item_prop/风儿吹</t>
+  </si>
+  <si>
     <t>value -20</t>
   </si>
   <si>
@@ -509,10 +552,13 @@
     <t>【无极】</t>
   </si>
   <si>
-    <t>敌人受到debuff效果时，受到的伤害加深15%。</t>
-  </si>
-  <si>
-    <t>value -15</t>
+    <t>队伍对有负面效果的人额外造成15%伤害</t>
+  </si>
+  <si>
+    <t>伤害加深乘区</t>
+  </si>
+  <si>
+    <t>item_prop/无极</t>
   </si>
   <si>
     <t>prop_25</t>
@@ -522,6 +568,9 @@
   </si>
   <si>
     <t>移动速度+5%，获得相位状态可穿越单位</t>
+  </si>
+  <si>
+    <t>item_prop/相位鞋</t>
   </si>
   <si>
     <t>MoveSpeed {
@@ -538,6 +587,9 @@
     <t>消耗品,阵亡时原地复活,获得3秒无敌</t>
   </si>
   <si>
+    <t>item_prop/不朽之守护</t>
+  </si>
+  <si>
     <t>AddPlayerLife</t>
   </si>
   <si>
@@ -548,6 +600,12 @@
   </si>
   <si>
     <t>增加40%技能强度，受到伤害时回复5点法力值（超稀有）</t>
+  </si>
+  <si>
+    <t>item_prop/永世法衣</t>
+  </si>
+  <si>
+    <t>restore_mana 5</t>
   </si>
   <si>
     <t>AbilityImproved {
@@ -564,6 +622,9 @@
     <t>不在消耗蓝量，任意技能消耗变为1%最大生命值，生命值临界值10%(低于时不再使用技能)</t>
   </si>
   <si>
+    <t>item_prop/血祭</t>
+  </si>
+  <si>
     <t>AddAbility</t>
   </si>
   <si>
@@ -583,6 +644,9 @@
   </si>
   <si>
     <t>对精英及boss单位造成伤害提高25%</t>
+  </si>
+  <si>
+    <t>item_prop/指挥官头带</t>
   </si>
   <si>
     <t>CreatureDmgLeader {
@@ -599,6 +663,9 @@
     <t>原地不动时，技能冷却+15%（可突破上限）</t>
   </si>
   <si>
+    <t>item_prop/极速护符</t>
+  </si>
+  <si>
     <t>ability_cd_pct 15</t>
   </si>
   <si>
@@ -612,6 +679,9 @@
   </si>
   <si>
     <t>独立乘区减少</t>
+  </si>
+  <si>
+    <t>item_prop/聪明人的帽子</t>
   </si>
   <si>
     <t>MaxMana {
@@ -620,7 +690,7 @@
   </si>
   <si>
     <t>MaxHealth {
-"BasePercent" "-25"
+"MulRegion" "-25"
 }</t>
   </si>
   <si>
@@ -631,6 +701,9 @@
   </si>
   <si>
     <t>技能强度+10%，杀敌回蓝1</t>
+  </si>
+  <si>
+    <t>item_prop/秘法球</t>
   </si>
   <si>
     <t>KillRestoreMp {
@@ -652,6 +725,9 @@
     <t>攻击力+15%</t>
   </si>
   <si>
+    <t>item_prop/小短剑</t>
+  </si>
+  <si>
     <t>AttackDamage {
 "BasePercent" "10"
 }</t>
@@ -666,6 +742,9 @@
     <t>全元素伤害+10%</t>
   </si>
   <si>
+    <t>item_prop/元素亲和力</t>
+  </si>
+  <si>
     <t>AllElementDamageBonus {
 "Base" "10"
 }</t>
@@ -680,6 +759,9 @@
     <t>自身及友军每秒回蓝2点（效果可叠加）</t>
   </si>
   <si>
+    <t>item_prop/奥术指环</t>
+  </si>
+  <si>
     <t>NullOfAll</t>
   </si>
   <si>
@@ -695,6 +777,9 @@
     <t>毎5关的BOSS也可以带走</t>
   </si>
   <si>
+    <t>item_prop/大宗师</t>
+  </si>
+  <si>
     <t>prop_37</t>
   </si>
   <si>
@@ -705,6 +790,9 @@
   </si>
   <si>
     <t>RestoreIncrease</t>
+  </si>
+  <si>
+    <t>item_prop/骑士团印章</t>
   </si>
   <si>
     <t>RestoreIncrease {
@@ -724,6 +812,9 @@
     <t>碰撞时触发,无内置冷却</t>
   </si>
   <si>
+    <t>item_prop/缚灵索</t>
+  </si>
+  <si>
     <t>root_duration 1</t>
   </si>
   <si>
@@ -736,6 +827,9 @@
     <t>对单位造成伤害时有1%概率秒杀，并获取10倍灵魂,不掉灵魂</t>
   </si>
   <si>
+    <t>item_prop/迈达斯点金手</t>
+  </si>
+  <si>
     <t>chance 1</t>
   </si>
   <si>
@@ -751,6 +845,9 @@
     <t>每秒钟获得1点灵魂（上限10）</t>
   </si>
   <si>
+    <t>item_prop/急不可耐</t>
+  </si>
+  <si>
     <t>value 1</t>
   </si>
   <si>
@@ -764,6 +861,12 @@
   </si>
   <si>
     <t>每60秒转动一次，每次获得随机效果，持续10秒</t>
+  </si>
+  <si>
+    <t>见文件表</t>
+  </si>
+  <si>
+    <t>item_prop/神秘齿轮</t>
   </si>
   <si>
     <t>prop_42</t>
@@ -776,6 +879,21 @@
 但自身具有抗性，只会受到10%的伤害。（慎选）</t>
   </si>
   <si>
+    <t>item_prop/神罚</t>
+  </si>
+  <si>
+    <t>interval 10</t>
+  </si>
+  <si>
+    <t>radius 500</t>
+  </si>
+  <si>
+    <t>damage_ratio 1000</t>
+  </si>
+  <si>
+    <t>self_ratio 10</t>
+  </si>
+  <si>
     <t>prop_43</t>
   </si>
   <si>
@@ -785,11 +903,14 @@
     <t>自己无法拾取经验球，但每过120秒会自动拾取全地图的经验球</t>
   </si>
   <si>
+    <t>centaur_work_horse</t>
+  </si>
+  <si>
     <t>auto_pick_interval 120</t>
   </si>
   <si>
     <t>PickItemRadius {
-"TotalPercent" "-999"
+"MulRegion" "-100"
 }</t>
   </si>
   <si>
@@ -811,9 +932,6 @@
     <t>每过10秒，冻结自身半径500码敌人1秒</t>
   </si>
   <si>
-    <t>interval 10</t>
-  </si>
-  <si>
     <t>root_radius 500</t>
   </si>
   <si>
@@ -836,6 +954,9 @@
   </si>
   <si>
     <t>复活时间减少15%，受到致死打击后还能继续存活6秒</t>
+  </si>
+  <si>
+    <t>6秒内无敌,结束后死亡</t>
   </si>
   <si>
     <t>prop_48</t>
@@ -876,8 +997,11 @@
     <t>蓝量是独立乘区</t>
   </si>
   <si>
+    <t>item_prop/裁决项链</t>
+  </si>
+  <si>
     <t>MaxMana {
-"BasePercent" "-50"
+"MulRegion" "-50"
 }</t>
   </si>
   <si>
@@ -895,6 +1019,12 @@
     <t>击杀敌军有3%概率获得随机圣坛效果，持续5秒</t>
   </si>
   <si>
+    <t>圣坛随机效果</t>
+  </si>
+  <si>
+    <t>item_prop/圣坛遗物</t>
+  </si>
+  <si>
     <t>prop_52</t>
   </si>
   <si>
@@ -904,6 +1034,9 @@
     <t>对精英怪和boss造成的伤害提高25%</t>
   </si>
   <si>
+    <t>item_prop/巨人杀手</t>
+  </si>
+  <si>
     <t>prop_53</t>
   </si>
   <si>
@@ -911,6 +1044,9 @@
   </si>
   <si>
     <t>对敌军造成伤害提高50%，但对精英怪和boss造成伤害降低25%</t>
+  </si>
+  <si>
+    <t>item_prop/矮人杀手</t>
   </si>
   <si>
     <t>CreatureDmgLeader {
@@ -932,6 +1068,9 @@
     <t>视野范围增加200码</t>
   </si>
   <si>
+    <t>item_prop/望远镜</t>
+  </si>
+  <si>
     <t>VisionRange {
 "Base" "200"
 }</t>
@@ -949,6 +1088,9 @@
     <t>箭头其他玩家不可见</t>
   </si>
   <si>
+    <t>item_prop/神圣指向</t>
+  </si>
+  <si>
     <t>prop_56</t>
   </si>
   <si>
@@ -958,6 +1100,9 @@
     <t>完成天辉任务时，全队灵魂奖励+20%（可叠加）</t>
   </si>
   <si>
+    <t>item_prop/天辉军团的肯定</t>
+  </si>
+  <si>
     <t>prop_57</t>
   </si>
   <si>
@@ -976,7 +1121,7 @@
     <t>随机封印一个技能（完全禁用），同时自身造成伤害提高30%</t>
   </si>
   <si>
-    <t>伤害加成加算</t>
+    <t>伤害加成加算,禁用已学习的</t>
   </si>
   <si>
     <t>prop_59</t>
@@ -1838,7 +1983,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1876,16 +2021,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2456,16 +2598,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A74B0955-FDF5-4880-BD8B-E8C91B6EF74C}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{3B26C184-DBD3-4E93-84C4-BA3DA948F7FD}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{DBDA7EA7-0380-4E35-8BAE-B2DC77D8A4AB}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4CBABF20-73A9-41E9-93C6-F63E2DA94ADB}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{600981E3-9DC9-435C-9190-58066E29C54D}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{84715B6B-C656-46A0-ACE9-2FF3650AF986}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2477,7 +2619,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{91442802-46C4-4794-9B1B-D89EBFEDA4CB}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{EFC7958B-00ED-4BB8-B1F2-5AAF467D745D}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -2787,10 +2929,10 @@
   <sheetPr/>
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
+      <selection pane="topRight" activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2877,7 +3019,7 @@
       </c>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
-      <c r="X1" s="22"/>
+      <c r="X1" s="21"/>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:25">
       <c r="A2" s="5" t="s">
@@ -2920,16 +3062,16 @@
       <c r="N2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="20">
-        <v>1</v>
-      </c>
-      <c r="P2" s="21">
+      <c r="O2" s="19">
+        <v>1</v>
+      </c>
+      <c r="P2" s="20">
         <v>2</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="Q2" s="20">
         <v>3</v>
       </c>
-      <c r="R2" s="21">
+      <c r="R2" s="20">
         <v>4</v>
       </c>
       <c r="S2" s="6" t="s">
@@ -2947,7 +3089,7 @@
       <c r="W2" s="6">
         <v>3</v>
       </c>
-      <c r="X2" s="23">
+      <c r="X2" s="22">
         <v>4</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -3007,7 +3149,7 @@
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
-      <c r="X3" s="24"/>
+      <c r="X3" s="23"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A4" s="8" t="s">
@@ -3062,13 +3204,13 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
-      <c r="X4" s="24"/>
+      <c r="X4" s="23"/>
     </row>
     <row r="5" ht="51.5" customHeight="1" spans="1:24">
       <c r="A5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -3110,16 +3252,16 @@
       <c r="P5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
+      <c r="U5" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
-      <c r="X5" s="24"/>
+      <c r="X5" s="23"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A6" s="8" t="s">
@@ -3173,7 +3315,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
-      <c r="X6" s="24"/>
+      <c r="X6" s="23"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A7" s="8" t="s">
@@ -3227,7 +3369,7 @@
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
-      <c r="X7" s="24"/>
+      <c r="X7" s="23"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A8" s="8" t="s">
@@ -3281,7 +3423,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
-      <c r="X8" s="24"/>
+      <c r="X8" s="23"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A9" s="8" t="s">
@@ -3335,13 +3477,13 @@
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
-      <c r="X9" s="24"/>
+      <c r="X9" s="23"/>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:24">
       <c r="A10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -3363,9 +3505,11 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="J10" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K10" s="9">
         <v>1</v>
@@ -3378,7 +3522,7 @@
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="10" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -3388,17 +3532,17 @@
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
-      <c r="X10" s="24"/>
+      <c r="X10" s="23"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A11" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D11" s="9">
         <v>488</v>
@@ -3417,10 +3561,10 @@
         <v>32</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>37</v>
@@ -3433,7 +3577,7 @@
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -3443,17 +3587,17 @@
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
-      <c r="X11" s="24"/>
+      <c r="X11" s="23"/>
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:24">
       <c r="A12" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D12" s="9">
         <v>288</v>
@@ -3473,23 +3617,23 @@
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
@@ -3498,17 +3642,17 @@
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
-      <c r="X12" s="24"/>
+      <c r="X12" s="23"/>
     </row>
     <row r="13" ht="35" customHeight="1" spans="1:24">
       <c r="A13" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D13" s="9">
         <v>288</v>
@@ -3528,23 +3672,23 @@
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>38</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
@@ -3553,17 +3697,17 @@
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
-      <c r="X13" s="24"/>
+      <c r="X13" s="23"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A14" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D14" s="9">
         <v>488</v>
@@ -3583,7 +3727,7 @@
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K14" s="9">
         <v>1</v>
@@ -3596,13 +3740,13 @@
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
@@ -3610,17 +3754,17 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
-      <c r="X14" s="24"/>
+      <c r="X14" s="23"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A15" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D15" s="9">
         <v>288</v>
@@ -3640,7 +3784,7 @@
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="10" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>51</v>
@@ -3659,23 +3803,23 @@
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="W15" s="9"/>
-      <c r="X15" s="24"/>
+      <c r="X15" s="23"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:24">
       <c r="A16" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D16" s="9">
         <v>488</v>
@@ -3695,7 +3839,7 @@
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="10" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>51</v>
@@ -3716,17 +3860,17 @@
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
-      <c r="X16" s="24"/>
+      <c r="X16" s="23"/>
     </row>
     <row r="17" ht="35" customHeight="1" spans="1:24">
       <c r="A17" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D17" s="9">
         <v>288</v>
@@ -3746,7 +3890,7 @@
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="10" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>51</v>
@@ -3759,10 +3903,10 @@
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
@@ -3771,17 +3915,17 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
-      <c r="X17" s="24"/>
+      <c r="X17" s="23"/>
     </row>
     <row r="18" ht="35" customHeight="1" spans="1:24">
       <c r="A18" s="8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D18" s="9">
         <v>888</v>
@@ -3801,7 +3945,7 @@
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="10" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="K18" s="9">
         <v>1</v>
@@ -3814,7 +3958,7 @@
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="10" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
@@ -3824,17 +3968,17 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
-      <c r="X18" s="24"/>
+      <c r="X18" s="23"/>
     </row>
     <row r="19" ht="18.5" customHeight="1" spans="1:24">
       <c r="A19" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D19" s="9">
         <v>288</v>
@@ -3854,7 +3998,7 @@
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="10" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="K19" s="9">
         <v>1</v>
@@ -3867,7 +4011,7 @@
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="10" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -3877,17 +4021,17 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
-      <c r="X19" s="24"/>
+      <c r="X19" s="23"/>
     </row>
     <row r="20" ht="35" customHeight="1" spans="1:24">
       <c r="A20" s="8" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D20" s="9">
         <v>488</v>
@@ -3907,7 +4051,7 @@
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="10" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="K20" s="9">
         <v>1</v>
@@ -3920,13 +4064,13 @@
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="10" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
@@ -3934,17 +4078,17 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
-      <c r="X20" s="24"/>
+      <c r="X20" s="23"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="68" customHeight="1" spans="1:24">
       <c r="A21" s="8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D21" s="9">
         <v>288</v>
@@ -3964,7 +4108,7 @@
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="10" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>51</v>
@@ -3984,20 +4128,20 @@
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="W21" s="9"/>
-      <c r="X21" s="24"/>
+      <c r="X21" s="23"/>
     </row>
     <row r="22" ht="35" customHeight="1" spans="1:24">
       <c r="A22" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>140</v>
+        <v>148</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D22" s="9">
         <v>388</v>
@@ -4017,7 +4161,7 @@
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="10" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>51</v>
@@ -4030,27 +4174,31 @@
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="P22" s="9"/>
+        <v>152</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
+      <c r="U22" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
-      <c r="X22" s="24"/>
+      <c r="X22" s="23"/>
     </row>
     <row r="23" ht="35" customHeight="1" spans="1:24">
       <c r="A23" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>144</v>
+        <v>154</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D23" s="9">
         <v>288</v>
@@ -4070,7 +4218,7 @@
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="10" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="K23" s="9">
         <v>1</v>
@@ -4091,17 +4239,17 @@
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
-      <c r="X23" s="24"/>
+      <c r="X23" s="23"/>
     </row>
     <row r="24" ht="35" customHeight="1" spans="1:24">
       <c r="A24" s="8" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D24" s="9">
         <v>288</v>
@@ -4121,7 +4269,7 @@
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="10" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="K24" s="9">
         <v>1</v>
@@ -4134,10 +4282,10 @@
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="10" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
@@ -4146,17 +4294,17 @@
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
-      <c r="X24" s="24"/>
+      <c r="X24" s="23"/>
     </row>
     <row r="25" ht="35" customHeight="1" spans="1:24">
       <c r="A25" s="8" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="D25" s="9">
         <v>288</v>
@@ -4176,7 +4324,7 @@
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="10" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="K25" s="9">
         <v>1</v>
@@ -4189,10 +4337,10 @@
       </c>
       <c r="N25" s="9"/>
       <c r="O25" s="10" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
@@ -4201,17 +4349,17 @@
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
-      <c r="X25" s="24"/>
+      <c r="X25" s="23"/>
     </row>
     <row r="26" ht="35" customHeight="1" spans="1:24">
       <c r="A26" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>158</v>
+        <v>169</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="D26" s="9">
         <v>488</v>
@@ -4229,9 +4377,11 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>172</v>
+      </c>
       <c r="J26" s="10" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="K26" s="9">
         <v>1</v>
@@ -4244,7 +4394,7 @@
       </c>
       <c r="N26" s="9"/>
       <c r="O26" s="10" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
@@ -4254,17 +4404,17 @@
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
-      <c r="X26" s="24"/>
+      <c r="X26" s="23"/>
     </row>
     <row r="27" ht="49.5" spans="1:24">
       <c r="A27" s="8" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="D27" s="9">
         <v>188</v>
@@ -4284,7 +4434,7 @@
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="10" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>51</v>
@@ -4303,21 +4453,21 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
-      <c r="X27" s="24"/>
+      <c r="X27" s="23"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:24">
       <c r="A28" s="8" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D28" s="9">
         <v>388</v>
@@ -4337,10 +4487,10 @@
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="10" t="s">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="L28" s="9" t="s">
         <v>34</v>
@@ -4358,17 +4508,17 @@
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
-      <c r="X28" s="24"/>
+      <c r="X28" s="23"/>
     </row>
     <row r="29" ht="49.5" spans="1:24">
       <c r="A29" s="8" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D29" s="9">
         <v>888</v>
@@ -4388,7 +4538,7 @@
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="10" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="K29" s="9">
         <v>1</v>
@@ -4400,28 +4550,30 @@
         <v>38</v>
       </c>
       <c r="N29" s="9"/>
-      <c r="O29" s="10"/>
+      <c r="O29" s="10" t="s">
+        <v>188</v>
+      </c>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
       <c r="U29" s="9" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
-      <c r="X29" s="24"/>
+      <c r="X29" s="23"/>
     </row>
     <row r="30" ht="51.5" customHeight="1" spans="1:24">
       <c r="A30" s="8" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D30" s="9">
         <v>488</v>
@@ -4441,23 +4593,23 @@
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="10" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>38</v>
       </c>
       <c r="N30" s="9"/>
       <c r="O30" s="10" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
@@ -4466,17 +4618,17 @@
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
-      <c r="X30" s="24"/>
+      <c r="X30" s="23"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A31" s="8" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="D31" s="9">
         <v>288</v>
@@ -4496,7 +4648,7 @@
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="10" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="K31" s="9">
         <v>1</v>
@@ -4515,21 +4667,21 @@
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
       <c r="U31" s="9" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
-      <c r="X31" s="24"/>
+      <c r="X31" s="23"/>
     </row>
     <row r="32" ht="35" customHeight="1" spans="1:24">
       <c r="A32" s="8" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D32" s="9">
         <v>288</v>
@@ -4549,7 +4701,7 @@
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="10" t="s">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="K32" s="9" t="s">
         <v>51</v>
@@ -4562,7 +4714,7 @@
       </c>
       <c r="N32" s="9"/>
       <c r="O32" s="10" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
@@ -4572,17 +4724,17 @@
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
-      <c r="X32" s="24"/>
+      <c r="X32" s="23"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A33" s="8" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="D33" s="9">
         <v>288</v>
@@ -4601,10 +4753,10 @@
         <v>48</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="K33" s="9" t="s">
         <v>51</v>
@@ -4623,23 +4775,23 @@
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
       <c r="U33" s="9" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="V33" s="9" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="W33" s="9"/>
-      <c r="X33" s="24"/>
+      <c r="X33" s="23"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A34" s="8" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="D34" s="9">
         <v>388</v>
@@ -4659,7 +4811,7 @@
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="10" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c r="K34" s="9" t="s">
         <v>51</v>
@@ -4678,23 +4830,23 @@
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
       <c r="U34" s="9" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="V34" s="9" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="W34" s="9"/>
-      <c r="X34" s="24"/>
+      <c r="X34" s="23"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A35" s="8" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="D35" s="9">
         <v>388</v>
@@ -4714,7 +4866,7 @@
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="10" t="s">
-        <v>36</v>
+        <v>224</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>51</v>
@@ -4733,21 +4885,21 @@
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
       <c r="U35" s="9" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
-      <c r="X35" s="24"/>
+      <c r="X35" s="23"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A36" s="8" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="D36" s="9">
         <v>388</v>
@@ -4767,7 +4919,7 @@
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="10" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>51</v>
@@ -4786,21 +4938,21 @@
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
       <c r="U36" s="9" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
-      <c r="X36" s="24"/>
+      <c r="X36" s="23"/>
     </row>
     <row r="37" ht="35" customHeight="1" spans="1:24">
       <c r="A37" s="8" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="D37" s="9">
         <v>288</v>
@@ -4820,10 +4972,10 @@
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="10" t="s">
-        <v>50</v>
+        <v>234</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="L37" s="9" t="s">
         <v>34</v>
@@ -4841,17 +4993,17 @@
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
-      <c r="X37" s="24"/>
+      <c r="X37" s="23"/>
     </row>
     <row r="38" ht="51.5" customHeight="1" spans="1:24">
       <c r="A38" s="8" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="D38" s="9">
         <v>888</v>
@@ -4870,10 +5022,10 @@
         <v>16</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>58</v>
+        <v>240</v>
       </c>
       <c r="K38" s="9" t="s">
         <v>51</v>
@@ -4894,17 +5046,17 @@
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
-      <c r="X38" s="24"/>
+      <c r="X38" s="23"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A39" s="8" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="D39" s="9">
         <v>388</v>
@@ -4923,10 +5075,10 @@
         <v>32</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c r="K39" s="9" t="s">
         <v>51</v>
@@ -4945,21 +5097,21 @@
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
       <c r="U39" s="9" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
-      <c r="X39" s="24"/>
+      <c r="X39" s="23"/>
     </row>
     <row r="40" ht="18.5" customHeight="1" spans="1:24">
       <c r="A40" s="8" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="D40" s="9">
         <v>488</v>
@@ -4978,10 +5130,10 @@
         <v>32</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="K40" s="9">
         <v>1</v>
@@ -4994,7 +5146,7 @@
       </c>
       <c r="N40" s="9"/>
       <c r="O40" s="10" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
@@ -5004,17 +5156,17 @@
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
-      <c r="X40" s="24"/>
+      <c r="X40" s="23"/>
     </row>
     <row r="41" ht="35" customHeight="1" spans="1:24">
       <c r="A41" s="8" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="D41" s="9">
         <v>488</v>
@@ -5034,7 +5186,7 @@
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="10" t="s">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="K41" s="9">
         <v>1</v>
@@ -5047,10 +5199,10 @@
       </c>
       <c r="N41" s="9"/>
       <c r="O41" s="10" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
@@ -5059,17 +5211,17 @@
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
-      <c r="X41" s="24"/>
+      <c r="X41" s="23"/>
     </row>
     <row r="42" ht="18.5" customHeight="1" spans="1:24">
       <c r="A42" s="8" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="D42" s="9">
         <v>288</v>
@@ -5089,7 +5241,7 @@
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="10" t="s">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="K42" s="9" t="s">
         <v>51</v>
@@ -5102,10 +5254,10 @@
       </c>
       <c r="N42" s="9"/>
       <c r="O42" s="10" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
@@ -5114,17 +5266,17 @@
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
-      <c r="X42" s="24"/>
+      <c r="X42" s="23"/>
     </row>
     <row r="43" ht="35" customHeight="1" spans="1:24">
       <c r="A43" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>235</v>
+        <v>265</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>266</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="D43" s="9">
         <v>488</v>
@@ -5142,9 +5294,11 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I43" s="9"/>
+      <c r="I43" s="9" t="s">
+        <v>268</v>
+      </c>
       <c r="J43" s="10" t="s">
-        <v>75</v>
+        <v>269</v>
       </c>
       <c r="K43" s="9" t="s">
         <v>51</v>
@@ -5165,17 +5319,17 @@
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
-      <c r="X43" s="24"/>
+      <c r="X43" s="23"/>
     </row>
     <row r="44" ht="84.5" customHeight="1" spans="1:24">
       <c r="A44" s="8" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="D44" s="9">
         <v>888</v>
@@ -5195,7 +5349,7 @@
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="10" t="s">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="K44" s="9" t="s">
         <v>51</v>
@@ -5207,26 +5361,34 @@
         <v>38</v>
       </c>
       <c r="N44" s="9"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
+      <c r="O44" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="R44" s="9" t="s">
+        <v>277</v>
+      </c>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
-      <c r="X44" s="24"/>
+      <c r="X44" s="23"/>
     </row>
     <row r="45" ht="49.5" spans="1:24">
       <c r="A45" s="8" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="D45" s="9">
         <v>488</v>
@@ -5244,7 +5406,7 @@
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="10" t="s">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="K45" s="9" t="s">
         <v>51</v>
@@ -5257,7 +5419,7 @@
       </c>
       <c r="N45" s="9"/>
       <c r="O45" s="10" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
@@ -5265,21 +5427,21 @@
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
       <c r="U45" s="9" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
-      <c r="X45" s="24"/>
+      <c r="X45" s="23"/>
     </row>
     <row r="46" ht="18.5" customHeight="1" spans="1:24">
       <c r="A46" s="8" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="D46" s="9">
         <v>488</v>
@@ -5297,7 +5459,7 @@
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="10" t="s">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="K46" s="9" t="s">
         <v>51</v>
@@ -5318,17 +5480,17 @@
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
       <c r="W46" s="9"/>
-      <c r="X46" s="24"/>
+      <c r="X46" s="23"/>
     </row>
     <row r="47" ht="18.5" customHeight="1" spans="1:24">
       <c r="A47" s="8" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D47" s="9">
         <v>888</v>
@@ -5346,7 +5508,7 @@
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="10" t="s">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="K47" s="9" t="s">
         <v>51</v>
@@ -5359,13 +5521,13 @@
       </c>
       <c r="N47" s="9"/>
       <c r="O47" s="10" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="P47" s="9" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
@@ -5373,17 +5535,17 @@
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
-      <c r="X47" s="24"/>
+      <c r="X47" s="23"/>
     </row>
     <row r="48" ht="18.5" customHeight="1" spans="1:24">
       <c r="A48" s="8" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D48" s="9">
         <v>488</v>
@@ -5400,10 +5562,10 @@
         <v>32</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="K48" s="9" t="s">
         <v>51</v>
@@ -5424,17 +5586,17 @@
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
-      <c r="X48" s="24"/>
+      <c r="X48" s="23"/>
     </row>
     <row r="49" ht="35" customHeight="1" spans="1:24">
       <c r="A49" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>258</v>
+        <v>295</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>296</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="D49" s="9">
         <v>888</v>
@@ -5450,9 +5612,11 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I49" s="9"/>
+      <c r="I49" s="9" t="s">
+        <v>298</v>
+      </c>
       <c r="J49" s="10" t="s">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="K49" s="9" t="s">
         <v>51</v>
@@ -5473,17 +5637,17 @@
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
       <c r="W49" s="9"/>
-      <c r="X49" s="24"/>
+      <c r="X49" s="23"/>
     </row>
     <row r="50" ht="49.5" spans="1:24">
       <c r="A50" s="8" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="D50" s="9">
         <v>888</v>
@@ -5500,10 +5664,10 @@
         <v>16</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="K50" s="9" t="s">
         <v>51</v>
@@ -5522,21 +5686,21 @@
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
       <c r="U50" s="9" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="V50" s="9"/>
       <c r="W50" s="9"/>
-      <c r="X50" s="24"/>
+      <c r="X50" s="23"/>
     </row>
     <row r="51" ht="35" customHeight="1" spans="1:24">
       <c r="A51" s="8" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="D51" s="9">
         <v>888</v>
@@ -5554,7 +5718,7 @@
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="10" t="s">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="K51" s="9" t="s">
         <v>51</v>
@@ -5575,17 +5739,17 @@
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
-      <c r="X51" s="24"/>
+      <c r="X51" s="23"/>
     </row>
     <row r="52" ht="49.5" spans="1:24">
       <c r="A52" s="8" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="D52" s="9">
         <v>488</v>
@@ -5602,10 +5766,10 @@
         <v>32</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="K52" s="9" t="s">
         <v>51</v>
@@ -5624,23 +5788,23 @@
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
       <c r="U52" s="9" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="V52" s="9" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="W52" s="9"/>
-      <c r="X52" s="24"/>
+      <c r="X52" s="23"/>
     </row>
     <row r="53" ht="35" customHeight="1" spans="1:24">
       <c r="A53" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>275</v>
+        <v>314</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>315</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="D53" s="9">
         <v>888</v>
@@ -5656,9 +5820,11 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I53" s="9"/>
+      <c r="I53" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="J53" s="10" t="s">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="K53" s="9" t="s">
         <v>51</v>
@@ -5679,17 +5845,17 @@
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
-      <c r="X53" s="24"/>
+      <c r="X53" s="23"/>
     </row>
     <row r="54" ht="18.5" customHeight="1" spans="1:24">
       <c r="A54" s="8" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="D54" s="9">
         <v>488</v>
@@ -5707,7 +5873,7 @@
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="10" t="s">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="K54" s="9" t="s">
         <v>51</v>
@@ -5728,17 +5894,17 @@
       <c r="U54" s="9"/>
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
-      <c r="X54" s="24"/>
+      <c r="X54" s="23"/>
     </row>
     <row r="55" ht="49.5" spans="1:24">
       <c r="A55" s="8" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="D55" s="9">
         <v>388</v>
@@ -5756,7 +5922,7 @@
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="10" t="s">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="K55" s="9" t="s">
         <v>51</v>
@@ -5775,23 +5941,23 @@
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
       <c r="U55" s="9" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="V55" s="9" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="W55" s="9"/>
-      <c r="X55" s="24"/>
+      <c r="X55" s="23"/>
     </row>
     <row r="56" ht="49.5" spans="1:24">
       <c r="A56" s="8" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="D56" s="9">
         <v>288</v>
@@ -5809,7 +5975,7 @@
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="10" t="s">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="K56" s="9" t="s">
         <v>51</v>
@@ -5828,21 +5994,21 @@
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
       <c r="U56" s="9" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="V56" s="9"/>
       <c r="W56" s="9"/>
-      <c r="X56" s="24"/>
+      <c r="X56" s="23"/>
     </row>
     <row r="57" ht="35" customHeight="1" spans="1:24">
       <c r="A57" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>290</v>
+        <v>334</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>335</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="D57" s="9">
         <v>288</v>
@@ -5858,10 +6024,10 @@
         <v>0</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="K57" s="9" t="s">
         <v>51</v>
@@ -5882,17 +6048,17 @@
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
       <c r="W57" s="9"/>
-      <c r="X57" s="24"/>
+      <c r="X57" s="23"/>
     </row>
     <row r="58" ht="35" customHeight="1" spans="1:24">
       <c r="A58" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>294</v>
+        <v>339</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>340</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
       <c r="D58" s="9">
         <v>488</v>
@@ -5909,7 +6075,7 @@
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="10" t="s">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="K58" s="9" t="s">
         <v>51</v>
@@ -5930,17 +6096,17 @@
       <c r="U58" s="9"/>
       <c r="V58" s="9"/>
       <c r="W58" s="9"/>
-      <c r="X58" s="24"/>
+      <c r="X58" s="23"/>
     </row>
     <row r="59" ht="35" customHeight="1" spans="1:24">
       <c r="A59" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>297</v>
+        <v>343</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>344</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="D59" s="9">
         <v>488</v>
@@ -5957,7 +6123,7 @@
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="10" t="s">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="K59" s="9" t="s">
         <v>51</v>
@@ -5978,17 +6144,17 @@
       <c r="U59" s="9"/>
       <c r="V59" s="9"/>
       <c r="W59" s="9"/>
-      <c r="X59" s="24"/>
+      <c r="X59" s="23"/>
     </row>
     <row r="60" ht="35" customHeight="1" spans="1:24">
       <c r="A60" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>301</v>
+        <v>346</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>348</v>
       </c>
       <c r="D60" s="9">
         <v>888</v>
@@ -6005,10 +6171,10 @@
         <v>16</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="K60" s="9" t="s">
         <v>51</v>
@@ -6029,17 +6195,17 @@
       <c r="U60" s="9"/>
       <c r="V60" s="9"/>
       <c r="W60" s="9"/>
-      <c r="X60" s="24"/>
+      <c r="X60" s="23"/>
     </row>
     <row r="61" ht="51.5" customHeight="1" spans="1:24">
       <c r="A61" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>304</v>
+        <v>350</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>351</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="D61" s="9">
         <v>488</v>
@@ -6056,7 +6222,7 @@
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="10" t="s">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="K61" s="9" t="s">
         <v>51</v>
@@ -6077,58 +6243,58 @@
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
       <c r="W61" s="9"/>
-      <c r="X61" s="24"/>
+      <c r="X61" s="23"/>
     </row>
     <row r="62" ht="49.5" spans="1:24">
-      <c r="A62" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="D62" s="19">
+      <c r="A62" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="D62" s="18">
         <v>488</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62" s="18">
         <v>2</v>
       </c>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19">
-        <v>1</v>
-      </c>
-      <c r="H62" s="19">
+      <c r="F62" s="18"/>
+      <c r="G62" s="18">
+        <v>1</v>
+      </c>
+      <c r="H62" s="18">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I62" s="19"/>
-      <c r="J62" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="K62" s="19" t="s">
+      <c r="I62" s="18"/>
+      <c r="J62" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="K62" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L62" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M62" s="19" t="s">
+      <c r="L62" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M62" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="N62" s="19"/>
-      <c r="O62" s="18"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="V62" s="19"/>
-      <c r="W62" s="19"/>
-      <c r="X62" s="25"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="V62" s="18"/>
+      <c r="W62" s="18"/>
+      <c r="X62" s="24"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H$1:H$1048576">

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="361">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -395,6 +395,12 @@
     <t>item_prop/圣剑</t>
   </si>
   <si>
+    <t>SaintSword</t>
+  </si>
+  <si>
+    <t>AttackBasePer 30</t>
+  </si>
+  <si>
     <t>prop_15</t>
   </si>
   <si>
@@ -762,7 +768,10 @@
     <t>item_prop/奥术指环</t>
   </si>
   <si>
-    <t>NullOfAll</t>
+    <t>AddAttrOfAll</t>
+  </si>
+  <si>
+    <t>ManaRegenBase 2</t>
   </si>
   <si>
     <t>prop_36</t>
@@ -921,6 +930,9 @@
   </si>
   <si>
     <t>重置当前技能点</t>
+  </si>
+  <si>
+    <t>ResetSkill</t>
   </si>
   <si>
     <t>prop_45</t>
@@ -1329,7 +1341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1345,6 +1357,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1859,7 +1877,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1883,16 +1901,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1901,89 +1919,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2011,28 +2029,31 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2598,16 +2619,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{3B26C184-DBD3-4E93-84C4-BA3DA948F7FD}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{6C42477C-5AE3-4495-9562-A5B7F4DBF714}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4CBABF20-73A9-41E9-93C6-F63E2DA94ADB}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{43A72B33-9CD5-4C5D-A6BA-3FE902296F9B}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{84715B6B-C656-46A0-ACE9-2FF3650AF986}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{874F2C11-514C-49CA-8056-CE1D161A6059}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2619,7 +2640,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{EFC7958B-00ED-4BB8-B1F2-5AAF467D745D}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{49A41A6A-9B74-4765-8415-AC717E798E3B}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -2929,10 +2950,10 @@
   <sheetPr/>
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N44" sqref="N44"/>
+      <selection pane="topRight" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3019,7 +3040,7 @@
       </c>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
-      <c r="X1" s="21"/>
+      <c r="X1" s="22"/>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:25">
       <c r="A2" s="5" t="s">
@@ -3062,16 +3083,16 @@
       <c r="N2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="19">
-        <v>1</v>
-      </c>
-      <c r="P2" s="20">
+      <c r="O2" s="20">
+        <v>1</v>
+      </c>
+      <c r="P2" s="21">
         <v>2</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="Q2" s="21">
         <v>3</v>
       </c>
-      <c r="R2" s="20">
+      <c r="R2" s="21">
         <v>4</v>
       </c>
       <c r="S2" s="6" t="s">
@@ -3089,7 +3110,7 @@
       <c r="W2" s="6">
         <v>3</v>
       </c>
-      <c r="X2" s="22">
+      <c r="X2" s="23">
         <v>4</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -3106,50 +3127,50 @@
       <c r="C3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="11">
         <v>288</v>
       </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11">
         <f>(4-E3)*16</f>
         <v>48</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="11" t="s">
         <v>35</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="9" t="s">
+      <c r="L3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="9"/>
+      <c r="N3" s="11"/>
       <c r="O3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="23"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="24"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A4" s="8" t="s">
@@ -3161,107 +3182,107 @@
       <c r="C4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="11">
         <v>488</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="11">
         <v>2</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="F4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="11">
         <v>0</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="11">
         <f t="shared" ref="H4:H44" si="0">(4-E4)*16</f>
         <v>32</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="9" t="s">
+      <c r="L4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="9"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="23"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="24"/>
     </row>
     <row r="5" ht="51.5" customHeight="1" spans="1:24">
       <c r="A5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="11">
         <v>288</v>
       </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="9" t="s">
+      <c r="L5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="9"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9" t="s">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="23"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="24"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A6" s="8" t="s">
@@ -3273,49 +3294,49 @@
       <c r="C6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="11">
         <v>488</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="11">
         <v>2</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="F6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
         <v>0</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="9" t="s">
+      <c r="L6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="9"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="23"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="24"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A7" s="8" t="s">
@@ -3327,49 +3348,49 @@
       <c r="C7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="11">
         <v>488</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="11">
         <v>2</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="F7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11">
         <v>0</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="9" t="s">
+      <c r="L7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="9"/>
+      <c r="N7" s="11"/>
       <c r="O7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="23"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="24"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A8" s="8" t="s">
@@ -3381,49 +3402,49 @@
       <c r="C8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="11">
         <v>488</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="11">
         <v>2</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="F8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
         <v>0</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="9" t="s">
+      <c r="L8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="9"/>
+      <c r="N8" s="11"/>
       <c r="O8" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="23"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="24"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A9" s="8" t="s">
@@ -3435,104 +3456,104 @@
       <c r="C9" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="11">
         <v>488</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="11">
         <v>2</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="F9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
         <v>0</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="9" t="s">
+      <c r="L9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="9"/>
+      <c r="N9" s="11"/>
       <c r="O9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="23"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="24"/>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:24">
       <c r="A10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <v>488</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="11">
         <v>2</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="F10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="11">
         <v>0</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="11" t="s">
         <v>80</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="9">
-        <v>1</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="9" t="s">
+      <c r="K10" s="11">
+        <v>1</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="9"/>
+      <c r="N10" s="11"/>
       <c r="O10" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="23"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="24"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A11" s="8" t="s">
@@ -3544,272 +3565,272 @@
       <c r="C11" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="11">
         <v>488</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="11">
         <v>2</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9">
+      <c r="F11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="11" t="s">
         <v>86</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="9" t="s">
+      <c r="L11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="9"/>
+      <c r="N11" s="11"/>
       <c r="O11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="23"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="24"/>
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:24">
       <c r="A12" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="11">
         <v>288</v>
       </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="11">
         <v>0</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="9"/>
+      <c r="N12" s="11"/>
       <c r="O12" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="23"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="24"/>
     </row>
     <row r="13" ht="35" customHeight="1" spans="1:24">
       <c r="A13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>98</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="11">
         <v>288</v>
       </c>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="11">
         <v>0</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="9"/>
+      <c r="N13" s="11"/>
       <c r="O13" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="23"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="24"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A14" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="11">
         <v>488</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="11">
         <v>2</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="F14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="K14" s="9">
-        <v>1</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="9" t="s">
+      <c r="K14" s="11">
+        <v>1</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="9"/>
+      <c r="N14" s="11"/>
       <c r="O14" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="23"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="24"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A15" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="11">
         <v>288</v>
       </c>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="9" t="s">
+      <c r="L15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="9"/>
+      <c r="N15" s="11"/>
       <c r="O15" s="10"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9" t="s">
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="V15" s="9" t="s">
+      <c r="V15" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="W15" s="9"/>
-      <c r="X15" s="23"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="24"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:24">
       <c r="A16" s="8" t="s">
@@ -3821,2480 +3842,2484 @@
       <c r="C16" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="11">
         <v>488</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="11">
         <v>2</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="11">
         <v>0</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="9" t="s">
+      <c r="K16" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="23"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="24"/>
     </row>
     <row r="17" ht="35" customHeight="1" spans="1:24">
       <c r="A17" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="9">
+        <v>124</v>
+      </c>
+      <c r="D17" s="11">
         <v>288</v>
       </c>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9">
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="K17" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="9" t="s">
+      <c r="L17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="9"/>
+      <c r="N17" s="11"/>
       <c r="O17" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="23"/>
+        <v>126</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="24"/>
     </row>
     <row r="18" ht="35" customHeight="1" spans="1:24">
       <c r="A18" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="9">
+        <v>130</v>
+      </c>
+      <c r="D18" s="11">
         <v>888</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="11">
         <v>3</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9">
+      <c r="F18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="K18" s="9">
-        <v>1</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N18" s="9"/>
+      <c r="N18" s="11"/>
       <c r="O18" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="23"/>
+        <v>132</v>
+      </c>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="24"/>
     </row>
     <row r="19" ht="18.5" customHeight="1" spans="1:24">
       <c r="A19" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="9">
+        <v>135</v>
+      </c>
+      <c r="D19" s="11">
         <v>288</v>
       </c>
-      <c r="E19" s="9">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="9">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9">
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="K19" s="9">
-        <v>1</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N19" s="9"/>
+      <c r="N19" s="11"/>
       <c r="O19" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="23"/>
+        <v>137</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="24"/>
     </row>
     <row r="20" ht="35" customHeight="1" spans="1:24">
       <c r="A20" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="9">
+        <v>140</v>
+      </c>
+      <c r="D20" s="11">
         <v>488</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="11">
         <v>2</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="9">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9">
+      <c r="F20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="K20" s="9">
-        <v>1</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="11">
+        <v>1</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="9"/>
+      <c r="N20" s="11"/>
       <c r="O20" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="23"/>
+      <c r="P20" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="24"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="68" customHeight="1" spans="1:24">
       <c r="A21" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="9">
+        <v>147</v>
+      </c>
+      <c r="D21" s="11">
         <v>288</v>
       </c>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="9">
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="11">
         <v>0</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="11"/>
       <c r="J21" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="K21" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M21" s="9" t="s">
+      <c r="L21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N21" s="9"/>
+      <c r="N21" s="11"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="W21" s="9"/>
-      <c r="X21" s="23"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="W21" s="11"/>
+      <c r="X21" s="24"/>
     </row>
     <row r="22" ht="35" customHeight="1" spans="1:24">
       <c r="A22" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="9">
+        <v>152</v>
+      </c>
+      <c r="D22" s="11">
         <v>388</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="11">
         <v>2</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="9">
-        <v>1</v>
-      </c>
-      <c r="H22" s="9">
+      <c r="F22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="11"/>
       <c r="J22" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="K22" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="9" t="s">
+      <c r="L22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N22" s="9"/>
+      <c r="N22" s="11"/>
       <c r="O22" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="P22" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="23"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="24"/>
     </row>
     <row r="23" ht="35" customHeight="1" spans="1:24">
       <c r="A23" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="9">
+        <v>158</v>
+      </c>
+      <c r="D23" s="11">
         <v>288</v>
       </c>
-      <c r="E23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1</v>
-      </c>
-      <c r="H23" s="9">
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="K23" s="9">
-        <v>1</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M23" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" s="11">
+        <v>1</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="9"/>
+      <c r="N23" s="11"/>
       <c r="O23" s="10"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="23"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="24"/>
     </row>
     <row r="24" ht="35" customHeight="1" spans="1:24">
       <c r="A24" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="9">
+        <v>162</v>
+      </c>
+      <c r="D24" s="11">
         <v>288</v>
       </c>
-      <c r="E24" s="9">
-        <v>1</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="9">
-        <v>1</v>
-      </c>
-      <c r="H24" s="9">
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I24" s="9"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="K24" s="9">
-        <v>1</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="11">
+        <v>1</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N24" s="9"/>
+      <c r="N24" s="11"/>
       <c r="O24" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="P24" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="23"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="24"/>
     </row>
     <row r="25" ht="35" customHeight="1" spans="1:24">
       <c r="A25" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" s="9">
+        <v>167</v>
+      </c>
+      <c r="D25" s="11">
         <v>288</v>
       </c>
-      <c r="E25" s="9">
-        <v>1</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="9">
-        <v>1</v>
-      </c>
-      <c r="H25" s="9">
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I25" s="9"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="K25" s="9">
-        <v>1</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M25" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="11">
+        <v>1</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N25" s="9"/>
+      <c r="N25" s="11"/>
       <c r="O25" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="23"/>
+        <v>169</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="24"/>
     </row>
     <row r="26" ht="35" customHeight="1" spans="1:24">
       <c r="A26" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D26" s="9">
+      <c r="B26" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="11">
         <v>488</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="11">
         <v>2</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="9">
-        <v>1</v>
-      </c>
-      <c r="H26" s="9">
+      <c r="F26" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>172</v>
+      <c r="I26" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="K26" s="9">
-        <v>1</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M26" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="11">
+        <v>1</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N26" s="9"/>
+      <c r="N26" s="11"/>
       <c r="O26" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="23"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="24"/>
     </row>
     <row r="27" ht="49.5" spans="1:24">
       <c r="A27" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="9">
+        <v>178</v>
+      </c>
+      <c r="D27" s="11">
         <v>188</v>
       </c>
-      <c r="E27" s="9">
-        <v>1</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="9">
-        <v>1</v>
-      </c>
-      <c r="H27" s="9">
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I27" s="9"/>
+      <c r="I27" s="11"/>
       <c r="J27" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="K27" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K27" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L27" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M27" s="9" t="s">
+      <c r="L27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N27" s="9"/>
+      <c r="N27" s="11"/>
       <c r="O27" s="10"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="23"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="24"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:24">
       <c r="A28" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="9">
+        <v>183</v>
+      </c>
+      <c r="D28" s="11">
         <v>388</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="11">
         <v>2</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="9">
+      <c r="F28" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="11">
         <v>0</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I28" s="9"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M28" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N28" s="9"/>
+      <c r="N28" s="11"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="23"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="24"/>
     </row>
     <row r="29" ht="49.5" spans="1:24">
       <c r="A29" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29" s="9">
+        <v>188</v>
+      </c>
+      <c r="D29" s="11">
         <v>888</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="11">
         <v>3</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="9">
-        <v>1</v>
-      </c>
-      <c r="H29" s="9">
+      <c r="F29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I29" s="9"/>
+      <c r="I29" s="11"/>
       <c r="J29" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="K29" s="9">
-        <v>1</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" s="11">
+        <v>1</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N29" s="9"/>
+      <c r="N29" s="11"/>
       <c r="O29" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="23"/>
+        <v>190</v>
+      </c>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="24"/>
     </row>
     <row r="30" ht="51.5" customHeight="1" spans="1:24">
       <c r="A30" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D30" s="9">
+        <v>194</v>
+      </c>
+      <c r="D30" s="11">
         <v>488</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="11">
         <v>2</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="9">
-        <v>1</v>
-      </c>
-      <c r="H30" s="9">
+      <c r="F30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I30" s="9"/>
+      <c r="I30" s="11"/>
       <c r="J30" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="L30" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="K30" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="M30" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N30" s="9"/>
+      <c r="N30" s="11"/>
       <c r="O30" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="P30" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="23"/>
+        <v>198</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="24"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A31" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D31" s="9">
+        <v>202</v>
+      </c>
+      <c r="D31" s="11">
         <v>288</v>
       </c>
-      <c r="E31" s="9">
-        <v>1</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="9">
-        <v>1</v>
-      </c>
-      <c r="H31" s="9">
+      <c r="E31" s="11">
+        <v>1</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I31" s="9"/>
+      <c r="I31" s="11"/>
       <c r="J31" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="K31" s="9">
-        <v>1</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M31" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K31" s="11">
+        <v>1</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="9"/>
+      <c r="N31" s="11"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="23"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="24"/>
     </row>
     <row r="32" ht="35" customHeight="1" spans="1:24">
       <c r="A32" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D32" s="9">
+        <v>207</v>
+      </c>
+      <c r="D32" s="11">
         <v>288</v>
       </c>
-      <c r="E32" s="9">
-        <v>1</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="9">
-        <v>1</v>
-      </c>
-      <c r="H32" s="9">
+      <c r="E32" s="11">
+        <v>1</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I32" s="9"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="K32" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L32" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M32" s="9" t="s">
+      <c r="L32" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N32" s="9"/>
+      <c r="N32" s="11"/>
       <c r="O32" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="23"/>
+        <v>209</v>
+      </c>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="24"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A33" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D33" s="9">
+        <v>212</v>
+      </c>
+      <c r="D33" s="11">
         <v>288</v>
       </c>
-      <c r="E33" s="9">
-        <v>1</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="9">
-        <v>1</v>
-      </c>
-      <c r="H33" s="9">
+      <c r="E33" s="11">
+        <v>1</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I33" s="9" t="s">
-        <v>211</v>
+      <c r="I33" s="11" t="s">
+        <v>213</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="K33" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K33" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L33" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M33" s="9" t="s">
+      <c r="L33" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N33" s="9"/>
+      <c r="N33" s="11"/>
       <c r="O33" s="10"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="V33" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="W33" s="9"/>
-      <c r="X33" s="23"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="W33" s="11"/>
+      <c r="X33" s="24"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A34" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D34" s="9">
+        <v>219</v>
+      </c>
+      <c r="D34" s="11">
         <v>388</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="11">
         <v>2</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="9">
+      <c r="F34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="11">
         <v>0</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I34" s="9"/>
+      <c r="I34" s="11"/>
       <c r="J34" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="K34" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K34" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L34" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M34" s="9" t="s">
+      <c r="L34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N34" s="9"/>
+      <c r="N34" s="11"/>
       <c r="O34" s="10"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="V34" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="W34" s="9"/>
-      <c r="X34" s="23"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="V34" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="W34" s="11"/>
+      <c r="X34" s="24"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A35" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D35" s="9">
+        <v>225</v>
+      </c>
+      <c r="D35" s="11">
         <v>388</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="11">
         <v>2</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="F35" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="11">
         <v>0</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I35" s="9"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="K35" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="K35" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L35" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M35" s="9" t="s">
+      <c r="L35" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N35" s="9"/>
+      <c r="N35" s="11"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="23"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="24"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A36" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="D36" s="9">
+        <v>230</v>
+      </c>
+      <c r="D36" s="11">
         <v>388</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="11">
         <v>2</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="9">
+      <c r="F36" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="11">
         <v>0</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I36" s="9"/>
+      <c r="I36" s="11"/>
       <c r="J36" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="K36" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="K36" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L36" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M36" s="9" t="s">
+      <c r="L36" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N36" s="9"/>
+      <c r="N36" s="11"/>
       <c r="O36" s="10"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="23"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="24"/>
     </row>
     <row r="37" ht="35" customHeight="1" spans="1:24">
       <c r="A37" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D37" s="9">
+        <v>235</v>
+      </c>
+      <c r="D37" s="11">
         <v>288</v>
       </c>
-      <c r="E37" s="9">
-        <v>1</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="9">
-        <v>1</v>
-      </c>
-      <c r="H37" s="9">
+      <c r="E37" s="11">
+        <v>1</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="11">
+        <v>1</v>
+      </c>
+      <c r="H37" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I37" s="9"/>
+      <c r="I37" s="11"/>
       <c r="J37" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M37" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N37" s="9"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="23"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="24"/>
     </row>
     <row r="38" ht="51.5" customHeight="1" spans="1:24">
       <c r="A38" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D38" s="9">
+        <v>241</v>
+      </c>
+      <c r="D38" s="11">
         <v>888</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="11">
         <v>3</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="9">
-        <v>1</v>
-      </c>
-      <c r="H38" s="9">
+      <c r="F38" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="11">
+        <v>1</v>
+      </c>
+      <c r="H38" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I38" s="9" t="s">
-        <v>239</v>
+      <c r="I38" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="K38" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="K38" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L38" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M38" s="9" t="s">
+      <c r="L38" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M38" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N38" s="9"/>
+      <c r="N38" s="11"/>
       <c r="O38" s="10"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="23"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="24"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A39" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="D39" s="9">
+        <v>246</v>
+      </c>
+      <c r="D39" s="11">
         <v>388</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="11">
         <v>2</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="9">
-        <v>1</v>
-      </c>
-      <c r="H39" s="9">
+      <c r="F39" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="11">
+        <v>1</v>
+      </c>
+      <c r="H39" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I39" s="9" t="s">
-        <v>244</v>
+      <c r="I39" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="K39" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K39" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L39" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M39" s="9" t="s">
+      <c r="L39" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N39" s="9"/>
+      <c r="N39" s="11"/>
       <c r="O39" s="10"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="23"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="24"/>
     </row>
     <row r="40" ht="18.5" customHeight="1" spans="1:24">
       <c r="A40" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D40" s="9">
+        <v>252</v>
+      </c>
+      <c r="D40" s="11">
         <v>488</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="11">
         <v>2</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="9">
-        <v>1</v>
-      </c>
-      <c r="H40" s="9">
+      <c r="F40" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="11">
+        <v>1</v>
+      </c>
+      <c r="H40" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I40" s="9" t="s">
-        <v>250</v>
+      <c r="I40" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="K40" s="9">
-        <v>1</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M40" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="K40" s="11">
+        <v>1</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N40" s="9"/>
+      <c r="N40" s="11"/>
       <c r="O40" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="23"/>
+        <v>255</v>
+      </c>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="24"/>
     </row>
     <row r="41" ht="35" customHeight="1" spans="1:24">
       <c r="A41" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="D41" s="9">
+        <v>258</v>
+      </c>
+      <c r="D41" s="11">
         <v>488</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="11">
         <v>2</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="9">
-        <v>1</v>
-      </c>
-      <c r="H41" s="9">
+      <c r="F41" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="11">
+        <v>1</v>
+      </c>
+      <c r="H41" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I41" s="9"/>
+      <c r="I41" s="11"/>
       <c r="J41" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="K41" s="9">
-        <v>1</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M41" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K41" s="11">
+        <v>1</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N41" s="9"/>
+      <c r="N41" s="11"/>
       <c r="O41" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="P41" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="23"/>
+        <v>260</v>
+      </c>
+      <c r="P41" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="24"/>
     </row>
     <row r="42" ht="18.5" customHeight="1" spans="1:24">
       <c r="A42" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>263</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="D42" s="9">
+        <v>264</v>
+      </c>
+      <c r="D42" s="11">
         <v>288</v>
       </c>
-      <c r="E42" s="9">
-        <v>1</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="9">
+      <c r="E42" s="11">
+        <v>1</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="11">
         <v>0</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I42" s="9"/>
+      <c r="I42" s="11"/>
       <c r="J42" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="K42" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="K42" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L42" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M42" s="9" t="s">
+      <c r="L42" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="9"/>
+      <c r="N42" s="11"/>
       <c r="O42" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="P42" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="23"/>
+        <v>266</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="24"/>
     </row>
     <row r="43" ht="35" customHeight="1" spans="1:24">
       <c r="A43" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>269</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="D43" s="9">
+        <v>270</v>
+      </c>
+      <c r="D43" s="11">
         <v>488</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="11">
         <v>2</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="9">
-        <v>1</v>
-      </c>
-      <c r="H43" s="9">
+      <c r="F43" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="11">
+        <v>1</v>
+      </c>
+      <c r="H43" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I43" s="9" t="s">
-        <v>268</v>
+      <c r="I43" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="K43" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="K43" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L43" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M43" s="9" t="s">
+      <c r="L43" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N43" s="9"/>
+      <c r="N43" s="11"/>
       <c r="O43" s="10"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="23"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="24"/>
     </row>
     <row r="44" ht="84.5" customHeight="1" spans="1:24">
       <c r="A44" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D44" s="9">
+        <v>275</v>
+      </c>
+      <c r="D44" s="11">
         <v>888</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="11">
         <v>3</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="9">
-        <v>1</v>
-      </c>
-      <c r="H44" s="9">
+      <c r="F44" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="11">
+        <v>1</v>
+      </c>
+      <c r="H44" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I44" s="9"/>
+      <c r="I44" s="11"/>
       <c r="J44" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="K44" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="K44" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L44" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M44" s="9" t="s">
+      <c r="L44" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M44" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N44" s="9"/>
+      <c r="N44" s="11"/>
       <c r="O44" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="P44" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q44" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="R44" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="23"/>
+      <c r="P44" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q44" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="R44" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="24"/>
     </row>
     <row r="45" ht="49.5" spans="1:24">
       <c r="A45" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>279</v>
+        <v>281</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>282</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D45" s="9">
+        <v>283</v>
+      </c>
+      <c r="D45" s="11">
         <v>488</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="11">
         <v>2</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9">
-        <v>1</v>
-      </c>
-      <c r="H45" s="9">
+      <c r="F45" s="11"/>
+      <c r="G45" s="11">
+        <v>1</v>
+      </c>
+      <c r="H45" s="11">
         <f t="shared" ref="H45:H62" si="1">(4-E45)*16</f>
         <v>32</v>
       </c>
-      <c r="I45" s="9"/>
+      <c r="I45" s="11"/>
       <c r="J45" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K45" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="K45" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L45" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M45" s="9" t="s">
+      <c r="L45" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M45" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N45" s="9"/>
+      <c r="N45" s="11"/>
       <c r="O45" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="23"/>
+        <v>285</v>
+      </c>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="24"/>
     </row>
     <row r="46" ht="18.5" customHeight="1" spans="1:24">
       <c r="A46" s="8" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="D46" s="9">
+        <v>289</v>
+      </c>
+      <c r="D46" s="11">
         <v>488</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="11">
         <v>2</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9">
-        <v>1</v>
-      </c>
-      <c r="H46" s="9">
+      <c r="F46" s="11"/>
+      <c r="G46" s="11">
+        <v>1</v>
+      </c>
+      <c r="H46" s="11">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I46" s="9"/>
+      <c r="I46" s="11"/>
       <c r="J46" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M46" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N46" s="9"/>
+      <c r="N46" s="11"/>
       <c r="O46" s="10"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="23"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="24"/>
     </row>
     <row r="47" ht="18.5" customHeight="1" spans="1:24">
       <c r="A47" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>288</v>
+        <v>291</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>292</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D47" s="9">
+        <v>293</v>
+      </c>
+      <c r="D47" s="11">
         <v>888</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="11">
         <v>3</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9">
-        <v>1</v>
-      </c>
-      <c r="H47" s="9">
+      <c r="F47" s="11"/>
+      <c r="G47" s="11">
+        <v>1</v>
+      </c>
+      <c r="H47" s="11">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I47" s="9"/>
+      <c r="I47" s="11"/>
       <c r="J47" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K47" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="K47" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L47" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M47" s="9" t="s">
+      <c r="L47" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M47" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N47" s="9"/>
+      <c r="N47" s="11"/>
       <c r="O47" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="P47" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q47" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="23"/>
+        <v>277</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="24"/>
     </row>
     <row r="48" ht="18.5" customHeight="1" spans="1:24">
       <c r="A48" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="D48" s="9">
+        <v>297</v>
+      </c>
+      <c r="D48" s="11">
         <v>488</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="11">
         <v>2</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9">
-        <v>1</v>
-      </c>
-      <c r="H48" s="9">
+      <c r="F48" s="11"/>
+      <c r="G48" s="11">
+        <v>1</v>
+      </c>
+      <c r="H48" s="11">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I48" s="9" t="s">
-        <v>294</v>
+      <c r="I48" s="11" t="s">
+        <v>298</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K48" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="K48" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L48" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M48" s="9" t="s">
+      <c r="L48" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M48" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N48" s="9"/>
+      <c r="N48" s="11"/>
       <c r="O48" s="10"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="23"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="24"/>
     </row>
     <row r="49" ht="35" customHeight="1" spans="1:24">
       <c r="A49" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="D49" s="9">
+        <v>299</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D49" s="11">
         <v>888</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="11">
         <v>3</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9">
-        <v>1</v>
-      </c>
-      <c r="H49" s="9">
+      <c r="F49" s="11"/>
+      <c r="G49" s="11">
+        <v>1</v>
+      </c>
+      <c r="H49" s="11">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I49" s="9" t="s">
-        <v>298</v>
+      <c r="I49" s="11" t="s">
+        <v>302</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K49" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="K49" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L49" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M49" s="9" t="s">
+      <c r="L49" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M49" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N49" s="9"/>
+      <c r="N49" s="11"/>
       <c r="O49" s="10"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="23"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="24"/>
     </row>
     <row r="50" ht="49.5" spans="1:24">
       <c r="A50" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>300</v>
+        <v>303</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="D50" s="9">
+        <v>305</v>
+      </c>
+      <c r="D50" s="11">
         <v>888</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="11">
         <v>3</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9">
-        <v>1</v>
-      </c>
-      <c r="H50" s="9">
+      <c r="F50" s="11"/>
+      <c r="G50" s="11">
+        <v>1</v>
+      </c>
+      <c r="H50" s="11">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>302</v>
+      <c r="I50" s="11" t="s">
+        <v>306</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K50" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="K50" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L50" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M50" s="9" t="s">
+      <c r="L50" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N50" s="9"/>
+      <c r="N50" s="11"/>
       <c r="O50" s="10"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="23"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="24"/>
     </row>
     <row r="51" ht="35" customHeight="1" spans="1:24">
       <c r="A51" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>305</v>
+        <v>308</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>309</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="D51" s="9">
+        <v>310</v>
+      </c>
+      <c r="D51" s="11">
         <v>888</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="11">
         <v>3</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9">
-        <v>1</v>
-      </c>
-      <c r="H51" s="9">
+      <c r="F51" s="11"/>
+      <c r="G51" s="11">
+        <v>1</v>
+      </c>
+      <c r="H51" s="11">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I51" s="9"/>
+      <c r="I51" s="11"/>
       <c r="J51" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K51" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="K51" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L51" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M51" s="9" t="s">
+      <c r="L51" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M51" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="9"/>
+      <c r="N51" s="11"/>
       <c r="O51" s="10"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="23"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="24"/>
     </row>
     <row r="52" ht="49.5" spans="1:24">
       <c r="A52" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>308</v>
+        <v>311</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>312</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="D52" s="9">
+        <v>313</v>
+      </c>
+      <c r="D52" s="11">
         <v>488</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="11">
         <v>2</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9">
-        <v>1</v>
-      </c>
-      <c r="H52" s="9">
+      <c r="F52" s="11"/>
+      <c r="G52" s="11">
+        <v>1</v>
+      </c>
+      <c r="H52" s="11">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I52" s="9" t="s">
-        <v>310</v>
+      <c r="I52" s="11" t="s">
+        <v>314</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="K52" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="K52" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L52" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M52" s="9" t="s">
+      <c r="L52" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M52" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N52" s="9"/>
+      <c r="N52" s="11"/>
       <c r="O52" s="10"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="V52" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="W52" s="9"/>
-      <c r="X52" s="23"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="V52" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="W52" s="11"/>
+      <c r="X52" s="24"/>
     </row>
     <row r="53" ht="35" customHeight="1" spans="1:24">
       <c r="A53" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>315</v>
+        <v>318</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>319</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="D53" s="9">
+        <v>320</v>
+      </c>
+      <c r="D53" s="11">
         <v>888</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="11">
         <v>3</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9">
-        <v>1</v>
-      </c>
-      <c r="H53" s="9">
+      <c r="F53" s="11"/>
+      <c r="G53" s="11">
+        <v>1</v>
+      </c>
+      <c r="H53" s="11">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>317</v>
+      <c r="I53" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="K53" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="K53" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L53" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M53" s="9" t="s">
+      <c r="L53" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M53" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N53" s="9"/>
+      <c r="N53" s="11"/>
       <c r="O53" s="10"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="23"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="24"/>
     </row>
     <row r="54" ht="18.5" customHeight="1" spans="1:24">
       <c r="A54" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>320</v>
+        <v>323</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>324</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="D54" s="9">
+        <v>325</v>
+      </c>
+      <c r="D54" s="11">
         <v>488</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="11">
         <v>2</v>
       </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9">
-        <v>1</v>
-      </c>
-      <c r="H54" s="9">
+      <c r="F54" s="11"/>
+      <c r="G54" s="11">
+        <v>1</v>
+      </c>
+      <c r="H54" s="11">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I54" s="9"/>
+      <c r="I54" s="11"/>
       <c r="J54" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="K54" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="K54" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L54" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M54" s="9" t="s">
+      <c r="L54" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M54" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N54" s="9"/>
+      <c r="N54" s="11"/>
       <c r="O54" s="10"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="23"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="24"/>
     </row>
     <row r="55" ht="49.5" spans="1:24">
       <c r="A55" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>324</v>
+        <v>327</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="D55" s="9">
+        <v>329</v>
+      </c>
+      <c r="D55" s="11">
         <v>388</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="11">
         <v>2</v>
       </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9">
-        <v>1</v>
-      </c>
-      <c r="H55" s="9">
+      <c r="F55" s="11"/>
+      <c r="G55" s="11">
+        <v>1</v>
+      </c>
+      <c r="H55" s="11">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I55" s="9"/>
+      <c r="I55" s="11"/>
       <c r="J55" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="K55" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="K55" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L55" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M55" s="9" t="s">
+      <c r="L55" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M55" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N55" s="9"/>
+      <c r="N55" s="11"/>
       <c r="O55" s="10"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="V55" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="W55" s="9"/>
-      <c r="X55" s="23"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="V55" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="W55" s="11"/>
+      <c r="X55" s="24"/>
     </row>
     <row r="56" ht="49.5" spans="1:24">
       <c r="A56" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>330</v>
+        <v>333</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>334</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D56" s="9">
+        <v>335</v>
+      </c>
+      <c r="D56" s="11">
         <v>288</v>
       </c>
-      <c r="E56" s="9">
-        <v>1</v>
-      </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9">
+      <c r="E56" s="11">
+        <v>1</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11">
         <v>0</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="11">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="I56" s="9"/>
+      <c r="I56" s="11"/>
       <c r="J56" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="K56" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="K56" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L56" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M56" s="9" t="s">
+      <c r="L56" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M56" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N56" s="9"/>
+      <c r="N56" s="11"/>
       <c r="O56" s="10"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="23"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="24"/>
     </row>
     <row r="57" ht="35" customHeight="1" spans="1:24">
       <c r="A57" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>335</v>
+        <v>338</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>339</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="D57" s="9">
+        <v>340</v>
+      </c>
+      <c r="D57" s="11">
         <v>288</v>
       </c>
-      <c r="E57" s="9">
-        <v>1</v>
-      </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9">
-        <v>1</v>
-      </c>
-      <c r="H57" s="9">
+      <c r="E57" s="11">
+        <v>1</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11">
+        <v>1</v>
+      </c>
+      <c r="H57" s="11">
         <v>0</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>337</v>
+      <c r="I57" s="11" t="s">
+        <v>341</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="K57" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="K57" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L57" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M57" s="9" t="s">
+      <c r="L57" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M57" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N57" s="9"/>
+      <c r="N57" s="11"/>
       <c r="O57" s="10"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="23"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="24"/>
     </row>
     <row r="58" ht="35" customHeight="1" spans="1:24">
       <c r="A58" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>340</v>
+        <v>343</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>344</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="D58" s="9">
+        <v>345</v>
+      </c>
+      <c r="D58" s="11">
         <v>488</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="11">
         <v>2</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9">
+      <c r="F58" s="11"/>
+      <c r="G58" s="11">
         <v>0</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="11">
         <v>0</v>
       </c>
-      <c r="I58" s="9"/>
+      <c r="I58" s="11"/>
       <c r="J58" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="K58" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="K58" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L58" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M58" s="9" t="s">
+      <c r="L58" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M58" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N58" s="9"/>
+      <c r="N58" s="11"/>
       <c r="O58" s="10"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="23"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="24"/>
     </row>
     <row r="59" ht="35" customHeight="1" spans="1:24">
       <c r="A59" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>344</v>
+        <v>347</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>348</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="D59" s="9">
+        <v>349</v>
+      </c>
+      <c r="D59" s="11">
         <v>488</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="11">
         <v>2</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9">
+      <c r="F59" s="11"/>
+      <c r="G59" s="11">
         <v>0</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="11">
         <v>0</v>
       </c>
-      <c r="I59" s="9"/>
+      <c r="I59" s="11"/>
       <c r="J59" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K59" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="K59" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L59" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M59" s="9" t="s">
+      <c r="L59" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M59" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N59" s="9"/>
+      <c r="N59" s="11"/>
       <c r="O59" s="10"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="23"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="24"/>
     </row>
     <row r="60" ht="35" customHeight="1" spans="1:24">
       <c r="A60" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="D60" s="9">
+        <v>350</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="D60" s="11">
         <v>888</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="11">
         <v>3</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9">
+      <c r="F60" s="11"/>
+      <c r="G60" s="11">
         <v>0</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="11">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I60" s="9" t="s">
-        <v>349</v>
+      <c r="I60" s="11" t="s">
+        <v>353</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K60" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="K60" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L60" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M60" s="9" t="s">
+      <c r="L60" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M60" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N60" s="9"/>
+      <c r="N60" s="11"/>
       <c r="O60" s="10"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="23"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="24"/>
     </row>
     <row r="61" ht="51.5" customHeight="1" spans="1:24">
       <c r="A61" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>351</v>
+        <v>354</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>355</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="D61" s="9">
+        <v>356</v>
+      </c>
+      <c r="D61" s="11">
         <v>488</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="11">
         <v>2</v>
       </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9">
-        <v>1</v>
-      </c>
-      <c r="H61" s="9">
+      <c r="F61" s="11"/>
+      <c r="G61" s="11">
+        <v>1</v>
+      </c>
+      <c r="H61" s="11">
         <v>0</v>
       </c>
-      <c r="I61" s="9"/>
+      <c r="I61" s="11"/>
       <c r="J61" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K61" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="K61" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L61" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M61" s="9" t="s">
+      <c r="L61" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M61" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N61" s="9"/>
+      <c r="N61" s="11"/>
       <c r="O61" s="10"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="23"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="24"/>
     </row>
     <row r="62" ht="49.5" spans="1:24">
-      <c r="A62" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="D62" s="18">
+      <c r="A62" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="D62" s="19">
         <v>488</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="19">
         <v>2</v>
       </c>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18">
-        <v>1</v>
-      </c>
-      <c r="H62" s="18">
+      <c r="F62" s="19"/>
+      <c r="G62" s="19">
+        <v>1</v>
+      </c>
+      <c r="H62" s="19">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I62" s="18"/>
-      <c r="J62" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="K62" s="18" t="s">
+      <c r="I62" s="19"/>
+      <c r="J62" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="K62" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="L62" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="M62" s="18" t="s">
+      <c r="L62" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M62" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="N62" s="18"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="18"/>
-      <c r="S62" s="18"/>
-      <c r="T62" s="18"/>
-      <c r="U62" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="V62" s="18"/>
-      <c r="W62" s="18"/>
-      <c r="X62" s="24"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="V62" s="19"/>
+      <c r="W62" s="19"/>
+      <c r="X62" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H$1:H$1048576">

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="362">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -666,13 +666,16 @@
     <t>【极速护符】</t>
   </si>
   <si>
-    <t>原地不动时，技能冷却+15%（可突破上限）</t>
+    <t>原地不动时，技能急速加成提高15%,冷却上限提高15%</t>
   </si>
   <si>
     <t>item_prop/极速护符</t>
   </si>
   <si>
-    <t>ability_cd_pct 15</t>
+    <t>ability_haste_pct 15</t>
+  </si>
+  <si>
+    <t>cooldown_limit 15</t>
   </si>
   <si>
     <t>prop_31</t>
@@ -2619,16 +2622,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{6C42477C-5AE3-4495-9562-A5B7F4DBF714}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{6DDB88F5-549C-4E40-847D-6CAB42B04418}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{43A72B33-9CD5-4C5D-A6BA-3FE902296F9B}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{744D718C-521E-430F-BA26-D8A688CEE034}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{874F2C11-514C-49CA-8056-CE1D161A6059}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F718BE18-6B48-49EC-BCEF-B4824778810D}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2640,7 +2643,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{49A41A6A-9B74-4765-8415-AC717E798E3B}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{383C6171-310A-42D1-8923-9F0F0750C74A}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -2950,10 +2953,10 @@
   <sheetPr/>
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J41" sqref="J41"/>
+      <selection pane="topRight" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4739,7 +4742,9 @@
       <c r="O32" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="P32" s="11"/>
+      <c r="P32" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
@@ -4751,13 +4756,13 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A33" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D33" s="11">
         <v>288</v>
@@ -4776,10 +4781,10 @@
         <v>48</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K33" s="11" t="s">
         <v>51</v>
@@ -4798,23 +4803,23 @@
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
       <c r="U33" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V33" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="W33" s="11"/>
       <c r="X33" s="24"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A34" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D34" s="11">
         <v>388</v>
@@ -4834,7 +4839,7 @@
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K34" s="11" t="s">
         <v>51</v>
@@ -4853,23 +4858,23 @@
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
       <c r="U34" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="V34" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="W34" s="11"/>
       <c r="X34" s="24"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A35" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D35" s="11">
         <v>388</v>
@@ -4889,7 +4894,7 @@
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K35" s="11" t="s">
         <v>51</v>
@@ -4908,7 +4913,7 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
@@ -4916,13 +4921,13 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A36" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D36" s="11">
         <v>388</v>
@@ -4942,7 +4947,7 @@
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>51</v>
@@ -4961,7 +4966,7 @@
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
       <c r="U36" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
@@ -4969,13 +4974,13 @@
     </row>
     <row r="37" ht="35" customHeight="1" spans="1:24">
       <c r="A37" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D37" s="11">
         <v>288</v>
@@ -4995,10 +5000,10 @@
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L37" s="11" t="s">
         <v>34</v>
@@ -5008,7 +5013,7 @@
       </c>
       <c r="N37" s="11"/>
       <c r="O37" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
@@ -5022,13 +5027,13 @@
     </row>
     <row r="38" ht="51.5" customHeight="1" spans="1:24">
       <c r="A38" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D38" s="11">
         <v>888</v>
@@ -5047,10 +5052,10 @@
         <v>16</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K38" s="11" t="s">
         <v>51</v>
@@ -5075,13 +5080,13 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A39" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D39" s="11">
         <v>388</v>
@@ -5100,10 +5105,10 @@
         <v>32</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K39" s="11" t="s">
         <v>51</v>
@@ -5122,7 +5127,7 @@
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
       <c r="U39" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
@@ -5130,13 +5135,13 @@
     </row>
     <row r="40" ht="18.5" customHeight="1" spans="1:24">
       <c r="A40" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D40" s="11">
         <v>488</v>
@@ -5155,10 +5160,10 @@
         <v>32</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K40" s="11">
         <v>1</v>
@@ -5171,7 +5176,7 @@
       </c>
       <c r="N40" s="11"/>
       <c r="O40" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
@@ -5185,13 +5190,13 @@
     </row>
     <row r="41" ht="35" customHeight="1" spans="1:24">
       <c r="A41" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D41" s="11">
         <v>488</v>
@@ -5211,7 +5216,7 @@
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K41" s="11">
         <v>1</v>
@@ -5224,10 +5229,10 @@
       </c>
       <c r="N41" s="11"/>
       <c r="O41" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
@@ -5240,13 +5245,13 @@
     </row>
     <row r="42" ht="18.5" customHeight="1" spans="1:24">
       <c r="A42" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B42" s="11" t="s">
         <v>263</v>
       </c>
+      <c r="B42" s="12" t="s">
+        <v>264</v>
+      </c>
       <c r="C42" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D42" s="11">
         <v>288</v>
@@ -5266,7 +5271,7 @@
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K42" s="11" t="s">
         <v>51</v>
@@ -5279,10 +5284,10 @@
       </c>
       <c r="N42" s="11"/>
       <c r="O42" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
@@ -5295,13 +5300,13 @@
     </row>
     <row r="43" ht="35" customHeight="1" spans="1:24">
       <c r="A43" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D43" s="11">
         <v>488</v>
@@ -5320,10 +5325,10 @@
         <v>32</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K43" s="11" t="s">
         <v>51</v>
@@ -5348,13 +5353,13 @@
     </row>
     <row r="44" ht="84.5" customHeight="1" spans="1:24">
       <c r="A44" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="B44" s="11" t="s">
         <v>274</v>
       </c>
+      <c r="B44" s="12" t="s">
+        <v>275</v>
+      </c>
       <c r="C44" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D44" s="11">
         <v>888</v>
@@ -5374,7 +5379,7 @@
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K44" s="11" t="s">
         <v>51</v>
@@ -5387,16 +5392,16 @@
       </c>
       <c r="N44" s="11"/>
       <c r="O44" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="R44" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
@@ -5407,13 +5412,13 @@
     </row>
     <row r="45" ht="49.5" spans="1:24">
       <c r="A45" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D45" s="11">
         <v>488</v>
@@ -5431,7 +5436,7 @@
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K45" s="11" t="s">
         <v>51</v>
@@ -5444,7 +5449,7 @@
       </c>
       <c r="N45" s="11"/>
       <c r="O45" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
@@ -5452,7 +5457,7 @@
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
       <c r="U45" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
@@ -5460,13 +5465,13 @@
     </row>
     <row r="46" ht="18.5" customHeight="1" spans="1:24">
       <c r="A46" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D46" s="11">
         <v>488</v>
@@ -5484,10 +5489,10 @@
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L46" s="11" t="s">
         <v>34</v>
@@ -5509,13 +5514,13 @@
     </row>
     <row r="47" ht="18.5" customHeight="1" spans="1:24">
       <c r="A47" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D47" s="11">
         <v>888</v>
@@ -5533,7 +5538,7 @@
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K47" s="11" t="s">
         <v>51</v>
@@ -5546,13 +5551,13 @@
       </c>
       <c r="N47" s="11"/>
       <c r="O47" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
@@ -5564,13 +5569,13 @@
     </row>
     <row r="48" ht="18.5" customHeight="1" spans="1:24">
       <c r="A48" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D48" s="11">
         <v>488</v>
@@ -5587,10 +5592,10 @@
         <v>32</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K48" s="11" t="s">
         <v>51</v>
@@ -5615,13 +5620,13 @@
     </row>
     <row r="49" ht="35" customHeight="1" spans="1:24">
       <c r="A49" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D49" s="11">
         <v>888</v>
@@ -5638,10 +5643,10 @@
         <v>16</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>51</v>
@@ -5666,13 +5671,13 @@
     </row>
     <row r="50" ht="49.5" spans="1:24">
       <c r="A50" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D50" s="11">
         <v>888</v>
@@ -5689,10 +5694,10 @@
         <v>16</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>51</v>
@@ -5711,7 +5716,7 @@
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
       <c r="U50" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="V50" s="11"/>
       <c r="W50" s="11"/>
@@ -5719,13 +5724,13 @@
     </row>
     <row r="51" ht="35" customHeight="1" spans="1:24">
       <c r="A51" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D51" s="11">
         <v>888</v>
@@ -5743,7 +5748,7 @@
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K51" s="11" t="s">
         <v>51</v>
@@ -5768,13 +5773,13 @@
     </row>
     <row r="52" ht="49.5" spans="1:24">
       <c r="A52" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D52" s="11">
         <v>488</v>
@@ -5791,10 +5796,10 @@
         <v>32</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K52" s="11" t="s">
         <v>51</v>
@@ -5813,23 +5818,23 @@
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
       <c r="U52" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="V52" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="W52" s="11"/>
       <c r="X52" s="24"/>
     </row>
     <row r="53" ht="35" customHeight="1" spans="1:24">
       <c r="A53" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D53" s="11">
         <v>888</v>
@@ -5846,10 +5851,10 @@
         <v>16</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K53" s="11" t="s">
         <v>51</v>
@@ -5874,13 +5879,13 @@
     </row>
     <row r="54" ht="18.5" customHeight="1" spans="1:24">
       <c r="A54" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D54" s="11">
         <v>488</v>
@@ -5898,7 +5903,7 @@
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K54" s="11" t="s">
         <v>51</v>
@@ -5923,13 +5928,13 @@
     </row>
     <row r="55" ht="49.5" spans="1:24">
       <c r="A55" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D55" s="11">
         <v>388</v>
@@ -5947,7 +5952,7 @@
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K55" s="11" t="s">
         <v>51</v>
@@ -5966,23 +5971,23 @@
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
       <c r="U55" s="11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="V55" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="W55" s="11"/>
       <c r="X55" s="24"/>
     </row>
     <row r="56" ht="49.5" spans="1:24">
       <c r="A56" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D56" s="11">
         <v>288</v>
@@ -6000,7 +6005,7 @@
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K56" s="11" t="s">
         <v>51</v>
@@ -6019,7 +6024,7 @@
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
       <c r="U56" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="V56" s="11"/>
       <c r="W56" s="11"/>
@@ -6027,13 +6032,13 @@
     </row>
     <row r="57" ht="35" customHeight="1" spans="1:24">
       <c r="A57" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D57" s="11">
         <v>288</v>
@@ -6049,10 +6054,10 @@
         <v>0</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K57" s="11" t="s">
         <v>51</v>
@@ -6077,13 +6082,13 @@
     </row>
     <row r="58" ht="35" customHeight="1" spans="1:24">
       <c r="A58" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D58" s="11">
         <v>488</v>
@@ -6100,7 +6105,7 @@
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K58" s="11" t="s">
         <v>51</v>
@@ -6125,13 +6130,13 @@
     </row>
     <row r="59" ht="35" customHeight="1" spans="1:24">
       <c r="A59" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D59" s="11">
         <v>488</v>
@@ -6148,7 +6153,7 @@
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K59" s="11" t="s">
         <v>51</v>
@@ -6173,13 +6178,13 @@
     </row>
     <row r="60" ht="35" customHeight="1" spans="1:24">
       <c r="A60" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D60" s="11">
         <v>888</v>
@@ -6196,10 +6201,10 @@
         <v>16</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K60" s="11" t="s">
         <v>51</v>
@@ -6224,13 +6229,13 @@
     </row>
     <row r="61" ht="51.5" customHeight="1" spans="1:24">
       <c r="A61" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D61" s="11">
         <v>488</v>
@@ -6247,7 +6252,7 @@
       </c>
       <c r="I61" s="11"/>
       <c r="J61" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K61" s="11" t="s">
         <v>51</v>
@@ -6272,13 +6277,13 @@
     </row>
     <row r="62" ht="49.5" spans="1:24">
       <c r="A62" s="16" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D62" s="19">
         <v>488</v>
@@ -6296,7 +6301,7 @@
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K62" s="19" t="s">
         <v>51</v>
@@ -6315,7 +6320,7 @@
       <c r="S62" s="19"/>
       <c r="T62" s="19"/>
       <c r="U62" s="19" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="V62" s="19"/>
       <c r="W62" s="19"/>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -912,13 +912,13 @@
     <t>【定时收获】</t>
   </si>
   <si>
-    <t>自己无法拾取经验球，但每过120秒会自动拾取全地图的经验球</t>
+    <t>自己无法拾取经验球，但每过%auto_pick_interval%秒会自动拾取全地图的经验球</t>
   </si>
   <si>
     <t>centaur_work_horse</t>
   </si>
   <si>
-    <t>auto_pick_interval 120</t>
+    <t>auto_pick_interval 45</t>
   </si>
   <si>
     <t>PickItemRadius {
@@ -2622,16 +2622,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{6DDB88F5-549C-4E40-847D-6CAB42B04418}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{1DCA603A-6256-4FF9-9672-48A8064179FD}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{744D718C-521E-430F-BA26-D8A688CEE034}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{BF99E802-DE35-4D2A-BAFB-92BC69B61179}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F718BE18-6B48-49EC-BCEF-B4824778810D}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{11F5084C-FAEA-4A8D-832D-854DA925A43F}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2643,7 +2643,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{383C6171-310A-42D1-8923-9F0F0750C74A}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{7BB7B5B1-C410-4D68-8493-4E52ACC8A8CE}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -2953,10 +2953,10 @@
   <sheetPr/>
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F50" sqref="F50"/>
+      <selection pane="topRight" activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="362">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -2622,16 +2622,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{1DCA603A-6256-4FF9-9672-48A8064179FD}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{CF3A0460-5D80-4C85-B054-DD65ED47E2BF}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{BF99E802-DE35-4D2A-BAFB-92BC69B61179}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D370F5A1-3AB9-49D4-A5C1-B1E59CF97D09}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{11F5084C-FAEA-4A8D-832D-854DA925A43F}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F724EBDF-EE24-4EE1-B1CB-DC62071DFBF1}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2643,7 +2643,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{7BB7B5B1-C410-4D68-8493-4E52ACC8A8CE}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{0D243DD1-A220-47C7-88C5-7BCB053B1EF2}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -2953,10 +2953,10 @@
   <sheetPr/>
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O45" sqref="O45"/>
+      <selection pane="topRight" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5877,7 +5877,7 @@
       <c r="W53" s="11"/>
       <c r="X53" s="24"/>
     </row>
-    <row r="54" ht="18.5" customHeight="1" spans="1:24">
+    <row r="54" ht="49.5" spans="1:24">
       <c r="A54" s="8" t="s">
         <v>324</v>
       </c>
@@ -5921,7 +5921,9 @@
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
+      <c r="U54" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
       <c r="X54" s="24"/>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="361">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -155,7 +155,7 @@
     <t>【双倍灵魂】</t>
   </si>
   <si>
-    <t>获得灵魂时，有20%概率获得双倍灵魂。（上限100%）</t>
+    <t>获得灵魂时，有20%概率获得双倍灵魂。（最多可购买5次）</t>
   </si>
   <si>
     <t>item_prop/双倍灵魂</t>
@@ -304,7 +304,7 @@
     <t>【生人勿进】</t>
   </si>
   <si>
-    <t>对自身250码范围内的敌人造成的伤害提升25%</t>
+    <t>对自身250码范围内的敌人造成的伤害提升25%（可购买10次）</t>
   </si>
   <si>
     <t>item_prop/生人勿进</t>
@@ -328,7 +328,7 @@
     <t>【远有远的好处】</t>
   </si>
   <si>
-    <t>对自身600码以外的敌人造成的伤害提升25%</t>
+    <t>对自身600码以外的敌人造成的伤害提升25%（可购买10次）</t>
   </si>
   <si>
     <t>item_prop/远有远的好处</t>
@@ -476,7 +476,7 @@
     <t>【一麻袋】</t>
   </si>
   <si>
-    <t>提升拾取范围100码</t>
+    <t>提升拾取范围100码（最多可购买4次）</t>
   </si>
   <si>
     <t>item_prop/一麻袋</t>
@@ -596,9 +596,6 @@
     <t>item_prop/不朽之守护</t>
   </si>
   <si>
-    <t>AddPlayerLife</t>
-  </si>
-  <si>
     <t>prop_27</t>
   </si>
   <si>
@@ -709,7 +706,7 @@
     <t>【秘法球】</t>
   </si>
   <si>
-    <t>技能强度+10%，杀敌回蓝1</t>
+    <t>技能强度+10%，杀敌回蓝1（可购买10次）</t>
   </si>
   <si>
     <t>item_prop/秘法球</t>
@@ -731,7 +728,7 @@
     <t>【小短剑】</t>
   </si>
   <si>
-    <t>攻击力+15%</t>
+    <t>攻击力+15%（可购买10次）</t>
   </si>
   <si>
     <t>item_prop/小短剑</t>
@@ -748,7 +745,7 @@
     <t>【元素亲和力】</t>
   </si>
   <si>
-    <t>全元素伤害+10%</t>
+    <t>全元素伤害+10%（可购买10次）</t>
   </si>
   <si>
     <t>item_prop/元素亲和力</t>
@@ -854,7 +851,7 @@
     <t>【急不可耐】</t>
   </si>
   <si>
-    <t>每秒钟获得1点灵魂（上限10）</t>
+    <t>每秒钟获得1点灵魂（可购买10次）</t>
   </si>
   <si>
     <t>item_prop/急不可耐</t>
@@ -1080,7 +1077,7 @@
     <t>【望远镜】</t>
   </si>
   <si>
-    <t>视野范围增加200码</t>
+    <t>视野范围增加200码（可购买3次）</t>
   </si>
   <si>
     <t>item_prop/望远镜</t>
@@ -1133,7 +1130,7 @@
     <t>【尸鬼封尽】</t>
   </si>
   <si>
-    <t>随机封印一个技能（完全禁用），同时自身造成伤害提高30%</t>
+    <t>随机封印一个技能（完全禁用），同时自身造成伤害提高30%（可购买3次）</t>
   </si>
   <si>
     <t>伤害加成加算,禁用已学习的</t>
@@ -2622,16 +2619,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{CF3A0460-5D80-4C85-B054-DD65ED47E2BF}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{15067D83-775C-4CBD-8B14-E2B152A61FA4}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D370F5A1-3AB9-49D4-A5C1-B1E59CF97D09}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A6BBDD7A-74C4-450C-8123-F796017EA62F}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F724EBDF-EE24-4EE1-B1CB-DC62071DFBF1}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{ABD56CFF-922B-4A98-8BFC-EAD67533F101}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2643,7 +2640,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{0D243DD1-A220-47C7-88C5-7BCB053B1EF2}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{EC88FEFD-D0CC-4855-A322-1DABF8D65EFB}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -2953,10 +2950,10 @@
   <sheetPr/>
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L45" sqref="L45"/>
+      <selection pane="topRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3195,7 +3192,7 @@
         <v>34</v>
       </c>
       <c r="G4" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="11">
         <f t="shared" ref="H4:H44" si="0">(4-E4)*16</f>
@@ -3523,7 +3520,7 @@
         <v>34</v>
       </c>
       <c r="G10" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="0"/>
@@ -3633,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="G12" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="0"/>
@@ -3688,7 +3685,7 @@
         <v>34</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="0"/>
@@ -3855,7 +3852,7 @@
         <v>34</v>
       </c>
       <c r="G16" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="0"/>
@@ -4126,7 +4123,7 @@
         <v>34</v>
       </c>
       <c r="G21" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="0"/>
@@ -4505,7 +4502,7 @@
         <v>34</v>
       </c>
       <c r="G28" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="0"/>
@@ -4516,7 +4513,7 @@
         <v>184</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="L28" s="11" t="s">
         <v>34</v>
@@ -4538,13 +4535,13 @@
     </row>
     <row r="29" ht="49.5" spans="1:24">
       <c r="A29" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>188</v>
       </c>
       <c r="D29" s="11">
         <v>888</v>
@@ -4564,7 +4561,7 @@
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K29" s="11">
         <v>1</v>
@@ -4577,7 +4574,7 @@
       </c>
       <c r="N29" s="11"/>
       <c r="O29" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
@@ -4585,7 +4582,7 @@
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
       <c r="U29" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
@@ -4593,13 +4590,13 @@
     </row>
     <row r="30" ht="51.5" customHeight="1" spans="1:24">
       <c r="A30" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>194</v>
       </c>
       <c r="D30" s="11">
         <v>488</v>
@@ -4619,23 +4616,23 @@
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="K30" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="L30" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>197</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>38</v>
       </c>
       <c r="N30" s="11"/>
       <c r="O30" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="P30" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="P30" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
@@ -4648,13 +4645,13 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A31" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>202</v>
       </c>
       <c r="D31" s="11">
         <v>288</v>
@@ -4674,7 +4671,7 @@
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K31" s="11">
         <v>1</v>
@@ -4693,7 +4690,7 @@
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
       <c r="U31" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
@@ -4701,13 +4698,13 @@
     </row>
     <row r="32" ht="35" customHeight="1" spans="1:24">
       <c r="A32" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="D32" s="11">
         <v>288</v>
@@ -4727,7 +4724,7 @@
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K32" s="11" t="s">
         <v>51</v>
@@ -4740,10 +4737,10 @@
       </c>
       <c r="N32" s="11"/>
       <c r="O32" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="P32" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="P32" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
@@ -4756,13 +4753,13 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A33" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="C33" s="10" t="s">
         <v>212</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>213</v>
       </c>
       <c r="D33" s="11">
         <v>288</v>
@@ -4781,10 +4778,10 @@
         <v>48</v>
       </c>
       <c r="I33" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J33" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>215</v>
       </c>
       <c r="K33" s="11" t="s">
         <v>51</v>
@@ -4803,23 +4800,23 @@
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
       <c r="U33" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="V33" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="V33" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="W33" s="11"/>
       <c r="X33" s="24"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A34" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="C34" s="10" t="s">
         <v>219</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>220</v>
       </c>
       <c r="D34" s="11">
         <v>388</v>
@@ -4831,7 +4828,7 @@
         <v>34</v>
       </c>
       <c r="G34" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="0"/>
@@ -4839,7 +4836,7 @@
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K34" s="11" t="s">
         <v>51</v>
@@ -4858,23 +4855,23 @@
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
       <c r="U34" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="V34" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="V34" s="11" t="s">
-        <v>223</v>
       </c>
       <c r="W34" s="11"/>
       <c r="X34" s="24"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A35" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="10" t="s">
         <v>225</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>226</v>
       </c>
       <c r="D35" s="11">
         <v>388</v>
@@ -4886,7 +4883,7 @@
         <v>34</v>
       </c>
       <c r="G35" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="0"/>
@@ -4894,7 +4891,7 @@
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K35" s="11" t="s">
         <v>51</v>
@@ -4913,7 +4910,7 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
@@ -4921,13 +4918,13 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A36" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="D36" s="11">
         <v>388</v>
@@ -4939,7 +4936,7 @@
         <v>34</v>
       </c>
       <c r="G36" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="0"/>
@@ -4947,7 +4944,7 @@
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>51</v>
@@ -4966,7 +4963,7 @@
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
       <c r="U36" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
@@ -4974,13 +4971,13 @@
     </row>
     <row r="37" ht="35" customHeight="1" spans="1:24">
       <c r="A37" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="D37" s="11">
         <v>288</v>
@@ -5000,10 +4997,10 @@
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="K37" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="L37" s="11" t="s">
         <v>34</v>
@@ -5013,7 +5010,7 @@
       </c>
       <c r="N37" s="11"/>
       <c r="O37" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
@@ -5027,13 +5024,13 @@
     </row>
     <row r="38" ht="51.5" customHeight="1" spans="1:24">
       <c r="A38" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>242</v>
       </c>
       <c r="D38" s="11">
         <v>888</v>
@@ -5052,10 +5049,10 @@
         <v>16</v>
       </c>
       <c r="I38" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="J38" s="10" t="s">
         <v>243</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>244</v>
       </c>
       <c r="K38" s="11" t="s">
         <v>51</v>
@@ -5080,13 +5077,13 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A39" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="C39" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>247</v>
       </c>
       <c r="D39" s="11">
         <v>388</v>
@@ -5105,10 +5102,10 @@
         <v>32</v>
       </c>
       <c r="I39" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="J39" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>249</v>
       </c>
       <c r="K39" s="11" t="s">
         <v>51</v>
@@ -5127,7 +5124,7 @@
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
       <c r="U39" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
@@ -5135,13 +5132,13 @@
     </row>
     <row r="40" ht="18.5" customHeight="1" spans="1:24">
       <c r="A40" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="C40" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>253</v>
       </c>
       <c r="D40" s="11">
         <v>488</v>
@@ -5160,10 +5157,10 @@
         <v>32</v>
       </c>
       <c r="I40" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="J40" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>255</v>
       </c>
       <c r="K40" s="11">
         <v>1</v>
@@ -5176,7 +5173,7 @@
       </c>
       <c r="N40" s="11"/>
       <c r="O40" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
@@ -5190,13 +5187,13 @@
     </row>
     <row r="41" ht="35" customHeight="1" spans="1:24">
       <c r="A41" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>259</v>
       </c>
       <c r="D41" s="11">
         <v>488</v>
@@ -5216,7 +5213,7 @@
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K41" s="11">
         <v>1</v>
@@ -5229,10 +5226,10 @@
       </c>
       <c r="N41" s="11"/>
       <c r="O41" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="P41" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="P41" s="11" t="s">
-        <v>262</v>
       </c>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
@@ -5245,13 +5242,13 @@
     </row>
     <row r="42" ht="18.5" customHeight="1" spans="1:24">
       <c r="A42" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="C42" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="D42" s="11">
         <v>288</v>
@@ -5263,7 +5260,7 @@
         <v>34</v>
       </c>
       <c r="G42" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="0"/>
@@ -5271,7 +5268,7 @@
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K42" s="11" t="s">
         <v>51</v>
@@ -5284,10 +5281,10 @@
       </c>
       <c r="N42" s="11"/>
       <c r="O42" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="P42" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="P42" s="11" t="s">
-        <v>268</v>
       </c>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
@@ -5300,13 +5297,13 @@
     </row>
     <row r="43" ht="35" customHeight="1" spans="1:24">
       <c r="A43" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="C43" s="10" t="s">
         <v>270</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="D43" s="11">
         <v>488</v>
@@ -5325,10 +5322,10 @@
         <v>32</v>
       </c>
       <c r="I43" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="J43" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>273</v>
       </c>
       <c r="K43" s="11" t="s">
         <v>51</v>
@@ -5353,13 +5350,13 @@
     </row>
     <row r="44" ht="84.5" customHeight="1" spans="1:24">
       <c r="A44" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="10" t="s">
         <v>275</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>276</v>
       </c>
       <c r="D44" s="11">
         <v>888</v>
@@ -5379,7 +5376,7 @@
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K44" s="11" t="s">
         <v>51</v>
@@ -5392,16 +5389,16 @@
       </c>
       <c r="N44" s="11"/>
       <c r="O44" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="P44" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="P44" s="11" t="s">
+      <c r="Q44" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="Q44" s="11" t="s">
+      <c r="R44" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="R44" s="11" t="s">
-        <v>281</v>
       </c>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
@@ -5412,13 +5409,13 @@
     </row>
     <row r="45" ht="49.5" spans="1:24">
       <c r="A45" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="C45" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>284</v>
       </c>
       <c r="D45" s="11">
         <v>488</v>
@@ -5436,7 +5433,7 @@
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K45" s="11" t="s">
         <v>51</v>
@@ -5449,7 +5446,7 @@
       </c>
       <c r="N45" s="11"/>
       <c r="O45" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
@@ -5457,7 +5454,7 @@
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
       <c r="U45" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
@@ -5465,13 +5462,13 @@
     </row>
     <row r="46" ht="18.5" customHeight="1" spans="1:24">
       <c r="A46" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>289</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>290</v>
       </c>
       <c r="D46" s="11">
         <v>488</v>
@@ -5489,10 +5486,10 @@
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L46" s="11" t="s">
         <v>34</v>
@@ -5514,13 +5511,13 @@
     </row>
     <row r="47" ht="18.5" customHeight="1" spans="1:24">
       <c r="A47" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="C47" s="10" t="s">
         <v>293</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>294</v>
       </c>
       <c r="D47" s="11">
         <v>888</v>
@@ -5538,7 +5535,7 @@
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K47" s="11" t="s">
         <v>51</v>
@@ -5551,13 +5548,13 @@
       </c>
       <c r="N47" s="11"/>
       <c r="O47" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
@@ -5569,13 +5566,13 @@
     </row>
     <row r="48" ht="18.5" customHeight="1" spans="1:24">
       <c r="A48" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>297</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>298</v>
       </c>
       <c r="D48" s="11">
         <v>488</v>
@@ -5592,10 +5589,10 @@
         <v>32</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K48" s="11" t="s">
         <v>51</v>
@@ -5620,13 +5617,13 @@
     </row>
     <row r="49" ht="35" customHeight="1" spans="1:24">
       <c r="A49" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="C49" s="15" t="s">
         <v>301</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>302</v>
       </c>
       <c r="D49" s="11">
         <v>888</v>
@@ -5643,10 +5640,10 @@
         <v>16</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>51</v>
@@ -5671,13 +5668,13 @@
     </row>
     <row r="50" ht="49.5" spans="1:24">
       <c r="A50" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="C50" s="10" t="s">
         <v>305</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>306</v>
       </c>
       <c r="D50" s="11">
         <v>888</v>
@@ -5694,10 +5691,10 @@
         <v>16</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>51</v>
@@ -5716,7 +5713,7 @@
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
       <c r="U50" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="V50" s="11"/>
       <c r="W50" s="11"/>
@@ -5724,13 +5721,13 @@
     </row>
     <row r="51" ht="35" customHeight="1" spans="1:24">
       <c r="A51" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>310</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>311</v>
       </c>
       <c r="D51" s="11">
         <v>888</v>
@@ -5748,7 +5745,7 @@
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K51" s="11" t="s">
         <v>51</v>
@@ -5773,13 +5770,13 @@
     </row>
     <row r="52" ht="49.5" spans="1:24">
       <c r="A52" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="C52" s="10" t="s">
         <v>313</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>314</v>
       </c>
       <c r="D52" s="11">
         <v>488</v>
@@ -5796,10 +5793,10 @@
         <v>32</v>
       </c>
       <c r="I52" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="J52" s="10" t="s">
         <v>315</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>316</v>
       </c>
       <c r="K52" s="11" t="s">
         <v>51</v>
@@ -5818,23 +5815,23 @@
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
       <c r="U52" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="V52" s="11" t="s">
         <v>317</v>
-      </c>
-      <c r="V52" s="11" t="s">
-        <v>318</v>
       </c>
       <c r="W52" s="11"/>
       <c r="X52" s="24"/>
     </row>
     <row r="53" ht="35" customHeight="1" spans="1:24">
       <c r="A53" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="C53" s="10" t="s">
         <v>320</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>321</v>
       </c>
       <c r="D53" s="11">
         <v>888</v>
@@ -5851,10 +5848,10 @@
         <v>16</v>
       </c>
       <c r="I53" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="J53" s="10" t="s">
         <v>322</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>323</v>
       </c>
       <c r="K53" s="11" t="s">
         <v>51</v>
@@ -5879,13 +5876,13 @@
     </row>
     <row r="54" ht="49.5" spans="1:24">
       <c r="A54" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="C54" s="10" t="s">
         <v>325</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>326</v>
       </c>
       <c r="D54" s="11">
         <v>488</v>
@@ -5903,7 +5900,7 @@
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K54" s="11" t="s">
         <v>51</v>
@@ -5922,7 +5919,7 @@
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
       <c r="U54" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
@@ -5930,13 +5927,13 @@
     </row>
     <row r="55" ht="49.5" spans="1:24">
       <c r="A55" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="C55" s="10" t="s">
         <v>329</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>330</v>
       </c>
       <c r="D55" s="11">
         <v>388</v>
@@ -5954,7 +5951,7 @@
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K55" s="11" t="s">
         <v>51</v>
@@ -5973,23 +5970,23 @@
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
       <c r="U55" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="V55" s="11" t="s">
         <v>332</v>
-      </c>
-      <c r="V55" s="11" t="s">
-        <v>333</v>
       </c>
       <c r="W55" s="11"/>
       <c r="X55" s="24"/>
     </row>
     <row r="56" ht="49.5" spans="1:24">
       <c r="A56" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="C56" s="10" t="s">
         <v>335</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>336</v>
       </c>
       <c r="D56" s="11">
         <v>288</v>
@@ -5999,7 +5996,7 @@
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H56" s="11">
         <f t="shared" si="1"/>
@@ -6007,7 +6004,7 @@
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K56" s="11" t="s">
         <v>51</v>
@@ -6026,7 +6023,7 @@
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
       <c r="U56" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V56" s="11"/>
       <c r="W56" s="11"/>
@@ -6034,13 +6031,13 @@
     </row>
     <row r="57" ht="35" customHeight="1" spans="1:24">
       <c r="A57" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="C57" s="10" t="s">
         <v>340</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>341</v>
       </c>
       <c r="D57" s="11">
         <v>288</v>
@@ -6056,10 +6053,10 @@
         <v>0</v>
       </c>
       <c r="I57" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="J57" s="10" t="s">
         <v>342</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>343</v>
       </c>
       <c r="K57" s="11" t="s">
         <v>51</v>
@@ -6084,13 +6081,13 @@
     </row>
     <row r="58" ht="35" customHeight="1" spans="1:24">
       <c r="A58" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="C58" s="10" t="s">
         <v>345</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>346</v>
       </c>
       <c r="D58" s="11">
         <v>488</v>
@@ -6100,14 +6097,14 @@
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="11">
         <v>0</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K58" s="11" t="s">
         <v>51</v>
@@ -6132,13 +6129,13 @@
     </row>
     <row r="59" ht="35" customHeight="1" spans="1:24">
       <c r="A59" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="C59" s="10" t="s">
         <v>349</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>350</v>
       </c>
       <c r="D59" s="11">
         <v>488</v>
@@ -6148,14 +6145,14 @@
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="11">
         <v>0</v>
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K59" s="11" t="s">
         <v>51</v>
@@ -6180,13 +6177,13 @@
     </row>
     <row r="60" ht="35" customHeight="1" spans="1:24">
       <c r="A60" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="C60" s="13" t="s">
         <v>352</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>353</v>
       </c>
       <c r="D60" s="11">
         <v>888</v>
@@ -6196,17 +6193,17 @@
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H60" s="11">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K60" s="11" t="s">
         <v>51</v>
@@ -6231,13 +6228,13 @@
     </row>
     <row r="61" ht="51.5" customHeight="1" spans="1:24">
       <c r="A61" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="C61" s="10" t="s">
         <v>356</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>357</v>
       </c>
       <c r="D61" s="11">
         <v>488</v>
@@ -6254,7 +6251,7 @@
       </c>
       <c r="I61" s="11"/>
       <c r="J61" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K61" s="11" t="s">
         <v>51</v>
@@ -6279,13 +6276,13 @@
     </row>
     <row r="62" ht="49.5" spans="1:24">
       <c r="A62" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B62" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="C62" s="18" t="s">
         <v>359</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>360</v>
       </c>
       <c r="D62" s="19">
         <v>488</v>
@@ -6303,7 +6300,7 @@
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K62" s="19" t="s">
         <v>51</v>
@@ -6322,7 +6319,7 @@
       <c r="S62" s="19"/>
       <c r="T62" s="19"/>
       <c r="U62" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V62" s="19"/>
       <c r="W62" s="19"/>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mysterious_shop_config!$J$1:$J$62</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="370">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -128,7 +131,7 @@
     <t>【常客优惠I】</t>
   </si>
   <si>
-    <t>在之后的灵魂商店购买其他圣物时，消耗降低25%。</t>
+    <t>在之后的灵魂商店购买其他圣物时，消耗降%value%%%。</t>
   </si>
   <si>
     <t>null</t>
@@ -155,7 +158,7 @@
     <t>【双倍灵魂】</t>
   </si>
   <si>
-    <t>获得灵魂时，有20%概率获得双倍灵魂。（最多可购买5次）</t>
+    <t>获得灵魂时，有%value%%%概率获得双倍灵魂。（最多可购买5次）</t>
   </si>
   <si>
     <t>item_prop/双倍灵魂</t>
@@ -176,7 +179,7 @@
     <t>【啊，是火！】</t>
   </si>
   <si>
-    <t>火元素技能造成伤害的灼烧会额外增加攻击力40%的伤害，并降低火元素抗性20%，持续3秒。</t>
+    <t>火元素技能造成伤害的灼烧会额外增加攻击力40%的伤害，并降低火元素抗性%FireResist%%%，持续%duration%秒。</t>
   </si>
   <si>
     <t>item_prop/啊，是火！</t>
@@ -304,7 +307,7 @@
     <t>【生人勿进】</t>
   </si>
   <si>
-    <t>对自身250码范围内的敌人造成的伤害提升25%（可购买10次）</t>
+    <t>对自身%range%码范围内的敌人造成的伤害提升%harm%%%（可购买10次）</t>
   </si>
   <si>
     <t>item_prop/生人勿进</t>
@@ -328,7 +331,7 @@
     <t>【远有远的好处】</t>
   </si>
   <si>
-    <t>对自身600码以外的敌人造成的伤害提升25%（可购买10次）</t>
+    <t>对自身%range%码以外的敌人造成的伤害提升%harm%%%（可购买10次）</t>
   </si>
   <si>
     <t>item_prop/远有远的好处</t>
@@ -373,7 +376,7 @@
     <t>item_prop/魔力盈能</t>
   </si>
   <si>
-    <t>KillRestoreHp {
+    <t>KillRestoreMp {
 "Base" "1"
 }</t>
   </si>
@@ -712,11 +715,6 @@
     <t>item_prop/秘法球</t>
   </si>
   <si>
-    <t>KillRestoreMp {
-"Base" "1"
-}</t>
-  </si>
-  <si>
     <t>AbilityImproved {
 "Base" "10"
 }</t>
@@ -884,8 +882,8 @@
     <t>【神罚】</t>
   </si>
   <si>
-    <t>每过10秒，从天而降一道雷，对自身及自身周围500码敌人造成无差别伤害，伤害系数为攻击力*1000%无视元素抗性的伤害
-但自身具有抗性，只会受到10%的伤害。（慎选）</t>
+    <t>每过%interval%秒，从天而降一道雷，对自身及自身周围半径%radius%码内所有单位造成无差别伤害，伤害系数为攻击力*%damage_ratio%%%无视元素抗性的伤害
+但玩家具有抗性，只会受到%self_ratio%%%的伤害。（慎选）</t>
   </si>
   <si>
     <t>item_prop/神罚</t>
@@ -894,7 +892,7 @@
     <t>interval 10</t>
   </si>
   <si>
-    <t>radius 500</t>
+    <t>radius 750</t>
   </si>
   <si>
     <t>damage_ratio 1000</t>
@@ -912,7 +910,7 @@
     <t>自己无法拾取经验球，但每过%auto_pick_interval%秒会自动拾取全地图的经验球</t>
   </si>
   <si>
-    <t>centaur_work_horse</t>
+    <t>item_prop/定时收获</t>
   </si>
   <si>
     <t>auto_pick_interval 45</t>
@@ -932,6 +930,9 @@
     <t>重置当前技能点</t>
   </si>
   <si>
+    <t>item_prop/重修之书</t>
+  </si>
+  <si>
     <t>ResetSkill</t>
   </si>
   <si>
@@ -944,6 +945,9 @@
     <t>每过10秒，冻结自身半径500码敌人1秒</t>
   </si>
   <si>
+    <t>item_prop/冰霜之心</t>
+  </si>
+  <si>
     <t>root_radius 500</t>
   </si>
   <si>
@@ -959,6 +963,9 @@
     <t>第一次伤害</t>
   </si>
   <si>
+    <t>item_prop/原力护符</t>
+  </si>
+  <si>
     <t>prop_47</t>
   </si>
   <si>
@@ -971,6 +978,9 @@
     <t>6秒内无敌,结束后死亡</t>
   </si>
   <si>
+    <t>item_prop/不休尸王的钢盔</t>
+  </si>
+  <si>
     <t>prop_48</t>
   </si>
   <si>
@@ -981,6 +991,9 @@
   </si>
   <si>
     <t>乘算</t>
+  </si>
+  <si>
+    <t>item_prop/忍者头巾</t>
   </si>
   <si>
     <t>EvasionProb {
@@ -997,6 +1010,9 @@
     <t>每击杀100个敌军增加1%攻击力（精英怪算5个敌军，boss算15个）</t>
   </si>
   <si>
+    <t>item_prop/石中剑</t>
+  </si>
+  <si>
     <t>prop_50</t>
   </si>
   <si>
@@ -1124,6 +1140,9 @@
     <t>完成夜魇任务时，全队经验值奖励+20%（可叠加）</t>
   </si>
   <si>
+    <t>item_prop/夜魇军团的肯定</t>
+  </si>
+  <si>
     <t>prop_58</t>
   </si>
   <si>
@@ -1136,6 +1155,9 @@
     <t>伤害加成加算,禁用已学习的</t>
   </si>
   <si>
+    <t>item_prop/尸鬼封尽</t>
+  </si>
+  <si>
     <t>prop_59</t>
   </si>
   <si>
@@ -1145,13 +1167,19 @@
     <t>天辉任务进行时，增加30%移动速度；夜魇任务进行时，阵亡时瞬间重生，重生每次任务只生效1次</t>
   </si>
   <si>
+    <t>item_prop/任务小子</t>
+  </si>
+  <si>
     <t>prop_60</t>
   </si>
   <si>
     <t>【林野长弓】</t>
   </si>
   <si>
-    <t>攻击范围+200码</t>
+    <t>攻击范围+%AttackRange.Bonus%</t>
+  </si>
+  <si>
+    <t>item_prop/林野长弓</t>
   </si>
   <si>
     <t>AttackRange {
@@ -2619,16 +2647,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{15067D83-775C-4CBD-8B14-E2B152A61FA4}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{9C606B4B-0C7C-40B2-846C-E00C9AE51AF6}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A6BBDD7A-74C4-450C-8123-F796017EA62F}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{94685C1F-1CC2-4862-BC90-EAD1CE4061C1}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{ABD56CFF-922B-4A98-8BFC-EAD67533F101}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{6408F694-6DD2-441C-8D9B-7FC67F568B9F}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2640,7 +2668,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{EC88FEFD-D0CC-4855-A322-1DABF8D65EFB}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{C2F85400-DF53-4C49-AD61-7B4E06F6E7A9}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -2950,10 +2978,10 @@
   <sheetPr/>
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K26" sqref="K26"/>
+      <selection pane="topRight" activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3131,7 +3159,7 @@
         <v>288</v>
       </c>
       <c r="E3" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>34</v>
@@ -3140,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="11">
-        <f>(4-E3)*16</f>
+        <f>(7-E3)*16</f>
         <v>48</v>
       </c>
       <c r="I3" s="11" t="s">
@@ -3186,7 +3214,7 @@
         <v>488</v>
       </c>
       <c r="E4" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>34</v>
@@ -3195,7 +3223,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H44" si="0">(4-E4)*16</f>
+        <f t="shared" ref="H4:H35" si="0">(7-E4)*16</f>
         <v>32</v>
       </c>
       <c r="I4" s="11"/>
@@ -3241,7 +3269,7 @@
         <v>288</v>
       </c>
       <c r="E5" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>34</v>
@@ -3298,7 +3326,7 @@
         <v>488</v>
       </c>
       <c r="E6" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>34</v>
@@ -3352,7 +3380,7 @@
         <v>488</v>
       </c>
       <c r="E7" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>34</v>
@@ -3406,7 +3434,7 @@
         <v>488</v>
       </c>
       <c r="E8" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>34</v>
@@ -3460,7 +3488,7 @@
         <v>488</v>
       </c>
       <c r="E9" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>34</v>
@@ -3514,7 +3542,7 @@
         <v>488</v>
       </c>
       <c r="E10" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>34</v>
@@ -3569,7 +3597,7 @@
         <v>488</v>
       </c>
       <c r="E11" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>34</v>
@@ -3624,7 +3652,7 @@
         <v>288</v>
       </c>
       <c r="E12" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>34</v>
@@ -3679,7 +3707,7 @@
         <v>288</v>
       </c>
       <c r="E13" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>34</v>
@@ -3734,7 +3762,7 @@
         <v>488</v>
       </c>
       <c r="E14" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>34</v>
@@ -3791,7 +3819,7 @@
         <v>288</v>
       </c>
       <c r="E15" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>34</v>
@@ -3846,7 +3874,7 @@
         <v>488</v>
       </c>
       <c r="E16" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>34</v>
@@ -3899,7 +3927,7 @@
         <v>288</v>
       </c>
       <c r="E17" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>34</v>
@@ -3954,7 +3982,7 @@
         <v>888</v>
       </c>
       <c r="E18" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>34</v>
@@ -4007,7 +4035,7 @@
         <v>288</v>
       </c>
       <c r="E19" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>34</v>
@@ -4060,7 +4088,7 @@
         <v>488</v>
       </c>
       <c r="E20" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>34</v>
@@ -4117,7 +4145,7 @@
         <v>288</v>
       </c>
       <c r="E21" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>34</v>
@@ -4170,7 +4198,7 @@
         <v>388</v>
       </c>
       <c r="E22" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>34</v>
@@ -4227,7 +4255,7 @@
         <v>288</v>
       </c>
       <c r="E23" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>34</v>
@@ -4278,7 +4306,7 @@
         <v>288</v>
       </c>
       <c r="E24" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>34</v>
@@ -4333,7 +4361,7 @@
         <v>288</v>
       </c>
       <c r="E25" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>34</v>
@@ -4388,7 +4416,7 @@
         <v>488</v>
       </c>
       <c r="E26" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>34</v>
@@ -4443,7 +4471,7 @@
         <v>188</v>
       </c>
       <c r="E27" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>34</v>
@@ -4496,7 +4524,7 @@
         <v>388</v>
       </c>
       <c r="E28" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>34</v>
@@ -4547,7 +4575,7 @@
         <v>888</v>
       </c>
       <c r="E29" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>34</v>
@@ -4602,7 +4630,7 @@
         <v>488</v>
       </c>
       <c r="E30" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>34</v>
@@ -4657,7 +4685,7 @@
         <v>288</v>
       </c>
       <c r="E31" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>34</v>
@@ -4710,7 +4738,7 @@
         <v>288</v>
       </c>
       <c r="E32" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>34</v>
@@ -4765,7 +4793,7 @@
         <v>288</v>
       </c>
       <c r="E33" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>34</v>
@@ -4822,7 +4850,7 @@
         <v>388</v>
       </c>
       <c r="E34" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>34</v>
@@ -4855,29 +4883,29 @@
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
       <c r="U34" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="V34" s="11" t="s">
         <v>221</v>
-      </c>
-      <c r="V34" s="11" t="s">
-        <v>222</v>
       </c>
       <c r="W34" s="11"/>
       <c r="X34" s="24"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A35" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>225</v>
       </c>
       <c r="D35" s="11">
         <v>388</v>
       </c>
       <c r="E35" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>34</v>
@@ -4891,7 +4919,7 @@
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K35" s="11" t="s">
         <v>51</v>
@@ -4910,7 +4938,7 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
@@ -4918,19 +4946,19 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A36" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>230</v>
       </c>
       <c r="D36" s="11">
         <v>388</v>
       </c>
       <c r="E36" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>34</v>
@@ -4939,12 +4967,12 @@
         <v>10</v>
       </c>
       <c r="H36" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H36:H62" si="1">(7-E36)*16</f>
         <v>32</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>51</v>
@@ -4963,7 +4991,7 @@
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
       <c r="U36" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
@@ -4971,19 +4999,19 @@
     </row>
     <row r="37" ht="35" customHeight="1" spans="1:24">
       <c r="A37" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>234</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>235</v>
       </c>
       <c r="D37" s="11">
         <v>288</v>
       </c>
       <c r="E37" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>34</v>
@@ -4992,15 +5020,15 @@
         <v>1</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="K37" s="11" t="s">
         <v>236</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>237</v>
       </c>
       <c r="L37" s="11" t="s">
         <v>34</v>
@@ -5010,7 +5038,7 @@
       </c>
       <c r="N37" s="11"/>
       <c r="O37" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
@@ -5024,19 +5052,19 @@
     </row>
     <row r="38" ht="51.5" customHeight="1" spans="1:24">
       <c r="A38" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="D38" s="11">
         <v>888</v>
       </c>
       <c r="E38" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>34</v>
@@ -5045,14 +5073,14 @@
         <v>1</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I38" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="J38" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>243</v>
       </c>
       <c r="K38" s="11" t="s">
         <v>51</v>
@@ -5077,19 +5105,19 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A39" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="C39" s="10" t="s">
         <v>245</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>246</v>
       </c>
       <c r="D39" s="11">
         <v>388</v>
       </c>
       <c r="E39" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>34</v>
@@ -5098,14 +5126,14 @@
         <v>1</v>
       </c>
       <c r="H39" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="I39" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J39" s="10" t="s">
         <v>247</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>248</v>
       </c>
       <c r="K39" s="11" t="s">
         <v>51</v>
@@ -5124,7 +5152,7 @@
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
       <c r="U39" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
@@ -5132,19 +5160,19 @@
     </row>
     <row r="40" ht="18.5" customHeight="1" spans="1:24">
       <c r="A40" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="C40" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>252</v>
       </c>
       <c r="D40" s="11">
         <v>488</v>
       </c>
       <c r="E40" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>34</v>
@@ -5153,14 +5181,14 @@
         <v>1</v>
       </c>
       <c r="H40" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="I40" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="J40" s="10" t="s">
         <v>253</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="K40" s="11">
         <v>1</v>
@@ -5173,7 +5201,7 @@
       </c>
       <c r="N40" s="11"/>
       <c r="O40" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
@@ -5187,19 +5215,19 @@
     </row>
     <row r="41" ht="35" customHeight="1" spans="1:24">
       <c r="A41" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>258</v>
       </c>
       <c r="D41" s="11">
         <v>488</v>
       </c>
       <c r="E41" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>34</v>
@@ -5208,12 +5236,12 @@
         <v>1</v>
       </c>
       <c r="H41" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K41" s="11">
         <v>1</v>
@@ -5226,10 +5254,10 @@
       </c>
       <c r="N41" s="11"/>
       <c r="O41" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="P41" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="P41" s="11" t="s">
-        <v>261</v>
       </c>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
@@ -5242,19 +5270,19 @@
     </row>
     <row r="42" ht="18.5" customHeight="1" spans="1:24">
       <c r="A42" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="C42" s="10" t="s">
         <v>263</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>264</v>
       </c>
       <c r="D42" s="11">
         <v>288</v>
       </c>
       <c r="E42" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>34</v>
@@ -5263,12 +5291,12 @@
         <v>10</v>
       </c>
       <c r="H42" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K42" s="11" t="s">
         <v>51</v>
@@ -5281,10 +5309,10 @@
       </c>
       <c r="N42" s="11"/>
       <c r="O42" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="P42" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="P42" s="11" t="s">
-        <v>267</v>
       </c>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
@@ -5297,19 +5325,19 @@
     </row>
     <row r="43" ht="35" customHeight="1" spans="1:24">
       <c r="A43" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="C43" s="10" t="s">
         <v>269</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>270</v>
       </c>
       <c r="D43" s="11">
         <v>488</v>
       </c>
       <c r="E43" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>34</v>
@@ -5318,14 +5346,14 @@
         <v>1</v>
       </c>
       <c r="H43" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="I43" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="J43" s="10" t="s">
         <v>271</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>272</v>
       </c>
       <c r="K43" s="11" t="s">
         <v>51</v>
@@ -5348,21 +5376,21 @@
       <c r="W43" s="11"/>
       <c r="X43" s="24"/>
     </row>
-    <row r="44" ht="84.5" customHeight="1" spans="1:24">
+    <row r="44" ht="115.5" spans="1:24">
       <c r="A44" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="D44" s="11">
         <v>888</v>
       </c>
       <c r="E44" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>34</v>
@@ -5371,12 +5399,12 @@
         <v>1</v>
       </c>
       <c r="H44" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K44" s="11" t="s">
         <v>51</v>
@@ -5389,16 +5417,16 @@
       </c>
       <c r="N44" s="11"/>
       <c r="O44" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="P44" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="P44" s="11" t="s">
+      <c r="Q44" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="Q44" s="11" t="s">
+      <c r="R44" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="R44" s="11" t="s">
-        <v>280</v>
       </c>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
@@ -5409,31 +5437,31 @@
     </row>
     <row r="45" ht="49.5" spans="1:24">
       <c r="A45" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="C45" s="10" t="s">
         <v>282</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>283</v>
       </c>
       <c r="D45" s="11">
         <v>488</v>
       </c>
       <c r="E45" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11">
         <v>1</v>
       </c>
       <c r="H45" s="11">
-        <f t="shared" ref="H45:H62" si="1">(4-E45)*16</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K45" s="11" t="s">
         <v>51</v>
@@ -5446,7 +5474,7 @@
       </c>
       <c r="N45" s="11"/>
       <c r="O45" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
@@ -5454,7 +5482,7 @@
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
       <c r="U45" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
@@ -5462,19 +5490,19 @@
     </row>
     <row r="46" ht="18.5" customHeight="1" spans="1:24">
       <c r="A46" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>288</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>289</v>
       </c>
       <c r="D46" s="11">
         <v>488</v>
       </c>
       <c r="E46" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11">
@@ -5486,7 +5514,7 @@
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="10" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K46" s="11" t="s">
         <v>290</v>
@@ -5523,7 +5551,7 @@
         <v>888</v>
       </c>
       <c r="E47" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11">
@@ -5535,7 +5563,7 @@
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="10" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="K47" s="11" t="s">
         <v>51</v>
@@ -5548,13 +5576,13 @@
       </c>
       <c r="N47" s="11"/>
       <c r="O47" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
@@ -5566,19 +5594,19 @@
     </row>
     <row r="48" ht="18.5" customHeight="1" spans="1:24">
       <c r="A48" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D48" s="11">
         <v>488</v>
       </c>
       <c r="E48" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11">
@@ -5589,10 +5617,10 @@
         <v>32</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="K48" s="11" t="s">
         <v>51</v>
@@ -5617,19 +5645,19 @@
     </row>
     <row r="49" ht="35" customHeight="1" spans="1:24">
       <c r="A49" s="8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D49" s="11">
         <v>888</v>
       </c>
       <c r="E49" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="11">
@@ -5640,10 +5668,10 @@
         <v>16</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>51</v>
@@ -5668,19 +5696,19 @@
     </row>
     <row r="50" ht="49.5" spans="1:24">
       <c r="A50" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D50" s="11">
         <v>888</v>
       </c>
       <c r="E50" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="11">
@@ -5691,10 +5719,10 @@
         <v>16</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>51</v>
@@ -5713,7 +5741,7 @@
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
       <c r="U50" s="11" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="V50" s="11"/>
       <c r="W50" s="11"/>
@@ -5721,19 +5749,19 @@
     </row>
     <row r="51" ht="35" customHeight="1" spans="1:24">
       <c r="A51" s="8" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D51" s="11">
         <v>888</v>
       </c>
       <c r="E51" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="11">
@@ -5745,7 +5773,7 @@
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="10" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="K51" s="11" t="s">
         <v>51</v>
@@ -5770,19 +5798,19 @@
     </row>
     <row r="52" ht="49.5" spans="1:24">
       <c r="A52" s="8" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D52" s="11">
         <v>488</v>
       </c>
       <c r="E52" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="11">
@@ -5793,10 +5821,10 @@
         <v>32</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K52" s="11" t="s">
         <v>51</v>
@@ -5815,29 +5843,29 @@
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
       <c r="U52" s="11" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="V52" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="W52" s="11"/>
       <c r="X52" s="24"/>
     </row>
     <row r="53" ht="35" customHeight="1" spans="1:24">
       <c r="A53" s="8" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D53" s="11">
         <v>888</v>
       </c>
       <c r="E53" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="11">
@@ -5848,10 +5876,10 @@
         <v>16</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K53" s="11" t="s">
         <v>51</v>
@@ -5876,19 +5904,19 @@
     </row>
     <row r="54" ht="49.5" spans="1:24">
       <c r="A54" s="8" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D54" s="11">
         <v>488</v>
       </c>
       <c r="E54" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="11">
@@ -5900,7 +5928,7 @@
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="10" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K54" s="11" t="s">
         <v>51</v>
@@ -5927,19 +5955,19 @@
     </row>
     <row r="55" ht="49.5" spans="1:24">
       <c r="A55" s="8" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D55" s="11">
         <v>388</v>
       </c>
       <c r="E55" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="11">
@@ -5951,7 +5979,7 @@
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="10" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K55" s="11" t="s">
         <v>51</v>
@@ -5970,29 +5998,29 @@
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
       <c r="U55" s="11" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="V55" s="11" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="W55" s="11"/>
       <c r="X55" s="24"/>
     </row>
     <row r="56" ht="49.5" spans="1:24">
       <c r="A56" s="8" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D56" s="11">
         <v>288</v>
       </c>
       <c r="E56" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11">
@@ -6004,7 +6032,7 @@
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="10" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K56" s="11" t="s">
         <v>51</v>
@@ -6023,7 +6051,7 @@
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
       <c r="U56" s="11" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="V56" s="11"/>
       <c r="W56" s="11"/>
@@ -6031,32 +6059,33 @@
     </row>
     <row r="57" ht="35" customHeight="1" spans="1:24">
       <c r="A57" s="8" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D57" s="11">
         <v>288</v>
       </c>
       <c r="E57" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="11">
         <v>1</v>
       </c>
       <c r="H57" s="11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K57" s="11" t="s">
         <v>51</v>
@@ -6081,30 +6110,31 @@
     </row>
     <row r="58" ht="35" customHeight="1" spans="1:24">
       <c r="A58" s="8" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D58" s="11">
         <v>488</v>
       </c>
       <c r="E58" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11">
         <v>1</v>
       </c>
       <c r="H58" s="11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="10" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K58" s="11" t="s">
         <v>51</v>
@@ -6129,30 +6159,31 @@
     </row>
     <row r="59" ht="35" customHeight="1" spans="1:24">
       <c r="A59" s="8" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D59" s="11">
         <v>488</v>
       </c>
       <c r="E59" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="11">
         <v>1</v>
       </c>
       <c r="H59" s="11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="10" t="s">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="K59" s="11" t="s">
         <v>51</v>
@@ -6177,19 +6208,19 @@
     </row>
     <row r="60" ht="35" customHeight="1" spans="1:24">
       <c r="A60" s="8" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D60" s="11">
         <v>888</v>
       </c>
       <c r="E60" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="11">
@@ -6200,10 +6231,10 @@
         <v>16</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>284</v>
+        <v>360</v>
       </c>
       <c r="K60" s="11" t="s">
         <v>51</v>
@@ -6228,30 +6259,31 @@
     </row>
     <row r="61" ht="51.5" customHeight="1" spans="1:24">
       <c r="A61" s="8" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="D61" s="11">
         <v>488</v>
       </c>
       <c r="E61" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="11">
         <v>1</v>
       </c>
       <c r="H61" s="11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="I61" s="11"/>
       <c r="J61" s="10" t="s">
-        <v>284</v>
+        <v>364</v>
       </c>
       <c r="K61" s="11" t="s">
         <v>51</v>
@@ -6276,31 +6308,31 @@
     </row>
     <row r="62" ht="49.5" spans="1:24">
       <c r="A62" s="16" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="D62" s="19">
         <v>488</v>
       </c>
       <c r="E62" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="19">
         <v>1</v>
       </c>
-      <c r="H62" s="19">
+      <c r="H62" s="11">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="18" t="s">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="K62" s="19" t="s">
         <v>51</v>
@@ -6319,13 +6351,16 @@
       <c r="S62" s="19"/>
       <c r="T62" s="19"/>
       <c r="U62" s="19" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="V62" s="19"/>
       <c r="W62" s="19"/>
       <c r="X62" s="25"/>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="J1:J62" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <conditionalFormatting sqref="H$1:H$1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -831,7 +831,7 @@
     <t>【迈达斯点金手】</t>
   </si>
   <si>
-    <t>对单位造成伤害时有1%概率秒杀，并获取10倍灵魂,不掉灵魂</t>
+    <t>对单位造成伤害时有%chance%%%概率秒杀，并获取%mul%倍灵魂</t>
   </si>
   <si>
     <t>item_prop/迈达斯点金手</t>
@@ -2647,16 +2647,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{9C606B4B-0C7C-40B2-846C-E00C9AE51AF6}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{4EB2E308-0FEA-4D68-B9B7-29919AAAC3AC}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{94685C1F-1CC2-4862-BC90-EAD1CE4061C1}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{08C35A15-5D4C-494A-8C6E-499406BF6B4A}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{6408F694-6DD2-441C-8D9B-7FC67F568B9F}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{806ADD84-6B10-4642-A95B-93E23727C9E5}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2668,7 +2668,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{C2F85400-DF53-4C49-AD61-7B4E06F6E7A9}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{3C533BDD-87AE-42AB-BC6C-94145DD28426}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -2978,10 +2978,10 @@
   <sheetPr/>
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L44" sqref="L44"/>
+      <selection pane="topRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="372">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -1149,13 +1149,19 @@
     <t>【尸鬼封尽】</t>
   </si>
   <si>
-    <t>随机封印一个技能（完全禁用），同时自身造成伤害提高30%（可购买3次）</t>
-  </si>
-  <si>
-    <t>伤害加成加算,禁用已学习的</t>
+    <t>随机封印一个技能（完全禁用）同时自身最终伤害提高30%（可购买3次）如果没有可封印技能则不会提高伤害。慎选！！！</t>
+  </si>
+  <si>
+    <t>禁用已学习的</t>
   </si>
   <si>
     <t>item_prop/尸鬼封尽</t>
+  </si>
+  <si>
+    <t>GhoulsSealed</t>
+  </si>
+  <si>
+    <t>FinalDamageMul 30</t>
   </si>
   <si>
     <t>prop_59</t>
@@ -2029,7 +2035,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2076,6 +2082,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2647,16 +2656,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{4EB2E308-0FEA-4D68-B9B7-29919AAAC3AC}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{D22E7C3F-C222-4727-B84A-632B5A48E849}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{08C35A15-5D4C-494A-8C6E-499406BF6B4A}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{91B28489-224D-4564-B6A8-6CEAF37E1D37}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{806ADD84-6B10-4642-A95B-93E23727C9E5}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B5FB2F07-BAC4-4A8F-AD40-B624275C0E68}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2668,7 +2677,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{3C533BDD-87AE-42AB-BC6C-94145DD28426}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{8E7B62F0-1279-433C-87E7-A0ACB2F62A33}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -2679,6 +2688,7 @@
   <colors>
     <mruColors>
       <color rgb="00CE292F"/>
+      <color rgb="00FFFF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2978,10 +2988,10 @@
   <sheetPr/>
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C41" sqref="C41"/>
+      <selection pane="topRight" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3068,7 +3078,7 @@
       </c>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
-      <c r="X1" s="22"/>
+      <c r="X1" s="23"/>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:25">
       <c r="A2" s="5" t="s">
@@ -3111,16 +3121,16 @@
       <c r="N2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="20">
-        <v>1</v>
-      </c>
-      <c r="P2" s="21">
+      <c r="O2" s="21">
+        <v>1</v>
+      </c>
+      <c r="P2" s="22">
         <v>2</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="Q2" s="22">
         <v>3</v>
       </c>
-      <c r="R2" s="21">
+      <c r="R2" s="22">
         <v>4</v>
       </c>
       <c r="S2" s="6" t="s">
@@ -3138,7 +3148,7 @@
       <c r="W2" s="6">
         <v>3</v>
       </c>
-      <c r="X2" s="23">
+      <c r="X2" s="24">
         <v>4</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -3198,7 +3208,7 @@
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
-      <c r="X3" s="24"/>
+      <c r="X3" s="25"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A4" s="8" t="s">
@@ -3253,7 +3263,7 @@
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
-      <c r="X4" s="24"/>
+      <c r="X4" s="25"/>
     </row>
     <row r="5" ht="51.5" customHeight="1" spans="1:24">
       <c r="A5" s="8" t="s">
@@ -3310,7 +3320,7 @@
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
-      <c r="X5" s="24"/>
+      <c r="X5" s="25"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A6" s="8" t="s">
@@ -3364,7 +3374,7 @@
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
-      <c r="X6" s="24"/>
+      <c r="X6" s="25"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A7" s="8" t="s">
@@ -3418,7 +3428,7 @@
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
-      <c r="X7" s="24"/>
+      <c r="X7" s="25"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A8" s="8" t="s">
@@ -3472,7 +3482,7 @@
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
-      <c r="X8" s="24"/>
+      <c r="X8" s="25"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A9" s="8" t="s">
@@ -3526,7 +3536,7 @@
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
-      <c r="X9" s="24"/>
+      <c r="X9" s="25"/>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:24">
       <c r="A10" s="8" t="s">
@@ -3581,7 +3591,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
-      <c r="X10" s="24"/>
+      <c r="X10" s="25"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A11" s="8" t="s">
@@ -3636,7 +3646,7 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
-      <c r="X11" s="24"/>
+      <c r="X11" s="25"/>
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:24">
       <c r="A12" s="8" t="s">
@@ -3691,7 +3701,7 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
-      <c r="X12" s="24"/>
+      <c r="X12" s="25"/>
     </row>
     <row r="13" ht="35" customHeight="1" spans="1:24">
       <c r="A13" s="8" t="s">
@@ -3746,7 +3756,7 @@
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
-      <c r="X13" s="24"/>
+      <c r="X13" s="25"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A14" s="8" t="s">
@@ -3803,7 +3813,7 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
-      <c r="X14" s="24"/>
+      <c r="X14" s="25"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A15" s="8" t="s">
@@ -3858,7 +3868,7 @@
         <v>115</v>
       </c>
       <c r="W15" s="11"/>
-      <c r="X15" s="24"/>
+      <c r="X15" s="25"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:24">
       <c r="A16" s="8" t="s">
@@ -3911,7 +3921,7 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
-      <c r="X16" s="24"/>
+      <c r="X16" s="25"/>
     </row>
     <row r="17" ht="35" customHeight="1" spans="1:24">
       <c r="A17" s="8" t="s">
@@ -3966,7 +3976,7 @@
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
-      <c r="X17" s="24"/>
+      <c r="X17" s="25"/>
     </row>
     <row r="18" ht="35" customHeight="1" spans="1:24">
       <c r="A18" s="8" t="s">
@@ -4019,7 +4029,7 @@
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
-      <c r="X18" s="24"/>
+      <c r="X18" s="25"/>
     </row>
     <row r="19" ht="18.5" customHeight="1" spans="1:24">
       <c r="A19" s="8" t="s">
@@ -4072,7 +4082,7 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
-      <c r="X19" s="24"/>
+      <c r="X19" s="25"/>
     </row>
     <row r="20" ht="35" customHeight="1" spans="1:24">
       <c r="A20" s="8" t="s">
@@ -4129,7 +4139,7 @@
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
-      <c r="X20" s="24"/>
+      <c r="X20" s="25"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="68" customHeight="1" spans="1:24">
       <c r="A21" s="8" t="s">
@@ -4182,7 +4192,7 @@
         <v>149</v>
       </c>
       <c r="W21" s="11"/>
-      <c r="X21" s="24"/>
+      <c r="X21" s="25"/>
     </row>
     <row r="22" ht="35" customHeight="1" spans="1:24">
       <c r="A22" s="8" t="s">
@@ -4239,7 +4249,7 @@
       </c>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
-      <c r="X22" s="24"/>
+      <c r="X22" s="25"/>
     </row>
     <row r="23" ht="35" customHeight="1" spans="1:24">
       <c r="A23" s="8" t="s">
@@ -4290,7 +4300,7 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
-      <c r="X23" s="24"/>
+      <c r="X23" s="25"/>
     </row>
     <row r="24" ht="35" customHeight="1" spans="1:24">
       <c r="A24" s="8" t="s">
@@ -4345,7 +4355,7 @@
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
-      <c r="X24" s="24"/>
+      <c r="X24" s="25"/>
     </row>
     <row r="25" ht="35" customHeight="1" spans="1:24">
       <c r="A25" s="8" t="s">
@@ -4400,7 +4410,7 @@
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
-      <c r="X25" s="24"/>
+      <c r="X25" s="25"/>
     </row>
     <row r="26" ht="35" customHeight="1" spans="1:24">
       <c r="A26" s="8" t="s">
@@ -4455,7 +4465,7 @@
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
-      <c r="X26" s="24"/>
+      <c r="X26" s="25"/>
     </row>
     <row r="27" ht="49.5" spans="1:24">
       <c r="A27" s="8" t="s">
@@ -4508,7 +4518,7 @@
       </c>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
-      <c r="X27" s="24"/>
+      <c r="X27" s="25"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:24">
       <c r="A28" s="8" t="s">
@@ -4559,7 +4569,7 @@
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
-      <c r="X28" s="24"/>
+      <c r="X28" s="25"/>
     </row>
     <row r="29" ht="49.5" spans="1:24">
       <c r="A29" s="8" t="s">
@@ -4614,7 +4624,7 @@
       </c>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
-      <c r="X29" s="24"/>
+      <c r="X29" s="25"/>
     </row>
     <row r="30" ht="51.5" customHeight="1" spans="1:24">
       <c r="A30" s="8" t="s">
@@ -4669,7 +4679,7 @@
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
-      <c r="X30" s="24"/>
+      <c r="X30" s="25"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A31" s="8" t="s">
@@ -4722,7 +4732,7 @@
       </c>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
-      <c r="X31" s="24"/>
+      <c r="X31" s="25"/>
     </row>
     <row r="32" ht="35" customHeight="1" spans="1:24">
       <c r="A32" s="8" t="s">
@@ -4777,7 +4787,7 @@
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
-      <c r="X32" s="24"/>
+      <c r="X32" s="25"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A33" s="8" t="s">
@@ -4834,7 +4844,7 @@
         <v>216</v>
       </c>
       <c r="W33" s="11"/>
-      <c r="X33" s="24"/>
+      <c r="X33" s="25"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A34" s="8" t="s">
@@ -4889,7 +4899,7 @@
         <v>221</v>
       </c>
       <c r="W34" s="11"/>
-      <c r="X34" s="24"/>
+      <c r="X34" s="25"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A35" s="8" t="s">
@@ -4942,7 +4952,7 @@
       </c>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
-      <c r="X35" s="24"/>
+      <c r="X35" s="25"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A36" s="8" t="s">
@@ -4995,7 +5005,7 @@
       </c>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
-      <c r="X36" s="24"/>
+      <c r="X36" s="25"/>
     </row>
     <row r="37" ht="35" customHeight="1" spans="1:24">
       <c r="A37" s="8" t="s">
@@ -5048,7 +5058,7 @@
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
-      <c r="X37" s="24"/>
+      <c r="X37" s="25"/>
     </row>
     <row r="38" ht="51.5" customHeight="1" spans="1:24">
       <c r="A38" s="8" t="s">
@@ -5101,7 +5111,7 @@
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
       <c r="W38" s="11"/>
-      <c r="X38" s="24"/>
+      <c r="X38" s="25"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A39" s="8" t="s">
@@ -5156,7 +5166,7 @@
       </c>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
-      <c r="X39" s="24"/>
+      <c r="X39" s="25"/>
     </row>
     <row r="40" ht="18.5" customHeight="1" spans="1:24">
       <c r="A40" s="8" t="s">
@@ -5211,7 +5221,7 @@
       <c r="U40" s="11"/>
       <c r="V40" s="11"/>
       <c r="W40" s="11"/>
-      <c r="X40" s="24"/>
+      <c r="X40" s="25"/>
     </row>
     <row r="41" ht="35" customHeight="1" spans="1:24">
       <c r="A41" s="8" t="s">
@@ -5266,7 +5276,7 @@
       <c r="U41" s="11"/>
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
-      <c r="X41" s="24"/>
+      <c r="X41" s="25"/>
     </row>
     <row r="42" ht="18.5" customHeight="1" spans="1:24">
       <c r="A42" s="8" t="s">
@@ -5321,7 +5331,7 @@
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
-      <c r="X42" s="24"/>
+      <c r="X42" s="25"/>
     </row>
     <row r="43" ht="35" customHeight="1" spans="1:24">
       <c r="A43" s="8" t="s">
@@ -5374,7 +5384,7 @@
       <c r="U43" s="11"/>
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
-      <c r="X43" s="24"/>
+      <c r="X43" s="25"/>
     </row>
     <row r="44" ht="115.5" spans="1:24">
       <c r="A44" s="8" t="s">
@@ -5433,7 +5443,7 @@
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
-      <c r="X44" s="24"/>
+      <c r="X44" s="25"/>
     </row>
     <row r="45" ht="49.5" spans="1:24">
       <c r="A45" s="8" t="s">
@@ -5486,7 +5496,7 @@
       </c>
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
-      <c r="X45" s="24"/>
+      <c r="X45" s="25"/>
     </row>
     <row r="46" ht="18.5" customHeight="1" spans="1:24">
       <c r="A46" s="8" t="s">
@@ -5535,7 +5545,7 @@
       <c r="U46" s="11"/>
       <c r="V46" s="11"/>
       <c r="W46" s="11"/>
-      <c r="X46" s="24"/>
+      <c r="X46" s="25"/>
     </row>
     <row r="47" ht="18.5" customHeight="1" spans="1:24">
       <c r="A47" s="8" t="s">
@@ -5590,7 +5600,7 @@
       <c r="U47" s="11"/>
       <c r="V47" s="11"/>
       <c r="W47" s="11"/>
-      <c r="X47" s="24"/>
+      <c r="X47" s="25"/>
     </row>
     <row r="48" ht="18.5" customHeight="1" spans="1:24">
       <c r="A48" s="8" t="s">
@@ -5641,7 +5651,7 @@
       <c r="U48" s="11"/>
       <c r="V48" s="11"/>
       <c r="W48" s="11"/>
-      <c r="X48" s="24"/>
+      <c r="X48" s="25"/>
     </row>
     <row r="49" ht="35" customHeight="1" spans="1:24">
       <c r="A49" s="8" t="s">
@@ -5692,7 +5702,7 @@
       <c r="U49" s="11"/>
       <c r="V49" s="11"/>
       <c r="W49" s="11"/>
-      <c r="X49" s="24"/>
+      <c r="X49" s="25"/>
     </row>
     <row r="50" ht="49.5" spans="1:24">
       <c r="A50" s="8" t="s">
@@ -5745,7 +5755,7 @@
       </c>
       <c r="V50" s="11"/>
       <c r="W50" s="11"/>
-      <c r="X50" s="24"/>
+      <c r="X50" s="25"/>
     </row>
     <row r="51" ht="35" customHeight="1" spans="1:24">
       <c r="A51" s="8" t="s">
@@ -5794,7 +5804,7 @@
       <c r="U51" s="11"/>
       <c r="V51" s="11"/>
       <c r="W51" s="11"/>
-      <c r="X51" s="24"/>
+      <c r="X51" s="25"/>
     </row>
     <row r="52" ht="49.5" spans="1:24">
       <c r="A52" s="8" t="s">
@@ -5849,7 +5859,7 @@
         <v>322</v>
       </c>
       <c r="W52" s="11"/>
-      <c r="X52" s="24"/>
+      <c r="X52" s="25"/>
     </row>
     <row r="53" ht="35" customHeight="1" spans="1:24">
       <c r="A53" s="8" t="s">
@@ -5900,7 +5910,7 @@
       <c r="U53" s="11"/>
       <c r="V53" s="11"/>
       <c r="W53" s="11"/>
-      <c r="X53" s="24"/>
+      <c r="X53" s="25"/>
     </row>
     <row r="54" ht="49.5" spans="1:24">
       <c r="A54" s="8" t="s">
@@ -5951,7 +5961,7 @@
       </c>
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
-      <c r="X54" s="24"/>
+      <c r="X54" s="25"/>
     </row>
     <row r="55" ht="49.5" spans="1:24">
       <c r="A55" s="8" t="s">
@@ -6004,7 +6014,7 @@
         <v>337</v>
       </c>
       <c r="W55" s="11"/>
-      <c r="X55" s="24"/>
+      <c r="X55" s="25"/>
     </row>
     <row r="56" ht="49.5" spans="1:24">
       <c r="A56" s="8" t="s">
@@ -6055,7 +6065,7 @@
       </c>
       <c r="V56" s="11"/>
       <c r="W56" s="11"/>
-      <c r="X56" s="24"/>
+      <c r="X56" s="25"/>
     </row>
     <row r="57" ht="35" customHeight="1" spans="1:24">
       <c r="A57" s="8" t="s">
@@ -6106,7 +6116,7 @@
       <c r="U57" s="11"/>
       <c r="V57" s="11"/>
       <c r="W57" s="11"/>
-      <c r="X57" s="24"/>
+      <c r="X57" s="25"/>
     </row>
     <row r="58" ht="35" customHeight="1" spans="1:24">
       <c r="A58" s="8" t="s">
@@ -6155,7 +6165,7 @@
       <c r="U58" s="11"/>
       <c r="V58" s="11"/>
       <c r="W58" s="11"/>
-      <c r="X58" s="24"/>
+      <c r="X58" s="25"/>
     </row>
     <row r="59" ht="35" customHeight="1" spans="1:24">
       <c r="A59" s="8" t="s">
@@ -6204,16 +6214,16 @@
       <c r="U59" s="11"/>
       <c r="V59" s="11"/>
       <c r="W59" s="11"/>
-      <c r="X59" s="24"/>
+      <c r="X59" s="25"/>
     </row>
-    <row r="60" ht="35" customHeight="1" spans="1:24">
+    <row r="60" ht="65" customHeight="1" spans="1:24">
       <c r="A60" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="16" t="s">
         <v>358</v>
       </c>
       <c r="D60" s="11">
@@ -6237,7 +6247,7 @@
         <v>360</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>51</v>
+        <v>361</v>
       </c>
       <c r="L60" s="11" t="s">
         <v>34</v>
@@ -6246,7 +6256,9 @@
         <v>38</v>
       </c>
       <c r="N60" s="11"/>
-      <c r="O60" s="10"/>
+      <c r="O60" s="10" t="s">
+        <v>362</v>
+      </c>
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
@@ -6255,17 +6267,17 @@
       <c r="U60" s="11"/>
       <c r="V60" s="11"/>
       <c r="W60" s="11"/>
-      <c r="X60" s="24"/>
+      <c r="X60" s="25"/>
     </row>
     <row r="61" ht="51.5" customHeight="1" spans="1:24">
       <c r="A61" s="8" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D61" s="11">
         <v>488</v>
@@ -6283,7 +6295,7 @@
       </c>
       <c r="I61" s="11"/>
       <c r="J61" s="10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K61" s="11" t="s">
         <v>51</v>
@@ -6304,58 +6316,58 @@
       <c r="U61" s="11"/>
       <c r="V61" s="11"/>
       <c r="W61" s="11"/>
-      <c r="X61" s="24"/>
+      <c r="X61" s="25"/>
     </row>
     <row r="62" ht="49.5" spans="1:24">
-      <c r="A62" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="C62" s="18" t="s">
+      <c r="A62" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="D62" s="19">
+      <c r="B62" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="D62" s="20">
         <v>488</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62" s="20">
         <v>5</v>
       </c>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19">
+      <c r="F62" s="20"/>
+      <c r="G62" s="20">
         <v>1</v>
       </c>
       <c r="H62" s="11">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I62" s="19"/>
-      <c r="J62" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="K62" s="19" t="s">
+      <c r="I62" s="20"/>
+      <c r="J62" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="K62" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="L62" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M62" s="19" t="s">
+      <c r="L62" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M62" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="N62" s="19"/>
-      <c r="O62" s="18"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="V62" s="19"/>
-      <c r="W62" s="19"/>
-      <c r="X62" s="25"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="V62" s="20"/>
+      <c r="W62" s="20"/>
+      <c r="X62" s="26"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="J1:J62" etc:filterBottomFollowUsedRange="0">

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="376">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -271,7 +271,7 @@
     <t>【否定信仰】</t>
   </si>
   <si>
-    <t>队伍对有控制状态效果的人额外造成15%伤害</t>
+    <t>队伍对有控制状态效果的人额外造成%value%%%伤害</t>
   </si>
   <si>
     <t>眩晕,击飞,冰冻,击退击飞</t>
@@ -289,7 +289,7 @@
     <t>【常客优惠II】</t>
   </si>
   <si>
-    <t>在之后的灵魂商店购买其他圣物时，消耗降低50%。</t>
+    <t>在之后的灵魂商店购买其他圣物时，消耗降低%value%%%。</t>
   </si>
   <si>
     <t>和常客优惠I加算</t>
@@ -349,7 +349,7 @@
     <t>【勇气勋章】</t>
   </si>
   <si>
-    <t>生命值大于50%，攻击力提高20%；生命值低于50%，防御力提高20%</t>
+    <t>生命值大于%heal_pct%%%，攻击力提高%attack_pct%%%；生命值低于%heal_pct%%%，防御力提高%armor_pct%%%</t>
   </si>
   <si>
     <t>item_prop/勇气勋章</t>
@@ -370,7 +370,7 @@
     <t>【魔力盈能】</t>
   </si>
   <si>
-    <t>每击杀一个单位，回复1点法力值。最大法力值减少25%</t>
+    <t>每击杀一个单位，回复%KillRestoreMp.Base%点法力值。最大法力值减少%MaxMana.MulRegion%%%</t>
   </si>
   <si>
     <t>item_prop/魔力盈能</t>
@@ -392,7 +392,7 @@
     <t>【圣剑】</t>
   </si>
   <si>
-    <t>攻击力+30%，但死亡掉落（移除物品）</t>
+    <t>攻击力+%AttackBasePer%%%，但死亡掉落（移除物品）</t>
   </si>
   <si>
     <t>item_prop/圣剑</t>
@@ -410,7 +410,7 @@
     <t>【走钢索】</t>
   </si>
   <si>
-    <t>血量越低伤害越高，最低临界值10%血量，提高伤害100%</t>
+    <t>血量越低伤害越高，最低临界值%heal_pct%%%血量，提高伤害%damage_bonus_max%%%</t>
   </si>
   <si>
     <t>item_prop/走钢索</t>
@@ -443,7 +443,7 @@
     <t>【刃甲】</t>
   </si>
   <si>
-    <t>反弹40%受到的伤害</t>
+    <t>反弹%value%%%受到的伤害</t>
   </si>
   <si>
     <t>item_prop/刃甲</t>
@@ -458,7 +458,7 @@
     <t>【致命及砍到】</t>
   </si>
   <si>
-    <t>对生命值大于80%小于20%的单位造成的伤害提升15%</t>
+    <t>对生命值大于%more_than_pct%%%小于%less_than_pct%%%的单位造成的伤害提升%damage_bonus%%%</t>
   </si>
   <si>
     <t>item_prop/致命及砍到</t>
@@ -479,7 +479,7 @@
     <t>【一麻袋】</t>
   </si>
   <si>
-    <t>提升拾取范围100码（最多可购买4次）</t>
+    <t>提升拾取范围%PickItemRadius.Base%码（最多可购买4次）</t>
   </si>
   <si>
     <t>item_prop/一麻袋</t>
@@ -496,7 +496,7 @@
     <t>【你的滑板孩】</t>
   </si>
   <si>
-    <t>常驻移动速度+25%，但在受到伤害后变为移动速度降低50%持续3秒</t>
+    <t>常驻移动速度%MoveSpeed.BasePercent%%%，但在受到伤害后变为移动速度降低%move_speed_pct%%%持续3秒</t>
   </si>
   <si>
     <t>item_prop/你的滑板孩</t>
@@ -522,13 +522,19 @@
     <t>item_prop/斯嘉蒂之眼</t>
   </si>
   <si>
+    <t>down_as 30</t>
+  </si>
+  <si>
+    <t>down_ice_r 20</t>
+  </si>
+  <si>
     <t>prop_22</t>
   </si>
   <si>
     <t>【雷神之锤】</t>
   </si>
   <si>
-    <t>雷元素技能命中敌人时，50%概率额外追加3秒麻痹效果（相同敌人只受到一次效果）</t>
+    <t>雷元素技能命中敌人时，%chance%%%概率额外追加%duration%秒麻痹效果（相同敌人只受到一次效果）</t>
   </si>
   <si>
     <t>item_prop/雷神之锤</t>
@@ -543,7 +549,7 @@
     <t>【风儿吹】</t>
   </si>
   <si>
-    <t>风元素技能命中敌人时，被击退的敌人降低20%元素抗性并眩晕1秒</t>
+    <t>风元素技能命中敌人时，被击退的敌人降低%value%%%元素抗性并眩晕1秒</t>
   </si>
   <si>
     <t>item_prop/风儿吹</t>
@@ -561,7 +567,7 @@
     <t>【无极】</t>
   </si>
   <si>
-    <t>队伍对有负面效果的人额外造成15%伤害</t>
+    <t>队伍对有负面效果的人额外造成%value%%%伤害</t>
   </si>
   <si>
     <t>伤害加深乘区</t>
@@ -605,7 +611,7 @@
     <t>【永世法衣】</t>
   </si>
   <si>
-    <t>增加40%技能强度，受到伤害时回复5点法力值（超稀有）</t>
+    <t>增加40%技能强度，受到伤害时回复%restore_mana%点法力值（超稀有）</t>
   </si>
   <si>
     <t>item_prop/永世法衣</t>
@@ -625,7 +631,7 @@
     <t>【血祭】</t>
   </si>
   <si>
-    <t>不在消耗蓝量，任意技能消耗变为1%最大生命值，生命值临界值10%(低于时不再使用技能)</t>
+    <t>不在消耗蓝量，任意技能消耗变为%blood_mage%%%最大生命值，生命值临界值%health_pct%%%(低于时不再使用技能)</t>
   </si>
   <si>
     <t>item_prop/血祭</t>
@@ -649,7 +655,7 @@
     <t>【指挥官头带】</t>
   </si>
   <si>
-    <t>对精英及boss单位造成伤害提高25%</t>
+    <t>对精英及boss单位造成伤害提高%CreatureDmgLeader.Base%%%</t>
   </si>
   <si>
     <t>item_prop/指挥官头带</t>
@@ -666,7 +672,7 @@
     <t>【极速护符】</t>
   </si>
   <si>
-    <t>原地不动时，技能急速加成提高15%,冷却上限提高15%</t>
+    <t>原地不动时，技能急速加成提高%ability_haste_pct%%%,冷却上限提高%cooldown_limit%%%</t>
   </si>
   <si>
     <t>item_prop/极速护符</t>
@@ -684,7 +690,7 @@
     <t>【聪明人的帽子】</t>
   </si>
   <si>
-    <t>最大蓝量+200，但最大生命值减少25%</t>
+    <t>最大蓝量+%MaxMana.Base%，但最大生命值减少%MaxHealth.MulRegion%%%</t>
   </si>
   <si>
     <t>独立乘区减少</t>
@@ -981,13 +987,19 @@
     <t>item_prop/不休尸王的钢盔</t>
   </si>
   <si>
+    <t>revive_reduct_pct 15</t>
+  </si>
+  <si>
+    <t>duration 6</t>
+  </si>
+  <si>
     <t>prop_48</t>
   </si>
   <si>
     <t>【忍者头巾】</t>
   </si>
   <si>
-    <t>闪避+25%</t>
+    <t>闪避+%EvasionProb.Base%%%</t>
   </si>
   <si>
     <t>乘算</t>
@@ -1019,7 +1031,7 @@
     <t>【裁决项链】</t>
   </si>
   <si>
-    <t>最大蓝量减少50%，但技能伤害+50%</t>
+    <t>最大蓝量减少%MaxMana.MulRegion%%%，但技能伤害+%AbilityImproved.Base%%%</t>
   </si>
   <si>
     <t>蓝量是独立乘区</t>
@@ -1059,7 +1071,7 @@
     <t>【巨人杀手】</t>
   </si>
   <si>
-    <t>对精英怪和boss造成的伤害提高25%</t>
+    <t>对精英怪和boss造成的伤害提高%CreatureDmgLeader.Base%%%</t>
   </si>
   <si>
     <t>item_prop/巨人杀手</t>
@@ -1071,7 +1083,7 @@
     <t>【矮子杀手】</t>
   </si>
   <si>
-    <t>对敌军造成伤害提高50%，但对精英怪和boss造成伤害降低25%</t>
+    <t>对敌军造成伤害提高%CreatureDmgNormal.Base%%%，但对精英怪和boss造成伤害降低%CreatureDmgLeader.Base%%%</t>
   </si>
   <si>
     <t>item_prop/矮人杀手</t>
@@ -1149,7 +1161,7 @@
     <t>【尸鬼封尽】</t>
   </si>
   <si>
-    <t>随机封印一个技能（完全禁用）同时自身最终伤害提高30%（可购买3次）如果没有可封印技能则不会提高伤害。慎选！！！</t>
+    <t>随机封印一个技能（完全禁用）同时自身最终伤害提高%FinalDamageMul%%%（可购买3次）如果没有可封印技能则不会提高伤害。慎选！！！</t>
   </si>
   <si>
     <t>禁用已学习的</t>
@@ -1182,7 +1194,7 @@
     <t>【林野长弓】</t>
   </si>
   <si>
-    <t>攻击范围+%AttackRange.Bonus%</t>
+    <t>攻击范围增加%AttackRange.Bonus%</t>
   </si>
   <si>
     <t>item_prop/林野长弓</t>
@@ -2656,16 +2668,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{D22E7C3F-C222-4727-B84A-632B5A48E849}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B6980E18-3C66-4D85-9AB2-B1DF077CAC03}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{91B28489-224D-4564-B6A8-6CEAF37E1D37}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{AE0D11D1-B3E7-4911-9C7C-900D8C5E4D0B}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B5FB2F07-BAC4-4A8F-AD40-B624275C0E68}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{0D47593F-F3CD-433A-9341-43B6FACB8152}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2677,7 +2689,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{8E7B62F0-1279-433C-87E7-A0ACB2F62A33}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{2457E4AC-B732-446E-81AD-2C37A538E75C}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -2988,10 +3000,10 @@
   <sheetPr/>
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C58" sqref="C58"/>
+      <selection pane="topRight" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3758,7 +3770,7 @@
       <c r="W13" s="11"/>
       <c r="X13" s="25"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
+    <row r="14" s="1" customFormat="1" ht="66" spans="1:24">
       <c r="A14" s="8" t="s">
         <v>103</v>
       </c>
@@ -4084,7 +4096,7 @@
       <c r="W19" s="11"/>
       <c r="X19" s="25"/>
     </row>
-    <row r="20" ht="35" customHeight="1" spans="1:24">
+    <row r="20" ht="49.5" spans="1:24">
       <c r="A20" s="8" t="s">
         <v>138</v>
       </c>
@@ -4291,8 +4303,12 @@
         <v>38</v>
       </c>
       <c r="N23" s="11"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="11"/>
+      <c r="O23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>161</v>
+      </c>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
@@ -4304,13 +4320,13 @@
     </row>
     <row r="24" ht="35" customHeight="1" spans="1:24">
       <c r="A24" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D24" s="11">
         <v>288</v>
@@ -4330,7 +4346,7 @@
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K24" s="11">
         <v>1</v>
@@ -4343,7 +4359,7 @@
       </c>
       <c r="N24" s="11"/>
       <c r="O24" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P24" s="11" t="s">
         <v>53</v>
@@ -4359,13 +4375,13 @@
     </row>
     <row r="25" ht="35" customHeight="1" spans="1:24">
       <c r="A25" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D25" s="11">
         <v>288</v>
@@ -4385,7 +4401,7 @@
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K25" s="11">
         <v>1</v>
@@ -4398,10 +4414,10 @@
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
@@ -4414,13 +4430,13 @@
     </row>
     <row r="26" ht="35" customHeight="1" spans="1:24">
       <c r="A26" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D26" s="11">
         <v>488</v>
@@ -4439,10 +4455,10 @@
         <v>32</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K26" s="11">
         <v>1</v>
@@ -4469,13 +4485,13 @@
     </row>
     <row r="27" ht="49.5" spans="1:24">
       <c r="A27" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D27" s="11">
         <v>188</v>
@@ -4495,7 +4511,7 @@
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K27" s="11" t="s">
         <v>51</v>
@@ -4514,7 +4530,7 @@
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
@@ -4522,13 +4538,13 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:24">
       <c r="A28" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D28" s="11">
         <v>388</v>
@@ -4548,7 +4564,7 @@
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K28" s="11" t="s">
         <v>51</v>
@@ -4573,13 +4589,13 @@
     </row>
     <row r="29" ht="49.5" spans="1:24">
       <c r="A29" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D29" s="11">
         <v>888</v>
@@ -4599,7 +4615,7 @@
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K29" s="11">
         <v>1</v>
@@ -4612,7 +4628,7 @@
       </c>
       <c r="N29" s="11"/>
       <c r="O29" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
@@ -4620,7 +4636,7 @@
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
       <c r="U29" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
@@ -4628,13 +4644,13 @@
     </row>
     <row r="30" ht="51.5" customHeight="1" spans="1:24">
       <c r="A30" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D30" s="11">
         <v>488</v>
@@ -4654,23 +4670,23 @@
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>38</v>
       </c>
       <c r="N30" s="11"/>
       <c r="O30" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
@@ -4683,13 +4699,13 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A31" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D31" s="11">
         <v>288</v>
@@ -4709,7 +4725,7 @@
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K31" s="11">
         <v>1</v>
@@ -4728,7 +4744,7 @@
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
       <c r="U31" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
@@ -4736,13 +4752,13 @@
     </row>
     <row r="32" ht="35" customHeight="1" spans="1:24">
       <c r="A32" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D32" s="11">
         <v>288</v>
@@ -4762,7 +4778,7 @@
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K32" s="11" t="s">
         <v>51</v>
@@ -4775,10 +4791,10 @@
       </c>
       <c r="N32" s="11"/>
       <c r="O32" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
@@ -4791,13 +4807,13 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A33" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D33" s="11">
         <v>288</v>
@@ -4816,10 +4832,10 @@
         <v>48</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K33" s="11" t="s">
         <v>51</v>
@@ -4838,23 +4854,23 @@
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
       <c r="U33" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V33" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="W33" s="11"/>
       <c r="X33" s="25"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A34" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D34" s="11">
         <v>388</v>
@@ -4874,7 +4890,7 @@
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K34" s="11" t="s">
         <v>51</v>
@@ -4896,20 +4912,20 @@
         <v>114</v>
       </c>
       <c r="V34" s="11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="W34" s="11"/>
       <c r="X34" s="25"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A35" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D35" s="11">
         <v>388</v>
@@ -4929,7 +4945,7 @@
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K35" s="11" t="s">
         <v>51</v>
@@ -4948,7 +4964,7 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
@@ -4956,13 +4972,13 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A36" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D36" s="11">
         <v>388</v>
@@ -4982,7 +4998,7 @@
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>51</v>
@@ -5001,7 +5017,7 @@
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
       <c r="U36" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
@@ -5009,13 +5025,13 @@
     </row>
     <row r="37" ht="35" customHeight="1" spans="1:24">
       <c r="A37" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D37" s="11">
         <v>288</v>
@@ -5035,10 +5051,10 @@
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L37" s="11" t="s">
         <v>34</v>
@@ -5048,7 +5064,7 @@
       </c>
       <c r="N37" s="11"/>
       <c r="O37" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
@@ -5062,13 +5078,13 @@
     </row>
     <row r="38" ht="51.5" customHeight="1" spans="1:24">
       <c r="A38" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D38" s="11">
         <v>888</v>
@@ -5087,10 +5103,10 @@
         <v>16</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K38" s="11" t="s">
         <v>51</v>
@@ -5115,13 +5131,13 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A39" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D39" s="11">
         <v>388</v>
@@ -5140,10 +5156,10 @@
         <v>32</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K39" s="11" t="s">
         <v>51</v>
@@ -5162,7 +5178,7 @@
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
       <c r="U39" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
@@ -5170,13 +5186,13 @@
     </row>
     <row r="40" ht="18.5" customHeight="1" spans="1:24">
       <c r="A40" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D40" s="11">
         <v>488</v>
@@ -5195,10 +5211,10 @@
         <v>32</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K40" s="11">
         <v>1</v>
@@ -5211,7 +5227,7 @@
       </c>
       <c r="N40" s="11"/>
       <c r="O40" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
@@ -5225,13 +5241,13 @@
     </row>
     <row r="41" ht="35" customHeight="1" spans="1:24">
       <c r="A41" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D41" s="11">
         <v>488</v>
@@ -5251,7 +5267,7 @@
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K41" s="11">
         <v>1</v>
@@ -5264,10 +5280,10 @@
       </c>
       <c r="N41" s="11"/>
       <c r="O41" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
@@ -5280,13 +5296,13 @@
     </row>
     <row r="42" ht="18.5" customHeight="1" spans="1:24">
       <c r="A42" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D42" s="11">
         <v>288</v>
@@ -5306,7 +5322,7 @@
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K42" s="11" t="s">
         <v>51</v>
@@ -5319,10 +5335,10 @@
       </c>
       <c r="N42" s="11"/>
       <c r="O42" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
@@ -5335,13 +5351,13 @@
     </row>
     <row r="43" ht="35" customHeight="1" spans="1:24">
       <c r="A43" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D43" s="11">
         <v>488</v>
@@ -5360,10 +5376,10 @@
         <v>32</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K43" s="11" t="s">
         <v>51</v>
@@ -5388,13 +5404,13 @@
     </row>
     <row r="44" ht="115.5" spans="1:24">
       <c r="A44" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D44" s="11">
         <v>888</v>
@@ -5414,7 +5430,7 @@
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K44" s="11" t="s">
         <v>51</v>
@@ -5427,16 +5443,16 @@
       </c>
       <c r="N44" s="11"/>
       <c r="O44" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="R44" s="11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
@@ -5447,13 +5463,13 @@
     </row>
     <row r="45" ht="49.5" spans="1:24">
       <c r="A45" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D45" s="11">
         <v>488</v>
@@ -5471,7 +5487,7 @@
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K45" s="11" t="s">
         <v>51</v>
@@ -5484,7 +5500,7 @@
       </c>
       <c r="N45" s="11"/>
       <c r="O45" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
@@ -5492,7 +5508,7 @@
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
       <c r="U45" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
@@ -5500,13 +5516,13 @@
     </row>
     <row r="46" ht="18.5" customHeight="1" spans="1:24">
       <c r="A46" s="8" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D46" s="11">
         <v>488</v>
@@ -5524,10 +5540,10 @@
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L46" s="11" t="s">
         <v>34</v>
@@ -5549,13 +5565,13 @@
     </row>
     <row r="47" ht="18.5" customHeight="1" spans="1:24">
       <c r="A47" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D47" s="11">
         <v>888</v>
@@ -5573,7 +5589,7 @@
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K47" s="11" t="s">
         <v>51</v>
@@ -5586,13 +5602,13 @@
       </c>
       <c r="N47" s="11"/>
       <c r="O47" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
@@ -5604,13 +5620,13 @@
     </row>
     <row r="48" ht="18.5" customHeight="1" spans="1:24">
       <c r="A48" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D48" s="11">
         <v>488</v>
@@ -5627,10 +5643,10 @@
         <v>32</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K48" s="11" t="s">
         <v>51</v>
@@ -5655,13 +5671,13 @@
     </row>
     <row r="49" ht="35" customHeight="1" spans="1:24">
       <c r="A49" s="8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D49" s="11">
         <v>888</v>
@@ -5678,10 +5694,10 @@
         <v>16</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>51</v>
@@ -5693,8 +5709,12 @@
         <v>38</v>
       </c>
       <c r="N49" s="11"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="11"/>
+      <c r="O49" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="P49" s="11" t="s">
+        <v>309</v>
+      </c>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
@@ -5706,13 +5726,13 @@
     </row>
     <row r="50" ht="49.5" spans="1:24">
       <c r="A50" s="8" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D50" s="11">
         <v>888</v>
@@ -5729,10 +5749,10 @@
         <v>16</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>51</v>
@@ -5751,7 +5771,7 @@
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
       <c r="U50" s="11" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="V50" s="11"/>
       <c r="W50" s="11"/>
@@ -5759,13 +5779,13 @@
     </row>
     <row r="51" ht="35" customHeight="1" spans="1:24">
       <c r="A51" s="8" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D51" s="11">
         <v>888</v>
@@ -5783,7 +5803,7 @@
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="10" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K51" s="11" t="s">
         <v>51</v>
@@ -5808,13 +5828,13 @@
     </row>
     <row r="52" ht="49.5" spans="1:24">
       <c r="A52" s="8" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D52" s="11">
         <v>488</v>
@@ -5831,10 +5851,10 @@
         <v>32</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K52" s="11" t="s">
         <v>51</v>
@@ -5853,23 +5873,23 @@
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
       <c r="U52" s="11" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="V52" s="11" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="W52" s="11"/>
       <c r="X52" s="25"/>
     </row>
     <row r="53" ht="35" customHeight="1" spans="1:24">
       <c r="A53" s="8" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D53" s="11">
         <v>888</v>
@@ -5886,10 +5906,10 @@
         <v>16</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="K53" s="11" t="s">
         <v>51</v>
@@ -5914,13 +5934,13 @@
     </row>
     <row r="54" ht="49.5" spans="1:24">
       <c r="A54" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D54" s="11">
         <v>488</v>
@@ -5938,7 +5958,7 @@
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="10" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K54" s="11" t="s">
         <v>51</v>
@@ -5957,21 +5977,21 @@
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
       <c r="U54" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
       <c r="X54" s="25"/>
     </row>
-    <row r="55" ht="49.5" spans="1:24">
+    <row r="55" ht="66" spans="1:24">
       <c r="A55" s="8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D55" s="11">
         <v>388</v>
@@ -5989,7 +6009,7 @@
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="10" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K55" s="11" t="s">
         <v>51</v>
@@ -6008,23 +6028,23 @@
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
       <c r="U55" s="11" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="V55" s="11" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="W55" s="11"/>
       <c r="X55" s="25"/>
     </row>
     <row r="56" ht="49.5" spans="1:24">
       <c r="A56" s="8" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D56" s="11">
         <v>288</v>
@@ -6042,7 +6062,7 @@
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="10" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K56" s="11" t="s">
         <v>51</v>
@@ -6061,7 +6081,7 @@
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
       <c r="U56" s="11" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="V56" s="11"/>
       <c r="W56" s="11"/>
@@ -6069,13 +6089,13 @@
     </row>
     <row r="57" ht="35" customHeight="1" spans="1:24">
       <c r="A57" s="8" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D57" s="11">
         <v>288</v>
@@ -6092,10 +6112,10 @@
         <v>48</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K57" s="11" t="s">
         <v>51</v>
@@ -6120,13 +6140,13 @@
     </row>
     <row r="58" ht="35" customHeight="1" spans="1:24">
       <c r="A58" s="8" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D58" s="11">
         <v>488</v>
@@ -6144,7 +6164,7 @@
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="10" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K58" s="11" t="s">
         <v>51</v>
@@ -6169,13 +6189,13 @@
     </row>
     <row r="59" ht="35" customHeight="1" spans="1:24">
       <c r="A59" s="8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D59" s="11">
         <v>488</v>
@@ -6193,7 +6213,7 @@
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="10" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="K59" s="11" t="s">
         <v>51</v>
@@ -6218,13 +6238,13 @@
     </row>
     <row r="60" ht="65" customHeight="1" spans="1:24">
       <c r="A60" s="8" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D60" s="11">
         <v>888</v>
@@ -6241,13 +6261,13 @@
         <v>16</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L60" s="11" t="s">
         <v>34</v>
@@ -6257,7 +6277,7 @@
       </c>
       <c r="N60" s="11"/>
       <c r="O60" s="10" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
@@ -6271,13 +6291,13 @@
     </row>
     <row r="61" ht="51.5" customHeight="1" spans="1:24">
       <c r="A61" s="8" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D61" s="11">
         <v>488</v>
@@ -6295,7 +6315,7 @@
       </c>
       <c r="I61" s="11"/>
       <c r="J61" s="10" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K61" s="11" t="s">
         <v>51</v>
@@ -6320,13 +6340,13 @@
     </row>
     <row r="62" ht="49.5" spans="1:24">
       <c r="A62" s="17" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D62" s="20">
         <v>488</v>
@@ -6344,7 +6364,7 @@
       </c>
       <c r="I62" s="20"/>
       <c r="J62" s="19" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="K62" s="20" t="s">
         <v>51</v>
@@ -6363,7 +6383,7 @@
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="V62" s="20"/>
       <c r="W62" s="20"/>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="378">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -948,7 +948,7 @@
     <t>【冰霜之心】</t>
   </si>
   <si>
-    <t>每过10秒，冻结自身半径500码敌人1秒</t>
+    <t>每过%interval%秒，冻结自身半径%root_radius%码敌人%root_duration%秒</t>
   </si>
   <si>
     <t>item_prop/冰霜之心</t>
@@ -978,7 +978,7 @@
     <t>【不休尸王的钢盔】</t>
   </si>
   <si>
-    <t>复活时间减少15%，受到致死打击后还能继续存活6秒</t>
+    <t>复活时间减少%revive_reduct_pct%%%，受到致死打击后还能继续存活%duration%秒</t>
   </si>
   <si>
     <t>6秒内无敌,结束后死亡</t>
@@ -1019,10 +1019,16 @@
     <t>【石中剑】</t>
   </si>
   <si>
-    <t>每击杀100个敌军增加1%攻击力（精英怪算5个敌军，boss算15个）</t>
+    <t>每击杀%need_kills%个敌军增加%ad_pct%%%攻击力（精英怪算5个敌军，boss算15个）</t>
   </si>
   <si>
     <t>item_prop/石中剑</t>
+  </si>
+  <si>
+    <t>need_kills 100</t>
+  </si>
+  <si>
+    <t>ad_pct 1</t>
   </si>
   <si>
     <t>prop_50</t>
@@ -1105,7 +1111,7 @@
     <t>【望远镜】</t>
   </si>
   <si>
-    <t>视野范围增加200码（可购买3次）</t>
+    <t>视野范围增加%VisionRange.Base%码（可购买3次）</t>
   </si>
   <si>
     <t>item_prop/望远镜</t>
@@ -2668,16 +2674,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B6980E18-3C66-4D85-9AB2-B1DF077CAC03}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{D60492A2-FA2A-4214-AEA8-64CCC847642E}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{AE0D11D1-B3E7-4911-9C7C-900D8C5E4D0B}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{20D0BC76-CA16-49C6-81D0-FDC3E8E85DF9}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{0D47593F-F3CD-433A-9341-43B6FACB8152}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F93DF9C9-E68D-4B2B-9248-D314E113CC02}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2689,7 +2695,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{2457E4AC-B732-446E-81AD-2C37A538E75C}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{AEE139DD-C494-4805-96C4-B40746613240}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3000,10 +3006,10 @@
   <sheetPr/>
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C61" sqref="C61"/>
+      <selection pane="topRight" activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5781,7 +5787,7 @@
       <c r="A51" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="12" t="s">
         <v>317</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -5815,8 +5821,12 @@
         <v>38</v>
       </c>
       <c r="N51" s="11"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="11"/>
+      <c r="O51" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="P51" s="11" t="s">
+        <v>321</v>
+      </c>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
@@ -5828,13 +5838,13 @@
     </row>
     <row r="52" ht="49.5" spans="1:24">
       <c r="A52" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D52" s="11">
         <v>488</v>
@@ -5851,10 +5861,10 @@
         <v>32</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K52" s="11" t="s">
         <v>51</v>
@@ -5873,23 +5883,23 @@
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
       <c r="U52" s="11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V52" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="W52" s="11"/>
       <c r="X52" s="25"/>
     </row>
     <row r="53" ht="35" customHeight="1" spans="1:24">
       <c r="A53" s="8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D53" s="11">
         <v>888</v>
@@ -5906,10 +5916,10 @@
         <v>16</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K53" s="11" t="s">
         <v>51</v>
@@ -5934,13 +5944,13 @@
     </row>
     <row r="54" ht="49.5" spans="1:24">
       <c r="A54" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D54" s="11">
         <v>488</v>
@@ -5958,7 +5968,7 @@
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K54" s="11" t="s">
         <v>51</v>
@@ -5985,13 +5995,13 @@
     </row>
     <row r="55" ht="66" spans="1:24">
       <c r="A55" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D55" s="11">
         <v>388</v>
@@ -6009,7 +6019,7 @@
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K55" s="11" t="s">
         <v>51</v>
@@ -6028,23 +6038,23 @@
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
       <c r="U55" s="11" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="V55" s="11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="W55" s="11"/>
       <c r="X55" s="25"/>
     </row>
     <row r="56" ht="49.5" spans="1:24">
       <c r="A56" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D56" s="11">
         <v>288</v>
@@ -6062,7 +6072,7 @@
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K56" s="11" t="s">
         <v>51</v>
@@ -6081,7 +6091,7 @@
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
       <c r="U56" s="11" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="V56" s="11"/>
       <c r="W56" s="11"/>
@@ -6089,13 +6099,13 @@
     </row>
     <row r="57" ht="35" customHeight="1" spans="1:24">
       <c r="A57" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D57" s="11">
         <v>288</v>
@@ -6112,10 +6122,10 @@
         <v>48</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K57" s="11" t="s">
         <v>51</v>
@@ -6140,13 +6150,13 @@
     </row>
     <row r="58" ht="35" customHeight="1" spans="1:24">
       <c r="A58" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D58" s="11">
         <v>488</v>
@@ -6164,7 +6174,7 @@
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K58" s="11" t="s">
         <v>51</v>
@@ -6189,13 +6199,13 @@
     </row>
     <row r="59" ht="35" customHeight="1" spans="1:24">
       <c r="A59" s="8" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D59" s="11">
         <v>488</v>
@@ -6213,7 +6223,7 @@
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K59" s="11" t="s">
         <v>51</v>
@@ -6238,13 +6248,13 @@
     </row>
     <row r="60" ht="65" customHeight="1" spans="1:24">
       <c r="A60" s="8" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D60" s="11">
         <v>888</v>
@@ -6261,13 +6271,13 @@
         <v>16</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L60" s="11" t="s">
         <v>34</v>
@@ -6277,7 +6287,7 @@
       </c>
       <c r="N60" s="11"/>
       <c r="O60" s="10" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
@@ -6291,13 +6301,13 @@
     </row>
     <row r="61" ht="51.5" customHeight="1" spans="1:24">
       <c r="A61" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D61" s="11">
         <v>488</v>
@@ -6315,7 +6325,7 @@
       </c>
       <c r="I61" s="11"/>
       <c r="J61" s="10" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K61" s="11" t="s">
         <v>51</v>
@@ -6340,13 +6350,13 @@
     </row>
     <row r="62" ht="49.5" spans="1:24">
       <c r="A62" s="17" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D62" s="20">
         <v>488</v>
@@ -6364,7 +6374,7 @@
       </c>
       <c r="I62" s="20"/>
       <c r="J62" s="19" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K62" s="20" t="s">
         <v>51</v>
@@ -6383,7 +6393,7 @@
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="V62" s="20"/>
       <c r="W62" s="20"/>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>前置需求物品</t>
   </si>
   <si>
-    <t>每个玩家最大可购数量 0为无限</t>
+    <t>每个玩家最大可购数量</t>
   </si>
   <si>
     <t>出现概率</t>
@@ -2674,16 +2674,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{D60492A2-FA2A-4214-AEA8-64CCC847642E}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{F03309AA-6051-41F9-9049-E0B1D0A570FD}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{20D0BC76-CA16-49C6-81D0-FDC3E8E85DF9}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{925994CD-E9DD-474A-B760-CD9F66D33264}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F93DF9C9-E68D-4B2B-9248-D314E113CC02}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{505CFF3F-8BD4-48A1-A156-34FB28AFE8D1}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2695,7 +2695,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{AEE139DD-C494-4805-96C4-B40746613240}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{180A4171-F419-4812-A468-6E89DAF79447}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3006,10 +3006,8 @@
   <sheetPr/>
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -271,7 +271,18 @@
     <t>【否定信仰】</t>
   </si>
   <si>
-    <t>队伍对有控制状态效果的人额外造成%value%%%伤害</t>
+    <r>
+      <t>队伍对有控制状态效果的敌人提高%value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>眩晕,击飞,冰冻,击退击飞</t>
@@ -307,7 +318,27 @@
     <t>【生人勿进】</t>
   </si>
   <si>
-    <t>对自身%range%码范围内的敌人造成的伤害提升%harm%%%（可购买10次）</t>
+    <r>
+      <t>对自身%range%码范围内的敌人提高%harm%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（可购买10次）</t>
+    </r>
   </si>
   <si>
     <t>item_prop/生人勿进</t>
@@ -331,7 +362,27 @@
     <t>【远有远的好处】</t>
   </si>
   <si>
-    <t>对自身%range%码以外的敌人造成的伤害提升%harm%%%（可购买10次）</t>
+    <r>
+      <t>对自身%range%码以外的敌人提高%harm%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（可购买10次）</t>
+    </r>
   </si>
   <si>
     <t>item_prop/远有远的好处</t>
@@ -410,7 +461,18 @@
     <t>【走钢索】</t>
   </si>
   <si>
-    <t>血量越低伤害越高，最低临界值%heal_pct%%%血量，提高伤害%damage_bonus_max%%%</t>
+    <r>
+      <t>血量越低伤害越高，最低临界值%heal_pct%%%血量，提高%damage_bonus_max%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>item_prop/走钢索</t>
@@ -458,7 +520,18 @@
     <t>【致命及砍到】</t>
   </si>
   <si>
-    <t>对生命值大于%more_than_pct%%%小于%less_than_pct%%%的单位造成的伤害提升%damage_bonus%%%</t>
+    <r>
+      <t>对生命值大于%more_than_pct%%%小于%less_than_pct%%%的单位提高%damage_bonus%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>item_prop/致命及砍到</t>
@@ -496,7 +569,7 @@
     <t>【你的滑板孩】</t>
   </si>
   <si>
-    <t>常驻移动速度%MoveSpeed.BasePercent%%%，但在受到伤害后变为移动速度降低%move_speed_pct%%%持续3秒</t>
+    <t>提高%MoveSpeed.BasePercent%%%的移动速度，但在受到伤害后变为移动速度降低%move_speed_pct%%%持续3秒</t>
   </si>
   <si>
     <t>item_prop/你的滑板孩</t>
@@ -567,7 +640,18 @@
     <t>【无极】</t>
   </si>
   <si>
-    <t>队伍对有负面效果的人额外造成%value%%%伤害</t>
+    <r>
+      <t>队伍对有负面效果的人提高%value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>伤害加深乘区</t>
@@ -582,7 +666,7 @@
     <t>【相位鞋】</t>
   </si>
   <si>
-    <t>移动速度+5%，获得相位状态可穿越单位</t>
+    <t>获得5%的移动速度加成，获得相位状态可穿越单位</t>
   </si>
   <si>
     <t>item_prop/相位鞋</t>
@@ -611,7 +695,27 @@
     <t>【永世法衣】</t>
   </si>
   <si>
-    <t>增加40%技能强度，受到伤害时回复%restore_mana%点法力值（超稀有）</t>
+    <r>
+      <t>增加40%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，受到伤害时回复%restore_mana%点法力值（超稀有）</t>
+    </r>
   </si>
   <si>
     <t>item_prop/永世法衣</t>
@@ -655,7 +759,18 @@
     <t>【指挥官头带】</t>
   </si>
   <si>
-    <t>对精英及boss单位造成伤害提高%CreatureDmgLeader.Base%%%</t>
+    <r>
+      <t>对精英及boss单位提高%CreatureDmgLeader.Base%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>item_prop/指挥官头带</t>
@@ -672,7 +787,7 @@
     <t>【极速护符】</t>
   </si>
   <si>
-    <t>原地不动时，技能急速加成提高%ability_haste_pct%%%,冷却上限提高%cooldown_limit%%%</t>
+    <t>原地不动时，技能急速提高%ability_haste_pct%%%,冷却上限提高%cooldown_limit%%%</t>
   </si>
   <si>
     <t>item_prop/极速护符</t>
@@ -715,7 +830,18 @@
     <t>【秘法球】</t>
   </si>
   <si>
-    <t>技能强度+10%，杀敌回蓝1（可购买10次）</t>
+    <r>
+      <t>技能强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+10%，杀敌回蓝1（可购买10次）</t>
+    </r>
   </si>
   <si>
     <t>item_prop/秘法球</t>
@@ -749,7 +875,18 @@
     <t>【元素亲和力】</t>
   </si>
   <si>
-    <t>全元素伤害+10%（可购买10次）</t>
+    <r>
+      <t>全元素伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+10%（可购买10次）</t>
+    </r>
   </si>
   <si>
     <t>item_prop/元素亲和力</t>
@@ -1019,7 +1156,7 @@
     <t>【石中剑】</t>
   </si>
   <si>
-    <t>每击杀%need_kills%个敌军增加%ad_pct%%%攻击力（精英怪算5个敌军，boss算15个）</t>
+    <t>每击杀%need_kills%个敌军增加%ad_pct%%%的攻击力（精英怪算5个敌军，boss算15个）</t>
   </si>
   <si>
     <t>item_prop/石中剑</t>
@@ -1037,7 +1174,18 @@
     <t>【裁决项链】</t>
   </si>
   <si>
-    <t>最大蓝量减少%MaxMana.MulRegion%%%，但技能伤害+%AbilityImproved.Base%%%</t>
+    <r>
+      <t>最大蓝量减少%MaxMana.MulRegion%%%，但获得%AbilityImproved.Base%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能增强</t>
+    </r>
   </si>
   <si>
     <t>蓝量是独立乘区</t>
@@ -1077,7 +1225,18 @@
     <t>【巨人杀手】</t>
   </si>
   <si>
-    <t>对精英怪和boss造成的伤害提高%CreatureDmgLeader.Base%%%</t>
+    <r>
+      <t>对精英怪和boss提高%CreatureDmgLeader.Base%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>item_prop/巨人杀手</t>
@@ -1089,7 +1248,27 @@
     <t>【矮子杀手】</t>
   </si>
   <si>
-    <t>对敌军造成伤害提高%CreatureDmgNormal.Base%%%，但对精英怪和boss造成伤害降低%CreatureDmgLeader.Base%%%</t>
+    <r>
+      <t>对小怪提高%CreatureDmgNormal.Base%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，但对精英怪和boss造成伤害降低%CreatureDmgLeader.Base%%%</t>
+    </r>
   </si>
   <si>
     <t>item_prop/矮人杀手</t>
@@ -1167,7 +1346,27 @@
     <t>【尸鬼封尽】</t>
   </si>
   <si>
-    <t>随机封印一个技能（完全禁用）同时自身最终伤害提高%FinalDamageMul%%%（可购买3次）如果没有可封印技能则不会提高伤害。慎选！！！</t>
+    <r>
+      <t>随机封印一个技能（完全禁用）同时自身提高%FinalDamageMul%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（可购买3次）如果没有可封印技能则不会提高伤害。慎选！！！</t>
+    </r>
   </si>
   <si>
     <t>禁用已学习的</t>
@@ -1221,7 +1420,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1239,6 +1438,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1426,7 +1631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1908,152 +2113,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2094,6 +2299,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2674,16 +2882,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{F03309AA-6051-41F9-9049-E0B1D0A570FD}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{8AA23739-9C30-4BA0-B706-90DFFB8349EA}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{925994CD-E9DD-474A-B760-CD9F66D33264}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9BA49268-4F72-4285-9872-28ED5588163B}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{505CFF3F-8BD4-48A1-A156-34FB28AFE8D1}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{233C7F7C-BCC7-4D77-AE87-50FD6927402D}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2695,7 +2903,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{180A4171-F419-4812-A468-6E89DAF79447}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{1D733186-1F5A-4DC2-811C-3AC076915EFC}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3006,8 +3214,8 @@
   <sheetPr/>
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3094,7 +3302,7 @@
       </c>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
-      <c r="X1" s="23"/>
+      <c r="X1" s="24"/>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:25">
       <c r="A2" s="5" t="s">
@@ -3137,16 +3345,16 @@
       <c r="N2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="22">
         <v>1</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="23">
         <v>2</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="Q2" s="23">
         <v>3</v>
       </c>
-      <c r="R2" s="22">
+      <c r="R2" s="23">
         <v>4</v>
       </c>
       <c r="S2" s="6" t="s">
@@ -3164,7 +3372,7 @@
       <c r="W2" s="6">
         <v>3</v>
       </c>
-      <c r="X2" s="24">
+      <c r="X2" s="25">
         <v>4</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -3224,7 +3432,7 @@
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
-      <c r="X3" s="25"/>
+      <c r="X3" s="26"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A4" s="8" t="s">
@@ -3279,7 +3487,7 @@
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
-      <c r="X4" s="25"/>
+      <c r="X4" s="26"/>
     </row>
     <row r="5" ht="51.5" customHeight="1" spans="1:24">
       <c r="A5" s="8" t="s">
@@ -3336,7 +3544,7 @@
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
-      <c r="X5" s="25"/>
+      <c r="X5" s="26"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A6" s="8" t="s">
@@ -3390,7 +3598,7 @@
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
-      <c r="X6" s="25"/>
+      <c r="X6" s="26"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A7" s="8" t="s">
@@ -3444,7 +3652,7 @@
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
-      <c r="X7" s="25"/>
+      <c r="X7" s="26"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A8" s="8" t="s">
@@ -3498,7 +3706,7 @@
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
-      <c r="X8" s="25"/>
+      <c r="X8" s="26"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A9" s="8" t="s">
@@ -3552,7 +3760,7 @@
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
-      <c r="X9" s="25"/>
+      <c r="X9" s="26"/>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:24">
       <c r="A10" s="8" t="s">
@@ -3607,7 +3815,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
-      <c r="X10" s="25"/>
+      <c r="X10" s="26"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:24">
       <c r="A11" s="8" t="s">
@@ -3662,7 +3870,7 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
-      <c r="X11" s="25"/>
+      <c r="X11" s="26"/>
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:24">
       <c r="A12" s="8" t="s">
@@ -3717,7 +3925,7 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
-      <c r="X12" s="25"/>
+      <c r="X12" s="26"/>
     </row>
     <row r="13" ht="35" customHeight="1" spans="1:24">
       <c r="A13" s="8" t="s">
@@ -3772,7 +3980,7 @@
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
-      <c r="X13" s="25"/>
+      <c r="X13" s="26"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="66" spans="1:24">
       <c r="A14" s="8" t="s">
@@ -3829,7 +4037,7 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
-      <c r="X14" s="25"/>
+      <c r="X14" s="26"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A15" s="8" t="s">
@@ -3884,7 +4092,7 @@
         <v>115</v>
       </c>
       <c r="W15" s="11"/>
-      <c r="X15" s="25"/>
+      <c r="X15" s="26"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:24">
       <c r="A16" s="8" t="s">
@@ -3937,9 +4145,9 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
-      <c r="X16" s="25"/>
+      <c r="X16" s="26"/>
     </row>
-    <row r="17" ht="35" customHeight="1" spans="1:24">
+    <row r="17" ht="49.5" spans="1:24">
       <c r="A17" s="8" t="s">
         <v>122</v>
       </c>
@@ -3992,7 +4200,7 @@
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
-      <c r="X17" s="25"/>
+      <c r="X17" s="26"/>
     </row>
     <row r="18" ht="35" customHeight="1" spans="1:24">
       <c r="A18" s="8" t="s">
@@ -4045,7 +4253,7 @@
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
-      <c r="X18" s="25"/>
+      <c r="X18" s="26"/>
     </row>
     <row r="19" ht="18.5" customHeight="1" spans="1:24">
       <c r="A19" s="8" t="s">
@@ -4098,7 +4306,7 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
-      <c r="X19" s="25"/>
+      <c r="X19" s="26"/>
     </row>
     <row r="20" ht="49.5" spans="1:24">
       <c r="A20" s="8" t="s">
@@ -4155,7 +4363,7 @@
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
-      <c r="X20" s="25"/>
+      <c r="X20" s="26"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="68" customHeight="1" spans="1:24">
       <c r="A21" s="8" t="s">
@@ -4208,9 +4416,9 @@
         <v>149</v>
       </c>
       <c r="W21" s="11"/>
-      <c r="X21" s="25"/>
+      <c r="X21" s="26"/>
     </row>
-    <row r="22" ht="35" customHeight="1" spans="1:24">
+    <row r="22" ht="49.5" spans="1:24">
       <c r="A22" s="8" t="s">
         <v>150</v>
       </c>
@@ -4265,7 +4473,7 @@
       </c>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
-      <c r="X22" s="25"/>
+      <c r="X22" s="26"/>
     </row>
     <row r="23" ht="35" customHeight="1" spans="1:24">
       <c r="A23" s="8" t="s">
@@ -4320,9 +4528,9 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
-      <c r="X23" s="25"/>
+      <c r="X23" s="26"/>
     </row>
-    <row r="24" ht="35" customHeight="1" spans="1:24">
+    <row r="24" ht="49.5" spans="1:24">
       <c r="A24" s="8" t="s">
         <v>162</v>
       </c>
@@ -4375,7 +4583,7 @@
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
-      <c r="X24" s="25"/>
+      <c r="X24" s="26"/>
     </row>
     <row r="25" ht="35" customHeight="1" spans="1:24">
       <c r="A25" s="8" t="s">
@@ -4430,7 +4638,7 @@
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
-      <c r="X25" s="25"/>
+      <c r="X25" s="26"/>
     </row>
     <row r="26" ht="35" customHeight="1" spans="1:24">
       <c r="A26" s="8" t="s">
@@ -4485,7 +4693,7 @@
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
-      <c r="X26" s="25"/>
+      <c r="X26" s="26"/>
     </row>
     <row r="27" ht="49.5" spans="1:24">
       <c r="A27" s="8" t="s">
@@ -4538,7 +4746,7 @@
       </c>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
-      <c r="X27" s="25"/>
+      <c r="X27" s="26"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:24">
       <c r="A28" s="8" t="s">
@@ -4589,7 +4797,7 @@
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
-      <c r="X28" s="25"/>
+      <c r="X28" s="26"/>
     </row>
     <row r="29" ht="49.5" spans="1:24">
       <c r="A29" s="8" t="s">
@@ -4644,7 +4852,7 @@
       </c>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
-      <c r="X29" s="25"/>
+      <c r="X29" s="26"/>
     </row>
     <row r="30" ht="51.5" customHeight="1" spans="1:24">
       <c r="A30" s="8" t="s">
@@ -4699,7 +4907,7 @@
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
-      <c r="X30" s="25"/>
+      <c r="X30" s="26"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A31" s="8" t="s">
@@ -4752,7 +4960,7 @@
       </c>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
-      <c r="X31" s="25"/>
+      <c r="X31" s="26"/>
     </row>
     <row r="32" ht="35" customHeight="1" spans="1:24">
       <c r="A32" s="8" t="s">
@@ -4807,7 +5015,7 @@
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
-      <c r="X32" s="25"/>
+      <c r="X32" s="26"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A33" s="8" t="s">
@@ -4864,7 +5072,7 @@
         <v>218</v>
       </c>
       <c r="W33" s="11"/>
-      <c r="X33" s="25"/>
+      <c r="X33" s="26"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A34" s="8" t="s">
@@ -4873,7 +5081,7 @@
       <c r="B34" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="14" t="s">
         <v>221</v>
       </c>
       <c r="D34" s="11">
@@ -4919,7 +5127,7 @@
         <v>223</v>
       </c>
       <c r="W34" s="11"/>
-      <c r="X34" s="25"/>
+      <c r="X34" s="26"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A35" s="8" t="s">
@@ -4972,7 +5180,7 @@
       </c>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
-      <c r="X35" s="25"/>
+      <c r="X35" s="26"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A36" s="8" t="s">
@@ -4981,7 +5189,7 @@
       <c r="B36" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="14" t="s">
         <v>231</v>
       </c>
       <c r="D36" s="11">
@@ -5025,7 +5233,7 @@
       </c>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
-      <c r="X36" s="25"/>
+      <c r="X36" s="26"/>
     </row>
     <row r="37" ht="35" customHeight="1" spans="1:24">
       <c r="A37" s="8" t="s">
@@ -5078,7 +5286,7 @@
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
-      <c r="X37" s="25"/>
+      <c r="X37" s="26"/>
     </row>
     <row r="38" ht="51.5" customHeight="1" spans="1:24">
       <c r="A38" s="8" t="s">
@@ -5131,7 +5339,7 @@
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
       <c r="W38" s="11"/>
-      <c r="X38" s="25"/>
+      <c r="X38" s="26"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="49.5" spans="1:24">
       <c r="A39" s="8" t="s">
@@ -5186,7 +5394,7 @@
       </c>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
-      <c r="X39" s="25"/>
+      <c r="X39" s="26"/>
     </row>
     <row r="40" ht="18.5" customHeight="1" spans="1:24">
       <c r="A40" s="8" t="s">
@@ -5241,7 +5449,7 @@
       <c r="U40" s="11"/>
       <c r="V40" s="11"/>
       <c r="W40" s="11"/>
-      <c r="X40" s="25"/>
+      <c r="X40" s="26"/>
     </row>
     <row r="41" ht="35" customHeight="1" spans="1:24">
       <c r="A41" s="8" t="s">
@@ -5296,7 +5504,7 @@
       <c r="U41" s="11"/>
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
-      <c r="X41" s="25"/>
+      <c r="X41" s="26"/>
     </row>
     <row r="42" ht="18.5" customHeight="1" spans="1:24">
       <c r="A42" s="8" t="s">
@@ -5351,13 +5559,13 @@
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
-      <c r="X42" s="25"/>
+      <c r="X42" s="26"/>
     </row>
     <row r="43" ht="35" customHeight="1" spans="1:24">
       <c r="A43" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="15" t="s">
         <v>270</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -5404,7 +5612,7 @@
       <c r="U43" s="11"/>
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
-      <c r="X43" s="25"/>
+      <c r="X43" s="26"/>
     </row>
     <row r="44" ht="115.5" spans="1:24">
       <c r="A44" s="8" t="s">
@@ -5463,7 +5671,7 @@
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
-      <c r="X44" s="25"/>
+      <c r="X44" s="26"/>
     </row>
     <row r="45" ht="49.5" spans="1:24">
       <c r="A45" s="8" t="s">
@@ -5516,7 +5724,7 @@
       </c>
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
-      <c r="X45" s="25"/>
+      <c r="X45" s="26"/>
     </row>
     <row r="46" ht="18.5" customHeight="1" spans="1:24">
       <c r="A46" s="8" t="s">
@@ -5565,7 +5773,7 @@
       <c r="U46" s="11"/>
       <c r="V46" s="11"/>
       <c r="W46" s="11"/>
-      <c r="X46" s="25"/>
+      <c r="X46" s="26"/>
     </row>
     <row r="47" ht="18.5" customHeight="1" spans="1:24">
       <c r="A47" s="8" t="s">
@@ -5620,7 +5828,7 @@
       <c r="U47" s="11"/>
       <c r="V47" s="11"/>
       <c r="W47" s="11"/>
-      <c r="X47" s="25"/>
+      <c r="X47" s="26"/>
     </row>
     <row r="48" ht="18.5" customHeight="1" spans="1:24">
       <c r="A48" s="8" t="s">
@@ -5671,16 +5879,16 @@
       <c r="U48" s="11"/>
       <c r="V48" s="11"/>
       <c r="W48" s="11"/>
-      <c r="X48" s="25"/>
+      <c r="X48" s="26"/>
     </row>
     <row r="49" ht="35" customHeight="1" spans="1:24">
       <c r="A49" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="16" t="s">
         <v>305</v>
       </c>
       <c r="D49" s="11">
@@ -5726,7 +5934,7 @@
       <c r="U49" s="11"/>
       <c r="V49" s="11"/>
       <c r="W49" s="11"/>
-      <c r="X49" s="25"/>
+      <c r="X49" s="26"/>
     </row>
     <row r="50" ht="49.5" spans="1:24">
       <c r="A50" s="8" t="s">
@@ -5779,7 +5987,7 @@
       </c>
       <c r="V50" s="11"/>
       <c r="W50" s="11"/>
-      <c r="X50" s="25"/>
+      <c r="X50" s="26"/>
     </row>
     <row r="51" ht="35" customHeight="1" spans="1:24">
       <c r="A51" s="8" t="s">
@@ -5832,7 +6040,7 @@
       <c r="U51" s="11"/>
       <c r="V51" s="11"/>
       <c r="W51" s="11"/>
-      <c r="X51" s="25"/>
+      <c r="X51" s="26"/>
     </row>
     <row r="52" ht="49.5" spans="1:24">
       <c r="A52" s="8" t="s">
@@ -5887,13 +6095,13 @@
         <v>328</v>
       </c>
       <c r="W52" s="11"/>
-      <c r="X52" s="25"/>
+      <c r="X52" s="26"/>
     </row>
     <row r="53" ht="35" customHeight="1" spans="1:24">
       <c r="A53" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="15" t="s">
         <v>330</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -5938,7 +6146,7 @@
       <c r="U53" s="11"/>
       <c r="V53" s="11"/>
       <c r="W53" s="11"/>
-      <c r="X53" s="25"/>
+      <c r="X53" s="26"/>
     </row>
     <row r="54" ht="49.5" spans="1:24">
       <c r="A54" s="8" t="s">
@@ -5989,7 +6197,7 @@
       </c>
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
-      <c r="X54" s="25"/>
+      <c r="X54" s="26"/>
     </row>
     <row r="55" ht="66" spans="1:24">
       <c r="A55" s="8" t="s">
@@ -6042,7 +6250,7 @@
         <v>343</v>
       </c>
       <c r="W55" s="11"/>
-      <c r="X55" s="25"/>
+      <c r="X55" s="26"/>
     </row>
     <row r="56" ht="49.5" spans="1:24">
       <c r="A56" s="8" t="s">
@@ -6093,13 +6301,13 @@
       </c>
       <c r="V56" s="11"/>
       <c r="W56" s="11"/>
-      <c r="X56" s="25"/>
+      <c r="X56" s="26"/>
     </row>
     <row r="57" ht="35" customHeight="1" spans="1:24">
       <c r="A57" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="15" t="s">
         <v>350</v>
       </c>
       <c r="C57" s="10" t="s">
@@ -6144,13 +6352,13 @@
       <c r="U57" s="11"/>
       <c r="V57" s="11"/>
       <c r="W57" s="11"/>
-      <c r="X57" s="25"/>
+      <c r="X57" s="26"/>
     </row>
     <row r="58" ht="35" customHeight="1" spans="1:24">
       <c r="A58" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="15" t="s">
         <v>355</v>
       </c>
       <c r="C58" s="10" t="s">
@@ -6193,13 +6401,13 @@
       <c r="U58" s="11"/>
       <c r="V58" s="11"/>
       <c r="W58" s="11"/>
-      <c r="X58" s="25"/>
+      <c r="X58" s="26"/>
     </row>
     <row r="59" ht="35" customHeight="1" spans="1:24">
       <c r="A59" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="15" t="s">
         <v>359</v>
       </c>
       <c r="C59" s="10" t="s">
@@ -6242,7 +6450,7 @@
       <c r="U59" s="11"/>
       <c r="V59" s="11"/>
       <c r="W59" s="11"/>
-      <c r="X59" s="25"/>
+      <c r="X59" s="26"/>
     </row>
     <row r="60" ht="65" customHeight="1" spans="1:24">
       <c r="A60" s="8" t="s">
@@ -6251,7 +6459,7 @@
       <c r="B60" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="17" t="s">
         <v>364</v>
       </c>
       <c r="D60" s="11">
@@ -6295,13 +6503,13 @@
       <c r="U60" s="11"/>
       <c r="V60" s="11"/>
       <c r="W60" s="11"/>
-      <c r="X60" s="25"/>
+      <c r="X60" s="26"/>
     </row>
     <row r="61" ht="51.5" customHeight="1" spans="1:24">
       <c r="A61" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="15" t="s">
         <v>370</v>
       </c>
       <c r="C61" s="10" t="s">
@@ -6344,58 +6552,58 @@
       <c r="U61" s="11"/>
       <c r="V61" s="11"/>
       <c r="W61" s="11"/>
-      <c r="X61" s="25"/>
+      <c r="X61" s="26"/>
     </row>
     <row r="62" ht="49.5" spans="1:24">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="21">
         <v>488</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E62" s="21">
         <v>5</v>
       </c>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20">
+      <c r="F62" s="21"/>
+      <c r="G62" s="21">
         <v>1</v>
       </c>
       <c r="H62" s="11">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I62" s="20"/>
-      <c r="J62" s="19" t="s">
+      <c r="I62" s="21"/>
+      <c r="J62" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="K62" s="20" t="s">
+      <c r="K62" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="L62" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="M62" s="20" t="s">
+      <c r="L62" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M62" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="N62" s="20"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
-      <c r="T62" s="20"/>
-      <c r="U62" s="20" t="s">
+      <c r="N62" s="21"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="V62" s="20"/>
-      <c r="W62" s="20"/>
-      <c r="X62" s="26"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
+      <c r="X62" s="27"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="J1:J62" etc:filterBottomFollowUsedRange="0">

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="380">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>队伍对有控制状态效果的敌人提高%value%%%的</t>
     </r>
     <r>
@@ -319,6 +325,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>对自身%range%码范围内的敌人提高%harm%%%的</t>
     </r>
     <r>
@@ -363,6 +375,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>对自身%range%码以外的敌人提高%harm%%%的</t>
     </r>
     <r>
@@ -462,6 +480,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>血量越低伤害越高，最低临界值%heal_pct%%%血量，提高%damage_bonus_max%%%的</t>
     </r>
     <r>
@@ -521,6 +545,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>对生命值大于%more_than_pct%%%小于%less_than_pct%%%的单位提高%damage_bonus%%%的</t>
     </r>
     <r>
@@ -641,6 +671,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>队伍对有负面效果的人提高%value%%%的</t>
     </r>
     <r>
@@ -696,6 +732,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>增加40%的</t>
     </r>
     <r>
@@ -760,6 +802,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>对精英及boss单位提高%CreatureDmgLeader.Base%%%的</t>
     </r>
     <r>
@@ -831,6 +879,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>技能强度</t>
     </r>
     <r>
@@ -876,6 +930,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>全元素伤害</t>
     </r>
     <r>
@@ -1010,13 +1070,19 @@
     <t>【神秘齿轮】</t>
   </si>
   <si>
-    <t>每60秒转动一次，每次获得随机效果，持续10秒</t>
+    <t>每%interval%秒转动一次，每次获得随机效果，持续%duration%秒</t>
   </si>
   <si>
     <t>见文件表</t>
   </si>
   <si>
     <t>item_prop/神秘齿轮</t>
+  </si>
+  <si>
+    <t>interval 60</t>
+  </si>
+  <si>
+    <t>duration 10</t>
   </si>
   <si>
     <t>prop_42</t>
@@ -1175,6 +1241,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>最大蓝量减少%MaxMana.MulRegion%%%，但获得%AbilityImproved.Base%%%的</t>
     </r>
     <r>
@@ -1226,6 +1298,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>对精英怪和boss提高%CreatureDmgLeader.Base%%%的</t>
     </r>
     <r>
@@ -1249,6 +1327,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>对小怪提高%CreatureDmgNormal.Base%%%的</t>
     </r>
     <r>
@@ -1347,6 +1431,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>随机封印一个技能（完全禁用）同时自身提高%FinalDamageMul%%%的</t>
     </r>
     <r>
@@ -2882,16 +2972,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{8AA23739-9C30-4BA0-B706-90DFFB8349EA}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{06158952-F69B-49BB-B42C-DD173FB40E00}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9BA49268-4F72-4285-9872-28ED5588163B}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{16AD7BF6-27B0-4FD4-94EC-7581B831DA52}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{233C7F7C-BCC7-4D77-AE87-50FD6927402D}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{955A91E6-DF7A-4B6F-80B6-C70C06027F7C}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2903,7 +2993,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{1D733186-1F5A-4DC2-811C-3AC076915EFC}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{AE307530-56D3-4DB9-8EAB-06B9871887B8}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3214,8 +3304,8 @@
   <sheetPr/>
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5603,8 +5693,12 @@
         <v>38</v>
       </c>
       <c r="N43" s="11"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="11"/>
+      <c r="O43" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>275</v>
+      </c>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
@@ -5616,13 +5710,13 @@
     </row>
     <row r="44" ht="115.5" spans="1:24">
       <c r="A44" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D44" s="11">
         <v>888</v>
@@ -5642,7 +5736,7 @@
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K44" s="11" t="s">
         <v>51</v>
@@ -5655,16 +5749,16 @@
       </c>
       <c r="N44" s="11"/>
       <c r="O44" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="R44" s="11" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
@@ -5675,13 +5769,13 @@
     </row>
     <row r="45" ht="49.5" spans="1:24">
       <c r="A45" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D45" s="11">
         <v>488</v>
@@ -5699,7 +5793,7 @@
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K45" s="11" t="s">
         <v>51</v>
@@ -5712,7 +5806,7 @@
       </c>
       <c r="N45" s="11"/>
       <c r="O45" s="10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
@@ -5720,7 +5814,7 @@
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
       <c r="U45" s="11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
@@ -5728,13 +5822,13 @@
     </row>
     <row r="46" ht="18.5" customHeight="1" spans="1:24">
       <c r="A46" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D46" s="11">
         <v>488</v>
@@ -5752,10 +5846,10 @@
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L46" s="11" t="s">
         <v>34</v>
@@ -5777,13 +5871,13 @@
     </row>
     <row r="47" ht="18.5" customHeight="1" spans="1:24">
       <c r="A47" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D47" s="11">
         <v>888</v>
@@ -5801,7 +5895,7 @@
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K47" s="11" t="s">
         <v>51</v>
@@ -5814,13 +5908,13 @@
       </c>
       <c r="N47" s="11"/>
       <c r="O47" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P47" s="11" t="s">
         <v>256</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
@@ -5832,13 +5926,13 @@
     </row>
     <row r="48" ht="18.5" customHeight="1" spans="1:24">
       <c r="A48" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D48" s="11">
         <v>488</v>
@@ -5855,10 +5949,10 @@
         <v>32</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K48" s="11" t="s">
         <v>51</v>
@@ -5883,13 +5977,13 @@
     </row>
     <row r="49" ht="35" customHeight="1" spans="1:24">
       <c r="A49" s="8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D49" s="11">
         <v>888</v>
@@ -5906,10 +6000,10 @@
         <v>16</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>51</v>
@@ -5922,10 +6016,10 @@
       </c>
       <c r="N49" s="11"/>
       <c r="O49" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
@@ -5938,13 +6032,13 @@
     </row>
     <row r="50" ht="49.5" spans="1:24">
       <c r="A50" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D50" s="11">
         <v>888</v>
@@ -5961,10 +6055,10 @@
         <v>16</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>51</v>
@@ -5983,7 +6077,7 @@
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
       <c r="U50" s="11" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="V50" s="11"/>
       <c r="W50" s="11"/>
@@ -5991,13 +6085,13 @@
     </row>
     <row r="51" ht="35" customHeight="1" spans="1:24">
       <c r="A51" s="8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D51" s="11">
         <v>888</v>
@@ -6015,7 +6109,7 @@
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K51" s="11" t="s">
         <v>51</v>
@@ -6028,10 +6122,10 @@
       </c>
       <c r="N51" s="11"/>
       <c r="O51" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P51" s="11" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
@@ -6044,13 +6138,13 @@
     </row>
     <row r="52" ht="49.5" spans="1:24">
       <c r="A52" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D52" s="11">
         <v>488</v>
@@ -6067,10 +6161,10 @@
         <v>32</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K52" s="11" t="s">
         <v>51</v>
@@ -6089,23 +6183,23 @@
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
       <c r="U52" s="11" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="V52" s="11" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="W52" s="11"/>
       <c r="X52" s="26"/>
     </row>
     <row r="53" ht="35" customHeight="1" spans="1:24">
       <c r="A53" s="8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D53" s="11">
         <v>888</v>
@@ -6122,10 +6216,10 @@
         <v>16</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K53" s="11" t="s">
         <v>51</v>
@@ -6150,13 +6244,13 @@
     </row>
     <row r="54" ht="49.5" spans="1:24">
       <c r="A54" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D54" s="11">
         <v>488</v>
@@ -6174,7 +6268,7 @@
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K54" s="11" t="s">
         <v>51</v>
@@ -6201,13 +6295,13 @@
     </row>
     <row r="55" ht="66" spans="1:24">
       <c r="A55" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D55" s="11">
         <v>388</v>
@@ -6225,7 +6319,7 @@
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K55" s="11" t="s">
         <v>51</v>
@@ -6244,23 +6338,23 @@
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
       <c r="U55" s="11" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="V55" s="11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="W55" s="11"/>
       <c r="X55" s="26"/>
     </row>
     <row r="56" ht="49.5" spans="1:24">
       <c r="A56" s="8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D56" s="11">
         <v>288</v>
@@ -6278,7 +6372,7 @@
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K56" s="11" t="s">
         <v>51</v>
@@ -6297,7 +6391,7 @@
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
       <c r="U56" s="11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="V56" s="11"/>
       <c r="W56" s="11"/>
@@ -6305,13 +6399,13 @@
     </row>
     <row r="57" ht="35" customHeight="1" spans="1:24">
       <c r="A57" s="8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D57" s="11">
         <v>288</v>
@@ -6328,10 +6422,10 @@
         <v>48</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K57" s="11" t="s">
         <v>51</v>
@@ -6356,13 +6450,13 @@
     </row>
     <row r="58" ht="35" customHeight="1" spans="1:24">
       <c r="A58" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D58" s="11">
         <v>488</v>
@@ -6380,7 +6474,7 @@
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K58" s="11" t="s">
         <v>51</v>
@@ -6405,13 +6499,13 @@
     </row>
     <row r="59" ht="35" customHeight="1" spans="1:24">
       <c r="A59" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D59" s="11">
         <v>488</v>
@@ -6429,7 +6523,7 @@
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K59" s="11" t="s">
         <v>51</v>
@@ -6454,13 +6548,13 @@
     </row>
     <row r="60" ht="65" customHeight="1" spans="1:24">
       <c r="A60" s="8" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D60" s="11">
         <v>888</v>
@@ -6477,13 +6571,13 @@
         <v>16</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L60" s="11" t="s">
         <v>34</v>
@@ -6493,7 +6587,7 @@
       </c>
       <c r="N60" s="11"/>
       <c r="O60" s="10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
@@ -6507,13 +6601,13 @@
     </row>
     <row r="61" ht="51.5" customHeight="1" spans="1:24">
       <c r="A61" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D61" s="11">
         <v>488</v>
@@ -6531,7 +6625,7 @@
       </c>
       <c r="I61" s="11"/>
       <c r="J61" s="10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K61" s="11" t="s">
         <v>51</v>
@@ -6556,13 +6650,13 @@
     </row>
     <row r="62" ht="49.5" spans="1:24">
       <c r="A62" s="18" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D62" s="21">
         <v>488</v>
@@ -6580,7 +6674,7 @@
       </c>
       <c r="I62" s="21"/>
       <c r="J62" s="20" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K62" s="21" t="s">
         <v>51</v>
@@ -6599,7 +6693,7 @@
       <c r="S62" s="21"/>
       <c r="T62" s="21"/>
       <c r="U62" s="21" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="V62" s="21"/>
       <c r="W62" s="21"/>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="441">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -122,6 +122,12 @@
     <t>pre_item</t>
   </si>
   <si>
+    <t>star_start_pro</t>
+  </si>
+  <si>
+    <t>start_rarity_pro</t>
+  </si>
+  <si>
     <t>buy_count_max</t>
   </si>
   <si>
@@ -149,6 +155,12 @@
     <t>ObjectValues[{]</t>
   </si>
   <si>
+    <t>star_attr_pro</t>
+  </si>
+  <si>
+    <t>star_soul</t>
+  </si>
+  <si>
     <t>prop_1</t>
   </si>
   <si>
@@ -182,7 +194,7 @@
     <t>value 5 10 15 25 50</t>
   </si>
   <si>
-    <t>null|null</t>
+    <t>100|200|300|500|1000</t>
   </si>
   <si>
     <t>100|200|300|400|500</t>
@@ -206,9 +218,6 @@
     <t>SoulGetRate {
 "Base" "25"
 }</t>
-  </si>
-  <si>
-    <t>100|200|300|500|1000</t>
   </si>
   <si>
     <t>prop_3</t>
@@ -360,6 +369,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>对自身%range%码范围内的敌人提高%harm%%%的</t>
     </r>
     <r>
@@ -834,6 +849,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>对精英及boss单位提高%CreatureDmgLeader.Base%%%的</t>
     </r>
     <r>
@@ -905,6 +926,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>技能强度</t>
     </r>
     <r>
@@ -950,6 +977,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>全元素伤害</t>
     </r>
     <r>
@@ -1346,6 +1379,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>对小怪提高%CreatureDmgNormal.Base%%%的</t>
     </r>
     <r>
@@ -1848,7 +1887,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1870,12 +1909,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2396,7 +2429,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2420,16 +2453,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2438,89 +2471,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2551,19 +2584,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2572,13 +2605,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2587,19 +2620,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2617,13 +2650,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3171,16 +3201,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{42C1F255-1698-4D1C-8B5B-321E75A85FD9}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{1E4E913C-A3E8-4936-995F-DAFED1CBF641}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{32897B25-2850-451D-8EC5-0F47B791B22F}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2CEEBECB-805B-4F30-9DB8-C4612794AB4C}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{0DA29643-8F6B-4F9D-B00E-D49F7100EF42}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B7681D2D-791E-4B42-BDFE-82E8B72B7CA9}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3192,7 +3222,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{AF5F6F00-839D-456A-95EC-83FC277D4120}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{4EF4B569-1F88-4227-AA45-F358BF39FA43}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3503,10 +3533,10 @@
   <sheetPr/>
   <dimension ref="A1:AD74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A78" sqref="A78"/>
+      <selection pane="topRight" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3608,14 +3638,14 @@
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
       <c r="AA1" s="31"/>
-      <c r="AC1" s="32" t="s">
+      <c r="AC1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="32" t="s">
+      <c r="AD1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="18.5" customHeight="1" spans="1:28">
+    <row r="2" ht="18.5" customHeight="1" spans="1:30">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
@@ -3637,29 +3667,33 @@
       <c r="G2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="J2" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="29">
         <v>1</v>
@@ -3674,10 +3708,10 @@
         <v>4</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X2" s="8">
         <v>1</v>
@@ -3688,22 +3722,28 @@
       <c r="Z2" s="8">
         <v>3</v>
       </c>
-      <c r="AA2" s="33">
+      <c r="AA2" s="32">
         <v>4</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A3" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D3" s="11">
         <v>2</v>
@@ -3715,13 +3755,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J3" s="11">
         <v>5</v>
@@ -3731,23 +3771,23 @@
         <v>96|96|96|96|96|96</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="11"/>
       <c r="R3" s="12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
@@ -3757,23 +3797,23 @@
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
-      <c r="AA3" s="34"/>
+      <c r="AA3" s="33"/>
       <c r="AC3" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A4" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D4" s="16">
         <v>2</v>
@@ -3785,13 +3825,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J4" s="16">
         <v>5</v>
@@ -3802,16 +3842,16 @@
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="16"/>
       <c r="R4" s="15"/>
@@ -3821,27 +3861,27 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
       <c r="X4" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
-      <c r="AA4" s="35"/>
+      <c r="AA4" s="34"/>
       <c r="AC4" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" ht="51.5" customHeight="1" spans="1:30">
       <c r="A5" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D5" s="16">
         <v>1</v>
@@ -3853,13 +3893,13 @@
         <v>4</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J5" s="16">
         <v>1</v>
@@ -3870,50 +3910,50 @@
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="16"/>
       <c r="R5" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
       <c r="X5" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
-      <c r="AA5" s="35"/>
+      <c r="AA5" s="34"/>
       <c r="AC5" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A6" s="13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D6" s="16">
         <v>1</v>
@@ -3925,13 +3965,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J6" s="16">
         <v>1</v>
@@ -3942,23 +3982,23 @@
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="16"/>
       <c r="R6" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
@@ -3967,23 +4007,23 @@
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
-      <c r="AA6" s="35"/>
+      <c r="AA6" s="34"/>
       <c r="AC6" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A7" s="13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D7" s="16">
         <v>1</v>
@@ -3995,13 +4035,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J7" s="16">
         <v>1</v>
@@ -4012,23 +4052,23 @@
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="16"/>
       <c r="R7" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
@@ -4037,23 +4077,23 @@
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
-      <c r="AA7" s="35"/>
+      <c r="AA7" s="34"/>
       <c r="AC7" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A8" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D8" s="16">
         <v>1</v>
@@ -4065,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J8" s="16">
         <v>1</v>
@@ -4082,23 +4122,23 @@
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="16"/>
       <c r="R8" s="15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
@@ -4107,23 +4147,23 @@
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
-      <c r="AA8" s="35"/>
+      <c r="AA8" s="34"/>
       <c r="AC8" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A9" s="13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D9" s="16">
         <v>1</v>
@@ -4135,13 +4175,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J9" s="16">
         <v>1</v>
@@ -4152,23 +4192,23 @@
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="16"/>
       <c r="R9" s="15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
@@ -4177,23 +4217,23 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
-      <c r="AA9" s="35"/>
+      <c r="AA9" s="34"/>
       <c r="AC9" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:30">
       <c r="A10" s="13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D10" s="16">
         <v>1</v>
@@ -4205,13 +4245,13 @@
         <v>5</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J10" s="16">
         <v>1</v>
@@ -4221,23 +4261,23 @@
         <v>32|48|64|80|96|80</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N10" s="16">
         <v>1</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
@@ -4247,23 +4287,23 @@
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
-      <c r="AA10" s="35"/>
+      <c r="AA10" s="34"/>
       <c r="AC10" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A11" s="13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D11" s="16">
         <v>1</v>
@@ -4275,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J11" s="16">
         <v>1</v>
@@ -4291,23 +4331,23 @@
         <v>0|0|0|0|0|0</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="16"/>
       <c r="R11" s="15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
@@ -4317,23 +4357,23 @@
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
-      <c r="AA11" s="35"/>
+      <c r="AA11" s="34"/>
       <c r="AC11" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:30">
       <c r="A12" s="13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D12" s="16">
         <v>2</v>
@@ -4345,13 +4385,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J12" s="16">
         <v>5</v>
@@ -4362,23 +4402,23 @@
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="16"/>
       <c r="R12" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
@@ -4387,23 +4427,23 @@
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
-      <c r="AA12" s="35"/>
+      <c r="AA12" s="34"/>
       <c r="AC12" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" ht="35" customHeight="1" spans="1:30">
       <c r="A13" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D13" s="16">
         <v>2</v>
@@ -4415,13 +4455,13 @@
         <v>1</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J13" s="16">
         <v>5</v>
@@ -4432,23 +4472,23 @@
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="16"/>
       <c r="R13" s="15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="S13" s="16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
@@ -4457,23 +4497,23 @@
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
-      <c r="AA13" s="35"/>
+      <c r="AA13" s="34"/>
       <c r="AC13" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="66" spans="1:30">
       <c r="A14" s="13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D14" s="16">
         <v>1</v>
@@ -4485,13 +4525,13 @@
         <v>4</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J14" s="16">
         <v>1</v>
@@ -4502,26 +4542,26 @@
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N14" s="16">
         <v>1</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="16"/>
       <c r="R14" s="15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
@@ -4529,23 +4569,23 @@
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
-      <c r="AA14" s="35"/>
+      <c r="AA14" s="34"/>
       <c r="AC14" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="49.5" spans="1:30">
       <c r="A15" s="13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D15" s="16">
         <v>1</v>
@@ -4557,13 +4597,13 @@
         <v>4</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J15" s="16">
         <v>1</v>
@@ -4574,16 +4614,16 @@
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="16"/>
       <c r="R15" s="15"/>
@@ -4593,29 +4633,29 @@
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
       <c r="X15" s="16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y15" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z15" s="16"/>
-      <c r="AA15" s="35"/>
+      <c r="AA15" s="34"/>
       <c r="AC15" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:30">
       <c r="A16" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D16" s="16">
         <v>1</v>
@@ -4627,13 +4667,13 @@
         <v>6</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J16" s="16">
         <v>1</v>
@@ -4644,20 +4684,20 @@
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P16" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="16"/>
       <c r="R16" s="15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="S16" s="16"/>
       <c r="T16" s="16"/>
@@ -4667,23 +4707,23 @@
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
-      <c r="AA16" s="35"/>
+      <c r="AA16" s="34"/>
       <c r="AC16" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="49.5" spans="1:30">
       <c r="A17" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
@@ -4695,13 +4735,13 @@
         <v>4</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J17" s="16">
         <v>1</v>
@@ -4712,23 +4752,23 @@
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="16"/>
       <c r="R17" s="15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
@@ -4737,23 +4777,23 @@
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
-      <c r="AA17" s="35"/>
+      <c r="AA17" s="34"/>
       <c r="AC17" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="35" customHeight="1" spans="1:30">
       <c r="A18" s="13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D18" s="16">
         <v>1</v>
@@ -4765,13 +4805,13 @@
         <v>6</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J18" s="16">
         <v>1</v>
@@ -4782,20 +4822,20 @@
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N18" s="16">
         <v>1</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="16"/>
       <c r="R18" s="15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
@@ -4805,23 +4845,23 @@
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
-      <c r="AA18" s="35"/>
+      <c r="AA18" s="34"/>
       <c r="AC18" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" ht="18.5" customHeight="1" spans="1:30">
       <c r="A19" s="13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D19" s="16">
         <v>1</v>
@@ -4833,13 +4873,13 @@
         <v>3</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J19" s="16">
         <v>1</v>
@@ -4850,20 +4890,20 @@
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N19" s="16">
         <v>1</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="16"/>
       <c r="R19" s="15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="S19" s="16"/>
       <c r="T19" s="16"/>
@@ -4873,23 +4913,23 @@
       <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
       <c r="Z19" s="16"/>
-      <c r="AA19" s="35"/>
+      <c r="AA19" s="34"/>
       <c r="AC19" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" ht="49.5" spans="1:30">
       <c r="A20" s="13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D20" s="16">
         <v>1</v>
@@ -4901,13 +4941,13 @@
         <v>4</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J20" s="16">
         <v>1</v>
@@ -4918,26 +4958,26 @@
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N20" s="16">
         <v>1</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="16"/>
       <c r="R20" s="15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S20" s="16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
@@ -4945,23 +4985,23 @@
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
       <c r="Z20" s="16"/>
-      <c r="AA20" s="35"/>
+      <c r="AA20" s="34"/>
       <c r="AC20" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="68" customHeight="1" spans="1:30">
       <c r="A21" s="13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D21" s="16">
         <v>2</v>
@@ -4973,13 +5013,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J21" s="16">
         <v>5</v>
@@ -4990,16 +5030,16 @@
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="15"/>
@@ -5010,26 +5050,26 @@
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
       <c r="Y21" s="16" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Z21" s="16"/>
-      <c r="AA21" s="35"/>
+      <c r="AA21" s="34"/>
       <c r="AC21" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" ht="49.5" spans="1:30">
       <c r="A22" s="13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D22" s="16">
         <v>1</v>
@@ -5041,13 +5081,13 @@
         <v>4</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J22" s="16">
         <v>1</v>
@@ -5058,50 +5098,50 @@
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q22" s="16"/>
       <c r="R22" s="15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="S22" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
       <c r="X22" s="16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Y22" s="16"/>
       <c r="Z22" s="16"/>
-      <c r="AA22" s="35"/>
+      <c r="AA22" s="34"/>
       <c r="AC22" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" ht="35" customHeight="1" spans="1:30">
       <c r="A23" s="13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D23" s="16">
         <v>1</v>
@@ -5113,13 +5153,13 @@
         <v>4</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J23" s="16">
         <v>1</v>
@@ -5130,23 +5170,23 @@
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N23" s="16">
         <v>1</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="16"/>
       <c r="R23" s="15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
@@ -5155,23 +5195,23 @@
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
-      <c r="AA23" s="35"/>
+      <c r="AA23" s="34"/>
       <c r="AC23" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" ht="49.5" spans="1:30">
       <c r="A24" s="13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D24" s="16">
         <v>1</v>
@@ -5183,13 +5223,13 @@
         <v>4</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J24" s="16">
         <v>1</v>
@@ -5200,23 +5240,23 @@
       </c>
       <c r="L24" s="16"/>
       <c r="M24" s="15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N24" s="16">
         <v>1</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q24" s="16"/>
       <c r="R24" s="15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="S24" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
@@ -5225,23 +5265,23 @@
       <c r="X24" s="16"/>
       <c r="Y24" s="16"/>
       <c r="Z24" s="16"/>
-      <c r="AA24" s="35"/>
+      <c r="AA24" s="34"/>
       <c r="AC24" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" ht="35" customHeight="1" spans="1:30">
       <c r="A25" s="13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D25" s="16">
         <v>1</v>
@@ -5253,13 +5293,13 @@
         <v>4</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J25" s="16">
         <v>1</v>
@@ -5270,23 +5310,23 @@
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="15" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="N25" s="16">
         <v>1</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P25" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q25" s="16"/>
       <c r="R25" s="15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="S25" s="16" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="T25" s="16"/>
       <c r="U25" s="16"/>
@@ -5295,23 +5335,23 @@
       <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
       <c r="Z25" s="16"/>
-      <c r="AA25" s="35"/>
+      <c r="AA25" s="34"/>
       <c r="AC25" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" ht="35" customHeight="1" spans="1:30">
       <c r="A26" s="13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D26" s="19">
         <v>1</v>
@@ -5323,13 +5363,13 @@
         <v>5</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J26" s="16">
         <v>1</v>
@@ -5339,23 +5379,23 @@
         <v>32|48|64|80|96|80</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N26" s="16">
         <v>1</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P26" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q26" s="16"/>
       <c r="R26" s="15" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
@@ -5365,23 +5405,23 @@
       <c r="X26" s="16"/>
       <c r="Y26" s="16"/>
       <c r="Z26" s="16"/>
-      <c r="AA26" s="35"/>
+      <c r="AA26" s="34"/>
       <c r="AC26" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" ht="49.5" spans="1:30">
       <c r="A27" s="13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D27" s="16">
         <v>1</v>
@@ -5393,13 +5433,13 @@
         <v>3</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J27" s="16">
         <v>1</v>
@@ -5410,16 +5450,16 @@
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P27" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="16"/>
       <c r="R27" s="15"/>
@@ -5429,27 +5469,27 @@
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
       <c r="X27" s="16" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Y27" s="16"/>
       <c r="Z27" s="16"/>
-      <c r="AA27" s="35"/>
+      <c r="AA27" s="34"/>
       <c r="AC27" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:30">
       <c r="A28" s="13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D28" s="16">
         <v>1</v>
@@ -5461,13 +5501,13 @@
         <v>5</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J28" s="16">
         <v>1</v>
@@ -5478,16 +5518,16 @@
       </c>
       <c r="L28" s="16"/>
       <c r="M28" s="15" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P28" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="16"/>
       <c r="R28" s="15"/>
@@ -5499,23 +5539,23 @@
       <c r="X28" s="16"/>
       <c r="Y28" s="16"/>
       <c r="Z28" s="16"/>
-      <c r="AA28" s="35"/>
+      <c r="AA28" s="34"/>
       <c r="AC28" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" ht="49.5" spans="1:30">
       <c r="A29" s="13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D29" s="16">
         <v>1</v>
@@ -5527,13 +5567,13 @@
         <v>6</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J29" s="16">
         <v>1</v>
@@ -5544,20 +5584,20 @@
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N29" s="16">
         <v>1</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P29" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q29" s="16"/>
       <c r="R29" s="15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
@@ -5565,27 +5605,27 @@
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
       <c r="X29" s="16" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Y29" s="16"/>
       <c r="Z29" s="16"/>
-      <c r="AA29" s="35"/>
+      <c r="AA29" s="34"/>
       <c r="AC29" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" ht="51.5" customHeight="1" spans="1:30">
       <c r="A30" s="13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D30" s="16">
         <v>1</v>
@@ -5597,13 +5637,13 @@
         <v>5</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J30" s="16">
         <v>1</v>
@@ -5614,23 +5654,23 @@
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="15" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P30" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q30" s="16"/>
       <c r="R30" s="15" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="S30" s="16" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="T30" s="16"/>
       <c r="U30" s="16"/>
@@ -5639,23 +5679,23 @@
       <c r="X30" s="16"/>
       <c r="Y30" s="16"/>
       <c r="Z30" s="16"/>
-      <c r="AA30" s="35"/>
+      <c r="AA30" s="34"/>
       <c r="AC30" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="49.5" spans="1:30">
       <c r="A31" s="13" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D31" s="16">
         <v>1</v>
@@ -5667,13 +5707,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J31" s="16">
         <v>1</v>
@@ -5684,16 +5724,16 @@
       </c>
       <c r="L31" s="16"/>
       <c r="M31" s="15" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N31" s="16">
         <v>1</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P31" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q31" s="16"/>
       <c r="R31" s="15"/>
@@ -5703,27 +5743,27 @@
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
       <c r="X31" s="16" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Y31" s="16"/>
       <c r="Z31" s="16"/>
-      <c r="AA31" s="35"/>
+      <c r="AA31" s="34"/>
       <c r="AC31" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="35" customHeight="1" spans="1:30">
       <c r="A32" s="13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D32" s="16">
         <v>1</v>
@@ -5735,13 +5775,13 @@
         <v>4</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J32" s="16">
         <v>1</v>
@@ -5752,23 +5792,23 @@
       </c>
       <c r="L32" s="16"/>
       <c r="M32" s="15" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P32" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q32" s="16"/>
       <c r="R32" s="15" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="S32" s="16" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
@@ -5777,23 +5817,23 @@
       <c r="X32" s="16"/>
       <c r="Y32" s="16"/>
       <c r="Z32" s="16"/>
-      <c r="AA32" s="35"/>
+      <c r="AA32" s="34"/>
       <c r="AC32" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD32" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="49.5" spans="1:30">
       <c r="A33" s="13" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D33" s="16">
         <v>1</v>
@@ -5805,13 +5845,13 @@
         <v>4</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J33" s="16">
         <v>1</v>
@@ -5821,19 +5861,19 @@
         <v>48|64|80|96|80|64</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N33" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P33" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="16"/>
       <c r="R33" s="15"/>
@@ -5843,29 +5883,29 @@
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
       <c r="X33" s="16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Y33" s="16" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Z33" s="16"/>
-      <c r="AA33" s="35"/>
+      <c r="AA33" s="34"/>
       <c r="AC33" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="49.5" spans="1:30">
       <c r="A34" s="13" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D34" s="21">
         <v>2</v>
@@ -5877,13 +5917,13 @@
         <v>1</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J34" s="16">
         <v>5</v>
@@ -5894,16 +5934,16 @@
       </c>
       <c r="L34" s="16"/>
       <c r="M34" s="15" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N34" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q34" s="16"/>
       <c r="R34" s="15"/>
@@ -5913,29 +5953,29 @@
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
       <c r="X34" s="16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y34" s="16" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Z34" s="16"/>
-      <c r="AA34" s="35"/>
+      <c r="AA34" s="34"/>
       <c r="AC34" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD34" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" ht="49.5" spans="1:30">
       <c r="A35" s="13" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D35" s="16">
         <v>2</v>
@@ -5947,13 +5987,13 @@
         <v>1</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J35" s="16">
         <v>5</v>
@@ -5964,16 +6004,16 @@
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="15" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="N35" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P35" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q35" s="16"/>
       <c r="R35" s="15"/>
@@ -5983,27 +6023,27 @@
       <c r="V35" s="16"/>
       <c r="W35" s="16"/>
       <c r="X35" s="16" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Y35" s="16"/>
       <c r="Z35" s="16"/>
-      <c r="AA35" s="35"/>
+      <c r="AA35" s="34"/>
       <c r="AC35" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="49.5" spans="1:30">
       <c r="A36" s="13" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D36" s="21">
         <v>2</v>
@@ -6015,13 +6055,13 @@
         <v>1</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J36" s="16">
         <v>5</v>
@@ -6032,16 +6072,16 @@
       </c>
       <c r="L36" s="16"/>
       <c r="M36" s="15" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N36" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q36" s="16"/>
       <c r="R36" s="15"/>
@@ -6051,27 +6091,27 @@
       <c r="V36" s="16"/>
       <c r="W36" s="16"/>
       <c r="X36" s="16" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Y36" s="16"/>
       <c r="Z36" s="16"/>
-      <c r="AA36" s="35"/>
+      <c r="AA36" s="34"/>
       <c r="AC36" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" ht="35" customHeight="1" spans="1:30">
       <c r="A37" s="13" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D37" s="16">
         <v>1</v>
@@ -6083,13 +6123,13 @@
         <v>3</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J37" s="16">
         <v>1</v>
@@ -6100,20 +6140,20 @@
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="15" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
@@ -6123,23 +6163,23 @@
       <c r="X37" s="16"/>
       <c r="Y37" s="16"/>
       <c r="Z37" s="16"/>
-      <c r="AA37" s="35"/>
+      <c r="AA37" s="34"/>
       <c r="AC37" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" ht="51.5" customHeight="1" spans="1:30">
       <c r="A38" s="13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D38" s="16">
         <v>1</v>
@@ -6151,13 +6191,13 @@
         <v>6</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J38" s="16">
         <v>1</v>
@@ -6167,19 +6207,19 @@
         <v>16|32|48|64|80|96</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M38" s="15" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="N38" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P38" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="16"/>
       <c r="R38" s="15"/>
@@ -6191,23 +6231,23 @@
       <c r="X38" s="16"/>
       <c r="Y38" s="16"/>
       <c r="Z38" s="16"/>
-      <c r="AA38" s="35"/>
+      <c r="AA38" s="34"/>
       <c r="AC38" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" ht="49.5" spans="1:30">
       <c r="A39" s="13" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D39" s="16">
         <v>1</v>
@@ -6219,13 +6259,13 @@
         <v>3</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J39" s="16">
         <v>1</v>
@@ -6235,19 +6275,19 @@
         <v>64|80|96|80|64|48</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q39" s="16"/>
       <c r="R39" s="15"/>
@@ -6257,27 +6297,27 @@
       <c r="V39" s="16"/>
       <c r="W39" s="16"/>
       <c r="X39" s="16" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Y39" s="16"/>
       <c r="Z39" s="16"/>
-      <c r="AA39" s="35"/>
+      <c r="AA39" s="34"/>
       <c r="AC39" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" ht="18.5" customHeight="1" spans="1:30">
       <c r="A40" s="13" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D40" s="16">
         <v>1</v>
@@ -6289,13 +6329,13 @@
         <v>5</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J40" s="16">
         <v>1</v>
@@ -6305,23 +6345,23 @@
         <v>32|48|64|80|96|80</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M40" s="15" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="N40" s="16">
         <v>1</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P40" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="15" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="S40" s="16"/>
       <c r="T40" s="16"/>
@@ -6331,23 +6371,23 @@
       <c r="X40" s="16"/>
       <c r="Y40" s="16"/>
       <c r="Z40" s="16"/>
-      <c r="AA40" s="35"/>
+      <c r="AA40" s="34"/>
       <c r="AC40" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" ht="35" customHeight="1" spans="1:30">
       <c r="A41" s="13" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D41" s="16">
         <v>1</v>
@@ -6359,13 +6399,13 @@
         <v>6</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J41" s="16">
         <v>1</v>
@@ -6376,23 +6416,23 @@
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="15" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="N41" s="16">
         <v>1</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P41" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q41" s="16"/>
       <c r="R41" s="15" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="S41" s="16" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -6401,23 +6441,23 @@
       <c r="X41" s="16"/>
       <c r="Y41" s="16"/>
       <c r="Z41" s="16"/>
-      <c r="AA41" s="35"/>
+      <c r="AA41" s="34"/>
       <c r="AC41" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD41" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" ht="18.5" customHeight="1" spans="1:30">
       <c r="A42" s="13" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D42" s="16">
         <v>2</v>
@@ -6429,13 +6469,13 @@
         <v>1</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J42" s="16">
         <v>5</v>
@@ -6446,23 +6486,23 @@
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="15" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N42" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P42" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q42" s="16"/>
       <c r="R42" s="15" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="S42" s="16" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="T42" s="16"/>
       <c r="U42" s="16"/>
@@ -6471,23 +6511,23 @@
       <c r="X42" s="16"/>
       <c r="Y42" s="16"/>
       <c r="Z42" s="16"/>
-      <c r="AA42" s="35"/>
+      <c r="AA42" s="34"/>
       <c r="AC42" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" ht="35" customHeight="1" spans="1:30">
       <c r="A43" s="13" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D43" s="16">
         <v>1</v>
@@ -6499,13 +6539,13 @@
         <v>5</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J43" s="16">
         <v>1</v>
@@ -6515,26 +6555,26 @@
         <v>32|48|64|80|96|80</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M43" s="15" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N43" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P43" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="16"/>
       <c r="R43" s="15" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="S43" s="16" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="T43" s="16"/>
       <c r="U43" s="16"/>
@@ -6543,23 +6583,23 @@
       <c r="X43" s="16"/>
       <c r="Y43" s="16"/>
       <c r="Z43" s="16"/>
-      <c r="AA43" s="35"/>
+      <c r="AA43" s="34"/>
       <c r="AC43" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" ht="115.5" spans="1:30">
       <c r="A44" s="13" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D44" s="16">
         <v>1</v>
@@ -6571,13 +6611,13 @@
         <v>6</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J44" s="16">
         <v>1</v>
@@ -6588,52 +6628,52 @@
       </c>
       <c r="L44" s="16"/>
       <c r="M44" s="15" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N44" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P44" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q44" s="16"/>
       <c r="R44" s="15" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="S44" s="16" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="T44" s="16" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="U44" s="16" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="V44" s="16"/>
       <c r="W44" s="16"/>
       <c r="X44" s="16"/>
       <c r="Y44" s="16"/>
       <c r="Z44" s="16"/>
-      <c r="AA44" s="35"/>
+      <c r="AA44" s="34"/>
       <c r="AC44" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD44" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" ht="49.5" spans="1:30">
       <c r="A45" s="13" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D45" s="16">
         <v>1</v>
@@ -6646,10 +6686,10 @@
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J45" s="16">
         <v>1</v>
@@ -6660,20 +6700,20 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="15" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N45" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P45" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q45" s="16"/>
       <c r="R45" s="15" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="S45" s="16"/>
       <c r="T45" s="16"/>
@@ -6681,27 +6721,27 @@
       <c r="V45" s="16"/>
       <c r="W45" s="16"/>
       <c r="X45" s="16" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Y45" s="16"/>
       <c r="Z45" s="16"/>
-      <c r="AA45" s="35"/>
+      <c r="AA45" s="34"/>
       <c r="AC45" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" ht="18.5" customHeight="1" spans="1:30">
       <c r="A46" s="13" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D46" s="16">
         <v>1</v>
@@ -6714,10 +6754,10 @@
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J46" s="16">
         <v>1</v>
@@ -6728,16 +6768,16 @@
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="15" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="N46" s="16" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P46" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q46" s="16"/>
       <c r="R46" s="15"/>
@@ -6749,23 +6789,23 @@
       <c r="X46" s="16"/>
       <c r="Y46" s="16"/>
       <c r="Z46" s="16"/>
-      <c r="AA46" s="35"/>
+      <c r="AA46" s="34"/>
       <c r="AC46" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD46" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" ht="18.5" customHeight="1" spans="1:30">
       <c r="A47" s="13" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D47" s="16">
         <v>1</v>
@@ -6778,10 +6818,10 @@
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J47" s="16">
         <v>1</v>
@@ -6792,26 +6832,26 @@
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="15" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q47" s="16"/>
       <c r="R47" s="15" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="S47" s="16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="T47" s="16" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="U47" s="16"/>
       <c r="V47" s="16"/>
@@ -6819,23 +6859,23 @@
       <c r="X47" s="16"/>
       <c r="Y47" s="16"/>
       <c r="Z47" s="16"/>
-      <c r="AA47" s="35"/>
+      <c r="AA47" s="34"/>
       <c r="AC47" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" ht="18.5" customHeight="1" spans="1:30">
       <c r="A48" s="13" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D48" s="16">
         <v>1</v>
@@ -6848,10 +6888,10 @@
       </c>
       <c r="G48" s="16"/>
       <c r="H48" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J48" s="16">
         <v>1</v>
@@ -6861,19 +6901,19 @@
         <v>32|48|64|80|96|80</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N48" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O48" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P48" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q48" s="16"/>
       <c r="R48" s="15"/>
@@ -6885,23 +6925,23 @@
       <c r="X48" s="16"/>
       <c r="Y48" s="16"/>
       <c r="Z48" s="16"/>
-      <c r="AA48" s="35"/>
+      <c r="AA48" s="34"/>
       <c r="AC48" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" ht="35" customHeight="1" spans="1:30">
       <c r="A49" s="13" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D49" s="22">
         <v>1</v>
@@ -6914,10 +6954,10 @@
       </c>
       <c r="G49" s="16"/>
       <c r="H49" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J49" s="16">
         <v>1</v>
@@ -6927,26 +6967,26 @@
         <v>16|32|48|64|80|96</v>
       </c>
       <c r="L49" s="16" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="N49" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P49" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q49" s="16"/>
       <c r="R49" s="15" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="S49" s="16" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="T49" s="16"/>
       <c r="U49" s="16"/>
@@ -6955,23 +6995,23 @@
       <c r="X49" s="16"/>
       <c r="Y49" s="16"/>
       <c r="Z49" s="16"/>
-      <c r="AA49" s="35"/>
+      <c r="AA49" s="34"/>
       <c r="AC49" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" ht="49.5" spans="1:30">
       <c r="A50" s="13" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D50" s="16">
         <v>1</v>
@@ -6984,10 +7024,10 @@
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J50" s="16">
         <v>1</v>
@@ -6997,19 +7037,19 @@
         <v>16|32|48|64|80|96</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M50" s="15" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="N50" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O50" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P50" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q50" s="16"/>
       <c r="R50" s="15"/>
@@ -7019,27 +7059,27 @@
       <c r="V50" s="16"/>
       <c r="W50" s="16"/>
       <c r="X50" s="16" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Y50" s="16"/>
       <c r="Z50" s="16"/>
-      <c r="AA50" s="35"/>
+      <c r="AA50" s="34"/>
       <c r="AC50" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" ht="35" customHeight="1" spans="1:30">
       <c r="A51" s="13" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D51" s="16">
         <v>1</v>
@@ -7052,10 +7092,10 @@
       </c>
       <c r="G51" s="16"/>
       <c r="H51" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J51" s="16">
         <v>1</v>
@@ -7066,23 +7106,23 @@
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="15" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="N51" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O51" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P51" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q51" s="16"/>
       <c r="R51" s="15" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="S51" s="16" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="T51" s="16"/>
       <c r="U51" s="16"/>
@@ -7091,23 +7131,23 @@
       <c r="X51" s="16"/>
       <c r="Y51" s="16"/>
       <c r="Z51" s="16"/>
-      <c r="AA51" s="35"/>
+      <c r="AA51" s="34"/>
       <c r="AC51" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" ht="49.5" spans="1:30">
       <c r="A52" s="13" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D52" s="16">
         <v>1</v>
@@ -7120,10 +7160,10 @@
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J52" s="16">
         <v>1</v>
@@ -7133,19 +7173,19 @@
         <v>16|32|48|64|80|96</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M52" s="15" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N52" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P52" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q52" s="16"/>
       <c r="R52" s="15"/>
@@ -7155,29 +7195,29 @@
       <c r="V52" s="16"/>
       <c r="W52" s="16"/>
       <c r="X52" s="16" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Y52" s="16" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Z52" s="16"/>
-      <c r="AA52" s="35"/>
+      <c r="AA52" s="34"/>
       <c r="AC52" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD52" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" ht="35" customHeight="1" spans="1:30">
       <c r="A53" s="13" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D53" s="16">
         <v>1</v>
@@ -7190,10 +7230,10 @@
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J53" s="16">
         <v>1</v>
@@ -7203,19 +7243,19 @@
         <v>16|32|48|64|80|96</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M53" s="15" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N53" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P53" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q53" s="16"/>
       <c r="R53" s="15"/>
@@ -7227,23 +7267,23 @@
       <c r="X53" s="16"/>
       <c r="Y53" s="16"/>
       <c r="Z53" s="16"/>
-      <c r="AA53" s="35"/>
+      <c r="AA53" s="34"/>
       <c r="AC53" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" ht="49.5" spans="1:30">
       <c r="A54" s="13" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D54" s="16">
         <v>2</v>
@@ -7256,10 +7296,10 @@
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J54" s="16">
         <v>1</v>
@@ -7270,16 +7310,16 @@
       </c>
       <c r="L54" s="16"/>
       <c r="M54" s="15" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="N54" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O54" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P54" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q54" s="16"/>
       <c r="R54" s="15"/>
@@ -7289,27 +7329,27 @@
       <c r="V54" s="16"/>
       <c r="W54" s="16"/>
       <c r="X54" s="16" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Y54" s="16"/>
       <c r="Z54" s="16"/>
-      <c r="AA54" s="35"/>
+      <c r="AA54" s="34"/>
       <c r="AC54" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD54" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" ht="49.5" spans="1:30">
       <c r="A55" s="13" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D55" s="16">
         <v>2</v>
@@ -7322,10 +7362,10 @@
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J55" s="16">
         <v>1</v>
@@ -7336,16 +7376,16 @@
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="15" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="N55" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P55" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q55" s="16"/>
       <c r="R55" s="15"/>
@@ -7355,26 +7395,26 @@
       <c r="V55" s="16"/>
       <c r="W55" s="16"/>
       <c r="X55" s="16" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Z55" s="16"/>
-      <c r="AA55" s="35"/>
+      <c r="AA55" s="34"/>
       <c r="AC55" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD55" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" ht="49.5" spans="1:30">
       <c r="A56" s="13" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D56" s="16">
         <v>1</v>
@@ -7387,10 +7427,10 @@
       </c>
       <c r="G56" s="16"/>
       <c r="H56" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J56" s="16">
         <v>3</v>
@@ -7401,16 +7441,16 @@
       </c>
       <c r="L56" s="16"/>
       <c r="M56" s="15" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="N56" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O56" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P56" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q56" s="16"/>
       <c r="R56" s="15"/>
@@ -7420,27 +7460,27 @@
       <c r="V56" s="16"/>
       <c r="W56" s="16"/>
       <c r="X56" s="16" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Y56" s="16"/>
       <c r="Z56" s="16"/>
-      <c r="AA56" s="35"/>
+      <c r="AA56" s="34"/>
       <c r="AC56" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" ht="35" customHeight="1" spans="1:30">
       <c r="A57" s="13" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D57" s="16">
         <v>1</v>
@@ -7453,10 +7493,10 @@
       </c>
       <c r="G57" s="16"/>
       <c r="H57" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J57" s="16">
         <v>1</v>
@@ -7466,19 +7506,19 @@
         <v>64|80|96|80|64|48</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M57" s="15" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N57" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O57" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P57" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q57" s="16"/>
       <c r="R57" s="15"/>
@@ -7490,23 +7530,23 @@
       <c r="X57" s="16"/>
       <c r="Y57" s="16"/>
       <c r="Z57" s="16"/>
-      <c r="AA57" s="35"/>
+      <c r="AA57" s="34"/>
       <c r="AC57" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" ht="35" customHeight="1" spans="1:30">
       <c r="A58" s="13" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D58" s="16">
         <v>1</v>
@@ -7519,10 +7559,10 @@
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J58" s="16">
         <v>1</v>
@@ -7533,16 +7573,16 @@
       </c>
       <c r="L58" s="16"/>
       <c r="M58" s="15" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="N58" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P58" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q58" s="16"/>
       <c r="R58" s="15"/>
@@ -7554,23 +7594,23 @@
       <c r="X58" s="16"/>
       <c r="Y58" s="16"/>
       <c r="Z58" s="16"/>
-      <c r="AA58" s="35"/>
+      <c r="AA58" s="34"/>
       <c r="AC58" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD58" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" ht="35" customHeight="1" spans="1:30">
       <c r="A59" s="13" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D59" s="16">
         <v>1</v>
@@ -7583,10 +7623,10 @@
       </c>
       <c r="G59" s="16"/>
       <c r="H59" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J59" s="16">
         <v>1</v>
@@ -7597,16 +7637,16 @@
       </c>
       <c r="L59" s="16"/>
       <c r="M59" s="15" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N59" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P59" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q59" s="16"/>
       <c r="R59" s="15"/>
@@ -7618,23 +7658,23 @@
       <c r="X59" s="16"/>
       <c r="Y59" s="16"/>
       <c r="Z59" s="16"/>
-      <c r="AA59" s="35"/>
+      <c r="AA59" s="34"/>
       <c r="AC59" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD59" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" ht="65" customHeight="1" spans="1:30">
       <c r="A60" s="13" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D60" s="17">
         <v>1</v>
@@ -7647,10 +7687,10 @@
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J60" s="16">
         <v>3</v>
@@ -7660,23 +7700,23 @@
         <v>16|32|48|64|80|96</v>
       </c>
       <c r="L60" s="16" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M60" s="15" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="N60" s="16" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P60" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q60" s="16"/>
       <c r="R60" s="15" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="S60" s="16"/>
       <c r="T60" s="16"/>
@@ -7686,23 +7726,23 @@
       <c r="X60" s="16"/>
       <c r="Y60" s="16"/>
       <c r="Z60" s="16"/>
-      <c r="AA60" s="35"/>
+      <c r="AA60" s="34"/>
       <c r="AC60" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD60" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" ht="51.5" customHeight="1" spans="1:30">
       <c r="A61" s="13" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D61" s="16">
         <v>1</v>
@@ -7715,10 +7755,10 @@
       </c>
       <c r="G61" s="16"/>
       <c r="H61" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J61" s="16">
         <v>1</v>
@@ -7729,16 +7769,16 @@
       </c>
       <c r="L61" s="16"/>
       <c r="M61" s="15" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="N61" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P61" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q61" s="16"/>
       <c r="R61" s="15"/>
@@ -7750,23 +7790,23 @@
       <c r="X61" s="16"/>
       <c r="Y61" s="16"/>
       <c r="Z61" s="16"/>
-      <c r="AA61" s="35"/>
+      <c r="AA61" s="34"/>
       <c r="AC61" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD61" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" ht="49.5" spans="1:30">
       <c r="A62" s="25" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D62" s="28">
         <v>2</v>
@@ -7779,10 +7819,10 @@
       </c>
       <c r="G62" s="28"/>
       <c r="H62" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J62" s="28">
         <v>5</v>
@@ -7793,16 +7833,16 @@
       </c>
       <c r="L62" s="28"/>
       <c r="M62" s="27" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="N62" s="28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O62" s="28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P62" s="28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q62" s="28"/>
       <c r="R62" s="27"/>
@@ -7812,27 +7852,27 @@
       <c r="V62" s="28"/>
       <c r="W62" s="28"/>
       <c r="X62" s="28" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Y62" s="28"/>
       <c r="Z62" s="28"/>
-      <c r="AA62" s="36"/>
+      <c r="AA62" s="35"/>
       <c r="AC62" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" ht="49.5" spans="1:30">
       <c r="A63" s="25" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D63" s="28">
         <v>2</v>
@@ -7845,10 +7885,10 @@
       </c>
       <c r="G63" s="28"/>
       <c r="H63" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J63" s="28">
         <v>5</v>
@@ -7859,16 +7899,16 @@
       </c>
       <c r="L63" s="28"/>
       <c r="M63" s="27" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N63" s="28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O63" s="28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P63" s="28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q63" s="28"/>
       <c r="R63" s="27"/>
@@ -7878,27 +7918,27 @@
       <c r="V63" s="28"/>
       <c r="W63" s="28"/>
       <c r="X63" s="28" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Y63" s="28"/>
       <c r="Z63" s="28"/>
-      <c r="AA63" s="36"/>
+      <c r="AA63" s="35"/>
       <c r="AC63" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" ht="49.5" spans="1:30">
       <c r="A64" s="25" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D64" s="28">
         <v>2</v>
@@ -7911,10 +7951,10 @@
       </c>
       <c r="G64" s="28"/>
       <c r="H64" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J64" s="28">
         <v>5</v>
@@ -7925,16 +7965,16 @@
       </c>
       <c r="L64" s="28"/>
       <c r="M64" s="27" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N64" s="28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O64" s="28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P64" s="28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q64" s="28"/>
       <c r="R64" s="27"/>
@@ -7944,27 +7984,27 @@
       <c r="V64" s="28"/>
       <c r="W64" s="28"/>
       <c r="X64" s="28" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Y64" s="28"/>
       <c r="Z64" s="28"/>
-      <c r="AA64" s="36"/>
+      <c r="AA64" s="35"/>
       <c r="AC64" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD64" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" ht="49.5" spans="1:30">
       <c r="A65" s="25" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D65" s="28">
         <v>2</v>
@@ -7977,10 +8017,10 @@
       </c>
       <c r="G65" s="28"/>
       <c r="H65" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J65" s="28">
         <v>5</v>
@@ -7991,16 +8031,16 @@
       </c>
       <c r="L65" s="28"/>
       <c r="M65" s="27" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N65" s="28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O65" s="28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P65" s="28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q65" s="28"/>
       <c r="R65" s="27"/>
@@ -8010,27 +8050,27 @@
       <c r="V65" s="28"/>
       <c r="W65" s="28"/>
       <c r="X65" s="28" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Y65" s="28"/>
       <c r="Z65" s="28"/>
-      <c r="AA65" s="36"/>
+      <c r="AA65" s="35"/>
       <c r="AC65" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD65" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" ht="49.5" spans="1:30">
       <c r="A66" s="25" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D66" s="28">
         <v>2</v>
@@ -8043,10 +8083,10 @@
       </c>
       <c r="G66" s="28"/>
       <c r="H66" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J66" s="28">
         <v>5</v>
@@ -8057,16 +8097,16 @@
       </c>
       <c r="L66" s="28"/>
       <c r="M66" s="27" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N66" s="28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O66" s="28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P66" s="28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q66" s="28"/>
       <c r="R66" s="27"/>
@@ -8076,27 +8116,27 @@
       <c r="V66" s="28"/>
       <c r="W66" s="28"/>
       <c r="X66" s="28" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Y66" s="28"/>
       <c r="Z66" s="28"/>
-      <c r="AA66" s="36"/>
+      <c r="AA66" s="35"/>
       <c r="AC66" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" ht="49.5" spans="1:30">
       <c r="A67" s="25" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D67" s="28">
         <v>2</v>
@@ -8109,10 +8149,10 @@
       </c>
       <c r="G67" s="28"/>
       <c r="H67" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J67" s="28">
         <v>5</v>
@@ -8123,16 +8163,16 @@
       </c>
       <c r="L67" s="28"/>
       <c r="M67" s="27" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N67" s="28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O67" s="28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P67" s="28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q67" s="28"/>
       <c r="R67" s="27"/>
@@ -8142,27 +8182,27 @@
       <c r="V67" s="28"/>
       <c r="W67" s="28"/>
       <c r="X67" s="28" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Y67" s="28"/>
       <c r="Z67" s="28"/>
-      <c r="AA67" s="36"/>
+      <c r="AA67" s="35"/>
       <c r="AC67" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD67" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" ht="49.5" spans="1:30">
       <c r="A68" s="25" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D68" s="28">
         <v>1</v>
@@ -8175,10 +8215,10 @@
       </c>
       <c r="G68" s="28"/>
       <c r="H68" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J68" s="28">
         <v>1</v>
@@ -8189,16 +8229,16 @@
       </c>
       <c r="L68" s="28"/>
       <c r="M68" s="27" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N68" s="28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O68" s="28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P68" s="28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q68" s="28"/>
       <c r="R68" s="27"/>
@@ -8210,23 +8250,23 @@
       <c r="X68" s="28"/>
       <c r="Y68" s="28"/>
       <c r="Z68" s="28"/>
-      <c r="AA68" s="36"/>
+      <c r="AA68" s="35"/>
       <c r="AC68" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD68" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" ht="49.5" spans="1:30">
       <c r="A69" s="25" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D69" s="28">
         <v>1</v>
@@ -8239,10 +8279,10 @@
       </c>
       <c r="G69" s="28"/>
       <c r="H69" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J69" s="28">
         <v>1</v>
@@ -8253,16 +8293,16 @@
       </c>
       <c r="L69" s="28"/>
       <c r="M69" s="27" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N69" s="28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O69" s="28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P69" s="28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q69" s="28"/>
       <c r="R69" s="27"/>
@@ -8274,23 +8314,23 @@
       <c r="X69" s="28"/>
       <c r="Y69" s="28"/>
       <c r="Z69" s="28"/>
-      <c r="AA69" s="36"/>
+      <c r="AA69" s="35"/>
       <c r="AC69" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD69" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" ht="49.5" spans="1:30">
       <c r="A70" s="25" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D70" s="28">
         <v>1</v>
@@ -8303,10 +8343,10 @@
       </c>
       <c r="G70" s="28"/>
       <c r="H70" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J70" s="28">
         <v>1</v>
@@ -8317,16 +8357,16 @@
       </c>
       <c r="L70" s="28"/>
       <c r="M70" s="27" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N70" s="28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O70" s="28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P70" s="28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q70" s="28"/>
       <c r="R70" s="27"/>
@@ -8338,23 +8378,23 @@
       <c r="X70" s="28"/>
       <c r="Y70" s="28"/>
       <c r="Z70" s="28"/>
-      <c r="AA70" s="36"/>
+      <c r="AA70" s="35"/>
       <c r="AC70" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD70" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" ht="33" spans="1:30">
       <c r="A71" s="25" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D71" s="28">
         <v>1</v>
@@ -8367,10 +8407,10 @@
       </c>
       <c r="G71" s="28"/>
       <c r="H71" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J71" s="28">
         <v>1</v>
@@ -8381,16 +8421,16 @@
       </c>
       <c r="L71" s="28"/>
       <c r="M71" s="27" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N71" s="28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O71" s="28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P71" s="28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q71" s="28"/>
       <c r="R71" s="27"/>
@@ -8402,23 +8442,23 @@
       <c r="X71" s="28"/>
       <c r="Y71" s="28"/>
       <c r="Z71" s="28"/>
-      <c r="AA71" s="36"/>
+      <c r="AA71" s="35"/>
       <c r="AC71" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD71" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" ht="49.5" spans="1:30">
       <c r="A72" s="25" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D72" s="28">
         <v>1</v>
@@ -8431,10 +8471,10 @@
       </c>
       <c r="G72" s="28"/>
       <c r="H72" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J72" s="28">
         <v>1</v>
@@ -8445,16 +8485,16 @@
       </c>
       <c r="L72" s="28"/>
       <c r="M72" s="27" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N72" s="28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O72" s="28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P72" s="28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q72" s="28"/>
       <c r="R72" s="27"/>
@@ -8466,23 +8506,23 @@
       <c r="X72" s="28"/>
       <c r="Y72" s="28"/>
       <c r="Z72" s="28"/>
-      <c r="AA72" s="36"/>
+      <c r="AA72" s="35"/>
       <c r="AC72" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD72" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" ht="33" spans="1:30">
       <c r="A73" s="25" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D73" s="28">
         <v>1</v>
@@ -8495,10 +8535,10 @@
       </c>
       <c r="G73" s="28"/>
       <c r="H73" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J73" s="28">
         <v>1</v>
@@ -8509,16 +8549,16 @@
       </c>
       <c r="L73" s="28"/>
       <c r="M73" s="27" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N73" s="28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O73" s="28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P73" s="28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q73" s="28"/>
       <c r="R73" s="27"/>
@@ -8530,23 +8570,23 @@
       <c r="X73" s="28"/>
       <c r="Y73" s="28"/>
       <c r="Z73" s="28"/>
-      <c r="AA73" s="36"/>
+      <c r="AA73" s="35"/>
       <c r="AC73" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD73" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" ht="16.5" spans="1:30">
       <c r="A74" s="25" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D74" s="28">
         <v>1</v>
@@ -8559,10 +8599,10 @@
       </c>
       <c r="G74" s="28"/>
       <c r="H74" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J74" s="28">
         <v>1</v>
@@ -8573,16 +8613,16 @@
       </c>
       <c r="L74" s="28"/>
       <c r="M74" s="27" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N74" s="28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O74" s="28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P74" s="28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q74" s="28"/>
       <c r="R74" s="27"/>
@@ -8594,12 +8634,12 @@
       <c r="X74" s="28"/>
       <c r="Y74" s="28"/>
       <c r="Z74" s="28"/>
-      <c r="AA74" s="36"/>
+      <c r="AA74" s="35"/>
       <c r="AC74" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD74" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -8629,7 +8669,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -8642,7 +8682,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8650,7 +8690,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8658,7 +8698,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8666,7 +8706,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8674,7 +8714,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8682,7 +8722,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8690,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -1654,9 +1654,7 @@
     <t>【工具人】</t>
   </si>
   <si>
-    <t>不再获得灵魂，
-原本会获得的灵魂将无偿平分给其他玩家
-（该道具总数量为玩家人数-1）</t>
+    <t>降低自身75%灵魂收益，但提高其他队友50%灵魂收益</t>
   </si>
   <si>
     <t>prop_70</t>
@@ -3201,16 +3199,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{1E4E913C-A3E8-4936-995F-DAFED1CBF641}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{307112F0-EFEC-4D06-903E-512730B29B95}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2CEEBECB-805B-4F30-9DB8-C4612794AB4C}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{B6EE3202-161E-487B-8385-9BD17F3B09DC}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B7681D2D-791E-4B42-BDFE-82E8B72B7CA9}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{2F8453A8-20CF-41EB-8CDC-3852842CEEBC}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3222,7 +3220,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{4EF4B569-1F88-4227-AA45-F358BF39FA43}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{F7587DB5-7A41-4520-A493-7533F288058B}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3533,10 +3531,10 @@
   <sheetPr/>
   <dimension ref="A1:AD74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F69" sqref="F69"/>
+      <selection pane="topRight" activeCell="D79" sqref="D79:D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8450,7 +8448,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" ht="49.5" spans="1:30">
+    <row r="72" ht="33" spans="1:30">
       <c r="A72" s="25" t="s">
         <v>425</v>
       </c>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="454">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>80|64|48|32</t>
-  </si>
-  <si>
-    <t>和常客优惠II加算</t>
   </si>
   <si>
     <t>item_prop/常客优惠I</t>
@@ -369,12 +366,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>对自身%range%码范围内的敌人提高%harm%%%的</t>
     </r>
     <r>
@@ -926,12 +917,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>技能强度</t>
     </r>
     <r>
@@ -1527,14 +1512,14 @@
     <t>【林野长弓】</t>
   </si>
   <si>
-    <t>攻击范围增加%AttackRange.Bonus%</t>
+    <t>攻击范围增加%AttackRange.Base%</t>
   </si>
   <si>
     <t>item_prop/林野长弓</t>
   </si>
   <si>
     <t>AttackRange {
-"Bonus" "50"
+"Base" "50"
 }</t>
   </si>
   <si>
@@ -1544,14 +1529,14 @@
     <t>【飞靴】</t>
   </si>
   <si>
-    <t>移动速度增加%MoveSpeed.Bonus%%%</t>
+    <t>移动速度增加%MoveSpeed.BasePercent%%%</t>
   </si>
   <si>
     <t>item_prop/ 后补</t>
   </si>
   <si>
     <t>MoveSpeed {
-"Bonus" "3"
+"BasePercent" "3"
 }</t>
   </si>
   <si>
@@ -1561,22 +1546,22 @@
     <t>【暴击增益】</t>
   </si>
   <si>
-    <t>暴击概率增加%CriticalChance.Bonus%%%</t>
+    <t>暴击概率增加%CriticalChance.Base%%%</t>
   </si>
   <si>
     <t>CriticalChance {
-"Bonus" "5"
+"Base" "5"
 }</t>
   </si>
   <si>
     <t>【爆伤增益】</t>
   </si>
   <si>
-    <t>暴击伤害增加%CriticalDamage.Bonus%%%</t>
+    <t>暴击伤害增加%CriticalDamage.Base%%%</t>
   </si>
   <si>
     <t>CriticalDamage {
-"Bonus" "10"
+"Base" "10"
 }</t>
   </si>
   <si>
@@ -1586,11 +1571,11 @@
     <t>【团队经验】</t>
   </si>
   <si>
-    <t>团队经验获取率增加%TeamExpeIncrease.Bonus%%%</t>
+    <t>团队经验获取率增加%TeamExpeIncrease.Base%%%</t>
   </si>
   <si>
     <t>TeamExpeIncrease {
-"Bonus" "5"
+"Base" "5"
 }</t>
   </si>
   <si>
@@ -1600,11 +1585,11 @@
     <t>【个人经验】</t>
   </si>
   <si>
-    <t>个人经验获取率增加%SingleExpeIncrease.Bonus%%%</t>
+    <t>个人经验获取率增加%SingleExpeIncrease.Base%%%</t>
   </si>
   <si>
     <t>SingleExpeIncrease {
-"Bonus" "10"
+"Base" "10"
 }</t>
   </si>
   <si>
@@ -1624,8 +1609,31 @@
     <t>【肾上腺素】</t>
   </si>
   <si>
-    <t>下一波刷怪开始时：
-造成伤害提高75%（最终伤害），灵魂收益降低50%，持续5波</t>
+    <r>
+      <t>下一波刷怪开始时：
+造成伤害提高%fidamage%%%（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），灵魂收益降低50%，持续5波</t>
+    </r>
+  </si>
+  <si>
+    <t>fidamage 75</t>
   </si>
   <si>
     <t>prop_67</t>
@@ -1634,10 +1642,20 @@
     <t>【有舍有得I】</t>
   </si>
   <si>
-    <t>获得70点攻击力，25%暴击概率
+    <t>获得%AttackDamage.Base%点攻击力，%CriticalChance.Base%%%暴击概率
 但，你不再能自由选择符文（获得符文时直接随机给到符文背包）</t>
   </si>
   <si>
+    <t>AttackDamage {
+"Base" "70"
+}</t>
+  </si>
+  <si>
+    <t>CriticalChance {
+"Base" "25"
+}</t>
+  </si>
+  <si>
     <t>prop_68</t>
   </si>
   <si>
@@ -1645,7 +1663,17 @@
   </si>
   <si>
     <t>造成伤害时必定暴击
-但额外暴击伤害收益只有70%</t>
+但整体暴击伤害收益只有70%</t>
+  </si>
+  <si>
+    <t>CriticalChance {
+"Base" "9999"
+}</t>
+  </si>
+  <si>
+    <t>CriticalDamage {
+"MulRegion" "0.7"
+}</t>
   </si>
   <si>
     <t>prop_69</t>
@@ -1654,7 +1682,13 @@
     <t>【工具人】</t>
   </si>
   <si>
-    <t>降低自身75%灵魂收益，但提高其他队友50%灵魂收益</t>
+    <t>降低自身%soulpro%%%灵魂收益，但提高其他队友%qt_soulpro%%%灵魂收益</t>
+  </si>
+  <si>
+    <t>soulpro -75</t>
+  </si>
+  <si>
+    <t>qt_soulpro 50</t>
   </si>
   <si>
     <t>prop_70</t>
@@ -1663,8 +1697,37 @@
     <t>【老板】</t>
   </si>
   <si>
-    <t>站定不动3秒后，队友获得25%的伤害加成
-移动则失去该效果8秒</t>
+    <r>
+      <t>站立不动%second%秒后，队友获得%qt_dbm%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+自身移动后，进入%cd%秒冷却时间（真空期为 8s+3s）</t>
+    </r>
+  </si>
+  <si>
+    <t>cd 8</t>
+  </si>
+  <si>
+    <t>second 3</t>
+  </si>
+  <si>
+    <t>qt_dbm 25</t>
   </si>
   <si>
     <t>prop_71</t>
@@ -1673,7 +1736,19 @@
     <t>【以小博大】</t>
   </si>
   <si>
-    <t>51%概率灵魂翻倍，49%概率灵魂减半</t>
+    <t>%succeed%%%概率灵魂翻倍，%fail%%%概率灵魂减半</t>
+  </si>
+  <si>
+    <t>succeed 51</t>
+  </si>
+  <si>
+    <t>fail 49</t>
+  </si>
+  <si>
+    <t>win 100</t>
+  </si>
+  <si>
+    <t>lose -50</t>
   </si>
   <si>
     <t>100|100|100|100|100|100</t>
@@ -3199,16 +3274,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{307112F0-EFEC-4D06-903E-512730B29B95}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B6986B52-91D2-4B46-9D59-AE2D5025F690}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{B6EE3202-161E-487B-8385-9BD17F3B09DC}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A0C3EABF-517D-4EB6-9FE6-306405ED1024}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{2F8453A8-20CF-41EB-8CDC-3852842CEEBC}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{777CD60C-8663-45EC-ACAC-FC5E0D816ED1}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3220,7 +3295,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{F7587DB5-7A41-4520-A493-7533F288058B}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{83587CCA-4180-4547-AEBC-2EAE8DB21DB9}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3531,10 +3606,10 @@
   <sheetPr/>
   <dimension ref="A1:AD74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A38" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D79" sqref="D79:D80"/>
+      <selection pane="topRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3768,24 +3843,22 @@
         <f>IF(D3=2,"96|96|96|96|96|96",VLOOKUP(F3,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="Q3" s="11"/>
       <c r="R3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
@@ -3797,21 +3870,21 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="33"/>
       <c r="AC3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="D4" s="16">
         <v>2</v>
@@ -3840,16 +3913,16 @@
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="N4" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="O4" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="16"/>
       <c r="R4" s="15"/>
@@ -3859,27 +3932,27 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
       <c r="X4" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
       <c r="AA4" s="34"/>
       <c r="AC4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" ht="51.5" customHeight="1" spans="1:30">
       <c r="A5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="D5" s="16">
         <v>1</v>
@@ -3908,50 +3981,50 @@
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O5" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="16"/>
       <c r="R5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="S5" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
       <c r="X5" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
       <c r="AA5" s="34"/>
       <c r="AC5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="D6" s="16">
         <v>1</v>
@@ -3980,23 +4053,23 @@
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="N6" s="16" t="s">
-        <v>71</v>
-      </c>
       <c r="O6" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="16"/>
       <c r="R6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>73</v>
       </c>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
@@ -4007,21 +4080,21 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="34"/>
       <c r="AC6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD6" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A7" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="D7" s="16">
         <v>1</v>
@@ -4050,23 +4123,23 @@
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O7" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="16"/>
       <c r="R7" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
@@ -4077,21 +4150,21 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="34"/>
       <c r="AC7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD7" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="D8" s="16">
         <v>1</v>
@@ -4120,23 +4193,23 @@
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="16"/>
       <c r="R8" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
@@ -4147,21 +4220,21 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="34"/>
       <c r="AC8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD8" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A9" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="D9" s="16">
         <v>1</v>
@@ -4190,23 +4263,23 @@
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="16"/>
       <c r="R9" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
@@ -4217,21 +4290,21 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="34"/>
       <c r="AC9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD9" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:30">
       <c r="A10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="D10" s="16">
         <v>1</v>
@@ -4259,23 +4332,23 @@
         <v>32|48|64|80|96|80</v>
       </c>
       <c r="L10" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="M10" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="N10" s="16">
-        <v>1</v>
+      <c r="N10" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="O10" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
@@ -4287,21 +4360,21 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="34"/>
       <c r="AC10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD10" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="35" customHeight="1" spans="1:30">
       <c r="A11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>97</v>
       </c>
       <c r="D11" s="16">
         <v>1</v>
@@ -4329,23 +4402,23 @@
         <v>0|0|0|0|0|0</v>
       </c>
       <c r="L11" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="M11" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="N11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>50</v>
       </c>
       <c r="Q11" s="16"/>
       <c r="R11" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
@@ -4357,21 +4430,21 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="34"/>
       <c r="AC11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD11" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:30">
       <c r="A12" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="D12" s="16">
         <v>2</v>
@@ -4400,23 +4473,23 @@
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="O12" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="O12" s="16" t="s">
-        <v>106</v>
-      </c>
       <c r="P12" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q12" s="16"/>
       <c r="R12" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="S12" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="S12" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
@@ -4427,21 +4500,21 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="34"/>
       <c r="AC12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD12" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" ht="35" customHeight="1" spans="1:30">
       <c r="A13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>111</v>
       </c>
       <c r="D13" s="16">
         <v>2</v>
@@ -4470,23 +4543,23 @@
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="O13" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N13" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>113</v>
-      </c>
       <c r="P13" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="16"/>
       <c r="R13" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S13" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
@@ -4497,21 +4570,21 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="34"/>
       <c r="AC13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD13" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="66" spans="1:30">
       <c r="A14" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>117</v>
       </c>
       <c r="D14" s="16">
         <v>1</v>
@@ -4540,26 +4613,26 @@
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="N14" s="16">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="O14" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="16"/>
       <c r="R14" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="S14" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="S14" s="16" t="s">
+      <c r="T14" s="16" t="s">
         <v>120</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>121</v>
       </c>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
@@ -4569,21 +4642,21 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="34"/>
       <c r="AC14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD14" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="49.5" spans="1:30">
       <c r="A15" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="D15" s="16">
         <v>1</v>
@@ -4612,16 +4685,16 @@
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O15" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="16"/>
       <c r="R15" s="15"/>
@@ -4631,29 +4704,29 @@
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
       <c r="X15" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y15" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="Y15" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="Z15" s="16"/>
       <c r="AA15" s="34"/>
       <c r="AC15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD15" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:30">
       <c r="A16" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="C16" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="D16" s="16">
         <v>1</v>
@@ -4682,20 +4755,20 @@
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="N16" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="N16" s="16" t="s">
-        <v>132</v>
-      </c>
       <c r="O16" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P16" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q16" s="16"/>
       <c r="R16" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S16" s="16"/>
       <c r="T16" s="16"/>
@@ -4707,21 +4780,21 @@
       <c r="Z16" s="16"/>
       <c r="AA16" s="34"/>
       <c r="AC16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD16" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" ht="49.5" spans="1:30">
       <c r="A17" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>136</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
@@ -4750,23 +4823,23 @@
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O17" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q17" s="16"/>
       <c r="R17" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="S17" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="S17" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
@@ -4777,21 +4850,21 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="34"/>
       <c r="AC17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD17" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" ht="35" customHeight="1" spans="1:30">
       <c r="A18" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>141</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>142</v>
       </c>
       <c r="D18" s="16">
         <v>1</v>
@@ -4820,20 +4893,20 @@
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="N18" s="16">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="O18" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="16"/>
       <c r="R18" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
@@ -4845,21 +4918,21 @@
       <c r="Z18" s="16"/>
       <c r="AA18" s="34"/>
       <c r="AC18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD18" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" ht="18.5" customHeight="1" spans="1:30">
       <c r="A19" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>146</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>147</v>
       </c>
       <c r="D19" s="16">
         <v>1</v>
@@ -4888,20 +4961,20 @@
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="N19" s="16">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="O19" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="16"/>
       <c r="R19" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S19" s="16"/>
       <c r="T19" s="16"/>
@@ -4913,21 +4986,21 @@
       <c r="Z19" s="16"/>
       <c r="AA19" s="34"/>
       <c r="AC19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD19" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" ht="49.5" spans="1:30">
       <c r="A20" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>152</v>
       </c>
       <c r="D20" s="16">
         <v>1</v>
@@ -4956,26 +5029,26 @@
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="N20" s="16">
-        <v>1</v>
+        <v>152</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="O20" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="16"/>
       <c r="R20" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="S20" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="S20" s="16" t="s">
+      <c r="T20" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="T20" s="16" t="s">
-        <v>156</v>
       </c>
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
@@ -4985,21 +5058,21 @@
       <c r="Z20" s="16"/>
       <c r="AA20" s="34"/>
       <c r="AC20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD20" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="68" customHeight="1" spans="1:30">
       <c r="A21" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="C21" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>159</v>
       </c>
       <c r="D21" s="16">
         <v>2</v>
@@ -5028,16 +5101,16 @@
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O21" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="15"/>
@@ -5048,26 +5121,26 @@
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
       <c r="Y21" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z21" s="16"/>
       <c r="AA21" s="34"/>
       <c r="AC21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD21" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" ht="49.5" spans="1:30">
       <c r="A22" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>164</v>
       </c>
       <c r="D22" s="16">
         <v>1</v>
@@ -5096,50 +5169,50 @@
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O22" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q22" s="16"/>
       <c r="R22" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S22" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
       <c r="X22" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Y22" s="16"/>
       <c r="Z22" s="16"/>
       <c r="AA22" s="34"/>
       <c r="AC22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD22" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="23" ht="35" customHeight="1" spans="1:30">
       <c r="A23" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>170</v>
       </c>
       <c r="D23" s="16">
         <v>1</v>
@@ -5168,23 +5241,23 @@
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="N23" s="16">
-        <v>1</v>
+        <v>170</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="O23" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="16"/>
       <c r="R23" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="S23" s="16" t="s">
         <v>172</v>
-      </c>
-      <c r="S23" s="16" t="s">
-        <v>173</v>
       </c>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
@@ -5195,21 +5268,21 @@
       <c r="Z23" s="16"/>
       <c r="AA23" s="34"/>
       <c r="AC23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD23" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" ht="49.5" spans="1:30">
       <c r="A24" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="C24" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>176</v>
       </c>
       <c r="D24" s="16">
         <v>1</v>
@@ -5238,23 +5311,23 @@
       </c>
       <c r="L24" s="16"/>
       <c r="M24" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="N24" s="16">
-        <v>1</v>
+        <v>176</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="O24" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q24" s="16"/>
       <c r="R24" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S24" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
@@ -5265,21 +5338,21 @@
       <c r="Z24" s="16"/>
       <c r="AA24" s="34"/>
       <c r="AC24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD24" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" ht="35" customHeight="1" spans="1:30">
       <c r="A25" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="C25" s="15" t="s">
         <v>180</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>181</v>
       </c>
       <c r="D25" s="16">
         <v>1</v>
@@ -5308,23 +5381,23 @@
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="N25" s="16">
-        <v>1</v>
+        <v>181</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="O25" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P25" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q25" s="16"/>
       <c r="R25" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="S25" s="16" t="s">
         <v>183</v>
-      </c>
-      <c r="S25" s="16" t="s">
-        <v>184</v>
       </c>
       <c r="T25" s="16"/>
       <c r="U25" s="16"/>
@@ -5335,21 +5408,21 @@
       <c r="Z25" s="16"/>
       <c r="AA25" s="34"/>
       <c r="AC25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD25" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD25" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="26" ht="35" customHeight="1" spans="1:30">
       <c r="A26" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>186</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>187</v>
       </c>
       <c r="D26" s="19">
         <v>1</v>
@@ -5377,23 +5450,23 @@
         <v>32|48|64|80|96|80</v>
       </c>
       <c r="L26" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="M26" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="N26" s="16">
-        <v>1</v>
+      <c r="N26" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="O26" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P26" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q26" s="16"/>
       <c r="R26" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
@@ -5405,21 +5478,21 @@
       <c r="Z26" s="16"/>
       <c r="AA26" s="34"/>
       <c r="AC26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD26" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD26" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="27" ht="49.5" spans="1:30">
       <c r="A27" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="C27" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>193</v>
       </c>
       <c r="D27" s="16">
         <v>1</v>
@@ -5448,16 +5521,16 @@
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O27" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P27" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="16"/>
       <c r="R27" s="15"/>
@@ -5467,27 +5540,27 @@
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
       <c r="X27" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y27" s="16"/>
       <c r="Z27" s="16"/>
       <c r="AA27" s="34"/>
       <c r="AC27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD27" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD27" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:30">
       <c r="A28" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>198</v>
       </c>
       <c r="D28" s="16">
         <v>1</v>
@@ -5516,16 +5589,16 @@
       </c>
       <c r="L28" s="16"/>
       <c r="M28" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O28" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P28" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="16"/>
       <c r="R28" s="15"/>
@@ -5539,21 +5612,21 @@
       <c r="Z28" s="16"/>
       <c r="AA28" s="34"/>
       <c r="AC28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD28" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD28" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" ht="49.5" spans="1:30">
       <c r="A29" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="C29" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>202</v>
       </c>
       <c r="D29" s="16">
         <v>1</v>
@@ -5582,20 +5655,20 @@
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="N29" s="16">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="O29" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P29" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q29" s="16"/>
       <c r="R29" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
@@ -5603,27 +5676,27 @@
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
       <c r="X29" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y29" s="16"/>
       <c r="Z29" s="16"/>
       <c r="AA29" s="34"/>
       <c r="AC29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD29" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD29" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30" ht="51.5" customHeight="1" spans="1:30">
       <c r="A30" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="C30" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="D30" s="16">
         <v>1</v>
@@ -5652,23 +5725,23 @@
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="N30" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="N30" s="16" t="s">
+      <c r="O30" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="O30" s="16" t="s">
-        <v>211</v>
-      </c>
       <c r="P30" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q30" s="16"/>
       <c r="R30" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="S30" s="16" t="s">
         <v>212</v>
-      </c>
-      <c r="S30" s="16" t="s">
-        <v>213</v>
       </c>
       <c r="T30" s="16"/>
       <c r="U30" s="16"/>
@@ -5679,21 +5752,21 @@
       <c r="Z30" s="16"/>
       <c r="AA30" s="34"/>
       <c r="AC30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD30" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD30" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="49.5" spans="1:30">
       <c r="A31" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="C31" s="15" t="s">
         <v>215</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>216</v>
       </c>
       <c r="D31" s="16">
         <v>1</v>
@@ -5722,16 +5795,16 @@
       </c>
       <c r="L31" s="16"/>
       <c r="M31" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="N31" s="16">
-        <v>1</v>
+        <v>216</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="O31" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P31" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q31" s="16"/>
       <c r="R31" s="15"/>
@@ -5741,27 +5814,27 @@
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
       <c r="X31" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y31" s="16"/>
       <c r="Z31" s="16"/>
       <c r="AA31" s="34"/>
       <c r="AC31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD31" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD31" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="32" ht="35" customHeight="1" spans="1:30">
       <c r="A32" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="C32" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>221</v>
       </c>
       <c r="D32" s="16">
         <v>1</v>
@@ -5790,23 +5863,23 @@
       </c>
       <c r="L32" s="16"/>
       <c r="M32" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O32" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P32" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q32" s="16"/>
       <c r="R32" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="S32" s="16" t="s">
         <v>223</v>
-      </c>
-      <c r="S32" s="16" t="s">
-        <v>224</v>
       </c>
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
@@ -5817,21 +5890,21 @@
       <c r="Z32" s="16"/>
       <c r="AA32" s="34"/>
       <c r="AC32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD32" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD32" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="49.5" spans="1:30">
       <c r="A33" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="C33" s="15" t="s">
         <v>226</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>227</v>
       </c>
       <c r="D33" s="16">
         <v>1</v>
@@ -5859,19 +5932,19 @@
         <v>48|64|80|96|80|64</v>
       </c>
       <c r="L33" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="M33" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="M33" s="15" t="s">
-        <v>229</v>
-      </c>
       <c r="N33" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O33" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P33" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="16"/>
       <c r="R33" s="15"/>
@@ -5881,29 +5954,29 @@
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
       <c r="X33" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y33" s="16" t="s">
         <v>230</v>
-      </c>
-      <c r="Y33" s="16" t="s">
-        <v>231</v>
       </c>
       <c r="Z33" s="16"/>
       <c r="AA33" s="34"/>
       <c r="AC33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD33" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD33" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="49.5" spans="1:30">
       <c r="A34" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="C34" s="20" t="s">
         <v>233</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>234</v>
       </c>
       <c r="D34" s="21">
         <v>2</v>
@@ -5932,16 +6005,16 @@
       </c>
       <c r="L34" s="16"/>
       <c r="M34" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N34" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O34" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q34" s="16"/>
       <c r="R34" s="15"/>
@@ -5951,29 +6024,29 @@
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
       <c r="X34" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y34" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Z34" s="16"/>
       <c r="AA34" s="34"/>
       <c r="AC34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD34" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD34" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" ht="49.5" spans="1:30">
       <c r="A35" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="C35" s="15" t="s">
         <v>238</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="D35" s="16">
         <v>2</v>
@@ -6002,16 +6075,16 @@
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N35" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O35" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P35" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q35" s="16"/>
       <c r="R35" s="15"/>
@@ -6021,27 +6094,27 @@
       <c r="V35" s="16"/>
       <c r="W35" s="16"/>
       <c r="X35" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y35" s="16"/>
       <c r="Z35" s="16"/>
       <c r="AA35" s="34"/>
       <c r="AC35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD35" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD35" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="49.5" spans="1:30">
       <c r="A36" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="C36" s="20" t="s">
         <v>243</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>244</v>
       </c>
       <c r="D36" s="21">
         <v>2</v>
@@ -6070,16 +6143,16 @@
       </c>
       <c r="L36" s="16"/>
       <c r="M36" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N36" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O36" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q36" s="16"/>
       <c r="R36" s="15"/>
@@ -6089,27 +6162,27 @@
       <c r="V36" s="16"/>
       <c r="W36" s="16"/>
       <c r="X36" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Y36" s="16"/>
       <c r="Z36" s="16"/>
       <c r="AA36" s="34"/>
       <c r="AC36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD36" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD36" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="37" ht="35" customHeight="1" spans="1:30">
       <c r="A37" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="C37" s="15" t="s">
         <v>248</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>249</v>
       </c>
       <c r="D37" s="16">
         <v>1</v>
@@ -6138,20 +6211,20 @@
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="N37" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="N37" s="16" t="s">
-        <v>251</v>
-      </c>
       <c r="O37" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
@@ -6163,21 +6236,21 @@
       <c r="Z37" s="16"/>
       <c r="AA37" s="34"/>
       <c r="AC37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD37" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD37" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="38" ht="51.5" customHeight="1" spans="1:30">
       <c r="A38" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="C38" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>255</v>
       </c>
       <c r="D38" s="16">
         <v>1</v>
@@ -6205,19 +6278,19 @@
         <v>16|32|48|64|80|96</v>
       </c>
       <c r="L38" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="M38" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="M38" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="N38" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O38" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P38" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="16"/>
       <c r="R38" s="15"/>
@@ -6231,21 +6304,21 @@
       <c r="Z38" s="16"/>
       <c r="AA38" s="34"/>
       <c r="AC38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD38" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD38" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" ht="49.5" spans="1:30">
       <c r="A39" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="C39" s="15" t="s">
         <v>259</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>260</v>
       </c>
       <c r="D39" s="16">
         <v>1</v>
@@ -6273,19 +6346,19 @@
         <v>64|80|96|80|64|48</v>
       </c>
       <c r="L39" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="M39" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="M39" s="15" t="s">
-        <v>262</v>
-      </c>
       <c r="N39" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O39" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q39" s="16"/>
       <c r="R39" s="15"/>
@@ -6295,27 +6368,27 @@
       <c r="V39" s="16"/>
       <c r="W39" s="16"/>
       <c r="X39" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Y39" s="16"/>
       <c r="Z39" s="16"/>
       <c r="AA39" s="34"/>
       <c r="AC39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD39" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD39" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="40" ht="18.5" customHeight="1" spans="1:30">
       <c r="A40" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B40" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="C40" s="15" t="s">
         <v>265</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>266</v>
       </c>
       <c r="D40" s="16">
         <v>1</v>
@@ -6343,23 +6416,23 @@
         <v>32|48|64|80|96|80</v>
       </c>
       <c r="L40" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="M40" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="M40" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="N40" s="16">
-        <v>1</v>
+      <c r="N40" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="O40" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P40" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S40" s="16"/>
       <c r="T40" s="16"/>
@@ -6371,21 +6444,21 @@
       <c r="Z40" s="16"/>
       <c r="AA40" s="34"/>
       <c r="AC40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD40" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD40" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="41" ht="35" customHeight="1" spans="1:30">
       <c r="A41" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>271</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>272</v>
       </c>
       <c r="D41" s="16">
         <v>1</v>
@@ -6414,23 +6487,23 @@
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="N41" s="16">
-        <v>1</v>
+        <v>272</v>
+      </c>
+      <c r="N41" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="O41" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P41" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q41" s="16"/>
       <c r="R41" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="S41" s="16" t="s">
         <v>274</v>
-      </c>
-      <c r="S41" s="16" t="s">
-        <v>275</v>
       </c>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -6441,21 +6514,21 @@
       <c r="Z41" s="16"/>
       <c r="AA41" s="34"/>
       <c r="AC41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD41" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD41" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="42" ht="18.5" customHeight="1" spans="1:30">
       <c r="A42" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="C42" s="15" t="s">
         <v>277</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>278</v>
       </c>
       <c r="D42" s="16">
         <v>2</v>
@@ -6484,23 +6557,23 @@
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N42" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P42" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q42" s="16"/>
       <c r="R42" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="S42" s="16" t="s">
         <v>280</v>
-      </c>
-      <c r="S42" s="16" t="s">
-        <v>281</v>
       </c>
       <c r="T42" s="16"/>
       <c r="U42" s="16"/>
@@ -6511,21 +6584,21 @@
       <c r="Z42" s="16"/>
       <c r="AA42" s="34"/>
       <c r="AC42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD42" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD42" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="43" ht="35" customHeight="1" spans="1:30">
       <c r="A43" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B43" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="C43" s="15" t="s">
         <v>283</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>284</v>
       </c>
       <c r="D43" s="16">
         <v>1</v>
@@ -6553,26 +6626,26 @@
         <v>32|48|64|80|96|80</v>
       </c>
       <c r="L43" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="M43" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="M43" s="15" t="s">
-        <v>286</v>
-      </c>
       <c r="N43" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O43" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P43" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q43" s="16"/>
       <c r="R43" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="S43" s="16" t="s">
         <v>287</v>
-      </c>
-      <c r="S43" s="16" t="s">
-        <v>288</v>
       </c>
       <c r="T43" s="16"/>
       <c r="U43" s="16"/>
@@ -6583,21 +6656,21 @@
       <c r="Z43" s="16"/>
       <c r="AA43" s="34"/>
       <c r="AC43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD43" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD43" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="44" ht="115.5" spans="1:30">
       <c r="A44" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="C44" s="15" t="s">
         <v>290</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>291</v>
       </c>
       <c r="D44" s="16">
         <v>1</v>
@@ -6626,29 +6699,29 @@
       </c>
       <c r="L44" s="16"/>
       <c r="M44" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N44" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O44" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q44" s="16"/>
       <c r="R44" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="S44" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="S44" s="16" t="s">
+      <c r="T44" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="T44" s="16" t="s">
+      <c r="U44" s="16" t="s">
         <v>295</v>
-      </c>
-      <c r="U44" s="16" t="s">
-        <v>296</v>
       </c>
       <c r="V44" s="16"/>
       <c r="W44" s="16"/>
@@ -6657,21 +6730,21 @@
       <c r="Z44" s="16"/>
       <c r="AA44" s="34"/>
       <c r="AC44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD44" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD44" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="45" ht="49.5" spans="1:30">
       <c r="A45" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B45" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="C45" s="15" t="s">
         <v>298</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="D45" s="16">
         <v>1</v>
@@ -6698,20 +6771,20 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N45" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O45" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P45" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q45" s="16"/>
       <c r="R45" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S45" s="16"/>
       <c r="T45" s="16"/>
@@ -6719,27 +6792,27 @@
       <c r="V45" s="16"/>
       <c r="W45" s="16"/>
       <c r="X45" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y45" s="16"/>
       <c r="Z45" s="16"/>
       <c r="AA45" s="34"/>
       <c r="AC45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD45" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD45" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="46" ht="18.5" customHeight="1" spans="1:30">
       <c r="A46" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B46" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="C46" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>305</v>
       </c>
       <c r="D46" s="16">
         <v>1</v>
@@ -6766,16 +6839,16 @@
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="N46" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="N46" s="16" t="s">
-        <v>307</v>
-      </c>
       <c r="O46" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P46" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q46" s="16"/>
       <c r="R46" s="15"/>
@@ -6789,21 +6862,21 @@
       <c r="Z46" s="16"/>
       <c r="AA46" s="34"/>
       <c r="AC46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD46" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD46" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="47" ht="18.5" customHeight="1" spans="1:30">
       <c r="A47" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B47" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="C47" s="15" t="s">
         <v>309</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>310</v>
       </c>
       <c r="D47" s="16">
         <v>1</v>
@@ -6830,26 +6903,26 @@
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O47" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q47" s="16"/>
       <c r="R47" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S47" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T47" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U47" s="16"/>
       <c r="V47" s="16"/>
@@ -6859,21 +6932,21 @@
       <c r="Z47" s="16"/>
       <c r="AA47" s="34"/>
       <c r="AC47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD47" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD47" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="48" ht="18.5" customHeight="1" spans="1:30">
       <c r="A48" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="C48" s="15" t="s">
         <v>314</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>315</v>
       </c>
       <c r="D48" s="16">
         <v>1</v>
@@ -6899,19 +6972,19 @@
         <v>32|48|64|80|96|80</v>
       </c>
       <c r="L48" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="M48" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="M48" s="15" t="s">
-        <v>317</v>
-      </c>
       <c r="N48" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O48" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P48" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q48" s="16"/>
       <c r="R48" s="15"/>
@@ -6925,21 +6998,21 @@
       <c r="Z48" s="16"/>
       <c r="AA48" s="34"/>
       <c r="AC48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD48" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD48" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="49" ht="35" customHeight="1" spans="1:30">
       <c r="A49" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B49" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="C49" s="23" t="s">
         <v>319</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>320</v>
       </c>
       <c r="D49" s="22">
         <v>1</v>
@@ -6965,26 +7038,26 @@
         <v>16|32|48|64|80|96</v>
       </c>
       <c r="L49" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="M49" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="M49" s="15" t="s">
-        <v>322</v>
-      </c>
       <c r="N49" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O49" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P49" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q49" s="16"/>
       <c r="R49" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="S49" s="16" t="s">
         <v>323</v>
-      </c>
-      <c r="S49" s="16" t="s">
-        <v>324</v>
       </c>
       <c r="T49" s="16"/>
       <c r="U49" s="16"/>
@@ -6995,21 +7068,21 @@
       <c r="Z49" s="16"/>
       <c r="AA49" s="34"/>
       <c r="AC49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD49" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD49" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="50" ht="49.5" spans="1:30">
       <c r="A50" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B50" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="C50" s="15" t="s">
         <v>326</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>327</v>
       </c>
       <c r="D50" s="16">
         <v>1</v>
@@ -7035,19 +7108,19 @@
         <v>16|32|48|64|80|96</v>
       </c>
       <c r="L50" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="M50" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="M50" s="15" t="s">
-        <v>329</v>
-      </c>
       <c r="N50" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O50" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P50" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q50" s="16"/>
       <c r="R50" s="15"/>
@@ -7057,27 +7130,27 @@
       <c r="V50" s="16"/>
       <c r="W50" s="16"/>
       <c r="X50" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y50" s="16"/>
       <c r="Z50" s="16"/>
       <c r="AA50" s="34"/>
       <c r="AC50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD50" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD50" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="51" ht="35" customHeight="1" spans="1:30">
       <c r="A51" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B51" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="C51" s="15" t="s">
         <v>332</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>333</v>
       </c>
       <c r="D51" s="16">
         <v>1</v>
@@ -7104,23 +7177,23 @@
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N51" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O51" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P51" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q51" s="16"/>
       <c r="R51" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="S51" s="16" t="s">
         <v>335</v>
-      </c>
-      <c r="S51" s="16" t="s">
-        <v>336</v>
       </c>
       <c r="T51" s="16"/>
       <c r="U51" s="16"/>
@@ -7131,21 +7204,21 @@
       <c r="Z51" s="16"/>
       <c r="AA51" s="34"/>
       <c r="AC51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD51" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD51" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="52" ht="49.5" spans="1:30">
       <c r="A52" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B52" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="C52" s="15" t="s">
         <v>338</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>339</v>
       </c>
       <c r="D52" s="16">
         <v>1</v>
@@ -7171,19 +7244,19 @@
         <v>16|32|48|64|80|96</v>
       </c>
       <c r="L52" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="M52" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="M52" s="15" t="s">
-        <v>341</v>
-      </c>
       <c r="N52" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O52" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P52" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q52" s="16"/>
       <c r="R52" s="15"/>
@@ -7193,29 +7266,29 @@
       <c r="V52" s="16"/>
       <c r="W52" s="16"/>
       <c r="X52" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y52" s="16" t="s">
         <v>342</v>
-      </c>
-      <c r="Y52" s="16" t="s">
-        <v>343</v>
       </c>
       <c r="Z52" s="16"/>
       <c r="AA52" s="34"/>
       <c r="AC52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD52" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD52" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="53" ht="35" customHeight="1" spans="1:30">
       <c r="A53" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B53" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="C53" s="15" t="s">
         <v>345</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>346</v>
       </c>
       <c r="D53" s="16">
         <v>1</v>
@@ -7241,19 +7314,19 @@
         <v>16|32|48|64|80|96</v>
       </c>
       <c r="L53" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="M53" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="M53" s="15" t="s">
-        <v>348</v>
-      </c>
       <c r="N53" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O53" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P53" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q53" s="16"/>
       <c r="R53" s="15"/>
@@ -7267,21 +7340,21 @@
       <c r="Z53" s="16"/>
       <c r="AA53" s="34"/>
       <c r="AC53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD53" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD53" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="54" ht="49.5" spans="1:30">
       <c r="A54" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="B54" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="C54" s="15" t="s">
         <v>350</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>351</v>
       </c>
       <c r="D54" s="16">
         <v>2</v>
@@ -7308,16 +7381,16 @@
       </c>
       <c r="L54" s="16"/>
       <c r="M54" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N54" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O54" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P54" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q54" s="16"/>
       <c r="R54" s="15"/>
@@ -7327,27 +7400,27 @@
       <c r="V54" s="16"/>
       <c r="W54" s="16"/>
       <c r="X54" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Y54" s="16"/>
       <c r="Z54" s="16"/>
       <c r="AA54" s="34"/>
       <c r="AC54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD54" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD54" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="55" ht="49.5" spans="1:30">
       <c r="A55" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B55" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="C55" s="15" t="s">
         <v>355</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>356</v>
       </c>
       <c r="D55" s="16">
         <v>2</v>
@@ -7374,16 +7447,16 @@
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N55" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O55" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P55" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q55" s="16"/>
       <c r="R55" s="15"/>
@@ -7393,26 +7466,26 @@
       <c r="V55" s="16"/>
       <c r="W55" s="16"/>
       <c r="X55" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Z55" s="16"/>
       <c r="AA55" s="34"/>
       <c r="AC55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD55" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD55" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="56" ht="49.5" spans="1:30">
       <c r="A56" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B56" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="C56" s="15" t="s">
         <v>360</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>361</v>
       </c>
       <c r="D56" s="16">
         <v>1</v>
@@ -7439,16 +7512,16 @@
       </c>
       <c r="L56" s="16"/>
       <c r="M56" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N56" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O56" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P56" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q56" s="16"/>
       <c r="R56" s="15"/>
@@ -7458,27 +7531,27 @@
       <c r="V56" s="16"/>
       <c r="W56" s="16"/>
       <c r="X56" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y56" s="16"/>
       <c r="Z56" s="16"/>
       <c r="AA56" s="34"/>
       <c r="AC56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD56" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD56" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="57" ht="35" customHeight="1" spans="1:30">
       <c r="A57" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B57" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="C57" s="15" t="s">
         <v>365</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>366</v>
       </c>
       <c r="D57" s="16">
         <v>1</v>
@@ -7504,19 +7577,19 @@
         <v>64|80|96|80|64|48</v>
       </c>
       <c r="L57" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="M57" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="M57" s="15" t="s">
-        <v>368</v>
-      </c>
       <c r="N57" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O57" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P57" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q57" s="16"/>
       <c r="R57" s="15"/>
@@ -7530,21 +7603,21 @@
       <c r="Z57" s="16"/>
       <c r="AA57" s="34"/>
       <c r="AC57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD57" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD57" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="58" ht="35" customHeight="1" spans="1:30">
       <c r="A58" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B58" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="C58" s="15" t="s">
         <v>370</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>371</v>
       </c>
       <c r="D58" s="16">
         <v>1</v>
@@ -7571,16 +7644,16 @@
       </c>
       <c r="L58" s="16"/>
       <c r="M58" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N58" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O58" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P58" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q58" s="16"/>
       <c r="R58" s="15"/>
@@ -7594,21 +7667,21 @@
       <c r="Z58" s="16"/>
       <c r="AA58" s="34"/>
       <c r="AC58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD58" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD58" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="59" ht="35" customHeight="1" spans="1:30">
       <c r="A59" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B59" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="C59" s="15" t="s">
         <v>374</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>375</v>
       </c>
       <c r="D59" s="16">
         <v>1</v>
@@ -7635,16 +7708,16 @@
       </c>
       <c r="L59" s="16"/>
       <c r="M59" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N59" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O59" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P59" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q59" s="16"/>
       <c r="R59" s="15"/>
@@ -7658,21 +7731,21 @@
       <c r="Z59" s="16"/>
       <c r="AA59" s="34"/>
       <c r="AC59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD59" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD59" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="60" ht="65" customHeight="1" spans="1:30">
       <c r="A60" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="B60" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="C60" s="24" t="s">
         <v>378</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>379</v>
       </c>
       <c r="D60" s="17">
         <v>1</v>
@@ -7698,23 +7771,23 @@
         <v>16|32|48|64|80|96</v>
       </c>
       <c r="L60" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="M60" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="M60" s="15" t="s">
+      <c r="N60" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="N60" s="16" t="s">
-        <v>382</v>
-      </c>
       <c r="O60" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P60" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q60" s="16"/>
       <c r="R60" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="S60" s="16"/>
       <c r="T60" s="16"/>
@@ -7726,21 +7799,21 @@
       <c r="Z60" s="16"/>
       <c r="AA60" s="34"/>
       <c r="AC60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD60" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD60" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="61" ht="51.5" customHeight="1" spans="1:30">
       <c r="A61" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="B61" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="C61" s="15" t="s">
         <v>385</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>386</v>
       </c>
       <c r="D61" s="16">
         <v>1</v>
@@ -7767,16 +7840,16 @@
       </c>
       <c r="L61" s="16"/>
       <c r="M61" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N61" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O61" s="16" t="s">
         <v>44</v>
       </c>
       <c r="P61" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q61" s="16"/>
       <c r="R61" s="15"/>
@@ -7790,21 +7863,21 @@
       <c r="Z61" s="16"/>
       <c r="AA61" s="34"/>
       <c r="AC61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD61" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD61" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="62" ht="49.5" spans="1:30">
       <c r="A62" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B62" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="C62" s="27" t="s">
         <v>389</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>390</v>
       </c>
       <c r="D62" s="28">
         <v>2</v>
@@ -7831,16 +7904,16 @@
       </c>
       <c r="L62" s="28"/>
       <c r="M62" s="27" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N62" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O62" s="28" t="s">
         <v>44</v>
       </c>
       <c r="P62" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q62" s="28"/>
       <c r="R62" s="27"/>
@@ -7850,27 +7923,27 @@
       <c r="V62" s="28"/>
       <c r="W62" s="28"/>
       <c r="X62" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y62" s="28"/>
       <c r="Z62" s="28"/>
       <c r="AA62" s="35"/>
       <c r="AC62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD62" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD62" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="63" ht="49.5" spans="1:30">
       <c r="A63" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="B63" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="C63" s="27" t="s">
         <v>394</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>395</v>
       </c>
       <c r="D63" s="28">
         <v>2</v>
@@ -7897,16 +7970,16 @@
       </c>
       <c r="L63" s="28"/>
       <c r="M63" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N63" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O63" s="28" t="s">
         <v>44</v>
       </c>
       <c r="P63" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q63" s="28"/>
       <c r="R63" s="27"/>
@@ -7916,27 +7989,27 @@
       <c r="V63" s="28"/>
       <c r="W63" s="28"/>
       <c r="X63" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Y63" s="28"/>
       <c r="Z63" s="28"/>
       <c r="AA63" s="35"/>
       <c r="AC63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD63" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD63" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="64" ht="49.5" spans="1:30">
       <c r="A64" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="B64" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="C64" s="27" t="s">
         <v>399</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>400</v>
       </c>
       <c r="D64" s="28">
         <v>2</v>
@@ -7963,16 +8036,16 @@
       </c>
       <c r="L64" s="28"/>
       <c r="M64" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N64" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O64" s="28" t="s">
         <v>44</v>
       </c>
       <c r="P64" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q64" s="28"/>
       <c r="R64" s="27"/>
@@ -7982,27 +8055,27 @@
       <c r="V64" s="28"/>
       <c r="W64" s="28"/>
       <c r="X64" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Y64" s="28"/>
       <c r="Z64" s="28"/>
       <c r="AA64" s="35"/>
       <c r="AC64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD64" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD64" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="65" ht="49.5" spans="1:30">
       <c r="A65" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B65" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="C65" s="27" t="s">
         <v>402</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>403</v>
       </c>
       <c r="D65" s="28">
         <v>2</v>
@@ -8029,16 +8102,16 @@
       </c>
       <c r="L65" s="28"/>
       <c r="M65" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N65" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O65" s="28" t="s">
         <v>44</v>
       </c>
       <c r="P65" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q65" s="28"/>
       <c r="R65" s="27"/>
@@ -8048,27 +8121,27 @@
       <c r="V65" s="28"/>
       <c r="W65" s="28"/>
       <c r="X65" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y65" s="28"/>
       <c r="Z65" s="28"/>
       <c r="AA65" s="35"/>
       <c r="AC65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD65" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD65" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="66" ht="49.5" spans="1:30">
       <c r="A66" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="B66" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="C66" s="27" t="s">
         <v>406</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>407</v>
       </c>
       <c r="D66" s="28">
         <v>2</v>
@@ -8095,16 +8168,16 @@
       </c>
       <c r="L66" s="28"/>
       <c r="M66" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N66" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O66" s="28" t="s">
         <v>44</v>
       </c>
       <c r="P66" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q66" s="28"/>
       <c r="R66" s="27"/>
@@ -8114,27 +8187,27 @@
       <c r="V66" s="28"/>
       <c r="W66" s="28"/>
       <c r="X66" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Y66" s="28"/>
       <c r="Z66" s="28"/>
       <c r="AA66" s="35"/>
       <c r="AC66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD66" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD66" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="67" ht="49.5" spans="1:30">
       <c r="A67" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="B67" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="C67" s="27" t="s">
         <v>410</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>411</v>
       </c>
       <c r="D67" s="28">
         <v>2</v>
@@ -8161,16 +8234,16 @@
       </c>
       <c r="L67" s="28"/>
       <c r="M67" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N67" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O67" s="28" t="s">
         <v>44</v>
       </c>
       <c r="P67" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q67" s="28"/>
       <c r="R67" s="27"/>
@@ -8180,27 +8253,27 @@
       <c r="V67" s="28"/>
       <c r="W67" s="28"/>
       <c r="X67" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Y67" s="28"/>
       <c r="Z67" s="28"/>
       <c r="AA67" s="35"/>
       <c r="AC67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD67" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD67" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="68" ht="49.5" spans="1:30">
       <c r="A68" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="B68" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="C68" s="27" t="s">
         <v>414</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>415</v>
       </c>
       <c r="D68" s="28">
         <v>1</v>
@@ -8227,16 +8300,16 @@
       </c>
       <c r="L68" s="28"/>
       <c r="M68" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N68" s="28" t="s">
-        <v>58</v>
+        <v>412</v>
       </c>
       <c r="O68" s="28" t="s">
         <v>44</v>
       </c>
       <c r="P68" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q68" s="28"/>
       <c r="R68" s="27"/>
@@ -8250,21 +8323,21 @@
       <c r="Z68" s="28"/>
       <c r="AA68" s="35"/>
       <c r="AC68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD68" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD68" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="69" ht="49.5" spans="1:30">
       <c r="A69" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="B69" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="C69" s="27" t="s">
         <v>417</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>418</v>
       </c>
       <c r="D69" s="28">
         <v>1</v>
@@ -8291,19 +8364,21 @@
       </c>
       <c r="L69" s="28"/>
       <c r="M69" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N69" s="28" t="s">
-        <v>58</v>
+        <v>415</v>
       </c>
       <c r="O69" s="28" t="s">
         <v>44</v>
       </c>
       <c r="P69" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q69" s="28"/>
-      <c r="R69" s="27"/>
+      <c r="R69" s="27" t="s">
+        <v>418</v>
+      </c>
       <c r="S69" s="28"/>
       <c r="T69" s="28"/>
       <c r="U69" s="28"/>
@@ -8314,13 +8389,13 @@
       <c r="Z69" s="28"/>
       <c r="AA69" s="35"/>
       <c r="AC69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD69" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AD69" s="1" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="70" ht="49.5" spans="1:30">
+    <row r="70" ht="66" spans="1:30">
       <c r="A70" s="25" t="s">
         <v>419</v>
       </c>
@@ -8355,16 +8430,16 @@
       </c>
       <c r="L70" s="28"/>
       <c r="M70" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N70" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O70" s="28" t="s">
         <v>44</v>
       </c>
       <c r="P70" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q70" s="28"/>
       <c r="R70" s="27"/>
@@ -8373,26 +8448,30 @@
       <c r="U70" s="28"/>
       <c r="V70" s="28"/>
       <c r="W70" s="28"/>
-      <c r="X70" s="28"/>
-      <c r="Y70" s="28"/>
+      <c r="X70" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y70" s="28" t="s">
+        <v>423</v>
+      </c>
       <c r="Z70" s="28"/>
       <c r="AA70" s="35"/>
       <c r="AC70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD70" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AD70" s="1" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="71" ht="33" spans="1:30">
+    <row r="71" ht="67" customHeight="1" spans="1:30">
       <c r="A71" s="25" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D71" s="28">
         <v>1</v>
@@ -8419,16 +8498,16 @@
       </c>
       <c r="L71" s="28"/>
       <c r="M71" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N71" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O71" s="28" t="s">
         <v>44</v>
       </c>
       <c r="P71" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q71" s="28"/>
       <c r="R71" s="27"/>
@@ -8437,26 +8516,30 @@
       <c r="U71" s="28"/>
       <c r="V71" s="28"/>
       <c r="W71" s="28"/>
-      <c r="X71" s="28"/>
-      <c r="Y71" s="28"/>
+      <c r="X71" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y71" s="28" t="s">
+        <v>428</v>
+      </c>
       <c r="Z71" s="28"/>
       <c r="AA71" s="35"/>
       <c r="AC71" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD71" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD71" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="72" ht="33" spans="1:30">
       <c r="A72" s="25" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D72" s="28">
         <v>1</v>
@@ -8483,20 +8566,24 @@
       </c>
       <c r="L72" s="28"/>
       <c r="M72" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N72" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O72" s="28" t="s">
         <v>44</v>
       </c>
       <c r="P72" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q72" s="28"/>
-      <c r="R72" s="27"/>
-      <c r="S72" s="28"/>
+      <c r="R72" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="S72" s="28" t="s">
+        <v>433</v>
+      </c>
       <c r="T72" s="28"/>
       <c r="U72" s="28"/>
       <c r="V72" s="28"/>
@@ -8506,21 +8593,21 @@
       <c r="Z72" s="28"/>
       <c r="AA72" s="35"/>
       <c r="AC72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD72" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AD72" s="1" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="73" ht="33" spans="1:30">
+    <row r="73" ht="66" spans="1:30">
       <c r="A73" s="25" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D73" s="28">
         <v>1</v>
@@ -8547,21 +8634,27 @@
       </c>
       <c r="L73" s="28"/>
       <c r="M73" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N73" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O73" s="28" t="s">
         <v>44</v>
       </c>
       <c r="P73" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q73" s="28"/>
-      <c r="R73" s="27"/>
-      <c r="S73" s="28"/>
-      <c r="T73" s="28"/>
+      <c r="R73" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="S73" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="T73" s="28" t="s">
+        <v>439</v>
+      </c>
       <c r="U73" s="28"/>
       <c r="V73" s="28"/>
       <c r="W73" s="28"/>
@@ -8570,21 +8663,21 @@
       <c r="Z73" s="28"/>
       <c r="AA73" s="35"/>
       <c r="AC73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD73" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AD73" s="1" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="74" ht="16.5" spans="1:30">
+    <row r="74" ht="33" spans="1:30">
       <c r="A74" s="25" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D74" s="28">
         <v>1</v>
@@ -8611,22 +8704,30 @@
       </c>
       <c r="L74" s="28"/>
       <c r="M74" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N74" s="28" t="s">
-        <v>58</v>
+        <v>440</v>
       </c>
       <c r="O74" s="28" t="s">
         <v>44</v>
       </c>
       <c r="P74" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q74" s="28"/>
-      <c r="R74" s="27"/>
-      <c r="S74" s="28"/>
-      <c r="T74" s="28"/>
-      <c r="U74" s="28"/>
+      <c r="R74" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="S74" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="T74" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="U74" s="28" t="s">
+        <v>446</v>
+      </c>
       <c r="V74" s="28"/>
       <c r="W74" s="28"/>
       <c r="X74" s="28"/>
@@ -8634,10 +8735,10 @@
       <c r="Z74" s="28"/>
       <c r="AA74" s="35"/>
       <c r="AC74" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD74" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AD74" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -8667,7 +8768,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -8680,7 +8781,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8688,7 +8789,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8696,7 +8797,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8704,7 +8805,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8712,7 +8813,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8720,7 +8821,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8728,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="455">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -366,6 +366,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>对自身%range%码范围内的敌人提高%harm%%%的</t>
     </r>
     <r>
@@ -917,6 +923,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>技能强度</t>
     </r>
     <r>
@@ -1314,13 +1326,16 @@
     <t>【圣坛遗物】</t>
   </si>
   <si>
-    <t>击杀敌军有3%概率获得随机圣坛效果，持续5秒</t>
+    <t>击杀敌军有1%概率获得随机圣坛效果，持续5秒</t>
   </si>
   <si>
     <t>圣坛随机效果</t>
   </si>
   <si>
     <t>item_prop/圣坛遗物</t>
+  </si>
+  <si>
+    <t>chance 1</t>
   </si>
   <si>
     <t>prop_52</t>
@@ -1610,6 +1625,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>下一波刷怪开始时：
 造成伤害提高%fidamage%%%（</t>
     </r>
@@ -1698,6 +1719,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>站立不动%second%秒后，队友获得%qt_dbm%%%的</t>
     </r>
     <r>
@@ -3274,16 +3301,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B6986B52-91D2-4B46-9D59-AE2D5025F690}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{36F1103A-2AAC-45AB-9C27-C94987D694F8}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A0C3EABF-517D-4EB6-9FE6-306405ED1024}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{024EF4DB-0325-4830-9600-754BB92DF373}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{777CD60C-8663-45EC-ACAC-FC5E0D816ED1}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{21A3D4A1-AA29-4BFE-9187-780231A519AC}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3295,7 +3322,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{83587CCA-4180-4547-AEBC-2EAE8DB21DB9}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{0215366A-1437-4BD8-9943-2B1ADB5D4892}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3606,10 +3633,10 @@
   <sheetPr/>
   <dimension ref="A1:AD74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A38" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A70" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D29" sqref="D29"/>
+      <selection pane="topRight" activeCell="AK63" sqref="AK63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7329,7 +7356,9 @@
         <v>49</v>
       </c>
       <c r="Q53" s="16"/>
-      <c r="R53" s="15"/>
+      <c r="R53" s="15" t="s">
+        <v>348</v>
+      </c>
       <c r="S53" s="16"/>
       <c r="T53" s="16"/>
       <c r="U53" s="16"/>
@@ -7348,13 +7377,13 @@
     </row>
     <row r="54" ht="49.5" spans="1:30">
       <c r="A54" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D54" s="16">
         <v>2</v>
@@ -7381,7 +7410,7 @@
       </c>
       <c r="L54" s="16"/>
       <c r="M54" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N54" s="16" t="s">
         <v>57</v>
@@ -7400,7 +7429,7 @@
       <c r="V54" s="16"/>
       <c r="W54" s="16"/>
       <c r="X54" s="16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y54" s="16"/>
       <c r="Z54" s="16"/>
@@ -7414,13 +7443,13 @@
     </row>
     <row r="55" ht="49.5" spans="1:30">
       <c r="A55" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D55" s="16">
         <v>2</v>
@@ -7447,7 +7476,7 @@
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N55" s="16" t="s">
         <v>57</v>
@@ -7466,7 +7495,7 @@
       <c r="V55" s="16"/>
       <c r="W55" s="16"/>
       <c r="X55" s="16" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z55" s="16"/>
       <c r="AA55" s="34"/>
@@ -7479,13 +7508,13 @@
     </row>
     <row r="56" ht="49.5" spans="1:30">
       <c r="A56" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D56" s="16">
         <v>1</v>
@@ -7512,7 +7541,7 @@
       </c>
       <c r="L56" s="16"/>
       <c r="M56" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N56" s="16" t="s">
         <v>57</v>
@@ -7531,7 +7560,7 @@
       <c r="V56" s="16"/>
       <c r="W56" s="16"/>
       <c r="X56" s="16" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Y56" s="16"/>
       <c r="Z56" s="16"/>
@@ -7545,13 +7574,13 @@
     </row>
     <row r="57" ht="35" customHeight="1" spans="1:30">
       <c r="A57" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D57" s="16">
         <v>1</v>
@@ -7577,10 +7606,10 @@
         <v>64|80|96|80|64|48</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M57" s="15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N57" s="16" t="s">
         <v>57</v>
@@ -7611,13 +7640,13 @@
     </row>
     <row r="58" ht="35" customHeight="1" spans="1:30">
       <c r="A58" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D58" s="16">
         <v>1</v>
@@ -7644,7 +7673,7 @@
       </c>
       <c r="L58" s="16"/>
       <c r="M58" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N58" s="16" t="s">
         <v>57</v>
@@ -7675,13 +7704,13 @@
     </row>
     <row r="59" ht="35" customHeight="1" spans="1:30">
       <c r="A59" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D59" s="16">
         <v>1</v>
@@ -7708,7 +7737,7 @@
       </c>
       <c r="L59" s="16"/>
       <c r="M59" s="15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N59" s="16" t="s">
         <v>57</v>
@@ -7739,13 +7768,13 @@
     </row>
     <row r="60" ht="65" customHeight="1" spans="1:30">
       <c r="A60" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D60" s="17">
         <v>1</v>
@@ -7771,13 +7800,13 @@
         <v>16|32|48|64|80|96</v>
       </c>
       <c r="L60" s="16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M60" s="15" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N60" s="16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O60" s="16" t="s">
         <v>44</v>
@@ -7787,7 +7816,7 @@
       </c>
       <c r="Q60" s="16"/>
       <c r="R60" s="15" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S60" s="16"/>
       <c r="T60" s="16"/>
@@ -7807,13 +7836,13 @@
     </row>
     <row r="61" ht="51.5" customHeight="1" spans="1:30">
       <c r="A61" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D61" s="16">
         <v>1</v>
@@ -7840,7 +7869,7 @@
       </c>
       <c r="L61" s="16"/>
       <c r="M61" s="15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N61" s="16" t="s">
         <v>57</v>
@@ -7871,13 +7900,13 @@
     </row>
     <row r="62" ht="49.5" spans="1:30">
       <c r="A62" s="25" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D62" s="28">
         <v>2</v>
@@ -7904,7 +7933,7 @@
       </c>
       <c r="L62" s="28"/>
       <c r="M62" s="27" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N62" s="28" t="s">
         <v>57</v>
@@ -7923,7 +7952,7 @@
       <c r="V62" s="28"/>
       <c r="W62" s="28"/>
       <c r="X62" s="28" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Y62" s="28"/>
       <c r="Z62" s="28"/>
@@ -7937,13 +7966,13 @@
     </row>
     <row r="63" ht="49.5" spans="1:30">
       <c r="A63" s="25" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D63" s="28">
         <v>2</v>
@@ -7970,7 +7999,7 @@
       </c>
       <c r="L63" s="28"/>
       <c r="M63" s="27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N63" s="28" t="s">
         <v>57</v>
@@ -7989,7 +8018,7 @@
       <c r="V63" s="28"/>
       <c r="W63" s="28"/>
       <c r="X63" s="28" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Y63" s="28"/>
       <c r="Z63" s="28"/>
@@ -8003,13 +8032,13 @@
     </row>
     <row r="64" ht="49.5" spans="1:30">
       <c r="A64" s="25" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D64" s="28">
         <v>2</v>
@@ -8036,7 +8065,7 @@
       </c>
       <c r="L64" s="28"/>
       <c r="M64" s="27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N64" s="28" t="s">
         <v>57</v>
@@ -8055,7 +8084,7 @@
       <c r="V64" s="28"/>
       <c r="W64" s="28"/>
       <c r="X64" s="28" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Y64" s="28"/>
       <c r="Z64" s="28"/>
@@ -8069,13 +8098,13 @@
     </row>
     <row r="65" ht="49.5" spans="1:30">
       <c r="A65" s="25" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D65" s="28">
         <v>2</v>
@@ -8102,7 +8131,7 @@
       </c>
       <c r="L65" s="28"/>
       <c r="M65" s="27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N65" s="28" t="s">
         <v>57</v>
@@ -8121,7 +8150,7 @@
       <c r="V65" s="28"/>
       <c r="W65" s="28"/>
       <c r="X65" s="28" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Y65" s="28"/>
       <c r="Z65" s="28"/>
@@ -8135,13 +8164,13 @@
     </row>
     <row r="66" ht="49.5" spans="1:30">
       <c r="A66" s="25" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D66" s="28">
         <v>2</v>
@@ -8168,7 +8197,7 @@
       </c>
       <c r="L66" s="28"/>
       <c r="M66" s="27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N66" s="28" t="s">
         <v>57</v>
@@ -8187,7 +8216,7 @@
       <c r="V66" s="28"/>
       <c r="W66" s="28"/>
       <c r="X66" s="28" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Y66" s="28"/>
       <c r="Z66" s="28"/>
@@ -8201,13 +8230,13 @@
     </row>
     <row r="67" ht="49.5" spans="1:30">
       <c r="A67" s="25" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D67" s="28">
         <v>2</v>
@@ -8234,7 +8263,7 @@
       </c>
       <c r="L67" s="28"/>
       <c r="M67" s="27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N67" s="28" t="s">
         <v>57</v>
@@ -8253,7 +8282,7 @@
       <c r="V67" s="28"/>
       <c r="W67" s="28"/>
       <c r="X67" s="28" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Y67" s="28"/>
       <c r="Z67" s="28"/>
@@ -8267,13 +8296,13 @@
     </row>
     <row r="68" ht="49.5" spans="1:30">
       <c r="A68" s="25" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D68" s="28">
         <v>1</v>
@@ -8300,10 +8329,10 @@
       </c>
       <c r="L68" s="28"/>
       <c r="M68" s="27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N68" s="28" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O68" s="28" t="s">
         <v>44</v>
@@ -8331,13 +8360,13 @@
     </row>
     <row r="69" ht="49.5" spans="1:30">
       <c r="A69" s="25" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D69" s="28">
         <v>1</v>
@@ -8364,10 +8393,10 @@
       </c>
       <c r="L69" s="28"/>
       <c r="M69" s="27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N69" s="28" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O69" s="28" t="s">
         <v>44</v>
@@ -8377,7 +8406,7 @@
       </c>
       <c r="Q69" s="28"/>
       <c r="R69" s="27" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="S69" s="28"/>
       <c r="T69" s="28"/>
@@ -8397,13 +8426,13 @@
     </row>
     <row r="70" ht="66" spans="1:30">
       <c r="A70" s="25" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D70" s="28">
         <v>1</v>
@@ -8430,7 +8459,7 @@
       </c>
       <c r="L70" s="28"/>
       <c r="M70" s="27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N70" s="28" t="s">
         <v>57</v>
@@ -8449,10 +8478,10 @@
       <c r="V70" s="28"/>
       <c r="W70" s="28"/>
       <c r="X70" s="28" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Y70" s="28" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z70" s="28"/>
       <c r="AA70" s="35"/>
@@ -8465,13 +8494,13 @@
     </row>
     <row r="71" ht="67" customHeight="1" spans="1:30">
       <c r="A71" s="25" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D71" s="28">
         <v>1</v>
@@ -8498,7 +8527,7 @@
       </c>
       <c r="L71" s="28"/>
       <c r="M71" s="27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N71" s="28" t="s">
         <v>57</v>
@@ -8517,10 +8546,10 @@
       <c r="V71" s="28"/>
       <c r="W71" s="28"/>
       <c r="X71" s="28" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y71" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z71" s="28"/>
       <c r="AA71" s="35"/>
@@ -8533,13 +8562,13 @@
     </row>
     <row r="72" ht="33" spans="1:30">
       <c r="A72" s="25" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D72" s="28">
         <v>1</v>
@@ -8566,7 +8595,7 @@
       </c>
       <c r="L72" s="28"/>
       <c r="M72" s="27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N72" s="28" t="s">
         <v>57</v>
@@ -8579,10 +8608,10 @@
       </c>
       <c r="Q72" s="28"/>
       <c r="R72" s="27" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S72" s="28" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="T72" s="28"/>
       <c r="U72" s="28"/>
@@ -8601,13 +8630,13 @@
     </row>
     <row r="73" ht="66" spans="1:30">
       <c r="A73" s="25" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D73" s="28">
         <v>1</v>
@@ -8634,7 +8663,7 @@
       </c>
       <c r="L73" s="28"/>
       <c r="M73" s="27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N73" s="28" t="s">
         <v>57</v>
@@ -8647,13 +8676,13 @@
       </c>
       <c r="Q73" s="28"/>
       <c r="R73" s="27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="S73" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="T73" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="U73" s="28"/>
       <c r="V73" s="28"/>
@@ -8671,13 +8700,13 @@
     </row>
     <row r="74" ht="33" spans="1:30">
       <c r="A74" s="25" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D74" s="28">
         <v>1</v>
@@ -8704,10 +8733,10 @@
       </c>
       <c r="L74" s="28"/>
       <c r="M74" s="27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N74" s="28" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O74" s="28" t="s">
         <v>44</v>
@@ -8717,16 +8746,16 @@
       </c>
       <c r="Q74" s="28"/>
       <c r="R74" s="27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="S74" s="28" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="T74" s="28" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="U74" s="28" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="V74" s="28"/>
       <c r="W74" s="28"/>
@@ -8781,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8789,7 +8818,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8797,7 +8826,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8805,7 +8834,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8813,7 +8842,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8821,7 +8850,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8829,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -1809,7 +1809,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1833,6 +1833,11 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -2508,31 +2513,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2541,119 +2543,122 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2725,6 +2730,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3301,16 +3309,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{36F1103A-2AAC-45AB-9C27-C94987D694F8}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{DF07E8EC-2B5F-4D8A-AC30-7945693C1BE1}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{024EF4DB-0325-4830-9600-754BB92DF373}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{261CC9DF-705E-40F7-B031-47E4F63CA7C0}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{21A3D4A1-AA29-4BFE-9187-780231A519AC}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{90C00FE2-8BE5-4356-965F-25668AF4BF2F}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3322,7 +3330,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{0215366A-1437-4BD8-9943-2B1ADB5D4892}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{3D358BD9-D377-4ED7-B600-C781DBABAD44}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3633,10 +3641,10 @@
   <sheetPr/>
   <dimension ref="A1:AD74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A70" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A67" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AK63" sqref="AK63"/>
+      <selection pane="topRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3737,7 +3745,7 @@
       </c>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
-      <c r="AA1" s="31"/>
+      <c r="AA1" s="32"/>
       <c r="AC1" s="3" t="s">
         <v>19</v>
       </c>
@@ -3795,16 +3803,16 @@
       <c r="Q2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="29">
-        <v>1</v>
-      </c>
-      <c r="S2" s="30">
+      <c r="R2" s="30">
+        <v>1</v>
+      </c>
+      <c r="S2" s="31">
         <v>2</v>
       </c>
-      <c r="T2" s="30">
+      <c r="T2" s="31">
         <v>3</v>
       </c>
-      <c r="U2" s="30">
+      <c r="U2" s="31">
         <v>4</v>
       </c>
       <c r="V2" s="8" t="s">
@@ -3822,7 +3830,7 @@
       <c r="Z2" s="8">
         <v>3</v>
       </c>
-      <c r="AA2" s="32">
+      <c r="AA2" s="33">
         <v>4</v>
       </c>
       <c r="AB2" s="2" t="s">
@@ -3895,7 +3903,7 @@
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
-      <c r="AA3" s="33"/>
+      <c r="AA3" s="34"/>
       <c r="AC3" s="1" t="s">
         <v>51</v>
       </c>
@@ -3963,7 +3971,7 @@
       </c>
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
-      <c r="AA4" s="34"/>
+      <c r="AA4" s="35"/>
       <c r="AC4" s="1" t="s">
         <v>51</v>
       </c>
@@ -4035,7 +4043,7 @@
       </c>
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
-      <c r="AA5" s="34"/>
+      <c r="AA5" s="35"/>
       <c r="AC5" s="1" t="s">
         <v>51</v>
       </c>
@@ -4105,7 +4113,7 @@
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
-      <c r="AA6" s="34"/>
+      <c r="AA6" s="35"/>
       <c r="AC6" s="1" t="s">
         <v>51</v>
       </c>
@@ -4175,7 +4183,7 @@
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
-      <c r="AA7" s="34"/>
+      <c r="AA7" s="35"/>
       <c r="AC7" s="1" t="s">
         <v>51</v>
       </c>
@@ -4245,7 +4253,7 @@
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
-      <c r="AA8" s="34"/>
+      <c r="AA8" s="35"/>
       <c r="AC8" s="1" t="s">
         <v>51</v>
       </c>
@@ -4315,7 +4323,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
-      <c r="AA9" s="34"/>
+      <c r="AA9" s="35"/>
       <c r="AC9" s="1" t="s">
         <v>51</v>
       </c>
@@ -4385,7 +4393,7 @@
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
-      <c r="AA10" s="34"/>
+      <c r="AA10" s="35"/>
       <c r="AC10" s="1" t="s">
         <v>51</v>
       </c>
@@ -4455,7 +4463,7 @@
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
-      <c r="AA11" s="34"/>
+      <c r="AA11" s="35"/>
       <c r="AC11" s="1" t="s">
         <v>51</v>
       </c>
@@ -4525,7 +4533,7 @@
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
-      <c r="AA12" s="34"/>
+      <c r="AA12" s="35"/>
       <c r="AC12" s="1" t="s">
         <v>51</v>
       </c>
@@ -4595,7 +4603,7 @@
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
-      <c r="AA13" s="34"/>
+      <c r="AA13" s="35"/>
       <c r="AC13" s="1" t="s">
         <v>51</v>
       </c>
@@ -4667,7 +4675,7 @@
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
-      <c r="AA14" s="34"/>
+      <c r="AA14" s="35"/>
       <c r="AC14" s="1" t="s">
         <v>51</v>
       </c>
@@ -4737,7 +4745,7 @@
         <v>126</v>
       </c>
       <c r="Z15" s="16"/>
-      <c r="AA15" s="34"/>
+      <c r="AA15" s="35"/>
       <c r="AC15" s="1" t="s">
         <v>51</v>
       </c>
@@ -4805,7 +4813,7 @@
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
-      <c r="AA16" s="34"/>
+      <c r="AA16" s="35"/>
       <c r="AC16" s="1" t="s">
         <v>51</v>
       </c>
@@ -4875,7 +4883,7 @@
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
-      <c r="AA17" s="34"/>
+      <c r="AA17" s="35"/>
       <c r="AC17" s="1" t="s">
         <v>51</v>
       </c>
@@ -4943,7 +4951,7 @@
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
-      <c r="AA18" s="34"/>
+      <c r="AA18" s="35"/>
       <c r="AC18" s="1" t="s">
         <v>51</v>
       </c>
@@ -5011,7 +5019,7 @@
       <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
       <c r="Z19" s="16"/>
-      <c r="AA19" s="34"/>
+      <c r="AA19" s="35"/>
       <c r="AC19" s="1" t="s">
         <v>51</v>
       </c>
@@ -5083,7 +5091,7 @@
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
       <c r="Z20" s="16"/>
-      <c r="AA20" s="34"/>
+      <c r="AA20" s="35"/>
       <c r="AC20" s="1" t="s">
         <v>51</v>
       </c>
@@ -5151,7 +5159,7 @@
         <v>160</v>
       </c>
       <c r="Z21" s="16"/>
-      <c r="AA21" s="34"/>
+      <c r="AA21" s="35"/>
       <c r="AC21" s="1" t="s">
         <v>51</v>
       </c>
@@ -5223,7 +5231,7 @@
       </c>
       <c r="Y22" s="16"/>
       <c r="Z22" s="16"/>
-      <c r="AA22" s="34"/>
+      <c r="AA22" s="35"/>
       <c r="AC22" s="1" t="s">
         <v>51</v>
       </c>
@@ -5293,7 +5301,7 @@
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
-      <c r="AA23" s="34"/>
+      <c r="AA23" s="35"/>
       <c r="AC23" s="1" t="s">
         <v>51</v>
       </c>
@@ -5363,7 +5371,7 @@
       <c r="X24" s="16"/>
       <c r="Y24" s="16"/>
       <c r="Z24" s="16"/>
-      <c r="AA24" s="34"/>
+      <c r="AA24" s="35"/>
       <c r="AC24" s="1" t="s">
         <v>51</v>
       </c>
@@ -5433,7 +5441,7 @@
       <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
       <c r="Z25" s="16"/>
-      <c r="AA25" s="34"/>
+      <c r="AA25" s="35"/>
       <c r="AC25" s="1" t="s">
         <v>51</v>
       </c>
@@ -5503,7 +5511,7 @@
       <c r="X26" s="16"/>
       <c r="Y26" s="16"/>
       <c r="Z26" s="16"/>
-      <c r="AA26" s="34"/>
+      <c r="AA26" s="35"/>
       <c r="AC26" s="1" t="s">
         <v>51</v>
       </c>
@@ -5571,7 +5579,7 @@
       </c>
       <c r="Y27" s="16"/>
       <c r="Z27" s="16"/>
-      <c r="AA27" s="34"/>
+      <c r="AA27" s="35"/>
       <c r="AC27" s="1" t="s">
         <v>51</v>
       </c>
@@ -5637,7 +5645,7 @@
       <c r="X28" s="16"/>
       <c r="Y28" s="16"/>
       <c r="Z28" s="16"/>
-      <c r="AA28" s="34"/>
+      <c r="AA28" s="35"/>
       <c r="AC28" s="1" t="s">
         <v>51</v>
       </c>
@@ -5707,7 +5715,7 @@
       </c>
       <c r="Y29" s="16"/>
       <c r="Z29" s="16"/>
-      <c r="AA29" s="34"/>
+      <c r="AA29" s="35"/>
       <c r="AC29" s="1" t="s">
         <v>51</v>
       </c>
@@ -5777,7 +5785,7 @@
       <c r="X30" s="16"/>
       <c r="Y30" s="16"/>
       <c r="Z30" s="16"/>
-      <c r="AA30" s="34"/>
+      <c r="AA30" s="35"/>
       <c r="AC30" s="1" t="s">
         <v>51</v>
       </c>
@@ -5845,7 +5853,7 @@
       </c>
       <c r="Y31" s="16"/>
       <c r="Z31" s="16"/>
-      <c r="AA31" s="34"/>
+      <c r="AA31" s="35"/>
       <c r="AC31" s="1" t="s">
         <v>51</v>
       </c>
@@ -5915,7 +5923,7 @@
       <c r="X32" s="16"/>
       <c r="Y32" s="16"/>
       <c r="Z32" s="16"/>
-      <c r="AA32" s="34"/>
+      <c r="AA32" s="35"/>
       <c r="AC32" s="1" t="s">
         <v>51</v>
       </c>
@@ -5987,7 +5995,7 @@
         <v>230</v>
       </c>
       <c r="Z33" s="16"/>
-      <c r="AA33" s="34"/>
+      <c r="AA33" s="35"/>
       <c r="AC33" s="1" t="s">
         <v>51</v>
       </c>
@@ -6057,7 +6065,7 @@
         <v>235</v>
       </c>
       <c r="Z34" s="16"/>
-      <c r="AA34" s="34"/>
+      <c r="AA34" s="35"/>
       <c r="AC34" s="1" t="s">
         <v>51</v>
       </c>
@@ -6125,7 +6133,7 @@
       </c>
       <c r="Y35" s="16"/>
       <c r="Z35" s="16"/>
-      <c r="AA35" s="34"/>
+      <c r="AA35" s="35"/>
       <c r="AC35" s="1" t="s">
         <v>51</v>
       </c>
@@ -6193,7 +6201,7 @@
       </c>
       <c r="Y36" s="16"/>
       <c r="Z36" s="16"/>
-      <c r="AA36" s="34"/>
+      <c r="AA36" s="35"/>
       <c r="AC36" s="1" t="s">
         <v>51</v>
       </c>
@@ -6261,7 +6269,7 @@
       <c r="X37" s="16"/>
       <c r="Y37" s="16"/>
       <c r="Z37" s="16"/>
-      <c r="AA37" s="34"/>
+      <c r="AA37" s="35"/>
       <c r="AC37" s="1" t="s">
         <v>51</v>
       </c>
@@ -6329,7 +6337,7 @@
       <c r="X38" s="16"/>
       <c r="Y38" s="16"/>
       <c r="Z38" s="16"/>
-      <c r="AA38" s="34"/>
+      <c r="AA38" s="35"/>
       <c r="AC38" s="1" t="s">
         <v>51</v>
       </c>
@@ -6399,7 +6407,7 @@
       </c>
       <c r="Y39" s="16"/>
       <c r="Z39" s="16"/>
-      <c r="AA39" s="34"/>
+      <c r="AA39" s="35"/>
       <c r="AC39" s="1" t="s">
         <v>51</v>
       </c>
@@ -6469,7 +6477,7 @@
       <c r="X40" s="16"/>
       <c r="Y40" s="16"/>
       <c r="Z40" s="16"/>
-      <c r="AA40" s="34"/>
+      <c r="AA40" s="35"/>
       <c r="AC40" s="1" t="s">
         <v>51</v>
       </c>
@@ -6539,7 +6547,7 @@
       <c r="X41" s="16"/>
       <c r="Y41" s="16"/>
       <c r="Z41" s="16"/>
-      <c r="AA41" s="34"/>
+      <c r="AA41" s="35"/>
       <c r="AC41" s="1" t="s">
         <v>51</v>
       </c>
@@ -6609,7 +6617,7 @@
       <c r="X42" s="16"/>
       <c r="Y42" s="16"/>
       <c r="Z42" s="16"/>
-      <c r="AA42" s="34"/>
+      <c r="AA42" s="35"/>
       <c r="AC42" s="1" t="s">
         <v>51</v>
       </c>
@@ -6681,7 +6689,7 @@
       <c r="X43" s="16"/>
       <c r="Y43" s="16"/>
       <c r="Z43" s="16"/>
-      <c r="AA43" s="34"/>
+      <c r="AA43" s="35"/>
       <c r="AC43" s="1" t="s">
         <v>51</v>
       </c>
@@ -6755,7 +6763,7 @@
       <c r="X44" s="16"/>
       <c r="Y44" s="16"/>
       <c r="Z44" s="16"/>
-      <c r="AA44" s="34"/>
+      <c r="AA44" s="35"/>
       <c r="AC44" s="1" t="s">
         <v>51</v>
       </c>
@@ -6823,7 +6831,7 @@
       </c>
       <c r="Y45" s="16"/>
       <c r="Z45" s="16"/>
-      <c r="AA45" s="34"/>
+      <c r="AA45" s="35"/>
       <c r="AC45" s="1" t="s">
         <v>51</v>
       </c>
@@ -6887,7 +6895,7 @@
       <c r="X46" s="16"/>
       <c r="Y46" s="16"/>
       <c r="Z46" s="16"/>
-      <c r="AA46" s="34"/>
+      <c r="AA46" s="35"/>
       <c r="AC46" s="1" t="s">
         <v>51</v>
       </c>
@@ -6957,7 +6965,7 @@
       <c r="X47" s="16"/>
       <c r="Y47" s="16"/>
       <c r="Z47" s="16"/>
-      <c r="AA47" s="34"/>
+      <c r="AA47" s="35"/>
       <c r="AC47" s="1" t="s">
         <v>51</v>
       </c>
@@ -7023,7 +7031,7 @@
       <c r="X48" s="16"/>
       <c r="Y48" s="16"/>
       <c r="Z48" s="16"/>
-      <c r="AA48" s="34"/>
+      <c r="AA48" s="35"/>
       <c r="AC48" s="1" t="s">
         <v>51</v>
       </c>
@@ -7093,7 +7101,7 @@
       <c r="X49" s="16"/>
       <c r="Y49" s="16"/>
       <c r="Z49" s="16"/>
-      <c r="AA49" s="34"/>
+      <c r="AA49" s="35"/>
       <c r="AC49" s="1" t="s">
         <v>51</v>
       </c>
@@ -7161,7 +7169,7 @@
       </c>
       <c r="Y50" s="16"/>
       <c r="Z50" s="16"/>
-      <c r="AA50" s="34"/>
+      <c r="AA50" s="35"/>
       <c r="AC50" s="1" t="s">
         <v>51</v>
       </c>
@@ -7229,7 +7237,7 @@
       <c r="X51" s="16"/>
       <c r="Y51" s="16"/>
       <c r="Z51" s="16"/>
-      <c r="AA51" s="34"/>
+      <c r="AA51" s="35"/>
       <c r="AC51" s="1" t="s">
         <v>51</v>
       </c>
@@ -7299,7 +7307,7 @@
         <v>342</v>
       </c>
       <c r="Z52" s="16"/>
-      <c r="AA52" s="34"/>
+      <c r="AA52" s="35"/>
       <c r="AC52" s="1" t="s">
         <v>51</v>
       </c>
@@ -7311,7 +7319,7 @@
       <c r="A53" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="24" t="s">
         <v>344</v>
       </c>
       <c r="C53" s="15" t="s">
@@ -7367,7 +7375,7 @@
       <c r="X53" s="16"/>
       <c r="Y53" s="16"/>
       <c r="Z53" s="16"/>
-      <c r="AA53" s="34"/>
+      <c r="AA53" s="35"/>
       <c r="AC53" s="1" t="s">
         <v>51</v>
       </c>
@@ -7433,7 +7441,7 @@
       </c>
       <c r="Y54" s="16"/>
       <c r="Z54" s="16"/>
-      <c r="AA54" s="34"/>
+      <c r="AA54" s="35"/>
       <c r="AC54" s="1" t="s">
         <v>51</v>
       </c>
@@ -7498,7 +7506,7 @@
         <v>358</v>
       </c>
       <c r="Z55" s="16"/>
-      <c r="AA55" s="34"/>
+      <c r="AA55" s="35"/>
       <c r="AC55" s="1" t="s">
         <v>51</v>
       </c>
@@ -7564,7 +7572,7 @@
       </c>
       <c r="Y56" s="16"/>
       <c r="Z56" s="16"/>
-      <c r="AA56" s="34"/>
+      <c r="AA56" s="35"/>
       <c r="AC56" s="1" t="s">
         <v>51</v>
       </c>
@@ -7630,7 +7638,7 @@
       <c r="X57" s="16"/>
       <c r="Y57" s="16"/>
       <c r="Z57" s="16"/>
-      <c r="AA57" s="34"/>
+      <c r="AA57" s="35"/>
       <c r="AC57" s="1" t="s">
         <v>51</v>
       </c>
@@ -7694,7 +7702,7 @@
       <c r="X58" s="16"/>
       <c r="Y58" s="16"/>
       <c r="Z58" s="16"/>
-      <c r="AA58" s="34"/>
+      <c r="AA58" s="35"/>
       <c r="AC58" s="1" t="s">
         <v>51</v>
       </c>
@@ -7758,7 +7766,7 @@
       <c r="X59" s="16"/>
       <c r="Y59" s="16"/>
       <c r="Z59" s="16"/>
-      <c r="AA59" s="34"/>
+      <c r="AA59" s="35"/>
       <c r="AC59" s="1" t="s">
         <v>51</v>
       </c>
@@ -7773,7 +7781,7 @@
       <c r="B60" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="25" t="s">
         <v>379</v>
       </c>
       <c r="D60" s="17">
@@ -7826,7 +7834,7 @@
       <c r="X60" s="16"/>
       <c r="Y60" s="16"/>
       <c r="Z60" s="16"/>
-      <c r="AA60" s="34"/>
+      <c r="AA60" s="35"/>
       <c r="AC60" s="1" t="s">
         <v>51</v>
       </c>
@@ -7890,7 +7898,7 @@
       <c r="X61" s="16"/>
       <c r="Y61" s="16"/>
       <c r="Z61" s="16"/>
-      <c r="AA61" s="34"/>
+      <c r="AA61" s="35"/>
       <c r="AC61" s="1" t="s">
         <v>51</v>
       </c>
@@ -7899,64 +7907,64 @@
       </c>
     </row>
     <row r="62" ht="49.5" spans="1:30">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="28" t="s">
         <v>390</v>
       </c>
-      <c r="D62" s="28">
+      <c r="D62" s="29">
         <v>2</v>
       </c>
-      <c r="E62" s="28">
+      <c r="E62" s="29">
         <v>100</v>
       </c>
-      <c r="F62" s="28">
-        <v>1</v>
-      </c>
-      <c r="G62" s="28"/>
+      <c r="F62" s="29">
+        <v>1</v>
+      </c>
+      <c r="G62" s="29"/>
       <c r="H62" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J62" s="28">
+      <c r="J62" s="29">
         <v>5</v>
       </c>
       <c r="K62" s="11" t="str">
         <f>IF(D62=2,"96|96|96|96|96|96",VLOOKUP(F62,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L62" s="28"/>
-      <c r="M62" s="27" t="s">
+      <c r="L62" s="29"/>
+      <c r="M62" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="N62" s="28" t="s">
+      <c r="N62" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O62" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="P62" s="28" t="s">
+      <c r="O62" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P62" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q62" s="28"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="28"/>
-      <c r="T62" s="28"/>
-      <c r="U62" s="28"/>
-      <c r="V62" s="28"/>
-      <c r="W62" s="28"/>
-      <c r="X62" s="28" t="s">
+      <c r="Q62" s="29"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="29"/>
+      <c r="V62" s="29"/>
+      <c r="W62" s="29"/>
+      <c r="X62" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="Y62" s="28"/>
-      <c r="Z62" s="28"/>
-      <c r="AA62" s="35"/>
+      <c r="Y62" s="29"/>
+      <c r="Z62" s="29"/>
+      <c r="AA62" s="36"/>
       <c r="AC62" s="1" t="s">
         <v>51</v>
       </c>
@@ -7965,64 +7973,64 @@
       </c>
     </row>
     <row r="63" ht="49.5" spans="1:30">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="D63" s="28">
+      <c r="D63" s="29">
         <v>2</v>
       </c>
-      <c r="E63" s="28">
+      <c r="E63" s="29">
         <v>100</v>
       </c>
-      <c r="F63" s="28">
-        <v>1</v>
-      </c>
-      <c r="G63" s="28"/>
+      <c r="F63" s="29">
+        <v>1</v>
+      </c>
+      <c r="G63" s="29"/>
       <c r="H63" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I63" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J63" s="28">
+      <c r="J63" s="29">
         <v>5</v>
       </c>
       <c r="K63" s="11" t="str">
         <f>IF(D63=2,"96|96|96|96|96|96",VLOOKUP(F63,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L63" s="28"/>
-      <c r="M63" s="27" t="s">
+      <c r="L63" s="29"/>
+      <c r="M63" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="N63" s="28" t="s">
+      <c r="N63" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O63" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="P63" s="28" t="s">
+      <c r="O63" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P63" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="27"/>
-      <c r="S63" s="28"/>
-      <c r="T63" s="28"/>
-      <c r="U63" s="28"/>
-      <c r="V63" s="28"/>
-      <c r="W63" s="28"/>
-      <c r="X63" s="28" t="s">
+      <c r="Q63" s="29"/>
+      <c r="R63" s="28"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="29"/>
+      <c r="V63" s="29"/>
+      <c r="W63" s="29"/>
+      <c r="X63" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="Y63" s="28"/>
-      <c r="Z63" s="28"/>
-      <c r="AA63" s="35"/>
+      <c r="Y63" s="29"/>
+      <c r="Z63" s="29"/>
+      <c r="AA63" s="36"/>
       <c r="AC63" s="1" t="s">
         <v>51</v>
       </c>
@@ -8031,64 +8039,64 @@
       </c>
     </row>
     <row r="64" ht="49.5" spans="1:30">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="D64" s="28">
+      <c r="D64" s="29">
         <v>2</v>
       </c>
-      <c r="E64" s="28">
+      <c r="E64" s="29">
         <v>100</v>
       </c>
-      <c r="F64" s="28">
-        <v>1</v>
-      </c>
-      <c r="G64" s="28"/>
+      <c r="F64" s="29">
+        <v>1</v>
+      </c>
+      <c r="G64" s="29"/>
       <c r="H64" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I64" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J64" s="28">
+      <c r="J64" s="29">
         <v>5</v>
       </c>
       <c r="K64" s="11" t="str">
         <f>IF(D64=2,"96|96|96|96|96|96",VLOOKUP(F64,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L64" s="28"/>
-      <c r="M64" s="27" t="s">
+      <c r="L64" s="29"/>
+      <c r="M64" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="N64" s="28" t="s">
+      <c r="N64" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O64" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="P64" s="28" t="s">
+      <c r="O64" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P64" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q64" s="28"/>
-      <c r="R64" s="27"/>
-      <c r="S64" s="28"/>
-      <c r="T64" s="28"/>
-      <c r="U64" s="28"/>
-      <c r="V64" s="28"/>
-      <c r="W64" s="28"/>
-      <c r="X64" s="28" t="s">
+      <c r="Q64" s="29"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="29"/>
+      <c r="U64" s="29"/>
+      <c r="V64" s="29"/>
+      <c r="W64" s="29"/>
+      <c r="X64" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="Y64" s="28"/>
-      <c r="Z64" s="28"/>
-      <c r="AA64" s="35"/>
+      <c r="Y64" s="29"/>
+      <c r="Z64" s="29"/>
+      <c r="AA64" s="36"/>
       <c r="AC64" s="1" t="s">
         <v>51</v>
       </c>
@@ -8097,64 +8105,64 @@
       </c>
     </row>
     <row r="65" ht="49.5" spans="1:30">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="D65" s="28">
+      <c r="D65" s="29">
         <v>2</v>
       </c>
-      <c r="E65" s="28">
+      <c r="E65" s="29">
         <v>100</v>
       </c>
-      <c r="F65" s="28">
-        <v>1</v>
-      </c>
-      <c r="G65" s="28"/>
+      <c r="F65" s="29">
+        <v>1</v>
+      </c>
+      <c r="G65" s="29"/>
       <c r="H65" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J65" s="28">
+      <c r="J65" s="29">
         <v>5</v>
       </c>
       <c r="K65" s="11" t="str">
         <f>IF(D65=2,"96|96|96|96|96|96",VLOOKUP(F65,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L65" s="28"/>
-      <c r="M65" s="27" t="s">
+      <c r="L65" s="29"/>
+      <c r="M65" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="N65" s="28" t="s">
+      <c r="N65" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O65" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="P65" s="28" t="s">
+      <c r="O65" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P65" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q65" s="28"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="28"/>
-      <c r="T65" s="28"/>
-      <c r="U65" s="28"/>
-      <c r="V65" s="28"/>
-      <c r="W65" s="28"/>
-      <c r="X65" s="28" t="s">
+      <c r="Q65" s="29"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="29"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="29"/>
+      <c r="X65" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="Y65" s="28"/>
-      <c r="Z65" s="28"/>
-      <c r="AA65" s="35"/>
+      <c r="Y65" s="29"/>
+      <c r="Z65" s="29"/>
+      <c r="AA65" s="36"/>
       <c r="AC65" s="1" t="s">
         <v>51</v>
       </c>
@@ -8163,64 +8171,64 @@
       </c>
     </row>
     <row r="66" ht="49.5" spans="1:30">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="D66" s="28">
+      <c r="D66" s="29">
         <v>2</v>
       </c>
-      <c r="E66" s="28">
+      <c r="E66" s="29">
         <v>100</v>
       </c>
-      <c r="F66" s="28">
-        <v>1</v>
-      </c>
-      <c r="G66" s="28"/>
+      <c r="F66" s="29">
+        <v>1</v>
+      </c>
+      <c r="G66" s="29"/>
       <c r="H66" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J66" s="28">
+      <c r="J66" s="29">
         <v>5</v>
       </c>
       <c r="K66" s="11" t="str">
         <f>IF(D66=2,"96|96|96|96|96|96",VLOOKUP(F66,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L66" s="28"/>
-      <c r="M66" s="27" t="s">
+      <c r="L66" s="29"/>
+      <c r="M66" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="N66" s="28" t="s">
+      <c r="N66" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O66" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="P66" s="28" t="s">
+      <c r="O66" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P66" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="27"/>
-      <c r="S66" s="28"/>
-      <c r="T66" s="28"/>
-      <c r="U66" s="28"/>
-      <c r="V66" s="28"/>
-      <c r="W66" s="28"/>
-      <c r="X66" s="28" t="s">
+      <c r="Q66" s="29"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="29"/>
+      <c r="V66" s="29"/>
+      <c r="W66" s="29"/>
+      <c r="X66" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="Y66" s="28"/>
-      <c r="Z66" s="28"/>
-      <c r="AA66" s="35"/>
+      <c r="Y66" s="29"/>
+      <c r="Z66" s="29"/>
+      <c r="AA66" s="36"/>
       <c r="AC66" s="1" t="s">
         <v>51</v>
       </c>
@@ -8229,64 +8237,64 @@
       </c>
     </row>
     <row r="67" ht="49.5" spans="1:30">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="D67" s="28">
+      <c r="D67" s="29">
         <v>2</v>
       </c>
-      <c r="E67" s="28">
+      <c r="E67" s="29">
         <v>100</v>
       </c>
-      <c r="F67" s="28">
-        <v>1</v>
-      </c>
-      <c r="G67" s="28"/>
+      <c r="F67" s="29">
+        <v>1</v>
+      </c>
+      <c r="G67" s="29"/>
       <c r="H67" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I67" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J67" s="28">
+      <c r="J67" s="29">
         <v>5</v>
       </c>
       <c r="K67" s="11" t="str">
         <f>IF(D67=2,"96|96|96|96|96|96",VLOOKUP(F67,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L67" s="28"/>
-      <c r="M67" s="27" t="s">
+      <c r="L67" s="29"/>
+      <c r="M67" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="N67" s="28" t="s">
+      <c r="N67" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O67" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="P67" s="28" t="s">
+      <c r="O67" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P67" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q67" s="28"/>
-      <c r="R67" s="27"/>
-      <c r="S67" s="28"/>
-      <c r="T67" s="28"/>
-      <c r="U67" s="28"/>
-      <c r="V67" s="28"/>
-      <c r="W67" s="28"/>
-      <c r="X67" s="28" t="s">
+      <c r="Q67" s="29"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="29"/>
+      <c r="U67" s="29"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="29"/>
+      <c r="X67" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="Y67" s="28"/>
-      <c r="Z67" s="28"/>
-      <c r="AA67" s="35"/>
+      <c r="Y67" s="29"/>
+      <c r="Z67" s="29"/>
+      <c r="AA67" s="36"/>
       <c r="AC67" s="1" t="s">
         <v>51</v>
       </c>
@@ -8295,62 +8303,62 @@
       </c>
     </row>
     <row r="68" ht="49.5" spans="1:30">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="D68" s="28">
-        <v>1</v>
-      </c>
-      <c r="E68" s="28">
+      <c r="D68" s="29">
+        <v>1</v>
+      </c>
+      <c r="E68" s="29">
         <v>200</v>
       </c>
-      <c r="F68" s="28">
+      <c r="F68" s="29">
         <v>2</v>
       </c>
-      <c r="G68" s="28"/>
+      <c r="G68" s="29"/>
       <c r="H68" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I68" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J68" s="28">
+      <c r="J68" s="29">
         <v>1</v>
       </c>
       <c r="K68" s="11" t="str">
         <f>IF(D68=2,"96|96|96|96|96|96",VLOOKUP(F68,__Sheet1!A:B,2,FALSE))</f>
         <v>80|96|80|64|48|32</v>
       </c>
-      <c r="L68" s="28"/>
-      <c r="M68" s="27" t="s">
+      <c r="L68" s="29"/>
+      <c r="M68" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="N68" s="28" t="s">
+      <c r="N68" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="O68" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="P68" s="28" t="s">
+      <c r="O68" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P68" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q68" s="28"/>
-      <c r="R68" s="27"/>
-      <c r="S68" s="28"/>
-      <c r="T68" s="28"/>
-      <c r="U68" s="28"/>
-      <c r="V68" s="28"/>
-      <c r="W68" s="28"/>
-      <c r="X68" s="28"/>
-      <c r="Y68" s="28"/>
-      <c r="Z68" s="28"/>
-      <c r="AA68" s="35"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="28"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="29"/>
+      <c r="X68" s="29"/>
+      <c r="Y68" s="29"/>
+      <c r="Z68" s="29"/>
+      <c r="AA68" s="36"/>
       <c r="AC68" s="1" t="s">
         <v>51</v>
       </c>
@@ -8359,64 +8367,64 @@
       </c>
     </row>
     <row r="69" ht="49.5" spans="1:30">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="28" t="s">
         <v>418</v>
       </c>
-      <c r="D69" s="28">
-        <v>1</v>
-      </c>
-      <c r="E69" s="28">
+      <c r="D69" s="29">
+        <v>1</v>
+      </c>
+      <c r="E69" s="29">
         <v>200</v>
       </c>
-      <c r="F69" s="28">
+      <c r="F69" s="29">
         <v>2</v>
       </c>
-      <c r="G69" s="28"/>
+      <c r="G69" s="29"/>
       <c r="H69" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I69" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J69" s="28">
+      <c r="J69" s="29">
         <v>1</v>
       </c>
       <c r="K69" s="11" t="str">
         <f>IF(D69=2,"96|96|96|96|96|96",VLOOKUP(F69,__Sheet1!A:B,2,FALSE))</f>
         <v>80|96|80|64|48|32</v>
       </c>
-      <c r="L69" s="28"/>
-      <c r="M69" s="27" t="s">
+      <c r="L69" s="29"/>
+      <c r="M69" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="N69" s="28" t="s">
+      <c r="N69" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="O69" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="P69" s="28" t="s">
+      <c r="O69" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P69" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q69" s="28"/>
-      <c r="R69" s="27" t="s">
+      <c r="Q69" s="29"/>
+      <c r="R69" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="S69" s="28"/>
-      <c r="T69" s="28"/>
-      <c r="U69" s="28"/>
-      <c r="V69" s="28"/>
-      <c r="W69" s="28"/>
-      <c r="X69" s="28"/>
-      <c r="Y69" s="28"/>
-      <c r="Z69" s="28"/>
-      <c r="AA69" s="35"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="29"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="29"/>
+      <c r="X69" s="29"/>
+      <c r="Y69" s="29"/>
+      <c r="Z69" s="29"/>
+      <c r="AA69" s="36"/>
       <c r="AC69" s="1" t="s">
         <v>51</v>
       </c>
@@ -8425,66 +8433,66 @@
       </c>
     </row>
     <row r="70" ht="66" spans="1:30">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D70" s="28">
-        <v>1</v>
-      </c>
-      <c r="E70" s="28">
+      <c r="D70" s="29">
+        <v>1</v>
+      </c>
+      <c r="E70" s="29">
         <v>200</v>
       </c>
-      <c r="F70" s="28">
+      <c r="F70" s="29">
         <v>2</v>
       </c>
-      <c r="G70" s="28"/>
+      <c r="G70" s="29"/>
       <c r="H70" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I70" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J70" s="28">
+      <c r="J70" s="29">
         <v>1</v>
       </c>
       <c r="K70" s="11" t="str">
         <f>IF(D70=2,"96|96|96|96|96|96",VLOOKUP(F70,__Sheet1!A:B,2,FALSE))</f>
         <v>80|96|80|64|48|32</v>
       </c>
-      <c r="L70" s="28"/>
-      <c r="M70" s="27" t="s">
+      <c r="L70" s="29"/>
+      <c r="M70" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="N70" s="28" t="s">
+      <c r="N70" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O70" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="P70" s="28" t="s">
+      <c r="O70" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P70" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q70" s="28"/>
-      <c r="R70" s="27"/>
-      <c r="S70" s="28"/>
-      <c r="T70" s="28"/>
-      <c r="U70" s="28"/>
-      <c r="V70" s="28"/>
-      <c r="W70" s="28"/>
-      <c r="X70" s="28" t="s">
+      <c r="Q70" s="29"/>
+      <c r="R70" s="28"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
+      <c r="X70" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="Y70" s="28" t="s">
+      <c r="Y70" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="Z70" s="28"/>
-      <c r="AA70" s="35"/>
+      <c r="Z70" s="29"/>
+      <c r="AA70" s="36"/>
       <c r="AC70" s="1" t="s">
         <v>51</v>
       </c>
@@ -8493,66 +8501,66 @@
       </c>
     </row>
     <row r="71" ht="67" customHeight="1" spans="1:30">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="26" t="s">
         <v>425</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="28" t="s">
         <v>427</v>
       </c>
-      <c r="D71" s="28">
-        <v>1</v>
-      </c>
-      <c r="E71" s="28">
+      <c r="D71" s="29">
+        <v>1</v>
+      </c>
+      <c r="E71" s="29">
         <v>300</v>
       </c>
-      <c r="F71" s="28">
+      <c r="F71" s="29">
         <v>3</v>
       </c>
-      <c r="G71" s="28"/>
+      <c r="G71" s="29"/>
       <c r="H71" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I71" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J71" s="28">
+      <c r="J71" s="29">
         <v>1</v>
       </c>
       <c r="K71" s="11" t="str">
         <f>IF(D71=2,"96|96|96|96|96|96",VLOOKUP(F71,__Sheet1!A:B,2,FALSE))</f>
         <v>64|80|96|80|64|48</v>
       </c>
-      <c r="L71" s="28"/>
-      <c r="M71" s="27" t="s">
+      <c r="L71" s="29"/>
+      <c r="M71" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="N71" s="28" t="s">
+      <c r="N71" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O71" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="P71" s="28" t="s">
+      <c r="O71" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P71" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q71" s="28"/>
-      <c r="R71" s="27"/>
-      <c r="S71" s="28"/>
-      <c r="T71" s="28"/>
-      <c r="U71" s="28"/>
-      <c r="V71" s="28"/>
-      <c r="W71" s="28"/>
-      <c r="X71" s="28" t="s">
+      <c r="Q71" s="29"/>
+      <c r="R71" s="28"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="29"/>
+      <c r="U71" s="29"/>
+      <c r="V71" s="29"/>
+      <c r="W71" s="29"/>
+      <c r="X71" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="Y71" s="28" t="s">
+      <c r="Y71" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="Z71" s="28"/>
-      <c r="AA71" s="35"/>
+      <c r="Z71" s="29"/>
+      <c r="AA71" s="36"/>
       <c r="AC71" s="1" t="s">
         <v>51</v>
       </c>
@@ -8561,66 +8569,66 @@
       </c>
     </row>
     <row r="72" ht="33" spans="1:30">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="26" t="s">
         <v>430</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C72" s="28" t="s">
         <v>432</v>
       </c>
-      <c r="D72" s="28">
-        <v>1</v>
-      </c>
-      <c r="E72" s="28">
+      <c r="D72" s="29">
+        <v>1</v>
+      </c>
+      <c r="E72" s="29">
         <v>300</v>
       </c>
-      <c r="F72" s="28">
+      <c r="F72" s="29">
         <v>3</v>
       </c>
-      <c r="G72" s="28"/>
+      <c r="G72" s="29"/>
       <c r="H72" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I72" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J72" s="28">
+      <c r="J72" s="29">
         <v>1</v>
       </c>
       <c r="K72" s="11" t="str">
         <f>IF(D72=2,"96|96|96|96|96|96",VLOOKUP(F72,__Sheet1!A:B,2,FALSE))</f>
         <v>64|80|96|80|64|48</v>
       </c>
-      <c r="L72" s="28"/>
-      <c r="M72" s="27" t="s">
+      <c r="L72" s="29"/>
+      <c r="M72" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="N72" s="28" t="s">
+      <c r="N72" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O72" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="P72" s="28" t="s">
+      <c r="O72" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P72" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q72" s="28"/>
-      <c r="R72" s="27" t="s">
+      <c r="Q72" s="29"/>
+      <c r="R72" s="28" t="s">
         <v>433</v>
       </c>
-      <c r="S72" s="28" t="s">
+      <c r="S72" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="T72" s="28"/>
-      <c r="U72" s="28"/>
-      <c r="V72" s="28"/>
-      <c r="W72" s="28"/>
-      <c r="X72" s="28"/>
-      <c r="Y72" s="28"/>
-      <c r="Z72" s="28"/>
-      <c r="AA72" s="35"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="29"/>
+      <c r="V72" s="29"/>
+      <c r="W72" s="29"/>
+      <c r="X72" s="29"/>
+      <c r="Y72" s="29"/>
+      <c r="Z72" s="29"/>
+      <c r="AA72" s="36"/>
       <c r="AC72" s="1" t="s">
         <v>51</v>
       </c>
@@ -8629,68 +8637,68 @@
       </c>
     </row>
     <row r="73" ht="66" spans="1:30">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="26" t="s">
         <v>435</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C73" s="28" t="s">
         <v>437</v>
       </c>
-      <c r="D73" s="28">
-        <v>1</v>
-      </c>
-      <c r="E73" s="28">
+      <c r="D73" s="29">
+        <v>1</v>
+      </c>
+      <c r="E73" s="29">
         <v>300</v>
       </c>
-      <c r="F73" s="28">
+      <c r="F73" s="29">
         <v>3</v>
       </c>
-      <c r="G73" s="28"/>
+      <c r="G73" s="29"/>
       <c r="H73" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I73" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J73" s="28">
+      <c r="J73" s="29">
         <v>1</v>
       </c>
       <c r="K73" s="11" t="str">
         <f>IF(D73=2,"96|96|96|96|96|96",VLOOKUP(F73,__Sheet1!A:B,2,FALSE))</f>
         <v>64|80|96|80|64|48</v>
       </c>
-      <c r="L73" s="28"/>
-      <c r="M73" s="27" t="s">
+      <c r="L73" s="29"/>
+      <c r="M73" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="N73" s="28" t="s">
+      <c r="N73" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O73" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="P73" s="28" t="s">
+      <c r="O73" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P73" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q73" s="28"/>
-      <c r="R73" s="27" t="s">
+      <c r="Q73" s="29"/>
+      <c r="R73" s="28" t="s">
         <v>438</v>
       </c>
-      <c r="S73" s="28" t="s">
+      <c r="S73" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="T73" s="28" t="s">
+      <c r="T73" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="U73" s="28"/>
-      <c r="V73" s="28"/>
-      <c r="W73" s="28"/>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="28"/>
-      <c r="Z73" s="28"/>
-      <c r="AA73" s="35"/>
+      <c r="U73" s="29"/>
+      <c r="V73" s="29"/>
+      <c r="W73" s="29"/>
+      <c r="X73" s="29"/>
+      <c r="Y73" s="29"/>
+      <c r="Z73" s="29"/>
+      <c r="AA73" s="36"/>
       <c r="AC73" s="1" t="s">
         <v>51</v>
       </c>
@@ -8699,70 +8707,70 @@
       </c>
     </row>
     <row r="74" ht="33" spans="1:30">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C74" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="D74" s="28">
-        <v>1</v>
-      </c>
-      <c r="E74" s="28">
+      <c r="D74" s="29">
+        <v>1</v>
+      </c>
+      <c r="E74" s="29">
         <v>200</v>
       </c>
-      <c r="F74" s="28">
+      <c r="F74" s="29">
         <v>2</v>
       </c>
-      <c r="G74" s="28"/>
+      <c r="G74" s="29"/>
       <c r="H74" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I74" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J74" s="28">
+      <c r="J74" s="29">
         <v>1</v>
       </c>
       <c r="K74" s="11" t="str">
         <f>IF(D74=2,"96|96|96|96|96|96",VLOOKUP(F74,__Sheet1!A:B,2,FALSE))</f>
         <v>80|96|80|64|48|32</v>
       </c>
-      <c r="L74" s="28"/>
-      <c r="M74" s="27" t="s">
+      <c r="L74" s="29"/>
+      <c r="M74" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="N74" s="28" t="s">
+      <c r="N74" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="O74" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="P74" s="28" t="s">
+      <c r="O74" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P74" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q74" s="28"/>
-      <c r="R74" s="27" t="s">
+      <c r="Q74" s="29"/>
+      <c r="R74" s="28" t="s">
         <v>444</v>
       </c>
-      <c r="S74" s="28" t="s">
+      <c r="S74" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="T74" s="28" t="s">
+      <c r="T74" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="U74" s="28" t="s">
+      <c r="U74" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="V74" s="28"/>
-      <c r="W74" s="28"/>
-      <c r="X74" s="28"/>
-      <c r="Y74" s="28"/>
-      <c r="Z74" s="28"/>
-      <c r="AA74" s="35"/>
+      <c r="V74" s="29"/>
+      <c r="W74" s="29"/>
+      <c r="X74" s="29"/>
+      <c r="Y74" s="29"/>
+      <c r="Z74" s="29"/>
+      <c r="AA74" s="36"/>
       <c r="AC74" s="1" t="s">
         <v>51</v>
       </c>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
     <sheet name="__Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mysterious_shop_config!$F$1:$F$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mysterious_shop_config!$D$1:$D$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="460">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -1668,7 +1668,7 @@
   </si>
   <si>
     <t>AttackDamage {
-"Base" "70"
+"Base" "50"
 }</t>
   </si>
   <si>
@@ -1776,6 +1776,27 @@
   </si>
   <si>
     <t>lose -50</t>
+  </si>
+  <si>
+    <t>prop_72</t>
+  </si>
+  <si>
+    <t>【有舍有得II】</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获得%AllElementDamageBonus.Base%%%元素伤害，%CriticalDamage.Base%%%暴击伤害
+但，你不再能获得符文的属性效果（获得符文时，符文属性效果失效）
+</t>
+  </si>
+  <si>
+    <t>AllElementDamageBonus {
+"Base" "50"
+}</t>
+  </si>
+  <si>
+    <t>CriticalDamage {
+"Base" "50"
+}</t>
   </si>
   <si>
     <t>100|100|100|100|100|100</t>
@@ -3309,16 +3330,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{DF07E8EC-2B5F-4D8A-AC30-7945693C1BE1}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{EC80013C-6B33-48E9-87C3-CC6199911B29}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{261CC9DF-705E-40F7-B031-47E4F63CA7C0}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{29682CBD-B9A0-4E3F-B712-B374CEB315C3}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{90C00FE2-8BE5-4356-965F-25668AF4BF2F}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{2F9D94E9-8BA2-4498-BE35-74A200333860}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3330,7 +3351,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{3D358BD9-D377-4ED7-B600-C781DBABAD44}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{83B6938C-43C3-4055-8D60-4EDD2FBEC0B0}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3639,12 +3660,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD74"/>
+  <dimension ref="A1:AD75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A71" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D55" sqref="D55"/>
+      <selection pane="topRight" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6856,7 +6877,7 @@
         <v>500</v>
       </c>
       <c r="F46" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="11" t="s">
@@ -6870,7 +6891,7 @@
       </c>
       <c r="K46" s="11" t="str">
         <f>IF(D46=2,"96|96|96|96|96|96",VLOOKUP(F46,__Sheet1!A:B,2,FALSE))</f>
-        <v>32|48|64|80|96|80</v>
+        <v>0|0|0|0|0|0</v>
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="15" t="s">
@@ -8778,12 +8799,92 @@
         <v>52</v>
       </c>
     </row>
+    <row r="75" ht="115.5" spans="1:30">
+      <c r="A75" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="D75" s="29">
+        <v>1</v>
+      </c>
+      <c r="E75" s="29">
+        <v>200</v>
+      </c>
+      <c r="F75" s="29">
+        <v>2</v>
+      </c>
+      <c r="G75" s="29"/>
+      <c r="H75" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J75" s="29">
+        <v>1</v>
+      </c>
+      <c r="K75" s="11" t="str">
+        <f>IF(D75=2,"96|96|96|96|96|96",VLOOKUP(F75,__Sheet1!A:B,2,FALSE))</f>
+        <v>80|96|80|64|48|32</v>
+      </c>
+      <c r="L75" s="29"/>
+      <c r="M75" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="N75" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="O75" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P75" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="28"/>
+      <c r="S75" s="29"/>
+      <c r="T75" s="29"/>
+      <c r="U75" s="29"/>
+      <c r="V75" s="29"/>
+      <c r="W75" s="29"/>
+      <c r="X75" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y75" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z75" s="29"/>
+      <c r="AA75" s="36"/>
+      <c r="AC75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD75" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="F1:F74" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="D1:D74" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="K$1:K$1048576">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="K75">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K74 K76:K1048576">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8818,7 +8919,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8826,7 +8927,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8834,7 +8935,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8842,7 +8943,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8850,7 +8951,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8858,7 +8959,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8866,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -11,7 +11,7 @@
     <sheet name="__Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mysterious_shop_config!$D$1:$D$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mysterious_shop_config!$E$1:$E$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="476">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -188,7 +188,7 @@
     <t>Script</t>
   </si>
   <si>
-    <t>value 5 10 15 25 50</t>
+    <t>value 5 10 15 25 35</t>
   </si>
   <si>
     <t>100|200|300|500|1000</t>
@@ -366,12 +366,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>对自身%range%码范围内的敌人提高%harm%%%的</t>
     </r>
     <r>
@@ -383,45 +377,30 @@
       </rPr>
       <t>伤害加成</t>
     </r>
+  </si>
+  <si>
+    <t>item_prop/生人勿进</t>
+  </si>
+  <si>
+    <t>AddBuff</t>
+  </si>
+  <si>
+    <t>modifier_shop_prop_10</t>
+  </si>
+  <si>
+    <t>range 250</t>
+  </si>
+  <si>
+    <t>harm 20 40 60 100 150</t>
+  </si>
+  <si>
+    <t>prop_11</t>
+  </si>
+  <si>
+    <t>【远有远的好处】</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（可购买10次）</t>
-    </r>
-  </si>
-  <si>
-    <t>item_prop/生人勿进</t>
-  </si>
-  <si>
-    <t>AddBuff</t>
-  </si>
-  <si>
-    <t>modifier_shop_prop_10</t>
-  </si>
-  <si>
-    <t>range 250</t>
-  </si>
-  <si>
-    <t>harm 20 40 60 100 200</t>
-  </si>
-  <si>
-    <t>prop_11</t>
-  </si>
-  <si>
-    <t>【远有远的好处】</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>对自身%range%码以外的敌人提高%harm%%%的</t>
     </r>
     <r>
@@ -432,15 +411,6 @@
         <charset val="134"/>
       </rPr>
       <t>伤害加成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（可购买10次）</t>
     </r>
   </si>
   <si>
@@ -555,7 +525,7 @@
     <t>【迈达斯之手】</t>
   </si>
   <si>
-    <t>自动拾取被自身击杀的怪物掉落的经验值（超稀有）</t>
+    <t>自动拾取被自身击杀的怪物掉落的经验值</t>
   </si>
   <si>
     <t>item_prop/迈达斯之手</t>
@@ -678,7 +648,10 @@
     <t>【雷神之锤】</t>
   </si>
   <si>
-    <t>雷元素技能命中敌人时，%chance%%%概率额外追加%duration%秒麻痹效果（相同敌人只受到一次效果）</t>
+    <t>雷元素技能命中敌人时，%chance%%%概率额外追加%duration%秒麻痹效果</t>
+  </si>
+  <si>
+    <t>（相同敌人只受到一次效果）</t>
   </si>
   <si>
     <t>item_prop/雷神之锤</t>
@@ -776,12 +749,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>增加40%的</t>
     </r>
     <r>
@@ -800,7 +767,7 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>，受到伤害时回复%restore_mana%点法力值（超稀有）</t>
+      <t>，受到伤害时回复%restore_mana%点法力值</t>
     </r>
   </si>
   <si>
@@ -821,7 +788,10 @@
     <t>【血祭】</t>
   </si>
   <si>
-    <t>不在消耗蓝量，任意技能消耗变为%blood_mage%%%最大生命值，生命值临界值%health_pct%%%(低于时不再使用技能)</t>
+    <t>不在消耗蓝量，任意技能消耗变为%blood_mage%%%最大生命值，生命值临界值%health_pct%%%</t>
+  </si>
+  <si>
+    <t>(低于时不再使用技能)</t>
   </si>
   <si>
     <t>item_prop/血祭</t>
@@ -1007,7 +977,10 @@
     <t>【奥术指环】</t>
   </si>
   <si>
-    <t>自身及友军每秒回蓝2点（效果可叠加）</t>
+    <t>自身及友军每秒回蓝2点</t>
+  </si>
+  <si>
+    <t>多个玩家可效果可叠加</t>
   </si>
   <si>
     <t>item_prop/奥术指环</t>
@@ -1025,7 +998,10 @@
     <t>【大宗师】</t>
   </si>
   <si>
-    <t>仙人之上一换一：自身阵亡时强制带走击杀你的单位（可带走小boss，不包括最终boss）（超稀有）</t>
+    <t>仙人之上一换一：自身阵亡时强制带走击杀你的单位</t>
+  </si>
+  <si>
+    <t>（可带走小boss，不包括最终boss）</t>
   </si>
   <si>
     <t>毎5关的BOSS也可以带走</t>
@@ -1102,7 +1078,7 @@
     <t>item_prop/急不可耐</t>
   </si>
   <si>
-    <t>value 2 4 6 10 20</t>
+    <t>value 2 4 6 10 15</t>
   </si>
   <si>
     <t>limit 10</t>
@@ -1266,7 +1242,10 @@
     <t>【石中剑】</t>
   </si>
   <si>
-    <t>每击杀%need_kills%个敌军增加%ad_pct%%%的攻击力（精英怪算5个敌军，boss算15个）</t>
+    <t>每击杀%need_kills%个敌军增加%ad_pct%%%的攻击力</t>
+  </si>
+  <si>
+    <t>（精英怪算5个敌军，boss算15个）</t>
   </si>
   <si>
     <t>item_prop/石中剑</t>
@@ -1412,7 +1391,7 @@
     <t>【望远镜】</t>
   </si>
   <si>
-    <t>视野范围增加%VisionRange.Base%码（可购买3次）</t>
+    <t>视野范围增加%VisionRange.Base%码</t>
   </si>
   <si>
     <t>item_prop/望远镜</t>
@@ -1429,7 +1408,10 @@
     <t>【神圣指向】</t>
   </si>
   <si>
-    <t>地图上出现圣坛时，会给玩家指引（箭头指引）</t>
+    <t>地图上出现圣坛时，会给玩家指引</t>
+  </si>
+  <si>
+    <t>给购买的玩家对应的箭头指引</t>
   </si>
   <si>
     <t>箭头其他玩家不可见</t>
@@ -1444,7 +1426,10 @@
     <t>【天辉军团的肯定】</t>
   </si>
   <si>
-    <t>完成天辉任务时，全队灵魂奖励+20%（可叠加）</t>
+    <t>完成天辉任务时，全队灵魂奖励+20%</t>
+  </si>
+  <si>
+    <t>多个玩家可叠加效果</t>
   </si>
   <si>
     <t>item_prop/天辉军团的肯定</t>
@@ -1456,7 +1441,7 @@
     <t>【夜魇军团的肯定】</t>
   </si>
   <si>
-    <t>完成夜魇任务时，全队经验值奖励+20%（可叠加）</t>
+    <t>完成夜魇任务时，全队经验值奖励+20%</t>
   </si>
   <si>
     <t>item_prop/夜魇军团的肯定</t>
@@ -1469,12 +1454,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>随机封印一个技能（完全禁用）同时自身提高%FinalDamageMul%%%的</t>
     </r>
     <r>
@@ -1484,7 +1463,8 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>最终伤害</t>
+      <t xml:space="preserve">最终伤害
+</t>
     </r>
     <r>
       <rPr>
@@ -1493,8 +1473,11 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>（可购买3次）如果没有可封印技能则不会提高伤害。慎选！！！</t>
+      <t>如果没有可封印技能则不会提高伤害。慎选！！！</t>
     </r>
+  </si>
+  <si>
+    <t>（可购买3次）</t>
   </si>
   <si>
     <t>禁用已学习的</t>
@@ -1624,34 +1607,11 @@
     <t>【肾上腺素】</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下一波刷怪开始时：
-造成伤害提高%fidamage%%%（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最终伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>），灵魂收益降低50%，持续5波</t>
-    </r>
+    <t>下一波刷怪开始时：
+造成伤害提高%fidamage%%%，灵魂收益降低50%，持续5波</t>
+  </si>
+  <si>
+    <t>（最终伤害）</t>
   </si>
   <si>
     <t>fidamage 75</t>
@@ -1664,7 +1624,10 @@
   </si>
   <si>
     <t>获得%AttackDamage.Base%点攻击力，%CriticalChance.Base%%%暴击概率
-但，你不再能自由选择符文（获得符文时直接随机给到符文背包）</t>
+但，你不再能自由选择符文</t>
+  </si>
+  <si>
+    <t>（获得符文时直接随机给到符文背包）</t>
   </si>
   <si>
     <t>AttackDamage {
@@ -1719,12 +1682,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>站立不动%second%秒后，队友获得%qt_dbm%%%的</t>
     </r>
     <r>
@@ -1744,10 +1701,13 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-自身移动后，进入%cd%秒冷却时间（真空期为 8s+3s）</t>
+自身移动后，进入%cd%秒冷却时间</t>
     </r>
   </si>
   <si>
+    <t>（真空期为 8s+3s）</t>
+  </si>
+  <si>
     <t>cd 8</t>
   </si>
   <si>
@@ -1785,8 +1745,11 @@
   </si>
   <si>
     <t xml:space="preserve">获得%AllElementDamageBonus.Base%%%元素伤害，%CriticalDamage.Base%%%暴击伤害
-但，你不再能获得符文的属性效果（获得符文时，符文属性效果失效）
+但，你不再能获得符文的属性效果
 </t>
+  </si>
+  <si>
+    <t>（获得符文时，符文属性效果失效）</t>
   </si>
   <si>
     <t>AllElementDamageBonus {
@@ -1796,6 +1759,20 @@
   <si>
     <t>CriticalDamage {
 "Base" "50"
+}</t>
+  </si>
+  <si>
+    <t>prop_73</t>
+  </si>
+  <si>
+    <t>【快枪手】</t>
+  </si>
+  <si>
+    <t>攻击速度增加%AttackSpeed.Base%</t>
+  </si>
+  <si>
+    <t>AttackSpeed {
+"Base" "10"
 }</t>
   </si>
   <si>
@@ -3330,16 +3307,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{EC80013C-6B33-48E9-87C3-CC6199911B29}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C46AA78C-E4FF-443E-96C2-2BFCCFE988E7}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{29682CBD-B9A0-4E3F-B712-B374CEB315C3}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{12A0673B-7840-437D-BB7D-26D3649E2E77}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{2F9D94E9-8BA2-4498-BE35-74A200333860}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{ADE0D535-8BB3-4539-BE58-CF4ABDB01A03}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3351,7 +3328,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{83B6938C-43C3-4055-8D60-4EDD2FBEC0B0}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{9F5AC099-E1FF-4351-B10B-EC79DB5943FD}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3660,48 +3637,48 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD75"/>
+  <dimension ref="A1:AE76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A71" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A70" workbookViewId="0">
+      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D78" sqref="D78"/>
+      <selection pane="topRight" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.0083333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.3416666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.0333333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.0333333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="5.675" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="13.0083333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18" style="2" customWidth="1"/>
-    <col min="10" max="10" width="26.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="34.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.675" style="2" customWidth="1"/>
-    <col min="13" max="13" width="32.0333333333333" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.8416666666667" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.34166666666667" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14.175" style="2" customWidth="1"/>
-    <col min="18" max="18" width="19.75" style="2" customWidth="1"/>
-    <col min="19" max="19" width="14.5083333333333" style="2" customWidth="1"/>
-    <col min="20" max="20" width="17.375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="11.0083333333333" style="2" customWidth="1"/>
-    <col min="22" max="22" width="5.34166666666667" style="2" customWidth="1"/>
-    <col min="23" max="23" width="12.25" style="2" customWidth="1"/>
-    <col min="24" max="24" width="24.875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="25.5" style="2" customWidth="1"/>
-    <col min="26" max="27" width="3.24166666666667" style="2" customWidth="1"/>
-    <col min="28" max="28" width="9" style="2"/>
-    <col min="29" max="29" width="26.625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="21.5" style="2" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="32.0333333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="32.0333333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="5.675" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="13.0083333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="34.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.675" style="2" customWidth="1"/>
+    <col min="14" max="14" width="32.0333333333333" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16.8416666666667" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.34166666666667" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14.175" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.75" style="2" customWidth="1"/>
+    <col min="20" max="20" width="14.5083333333333" style="2" customWidth="1"/>
+    <col min="21" max="21" width="17.375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="11.0083333333333" style="2" customWidth="1"/>
+    <col min="23" max="23" width="5.34166666666667" style="2" customWidth="1"/>
+    <col min="24" max="24" width="12.25" style="2" customWidth="1"/>
+    <col min="25" max="25" width="24.875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="25.5" style="2" customWidth="1"/>
+    <col min="27" max="28" width="3.24166666666667" style="2" customWidth="1"/>
+    <col min="29" max="29" width="9" style="2"/>
+    <col min="30" max="30" width="26.625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="21.5" style="2" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="75" spans="1:30">
+    <row r="1" ht="75" spans="1:31">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3711,70 +3688,71 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="6"/>
+      <c r="W1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
-      <c r="AA1" s="32"/>
-      <c r="AC1" s="3" t="s">
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="32"/>
+      <c r="AD1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="18.5" customHeight="1" spans="1:30">
+    <row r="2" ht="18.5" customHeight="1" spans="1:31">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
@@ -3784,87 +3762,88 @@
       <c r="C2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8"/>
+      <c r="N2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="30">
-        <v>1</v>
-      </c>
-      <c r="S2" s="31">
+      <c r="S2" s="30">
+        <v>1</v>
+      </c>
+      <c r="T2" s="31">
         <v>2</v>
       </c>
-      <c r="T2" s="31">
+      <c r="U2" s="31">
         <v>3</v>
       </c>
-      <c r="U2" s="31">
+      <c r="V2" s="31">
         <v>4</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="8">
-        <v>1</v>
-      </c>
       <c r="Y2" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="8">
         <v>2</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="AA2" s="8">
         <v>3</v>
       </c>
-      <c r="AA2" s="33">
+      <c r="AB2" s="33">
         <v>4</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="35" customHeight="1" spans="1:30">
+    <row r="3" s="1" customFormat="1" ht="35" customHeight="1" spans="1:31">
       <c r="A3" s="10" t="s">
         <v>41</v>
       </c>
@@ -3874,49 +3853,49 @@
       <c r="C3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12"/>
+      <c r="E3" s="11">
         <v>2</v>
       </c>
-      <c r="E3" s="11">
+      <c r="F3" s="11">
         <v>100</v>
       </c>
-      <c r="F3" s="11">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>44</v>
+      <c r="G3" s="11">
+        <v>1</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="11">
+      <c r="K3" s="11">
         <v>5</v>
       </c>
-      <c r="K3" s="11" t="str">
-        <f>IF(D3=2,"96|96|96|96|96|96",VLOOKUP(F3,__Sheet1!A:B,2,FALSE))</f>
+      <c r="L3" s="11" t="str">
+        <f>IF(E3=2,"96|96|96|96|96|96",VLOOKUP(G3,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="P3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="11"/>
+      <c r="S3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
@@ -3924,15 +3903,16 @@
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
-      <c r="AA3" s="34"/>
-      <c r="AC3" s="1" t="s">
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="34"/>
+      <c r="AD3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="35" customHeight="1" spans="1:30">
+    <row r="4" s="2" customFormat="1" ht="35" customHeight="1" spans="1:31">
       <c r="A4" s="13" t="s">
         <v>53</v>
       </c>
@@ -3942,65 +3922,66 @@
       <c r="C4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16">
         <v>2</v>
       </c>
-      <c r="E4" s="16">
+      <c r="F4" s="16">
         <v>100</v>
       </c>
-      <c r="F4" s="16">
-        <v>1</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="16">
+      <c r="K4" s="16">
         <v>5</v>
       </c>
-      <c r="K4" s="11" t="str">
-        <f>IF(D4=2,"96|96|96|96|96|96",VLOOKUP(F4,__Sheet1!A:B,2,FALSE))</f>
+      <c r="L4" s="11" t="str">
+        <f>IF(E4=2,"96|96|96|96|96|96",VLOOKUP(G4,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="16"/>
+      <c r="N4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="O4" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="15"/>
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
-      <c r="X4" s="16" t="s">
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
-      <c r="AA4" s="35"/>
-      <c r="AC4" s="1" t="s">
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="35"/>
+      <c r="AD4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" ht="51.5" customHeight="1" spans="1:30">
+    <row r="5" ht="51.5" customHeight="1" spans="1:31">
       <c r="A5" s="13" t="s">
         <v>59</v>
       </c>
@@ -4010,69 +3991,70 @@
       <c r="C5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
+      <c r="D5" s="15"/>
       <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
         <v>400</v>
       </c>
-      <c r="F5" s="16">
+      <c r="G5" s="16">
         <v>4</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="16">
-        <v>1</v>
-      </c>
-      <c r="K5" s="11" t="str">
-        <f>IF(D5=2,"96|96|96|96|96|96",VLOOKUP(F5,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K5" s="16">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11" t="str">
+        <f>IF(E5=2,"96|96|96|96|96|96",VLOOKUP(G5,__Sheet1!A:B,2,FALSE))</f>
         <v>48|64|80|96|80|64</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="16"/>
+      <c r="N5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="O5" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="16"/>
+      <c r="S5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="T5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="16"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
-      <c r="X5" s="16" t="s">
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
-      <c r="AA5" s="35"/>
-      <c r="AC5" s="1" t="s">
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="35"/>
+      <c r="AD5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="35" customHeight="1" spans="1:30">
+    <row r="6" s="2" customFormat="1" ht="35" customHeight="1" spans="1:31">
       <c r="A6" s="13" t="s">
         <v>66</v>
       </c>
@@ -4082,67 +4064,68 @@
       <c r="C6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="16">
-        <v>1</v>
-      </c>
+      <c r="D6" s="15"/>
       <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
         <v>400</v>
       </c>
-      <c r="F6" s="16">
+      <c r="G6" s="16">
         <v>0</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="16">
-        <v>1</v>
-      </c>
-      <c r="K6" s="11" t="str">
-        <f>IF(D6=2,"96|96|96|96|96|96",VLOOKUP(F6,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K6" s="16">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11" t="str">
+        <f>IF(E6=2,"96|96|96|96|96|96",VLOOKUP(G6,__Sheet1!A:B,2,FALSE))</f>
         <v>0|0|0|0|0|0</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="16"/>
+      <c r="N6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="O6" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="16"/>
+      <c r="S6" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="T6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
-      <c r="AA6" s="35"/>
-      <c r="AC6" s="1" t="s">
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="35"/>
+      <c r="AD6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="35" customHeight="1" spans="1:30">
+    <row r="7" s="2" customFormat="1" ht="35" customHeight="1" spans="1:31">
       <c r="A7" s="13" t="s">
         <v>73</v>
       </c>
@@ -4152,67 +4135,68 @@
       <c r="C7" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="16">
-        <v>1</v>
-      </c>
+      <c r="D7" s="15"/>
       <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16">
         <v>400</v>
       </c>
-      <c r="F7" s="16">
+      <c r="G7" s="16">
         <v>0</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="16">
-        <v>1</v>
-      </c>
-      <c r="K7" s="11" t="str">
-        <f>IF(D7=2,"96|96|96|96|96|96",VLOOKUP(F7,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K7" s="16">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11" t="str">
+        <f>IF(E7=2,"96|96|96|96|96|96",VLOOKUP(G7,__Sheet1!A:B,2,FALSE))</f>
         <v>0|0|0|0|0|0</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="16"/>
+      <c r="N7" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="O7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="O7" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="16"/>
+      <c r="S7" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="S7" s="16" t="s">
+      <c r="T7" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="T7" s="16"/>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
-      <c r="AA7" s="35"/>
-      <c r="AC7" s="1" t="s">
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="35"/>
+      <c r="AD7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="35" customHeight="1" spans="1:30">
+    <row r="8" s="2" customFormat="1" ht="35" customHeight="1" spans="1:31">
       <c r="A8" s="13" t="s">
         <v>78</v>
       </c>
@@ -4222,67 +4206,68 @@
       <c r="C8" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="16">
-        <v>1</v>
-      </c>
+      <c r="D8" s="15"/>
       <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16">
         <v>400</v>
       </c>
-      <c r="F8" s="16">
+      <c r="G8" s="16">
         <v>0</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="16">
-        <v>1</v>
-      </c>
-      <c r="K8" s="11" t="str">
-        <f>IF(D8=2,"96|96|96|96|96|96",VLOOKUP(F8,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K8" s="16">
+        <v>1</v>
+      </c>
+      <c r="L8" s="11" t="str">
+        <f>IF(E8=2,"96|96|96|96|96|96",VLOOKUP(G8,__Sheet1!A:B,2,FALSE))</f>
         <v>0|0|0|0|0|0</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="16"/>
+      <c r="N8" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="O8" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="15" t="s">
+      <c r="R8" s="16"/>
+      <c r="S8" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="S8" s="16" t="s">
+      <c r="T8" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
-      <c r="AA8" s="35"/>
-      <c r="AC8" s="1" t="s">
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="35"/>
+      <c r="AD8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="35" customHeight="1" spans="1:30">
+    <row r="9" s="2" customFormat="1" ht="35" customHeight="1" spans="1:31">
       <c r="A9" s="13" t="s">
         <v>83</v>
       </c>
@@ -4292,67 +4277,68 @@
       <c r="C9" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="16">
-        <v>1</v>
-      </c>
+      <c r="D9" s="15"/>
       <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
         <v>400</v>
       </c>
-      <c r="F9" s="16">
+      <c r="G9" s="16">
         <v>0</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="16">
-        <v>1</v>
-      </c>
-      <c r="K9" s="11" t="str">
-        <f>IF(D9=2,"96|96|96|96|96|96",VLOOKUP(F9,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K9" s="16">
+        <v>1</v>
+      </c>
+      <c r="L9" s="11" t="str">
+        <f>IF(E9=2,"96|96|96|96|96|96",VLOOKUP(G9,__Sheet1!A:B,2,FALSE))</f>
         <v>0|0|0|0|0|0</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="16"/>
+      <c r="N9" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="O9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="15" t="s">
+      <c r="R9" s="16"/>
+      <c r="S9" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="S9" s="16" t="s">
+      <c r="T9" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
-      <c r="AA9" s="35"/>
-      <c r="AC9" s="1" t="s">
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="35"/>
+      <c r="AD9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" ht="35" customHeight="1" spans="1:30">
+    <row r="10" ht="35" customHeight="1" spans="1:31">
       <c r="A10" s="13" t="s">
         <v>88</v>
       </c>
@@ -4362,51 +4348,51 @@
       <c r="C10" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="16">
-        <v>1</v>
-      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
         <v>500</v>
       </c>
-      <c r="F10" s="16">
+      <c r="G10" s="16">
         <v>5</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="16">
-        <v>1</v>
-      </c>
-      <c r="K10" s="11" t="str">
-        <f>IF(D10=2,"96|96|96|96|96|96",VLOOKUP(F10,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K10" s="16">
+        <v>1</v>
+      </c>
+      <c r="L10" s="11" t="str">
+        <f>IF(E10=2,"96|96|96|96|96|96",VLOOKUP(G10,__Sheet1!A:B,2,FALSE))</f>
         <v>32|48|64|80|96|80</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="M10" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="N10" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="O10" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="15" t="s">
+      <c r="R10" s="16"/>
+      <c r="S10" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="S10" s="16"/>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
@@ -4414,15 +4400,16 @@
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
-      <c r="AA10" s="35"/>
-      <c r="AC10" s="1" t="s">
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="35"/>
+      <c r="AD10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="35" customHeight="1" spans="1:30">
+    <row r="11" s="2" customFormat="1" ht="35" customHeight="1" spans="1:31">
       <c r="A11" s="13" t="s">
         <v>94</v>
       </c>
@@ -4432,51 +4419,51 @@
       <c r="C11" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="16">
-        <v>1</v>
-      </c>
+      <c r="D11" s="15"/>
       <c r="E11" s="16">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16">
         <v>400</v>
       </c>
-      <c r="F11" s="16">
+      <c r="G11" s="16">
         <v>0</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="16">
-        <v>1</v>
-      </c>
-      <c r="K11" s="11" t="str">
-        <f>IF(D11=2,"96|96|96|96|96|96",VLOOKUP(F11,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K11" s="16">
+        <v>1</v>
+      </c>
+      <c r="L11" s="11" t="str">
+        <f>IF(E11=2,"96|96|96|96|96|96",VLOOKUP(G11,__Sheet1!A:B,2,FALSE))</f>
         <v>0|0|0|0|0|0</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="M11" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="N11" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="O11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O11" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="15" t="s">
+      <c r="R11" s="16"/>
+      <c r="S11" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="S11" s="16"/>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
@@ -4484,15 +4471,16 @@
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
-      <c r="AA11" s="35"/>
-      <c r="AC11" s="1" t="s">
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="35"/>
+      <c r="AD11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" ht="35" customHeight="1" spans="1:30">
+    <row r="12" ht="35" customHeight="1" spans="1:31">
       <c r="A12" s="13" t="s">
         <v>100</v>
       </c>
@@ -4502,67 +4490,68 @@
       <c r="C12" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15"/>
+      <c r="E12" s="16">
         <v>2</v>
       </c>
-      <c r="E12" s="16">
+      <c r="F12" s="16">
         <v>100</v>
       </c>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="16">
+      <c r="K12" s="16">
         <v>5</v>
       </c>
-      <c r="K12" s="11" t="str">
-        <f>IF(D12=2,"96|96|96|96|96|96",VLOOKUP(F12,__Sheet1!A:B,2,FALSE))</f>
+      <c r="L12" s="11" t="str">
+        <f>IF(E12=2,"96|96|96|96|96|96",VLOOKUP(G12,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="16"/>
+      <c r="N12" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="O12" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="P12" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P12" s="16" t="s">
+      <c r="Q12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="15" t="s">
+      <c r="R12" s="16"/>
+      <c r="S12" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="S12" s="16" t="s">
+      <c r="T12" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
-      <c r="AA12" s="35"/>
-      <c r="AC12" s="1" t="s">
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="35"/>
+      <c r="AD12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" ht="35" customHeight="1" spans="1:30">
+    <row r="13" ht="35" customHeight="1" spans="1:31">
       <c r="A13" s="13" t="s">
         <v>108</v>
       </c>
@@ -4572,67 +4561,68 @@
       <c r="C13" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15"/>
+      <c r="E13" s="16">
         <v>2</v>
       </c>
-      <c r="E13" s="16">
+      <c r="F13" s="16">
         <v>100</v>
       </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="16">
+      <c r="K13" s="16">
         <v>5</v>
       </c>
-      <c r="K13" s="11" t="str">
-        <f>IF(D13=2,"96|96|96|96|96|96",VLOOKUP(F13,__Sheet1!A:B,2,FALSE))</f>
+      <c r="L13" s="11" t="str">
+        <f>IF(E13=2,"96|96|96|96|96|96",VLOOKUP(G13,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="16"/>
+      <c r="N13" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="O13" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="P13" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="P13" s="16" t="s">
+      <c r="Q13" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="15" t="s">
+      <c r="R13" s="16"/>
+      <c r="S13" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="S13" s="16" t="s">
+      <c r="T13" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
-      <c r="AA13" s="35"/>
-      <c r="AC13" s="1" t="s">
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="35"/>
+      <c r="AD13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="66" spans="1:30">
+    <row r="14" s="2" customFormat="1" ht="66" spans="1:31">
       <c r="A14" s="13" t="s">
         <v>114</v>
       </c>
@@ -4642,69 +4632,70 @@
       <c r="C14" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="16">
-        <v>1</v>
-      </c>
+      <c r="D14" s="15"/>
       <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
         <v>400</v>
       </c>
-      <c r="F14" s="16">
+      <c r="G14" s="16">
         <v>4</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="16">
-        <v>1</v>
-      </c>
-      <c r="K14" s="11" t="str">
-        <f>IF(D14=2,"96|96|96|96|96|96",VLOOKUP(F14,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K14" s="16">
+        <v>1</v>
+      </c>
+      <c r="L14" s="11" t="str">
+        <f>IF(E14=2,"96|96|96|96|96|96",VLOOKUP(G14,__Sheet1!A:B,2,FALSE))</f>
         <v>48|64|80|96|80|64</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="16"/>
+      <c r="N14" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="O14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O14" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="15" t="s">
+      <c r="R14" s="16"/>
+      <c r="S14" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="S14" s="16" t="s">
+      <c r="T14" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="T14" s="16" t="s">
+      <c r="U14" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="U14" s="16"/>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
-      <c r="AA14" s="35"/>
-      <c r="AC14" s="1" t="s">
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="35"/>
+      <c r="AD14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="49.5" spans="1:30">
+    <row r="15" s="2" customFormat="1" ht="49.5" spans="1:31">
       <c r="A15" s="13" t="s">
         <v>121</v>
       </c>
@@ -4714,67 +4705,68 @@
       <c r="C15" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="16">
-        <v>1</v>
-      </c>
+      <c r="D15" s="15"/>
       <c r="E15" s="16">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16">
         <v>400</v>
       </c>
-      <c r="F15" s="16">
+      <c r="G15" s="16">
         <v>4</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="16">
-        <v>1</v>
-      </c>
-      <c r="K15" s="11" t="str">
-        <f>IF(D15=2,"96|96|96|96|96|96",VLOOKUP(F15,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K15" s="16">
+        <v>1</v>
+      </c>
+      <c r="L15" s="11" t="str">
+        <f>IF(E15=2,"96|96|96|96|96|96",VLOOKUP(G15,__Sheet1!A:B,2,FALSE))</f>
         <v>48|64|80|96|80|64</v>
       </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="16"/>
+      <c r="N15" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="O15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O15" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="15"/>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
-      <c r="X15" s="16" t="s">
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="Y15" s="16" t="s">
+      <c r="Z15" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="35"/>
-      <c r="AC15" s="1" t="s">
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="35"/>
+      <c r="AD15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AE15" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:30">
+    <row r="16" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:31">
       <c r="A16" s="13" t="s">
         <v>127</v>
       </c>
@@ -4784,49 +4776,49 @@
       <c r="C16" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="16">
-        <v>1</v>
-      </c>
+      <c r="D16" s="15"/>
       <c r="E16" s="16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16">
         <v>800</v>
       </c>
-      <c r="F16" s="16">
+      <c r="G16" s="16">
         <v>6</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="J16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="16">
-        <v>1</v>
-      </c>
-      <c r="K16" s="11" t="str">
-        <f>IF(D16=2,"96|96|96|96|96|96",VLOOKUP(F16,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K16" s="16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="11" t="str">
+        <f>IF(E16=2,"96|96|96|96|96|96",VLOOKUP(G16,__Sheet1!A:B,2,FALSE))</f>
         <v>16|32|48|64|80|96</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="16"/>
+      <c r="N16" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="O16" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="O16" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P16" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="15" t="s">
+      <c r="R16" s="16"/>
+      <c r="S16" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="S16" s="16"/>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
@@ -4834,15 +4826,16 @@
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
-      <c r="AA16" s="35"/>
-      <c r="AC16" s="1" t="s">
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="35"/>
+      <c r="AD16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD16" s="1" t="s">
+      <c r="AE16" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" ht="49.5" spans="1:30">
+    <row r="17" ht="49.5" spans="1:31">
       <c r="A17" s="13" t="s">
         <v>133</v>
       </c>
@@ -4852,67 +4845,68 @@
       <c r="C17" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="16">
-        <v>1</v>
-      </c>
+      <c r="D17" s="15"/>
       <c r="E17" s="16">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16">
         <v>400</v>
       </c>
-      <c r="F17" s="16">
+      <c r="G17" s="16">
         <v>4</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="J17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="16">
-        <v>1</v>
-      </c>
-      <c r="K17" s="11" t="str">
-        <f>IF(D17=2,"96|96|96|96|96|96",VLOOKUP(F17,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K17" s="16">
+        <v>1</v>
+      </c>
+      <c r="L17" s="11" t="str">
+        <f>IF(E17=2,"96|96|96|96|96|96",VLOOKUP(G17,__Sheet1!A:B,2,FALSE))</f>
         <v>48|64|80|96|80|64</v>
       </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="16"/>
+      <c r="N17" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="N17" s="16" t="s">
+      <c r="O17" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="15" t="s">
+      <c r="R17" s="16"/>
+      <c r="S17" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="S17" s="16" t="s">
+      <c r="T17" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="T17" s="16"/>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
-      <c r="AA17" s="35"/>
-      <c r="AC17" s="1" t="s">
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="35"/>
+      <c r="AD17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AE17" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" ht="35" customHeight="1" spans="1:30">
+    <row r="18" ht="35" customHeight="1" spans="1:31">
       <c r="A18" s="13" t="s">
         <v>139</v>
       </c>
@@ -4922,49 +4916,49 @@
       <c r="C18" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="16">
-        <v>1</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="16">
+        <v>1</v>
+      </c>
+      <c r="F18" s="16">
         <v>800</v>
       </c>
-      <c r="F18" s="16">
+      <c r="G18" s="16">
         <v>6</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="J18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="16">
-        <v>1</v>
-      </c>
-      <c r="K18" s="11" t="str">
-        <f>IF(D18=2,"96|96|96|96|96|96",VLOOKUP(F18,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K18" s="16">
+        <v>1</v>
+      </c>
+      <c r="L18" s="11" t="str">
+        <f>IF(E18=2,"96|96|96|96|96|96",VLOOKUP(G18,__Sheet1!A:B,2,FALSE))</f>
         <v>16|32|48|64|80|96</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="15" t="s">
+      <c r="M18" s="16"/>
+      <c r="N18" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="O18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O18" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="15" t="s">
+      <c r="R18" s="16"/>
+      <c r="S18" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="S18" s="16"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
@@ -4972,15 +4966,16 @@
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
-      <c r="AA18" s="35"/>
-      <c r="AC18" s="1" t="s">
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="35"/>
+      <c r="AD18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD18" s="1" t="s">
+      <c r="AE18" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" ht="18.5" customHeight="1" spans="1:30">
+    <row r="19" ht="18.5" customHeight="1" spans="1:31">
       <c r="A19" s="13" t="s">
         <v>144</v>
       </c>
@@ -4990,49 +4985,49 @@
       <c r="C19" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="16">
-        <v>1</v>
-      </c>
+      <c r="D19" s="15"/>
       <c r="E19" s="16">
+        <v>1</v>
+      </c>
+      <c r="F19" s="16">
         <v>300</v>
       </c>
-      <c r="F19" s="16">
+      <c r="G19" s="16">
         <v>3</v>
       </c>
-      <c r="G19" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="J19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="16">
-        <v>1</v>
-      </c>
-      <c r="K19" s="11" t="str">
-        <f>IF(D19=2,"96|96|96|96|96|96",VLOOKUP(F19,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K19" s="16">
+        <v>1</v>
+      </c>
+      <c r="L19" s="11" t="str">
+        <f>IF(E19=2,"96|96|96|96|96|96",VLOOKUP(G19,__Sheet1!A:B,2,FALSE))</f>
         <v>64|80|96|80|64|48</v>
       </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="16"/>
+      <c r="N19" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="O19" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O19" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="15" t="s">
+      <c r="R19" s="16"/>
+      <c r="S19" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="S19" s="16"/>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
       <c r="V19" s="16"/>
@@ -5040,15 +5035,16 @@
       <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
       <c r="Z19" s="16"/>
-      <c r="AA19" s="35"/>
-      <c r="AC19" s="1" t="s">
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="35"/>
+      <c r="AD19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD19" s="1" t="s">
+      <c r="AE19" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" ht="49.5" spans="1:30">
+    <row r="20" ht="49.5" spans="1:31">
       <c r="A20" s="13" t="s">
         <v>149</v>
       </c>
@@ -5058,69 +5054,70 @@
       <c r="C20" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="16">
-        <v>1</v>
-      </c>
+      <c r="D20" s="15"/>
       <c r="E20" s="16">
+        <v>1</v>
+      </c>
+      <c r="F20" s="16">
         <v>400</v>
       </c>
-      <c r="F20" s="16">
+      <c r="G20" s="16">
         <v>4</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="16">
-        <v>1</v>
-      </c>
-      <c r="K20" s="11" t="str">
-        <f>IF(D20=2,"96|96|96|96|96|96",VLOOKUP(F20,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K20" s="16">
+        <v>1</v>
+      </c>
+      <c r="L20" s="11" t="str">
+        <f>IF(E20=2,"96|96|96|96|96|96",VLOOKUP(G20,__Sheet1!A:B,2,FALSE))</f>
         <v>48|64|80|96|80|64</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="15" t="s">
+      <c r="M20" s="16"/>
+      <c r="N20" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="N20" s="16" t="s">
+      <c r="O20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q20" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="15" t="s">
+      <c r="R20" s="16"/>
+      <c r="S20" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="S20" s="16" t="s">
+      <c r="T20" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="T20" s="16" t="s">
+      <c r="U20" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="U20" s="16"/>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
       <c r="Z20" s="16"/>
-      <c r="AA20" s="35"/>
-      <c r="AC20" s="1" t="s">
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="35"/>
+      <c r="AD20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD20" s="1" t="s">
+      <c r="AE20" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="68" customHeight="1" spans="1:30">
+    <row r="21" s="2" customFormat="1" ht="68" customHeight="1" spans="1:31">
       <c r="A21" s="13" t="s">
         <v>156</v>
       </c>
@@ -5130,65 +5127,66 @@
       <c r="C21" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15"/>
+      <c r="E21" s="16">
         <v>2</v>
       </c>
-      <c r="E21" s="16">
+      <c r="F21" s="16">
         <v>100</v>
       </c>
-      <c r="F21" s="16">
-        <v>1</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="11" t="s">
+      <c r="G21" s="16">
+        <v>1</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J21" s="16">
+      <c r="K21" s="16">
         <v>5</v>
       </c>
-      <c r="K21" s="11" t="str">
-        <f>IF(D21=2,"96|96|96|96|96|96",VLOOKUP(F21,__Sheet1!A:B,2,FALSE))</f>
+      <c r="L21" s="11" t="str">
+        <f>IF(E21=2,"96|96|96|96|96|96",VLOOKUP(G21,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="15" t="s">
+      <c r="M21" s="16"/>
+      <c r="N21" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="N21" s="16" t="s">
+      <c r="O21" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O21" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="15"/>
       <c r="T21" s="16"/>
       <c r="U21" s="16"/>
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
-      <c r="Y21" s="16" t="s">
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="35"/>
-      <c r="AC21" s="1" t="s">
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="35"/>
+      <c r="AD21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD21" s="1" t="s">
+      <c r="AE21" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" ht="49.5" spans="1:30">
+    <row r="22" ht="49.5" spans="1:31">
       <c r="A22" s="13" t="s">
         <v>161</v>
       </c>
@@ -5198,69 +5196,70 @@
       <c r="C22" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="16">
-        <v>1</v>
-      </c>
+      <c r="D22" s="15"/>
       <c r="E22" s="16">
+        <v>1</v>
+      </c>
+      <c r="F22" s="16">
         <v>400</v>
       </c>
-      <c r="F22" s="16">
+      <c r="G22" s="16">
         <v>4</v>
       </c>
-      <c r="G22" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="J22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J22" s="16">
-        <v>1</v>
-      </c>
-      <c r="K22" s="11" t="str">
-        <f>IF(D22=2,"96|96|96|96|96|96",VLOOKUP(F22,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K22" s="16">
+        <v>1</v>
+      </c>
+      <c r="L22" s="11" t="str">
+        <f>IF(E22=2,"96|96|96|96|96|96",VLOOKUP(G22,__Sheet1!A:B,2,FALSE))</f>
         <v>48|64|80|96|80|64</v>
       </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="15" t="s">
+      <c r="M22" s="16"/>
+      <c r="N22" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="N22" s="16" t="s">
+      <c r="O22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O22" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P22" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="15" t="s">
+      <c r="R22" s="16"/>
+      <c r="S22" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="S22" s="16" t="s">
+      <c r="T22" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="T22" s="16"/>
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
-      <c r="X22" s="16" t="s">
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="Y22" s="16"/>
       <c r="Z22" s="16"/>
-      <c r="AA22" s="35"/>
-      <c r="AC22" s="1" t="s">
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="35"/>
+      <c r="AD22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD22" s="1" t="s">
+      <c r="AE22" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" ht="35" customHeight="1" spans="1:30">
+    <row r="23" ht="35" customHeight="1" spans="1:31">
       <c r="A23" s="13" t="s">
         <v>167</v>
       </c>
@@ -5270,67 +5269,68 @@
       <c r="C23" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="16">
-        <v>1</v>
-      </c>
+      <c r="D23" s="15"/>
       <c r="E23" s="16">
+        <v>1</v>
+      </c>
+      <c r="F23" s="16">
         <v>400</v>
       </c>
-      <c r="F23" s="16">
+      <c r="G23" s="16">
         <v>4</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="J23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="16">
-        <v>1</v>
-      </c>
-      <c r="K23" s="11" t="str">
-        <f>IF(D23=2,"96|96|96|96|96|96",VLOOKUP(F23,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K23" s="16">
+        <v>1</v>
+      </c>
+      <c r="L23" s="11" t="str">
+        <f>IF(E23=2,"96|96|96|96|96|96",VLOOKUP(G23,__Sheet1!A:B,2,FALSE))</f>
         <v>48|64|80|96|80|64</v>
       </c>
-      <c r="L23" s="16"/>
-      <c r="M23" s="15" t="s">
+      <c r="M23" s="16"/>
+      <c r="N23" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="N23" s="16" t="s">
+      <c r="O23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O23" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P23" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q23" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="15" t="s">
+      <c r="R23" s="16"/>
+      <c r="S23" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="S23" s="16" t="s">
+      <c r="T23" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="T23" s="16"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
-      <c r="AA23" s="35"/>
-      <c r="AC23" s="1" t="s">
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="35"/>
+      <c r="AD23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD23" s="1" t="s">
+      <c r="AE23" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" ht="49.5" spans="1:30">
+    <row r="24" ht="33" spans="1:31">
       <c r="A24" s="13" t="s">
         <v>173</v>
       </c>
@@ -5340,191 +5340,195 @@
       <c r="C24" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="16">
-        <v>1</v>
+      <c r="D24" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="E24" s="16">
+        <v>1</v>
+      </c>
+      <c r="F24" s="16">
         <v>400</v>
       </c>
-      <c r="F24" s="16">
+      <c r="G24" s="16">
         <v>4</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="J24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="16">
-        <v>1</v>
-      </c>
-      <c r="K24" s="11" t="str">
-        <f>IF(D24=2,"96|96|96|96|96|96",VLOOKUP(F24,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K24" s="16">
+        <v>1</v>
+      </c>
+      <c r="L24" s="11" t="str">
+        <f>IF(E24=2,"96|96|96|96|96|96",VLOOKUP(G24,__Sheet1!A:B,2,FALSE))</f>
         <v>48|64|80|96|80|64</v>
       </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="N24" s="16" t="s">
+      <c r="M24" s="16"/>
+      <c r="N24" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="O24" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O24" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="S24" s="16" t="s">
+      <c r="R24" s="16"/>
+      <c r="S24" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="T24" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="T24" s="16"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
       <c r="Y24" s="16"/>
       <c r="Z24" s="16"/>
-      <c r="AA24" s="35"/>
-      <c r="AC24" s="1" t="s">
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="35"/>
+      <c r="AD24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD24" s="1" t="s">
+      <c r="AE24" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" ht="35" customHeight="1" spans="1:30">
+    <row r="25" ht="35" customHeight="1" spans="1:31">
       <c r="A25" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="16">
-        <v>1</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D25" s="15"/>
       <c r="E25" s="16">
+        <v>1</v>
+      </c>
+      <c r="F25" s="16">
         <v>400</v>
       </c>
-      <c r="F25" s="16">
+      <c r="G25" s="16">
         <v>4</v>
       </c>
-      <c r="G25" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="J25" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J25" s="16">
-        <v>1</v>
-      </c>
-      <c r="K25" s="11" t="str">
-        <f>IF(D25=2,"96|96|96|96|96|96",VLOOKUP(F25,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K25" s="16">
+        <v>1</v>
+      </c>
+      <c r="L25" s="11" t="str">
+        <f>IF(E25=2,"96|96|96|96|96|96",VLOOKUP(G25,__Sheet1!A:B,2,FALSE))</f>
         <v>48|64|80|96|80|64</v>
       </c>
-      <c r="L25" s="16"/>
-      <c r="M25" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="N25" s="16" t="s">
+      <c r="M25" s="16"/>
+      <c r="N25" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="O25" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O25" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q25" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="S25" s="16" t="s">
+      <c r="R25" s="16"/>
+      <c r="S25" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="T25" s="16"/>
+      <c r="T25" s="16" t="s">
+        <v>184</v>
+      </c>
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
       <c r="Z25" s="16"/>
-      <c r="AA25" s="35"/>
-      <c r="AC25" s="1" t="s">
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="35"/>
+      <c r="AD25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD25" s="1" t="s">
+      <c r="AE25" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" ht="35" customHeight="1" spans="1:30">
+    <row r="26" ht="35" customHeight="1" spans="1:31">
       <c r="A26" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D26" s="19">
-        <v>1</v>
-      </c>
-      <c r="E26" s="16">
+        <v>187</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19">
+        <v>1</v>
+      </c>
+      <c r="F26" s="16">
         <v>500</v>
       </c>
-      <c r="F26" s="16">
+      <c r="G26" s="16">
         <v>5</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="J26" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J26" s="16">
-        <v>1</v>
-      </c>
-      <c r="K26" s="11" t="str">
-        <f>IF(D26=2,"96|96|96|96|96|96",VLOOKUP(F26,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K26" s="16">
+        <v>1</v>
+      </c>
+      <c r="L26" s="11" t="str">
+        <f>IF(E26=2,"96|96|96|96|96|96",VLOOKUP(G26,__Sheet1!A:B,2,FALSE))</f>
         <v>32|48|64|80|96|80</v>
       </c>
-      <c r="L26" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="M26" s="15" t="s">
+      <c r="M26" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N26" s="16" t="s">
+      <c r="N26" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="O26" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O26" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q26" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="S26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="15" t="s">
+        <v>190</v>
+      </c>
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
@@ -5532,133 +5536,135 @@
       <c r="X26" s="16"/>
       <c r="Y26" s="16"/>
       <c r="Z26" s="16"/>
-      <c r="AA26" s="35"/>
-      <c r="AC26" s="1" t="s">
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="35"/>
+      <c r="AD26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD26" s="1" t="s">
+      <c r="AE26" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" ht="49.5" spans="1:30">
+    <row r="27" ht="49.5" spans="1:31">
       <c r="A27" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D27" s="16">
-        <v>1</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D27" s="15"/>
       <c r="E27" s="16">
+        <v>1</v>
+      </c>
+      <c r="F27" s="16">
         <v>300</v>
       </c>
-      <c r="F27" s="16">
+      <c r="G27" s="16">
         <v>3</v>
       </c>
-      <c r="G27" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="J27" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J27" s="16">
-        <v>1</v>
-      </c>
-      <c r="K27" s="11" t="str">
-        <f>IF(D27=2,"96|96|96|96|96|96",VLOOKUP(F27,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K27" s="16">
+        <v>1</v>
+      </c>
+      <c r="L27" s="11" t="str">
+        <f>IF(E27=2,"96|96|96|96|96|96",VLOOKUP(G27,__Sheet1!A:B,2,FALSE))</f>
         <v>64|80|96|80|64|48</v>
       </c>
-      <c r="L27" s="16"/>
-      <c r="M27" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="N27" s="16" t="s">
+      <c r="M27" s="16"/>
+      <c r="N27" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="O27" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O27" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q27" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="15"/>
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
-      <c r="X27" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16" t="s">
+        <v>195</v>
+      </c>
       <c r="Z27" s="16"/>
-      <c r="AA27" s="35"/>
-      <c r="AC27" s="1" t="s">
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="35"/>
+      <c r="AD27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD27" s="1" t="s">
+      <c r="AE27" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:30">
+    <row r="28" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:31">
       <c r="A28" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D28" s="16">
-        <v>1</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D28" s="15"/>
       <c r="E28" s="16">
+        <v>1</v>
+      </c>
+      <c r="F28" s="16">
         <v>500</v>
       </c>
-      <c r="F28" s="16">
+      <c r="G28" s="16">
         <v>5</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="J28" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J28" s="16">
-        <v>1</v>
-      </c>
-      <c r="K28" s="11" t="str">
-        <f>IF(D28=2,"96|96|96|96|96|96",VLOOKUP(F28,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K28" s="16">
+        <v>1</v>
+      </c>
+      <c r="L28" s="11" t="str">
+        <f>IF(E28=2,"96|96|96|96|96|96",VLOOKUP(G28,__Sheet1!A:B,2,FALSE))</f>
         <v>32|48|64|80|96|80</v>
       </c>
-      <c r="L28" s="16"/>
-      <c r="M28" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="N28" s="16" t="s">
+      <c r="M28" s="16"/>
+      <c r="N28" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="O28" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O28" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P28" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q28" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="15"/>
       <c r="T28" s="16"/>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
@@ -5666,623 +5672,636 @@
       <c r="X28" s="16"/>
       <c r="Y28" s="16"/>
       <c r="Z28" s="16"/>
-      <c r="AA28" s="35"/>
-      <c r="AC28" s="1" t="s">
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="35"/>
+      <c r="AD28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD28" s="1" t="s">
+      <c r="AE28" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" ht="49.5" spans="1:30">
+    <row r="29" ht="49.5" spans="1:31">
       <c r="A29" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D29" s="16">
-        <v>1</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="D29" s="15"/>
       <c r="E29" s="16">
+        <v>1</v>
+      </c>
+      <c r="F29" s="16">
         <v>800</v>
       </c>
-      <c r="F29" s="16">
+      <c r="G29" s="16">
         <v>6</v>
       </c>
-      <c r="G29" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="J29" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="16">
-        <v>1</v>
-      </c>
-      <c r="K29" s="11" t="str">
-        <f>IF(D29=2,"96|96|96|96|96|96",VLOOKUP(F29,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K29" s="16">
+        <v>1</v>
+      </c>
+      <c r="L29" s="11" t="str">
+        <f>IF(E29=2,"96|96|96|96|96|96",VLOOKUP(G29,__Sheet1!A:B,2,FALSE))</f>
         <v>16|32|48|64|80|96</v>
       </c>
-      <c r="L29" s="16"/>
-      <c r="M29" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="N29" s="16" t="s">
+      <c r="M29" s="16"/>
+      <c r="N29" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="O29" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O29" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P29" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="S29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="15" t="s">
+        <v>204</v>
+      </c>
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
-      <c r="X29" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16" t="s">
+        <v>205</v>
+      </c>
       <c r="Z29" s="16"/>
-      <c r="AA29" s="35"/>
-      <c r="AC29" s="1" t="s">
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="35"/>
+      <c r="AD29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD29" s="1" t="s">
+      <c r="AE29" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" ht="51.5" customHeight="1" spans="1:30">
+    <row r="30" ht="51.5" customHeight="1" spans="1:31">
       <c r="A30" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D30" s="16">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>209</v>
       </c>
       <c r="E30" s="16">
+        <v>1</v>
+      </c>
+      <c r="F30" s="16">
         <v>500</v>
       </c>
-      <c r="F30" s="16">
+      <c r="G30" s="16">
         <v>5</v>
       </c>
-      <c r="G30" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="J30" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J30" s="16">
-        <v>1</v>
-      </c>
-      <c r="K30" s="11" t="str">
-        <f>IF(D30=2,"96|96|96|96|96|96",VLOOKUP(F30,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K30" s="16">
+        <v>1</v>
+      </c>
+      <c r="L30" s="11" t="str">
+        <f>IF(E30=2,"96|96|96|96|96|96",VLOOKUP(G30,__Sheet1!A:B,2,FALSE))</f>
         <v>32|48|64|80|96|80</v>
       </c>
-      <c r="L30" s="16"/>
-      <c r="M30" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="N30" s="16" t="s">
-        <v>209</v>
+      <c r="M30" s="16"/>
+      <c r="N30" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P30" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q30" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="S30" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="T30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="T30" s="16" t="s">
+        <v>214</v>
+      </c>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
       <c r="X30" s="16"/>
       <c r="Y30" s="16"/>
       <c r="Z30" s="16"/>
-      <c r="AA30" s="35"/>
-      <c r="AC30" s="1" t="s">
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="35"/>
+      <c r="AD30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD30" s="1" t="s">
+      <c r="AE30" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="49.5" spans="1:30">
+    <row r="31" s="2" customFormat="1" ht="49.5" spans="1:31">
       <c r="A31" s="13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D31" s="16">
-        <v>1</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D31" s="15"/>
       <c r="E31" s="16">
+        <v>1</v>
+      </c>
+      <c r="F31" s="16">
         <v>300</v>
       </c>
-      <c r="F31" s="16">
+      <c r="G31" s="16">
         <v>0</v>
       </c>
-      <c r="G31" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="J31" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J31" s="16">
-        <v>1</v>
-      </c>
-      <c r="K31" s="11" t="str">
-        <f>IF(D31=2,"96|96|96|96|96|96",VLOOKUP(F31,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K31" s="16">
+        <v>1</v>
+      </c>
+      <c r="L31" s="11" t="str">
+        <f>IF(E31=2,"96|96|96|96|96|96",VLOOKUP(G31,__Sheet1!A:B,2,FALSE))</f>
         <v>0|0|0|0|0|0</v>
       </c>
-      <c r="L31" s="16"/>
-      <c r="M31" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="N31" s="16" t="s">
+      <c r="M31" s="16"/>
+      <c r="N31" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="O31" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O31" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P31" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q31" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="15"/>
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
-      <c r="X31" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16" t="s">
+        <v>219</v>
+      </c>
       <c r="Z31" s="16"/>
-      <c r="AA31" s="35"/>
-      <c r="AC31" s="1" t="s">
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="35"/>
+      <c r="AD31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="AE31" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" ht="35" customHeight="1" spans="1:30">
+    <row r="32" ht="35" customHeight="1" spans="1:31">
       <c r="A32" s="13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D32" s="16">
-        <v>1</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="D32" s="15"/>
       <c r="E32" s="16">
+        <v>1</v>
+      </c>
+      <c r="F32" s="16">
         <v>400</v>
       </c>
-      <c r="F32" s="16">
+      <c r="G32" s="16">
         <v>4</v>
       </c>
-      <c r="G32" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="J32" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J32" s="16">
-        <v>1</v>
-      </c>
-      <c r="K32" s="11" t="str">
-        <f>IF(D32=2,"96|96|96|96|96|96",VLOOKUP(F32,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K32" s="16">
+        <v>1</v>
+      </c>
+      <c r="L32" s="11" t="str">
+        <f>IF(E32=2,"96|96|96|96|96|96",VLOOKUP(G32,__Sheet1!A:B,2,FALSE))</f>
         <v>48|64|80|96|80|64</v>
       </c>
-      <c r="L32" s="16"/>
-      <c r="M32" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="N32" s="16" t="s">
+      <c r="M32" s="16"/>
+      <c r="N32" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="O32" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O32" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P32" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q32" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="S32" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="T32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="T32" s="16" t="s">
+        <v>225</v>
+      </c>
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
       <c r="W32" s="16"/>
       <c r="X32" s="16"/>
       <c r="Y32" s="16"/>
       <c r="Z32" s="16"/>
-      <c r="AA32" s="35"/>
-      <c r="AC32" s="1" t="s">
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="35"/>
+      <c r="AD32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD32" s="1" t="s">
+      <c r="AE32" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="49.5" spans="1:30">
+    <row r="33" s="2" customFormat="1" ht="49.5" spans="1:31">
       <c r="A33" s="13" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33" s="16">
-        <v>1</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D33" s="15"/>
       <c r="E33" s="16">
+        <v>1</v>
+      </c>
+      <c r="F33" s="16">
         <v>400</v>
       </c>
-      <c r="F33" s="16">
+      <c r="G33" s="16">
         <v>4</v>
       </c>
-      <c r="G33" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="J33" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J33" s="16">
-        <v>1</v>
-      </c>
-      <c r="K33" s="11" t="str">
-        <f>IF(D33=2,"96|96|96|96|96|96",VLOOKUP(F33,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K33" s="16">
+        <v>1</v>
+      </c>
+      <c r="L33" s="11" t="str">
+        <f>IF(E33=2,"96|96|96|96|96|96",VLOOKUP(G33,__Sheet1!A:B,2,FALSE))</f>
         <v>48|64|80|96|80|64</v>
       </c>
-      <c r="L33" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="M33" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="N33" s="16" t="s">
+      <c r="M33" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="O33" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O33" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P33" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q33" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="15"/>
       <c r="T33" s="16"/>
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
-      <c r="X33" s="16" t="s">
-        <v>229</v>
-      </c>
+      <c r="X33" s="16"/>
       <c r="Y33" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="35"/>
-      <c r="AC33" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z33" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="35"/>
+      <c r="AD33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD33" s="1" t="s">
+      <c r="AE33" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" ht="49.5" spans="1:30">
+    <row r="34" s="2" customFormat="1" ht="49.5" spans="1:31">
       <c r="A34" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="D34" s="21">
+        <v>235</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21">
         <v>2</v>
       </c>
-      <c r="E34" s="16">
+      <c r="F34" s="16">
         <v>100</v>
       </c>
-      <c r="F34" s="16">
-        <v>1</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="11" t="s">
+      <c r="G34" s="16">
+        <v>1</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="J34" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J34" s="16">
+      <c r="K34" s="16">
         <v>5</v>
       </c>
-      <c r="K34" s="11" t="str">
-        <f>IF(D34=2,"96|96|96|96|96|96",VLOOKUP(F34,__Sheet1!A:B,2,FALSE))</f>
+      <c r="L34" s="11" t="str">
+        <f>IF(E34=2,"96|96|96|96|96|96",VLOOKUP(G34,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L34" s="16"/>
-      <c r="M34" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="N34" s="16" t="s">
+      <c r="M34" s="16"/>
+      <c r="N34" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="O34" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O34" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P34" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q34" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="15"/>
       <c r="T34" s="16"/>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
-      <c r="X34" s="16" t="s">
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="Y34" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="35"/>
-      <c r="AC34" s="1" t="s">
+      <c r="Z34" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="35"/>
+      <c r="AD34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD34" s="1" t="s">
+      <c r="AE34" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="49.5" spans="1:30">
+    <row r="35" s="2" customFormat="1" ht="49.5" spans="1:31">
       <c r="A35" s="13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D35" s="16">
+        <v>240</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16">
         <v>2</v>
       </c>
-      <c r="E35" s="16">
+      <c r="F35" s="16">
         <v>100</v>
       </c>
-      <c r="F35" s="16">
-        <v>1</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="11" t="s">
+      <c r="G35" s="16">
+        <v>1</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="J35" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J35" s="16">
+      <c r="K35" s="16">
         <v>5</v>
       </c>
-      <c r="K35" s="11" t="str">
-        <f>IF(D35=2,"96|96|96|96|96|96",VLOOKUP(F35,__Sheet1!A:B,2,FALSE))</f>
+      <c r="L35" s="11" t="str">
+        <f>IF(E35=2,"96|96|96|96|96|96",VLOOKUP(G35,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L35" s="16"/>
-      <c r="M35" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="N35" s="16" t="s">
+      <c r="M35" s="16"/>
+      <c r="N35" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="O35" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O35" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P35" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="15"/>
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
       <c r="V35" s="16"/>
       <c r="W35" s="16"/>
-      <c r="X35" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16" t="s">
+        <v>242</v>
+      </c>
       <c r="Z35" s="16"/>
-      <c r="AA35" s="35"/>
-      <c r="AC35" s="1" t="s">
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="35"/>
+      <c r="AD35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD35" s="1" t="s">
+      <c r="AE35" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" ht="49.5" spans="1:30">
+    <row r="36" s="2" customFormat="1" ht="49.5" spans="1:31">
       <c r="A36" s="13" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="D36" s="21">
+        <v>245</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21">
         <v>2</v>
       </c>
-      <c r="E36" s="16">
+      <c r="F36" s="16">
         <v>100</v>
       </c>
-      <c r="F36" s="16">
-        <v>1</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H36" s="11" t="s">
+      <c r="G36" s="16">
+        <v>1</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="J36" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J36" s="16">
+      <c r="K36" s="16">
         <v>5</v>
       </c>
-      <c r="K36" s="11" t="str">
-        <f>IF(D36=2,"96|96|96|96|96|96",VLOOKUP(F36,__Sheet1!A:B,2,FALSE))</f>
+      <c r="L36" s="11" t="str">
+        <f>IF(E36=2,"96|96|96|96|96|96",VLOOKUP(G36,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L36" s="16"/>
-      <c r="M36" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="N36" s="16" t="s">
+      <c r="M36" s="16"/>
+      <c r="N36" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="O36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P36" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q36" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="15"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
       <c r="V36" s="16"/>
       <c r="W36" s="16"/>
-      <c r="X36" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="Z36" s="16"/>
-      <c r="AA36" s="35"/>
-      <c r="AC36" s="1" t="s">
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="35"/>
+      <c r="AD36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD36" s="1" t="s">
+      <c r="AE36" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" ht="35" customHeight="1" spans="1:30">
+    <row r="37" ht="35" customHeight="1" spans="1:31">
       <c r="A37" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="D37" s="16">
-        <v>1</v>
+        <v>250</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="E37" s="16">
+        <v>1</v>
+      </c>
+      <c r="F37" s="16">
         <v>200</v>
       </c>
-      <c r="F37" s="16">
+      <c r="G37" s="16">
         <v>3</v>
       </c>
-      <c r="G37" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="J37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J37" s="16">
-        <v>1</v>
-      </c>
-      <c r="K37" s="11" t="str">
-        <f>IF(D37=2,"96|96|96|96|96|96",VLOOKUP(F37,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K37" s="16">
+        <v>1</v>
+      </c>
+      <c r="L37" s="11" t="str">
+        <f>IF(E37=2,"96|96|96|96|96|96",VLOOKUP(G37,__Sheet1!A:B,2,FALSE))</f>
         <v>64|80|96|80|64|48</v>
       </c>
-      <c r="L37" s="16"/>
-      <c r="M37" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="N37" s="16" t="s">
-        <v>250</v>
+      <c r="M37" s="16"/>
+      <c r="N37" s="15" t="s">
+        <v>252</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>44</v>
+        <v>253</v>
       </c>
       <c r="P37" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q37" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="S37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="15" t="s">
+        <v>254</v>
+      </c>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
       <c r="V37" s="16"/>
@@ -6290,67 +6309,70 @@
       <c r="X37" s="16"/>
       <c r="Y37" s="16"/>
       <c r="Z37" s="16"/>
-      <c r="AA37" s="35"/>
-      <c r="AC37" s="1" t="s">
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="35"/>
+      <c r="AD37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD37" s="1" t="s">
+      <c r="AE37" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" ht="51.5" customHeight="1" spans="1:30">
+    <row r="38" ht="51.5" customHeight="1" spans="1:31">
       <c r="A38" s="13" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D38" s="16">
-        <v>1</v>
+        <v>257</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>258</v>
       </c>
       <c r="E38" s="16">
+        <v>1</v>
+      </c>
+      <c r="F38" s="16">
         <v>800</v>
       </c>
-      <c r="F38" s="16">
+      <c r="G38" s="16">
         <v>6</v>
       </c>
-      <c r="G38" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="J38" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J38" s="16">
-        <v>1</v>
-      </c>
-      <c r="K38" s="11" t="str">
-        <f>IF(D38=2,"96|96|96|96|96|96",VLOOKUP(F38,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K38" s="16">
+        <v>1</v>
+      </c>
+      <c r="L38" s="11" t="str">
+        <f>IF(E38=2,"96|96|96|96|96|96",VLOOKUP(G38,__Sheet1!A:B,2,FALSE))</f>
         <v>16|32|48|64|80|96</v>
       </c>
-      <c r="L38" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="M38" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="N38" s="16" t="s">
+      <c r="M38" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="N38" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="O38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O38" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P38" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="15"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
@@ -6358,139 +6380,141 @@
       <c r="X38" s="16"/>
       <c r="Y38" s="16"/>
       <c r="Z38" s="16"/>
-      <c r="AA38" s="35"/>
-      <c r="AC38" s="1" t="s">
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="35"/>
+      <c r="AD38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD38" s="1" t="s">
+      <c r="AE38" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" ht="49.5" spans="1:30">
+    <row r="39" s="2" customFormat="1" ht="49.5" spans="1:31">
       <c r="A39" s="13" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="D39" s="16">
-        <v>1</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="D39" s="15"/>
       <c r="E39" s="16">
+        <v>1</v>
+      </c>
+      <c r="F39" s="16">
         <v>300</v>
       </c>
-      <c r="F39" s="16">
+      <c r="G39" s="16">
         <v>3</v>
       </c>
-      <c r="G39" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="J39" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J39" s="16">
-        <v>1</v>
-      </c>
-      <c r="K39" s="11" t="str">
-        <f>IF(D39=2,"96|96|96|96|96|96",VLOOKUP(F39,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K39" s="16">
+        <v>1</v>
+      </c>
+      <c r="L39" s="11" t="str">
+        <f>IF(E39=2,"96|96|96|96|96|96",VLOOKUP(G39,__Sheet1!A:B,2,FALSE))</f>
         <v>64|80|96|80|64|48</v>
       </c>
-      <c r="L39" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="N39" s="16" t="s">
+      <c r="M39" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="O39" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O39" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P39" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q39" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="15"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="16"/>
-      <c r="X39" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16" t="s">
+        <v>266</v>
+      </c>
       <c r="Z39" s="16"/>
-      <c r="AA39" s="35"/>
-      <c r="AC39" s="1" t="s">
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="35"/>
+      <c r="AD39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD39" s="1" t="s">
+      <c r="AE39" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" ht="18.5" customHeight="1" spans="1:30">
+    <row r="40" ht="18.5" customHeight="1" spans="1:31">
       <c r="A40" s="13" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="D40" s="16">
-        <v>1</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="D40" s="15"/>
       <c r="E40" s="16">
+        <v>1</v>
+      </c>
+      <c r="F40" s="16">
         <v>500</v>
       </c>
-      <c r="F40" s="16">
+      <c r="G40" s="16">
         <v>5</v>
       </c>
-      <c r="G40" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="J40" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J40" s="16">
-        <v>1</v>
-      </c>
-      <c r="K40" s="11" t="str">
-        <f>IF(D40=2,"96|96|96|96|96|96",VLOOKUP(F40,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K40" s="16">
+        <v>1</v>
+      </c>
+      <c r="L40" s="11" t="str">
+        <f>IF(E40=2,"96|96|96|96|96|96",VLOOKUP(G40,__Sheet1!A:B,2,FALSE))</f>
         <v>32|48|64|80|96|80</v>
       </c>
-      <c r="L40" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="M40" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="N40" s="16" t="s">
+      <c r="M40" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="O40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O40" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P40" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q40" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="S40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="15" t="s">
+        <v>272</v>
+      </c>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
       <c r="V40" s="16"/>
@@ -6498,417 +6522,423 @@
       <c r="X40" s="16"/>
       <c r="Y40" s="16"/>
       <c r="Z40" s="16"/>
-      <c r="AA40" s="35"/>
-      <c r="AC40" s="1" t="s">
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="35"/>
+      <c r="AD40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD40" s="1" t="s">
+      <c r="AE40" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" ht="35" customHeight="1" spans="1:30">
+    <row r="41" ht="35" customHeight="1" spans="1:31">
       <c r="A41" s="13" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="D41" s="16">
-        <v>1</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="D41" s="15"/>
       <c r="E41" s="16">
+        <v>1</v>
+      </c>
+      <c r="F41" s="16">
         <v>800</v>
       </c>
-      <c r="F41" s="16">
+      <c r="G41" s="16">
         <v>6</v>
       </c>
-      <c r="G41" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="J41" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J41" s="16">
-        <v>1</v>
-      </c>
-      <c r="K41" s="11" t="str">
-        <f>IF(D41=2,"96|96|96|96|96|96",VLOOKUP(F41,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K41" s="16">
+        <v>1</v>
+      </c>
+      <c r="L41" s="11" t="str">
+        <f>IF(E41=2,"96|96|96|96|96|96",VLOOKUP(G41,__Sheet1!A:B,2,FALSE))</f>
         <v>16|32|48|64|80|96</v>
       </c>
-      <c r="L41" s="16"/>
-      <c r="M41" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="N41" s="16" t="s">
+      <c r="M41" s="16"/>
+      <c r="N41" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="O41" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O41" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P41" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q41" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="S41" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="T41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="T41" s="16" t="s">
+        <v>278</v>
+      </c>
       <c r="U41" s="16"/>
       <c r="V41" s="16"/>
       <c r="W41" s="16"/>
       <c r="X41" s="16"/>
       <c r="Y41" s="16"/>
       <c r="Z41" s="16"/>
-      <c r="AA41" s="35"/>
-      <c r="AC41" s="1" t="s">
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="35"/>
+      <c r="AD41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD41" s="1" t="s">
+      <c r="AE41" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" ht="18.5" customHeight="1" spans="1:30">
+    <row r="42" ht="18.5" customHeight="1" spans="1:31">
       <c r="A42" s="13" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D42" s="16">
+        <v>281</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16">
         <v>2</v>
       </c>
-      <c r="E42" s="16">
+      <c r="F42" s="16">
         <v>100</v>
       </c>
-      <c r="F42" s="16">
-        <v>1</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" s="11" t="s">
+      <c r="G42" s="16">
+        <v>1</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="J42" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J42" s="16">
+      <c r="K42" s="16">
         <v>5</v>
       </c>
-      <c r="K42" s="11" t="str">
-        <f>IF(D42=2,"96|96|96|96|96|96",VLOOKUP(F42,__Sheet1!A:B,2,FALSE))</f>
+      <c r="L42" s="11" t="str">
+        <f>IF(E42=2,"96|96|96|96|96|96",VLOOKUP(G42,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L42" s="16"/>
-      <c r="M42" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="N42" s="16" t="s">
+      <c r="M42" s="16"/>
+      <c r="N42" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="O42" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O42" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P42" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q42" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="S42" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="T42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="T42" s="16" t="s">
+        <v>284</v>
+      </c>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="16"/>
       <c r="X42" s="16"/>
       <c r="Y42" s="16"/>
       <c r="Z42" s="16"/>
-      <c r="AA42" s="35"/>
-      <c r="AC42" s="1" t="s">
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="35"/>
+      <c r="AD42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD42" s="1" t="s">
+      <c r="AE42" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" ht="35" customHeight="1" spans="1:30">
+    <row r="43" ht="35" customHeight="1" spans="1:31">
       <c r="A43" s="13" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="D43" s="16">
-        <v>1</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D43" s="15"/>
       <c r="E43" s="16">
+        <v>1</v>
+      </c>
+      <c r="F43" s="16">
         <v>500</v>
       </c>
-      <c r="F43" s="16">
+      <c r="G43" s="16">
         <v>5</v>
       </c>
-      <c r="G43" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="J43" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J43" s="16">
-        <v>1</v>
-      </c>
-      <c r="K43" s="11" t="str">
-        <f>IF(D43=2,"96|96|96|96|96|96",VLOOKUP(F43,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K43" s="16">
+        <v>1</v>
+      </c>
+      <c r="L43" s="11" t="str">
+        <f>IF(E43=2,"96|96|96|96|96|96",VLOOKUP(G43,__Sheet1!A:B,2,FALSE))</f>
         <v>32|48|64|80|96|80</v>
       </c>
-      <c r="L43" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="M43" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="N43" s="16" t="s">
+      <c r="M43" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="O43" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O43" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P43" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q43" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="S43" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="T43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="T43" s="16" t="s">
+        <v>291</v>
+      </c>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="16"/>
       <c r="X43" s="16"/>
       <c r="Y43" s="16"/>
       <c r="Z43" s="16"/>
-      <c r="AA43" s="35"/>
-      <c r="AC43" s="1" t="s">
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="35"/>
+      <c r="AD43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD43" s="1" t="s">
+      <c r="AE43" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" ht="115.5" spans="1:30">
+    <row r="44" ht="115.5" spans="1:31">
       <c r="A44" s="13" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="D44" s="16">
-        <v>1</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="D44" s="15"/>
       <c r="E44" s="16">
+        <v>1</v>
+      </c>
+      <c r="F44" s="16">
         <v>800</v>
       </c>
-      <c r="F44" s="16">
+      <c r="G44" s="16">
         <v>6</v>
       </c>
-      <c r="G44" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="J44" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J44" s="16">
-        <v>1</v>
-      </c>
-      <c r="K44" s="11" t="str">
-        <f>IF(D44=2,"96|96|96|96|96|96",VLOOKUP(F44,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K44" s="16">
+        <v>1</v>
+      </c>
+      <c r="L44" s="11" t="str">
+        <f>IF(E44=2,"96|96|96|96|96|96",VLOOKUP(G44,__Sheet1!A:B,2,FALSE))</f>
         <v>16|32|48|64|80|96</v>
       </c>
-      <c r="L44" s="16"/>
-      <c r="M44" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="N44" s="16" t="s">
+      <c r="M44" s="16"/>
+      <c r="N44" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="O44" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O44" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P44" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q44" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="S44" s="16" t="s">
-        <v>293</v>
+      <c r="R44" s="16"/>
+      <c r="S44" s="15" t="s">
+        <v>296</v>
       </c>
       <c r="T44" s="16" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="U44" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="V44" s="16"/>
+        <v>298</v>
+      </c>
+      <c r="V44" s="16" t="s">
+        <v>299</v>
+      </c>
       <c r="W44" s="16"/>
       <c r="X44" s="16"/>
       <c r="Y44" s="16"/>
       <c r="Z44" s="16"/>
-      <c r="AA44" s="35"/>
-      <c r="AC44" s="1" t="s">
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="35"/>
+      <c r="AD44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD44" s="1" t="s">
+      <c r="AE44" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" ht="49.5" spans="1:30">
+    <row r="45" ht="49.5" spans="1:31">
       <c r="A45" s="13" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="D45" s="16">
-        <v>1</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="D45" s="15"/>
       <c r="E45" s="16">
+        <v>1</v>
+      </c>
+      <c r="F45" s="16">
         <v>400</v>
       </c>
-      <c r="F45" s="16">
+      <c r="G45" s="16">
         <v>4</v>
       </c>
-      <c r="G45" s="16"/>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="16"/>
+      <c r="I45" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="J45" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J45" s="16">
-        <v>1</v>
-      </c>
-      <c r="K45" s="11" t="str">
-        <f>IF(D45=2,"96|96|96|96|96|96",VLOOKUP(F45,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K45" s="16">
+        <v>1</v>
+      </c>
+      <c r="L45" s="11" t="str">
+        <f>IF(E45=2,"96|96|96|96|96|96",VLOOKUP(G45,__Sheet1!A:B,2,FALSE))</f>
         <v>48|64|80|96|80|64</v>
       </c>
-      <c r="L45" s="16"/>
-      <c r="M45" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="N45" s="16" t="s">
+      <c r="M45" s="16"/>
+      <c r="N45" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="O45" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O45" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P45" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q45" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="S45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="15" t="s">
+        <v>304</v>
+      </c>
       <c r="T45" s="16"/>
       <c r="U45" s="16"/>
       <c r="V45" s="16"/>
       <c r="W45" s="16"/>
-      <c r="X45" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16" t="s">
+        <v>305</v>
+      </c>
       <c r="Z45" s="16"/>
-      <c r="AA45" s="35"/>
-      <c r="AC45" s="1" t="s">
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="35"/>
+      <c r="AD45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD45" s="1" t="s">
+      <c r="AE45" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" ht="18.5" customHeight="1" spans="1:30">
+    <row r="46" ht="18.5" customHeight="1" spans="1:31">
       <c r="A46" s="13" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="D46" s="16">
-        <v>1</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="D46" s="15"/>
       <c r="E46" s="16">
+        <v>1</v>
+      </c>
+      <c r="F46" s="16">
         <v>500</v>
       </c>
-      <c r="F46" s="16">
+      <c r="G46" s="16">
         <v>0</v>
       </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="16"/>
+      <c r="I46" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="J46" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J46" s="16">
-        <v>1</v>
-      </c>
-      <c r="K46" s="11" t="str">
-        <f>IF(D46=2,"96|96|96|96|96|96",VLOOKUP(F46,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K46" s="16">
+        <v>1</v>
+      </c>
+      <c r="L46" s="11" t="str">
+        <f>IF(E46=2,"96|96|96|96|96|96",VLOOKUP(G46,__Sheet1!A:B,2,FALSE))</f>
         <v>0|0|0|0|0|0</v>
       </c>
-      <c r="L46" s="16"/>
-      <c r="M46" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="N46" s="16" t="s">
-        <v>306</v>
+      <c r="M46" s="16"/>
+      <c r="N46" s="15" t="s">
+        <v>309</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>44</v>
+        <v>310</v>
       </c>
       <c r="P46" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q46" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="15"/>
       <c r="T46" s="16"/>
       <c r="U46" s="16"/>
       <c r="V46" s="16"/>
@@ -6916,135 +6946,137 @@
       <c r="X46" s="16"/>
       <c r="Y46" s="16"/>
       <c r="Z46" s="16"/>
-      <c r="AA46" s="35"/>
-      <c r="AC46" s="1" t="s">
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="35"/>
+      <c r="AD46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD46" s="1" t="s">
+      <c r="AE46" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" ht="18.5" customHeight="1" spans="1:30">
+    <row r="47" ht="18.5" customHeight="1" spans="1:31">
       <c r="A47" s="13" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="D47" s="16">
-        <v>1</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="D47" s="15"/>
       <c r="E47" s="16">
+        <v>1</v>
+      </c>
+      <c r="F47" s="16">
         <v>800</v>
       </c>
-      <c r="F47" s="16">
+      <c r="G47" s="16">
         <v>6</v>
       </c>
-      <c r="G47" s="16"/>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="16"/>
+      <c r="I47" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="J47" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J47" s="16">
-        <v>1</v>
-      </c>
-      <c r="K47" s="11" t="str">
-        <f>IF(D47=2,"96|96|96|96|96|96",VLOOKUP(F47,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K47" s="16">
+        <v>1</v>
+      </c>
+      <c r="L47" s="11" t="str">
+        <f>IF(E47=2,"96|96|96|96|96|96",VLOOKUP(G47,__Sheet1!A:B,2,FALSE))</f>
         <v>16|32|48|64|80|96</v>
       </c>
-      <c r="L47" s="16"/>
-      <c r="M47" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="N47" s="16" t="s">
+      <c r="M47" s="16"/>
+      <c r="N47" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="O47" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O47" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P47" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q47" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="S47" s="16" t="s">
-        <v>268</v>
+      <c r="R47" s="16"/>
+      <c r="S47" s="15" t="s">
+        <v>296</v>
       </c>
       <c r="T47" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="U47" s="16"/>
+        <v>272</v>
+      </c>
+      <c r="U47" s="16" t="s">
+        <v>315</v>
+      </c>
       <c r="V47" s="16"/>
       <c r="W47" s="16"/>
       <c r="X47" s="16"/>
       <c r="Y47" s="16"/>
       <c r="Z47" s="16"/>
-      <c r="AA47" s="35"/>
-      <c r="AC47" s="1" t="s">
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="35"/>
+      <c r="AD47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD47" s="1" t="s">
+      <c r="AE47" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" ht="18.5" customHeight="1" spans="1:30">
+    <row r="48" ht="18.5" customHeight="1" spans="1:31">
       <c r="A48" s="13" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="D48" s="16">
-        <v>1</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="D48" s="15"/>
       <c r="E48" s="16">
+        <v>1</v>
+      </c>
+      <c r="F48" s="16">
         <v>500</v>
       </c>
-      <c r="F48" s="16">
+      <c r="G48" s="16">
         <v>5</v>
       </c>
-      <c r="G48" s="16"/>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="16"/>
+      <c r="I48" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="J48" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J48" s="16">
-        <v>1</v>
-      </c>
-      <c r="K48" s="11" t="str">
-        <f>IF(D48=2,"96|96|96|96|96|96",VLOOKUP(F48,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K48" s="16">
+        <v>1</v>
+      </c>
+      <c r="L48" s="11" t="str">
+        <f>IF(E48=2,"96|96|96|96|96|96",VLOOKUP(G48,__Sheet1!A:B,2,FALSE))</f>
         <v>32|48|64|80|96|80</v>
       </c>
-      <c r="L48" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="M48" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="N48" s="16" t="s">
+      <c r="M48" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="O48" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O48" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P48" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q48" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="15"/>
       <c r="T48" s="16"/>
       <c r="U48" s="16"/>
       <c r="V48" s="16"/>
@@ -7052,343 +7084,350 @@
       <c r="X48" s="16"/>
       <c r="Y48" s="16"/>
       <c r="Z48" s="16"/>
-      <c r="AA48" s="35"/>
-      <c r="AC48" s="1" t="s">
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="35"/>
+      <c r="AD48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD48" s="1" t="s">
+      <c r="AE48" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" ht="35" customHeight="1" spans="1:30">
+    <row r="49" ht="35" customHeight="1" spans="1:31">
       <c r="A49" s="13" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="D49" s="22">
-        <v>1</v>
-      </c>
-      <c r="E49" s="16">
+        <v>323</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="22">
+        <v>1</v>
+      </c>
+      <c r="F49" s="16">
         <v>800</v>
       </c>
-      <c r="F49" s="16">
+      <c r="G49" s="16">
         <v>6</v>
       </c>
-      <c r="G49" s="16"/>
-      <c r="H49" s="11" t="s">
+      <c r="H49" s="16"/>
+      <c r="I49" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="J49" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J49" s="16">
-        <v>1</v>
-      </c>
-      <c r="K49" s="11" t="str">
-        <f>IF(D49=2,"96|96|96|96|96|96",VLOOKUP(F49,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K49" s="16">
+        <v>1</v>
+      </c>
+      <c r="L49" s="11" t="str">
+        <f>IF(E49=2,"96|96|96|96|96|96",VLOOKUP(G49,__Sheet1!A:B,2,FALSE))</f>
         <v>16|32|48|64|80|96</v>
       </c>
-      <c r="L49" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="M49" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="N49" s="16" t="s">
+      <c r="M49" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="N49" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="O49" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O49" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P49" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q49" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="S49" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="T49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="T49" s="16" t="s">
+        <v>327</v>
+      </c>
       <c r="U49" s="16"/>
       <c r="V49" s="16"/>
       <c r="W49" s="16"/>
       <c r="X49" s="16"/>
       <c r="Y49" s="16"/>
       <c r="Z49" s="16"/>
-      <c r="AA49" s="35"/>
-      <c r="AC49" s="1" t="s">
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="35"/>
+      <c r="AD49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD49" s="1" t="s">
+      <c r="AE49" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" ht="49.5" spans="1:30">
+    <row r="50" ht="49.5" spans="1:31">
       <c r="A50" s="13" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="D50" s="16">
-        <v>1</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="D50" s="15"/>
       <c r="E50" s="16">
+        <v>1</v>
+      </c>
+      <c r="F50" s="16">
         <v>800</v>
       </c>
-      <c r="F50" s="16">
+      <c r="G50" s="16">
         <v>6</v>
       </c>
-      <c r="G50" s="16"/>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="16"/>
+      <c r="I50" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="J50" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J50" s="16">
-        <v>1</v>
-      </c>
-      <c r="K50" s="11" t="str">
-        <f>IF(D50=2,"96|96|96|96|96|96",VLOOKUP(F50,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K50" s="16">
+        <v>1</v>
+      </c>
+      <c r="L50" s="11" t="str">
+        <f>IF(E50=2,"96|96|96|96|96|96",VLOOKUP(G50,__Sheet1!A:B,2,FALSE))</f>
         <v>16|32|48|64|80|96</v>
       </c>
-      <c r="L50" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="M50" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="N50" s="16" t="s">
+      <c r="M50" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="N50" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="O50" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O50" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P50" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q50" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="15"/>
       <c r="T50" s="16"/>
       <c r="U50" s="16"/>
       <c r="V50" s="16"/>
       <c r="W50" s="16"/>
-      <c r="X50" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y50" s="16"/>
+      <c r="X50" s="16"/>
+      <c r="Y50" s="16" t="s">
+        <v>333</v>
+      </c>
       <c r="Z50" s="16"/>
-      <c r="AA50" s="35"/>
-      <c r="AC50" s="1" t="s">
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="35"/>
+      <c r="AD50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD50" s="1" t="s">
+      <c r="AE50" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" ht="35" customHeight="1" spans="1:30">
+    <row r="51" ht="35" customHeight="1" spans="1:31">
       <c r="A51" s="13" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="D51" s="16">
-        <v>1</v>
+        <v>336</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>337</v>
       </c>
       <c r="E51" s="16">
+        <v>1</v>
+      </c>
+      <c r="F51" s="16">
         <v>800</v>
       </c>
-      <c r="F51" s="16">
+      <c r="G51" s="16">
         <v>6</v>
       </c>
-      <c r="G51" s="16"/>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="16"/>
+      <c r="I51" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="J51" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J51" s="16">
-        <v>1</v>
-      </c>
-      <c r="K51" s="11" t="str">
-        <f>IF(D51=2,"96|96|96|96|96|96",VLOOKUP(F51,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K51" s="16">
+        <v>1</v>
+      </c>
+      <c r="L51" s="11" t="str">
+        <f>IF(E51=2,"96|96|96|96|96|96",VLOOKUP(G51,__Sheet1!A:B,2,FALSE))</f>
         <v>16|32|48|64|80|96</v>
       </c>
-      <c r="L51" s="16"/>
-      <c r="M51" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="N51" s="16" t="s">
+      <c r="M51" s="16"/>
+      <c r="N51" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="O51" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O51" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P51" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q51" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="S51" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="T51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="T51" s="16" t="s">
+        <v>340</v>
+      </c>
       <c r="U51" s="16"/>
       <c r="V51" s="16"/>
       <c r="W51" s="16"/>
       <c r="X51" s="16"/>
       <c r="Y51" s="16"/>
       <c r="Z51" s="16"/>
-      <c r="AA51" s="35"/>
-      <c r="AC51" s="1" t="s">
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="35"/>
+      <c r="AD51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD51" s="1" t="s">
+      <c r="AE51" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" ht="49.5" spans="1:30">
+    <row r="52" ht="49.5" spans="1:31">
       <c r="A52" s="13" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="D52" s="16">
-        <v>1</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="D52" s="15"/>
       <c r="E52" s="16">
+        <v>1</v>
+      </c>
+      <c r="F52" s="16">
         <v>800</v>
       </c>
-      <c r="F52" s="16">
+      <c r="G52" s="16">
         <v>6</v>
       </c>
-      <c r="G52" s="16"/>
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="16"/>
+      <c r="I52" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="J52" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J52" s="16">
-        <v>1</v>
-      </c>
-      <c r="K52" s="11" t="str">
-        <f>IF(D52=2,"96|96|96|96|96|96",VLOOKUP(F52,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K52" s="16">
+        <v>1</v>
+      </c>
+      <c r="L52" s="11" t="str">
+        <f>IF(E52=2,"96|96|96|96|96|96",VLOOKUP(G52,__Sheet1!A:B,2,FALSE))</f>
         <v>16|32|48|64|80|96</v>
       </c>
-      <c r="L52" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="M52" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="N52" s="16" t="s">
+      <c r="M52" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="O52" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O52" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P52" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q52" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="15"/>
       <c r="T52" s="16"/>
       <c r="U52" s="16"/>
       <c r="V52" s="16"/>
       <c r="W52" s="16"/>
-      <c r="X52" s="16" t="s">
-        <v>341</v>
-      </c>
+      <c r="X52" s="16"/>
       <c r="Y52" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="35"/>
-      <c r="AC52" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z52" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="35"/>
+      <c r="AD52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD52" s="1" t="s">
+      <c r="AE52" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" ht="35" customHeight="1" spans="1:30">
+    <row r="53" ht="35" customHeight="1" spans="1:31">
       <c r="A53" s="13" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="D53" s="16">
-        <v>1</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="D53" s="15"/>
       <c r="E53" s="16">
+        <v>1</v>
+      </c>
+      <c r="F53" s="16">
         <v>800</v>
       </c>
-      <c r="F53" s="16">
+      <c r="G53" s="16">
         <v>6</v>
       </c>
-      <c r="G53" s="16"/>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="16"/>
+      <c r="I53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="J53" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J53" s="16">
-        <v>1</v>
-      </c>
-      <c r="K53" s="11" t="str">
-        <f>IF(D53=2,"96|96|96|96|96|96",VLOOKUP(F53,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K53" s="16">
+        <v>1</v>
+      </c>
+      <c r="L53" s="11" t="str">
+        <f>IF(E53=2,"96|96|96|96|96|96",VLOOKUP(G53,__Sheet1!A:B,2,FALSE))</f>
         <v>16|32|48|64|80|96</v>
       </c>
-      <c r="L53" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="M53" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="N53" s="16" t="s">
+      <c r="M53" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="N53" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="O53" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O53" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P53" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q53" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="S53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="15" t="s">
+        <v>353</v>
+      </c>
       <c r="T53" s="16"/>
       <c r="U53" s="16"/>
       <c r="V53" s="16"/>
@@ -7396,262 +7435,268 @@
       <c r="X53" s="16"/>
       <c r="Y53" s="16"/>
       <c r="Z53" s="16"/>
-      <c r="AA53" s="35"/>
-      <c r="AC53" s="1" t="s">
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="35"/>
+      <c r="AD53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD53" s="1" t="s">
+      <c r="AE53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" ht="49.5" spans="1:30">
+    <row r="54" ht="49.5" spans="1:31">
       <c r="A54" s="13" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="D54" s="16">
+        <v>356</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="16">
         <v>2</v>
       </c>
-      <c r="E54" s="16">
+      <c r="F54" s="16">
         <v>100</v>
       </c>
-      <c r="F54" s="16">
-        <v>1</v>
-      </c>
-      <c r="G54" s="16"/>
-      <c r="H54" s="11" t="s">
+      <c r="G54" s="16">
+        <v>1</v>
+      </c>
+      <c r="H54" s="16"/>
+      <c r="I54" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="J54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J54" s="16">
-        <v>1</v>
-      </c>
-      <c r="K54" s="11" t="str">
-        <f>IF(D54=2,"96|96|96|96|96|96",VLOOKUP(F54,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K54" s="16">
+        <v>1</v>
+      </c>
+      <c r="L54" s="11" t="str">
+        <f>IF(E54=2,"96|96|96|96|96|96",VLOOKUP(G54,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L54" s="16"/>
-      <c r="M54" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="N54" s="16" t="s">
+      <c r="M54" s="16"/>
+      <c r="N54" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="O54" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O54" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P54" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q54" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="15"/>
       <c r="T54" s="16"/>
       <c r="U54" s="16"/>
       <c r="V54" s="16"/>
       <c r="W54" s="16"/>
-      <c r="X54" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y54" s="16"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="16" t="s">
+        <v>358</v>
+      </c>
       <c r="Z54" s="16"/>
-      <c r="AA54" s="35"/>
-      <c r="AC54" s="1" t="s">
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="35"/>
+      <c r="AD54" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD54" s="1" t="s">
+      <c r="AE54" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" ht="49.5" spans="1:30">
+    <row r="55" ht="49.5" spans="1:31">
       <c r="A55" s="13" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="D55" s="16">
+        <v>361</v>
+      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="16">
         <v>2</v>
       </c>
-      <c r="E55" s="16">
+      <c r="F55" s="16">
         <v>100</v>
       </c>
-      <c r="F55" s="16">
-        <v>1</v>
-      </c>
-      <c r="G55" s="16"/>
-      <c r="H55" s="11" t="s">
+      <c r="G55" s="16">
+        <v>1</v>
+      </c>
+      <c r="H55" s="16"/>
+      <c r="I55" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="J55" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J55" s="16">
-        <v>1</v>
-      </c>
-      <c r="K55" s="11" t="str">
-        <f>IF(D55=2,"96|96|96|96|96|96",VLOOKUP(F55,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K55" s="16">
+        <v>1</v>
+      </c>
+      <c r="L55" s="11" t="str">
+        <f>IF(E55=2,"96|96|96|96|96|96",VLOOKUP(G55,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L55" s="16"/>
-      <c r="M55" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="N55" s="16" t="s">
+      <c r="M55" s="16"/>
+      <c r="N55" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="O55" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O55" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P55" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q55" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="15"/>
       <c r="T55" s="16"/>
       <c r="U55" s="16"/>
       <c r="V55" s="16"/>
       <c r="W55" s="16"/>
-      <c r="X55" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="Z55" s="16"/>
-      <c r="AA55" s="35"/>
-      <c r="AC55" s="1" t="s">
+      <c r="X55" s="16"/>
+      <c r="Y55" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="35"/>
+      <c r="AD55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD55" s="1" t="s">
+      <c r="AE55" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" ht="49.5" spans="1:30">
+    <row r="56" ht="49.5" spans="1:31">
       <c r="A56" s="13" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="D56" s="16">
-        <v>1</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="D56" s="15"/>
       <c r="E56" s="16">
+        <v>1</v>
+      </c>
+      <c r="F56" s="16">
         <v>400</v>
       </c>
-      <c r="F56" s="16">
+      <c r="G56" s="16">
         <v>0</v>
       </c>
-      <c r="G56" s="16"/>
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="16"/>
+      <c r="I56" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I56" s="11" t="s">
+      <c r="J56" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J56" s="16">
+      <c r="K56" s="16">
         <v>3</v>
       </c>
-      <c r="K56" s="11" t="str">
-        <f>IF(D56=2,"96|96|96|96|96|96",VLOOKUP(F56,__Sheet1!A:B,2,FALSE))</f>
+      <c r="L56" s="11" t="str">
+        <f>IF(E56=2,"96|96|96|96|96|96",VLOOKUP(G56,__Sheet1!A:B,2,FALSE))</f>
         <v>0|0|0|0|0|0</v>
       </c>
-      <c r="L56" s="16"/>
-      <c r="M56" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="N56" s="16" t="s">
+      <c r="M56" s="16"/>
+      <c r="N56" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="O56" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O56" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P56" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q56" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="15"/>
       <c r="T56" s="16"/>
       <c r="U56" s="16"/>
       <c r="V56" s="16"/>
       <c r="W56" s="16"/>
-      <c r="X56" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y56" s="16"/>
+      <c r="X56" s="16"/>
+      <c r="Y56" s="16" t="s">
+        <v>368</v>
+      </c>
       <c r="Z56" s="16"/>
-      <c r="AA56" s="35"/>
-      <c r="AC56" s="1" t="s">
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="35"/>
+      <c r="AD56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD56" s="1" t="s">
+      <c r="AE56" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" ht="35" customHeight="1" spans="1:30">
+    <row r="57" ht="35" customHeight="1" spans="1:31">
       <c r="A57" s="13" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="D57" s="16">
-        <v>1</v>
+        <v>371</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>372</v>
       </c>
       <c r="E57" s="16">
+        <v>1</v>
+      </c>
+      <c r="F57" s="16">
         <v>300</v>
       </c>
-      <c r="F57" s="16">
+      <c r="G57" s="16">
         <v>3</v>
       </c>
-      <c r="G57" s="16"/>
-      <c r="H57" s="11" t="s">
+      <c r="H57" s="16"/>
+      <c r="I57" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="J57" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J57" s="16">
-        <v>1</v>
-      </c>
-      <c r="K57" s="11" t="str">
-        <f>IF(D57=2,"96|96|96|96|96|96",VLOOKUP(F57,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K57" s="16">
+        <v>1</v>
+      </c>
+      <c r="L57" s="11" t="str">
+        <f>IF(E57=2,"96|96|96|96|96|96",VLOOKUP(G57,__Sheet1!A:B,2,FALSE))</f>
         <v>64|80|96|80|64|48</v>
       </c>
-      <c r="L57" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="M57" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="N57" s="16" t="s">
+      <c r="M57" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="N57" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="O57" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O57" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P57" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q57" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="15"/>
       <c r="T57" s="16"/>
       <c r="U57" s="16"/>
       <c r="V57" s="16"/>
@@ -7659,63 +7704,66 @@
       <c r="X57" s="16"/>
       <c r="Y57" s="16"/>
       <c r="Z57" s="16"/>
-      <c r="AA57" s="35"/>
-      <c r="AC57" s="1" t="s">
+      <c r="AA57" s="16"/>
+      <c r="AB57" s="35"/>
+      <c r="AD57" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD57" s="1" t="s">
+      <c r="AE57" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" ht="35" customHeight="1" spans="1:30">
+    <row r="58" ht="35" customHeight="1" spans="1:31">
       <c r="A58" s="13" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="D58" s="16">
-        <v>1</v>
+        <v>377</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="E58" s="16">
+        <v>1</v>
+      </c>
+      <c r="F58" s="16">
         <v>200</v>
       </c>
-      <c r="F58" s="16">
+      <c r="G58" s="16">
         <v>2</v>
       </c>
-      <c r="G58" s="16"/>
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="16"/>
+      <c r="I58" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I58" s="11" t="s">
+      <c r="J58" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J58" s="16">
-        <v>1</v>
-      </c>
-      <c r="K58" s="11" t="str">
-        <f>IF(D58=2,"96|96|96|96|96|96",VLOOKUP(F58,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K58" s="16">
+        <v>1</v>
+      </c>
+      <c r="L58" s="11" t="str">
+        <f>IF(E58=2,"96|96|96|96|96|96",VLOOKUP(G58,__Sheet1!A:B,2,FALSE))</f>
         <v>80|96|80|64|48|32</v>
       </c>
-      <c r="L58" s="16"/>
-      <c r="M58" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="N58" s="16" t="s">
+      <c r="M58" s="16"/>
+      <c r="N58" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="O58" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O58" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P58" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q58" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="15"/>
       <c r="T58" s="16"/>
       <c r="U58" s="16"/>
       <c r="V58" s="16"/>
@@ -7723,63 +7771,66 @@
       <c r="X58" s="16"/>
       <c r="Y58" s="16"/>
       <c r="Z58" s="16"/>
-      <c r="AA58" s="35"/>
-      <c r="AC58" s="1" t="s">
+      <c r="AA58" s="16"/>
+      <c r="AB58" s="35"/>
+      <c r="AD58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD58" s="1" t="s">
+      <c r="AE58" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" ht="35" customHeight="1" spans="1:30">
+    <row r="59" ht="35" customHeight="1" spans="1:31">
       <c r="A59" s="13" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="D59" s="16">
-        <v>1</v>
+        <v>382</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="E59" s="16">
+        <v>1</v>
+      </c>
+      <c r="F59" s="16">
         <v>200</v>
       </c>
-      <c r="F59" s="16">
+      <c r="G59" s="16">
         <v>2</v>
       </c>
-      <c r="G59" s="16"/>
-      <c r="H59" s="11" t="s">
+      <c r="H59" s="16"/>
+      <c r="I59" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="J59" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J59" s="16">
-        <v>1</v>
-      </c>
-      <c r="K59" s="11" t="str">
-        <f>IF(D59=2,"96|96|96|96|96|96",VLOOKUP(F59,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K59" s="16">
+        <v>1</v>
+      </c>
+      <c r="L59" s="11" t="str">
+        <f>IF(E59=2,"96|96|96|96|96|96",VLOOKUP(G59,__Sheet1!A:B,2,FALSE))</f>
         <v>80|96|80|64|48|32</v>
       </c>
-      <c r="L59" s="16"/>
-      <c r="M59" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="N59" s="16" t="s">
+      <c r="M59" s="16"/>
+      <c r="N59" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="O59" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O59" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P59" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q59" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="15"/>
       <c r="T59" s="16"/>
       <c r="U59" s="16"/>
       <c r="V59" s="16"/>
@@ -7787,67 +7838,70 @@
       <c r="X59" s="16"/>
       <c r="Y59" s="16"/>
       <c r="Z59" s="16"/>
-      <c r="AA59" s="35"/>
-      <c r="AC59" s="1" t="s">
+      <c r="AA59" s="16"/>
+      <c r="AB59" s="35"/>
+      <c r="AD59" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD59" s="1" t="s">
+      <c r="AE59" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" ht="65" customHeight="1" spans="1:30">
+    <row r="60" ht="65" customHeight="1" spans="1:31">
       <c r="A60" s="13" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="D60" s="17">
-        <v>1</v>
-      </c>
-      <c r="E60" s="16">
+        <v>386</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E60" s="17">
+        <v>1</v>
+      </c>
+      <c r="F60" s="16">
         <v>800</v>
       </c>
-      <c r="F60" s="16">
+      <c r="G60" s="16">
         <v>6</v>
       </c>
-      <c r="G60" s="16"/>
-      <c r="H60" s="11" t="s">
+      <c r="H60" s="16"/>
+      <c r="I60" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="J60" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J60" s="16">
+      <c r="K60" s="16">
         <v>3</v>
       </c>
-      <c r="K60" s="11" t="str">
-        <f>IF(D60=2,"96|96|96|96|96|96",VLOOKUP(F60,__Sheet1!A:B,2,FALSE))</f>
+      <c r="L60" s="11" t="str">
+        <f>IF(E60=2,"96|96|96|96|96|96",VLOOKUP(G60,__Sheet1!A:B,2,FALSE))</f>
         <v>16|32|48|64|80|96</v>
       </c>
-      <c r="L60" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="M60" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="N60" s="16" t="s">
-        <v>382</v>
+      <c r="M60" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="N60" s="15" t="s">
+        <v>389</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>44</v>
+        <v>390</v>
       </c>
       <c r="P60" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q60" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="S60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="15" t="s">
+        <v>391</v>
+      </c>
       <c r="T60" s="16"/>
       <c r="U60" s="16"/>
       <c r="V60" s="16"/>
@@ -7855,63 +7909,64 @@
       <c r="X60" s="16"/>
       <c r="Y60" s="16"/>
       <c r="Z60" s="16"/>
-      <c r="AA60" s="35"/>
-      <c r="AC60" s="1" t="s">
+      <c r="AA60" s="16"/>
+      <c r="AB60" s="35"/>
+      <c r="AD60" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD60" s="1" t="s">
+      <c r="AE60" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" ht="51.5" customHeight="1" spans="1:30">
+    <row r="61" ht="51.5" customHeight="1" spans="1:31">
       <c r="A61" s="13" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="D61" s="16">
-        <v>1</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="D61" s="15"/>
       <c r="E61" s="16">
+        <v>1</v>
+      </c>
+      <c r="F61" s="16">
         <v>500</v>
       </c>
-      <c r="F61" s="16">
+      <c r="G61" s="16">
         <v>5</v>
       </c>
-      <c r="G61" s="16"/>
-      <c r="H61" s="11" t="s">
+      <c r="H61" s="16"/>
+      <c r="I61" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="J61" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J61" s="16">
-        <v>1</v>
-      </c>
-      <c r="K61" s="11" t="str">
-        <f>IF(D61=2,"96|96|96|96|96|96",VLOOKUP(F61,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K61" s="16">
+        <v>1</v>
+      </c>
+      <c r="L61" s="11" t="str">
+        <f>IF(E61=2,"96|96|96|96|96|96",VLOOKUP(G61,__Sheet1!A:B,2,FALSE))</f>
         <v>32|48|64|80|96|80</v>
       </c>
-      <c r="L61" s="16"/>
-      <c r="M61" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="N61" s="16" t="s">
+      <c r="M61" s="16"/>
+      <c r="N61" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="O61" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P61" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q61" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="15"/>
       <c r="T61" s="16"/>
       <c r="U61" s="16"/>
       <c r="V61" s="16"/>
@@ -7919,459 +7974,466 @@
       <c r="X61" s="16"/>
       <c r="Y61" s="16"/>
       <c r="Z61" s="16"/>
-      <c r="AA61" s="35"/>
-      <c r="AC61" s="1" t="s">
+      <c r="AA61" s="16"/>
+      <c r="AB61" s="35"/>
+      <c r="AD61" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD61" s="1" t="s">
+      <c r="AE61" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" ht="49.5" spans="1:30">
+    <row r="62" ht="49.5" spans="1:31">
       <c r="A62" s="26" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="D62" s="29">
+        <v>398</v>
+      </c>
+      <c r="D62" s="28"/>
+      <c r="E62" s="29">
         <v>2</v>
       </c>
-      <c r="E62" s="29">
+      <c r="F62" s="29">
         <v>100</v>
       </c>
-      <c r="F62" s="29">
-        <v>1</v>
-      </c>
-      <c r="G62" s="29"/>
-      <c r="H62" s="11" t="s">
+      <c r="G62" s="29">
+        <v>1</v>
+      </c>
+      <c r="H62" s="29"/>
+      <c r="I62" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I62" s="11" t="s">
+      <c r="J62" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J62" s="29">
+      <c r="K62" s="29">
         <v>5</v>
       </c>
-      <c r="K62" s="11" t="str">
-        <f>IF(D62=2,"96|96|96|96|96|96",VLOOKUP(F62,__Sheet1!A:B,2,FALSE))</f>
+      <c r="L62" s="11" t="str">
+        <f>IF(E62=2,"96|96|96|96|96|96",VLOOKUP(G62,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L62" s="29"/>
-      <c r="M62" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="N62" s="29" t="s">
+      <c r="M62" s="29"/>
+      <c r="N62" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="O62" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O62" s="29" t="s">
-        <v>44</v>
-      </c>
       <c r="P62" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q62" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q62" s="29"/>
-      <c r="R62" s="28"/>
-      <c r="S62" s="29"/>
+      <c r="R62" s="29"/>
+      <c r="S62" s="28"/>
       <c r="T62" s="29"/>
       <c r="U62" s="29"/>
       <c r="V62" s="29"/>
       <c r="W62" s="29"/>
-      <c r="X62" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y62" s="29"/>
+      <c r="X62" s="29"/>
+      <c r="Y62" s="29" t="s">
+        <v>400</v>
+      </c>
       <c r="Z62" s="29"/>
-      <c r="AA62" s="36"/>
-      <c r="AC62" s="1" t="s">
+      <c r="AA62" s="29"/>
+      <c r="AB62" s="36"/>
+      <c r="AD62" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD62" s="1" t="s">
+      <c r="AE62" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" ht="49.5" spans="1:30">
+    <row r="63" ht="49.5" spans="1:31">
       <c r="A63" s="26" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="D63" s="29">
+        <v>403</v>
+      </c>
+      <c r="D63" s="28"/>
+      <c r="E63" s="29">
         <v>2</v>
       </c>
-      <c r="E63" s="29">
+      <c r="F63" s="29">
         <v>100</v>
       </c>
-      <c r="F63" s="29">
-        <v>1</v>
-      </c>
-      <c r="G63" s="29"/>
-      <c r="H63" s="11" t="s">
+      <c r="G63" s="29">
+        <v>1</v>
+      </c>
+      <c r="H63" s="29"/>
+      <c r="I63" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I63" s="11" t="s">
+      <c r="J63" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J63" s="29">
+      <c r="K63" s="29">
         <v>5</v>
       </c>
-      <c r="K63" s="11" t="str">
-        <f>IF(D63=2,"96|96|96|96|96|96",VLOOKUP(F63,__Sheet1!A:B,2,FALSE))</f>
+      <c r="L63" s="11" t="str">
+        <f>IF(E63=2,"96|96|96|96|96|96",VLOOKUP(G63,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L63" s="29"/>
-      <c r="M63" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="N63" s="29" t="s">
+      <c r="M63" s="29"/>
+      <c r="N63" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="O63" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O63" s="29" t="s">
-        <v>44</v>
-      </c>
       <c r="P63" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q63" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="28"/>
-      <c r="S63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="28"/>
       <c r="T63" s="29"/>
       <c r="U63" s="29"/>
       <c r="V63" s="29"/>
       <c r="W63" s="29"/>
-      <c r="X63" s="29" t="s">
-        <v>397</v>
-      </c>
-      <c r="Y63" s="29"/>
+      <c r="X63" s="29"/>
+      <c r="Y63" s="29" t="s">
+        <v>405</v>
+      </c>
       <c r="Z63" s="29"/>
-      <c r="AA63" s="36"/>
-      <c r="AC63" s="1" t="s">
+      <c r="AA63" s="29"/>
+      <c r="AB63" s="36"/>
+      <c r="AD63" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD63" s="1" t="s">
+      <c r="AE63" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="64" ht="49.5" spans="1:30">
+    <row r="64" ht="49.5" spans="1:31">
       <c r="A64" s="26" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="D64" s="29">
+        <v>408</v>
+      </c>
+      <c r="D64" s="28"/>
+      <c r="E64" s="29">
         <v>2</v>
       </c>
-      <c r="E64" s="29">
+      <c r="F64" s="29">
         <v>100</v>
       </c>
-      <c r="F64" s="29">
-        <v>1</v>
-      </c>
-      <c r="G64" s="29"/>
-      <c r="H64" s="11" t="s">
+      <c r="G64" s="29">
+        <v>1</v>
+      </c>
+      <c r="H64" s="29"/>
+      <c r="I64" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="J64" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J64" s="29">
+      <c r="K64" s="29">
         <v>5</v>
       </c>
-      <c r="K64" s="11" t="str">
-        <f>IF(D64=2,"96|96|96|96|96|96",VLOOKUP(F64,__Sheet1!A:B,2,FALSE))</f>
+      <c r="L64" s="11" t="str">
+        <f>IF(E64=2,"96|96|96|96|96|96",VLOOKUP(G64,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L64" s="29"/>
-      <c r="M64" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="N64" s="29" t="s">
+      <c r="M64" s="29"/>
+      <c r="N64" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="O64" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O64" s="29" t="s">
-        <v>44</v>
-      </c>
       <c r="P64" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q64" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="28"/>
-      <c r="S64" s="29"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="28"/>
       <c r="T64" s="29"/>
       <c r="U64" s="29"/>
       <c r="V64" s="29"/>
       <c r="W64" s="29"/>
-      <c r="X64" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="Y64" s="29"/>
+      <c r="X64" s="29"/>
+      <c r="Y64" s="29" t="s">
+        <v>409</v>
+      </c>
       <c r="Z64" s="29"/>
-      <c r="AA64" s="36"/>
-      <c r="AC64" s="1" t="s">
+      <c r="AA64" s="29"/>
+      <c r="AB64" s="36"/>
+      <c r="AD64" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD64" s="1" t="s">
+      <c r="AE64" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="65" ht="49.5" spans="1:30">
+    <row r="65" ht="49.5" spans="1:31">
       <c r="A65" s="26" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="D65" s="29">
+        <v>411</v>
+      </c>
+      <c r="D65" s="28"/>
+      <c r="E65" s="29">
         <v>2</v>
       </c>
-      <c r="E65" s="29">
+      <c r="F65" s="29">
         <v>100</v>
       </c>
-      <c r="F65" s="29">
-        <v>1</v>
-      </c>
-      <c r="G65" s="29"/>
-      <c r="H65" s="11" t="s">
+      <c r="G65" s="29">
+        <v>1</v>
+      </c>
+      <c r="H65" s="29"/>
+      <c r="I65" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I65" s="11" t="s">
+      <c r="J65" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J65" s="29">
+      <c r="K65" s="29">
         <v>5</v>
       </c>
-      <c r="K65" s="11" t="str">
-        <f>IF(D65=2,"96|96|96|96|96|96",VLOOKUP(F65,__Sheet1!A:B,2,FALSE))</f>
+      <c r="L65" s="11" t="str">
+        <f>IF(E65=2,"96|96|96|96|96|96",VLOOKUP(G65,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L65" s="29"/>
-      <c r="M65" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="N65" s="29" t="s">
+      <c r="M65" s="29"/>
+      <c r="N65" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="O65" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O65" s="29" t="s">
-        <v>44</v>
-      </c>
       <c r="P65" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q65" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="28"/>
-      <c r="S65" s="29"/>
+      <c r="R65" s="29"/>
+      <c r="S65" s="28"/>
       <c r="T65" s="29"/>
       <c r="U65" s="29"/>
       <c r="V65" s="29"/>
       <c r="W65" s="29"/>
-      <c r="X65" s="29" t="s">
+      <c r="X65" s="29"/>
+      <c r="Y65" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z65" s="29"/>
+      <c r="AA65" s="29"/>
+      <c r="AB65" s="36"/>
+      <c r="AD65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE65" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" ht="49.5" spans="1:31">
+      <c r="A66" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="D66" s="28"/>
+      <c r="E66" s="29">
+        <v>2</v>
+      </c>
+      <c r="F66" s="29">
+        <v>100</v>
+      </c>
+      <c r="G66" s="29">
+        <v>1</v>
+      </c>
+      <c r="H66" s="29"/>
+      <c r="I66" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K66" s="29">
+        <v>5</v>
+      </c>
+      <c r="L66" s="11" t="str">
+        <f>IF(E66=2,"96|96|96|96|96|96",VLOOKUP(G66,__Sheet1!A:B,2,FALSE))</f>
+        <v>96|96|96|96|96|96</v>
+      </c>
+      <c r="M66" s="29"/>
+      <c r="N66" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="Y65" s="29"/>
-      <c r="Z65" s="29"/>
-      <c r="AA65" s="36"/>
-      <c r="AC65" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD65" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" ht="49.5" spans="1:30">
-      <c r="A66" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="D66" s="29">
-        <v>2</v>
-      </c>
-      <c r="E66" s="29">
-        <v>100</v>
-      </c>
-      <c r="F66" s="29">
-        <v>1</v>
-      </c>
-      <c r="G66" s="29"/>
-      <c r="H66" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J66" s="29">
-        <v>5</v>
-      </c>
-      <c r="K66" s="11" t="str">
-        <f>IF(D66=2,"96|96|96|96|96|96",VLOOKUP(F66,__Sheet1!A:B,2,FALSE))</f>
-        <v>96|96|96|96|96|96</v>
-      </c>
-      <c r="L66" s="29"/>
-      <c r="M66" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="N66" s="29" t="s">
+      <c r="O66" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O66" s="29" t="s">
-        <v>44</v>
-      </c>
       <c r="P66" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q66" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="29"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="28"/>
       <c r="T66" s="29"/>
       <c r="U66" s="29"/>
       <c r="V66" s="29"/>
       <c r="W66" s="29"/>
-      <c r="X66" s="29" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y66" s="29"/>
+      <c r="X66" s="29"/>
+      <c r="Y66" s="29" t="s">
+        <v>416</v>
+      </c>
       <c r="Z66" s="29"/>
-      <c r="AA66" s="36"/>
-      <c r="AC66" s="1" t="s">
+      <c r="AA66" s="29"/>
+      <c r="AB66" s="36"/>
+      <c r="AD66" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD66" s="1" t="s">
+      <c r="AE66" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" ht="49.5" spans="1:30">
+    <row r="67" ht="49.5" spans="1:31">
       <c r="A67" s="26" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="D67" s="29">
+        <v>419</v>
+      </c>
+      <c r="D67" s="28"/>
+      <c r="E67" s="29">
         <v>2</v>
       </c>
-      <c r="E67" s="29">
+      <c r="F67" s="29">
         <v>100</v>
       </c>
-      <c r="F67" s="29">
-        <v>1</v>
-      </c>
-      <c r="G67" s="29"/>
-      <c r="H67" s="11" t="s">
+      <c r="G67" s="29">
+        <v>1</v>
+      </c>
+      <c r="H67" s="29"/>
+      <c r="I67" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I67" s="11" t="s">
+      <c r="J67" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J67" s="29">
+      <c r="K67" s="29">
         <v>5</v>
       </c>
-      <c r="K67" s="11" t="str">
-        <f>IF(D67=2,"96|96|96|96|96|96",VLOOKUP(F67,__Sheet1!A:B,2,FALSE))</f>
+      <c r="L67" s="11" t="str">
+        <f>IF(E67=2,"96|96|96|96|96|96",VLOOKUP(G67,__Sheet1!A:B,2,FALSE))</f>
         <v>96|96|96|96|96|96</v>
       </c>
-      <c r="L67" s="29"/>
-      <c r="M67" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="N67" s="29" t="s">
+      <c r="M67" s="29"/>
+      <c r="N67" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="O67" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O67" s="29" t="s">
-        <v>44</v>
-      </c>
       <c r="P67" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q67" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="28"/>
-      <c r="S67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="28"/>
       <c r="T67" s="29"/>
       <c r="U67" s="29"/>
       <c r="V67" s="29"/>
       <c r="W67" s="29"/>
-      <c r="X67" s="29" t="s">
-        <v>412</v>
-      </c>
-      <c r="Y67" s="29"/>
+      <c r="X67" s="29"/>
+      <c r="Y67" s="29" t="s">
+        <v>420</v>
+      </c>
       <c r="Z67" s="29"/>
-      <c r="AA67" s="36"/>
-      <c r="AC67" s="1" t="s">
+      <c r="AA67" s="29"/>
+      <c r="AB67" s="36"/>
+      <c r="AD67" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD67" s="1" t="s">
+      <c r="AE67" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" ht="49.5" spans="1:30">
+    <row r="68" ht="49.5" spans="1:31">
       <c r="A68" s="26" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="D68" s="29">
-        <v>1</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="D68" s="28"/>
       <c r="E68" s="29">
+        <v>1</v>
+      </c>
+      <c r="F68" s="29">
         <v>200</v>
       </c>
-      <c r="F68" s="29">
+      <c r="G68" s="29">
         <v>2</v>
       </c>
-      <c r="G68" s="29"/>
-      <c r="H68" s="11" t="s">
+      <c r="H68" s="29"/>
+      <c r="I68" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I68" s="11" t="s">
+      <c r="J68" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J68" s="29">
-        <v>1</v>
-      </c>
-      <c r="K68" s="11" t="str">
-        <f>IF(D68=2,"96|96|96|96|96|96",VLOOKUP(F68,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K68" s="29">
+        <v>1</v>
+      </c>
+      <c r="L68" s="11" t="str">
+        <f>IF(E68=2,"96|96|96|96|96|96",VLOOKUP(G68,__Sheet1!A:B,2,FALSE))</f>
         <v>80|96|80|64|48|32</v>
       </c>
-      <c r="L68" s="29"/>
-      <c r="M68" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="N68" s="29" t="s">
-        <v>413</v>
+      <c r="M68" s="29"/>
+      <c r="N68" s="28" t="s">
+        <v>404</v>
       </c>
       <c r="O68" s="29" t="s">
-        <v>44</v>
+        <v>421</v>
       </c>
       <c r="P68" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q68" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="28"/>
-      <c r="S68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="28"/>
       <c r="T68" s="29"/>
       <c r="U68" s="29"/>
       <c r="V68" s="29"/>
@@ -8379,65 +8441,68 @@
       <c r="X68" s="29"/>
       <c r="Y68" s="29"/>
       <c r="Z68" s="29"/>
-      <c r="AA68" s="36"/>
-      <c r="AC68" s="1" t="s">
+      <c r="AA68" s="29"/>
+      <c r="AB68" s="36"/>
+      <c r="AD68" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD68" s="1" t="s">
+      <c r="AE68" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="69" ht="49.5" spans="1:30">
+    <row r="69" ht="49.5" spans="1:31">
       <c r="A69" s="26" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="D69" s="29">
-        <v>1</v>
+        <v>426</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>427</v>
       </c>
       <c r="E69" s="29">
+        <v>1</v>
+      </c>
+      <c r="F69" s="29">
         <v>200</v>
       </c>
-      <c r="F69" s="29">
+      <c r="G69" s="29">
         <v>2</v>
       </c>
-      <c r="G69" s="29"/>
-      <c r="H69" s="11" t="s">
+      <c r="H69" s="29"/>
+      <c r="I69" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I69" s="11" t="s">
+      <c r="J69" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J69" s="29">
-        <v>1</v>
-      </c>
-      <c r="K69" s="11" t="str">
-        <f>IF(D69=2,"96|96|96|96|96|96",VLOOKUP(F69,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K69" s="29">
+        <v>1</v>
+      </c>
+      <c r="L69" s="11" t="str">
+        <f>IF(E69=2,"96|96|96|96|96|96",VLOOKUP(G69,__Sheet1!A:B,2,FALSE))</f>
         <v>80|96|80|64|48|32</v>
       </c>
-      <c r="L69" s="29"/>
-      <c r="M69" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="N69" s="29" t="s">
-        <v>416</v>
+      <c r="M69" s="29"/>
+      <c r="N69" s="28" t="s">
+        <v>404</v>
       </c>
       <c r="O69" s="29" t="s">
-        <v>44</v>
+        <v>424</v>
       </c>
       <c r="P69" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q69" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="S69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="28" t="s">
+        <v>428</v>
+      </c>
       <c r="T69" s="29"/>
       <c r="U69" s="29"/>
       <c r="V69" s="29"/>
@@ -8445,433 +8510,525 @@
       <c r="X69" s="29"/>
       <c r="Y69" s="29"/>
       <c r="Z69" s="29"/>
-      <c r="AA69" s="36"/>
-      <c r="AC69" s="1" t="s">
+      <c r="AA69" s="29"/>
+      <c r="AB69" s="36"/>
+      <c r="AD69" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD69" s="1" t="s">
+      <c r="AE69" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="70" ht="66" spans="1:30">
+    <row r="70" ht="49.5" spans="1:31">
       <c r="A70" s="26" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="D70" s="29">
-        <v>1</v>
+        <v>431</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>432</v>
       </c>
       <c r="E70" s="29">
+        <v>1</v>
+      </c>
+      <c r="F70" s="29">
         <v>200</v>
       </c>
-      <c r="F70" s="29">
+      <c r="G70" s="29">
         <v>2</v>
       </c>
-      <c r="G70" s="29"/>
-      <c r="H70" s="11" t="s">
+      <c r="H70" s="29"/>
+      <c r="I70" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="J70" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J70" s="29">
-        <v>1</v>
-      </c>
-      <c r="K70" s="11" t="str">
-        <f>IF(D70=2,"96|96|96|96|96|96",VLOOKUP(F70,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K70" s="29">
+        <v>1</v>
+      </c>
+      <c r="L70" s="11" t="str">
+        <f>IF(E70=2,"96|96|96|96|96|96",VLOOKUP(G70,__Sheet1!A:B,2,FALSE))</f>
         <v>80|96|80|64|48|32</v>
       </c>
-      <c r="L70" s="29"/>
-      <c r="M70" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="N70" s="29" t="s">
+      <c r="M70" s="29"/>
+      <c r="N70" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="O70" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O70" s="29" t="s">
-        <v>44</v>
-      </c>
       <c r="P70" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q70" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q70" s="29"/>
-      <c r="R70" s="28"/>
-      <c r="S70" s="29"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="28"/>
       <c r="T70" s="29"/>
       <c r="U70" s="29"/>
       <c r="V70" s="29"/>
       <c r="W70" s="29"/>
-      <c r="X70" s="29" t="s">
-        <v>423</v>
-      </c>
+      <c r="X70" s="29"/>
       <c r="Y70" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="Z70" s="29"/>
-      <c r="AA70" s="36"/>
-      <c r="AC70" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="Z70" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="AA70" s="29"/>
+      <c r="AB70" s="36"/>
+      <c r="AD70" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD70" s="1" t="s">
+      <c r="AE70" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" ht="67" customHeight="1" spans="1:30">
+    <row r="71" ht="67" customHeight="1" spans="1:31">
       <c r="A71" s="26" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="D71" s="29">
-        <v>1</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="D71" s="28"/>
       <c r="E71" s="29">
+        <v>1</v>
+      </c>
+      <c r="F71" s="29">
         <v>300</v>
       </c>
-      <c r="F71" s="29">
+      <c r="G71" s="29">
         <v>3</v>
       </c>
-      <c r="G71" s="29"/>
-      <c r="H71" s="11" t="s">
+      <c r="H71" s="29"/>
+      <c r="I71" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I71" s="11" t="s">
+      <c r="J71" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J71" s="29">
-        <v>1</v>
-      </c>
-      <c r="K71" s="11" t="str">
-        <f>IF(D71=2,"96|96|96|96|96|96",VLOOKUP(F71,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K71" s="29">
+        <v>1</v>
+      </c>
+      <c r="L71" s="11" t="str">
+        <f>IF(E71=2,"96|96|96|96|96|96",VLOOKUP(G71,__Sheet1!A:B,2,FALSE))</f>
         <v>64|80|96|80|64|48</v>
       </c>
-      <c r="L71" s="29"/>
-      <c r="M71" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="N71" s="29" t="s">
+      <c r="M71" s="29"/>
+      <c r="N71" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="O71" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O71" s="29" t="s">
-        <v>44</v>
-      </c>
       <c r="P71" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q71" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="28"/>
-      <c r="S71" s="29"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="28"/>
       <c r="T71" s="29"/>
       <c r="U71" s="29"/>
       <c r="V71" s="29"/>
       <c r="W71" s="29"/>
-      <c r="X71" s="29" t="s">
-        <v>428</v>
-      </c>
+      <c r="X71" s="29"/>
       <c r="Y71" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="Z71" s="29"/>
-      <c r="AA71" s="36"/>
-      <c r="AC71" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Z71" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="AA71" s="29"/>
+      <c r="AB71" s="36"/>
+      <c r="AD71" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD71" s="1" t="s">
+      <c r="AE71" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" ht="33" spans="1:30">
+    <row r="72" ht="33" spans="1:31">
       <c r="A72" s="26" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="D72" s="29">
-        <v>1</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="D72" s="28"/>
       <c r="E72" s="29">
+        <v>1</v>
+      </c>
+      <c r="F72" s="29">
         <v>300</v>
       </c>
-      <c r="F72" s="29">
+      <c r="G72" s="29">
         <v>3</v>
       </c>
-      <c r="G72" s="29"/>
-      <c r="H72" s="11" t="s">
+      <c r="H72" s="29"/>
+      <c r="I72" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I72" s="11" t="s">
+      <c r="J72" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J72" s="29">
-        <v>1</v>
-      </c>
-      <c r="K72" s="11" t="str">
-        <f>IF(D72=2,"96|96|96|96|96|96",VLOOKUP(F72,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K72" s="29">
+        <v>1</v>
+      </c>
+      <c r="L72" s="11" t="str">
+        <f>IF(E72=2,"96|96|96|96|96|96",VLOOKUP(G72,__Sheet1!A:B,2,FALSE))</f>
         <v>64|80|96|80|64|48</v>
       </c>
-      <c r="L72" s="29"/>
-      <c r="M72" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="N72" s="29" t="s">
+      <c r="M72" s="29"/>
+      <c r="N72" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="O72" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O72" s="29" t="s">
-        <v>44</v>
-      </c>
       <c r="P72" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q72" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="S72" s="29" t="s">
-        <v>434</v>
-      </c>
-      <c r="T72" s="29"/>
+      <c r="R72" s="29"/>
+      <c r="S72" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="T72" s="29" t="s">
+        <v>444</v>
+      </c>
       <c r="U72" s="29"/>
       <c r="V72" s="29"/>
       <c r="W72" s="29"/>
       <c r="X72" s="29"/>
       <c r="Y72" s="29"/>
       <c r="Z72" s="29"/>
-      <c r="AA72" s="36"/>
-      <c r="AC72" s="1" t="s">
+      <c r="AA72" s="29"/>
+      <c r="AB72" s="36"/>
+      <c r="AD72" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD72" s="1" t="s">
+      <c r="AE72" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="73" ht="66" spans="1:30">
+    <row r="73" ht="49.5" spans="1:31">
       <c r="A73" s="26" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="D73" s="29">
-        <v>1</v>
+        <v>447</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>448</v>
       </c>
       <c r="E73" s="29">
+        <v>1</v>
+      </c>
+      <c r="F73" s="29">
         <v>300</v>
       </c>
-      <c r="F73" s="29">
+      <c r="G73" s="29">
         <v>3</v>
       </c>
-      <c r="G73" s="29"/>
-      <c r="H73" s="11" t="s">
+      <c r="H73" s="29"/>
+      <c r="I73" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I73" s="11" t="s">
+      <c r="J73" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J73" s="29">
-        <v>1</v>
-      </c>
-      <c r="K73" s="11" t="str">
-        <f>IF(D73=2,"96|96|96|96|96|96",VLOOKUP(F73,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K73" s="29">
+        <v>1</v>
+      </c>
+      <c r="L73" s="11" t="str">
+        <f>IF(E73=2,"96|96|96|96|96|96",VLOOKUP(G73,__Sheet1!A:B,2,FALSE))</f>
         <v>64|80|96|80|64|48</v>
       </c>
-      <c r="L73" s="29"/>
-      <c r="M73" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="N73" s="29" t="s">
+      <c r="M73" s="29"/>
+      <c r="N73" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="O73" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O73" s="29" t="s">
-        <v>44</v>
-      </c>
       <c r="P73" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q73" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q73" s="29"/>
-      <c r="R73" s="28" t="s">
-        <v>438</v>
-      </c>
-      <c r="S73" s="29" t="s">
-        <v>439</v>
+      <c r="R73" s="29"/>
+      <c r="S73" s="28" t="s">
+        <v>449</v>
       </c>
       <c r="T73" s="29" t="s">
-        <v>440</v>
-      </c>
-      <c r="U73" s="29"/>
+        <v>450</v>
+      </c>
+      <c r="U73" s="29" t="s">
+        <v>451</v>
+      </c>
       <c r="V73" s="29"/>
       <c r="W73" s="29"/>
       <c r="X73" s="29"/>
       <c r="Y73" s="29"/>
       <c r="Z73" s="29"/>
-      <c r="AA73" s="36"/>
-      <c r="AC73" s="1" t="s">
+      <c r="AA73" s="29"/>
+      <c r="AB73" s="36"/>
+      <c r="AD73" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD73" s="1" t="s">
+      <c r="AE73" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="74" ht="33" spans="1:30">
+    <row r="74" ht="33" spans="1:31">
       <c r="A74" s="26" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="D74" s="29">
-        <v>1</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="D74" s="28"/>
       <c r="E74" s="29">
+        <v>1</v>
+      </c>
+      <c r="F74" s="29">
         <v>200</v>
       </c>
-      <c r="F74" s="29">
+      <c r="G74" s="29">
         <v>2</v>
       </c>
-      <c r="G74" s="29"/>
-      <c r="H74" s="11" t="s">
+      <c r="H74" s="29"/>
+      <c r="I74" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I74" s="11" t="s">
+      <c r="J74" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J74" s="29">
-        <v>1</v>
-      </c>
-      <c r="K74" s="11" t="str">
-        <f>IF(D74=2,"96|96|96|96|96|96",VLOOKUP(F74,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K74" s="29">
+        <v>1</v>
+      </c>
+      <c r="L74" s="11" t="str">
+        <f>IF(E74=2,"96|96|96|96|96|96",VLOOKUP(G74,__Sheet1!A:B,2,FALSE))</f>
         <v>80|96|80|64|48|32</v>
       </c>
-      <c r="L74" s="29"/>
-      <c r="M74" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="N74" s="29" t="s">
-        <v>441</v>
+      <c r="M74" s="29"/>
+      <c r="N74" s="28" t="s">
+        <v>404</v>
       </c>
       <c r="O74" s="29" t="s">
-        <v>44</v>
+        <v>452</v>
       </c>
       <c r="P74" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q74" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q74" s="29"/>
-      <c r="R74" s="28" t="s">
-        <v>444</v>
-      </c>
-      <c r="S74" s="29" t="s">
-        <v>445</v>
+      <c r="R74" s="29"/>
+      <c r="S74" s="28" t="s">
+        <v>455</v>
       </c>
       <c r="T74" s="29" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="U74" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="V74" s="29"/>
+        <v>457</v>
+      </c>
+      <c r="V74" s="29" t="s">
+        <v>458</v>
+      </c>
       <c r="W74" s="29"/>
       <c r="X74" s="29"/>
       <c r="Y74" s="29"/>
       <c r="Z74" s="29"/>
-      <c r="AA74" s="36"/>
-      <c r="AC74" s="1" t="s">
+      <c r="AA74" s="29"/>
+      <c r="AB74" s="36"/>
+      <c r="AD74" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD74" s="1" t="s">
+      <c r="AE74" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="75" ht="115.5" spans="1:30">
+    <row r="75" ht="99" spans="1:31">
       <c r="A75" s="26" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>450</v>
-      </c>
-      <c r="D75" s="29">
-        <v>1</v>
+        <v>461</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>462</v>
       </c>
       <c r="E75" s="29">
+        <v>1</v>
+      </c>
+      <c r="F75" s="29">
         <v>200</v>
       </c>
-      <c r="F75" s="29">
+      <c r="G75" s="29">
         <v>2</v>
       </c>
-      <c r="G75" s="29"/>
-      <c r="H75" s="11" t="s">
+      <c r="H75" s="29"/>
+      <c r="I75" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I75" s="11" t="s">
+      <c r="J75" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J75" s="29">
-        <v>1</v>
-      </c>
-      <c r="K75" s="11" t="str">
-        <f>IF(D75=2,"96|96|96|96|96|96",VLOOKUP(F75,__Sheet1!A:B,2,FALSE))</f>
+      <c r="K75" s="29">
+        <v>1</v>
+      </c>
+      <c r="L75" s="11" t="str">
+        <f>IF(E75=2,"96|96|96|96|96|96",VLOOKUP(G75,__Sheet1!A:B,2,FALSE))</f>
         <v>80|96|80|64|48|32</v>
       </c>
-      <c r="L75" s="29"/>
-      <c r="M75" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="N75" s="29" t="s">
-        <v>441</v>
+      <c r="M75" s="29"/>
+      <c r="N75" s="28" t="s">
+        <v>404</v>
       </c>
       <c r="O75" s="29" t="s">
-        <v>44</v>
+        <v>452</v>
       </c>
       <c r="P75" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q75" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="28"/>
-      <c r="S75" s="29"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="28"/>
       <c r="T75" s="29"/>
       <c r="U75" s="29"/>
       <c r="V75" s="29"/>
       <c r="W75" s="29"/>
-      <c r="X75" s="29" t="s">
-        <v>451</v>
-      </c>
+      <c r="X75" s="29"/>
       <c r="Y75" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z75" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="AA75" s="29"/>
+      <c r="AB75" s="36"/>
+      <c r="AD75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE75" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" ht="49.5" spans="1:31">
+      <c r="A76" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="D76" s="28"/>
+      <c r="E76" s="29">
+        <v>2</v>
+      </c>
+      <c r="F76" s="29">
+        <v>100</v>
+      </c>
+      <c r="G76" s="29">
+        <v>1</v>
+      </c>
+      <c r="H76" s="29"/>
+      <c r="I76" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K76" s="29">
+        <v>1</v>
+      </c>
+      <c r="L76" s="11" t="str">
+        <f>IF(E76=2,"96|96|96|96|96|96",VLOOKUP(G76,__Sheet1!A:B,2,FALSE))</f>
+        <v>96|96|96|96|96|96</v>
+      </c>
+      <c r="M76" s="29"/>
+      <c r="N76" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="O76" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="Z75" s="29"/>
-      <c r="AA75" s="36"/>
-      <c r="AC75" s="1" t="s">
+      <c r="P76" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q76" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="R76" s="29"/>
+      <c r="S76" s="28"/>
+      <c r="T76" s="29"/>
+      <c r="U76" s="29"/>
+      <c r="V76" s="29"/>
+      <c r="W76" s="29"/>
+      <c r="X76" s="29"/>
+      <c r="Y76" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z76" s="29"/>
+      <c r="AA76" s="29"/>
+      <c r="AB76" s="36"/>
+      <c r="AD76" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD75" s="1" t="s">
+      <c r="AE76" s="1" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="D1:D74" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="E1:E75" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="K75">
+  <conditionalFormatting sqref="L75">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L76">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8883,8 +9040,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K74 K76:K1048576">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="L1:L74 L77:L1048576">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8919,7 +9076,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8927,7 +9084,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8935,7 +9092,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8943,7 +9100,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8951,7 +9108,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8959,7 +9116,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8967,7 +9124,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -11,7 +11,7 @@
     <sheet name="__Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mysterious_shop_config!$E$1:$E$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mysterious_shop_config!$E$1:$E$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -366,6 +366,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>对自身%range%码范围内的敌人提高%harm%%%的</t>
     </r>
     <r>
@@ -401,6 +407,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>对自身%range%码以外的敌人提高%harm%%%的</t>
     </r>
     <r>
@@ -749,6 +761,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>增加40%的</t>
     </r>
     <r>
@@ -1454,6 +1472,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>随机封印一个技能（完全禁用）同时自身提高%FinalDamageMul%%%的</t>
     </r>
     <r>
@@ -1682,6 +1706,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>站立不动%second%秒后，队友获得%qt_dbm%%%的</t>
     </r>
     <r>
@@ -3307,16 +3337,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C46AA78C-E4FF-443E-96C2-2BFCCFE988E7}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{CEA0FDF7-F0FE-41E3-BAD3-31DF19A9A6C4}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{12A0673B-7840-437D-BB7D-26D3649E2E77}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{EC8B897B-73C9-4CAB-A5A2-446D7DFB6562}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{ADE0D535-8BB3-4539-BE58-CF4ABDB01A03}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{C7E408D8-EA02-432D-AD36-84F1B1FDA6C9}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3328,7 +3358,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{9F5AC099-E1FF-4351-B10B-EC79DB5943FD}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{7A57ABCC-B5FF-43CF-8278-AAA982079F87}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3639,10 +3669,10 @@
   <sheetPr/>
   <dimension ref="A1:AE76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A70" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A12" workbookViewId="0">
+      <pane xSplit="6" topLeftCell="Y1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E76" sqref="E76"/>
+      <selection pane="topRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9013,7 +9043,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="E1:E75" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="E1:E76" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="L75">

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -3337,16 +3337,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{CEA0FDF7-F0FE-41E3-BAD3-31DF19A9A6C4}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{DCC3F6DB-CEAE-4199-A8D4-A11474F37733}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{EC8B897B-73C9-4CAB-A5A2-446D7DFB6562}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{948DC6CD-FD4A-494A-968C-93F782406F05}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{C7E408D8-EA02-432D-AD36-84F1B1FDA6C9}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{3CBFB8DB-3436-48D8-81E5-1E7C6A080525}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3358,7 +3358,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{7A57ABCC-B5FF-43CF-8278-AAA982079F87}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{7994D6B3-6425-4A3E-8F1D-709704450457}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3669,10 +3669,10 @@
   <sheetPr/>
   <dimension ref="A1:AE76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A12" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A68" workbookViewId="0">
+      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
+      <selection pane="topRight" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8945,7 +8945,7 @@
         <v>404</v>
       </c>
       <c r="O75" s="29" t="s">
-        <v>452</v>
+        <v>57</v>
       </c>
       <c r="P75" s="29" t="s">
         <v>44</v>
@@ -9014,7 +9014,7 @@
         <v>404</v>
       </c>
       <c r="O76" s="29" t="s">
-        <v>452</v>
+        <v>57</v>
       </c>
       <c r="P76" s="29" t="s">
         <v>44</v>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
     <sheet name="__Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mysterious_shop_config!$E$1:$E$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mysterious_shop_config!$E$1:$E$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="520">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -43,13 +43,13 @@
   </si>
   <si>
     <t>类型
-1灵魂2极限</t>
+1金币2极限</t>
   </si>
   <si>
     <t>价格</t>
   </si>
   <si>
-    <t>物品稀有度(类型灵魂有效)</t>
+    <t>物品稀有度(类型金币有效)</t>
   </si>
   <si>
     <t>前置需求物品</t>
@@ -98,7 +98,7 @@
   </si>
   <si>
     <t>购买递增
-灵魂</t>
+金币</t>
   </si>
   <si>
     <t>GoodsKey</t>
@@ -167,16 +167,16 @@
     <t>【常客优惠】</t>
   </si>
   <si>
-    <t>在之后的灵魂商店购买其他道具时，消耗降%value%%%。</t>
+    <t>在之后的金币商店购买其他道具时，消耗降%value%%%。</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
-    <t>60|20|10|8|2</t>
-  </si>
-  <si>
-    <t>80|64|48|32</t>
+    <t>100|0|0|0|0</t>
+  </si>
+  <si>
+    <t>100|100|100|100</t>
   </si>
   <si>
     <t>item_prop/常客优惠I</t>
@@ -194,19 +194,19 @@
     <t>100|200|300|500|1000</t>
   </si>
   <si>
-    <t>100|200|300|400|500</t>
+    <t>200|500|800|1600|3800</t>
   </si>
   <si>
     <t>prop_2</t>
   </si>
   <si>
-    <t>【灵魂收集】</t>
-  </si>
-  <si>
-    <t>灵魂获取率提高%SoulGetRate.Base%%%</t>
-  </si>
-  <si>
-    <t>item_prop/双倍灵魂</t>
+    <t>【金币收集】</t>
+  </si>
+  <si>
+    <t>金币获取率提高%SoulGetRate.Base%%%</t>
+  </si>
+  <si>
+    <t>item_prop/双倍金币</t>
   </si>
   <si>
     <t>Null</t>
@@ -226,6 +226,12 @@
     <t>火元素技能造成伤害的灼烧会额外增加攻击力40%的伤害，并降低火元素抗性%FireResist%%%，持续%duration%秒。</t>
   </si>
   <si>
+    <t>60|20|10|8|2</t>
+  </si>
+  <si>
+    <t>80|64|48|32</t>
+  </si>
+  <si>
     <t>item_prop/啊，是火！</t>
   </si>
   <si>
@@ -238,6 +244,9 @@
     <t>BurningDmg {
 "Base" "40"
 }</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500</t>
   </si>
   <si>
     <t>prop_4</t>
@@ -347,7 +356,7 @@
     <t>【常客优惠II】</t>
   </si>
   <si>
-    <t>在之后的灵魂商店购买其他圣物时，消耗降低%value%%%。</t>
+    <t>在之后的金币商店购买其他圣物时，消耗降低%value%%%。</t>
   </si>
   <si>
     <t>和常客优惠I加算</t>
@@ -1072,7 +1081,7 @@
     <t>【迈达斯点金手】</t>
   </si>
   <si>
-    <t>对单位造成伤害时有%chance%%%概率秒杀，并获取%mul%倍灵魂</t>
+    <t>对单位造成伤害时有%chance%%%概率秒杀，并获取%mul%倍金币</t>
   </si>
   <si>
     <t>item_prop/迈达斯点金手</t>
@@ -1090,7 +1099,7 @@
     <t>【急不可耐】</t>
   </si>
   <si>
-    <t>每秒钟获得2点灵魂</t>
+    <t>每秒钟获得2点金币</t>
   </si>
   <si>
     <t>item_prop/急不可耐</t>
@@ -1326,6 +1335,9 @@
     <t>击杀敌军有1%概率获得随机圣坛效果，持续5秒</t>
   </si>
   <si>
+    <t>内置cd：15秒</t>
+  </si>
+  <si>
     <t>圣坛随机效果</t>
   </si>
   <si>
@@ -1444,7 +1456,7 @@
     <t>【天辉军团的肯定】</t>
   </si>
   <si>
-    <t>完成天辉任务时，全队灵魂奖励+20%</t>
+    <t>完成天辉任务时，全队金币奖励+20%</t>
   </si>
   <si>
     <t>多个玩家可叠加效果</t>
@@ -1622,7 +1634,7 @@
   </si>
   <si>
     <t>下一波刷怪开始时：
-不可学习任意技能，灵魂收益提高50%，持续5波</t>
+不可学习任意技能，金币收益提高50%，持续5波</t>
   </si>
   <si>
     <t>prop_66</t>
@@ -1632,7 +1644,7 @@
   </si>
   <si>
     <t>下一波刷怪开始时：
-造成伤害提高%fidamage%%%，灵魂收益降低50%，持续5波</t>
+造成伤害提高%fidamage%%%，金币收益降低50%，持续5波</t>
   </si>
   <si>
     <t>（最终伤害）</t>
@@ -1690,7 +1702,7 @@
     <t>【工具人】</t>
   </si>
   <si>
-    <t>降低自身%soulpro%%%灵魂收益，但提高其他队友%qt_soulpro%%%灵魂收益</t>
+    <t>降低自身%soulpro%%%金币收益，但提高其他队友%qt_soulpro%%%金币收益</t>
   </si>
   <si>
     <t>soulpro -75</t>
@@ -1753,7 +1765,7 @@
     <t>【以小博大】</t>
   </si>
   <si>
-    <t>%succeed%%%概率灵魂翻倍，%fail%%%概率灵魂减半</t>
+    <t>%succeed%%%概率金币翻倍，%fail%%%概率金币减半</t>
   </si>
   <si>
     <t>succeed 51</t>
@@ -1804,6 +1816,138 @@
     <t>AttackSpeed {
 "Base" "10"
 }</t>
+  </si>
+  <si>
+    <t>prop_74</t>
+  </si>
+  <si>
+    <t>【洗劫】</t>
+  </si>
+  <si>
+    <t>购买后立即刷新商店，并直接洗劫刷新后商店内的所有物品</t>
+  </si>
+  <si>
+    <t>洗劫后，不自动刷新商店</t>
+  </si>
+  <si>
+    <t>AttackSpeed {
+"Base" "11"
+}</t>
+  </si>
+  <si>
+    <t>100|200|300|500|1001</t>
+  </si>
+  <si>
+    <t>200|500|800|1600|3801</t>
+  </si>
+  <si>
+    <t>prop_75</t>
+  </si>
+  <si>
+    <t>【猪脑过载】</t>
+  </si>
+  <si>
+    <t>购买后，30秒内刷新商店免费</t>
+  </si>
+  <si>
+    <t>刷新免费特效：刷新按钮周围有绿色的边框闪烁</t>
+  </si>
+  <si>
+    <t>AttackSpeed {
+"Base" "12"
+}</t>
+  </si>
+  <si>
+    <t>100|200|300|500|1002</t>
+  </si>
+  <si>
+    <t>200|500|800|1600|3802</t>
+  </si>
+  <si>
+    <t>prop_76</t>
+  </si>
+  <si>
+    <t>【5星市民】</t>
+  </si>
+  <si>
+    <t>购买之后，购买任意道具均不消耗金币，但是有33%概率强制结束购买流程</t>
+  </si>
+  <si>
+    <t>刷新照常消耗，和【洗劫】同时购买时，优先生效【5星市民】的被动强制结束效果</t>
+  </si>
+  <si>
+    <t>AttackSpeed {
+"Base" "13"
+}</t>
+  </si>
+  <si>
+    <t>100|200|300|500|1003</t>
+  </si>
+  <si>
+    <t>200|500|800|1600|3803</t>
+  </si>
+  <si>
+    <t>prop_77</t>
+  </si>
+  <si>
+    <t>【白银门票】</t>
+  </si>
+  <si>
+    <t>刷新商店时，有10%概率让下次刷新免费</t>
+  </si>
+  <si>
+    <t>刷新免费特效</t>
+  </si>
+  <si>
+    <t>AttackSpeed {
+"Base" "14"
+}</t>
+  </si>
+  <si>
+    <t>100|200|300|500|1004</t>
+  </si>
+  <si>
+    <t>200|500|800|1600|3804</t>
+  </si>
+  <si>
+    <t>prop_78</t>
+  </si>
+  <si>
+    <t>【黄金门票】</t>
+  </si>
+  <si>
+    <t>刷新商店时，有20%概率让下次刷新免费</t>
+  </si>
+  <si>
+    <t>AttackSpeed {
+"Base" "15"
+}</t>
+  </si>
+  <si>
+    <t>100|200|300|500|1005</t>
+  </si>
+  <si>
+    <t>200|500|800|1600|3805</t>
+  </si>
+  <si>
+    <t>prop_79</t>
+  </si>
+  <si>
+    <t>【钻石门票】</t>
+  </si>
+  <si>
+    <t>刷新商店时，有40%概率让下次刷新免费</t>
+  </si>
+  <si>
+    <t>AttackSpeed {
+"Base" "16"
+}</t>
+  </si>
+  <si>
+    <t>100|200|300|500|1006</t>
+  </si>
+  <si>
+    <t>200|500|800|1600|3806</t>
   </si>
   <si>
     <t>100|100|100|100|100|100</t>
@@ -3337,16 +3481,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{DCC3F6DB-CEAE-4199-A8D4-A11474F37733}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B5A3538F-3BE5-40EC-B952-BFC9DDEF39B0}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{948DC6CD-FD4A-494A-968C-93F782406F05}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1A386E85-07ED-4279-9824-8BD2E1A1A3EB}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{3CBFB8DB-3436-48D8-81E5-1E7C6A080525}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{BDCDE616-1604-4A4C-8DAB-65EB6591432E}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3358,7 +3502,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{7994D6B3-6425-4A3E-8F1D-709704450457}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{E858A19E-C68E-4EFE-8A83-815AB905A45D}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3667,12 +3811,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE76"/>
+  <dimension ref="A1:AE82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A68" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A73" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E74" sqref="E74"/>
+      <selection pane="topRight" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4026,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="16">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G5" s="16">
         <v>4</v>
@@ -4035,10 +4179,10 @@
         <v>44</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K5" s="16">
         <v>1</v>
@@ -4049,7 +4193,7 @@
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O5" s="16" t="s">
         <v>57</v>
@@ -4062,17 +4206,17 @@
       </c>
       <c r="R5" s="16"/>
       <c r="S5" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
       <c r="X5" s="16"/>
       <c r="Y5" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Z5" s="16"/>
       <c r="AA5" s="16"/>
@@ -4081,18 +4225,18 @@
         <v>51</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="35" customHeight="1" spans="1:31">
       <c r="A6" s="13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="16">
@@ -4108,10 +4252,10 @@
         <v>44</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K6" s="16">
         <v>1</v>
@@ -4122,10 +4266,10 @@
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P6" s="16" t="s">
         <v>44</v>
@@ -4135,10 +4279,10 @@
       </c>
       <c r="R6" s="16"/>
       <c r="S6" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
@@ -4152,18 +4296,18 @@
         <v>51</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="35" customHeight="1" spans="1:31">
       <c r="A7" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="16">
@@ -4179,10 +4323,10 @@
         <v>44</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K7" s="16">
         <v>1</v>
@@ -4193,10 +4337,10 @@
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P7" s="16" t="s">
         <v>44</v>
@@ -4206,10 +4350,10 @@
       </c>
       <c r="R7" s="16"/>
       <c r="S7" s="15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
@@ -4223,18 +4367,18 @@
         <v>51</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="35" customHeight="1" spans="1:31">
       <c r="A8" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="16">
@@ -4250,10 +4394,10 @@
         <v>44</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K8" s="16">
         <v>1</v>
@@ -4264,10 +4408,10 @@
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P8" s="16" t="s">
         <v>44</v>
@@ -4277,10 +4421,10 @@
       </c>
       <c r="R8" s="16"/>
       <c r="S8" s="15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
@@ -4294,18 +4438,18 @@
         <v>51</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="35" customHeight="1" spans="1:31">
       <c r="A9" s="13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="16">
@@ -4321,10 +4465,10 @@
         <v>44</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K9" s="16">
         <v>1</v>
@@ -4335,10 +4479,10 @@
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P9" s="16" t="s">
         <v>44</v>
@@ -4348,10 +4492,10 @@
       </c>
       <c r="R9" s="16"/>
       <c r="S9" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
@@ -4365,25 +4509,25 @@
         <v>51</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:31">
       <c r="A10" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="16">
         <v>1</v>
       </c>
       <c r="F10" s="16">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="G10" s="16">
         <v>5</v>
@@ -4392,10 +4536,10 @@
         <v>44</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K10" s="16">
         <v>1</v>
@@ -4405,10 +4549,10 @@
         <v>32|48|64|80|96|80</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O10" s="16" t="s">
         <v>57</v>
@@ -4421,7 +4565,7 @@
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
@@ -4436,18 +4580,18 @@
         <v>51</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="35" customHeight="1" spans="1:31">
       <c r="A11" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="16">
@@ -4463,10 +4607,10 @@
         <v>44</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K11" s="16">
         <v>1</v>
@@ -4476,10 +4620,10 @@
         <v>0|0|0|0|0|0</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O11" s="16" t="s">
         <v>48</v>
@@ -4492,7 +4636,7 @@
       </c>
       <c r="R11" s="16"/>
       <c r="S11" s="15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
@@ -4507,18 +4651,18 @@
         <v>51</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:31">
       <c r="A12" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="16">
@@ -4548,23 +4692,23 @@
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q12" s="16" t="s">
         <v>49</v>
       </c>
       <c r="R12" s="16"/>
       <c r="S12" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
@@ -4583,13 +4727,13 @@
     </row>
     <row r="13" ht="35" customHeight="1" spans="1:31">
       <c r="A13" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="16">
@@ -4619,23 +4763,23 @@
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q13" s="16" t="s">
         <v>49</v>
       </c>
       <c r="R13" s="16"/>
       <c r="S13" s="15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
@@ -4654,20 +4798,20 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="66" spans="1:31">
       <c r="A14" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="16">
         <v>1</v>
       </c>
       <c r="F14" s="16">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G14" s="16">
         <v>4</v>
@@ -4676,10 +4820,10 @@
         <v>44</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K14" s="16">
         <v>1</v>
@@ -4690,7 +4834,7 @@
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O14" s="16" t="s">
         <v>57</v>
@@ -4703,13 +4847,13 @@
       </c>
       <c r="R14" s="16"/>
       <c r="S14" s="15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
@@ -4722,25 +4866,25 @@
         <v>51</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="49.5" spans="1:31">
       <c r="A15" s="13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="16">
         <v>1</v>
       </c>
       <c r="F15" s="16">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G15" s="16">
         <v>4</v>
@@ -4749,10 +4893,10 @@
         <v>44</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K15" s="16">
         <v>1</v>
@@ -4763,7 +4907,7 @@
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="15" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O15" s="16" t="s">
         <v>57</v>
@@ -4782,10 +4926,10 @@
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Z15" s="16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AA15" s="16"/>
       <c r="AB15" s="35"/>
@@ -4793,25 +4937,25 @@
         <v>51</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:31">
       <c r="A16" s="13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="16">
         <v>1</v>
       </c>
       <c r="F16" s="16">
-        <v>800</v>
+        <v>3800</v>
       </c>
       <c r="G16" s="16">
         <v>6</v>
@@ -4820,10 +4964,10 @@
         <v>44</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K16" s="16">
         <v>1</v>
@@ -4834,10 +4978,10 @@
       </c>
       <c r="M16" s="16"/>
       <c r="N16" s="15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P16" s="16" t="s">
         <v>44</v>
@@ -4847,7 +4991,7 @@
       </c>
       <c r="R16" s="16"/>
       <c r="S16" s="15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
@@ -4862,25 +5006,25 @@
         <v>51</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" ht="49.5" spans="1:31">
       <c r="A17" s="13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="16">
         <v>1</v>
       </c>
       <c r="F17" s="16">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G17" s="16">
         <v>4</v>
@@ -4889,10 +5033,10 @@
         <v>44</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K17" s="16">
         <v>1</v>
@@ -4903,7 +5047,7 @@
       </c>
       <c r="M17" s="16"/>
       <c r="N17" s="15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O17" s="16" t="s">
         <v>57</v>
@@ -4916,10 +5060,10 @@
       </c>
       <c r="R17" s="16"/>
       <c r="S17" s="15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
@@ -4933,25 +5077,25 @@
         <v>51</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" ht="35" customHeight="1" spans="1:31">
       <c r="A18" s="13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="16">
         <v>1</v>
       </c>
       <c r="F18" s="16">
-        <v>800</v>
+        <v>3800</v>
       </c>
       <c r="G18" s="16">
         <v>6</v>
@@ -4960,10 +5104,10 @@
         <v>44</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K18" s="16">
         <v>1</v>
@@ -4974,7 +5118,7 @@
       </c>
       <c r="M18" s="16"/>
       <c r="N18" s="15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O18" s="16" t="s">
         <v>57</v>
@@ -4987,7 +5131,7 @@
       </c>
       <c r="R18" s="16"/>
       <c r="S18" s="15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
@@ -5002,25 +5146,25 @@
         <v>51</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" ht="18.5" customHeight="1" spans="1:31">
       <c r="A19" s="13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="16">
         <v>1</v>
       </c>
       <c r="F19" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G19" s="16">
         <v>3</v>
@@ -5029,10 +5173,10 @@
         <v>44</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K19" s="16">
         <v>1</v>
@@ -5043,7 +5187,7 @@
       </c>
       <c r="M19" s="16"/>
       <c r="N19" s="15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O19" s="16" t="s">
         <v>57</v>
@@ -5056,7 +5200,7 @@
       </c>
       <c r="R19" s="16"/>
       <c r="S19" s="15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
@@ -5071,25 +5215,25 @@
         <v>51</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" ht="49.5" spans="1:31">
       <c r="A20" s="13" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="16">
         <v>1</v>
       </c>
       <c r="F20" s="16">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G20" s="16">
         <v>4</v>
@@ -5098,10 +5242,10 @@
         <v>44</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K20" s="16">
         <v>1</v>
@@ -5112,7 +5256,7 @@
       </c>
       <c r="M20" s="16"/>
       <c r="N20" s="15" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O20" s="16" t="s">
         <v>57</v>
@@ -5125,13 +5269,13 @@
       </c>
       <c r="R20" s="16"/>
       <c r="S20" s="15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="U20" s="16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
@@ -5144,18 +5288,18 @@
         <v>51</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="68" customHeight="1" spans="1:31">
       <c r="A21" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="16">
@@ -5185,7 +5329,7 @@
       </c>
       <c r="M21" s="16"/>
       <c r="N21" s="15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O21" s="16" t="s">
         <v>57</v>
@@ -5205,7 +5349,7 @@
       <c r="X21" s="16"/>
       <c r="Y21" s="16"/>
       <c r="Z21" s="16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AA21" s="16"/>
       <c r="AB21" s="35"/>
@@ -5218,20 +5362,20 @@
     </row>
     <row r="22" ht="49.5" spans="1:31">
       <c r="A22" s="13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="16">
         <v>1</v>
       </c>
       <c r="F22" s="16">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G22" s="16">
         <v>4</v>
@@ -5240,10 +5384,10 @@
         <v>44</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K22" s="16">
         <v>1</v>
@@ -5254,7 +5398,7 @@
       </c>
       <c r="M22" s="16"/>
       <c r="N22" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O22" s="16" t="s">
         <v>57</v>
@@ -5267,17 +5411,17 @@
       </c>
       <c r="R22" s="16"/>
       <c r="S22" s="15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
       <c r="Y22" s="16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Z22" s="16"/>
       <c r="AA22" s="16"/>
@@ -5286,25 +5430,25 @@
         <v>51</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" ht="35" customHeight="1" spans="1:31">
       <c r="A23" s="13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="16">
         <v>1</v>
       </c>
       <c r="F23" s="16">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G23" s="16">
         <v>4</v>
@@ -5313,10 +5457,10 @@
         <v>44</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K23" s="16">
         <v>1</v>
@@ -5327,7 +5471,7 @@
       </c>
       <c r="M23" s="16"/>
       <c r="N23" s="15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O23" s="16" t="s">
         <v>57</v>
@@ -5340,10 +5484,10 @@
       </c>
       <c r="R23" s="16"/>
       <c r="S23" s="15" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
@@ -5357,27 +5501,27 @@
         <v>51</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" ht="33" spans="1:31">
       <c r="A24" s="13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E24" s="16">
         <v>1</v>
       </c>
       <c r="F24" s="16">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G24" s="16">
         <v>4</v>
@@ -5386,10 +5530,10 @@
         <v>44</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K24" s="16">
         <v>1</v>
@@ -5400,7 +5544,7 @@
       </c>
       <c r="M24" s="16"/>
       <c r="N24" s="15" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O24" s="16" t="s">
         <v>57</v>
@@ -5413,10 +5557,10 @@
       </c>
       <c r="R24" s="16"/>
       <c r="S24" s="15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="T24" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
@@ -5430,25 +5574,25 @@
         <v>51</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" ht="35" customHeight="1" spans="1:31">
       <c r="A25" s="13" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="16">
         <v>1</v>
       </c>
       <c r="F25" s="16">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G25" s="16">
         <v>4</v>
@@ -5457,10 +5601,10 @@
         <v>44</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K25" s="16">
         <v>1</v>
@@ -5471,7 +5615,7 @@
       </c>
       <c r="M25" s="16"/>
       <c r="N25" s="15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O25" s="16" t="s">
         <v>57</v>
@@ -5484,10 +5628,10 @@
       </c>
       <c r="R25" s="16"/>
       <c r="S25" s="15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
@@ -5501,25 +5645,25 @@
         <v>51</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" ht="35" customHeight="1" spans="1:31">
       <c r="A26" s="13" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="19">
         <v>1</v>
       </c>
       <c r="F26" s="16">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="G26" s="16">
         <v>5</v>
@@ -5528,10 +5672,10 @@
         <v>44</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K26" s="16">
         <v>1</v>
@@ -5541,10 +5685,10 @@
         <v>32|48|64|80|96|80</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O26" s="16" t="s">
         <v>57</v>
@@ -5557,7 +5701,7 @@
       </c>
       <c r="R26" s="16"/>
       <c r="S26" s="15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
@@ -5572,25 +5716,25 @@
         <v>51</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" ht="49.5" spans="1:31">
       <c r="A27" s="13" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="16">
         <v>1</v>
       </c>
       <c r="F27" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G27" s="16">
         <v>3</v>
@@ -5599,10 +5743,10 @@
         <v>44</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K27" s="16">
         <v>1</v>
@@ -5613,7 +5757,7 @@
       </c>
       <c r="M27" s="16"/>
       <c r="N27" s="15" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O27" s="16" t="s">
         <v>57</v>
@@ -5632,7 +5776,7 @@
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
       <c r="Y27" s="16" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Z27" s="16"/>
       <c r="AA27" s="16"/>
@@ -5641,25 +5785,25 @@
         <v>51</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:31">
       <c r="A28" s="13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="16">
         <v>1</v>
       </c>
       <c r="F28" s="16">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="G28" s="16">
         <v>5</v>
@@ -5668,10 +5812,10 @@
         <v>44</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K28" s="16">
         <v>1</v>
@@ -5682,7 +5826,7 @@
       </c>
       <c r="M28" s="16"/>
       <c r="N28" s="15" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="O28" s="16" t="s">
         <v>57</v>
@@ -5708,25 +5852,25 @@
         <v>51</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" ht="49.5" spans="1:31">
       <c r="A29" s="13" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="16">
         <v>1</v>
       </c>
       <c r="F29" s="16">
-        <v>800</v>
+        <v>3800</v>
       </c>
       <c r="G29" s="16">
         <v>6</v>
@@ -5735,10 +5879,10 @@
         <v>44</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K29" s="16">
         <v>1</v>
@@ -5749,7 +5893,7 @@
       </c>
       <c r="M29" s="16"/>
       <c r="N29" s="15" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O29" s="16" t="s">
         <v>57</v>
@@ -5762,7 +5906,7 @@
       </c>
       <c r="R29" s="16"/>
       <c r="S29" s="15" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
@@ -5770,7 +5914,7 @@
       <c r="W29" s="16"/>
       <c r="X29" s="16"/>
       <c r="Y29" s="16" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Z29" s="16"/>
       <c r="AA29" s="16"/>
@@ -5779,27 +5923,27 @@
         <v>51</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" ht="51.5" customHeight="1" spans="1:31">
       <c r="A30" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E30" s="16">
         <v>1</v>
       </c>
       <c r="F30" s="16">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="G30" s="16">
         <v>5</v>
@@ -5808,10 +5952,10 @@
         <v>44</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K30" s="16">
         <v>1</v>
@@ -5822,23 +5966,23 @@
       </c>
       <c r="M30" s="16"/>
       <c r="N30" s="15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P30" s="16" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q30" s="16" t="s">
         <v>49</v>
       </c>
       <c r="R30" s="16"/>
       <c r="S30" s="15" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="T30" s="16" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
@@ -5852,18 +5996,18 @@
         <v>51</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="49.5" spans="1:31">
       <c r="A31" s="13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="16">
@@ -5879,10 +6023,10 @@
         <v>44</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K31" s="16">
         <v>1</v>
@@ -5893,7 +6037,7 @@
       </c>
       <c r="M31" s="16"/>
       <c r="N31" s="15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O31" s="16" t="s">
         <v>57</v>
@@ -5912,7 +6056,7 @@
       <c r="W31" s="16"/>
       <c r="X31" s="16"/>
       <c r="Y31" s="16" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Z31" s="16"/>
       <c r="AA31" s="16"/>
@@ -5921,25 +6065,25 @@
         <v>51</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" ht="35" customHeight="1" spans="1:31">
       <c r="A32" s="13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="16">
         <v>1</v>
       </c>
       <c r="F32" s="16">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G32" s="16">
         <v>4</v>
@@ -5948,10 +6092,10 @@
         <v>44</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K32" s="16">
         <v>1</v>
@@ -5962,7 +6106,7 @@
       </c>
       <c r="M32" s="16"/>
       <c r="N32" s="15" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O32" s="16" t="s">
         <v>57</v>
@@ -5975,10 +6119,10 @@
       </c>
       <c r="R32" s="16"/>
       <c r="S32" s="15" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="T32" s="16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
@@ -5992,25 +6136,25 @@
         <v>51</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="49.5" spans="1:31">
       <c r="A33" s="13" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="16">
         <v>1</v>
       </c>
       <c r="F33" s="16">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G33" s="16">
         <v>4</v>
@@ -6019,10 +6163,10 @@
         <v>44</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K33" s="16">
         <v>1</v>
@@ -6032,10 +6176,10 @@
         <v>48|64|80|96|80|64</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O33" s="16" t="s">
         <v>57</v>
@@ -6054,10 +6198,10 @@
       <c r="W33" s="16"/>
       <c r="X33" s="16"/>
       <c r="Y33" s="16" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Z33" s="16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AA33" s="16"/>
       <c r="AB33" s="35"/>
@@ -6065,18 +6209,18 @@
         <v>51</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="49.5" spans="1:31">
       <c r="A34" s="13" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="21">
@@ -6106,7 +6250,7 @@
       </c>
       <c r="M34" s="16"/>
       <c r="N34" s="15" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O34" s="16" t="s">
         <v>57</v>
@@ -6125,10 +6269,10 @@
       <c r="W34" s="16"/>
       <c r="X34" s="16"/>
       <c r="Y34" s="16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Z34" s="16" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AA34" s="16"/>
       <c r="AB34" s="35"/>
@@ -6141,13 +6285,13 @@
     </row>
     <row r="35" s="2" customFormat="1" ht="49.5" spans="1:31">
       <c r="A35" s="13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="16">
@@ -6177,7 +6321,7 @@
       </c>
       <c r="M35" s="16"/>
       <c r="N35" s="15" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O35" s="16" t="s">
         <v>57</v>
@@ -6196,7 +6340,7 @@
       <c r="W35" s="16"/>
       <c r="X35" s="16"/>
       <c r="Y35" s="16" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Z35" s="16"/>
       <c r="AA35" s="16"/>
@@ -6210,13 +6354,13 @@
     </row>
     <row r="36" s="2" customFormat="1" ht="49.5" spans="1:31">
       <c r="A36" s="13" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="21">
@@ -6246,7 +6390,7 @@
       </c>
       <c r="M36" s="16"/>
       <c r="N36" s="15" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O36" s="16" t="s">
         <v>57</v>
@@ -6265,7 +6409,7 @@
       <c r="W36" s="16"/>
       <c r="X36" s="16"/>
       <c r="Y36" s="16" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Z36" s="16"/>
       <c r="AA36" s="16"/>
@@ -6279,22 +6423,22 @@
     </row>
     <row r="37" ht="35" customHeight="1" spans="1:31">
       <c r="A37" s="13" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E37" s="16">
         <v>1</v>
       </c>
       <c r="F37" s="16">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G37" s="16">
         <v>3</v>
@@ -6303,10 +6447,10 @@
         <v>44</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K37" s="16">
         <v>1</v>
@@ -6317,10 +6461,10 @@
       </c>
       <c r="M37" s="16"/>
       <c r="N37" s="15" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P37" s="16" t="s">
         <v>44</v>
@@ -6330,7 +6474,7 @@
       </c>
       <c r="R37" s="16"/>
       <c r="S37" s="15" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -6345,27 +6489,27 @@
         <v>51</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" ht="51.5" customHeight="1" spans="1:31">
       <c r="A38" s="13" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E38" s="16">
         <v>1</v>
       </c>
       <c r="F38" s="16">
-        <v>800</v>
+        <v>3800</v>
       </c>
       <c r="G38" s="16">
         <v>6</v>
@@ -6374,10 +6518,10 @@
         <v>44</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K38" s="16">
         <v>1</v>
@@ -6387,10 +6531,10 @@
         <v>16|32|48|64|80|96</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="O38" s="16" t="s">
         <v>57</v>
@@ -6416,25 +6560,25 @@
         <v>51</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" ht="49.5" spans="1:31">
       <c r="A39" s="13" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="16">
         <v>1</v>
       </c>
       <c r="F39" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G39" s="16">
         <v>3</v>
@@ -6443,10 +6587,10 @@
         <v>44</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K39" s="16">
         <v>1</v>
@@ -6456,10 +6600,10 @@
         <v>64|80|96|80|64|48</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O39" s="16" t="s">
         <v>57</v>
@@ -6478,7 +6622,7 @@
       <c r="W39" s="16"/>
       <c r="X39" s="16"/>
       <c r="Y39" s="16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Z39" s="16"/>
       <c r="AA39" s="16"/>
@@ -6487,25 +6631,25 @@
         <v>51</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" ht="18.5" customHeight="1" spans="1:31">
       <c r="A40" s="13" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="16">
         <v>1</v>
       </c>
       <c r="F40" s="16">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="G40" s="16">
         <v>5</v>
@@ -6514,10 +6658,10 @@
         <v>44</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K40" s="16">
         <v>1</v>
@@ -6527,10 +6671,10 @@
         <v>32|48|64|80|96|80</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="O40" s="16" t="s">
         <v>57</v>
@@ -6543,7 +6687,7 @@
       </c>
       <c r="R40" s="16"/>
       <c r="S40" s="15" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -6558,25 +6702,25 @@
         <v>51</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" ht="35" customHeight="1" spans="1:31">
       <c r="A41" s="13" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="16">
         <v>1</v>
       </c>
       <c r="F41" s="16">
-        <v>800</v>
+        <v>3800</v>
       </c>
       <c r="G41" s="16">
         <v>6</v>
@@ -6585,10 +6729,10 @@
         <v>44</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K41" s="16">
         <v>1</v>
@@ -6599,7 +6743,7 @@
       </c>
       <c r="M41" s="16"/>
       <c r="N41" s="15" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="O41" s="16" t="s">
         <v>57</v>
@@ -6612,10 +6756,10 @@
       </c>
       <c r="R41" s="16"/>
       <c r="S41" s="15" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="T41" s="16" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="U41" s="16"/>
       <c r="V41" s="16"/>
@@ -6629,18 +6773,18 @@
         <v>51</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" ht="18.5" customHeight="1" spans="1:31">
       <c r="A42" s="13" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="16">
@@ -6670,7 +6814,7 @@
       </c>
       <c r="M42" s="16"/>
       <c r="N42" s="15" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O42" s="16" t="s">
         <v>57</v>
@@ -6683,10 +6827,10 @@
       </c>
       <c r="R42" s="16"/>
       <c r="S42" s="15" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="T42" s="16" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
@@ -6705,20 +6849,20 @@
     </row>
     <row r="43" ht="35" customHeight="1" spans="1:31">
       <c r="A43" s="13" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="16">
         <v>1</v>
       </c>
       <c r="F43" s="16">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="G43" s="16">
         <v>5</v>
@@ -6727,10 +6871,10 @@
         <v>44</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K43" s="16">
         <v>1</v>
@@ -6740,10 +6884,10 @@
         <v>32|48|64|80|96|80</v>
       </c>
       <c r="M43" s="16" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N43" s="15" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O43" s="16" t="s">
         <v>57</v>
@@ -6756,10 +6900,10 @@
       </c>
       <c r="R43" s="16"/>
       <c r="S43" s="15" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="T43" s="16" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
@@ -6773,25 +6917,25 @@
         <v>51</v>
       </c>
       <c r="AE43" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" ht="115.5" spans="1:31">
       <c r="A44" s="13" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="16">
         <v>1</v>
       </c>
       <c r="F44" s="16">
-        <v>800</v>
+        <v>3800</v>
       </c>
       <c r="G44" s="16">
         <v>6</v>
@@ -6800,10 +6944,10 @@
         <v>44</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K44" s="16">
         <v>1</v>
@@ -6814,7 +6958,7 @@
       </c>
       <c r="M44" s="16"/>
       <c r="N44" s="15" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O44" s="16" t="s">
         <v>57</v>
@@ -6827,16 +6971,16 @@
       </c>
       <c r="R44" s="16"/>
       <c r="S44" s="15" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="T44" s="16" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="U44" s="16" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="V44" s="16" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="W44" s="16"/>
       <c r="X44" s="16"/>
@@ -6848,35 +6992,35 @@
         <v>51</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" ht="49.5" spans="1:31">
       <c r="A45" s="13" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="16">
         <v>1</v>
       </c>
       <c r="F45" s="16">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G45" s="16">
         <v>4</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K45" s="16">
         <v>1</v>
@@ -6887,7 +7031,7 @@
       </c>
       <c r="M45" s="16"/>
       <c r="N45" s="15" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="O45" s="16" t="s">
         <v>57</v>
@@ -6900,7 +7044,7 @@
       </c>
       <c r="R45" s="16"/>
       <c r="S45" s="15" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="T45" s="16"/>
       <c r="U45" s="16"/>
@@ -6908,7 +7052,7 @@
       <c r="W45" s="16"/>
       <c r="X45" s="16"/>
       <c r="Y45" s="16" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Z45" s="16"/>
       <c r="AA45" s="16"/>
@@ -6917,18 +7061,18 @@
         <v>51</v>
       </c>
       <c r="AE45" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" ht="18.5" customHeight="1" spans="1:31">
       <c r="A46" s="13" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="16">
@@ -6942,10 +7086,10 @@
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K46" s="16">
         <v>1</v>
@@ -6956,10 +7100,10 @@
       </c>
       <c r="M46" s="16"/>
       <c r="N46" s="15" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P46" s="16" t="s">
         <v>44</v>
@@ -6982,35 +7126,35 @@
         <v>51</v>
       </c>
       <c r="AE46" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" ht="18.5" customHeight="1" spans="1:31">
       <c r="A47" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="16">
         <v>1</v>
       </c>
       <c r="F47" s="16">
-        <v>800</v>
+        <v>3800</v>
       </c>
       <c r="G47" s="16">
         <v>6</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K47" s="16">
         <v>1</v>
@@ -7021,7 +7165,7 @@
       </c>
       <c r="M47" s="16"/>
       <c r="N47" s="15" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O47" s="16" t="s">
         <v>57</v>
@@ -7034,13 +7178,13 @@
       </c>
       <c r="R47" s="16"/>
       <c r="S47" s="15" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="T47" s="16" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="U47" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="V47" s="16"/>
       <c r="W47" s="16"/>
@@ -7053,35 +7197,35 @@
         <v>51</v>
       </c>
       <c r="AE47" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" ht="18.5" customHeight="1" spans="1:31">
       <c r="A48" s="13" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="16">
         <v>1</v>
       </c>
       <c r="F48" s="16">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="G48" s="16">
         <v>5</v>
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K48" s="16">
         <v>1</v>
@@ -7091,10 +7235,10 @@
         <v>32|48|64|80|96|80</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="N48" s="15" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="O48" s="16" t="s">
         <v>57</v>
@@ -7120,35 +7264,35 @@
         <v>51</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" ht="35" customHeight="1" spans="1:31">
       <c r="A49" s="13" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D49" s="23"/>
       <c r="E49" s="22">
         <v>1</v>
       </c>
       <c r="F49" s="16">
-        <v>800</v>
+        <v>3800</v>
       </c>
       <c r="G49" s="16">
         <v>6</v>
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K49" s="16">
         <v>1</v>
@@ -7158,10 +7302,10 @@
         <v>16|32|48|64|80|96</v>
       </c>
       <c r="M49" s="16" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N49" s="15" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O49" s="16" t="s">
         <v>57</v>
@@ -7174,10 +7318,10 @@
       </c>
       <c r="R49" s="16"/>
       <c r="S49" s="15" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="T49" s="16" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="U49" s="16"/>
       <c r="V49" s="16"/>
@@ -7191,35 +7335,35 @@
         <v>51</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" ht="49.5" spans="1:31">
       <c r="A50" s="13" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="16">
         <v>1</v>
       </c>
       <c r="F50" s="16">
-        <v>800</v>
+        <v>3800</v>
       </c>
       <c r="G50" s="16">
         <v>6</v>
       </c>
       <c r="H50" s="16"/>
       <c r="I50" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K50" s="16">
         <v>1</v>
@@ -7229,10 +7373,10 @@
         <v>16|32|48|64|80|96</v>
       </c>
       <c r="M50" s="16" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="N50" s="15" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="O50" s="16" t="s">
         <v>57</v>
@@ -7251,7 +7395,7 @@
       <c r="W50" s="16"/>
       <c r="X50" s="16"/>
       <c r="Y50" s="16" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Z50" s="16"/>
       <c r="AA50" s="16"/>
@@ -7260,37 +7404,37 @@
         <v>51</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" ht="35" customHeight="1" spans="1:31">
       <c r="A51" s="13" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E51" s="16">
         <v>1</v>
       </c>
       <c r="F51" s="16">
-        <v>800</v>
+        <v>3800</v>
       </c>
       <c r="G51" s="16">
         <v>6</v>
       </c>
       <c r="H51" s="16"/>
       <c r="I51" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K51" s="16">
         <v>1</v>
@@ -7301,7 +7445,7 @@
       </c>
       <c r="M51" s="16"/>
       <c r="N51" s="15" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="O51" s="16" t="s">
         <v>57</v>
@@ -7314,10 +7458,10 @@
       </c>
       <c r="R51" s="16"/>
       <c r="S51" s="15" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="T51" s="16" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="U51" s="16"/>
       <c r="V51" s="16"/>
@@ -7331,35 +7475,35 @@
         <v>51</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" ht="49.5" spans="1:31">
       <c r="A52" s="13" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="16">
         <v>1</v>
       </c>
       <c r="F52" s="16">
-        <v>800</v>
+        <v>3800</v>
       </c>
       <c r="G52" s="16">
         <v>6</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K52" s="16">
         <v>1</v>
@@ -7369,10 +7513,10 @@
         <v>16|32|48|64|80|96</v>
       </c>
       <c r="M52" s="16" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N52" s="15" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O52" s="16" t="s">
         <v>57</v>
@@ -7391,10 +7535,10 @@
       <c r="W52" s="16"/>
       <c r="X52" s="16"/>
       <c r="Y52" s="16" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Z52" s="16" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AA52" s="16"/>
       <c r="AB52" s="35"/>
@@ -7402,35 +7546,37 @@
         <v>51</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" ht="35" customHeight="1" spans="1:31">
       <c r="A53" s="13" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D53" s="15"/>
+        <v>353</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>354</v>
+      </c>
       <c r="E53" s="16">
         <v>1</v>
       </c>
       <c r="F53" s="16">
-        <v>800</v>
+        <v>3800</v>
       </c>
       <c r="G53" s="16">
         <v>6</v>
       </c>
       <c r="H53" s="16"/>
       <c r="I53" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K53" s="16">
         <v>1</v>
@@ -7440,10 +7586,10 @@
         <v>16|32|48|64|80|96</v>
       </c>
       <c r="M53" s="16" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="N53" s="15" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="O53" s="16" t="s">
         <v>57</v>
@@ -7456,7 +7602,7 @@
       </c>
       <c r="R53" s="16"/>
       <c r="S53" s="15" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="T53" s="16"/>
       <c r="U53" s="16"/>
@@ -7471,18 +7617,18 @@
         <v>51</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" ht="49.5" spans="1:31">
       <c r="A54" s="13" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="16">
@@ -7502,7 +7648,7 @@
         <v>46</v>
       </c>
       <c r="K54" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L54" s="11" t="str">
         <f>IF(E54=2,"96|96|96|96|96|96",VLOOKUP(G54,__Sheet1!A:B,2,FALSE))</f>
@@ -7510,7 +7656,7 @@
       </c>
       <c r="M54" s="16"/>
       <c r="N54" s="15" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="O54" s="16" t="s">
         <v>57</v>
@@ -7529,7 +7675,7 @@
       <c r="W54" s="16"/>
       <c r="X54" s="16"/>
       <c r="Y54" s="16" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Z54" s="16"/>
       <c r="AA54" s="16"/>
@@ -7543,13 +7689,13 @@
     </row>
     <row r="55" ht="49.5" spans="1:31">
       <c r="A55" s="13" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="16">
@@ -7569,7 +7715,7 @@
         <v>46</v>
       </c>
       <c r="K55" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L55" s="11" t="str">
         <f>IF(E55=2,"96|96|96|96|96|96",VLOOKUP(G55,__Sheet1!A:B,2,FALSE))</f>
@@ -7577,7 +7723,7 @@
       </c>
       <c r="M55" s="16"/>
       <c r="N55" s="15" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="O55" s="16" t="s">
         <v>57</v>
@@ -7596,7 +7742,7 @@
       <c r="W55" s="16"/>
       <c r="X55" s="16"/>
       <c r="Y55" s="16" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AA55" s="16"/>
       <c r="AB55" s="35"/>
@@ -7609,13 +7755,13 @@
     </row>
     <row r="56" ht="49.5" spans="1:31">
       <c r="A56" s="13" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="16">
@@ -7629,10 +7775,10 @@
       </c>
       <c r="H56" s="16"/>
       <c r="I56" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K56" s="16">
         <v>3</v>
@@ -7643,7 +7789,7 @@
       </c>
       <c r="M56" s="16"/>
       <c r="N56" s="15" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="O56" s="16" t="s">
         <v>57</v>
@@ -7662,7 +7808,7 @@
       <c r="W56" s="16"/>
       <c r="X56" s="16"/>
       <c r="Y56" s="16" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Z56" s="16"/>
       <c r="AA56" s="16"/>
@@ -7671,37 +7817,37 @@
         <v>51</v>
       </c>
       <c r="AE56" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" ht="35" customHeight="1" spans="1:31">
       <c r="A57" s="13" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E57" s="16">
         <v>1</v>
       </c>
       <c r="F57" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G57" s="16">
         <v>3</v>
       </c>
       <c r="H57" s="16"/>
       <c r="I57" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K57" s="16">
         <v>1</v>
@@ -7711,10 +7857,10 @@
         <v>64|80|96|80|64|48</v>
       </c>
       <c r="M57" s="16" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="N57" s="15" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="O57" s="16" t="s">
         <v>57</v>
@@ -7740,48 +7886,48 @@
         <v>51</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" ht="35" customHeight="1" spans="1:31">
       <c r="A58" s="13" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E58" s="16">
         <v>1</v>
       </c>
       <c r="F58" s="16">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G58" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H58" s="16"/>
       <c r="I58" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K58" s="16">
         <v>1</v>
       </c>
       <c r="L58" s="11" t="str">
         <f>IF(E58=2,"96|96|96|96|96|96",VLOOKUP(G58,__Sheet1!A:B,2,FALSE))</f>
-        <v>80|96|80|64|48|32</v>
+        <v>64|80|96|80|64|48</v>
       </c>
       <c r="M58" s="16"/>
       <c r="N58" s="15" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="O58" s="16" t="s">
         <v>57</v>
@@ -7807,48 +7953,48 @@
         <v>51</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" ht="35" customHeight="1" spans="1:31">
       <c r="A59" s="13" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C59" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="D59" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="D59" s="15" t="s">
-        <v>378</v>
-      </c>
       <c r="E59" s="16">
         <v>1</v>
       </c>
       <c r="F59" s="16">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G59" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K59" s="16">
         <v>1</v>
       </c>
       <c r="L59" s="11" t="str">
         <f>IF(E59=2,"96|96|96|96|96|96",VLOOKUP(G59,__Sheet1!A:B,2,FALSE))</f>
-        <v>80|96|80|64|48|32</v>
+        <v>64|80|96|80|64|48</v>
       </c>
       <c r="M59" s="16"/>
       <c r="N59" s="15" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="O59" s="16" t="s">
         <v>57</v>
@@ -7874,37 +8020,37 @@
         <v>51</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" ht="65" customHeight="1" spans="1:31">
       <c r="A60" s="13" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E60" s="17">
         <v>1</v>
       </c>
       <c r="F60" s="16">
-        <v>800</v>
+        <v>3800</v>
       </c>
       <c r="G60" s="16">
         <v>6</v>
       </c>
       <c r="H60" s="16"/>
       <c r="I60" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K60" s="16">
         <v>3</v>
@@ -7914,13 +8060,13 @@
         <v>16|32|48|64|80|96</v>
       </c>
       <c r="M60" s="16" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="N60" s="15" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="P60" s="16" t="s">
         <v>44</v>
@@ -7930,7 +8076,7 @@
       </c>
       <c r="R60" s="16"/>
       <c r="S60" s="15" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="T60" s="16"/>
       <c r="U60" s="16"/>
@@ -7945,35 +8091,35 @@
         <v>51</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" ht="51.5" customHeight="1" spans="1:31">
       <c r="A61" s="13" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="16">
         <v>1</v>
       </c>
       <c r="F61" s="16">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="G61" s="16">
         <v>5</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K61" s="16">
         <v>1</v>
@@ -7984,7 +8130,7 @@
       </c>
       <c r="M61" s="16"/>
       <c r="N61" s="15" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="O61" s="16" t="s">
         <v>57</v>
@@ -8010,18 +8156,18 @@
         <v>51</v>
       </c>
       <c r="AE61" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" ht="49.5" spans="1:31">
       <c r="A62" s="26" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="29">
@@ -8049,7 +8195,7 @@
       </c>
       <c r="M62" s="29"/>
       <c r="N62" s="28" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="O62" s="29" t="s">
         <v>57</v>
@@ -8068,7 +8214,7 @@
       <c r="W62" s="29"/>
       <c r="X62" s="29"/>
       <c r="Y62" s="29" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Z62" s="29"/>
       <c r="AA62" s="29"/>
@@ -8082,13 +8228,13 @@
     </row>
     <row r="63" ht="49.5" spans="1:31">
       <c r="A63" s="26" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D63" s="28"/>
       <c r="E63" s="29">
@@ -8116,7 +8262,7 @@
       </c>
       <c r="M63" s="29"/>
       <c r="N63" s="28" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O63" s="29" t="s">
         <v>57</v>
@@ -8135,7 +8281,7 @@
       <c r="W63" s="29"/>
       <c r="X63" s="29"/>
       <c r="Y63" s="29" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Z63" s="29"/>
       <c r="AA63" s="29"/>
@@ -8149,13 +8295,13 @@
     </row>
     <row r="64" ht="49.5" spans="1:31">
       <c r="A64" s="26" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D64" s="28"/>
       <c r="E64" s="29">
@@ -8183,7 +8329,7 @@
       </c>
       <c r="M64" s="29"/>
       <c r="N64" s="28" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O64" s="29" t="s">
         <v>57</v>
@@ -8202,7 +8348,7 @@
       <c r="W64" s="29"/>
       <c r="X64" s="29"/>
       <c r="Y64" s="29" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Z64" s="29"/>
       <c r="AA64" s="29"/>
@@ -8216,13 +8362,13 @@
     </row>
     <row r="65" ht="49.5" spans="1:31">
       <c r="A65" s="26" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D65" s="28"/>
       <c r="E65" s="29">
@@ -8250,7 +8396,7 @@
       </c>
       <c r="M65" s="29"/>
       <c r="N65" s="28" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O65" s="29" t="s">
         <v>57</v>
@@ -8269,7 +8415,7 @@
       <c r="W65" s="29"/>
       <c r="X65" s="29"/>
       <c r="Y65" s="29" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Z65" s="29"/>
       <c r="AA65" s="29"/>
@@ -8283,13 +8429,13 @@
     </row>
     <row r="66" ht="49.5" spans="1:31">
       <c r="A66" s="26" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D66" s="28"/>
       <c r="E66" s="29">
@@ -8317,7 +8463,7 @@
       </c>
       <c r="M66" s="29"/>
       <c r="N66" s="28" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O66" s="29" t="s">
         <v>57</v>
@@ -8336,7 +8482,7 @@
       <c r="W66" s="29"/>
       <c r="X66" s="29"/>
       <c r="Y66" s="29" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Z66" s="29"/>
       <c r="AA66" s="29"/>
@@ -8350,13 +8496,13 @@
     </row>
     <row r="67" ht="49.5" spans="1:31">
       <c r="A67" s="26" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D67" s="28"/>
       <c r="E67" s="29">
@@ -8384,7 +8530,7 @@
       </c>
       <c r="M67" s="29"/>
       <c r="N67" s="28" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O67" s="29" t="s">
         <v>57</v>
@@ -8403,7 +8549,7 @@
       <c r="W67" s="29"/>
       <c r="X67" s="29"/>
       <c r="Y67" s="29" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Z67" s="29"/>
       <c r="AA67" s="29"/>
@@ -8417,44 +8563,44 @@
     </row>
     <row r="68" ht="49.5" spans="1:31">
       <c r="A68" s="26" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D68" s="28"/>
       <c r="E68" s="29">
         <v>1</v>
       </c>
       <c r="F68" s="29">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G68" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68" s="29"/>
       <c r="I68" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K68" s="29">
         <v>1</v>
       </c>
       <c r="L68" s="11" t="str">
         <f>IF(E68=2,"96|96|96|96|96|96",VLOOKUP(G68,__Sheet1!A:B,2,FALSE))</f>
-        <v>80|96|80|64|48|32</v>
+        <v>64|80|96|80|64|48</v>
       </c>
       <c r="M68" s="29"/>
       <c r="N68" s="28" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O68" s="29" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="P68" s="29" t="s">
         <v>44</v>
@@ -8477,51 +8623,51 @@
         <v>51</v>
       </c>
       <c r="AE68" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" ht="49.5" spans="1:31">
       <c r="A69" s="26" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E69" s="29">
         <v>1</v>
       </c>
       <c r="F69" s="29">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G69" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69" s="29"/>
       <c r="I69" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K69" s="29">
         <v>1</v>
       </c>
       <c r="L69" s="11" t="str">
         <f>IF(E69=2,"96|96|96|96|96|96",VLOOKUP(G69,__Sheet1!A:B,2,FALSE))</f>
-        <v>80|96|80|64|48|32</v>
+        <v>64|80|96|80|64|48</v>
       </c>
       <c r="M69" s="29"/>
       <c r="N69" s="28" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O69" s="29" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="P69" s="29" t="s">
         <v>44</v>
@@ -8531,7 +8677,7 @@
       </c>
       <c r="R69" s="29"/>
       <c r="S69" s="28" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="T69" s="29"/>
       <c r="U69" s="29"/>
@@ -8546,48 +8692,48 @@
         <v>51</v>
       </c>
       <c r="AE69" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" ht="49.5" spans="1:31">
       <c r="A70" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E70" s="29">
         <v>1</v>
       </c>
       <c r="F70" s="29">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="G70" s="29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H70" s="29"/>
       <c r="I70" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K70" s="29">
         <v>1</v>
       </c>
       <c r="L70" s="11" t="str">
         <f>IF(E70=2,"96|96|96|96|96|96",VLOOKUP(G70,__Sheet1!A:B,2,FALSE))</f>
-        <v>80|96|80|64|48|32</v>
+        <v>32|48|64|80|96|80</v>
       </c>
       <c r="M70" s="29"/>
       <c r="N70" s="28" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O70" s="29" t="s">
         <v>57</v>
@@ -8606,10 +8752,10 @@
       <c r="W70" s="29"/>
       <c r="X70" s="29"/>
       <c r="Y70" s="29" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="Z70" s="29" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AA70" s="29"/>
       <c r="AB70" s="36"/>
@@ -8617,35 +8763,35 @@
         <v>51</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" ht="67" customHeight="1" spans="1:31">
       <c r="A71" s="26" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D71" s="28"/>
       <c r="E71" s="29">
         <v>1</v>
       </c>
       <c r="F71" s="29">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G71" s="29">
         <v>3</v>
       </c>
       <c r="H71" s="29"/>
       <c r="I71" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K71" s="29">
         <v>1</v>
@@ -8656,7 +8802,7 @@
       </c>
       <c r="M71" s="29"/>
       <c r="N71" s="28" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O71" s="29" t="s">
         <v>57</v>
@@ -8675,10 +8821,10 @@
       <c r="W71" s="29"/>
       <c r="X71" s="29"/>
       <c r="Y71" s="29" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Z71" s="29" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AA71" s="29"/>
       <c r="AB71" s="36"/>
@@ -8686,35 +8832,35 @@
         <v>51</v>
       </c>
       <c r="AE71" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" ht="33" spans="1:31">
       <c r="A72" s="26" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D72" s="28"/>
       <c r="E72" s="29">
         <v>1</v>
       </c>
       <c r="F72" s="29">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G72" s="29">
         <v>3</v>
       </c>
       <c r="H72" s="29"/>
       <c r="I72" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K72" s="29">
         <v>1</v>
@@ -8725,7 +8871,7 @@
       </c>
       <c r="M72" s="29"/>
       <c r="N72" s="28" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O72" s="29" t="s">
         <v>57</v>
@@ -8738,10 +8884,10 @@
       </c>
       <c r="R72" s="29"/>
       <c r="S72" s="28" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="T72" s="29" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="U72" s="29"/>
       <c r="V72" s="29"/>
@@ -8755,37 +8901,37 @@
         <v>51</v>
       </c>
       <c r="AE72" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" ht="49.5" spans="1:31">
       <c r="A73" s="26" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="E73" s="29">
         <v>1</v>
       </c>
       <c r="F73" s="29">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G73" s="29">
         <v>3</v>
       </c>
       <c r="H73" s="29"/>
       <c r="I73" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K73" s="29">
         <v>1</v>
@@ -8796,7 +8942,7 @@
       </c>
       <c r="M73" s="29"/>
       <c r="N73" s="28" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O73" s="29" t="s">
         <v>57</v>
@@ -8809,13 +8955,13 @@
       </c>
       <c r="R73" s="29"/>
       <c r="S73" s="28" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="T73" s="29" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="U73" s="29" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="V73" s="29"/>
       <c r="W73" s="29"/>
@@ -8828,18 +8974,18 @@
         <v>51</v>
       </c>
       <c r="AE73" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" ht="33" spans="1:31">
       <c r="A74" s="26" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D74" s="28"/>
       <c r="E74" s="29">
@@ -8853,10 +8999,10 @@
       </c>
       <c r="H74" s="29"/>
       <c r="I74" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K74" s="29">
         <v>1</v>
@@ -8867,10 +9013,10 @@
       </c>
       <c r="M74" s="29"/>
       <c r="N74" s="28" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O74" s="29" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="P74" s="29" t="s">
         <v>44</v>
@@ -8880,16 +9026,16 @@
       </c>
       <c r="R74" s="29"/>
       <c r="S74" s="28" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="T74" s="29" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="U74" s="29" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="V74" s="29" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="W74" s="29"/>
       <c r="X74" s="29"/>
@@ -8901,48 +9047,48 @@
         <v>51</v>
       </c>
       <c r="AE74" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" ht="99" spans="1:31">
       <c r="A75" s="26" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E75" s="29">
         <v>1</v>
       </c>
       <c r="F75" s="29">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="G75" s="29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H75" s="29"/>
       <c r="I75" s="11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K75" s="29">
         <v>1</v>
       </c>
       <c r="L75" s="11" t="str">
         <f>IF(E75=2,"96|96|96|96|96|96",VLOOKUP(G75,__Sheet1!A:B,2,FALSE))</f>
-        <v>80|96|80|64|48|32</v>
+        <v>32|48|64|80|96|80</v>
       </c>
       <c r="M75" s="29"/>
       <c r="N75" s="28" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O75" s="29" t="s">
         <v>57</v>
@@ -8961,10 +9107,10 @@
       <c r="W75" s="29"/>
       <c r="X75" s="29"/>
       <c r="Y75" s="29" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Z75" s="29" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AA75" s="29"/>
       <c r="AB75" s="36"/>
@@ -8972,25 +9118,25 @@
         <v>51</v>
       </c>
       <c r="AE75" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" ht="49.5" spans="1:31">
       <c r="A76" s="26" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D76" s="28"/>
       <c r="E76" s="29">
         <v>2</v>
       </c>
       <c r="F76" s="29">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G76" s="29">
         <v>1</v>
@@ -9003,7 +9149,7 @@
         <v>46</v>
       </c>
       <c r="K76" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L76" s="11" t="str">
         <f>IF(E76=2,"96|96|96|96|96|96",VLOOKUP(G76,__Sheet1!A:B,2,FALSE))</f>
@@ -9011,7 +9157,7 @@
       </c>
       <c r="M76" s="29"/>
       <c r="N76" s="28" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O76" s="29" t="s">
         <v>57</v>
@@ -9030,7 +9176,7 @@
       <c r="W76" s="29"/>
       <c r="X76" s="29"/>
       <c r="Y76" s="29" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="Z76" s="29"/>
       <c r="AA76" s="29"/>
@@ -9042,12 +9188,426 @@
         <v>52</v>
       </c>
     </row>
+    <row r="77" ht="49.5" spans="1:31">
+      <c r="A77" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="E77" s="29">
+        <v>2</v>
+      </c>
+      <c r="F77" s="29">
+        <v>200</v>
+      </c>
+      <c r="G77" s="29">
+        <v>0</v>
+      </c>
+      <c r="H77" s="29"/>
+      <c r="I77" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K77" s="29">
+        <v>6</v>
+      </c>
+      <c r="L77" s="11" t="str">
+        <f>IF(E77=2,"96|96|96|96|96|96",VLOOKUP(G77,__Sheet1!A:B,2,FALSE))</f>
+        <v>96|96|96|96|96|96</v>
+      </c>
+      <c r="M77" s="29"/>
+      <c r="N77" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="O77" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="P77" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q77" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="R77" s="29"/>
+      <c r="S77" s="28"/>
+      <c r="T77" s="29"/>
+      <c r="U77" s="29"/>
+      <c r="V77" s="29"/>
+      <c r="W77" s="29"/>
+      <c r="X77" s="29"/>
+      <c r="Y77" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z77" s="29"/>
+      <c r="AA77" s="29"/>
+      <c r="AB77" s="36"/>
+      <c r="AD77" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE77" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="78" ht="49.5" spans="1:31">
+      <c r="A78" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="E78" s="29">
+        <v>2</v>
+      </c>
+      <c r="F78" s="29">
+        <v>200</v>
+      </c>
+      <c r="G78" s="29">
+        <v>0</v>
+      </c>
+      <c r="H78" s="29"/>
+      <c r="I78" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K78" s="29">
+        <v>7</v>
+      </c>
+      <c r="L78" s="11" t="str">
+        <f>IF(E78=2,"96|96|96|96|96|96",VLOOKUP(G78,__Sheet1!A:B,2,FALSE))</f>
+        <v>96|96|96|96|96|96</v>
+      </c>
+      <c r="M78" s="29"/>
+      <c r="N78" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="O78" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="P78" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q78" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="R78" s="29"/>
+      <c r="S78" s="28"/>
+      <c r="T78" s="29"/>
+      <c r="U78" s="29"/>
+      <c r="V78" s="29"/>
+      <c r="W78" s="29"/>
+      <c r="X78" s="29"/>
+      <c r="Y78" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="Z78" s="29"/>
+      <c r="AA78" s="29"/>
+      <c r="AB78" s="36"/>
+      <c r="AD78" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="AE78" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="79" ht="49.5" spans="1:31">
+      <c r="A79" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="E79" s="29">
+        <v>2</v>
+      </c>
+      <c r="F79" s="29">
+        <v>200</v>
+      </c>
+      <c r="G79" s="29">
+        <v>0</v>
+      </c>
+      <c r="H79" s="29"/>
+      <c r="I79" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K79" s="29">
+        <v>8</v>
+      </c>
+      <c r="L79" s="11" t="str">
+        <f>IF(E79=2,"96|96|96|96|96|96",VLOOKUP(G79,__Sheet1!A:B,2,FALSE))</f>
+        <v>96|96|96|96|96|96</v>
+      </c>
+      <c r="M79" s="29"/>
+      <c r="N79" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="O79" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="P79" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q79" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="R79" s="29"/>
+      <c r="S79" s="28"/>
+      <c r="T79" s="29"/>
+      <c r="U79" s="29"/>
+      <c r="V79" s="29"/>
+      <c r="W79" s="29"/>
+      <c r="X79" s="29"/>
+      <c r="Y79" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="Z79" s="29"/>
+      <c r="AA79" s="29"/>
+      <c r="AB79" s="36"/>
+      <c r="AD79" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AE79" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="80" ht="49.5" spans="1:31">
+      <c r="A80" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="E80" s="29">
+        <v>2</v>
+      </c>
+      <c r="F80" s="29">
+        <v>200</v>
+      </c>
+      <c r="G80" s="29">
+        <v>0</v>
+      </c>
+      <c r="H80" s="29"/>
+      <c r="I80" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K80" s="29">
+        <v>9</v>
+      </c>
+      <c r="L80" s="11" t="str">
+        <f>IF(E80=2,"96|96|96|96|96|96",VLOOKUP(G80,__Sheet1!A:B,2,FALSE))</f>
+        <v>96|96|96|96|96|96</v>
+      </c>
+      <c r="M80" s="29"/>
+      <c r="N80" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="O80" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="P80" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q80" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="R80" s="29"/>
+      <c r="S80" s="28"/>
+      <c r="T80" s="29"/>
+      <c r="U80" s="29"/>
+      <c r="V80" s="29"/>
+      <c r="W80" s="29"/>
+      <c r="X80" s="29"/>
+      <c r="Y80" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="Z80" s="29"/>
+      <c r="AA80" s="29"/>
+      <c r="AB80" s="36"/>
+      <c r="AD80" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="AE80" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" ht="49.5" spans="1:31">
+      <c r="A81" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="E81" s="29">
+        <v>2</v>
+      </c>
+      <c r="F81" s="29">
+        <v>200</v>
+      </c>
+      <c r="G81" s="29">
+        <v>0</v>
+      </c>
+      <c r="H81" s="29"/>
+      <c r="I81" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K81" s="29">
+        <v>10</v>
+      </c>
+      <c r="L81" s="11" t="str">
+        <f>IF(E81=2,"96|96|96|96|96|96",VLOOKUP(G81,__Sheet1!A:B,2,FALSE))</f>
+        <v>96|96|96|96|96|96</v>
+      </c>
+      <c r="M81" s="29"/>
+      <c r="N81" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="O81" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="P81" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q81" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="R81" s="29"/>
+      <c r="S81" s="28"/>
+      <c r="T81" s="29"/>
+      <c r="U81" s="29"/>
+      <c r="V81" s="29"/>
+      <c r="W81" s="29"/>
+      <c r="X81" s="29"/>
+      <c r="Y81" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z81" s="29"/>
+      <c r="AA81" s="29"/>
+      <c r="AB81" s="36"/>
+      <c r="AD81" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="AE81" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="82" ht="49.5" spans="1:31">
+      <c r="A82" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="E82" s="29">
+        <v>2</v>
+      </c>
+      <c r="F82" s="29">
+        <v>200</v>
+      </c>
+      <c r="G82" s="29">
+        <v>0</v>
+      </c>
+      <c r="H82" s="29"/>
+      <c r="I82" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K82" s="29">
+        <v>11</v>
+      </c>
+      <c r="L82" s="11" t="str">
+        <f>IF(E82=2,"96|96|96|96|96|96",VLOOKUP(G82,__Sheet1!A:B,2,FALSE))</f>
+        <v>96|96|96|96|96|96</v>
+      </c>
+      <c r="M82" s="29"/>
+      <c r="N82" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="O82" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="P82" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q82" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="R82" s="29"/>
+      <c r="S82" s="28"/>
+      <c r="T82" s="29"/>
+      <c r="U82" s="29"/>
+      <c r="V82" s="29"/>
+      <c r="W82" s="29"/>
+      <c r="X82" s="29"/>
+      <c r="Y82" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="Z82" s="29"/>
+      <c r="AA82" s="29"/>
+      <c r="AB82" s="36"/>
+      <c r="AD82" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="AE82" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="E1:E76" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="E1:E82" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="L75">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9058,7 +9618,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L76">
+  <conditionalFormatting sqref="L77">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9070,8 +9630,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L74 L77:L1048576">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="L82">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L74 L83:L1048576">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L76 L78:L81">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9106,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9114,7 +9698,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9122,7 +9706,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9130,7 +9714,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9138,7 +9722,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9146,7 +9730,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9154,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="533">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -1566,7 +1566,7 @@
     <t>移动速度增加%MoveSpeed.BasePercent%%%</t>
   </si>
   <si>
-    <t>item_prop/ 后补</t>
+    <t>item_prop/ 飞鞋</t>
   </si>
   <si>
     <t>MoveSpeed {
@@ -1583,6 +1583,9 @@
     <t>暴击概率增加%CriticalChance.Base%%%</t>
   </si>
   <si>
+    <t>item_prop/ 暴击增益</t>
+  </si>
+  <si>
     <t>CriticalChance {
 "Base" "5"
 }</t>
@@ -1594,6 +1597,9 @@
     <t>暴击伤害增加%CriticalDamage.Base%%%</t>
   </si>
   <si>
+    <t>item_prop/ 爆伤增益</t>
+  </si>
+  <si>
     <t>CriticalDamage {
 "Base" "10"
 }</t>
@@ -1608,6 +1614,9 @@
     <t>团队经验获取率增加%TeamExpeIncrease.Base%%%</t>
   </si>
   <si>
+    <t>item_prop/ 团队经验</t>
+  </si>
+  <si>
     <t>TeamExpeIncrease {
 "Base" "5"
 }</t>
@@ -1622,6 +1631,9 @@
     <t>个人经验获取率增加%SingleExpeIncrease.Base%%%</t>
   </si>
   <si>
+    <t>item_prop/ 个人经验</t>
+  </si>
+  <si>
     <t>SingleExpeIncrease {
 "Base" "10"
 }</t>
@@ -1637,6 +1649,9 @@
 不可学习任意技能，金币收益提高50%，持续5波</t>
   </si>
   <si>
+    <t>item_prop/ 开摆</t>
+  </si>
+  <si>
     <t>prop_66</t>
   </si>
   <si>
@@ -1650,6 +1665,9 @@
     <t>（最终伤害）</t>
   </si>
   <si>
+    <t>item_prop/ 肾上腺素</t>
+  </si>
+  <si>
     <t>fidamage 75</t>
   </si>
   <si>
@@ -1664,6 +1682,9 @@
   </si>
   <si>
     <t>（获得符文时直接随机给到符文背包）</t>
+  </si>
+  <si>
+    <t>item_prop/ 有舍有得II</t>
   </si>
   <si>
     <t>AttackDamage {
@@ -1686,6 +1707,9 @@
 但整体暴击伤害收益只有70%</t>
   </si>
   <si>
+    <t>item_prop/ 暴击修正</t>
+  </si>
+  <si>
     <t>CriticalChance {
 "Base" "9999"
 }</t>
@@ -1703,6 +1727,9 @@
   </si>
   <si>
     <t>降低自身%soulpro%%%金币收益，但提高其他队友%qt_soulpro%%%金币收益</t>
+  </si>
+  <si>
+    <t>item_prop/ 工具人</t>
   </si>
   <si>
     <t>soulpro -75</t>
@@ -1750,6 +1777,9 @@
     <t>（真空期为 8s+3s）</t>
   </si>
   <si>
+    <t>item_prop/ 老板</t>
+  </si>
+  <si>
     <t>cd 8</t>
   </si>
   <si>
@@ -1766,6 +1796,9 @@
   </si>
   <si>
     <t>%succeed%%%概率金币翻倍，%fail%%%概率金币减半</t>
+  </si>
+  <si>
+    <t>item_prop/ 以小博大</t>
   </si>
   <si>
     <t>succeed 51</t>
@@ -1813,6 +1846,9 @@
     <t>攻击速度增加%AttackSpeed.Base%</t>
   </si>
   <si>
+    <t>item_prop/ 快枪手</t>
+  </si>
+  <si>
     <t>AttackSpeed {
 "Base" "10"
 }</t>
@@ -1828,6 +1864,9 @@
   </si>
   <si>
     <t>洗劫后，不自动刷新商店</t>
+  </si>
+  <si>
+    <t>item_prop/ 后补</t>
   </si>
   <si>
     <t>AttackSpeed {
@@ -3481,16 +3520,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B5A3538F-3BE5-40EC-B952-BFC9DDEF39B0}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{AD779349-E372-4B0C-BE84-79E546A140EC}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1A386E85-07ED-4279-9824-8BD2E1A1A3EB}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9EBEA2B0-291E-4C64-A1C4-D3CA35CA1128}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{BDCDE616-1604-4A4C-8DAB-65EB6591432E}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{6EAAE4C7-3605-4B86-B42C-E98752868064}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3502,7 +3541,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{E858A19E-C68E-4EFE-8A83-815AB905A45D}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{9356F722-0DE3-4E9A-8C59-A74329B3810D}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3814,9 +3853,9 @@
   <dimension ref="A1:AE82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A73" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="6" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H86" sqref="H86"/>
+      <selection pane="topRight" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8329,7 +8368,7 @@
       </c>
       <c r="M64" s="29"/>
       <c r="N64" s="28" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="O64" s="29" t="s">
         <v>57</v>
@@ -8348,7 +8387,7 @@
       <c r="W64" s="29"/>
       <c r="X64" s="29"/>
       <c r="Y64" s="29" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z64" s="29"/>
       <c r="AA64" s="29"/>
@@ -8365,10 +8404,10 @@
         <v>410</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D65" s="28"/>
       <c r="E65" s="29">
@@ -8396,7 +8435,7 @@
       </c>
       <c r="M65" s="29"/>
       <c r="N65" s="28" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="O65" s="29" t="s">
         <v>57</v>
@@ -8415,7 +8454,7 @@
       <c r="W65" s="29"/>
       <c r="X65" s="29"/>
       <c r="Y65" s="29" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Z65" s="29"/>
       <c r="AA65" s="29"/>
@@ -8429,13 +8468,13 @@
     </row>
     <row r="66" ht="49.5" spans="1:31">
       <c r="A66" s="26" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D66" s="28"/>
       <c r="E66" s="29">
@@ -8463,7 +8502,7 @@
       </c>
       <c r="M66" s="29"/>
       <c r="N66" s="28" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="O66" s="29" t="s">
         <v>57</v>
@@ -8482,7 +8521,7 @@
       <c r="W66" s="29"/>
       <c r="X66" s="29"/>
       <c r="Y66" s="29" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Z66" s="29"/>
       <c r="AA66" s="29"/>
@@ -8496,13 +8535,13 @@
     </row>
     <row r="67" ht="49.5" spans="1:31">
       <c r="A67" s="26" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D67" s="28"/>
       <c r="E67" s="29">
@@ -8530,7 +8569,7 @@
       </c>
       <c r="M67" s="29"/>
       <c r="N67" s="28" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="O67" s="29" t="s">
         <v>57</v>
@@ -8549,7 +8588,7 @@
       <c r="W67" s="29"/>
       <c r="X67" s="29"/>
       <c r="Y67" s="29" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Z67" s="29"/>
       <c r="AA67" s="29"/>
@@ -8563,13 +8602,13 @@
     </row>
     <row r="68" ht="49.5" spans="1:31">
       <c r="A68" s="26" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D68" s="28"/>
       <c r="E68" s="29">
@@ -8597,10 +8636,10 @@
       </c>
       <c r="M68" s="29"/>
       <c r="N68" s="28" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="O68" s="29" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="P68" s="29" t="s">
         <v>44</v>
@@ -8628,16 +8667,16 @@
     </row>
     <row r="69" ht="49.5" spans="1:31">
       <c r="A69" s="26" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="E69" s="29">
         <v>1</v>
@@ -8664,10 +8703,10 @@
       </c>
       <c r="M69" s="29"/>
       <c r="N69" s="28" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="O69" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="P69" s="29" t="s">
         <v>44</v>
@@ -8677,7 +8716,7 @@
       </c>
       <c r="R69" s="29"/>
       <c r="S69" s="28" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="T69" s="29"/>
       <c r="U69" s="29"/>
@@ -8697,16 +8736,16 @@
     </row>
     <row r="70" ht="49.5" spans="1:31">
       <c r="A70" s="26" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E70" s="29">
         <v>1</v>
@@ -8733,7 +8772,7 @@
       </c>
       <c r="M70" s="29"/>
       <c r="N70" s="28" t="s">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="O70" s="29" t="s">
         <v>57</v>
@@ -8752,10 +8791,10 @@
       <c r="W70" s="29"/>
       <c r="X70" s="29"/>
       <c r="Y70" s="29" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="Z70" s="29" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="AA70" s="29"/>
       <c r="AB70" s="36"/>
@@ -8768,13 +8807,13 @@
     </row>
     <row r="71" ht="67" customHeight="1" spans="1:31">
       <c r="A71" s="26" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D71" s="28"/>
       <c r="E71" s="29">
@@ -8802,7 +8841,7 @@
       </c>
       <c r="M71" s="29"/>
       <c r="N71" s="28" t="s">
-        <v>408</v>
+        <v>449</v>
       </c>
       <c r="O71" s="29" t="s">
         <v>57</v>
@@ -8821,10 +8860,10 @@
       <c r="W71" s="29"/>
       <c r="X71" s="29"/>
       <c r="Y71" s="29" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="Z71" s="29" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="AA71" s="29"/>
       <c r="AB71" s="36"/>
@@ -8837,13 +8876,13 @@
     </row>
     <row r="72" ht="33" spans="1:31">
       <c r="A72" s="26" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D72" s="28"/>
       <c r="E72" s="29">
@@ -8871,7 +8910,7 @@
       </c>
       <c r="M72" s="29"/>
       <c r="N72" s="28" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="O72" s="29" t="s">
         <v>57</v>
@@ -8884,10 +8923,10 @@
       </c>
       <c r="R72" s="29"/>
       <c r="S72" s="28" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="T72" s="29" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="U72" s="29"/>
       <c r="V72" s="29"/>
@@ -8906,16 +8945,16 @@
     </row>
     <row r="73" ht="49.5" spans="1:31">
       <c r="A73" s="26" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="E73" s="29">
         <v>1</v>
@@ -8942,7 +8981,7 @@
       </c>
       <c r="M73" s="29"/>
       <c r="N73" s="28" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="O73" s="29" t="s">
         <v>57</v>
@@ -8955,13 +8994,13 @@
       </c>
       <c r="R73" s="29"/>
       <c r="S73" s="28" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="T73" s="29" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="U73" s="29" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="V73" s="29"/>
       <c r="W73" s="29"/>
@@ -8979,13 +9018,13 @@
     </row>
     <row r="74" ht="33" spans="1:31">
       <c r="A74" s="26" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="D74" s="28"/>
       <c r="E74" s="29">
@@ -9013,10 +9052,10 @@
       </c>
       <c r="M74" s="29"/>
       <c r="N74" s="28" t="s">
-        <v>408</v>
+        <v>469</v>
       </c>
       <c r="O74" s="29" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="P74" s="29" t="s">
         <v>44</v>
@@ -9026,16 +9065,16 @@
       </c>
       <c r="R74" s="29"/>
       <c r="S74" s="28" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="T74" s="29" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="U74" s="29" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="V74" s="29" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="W74" s="29"/>
       <c r="X74" s="29"/>
@@ -9052,16 +9091,16 @@
     </row>
     <row r="75" ht="99" spans="1:31">
       <c r="A75" s="26" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="E75" s="29">
         <v>1</v>
@@ -9088,7 +9127,7 @@
       </c>
       <c r="M75" s="29"/>
       <c r="N75" s="28" t="s">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="O75" s="29" t="s">
         <v>57</v>
@@ -9107,10 +9146,10 @@
       <c r="W75" s="29"/>
       <c r="X75" s="29"/>
       <c r="Y75" s="29" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="Z75" s="29" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="AA75" s="29"/>
       <c r="AB75" s="36"/>
@@ -9123,13 +9162,13 @@
     </row>
     <row r="76" ht="49.5" spans="1:31">
       <c r="A76" s="26" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="D76" s="28"/>
       <c r="E76" s="29">
@@ -9157,7 +9196,7 @@
       </c>
       <c r="M76" s="29"/>
       <c r="N76" s="28" t="s">
-        <v>408</v>
+        <v>483</v>
       </c>
       <c r="O76" s="29" t="s">
         <v>57</v>
@@ -9176,7 +9215,7 @@
       <c r="W76" s="29"/>
       <c r="X76" s="29"/>
       <c r="Y76" s="29" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="Z76" s="29"/>
       <c r="AA76" s="29"/>
@@ -9190,16 +9229,16 @@
     </row>
     <row r="77" ht="49.5" spans="1:31">
       <c r="A77" s="26" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="E77" s="29">
         <v>2</v>
@@ -9226,7 +9265,7 @@
       </c>
       <c r="M77" s="29"/>
       <c r="N77" s="28" t="s">
-        <v>408</v>
+        <v>489</v>
       </c>
       <c r="O77" s="29" t="s">
         <v>57</v>
@@ -9245,30 +9284,30 @@
       <c r="W77" s="29"/>
       <c r="X77" s="29"/>
       <c r="Y77" s="29" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="Z77" s="29"/>
       <c r="AA77" s="29"/>
       <c r="AB77" s="36"/>
       <c r="AD77" s="1" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78" ht="49.5" spans="1:31">
       <c r="A78" s="26" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="E78" s="29">
         <v>2</v>
@@ -9295,7 +9334,7 @@
       </c>
       <c r="M78" s="29"/>
       <c r="N78" s="28" t="s">
-        <v>408</v>
+        <v>489</v>
       </c>
       <c r="O78" s="29" t="s">
         <v>57</v>
@@ -9314,30 +9353,30 @@
       <c r="W78" s="29"/>
       <c r="X78" s="29"/>
       <c r="Y78" s="29" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="Z78" s="29"/>
       <c r="AA78" s="29"/>
       <c r="AB78" s="36"/>
       <c r="AD78" s="1" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
     </row>
     <row r="79" ht="49.5" spans="1:31">
       <c r="A79" s="26" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="E79" s="29">
         <v>2</v>
@@ -9364,7 +9403,7 @@
       </c>
       <c r="M79" s="29"/>
       <c r="N79" s="28" t="s">
-        <v>408</v>
+        <v>489</v>
       </c>
       <c r="O79" s="29" t="s">
         <v>57</v>
@@ -9383,30 +9422,30 @@
       <c r="W79" s="29"/>
       <c r="X79" s="29"/>
       <c r="Y79" s="29" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="Z79" s="29"/>
       <c r="AA79" s="29"/>
       <c r="AB79" s="36"/>
       <c r="AD79" s="1" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="AE79" s="1" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
     </row>
     <row r="80" ht="49.5" spans="1:31">
       <c r="A80" s="26" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="E80" s="29">
         <v>2</v>
@@ -9433,7 +9472,7 @@
       </c>
       <c r="M80" s="29"/>
       <c r="N80" s="28" t="s">
-        <v>408</v>
+        <v>489</v>
       </c>
       <c r="O80" s="29" t="s">
         <v>57</v>
@@ -9452,30 +9491,30 @@
       <c r="W80" s="29"/>
       <c r="X80" s="29"/>
       <c r="Y80" s="29" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="Z80" s="29"/>
       <c r="AA80" s="29"/>
       <c r="AB80" s="36"/>
       <c r="AD80" s="1" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="AE80" s="1" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
     </row>
     <row r="81" ht="49.5" spans="1:31">
       <c r="A81" s="26" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="E81" s="29">
         <v>2</v>
@@ -9502,7 +9541,7 @@
       </c>
       <c r="M81" s="29"/>
       <c r="N81" s="28" t="s">
-        <v>408</v>
+        <v>489</v>
       </c>
       <c r="O81" s="29" t="s">
         <v>57</v>
@@ -9521,30 +9560,30 @@
       <c r="W81" s="29"/>
       <c r="X81" s="29"/>
       <c r="Y81" s="29" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="Z81" s="29"/>
       <c r="AA81" s="29"/>
       <c r="AB81" s="36"/>
       <c r="AD81" s="1" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
     </row>
     <row r="82" ht="49.5" spans="1:31">
       <c r="A82" s="26" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="E82" s="29">
         <v>2</v>
@@ -9571,7 +9610,7 @@
       </c>
       <c r="M82" s="29"/>
       <c r="N82" s="28" t="s">
-        <v>408</v>
+        <v>489</v>
       </c>
       <c r="O82" s="29" t="s">
         <v>57</v>
@@ -9590,16 +9629,16 @@
       <c r="W82" s="29"/>
       <c r="X82" s="29"/>
       <c r="Y82" s="29" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="Z82" s="29"/>
       <c r="AA82" s="29"/>
       <c r="AB82" s="36"/>
       <c r="AD82" s="1" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="AE82" s="1" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -9690,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9698,7 +9737,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9706,7 +9745,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9714,7 +9753,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9722,7 +9761,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9730,7 +9769,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9738,7 +9777,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="535">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -1864,6 +1864,12 @@
   </si>
   <si>
     <t>洗劫后，不自动刷新商店</t>
+  </si>
+  <si>
+    <t>0|0|0|0|0</t>
+  </si>
+  <si>
+    <t>0|0|0|0</t>
   </si>
   <si>
     <t>item_prop/ 后补</t>
@@ -3520,16 +3526,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{AD779349-E372-4B0C-BE84-79E546A140EC}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{CDDFA62E-DE8B-43CB-8C29-BCAC87044007}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9EBEA2B0-291E-4C64-A1C4-D3CA35CA1128}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{623746D3-C075-4534-A9CF-6D64EC40EA3E}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{6EAAE4C7-3605-4B86-B42C-E98752868064}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B5BE8F4E-5F52-48D4-B6C7-76206AB8138E}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3541,7 +3547,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{9356F722-0DE3-4E9A-8C59-A74329B3810D}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{1A0259A2-B6D4-499E-9088-76B43D8F07DB}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3852,10 +3858,10 @@
   <sheetPr/>
   <dimension ref="A1:AE82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A73" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A75" workbookViewId="0">
+      <pane xSplit="6" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D78" sqref="D78"/>
+      <selection pane="topRight" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9251,10 +9257,10 @@
       </c>
       <c r="H77" s="29"/>
       <c r="I77" s="11" t="s">
-        <v>45</v>
+        <v>489</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>46</v>
+        <v>490</v>
       </c>
       <c r="K77" s="29">
         <v>6</v>
@@ -9265,7 +9271,7 @@
       </c>
       <c r="M77" s="29"/>
       <c r="N77" s="28" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O77" s="29" t="s">
         <v>57</v>
@@ -9284,30 +9290,30 @@
       <c r="W77" s="29"/>
       <c r="X77" s="29"/>
       <c r="Y77" s="29" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Z77" s="29"/>
       <c r="AA77" s="29"/>
       <c r="AB77" s="36"/>
       <c r="AD77" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="78" ht="49.5" spans="1:31">
       <c r="A78" s="26" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E78" s="29">
         <v>2</v>
@@ -9320,10 +9326,10 @@
       </c>
       <c r="H78" s="29"/>
       <c r="I78" s="11" t="s">
-        <v>45</v>
+        <v>489</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>46</v>
+        <v>490</v>
       </c>
       <c r="K78" s="29">
         <v>7</v>
@@ -9334,7 +9340,7 @@
       </c>
       <c r="M78" s="29"/>
       <c r="N78" s="28" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O78" s="29" t="s">
         <v>57</v>
@@ -9353,30 +9359,30 @@
       <c r="W78" s="29"/>
       <c r="X78" s="29"/>
       <c r="Y78" s="29" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Z78" s="29"/>
       <c r="AA78" s="29"/>
       <c r="AB78" s="36"/>
       <c r="AD78" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="79" ht="49.5" spans="1:31">
       <c r="A79" s="26" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E79" s="29">
         <v>2</v>
@@ -9389,10 +9395,10 @@
       </c>
       <c r="H79" s="29"/>
       <c r="I79" s="11" t="s">
-        <v>45</v>
+        <v>489</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>46</v>
+        <v>490</v>
       </c>
       <c r="K79" s="29">
         <v>8</v>
@@ -9403,7 +9409,7 @@
       </c>
       <c r="M79" s="29"/>
       <c r="N79" s="28" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O79" s="29" t="s">
         <v>57</v>
@@ -9422,30 +9428,30 @@
       <c r="W79" s="29"/>
       <c r="X79" s="29"/>
       <c r="Y79" s="29" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Z79" s="29"/>
       <c r="AA79" s="29"/>
       <c r="AB79" s="36"/>
       <c r="AD79" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AE79" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="80" ht="49.5" spans="1:31">
       <c r="A80" s="26" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E80" s="29">
         <v>2</v>
@@ -9458,10 +9464,10 @@
       </c>
       <c r="H80" s="29"/>
       <c r="I80" s="11" t="s">
-        <v>45</v>
+        <v>489</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>46</v>
+        <v>490</v>
       </c>
       <c r="K80" s="29">
         <v>9</v>
@@ -9472,7 +9478,7 @@
       </c>
       <c r="M80" s="29"/>
       <c r="N80" s="28" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O80" s="29" t="s">
         <v>57</v>
@@ -9491,30 +9497,30 @@
       <c r="W80" s="29"/>
       <c r="X80" s="29"/>
       <c r="Y80" s="29" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="Z80" s="29"/>
       <c r="AA80" s="29"/>
       <c r="AB80" s="36"/>
       <c r="AD80" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AE80" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="81" ht="49.5" spans="1:31">
       <c r="A81" s="26" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E81" s="29">
         <v>2</v>
@@ -9527,10 +9533,10 @@
       </c>
       <c r="H81" s="29"/>
       <c r="I81" s="11" t="s">
-        <v>45</v>
+        <v>489</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>46</v>
+        <v>490</v>
       </c>
       <c r="K81" s="29">
         <v>10</v>
@@ -9541,7 +9547,7 @@
       </c>
       <c r="M81" s="29"/>
       <c r="N81" s="28" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O81" s="29" t="s">
         <v>57</v>
@@ -9560,30 +9566,30 @@
       <c r="W81" s="29"/>
       <c r="X81" s="29"/>
       <c r="Y81" s="29" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="Z81" s="29"/>
       <c r="AA81" s="29"/>
       <c r="AB81" s="36"/>
       <c r="AD81" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="82" ht="49.5" spans="1:31">
       <c r="A82" s="26" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E82" s="29">
         <v>2</v>
@@ -9596,10 +9602,10 @@
       </c>
       <c r="H82" s="29"/>
       <c r="I82" s="11" t="s">
-        <v>45</v>
+        <v>489</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>46</v>
+        <v>490</v>
       </c>
       <c r="K82" s="29">
         <v>11</v>
@@ -9610,7 +9616,7 @@
       </c>
       <c r="M82" s="29"/>
       <c r="N82" s="28" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O82" s="29" t="s">
         <v>57</v>
@@ -9629,16 +9635,16 @@
       <c r="W82" s="29"/>
       <c r="X82" s="29"/>
       <c r="Y82" s="29" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Z82" s="29"/>
       <c r="AA82" s="29"/>
       <c r="AB82" s="36"/>
       <c r="AD82" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AE82" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -9729,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9737,7 +9743,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9745,7 +9751,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9753,7 +9759,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9761,7 +9767,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9769,7 +9775,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9777,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -3526,16 +3526,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{CDDFA62E-DE8B-43CB-8C29-BCAC87044007}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{876C450F-D773-4D96-9E4D-66EAC1177611}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{623746D3-C075-4534-A9CF-6D64EC40EA3E}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8EEAC7F3-8CA8-4AD2-8E29-D026560D4642}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B5BE8F4E-5F52-48D4-B6C7-76206AB8138E}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{FF0116B2-8732-44A8-879B-38915177C918}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3547,7 +3547,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{1A0259A2-B6D4-499E-9088-76B43D8F07DB}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{BD84C492-AB24-4B2C-985C-D2A46C8D0A25}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3859,9 +3859,9 @@
   <dimension ref="A1:AE82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A75" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F86" sqref="F86"/>
+      <selection pane="topRight" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9247,7 +9247,7 @@
         <v>488</v>
       </c>
       <c r="E77" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" s="29">
         <v>200</v>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="L77" s="11" t="str">
         <f>IF(E77=2,"96|96|96|96|96|96",VLOOKUP(G77,__Sheet1!A:B,2,FALSE))</f>
-        <v>96|96|96|96|96|96</v>
+        <v>0|0|0|0|0|0</v>
       </c>
       <c r="M77" s="29"/>
       <c r="N77" s="28" t="s">
@@ -9316,7 +9316,7 @@
         <v>498</v>
       </c>
       <c r="E78" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" s="29">
         <v>200</v>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="L78" s="11" t="str">
         <f>IF(E78=2,"96|96|96|96|96|96",VLOOKUP(G78,__Sheet1!A:B,2,FALSE))</f>
-        <v>96|96|96|96|96|96</v>
+        <v>0|0|0|0|0|0</v>
       </c>
       <c r="M78" s="29"/>
       <c r="N78" s="28" t="s">
@@ -9385,7 +9385,7 @@
         <v>505</v>
       </c>
       <c r="E79" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" s="29">
         <v>200</v>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="L79" s="11" t="str">
         <f>IF(E79=2,"96|96|96|96|96|96",VLOOKUP(G79,__Sheet1!A:B,2,FALSE))</f>
-        <v>96|96|96|96|96|96</v>
+        <v>0|0|0|0|0|0</v>
       </c>
       <c r="M79" s="29"/>
       <c r="N79" s="28" t="s">
@@ -9454,7 +9454,7 @@
         <v>512</v>
       </c>
       <c r="E80" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" s="29">
         <v>200</v>
@@ -9474,7 +9474,7 @@
       </c>
       <c r="L80" s="11" t="str">
         <f>IF(E80=2,"96|96|96|96|96|96",VLOOKUP(G80,__Sheet1!A:B,2,FALSE))</f>
-        <v>96|96|96|96|96|96</v>
+        <v>0|0|0|0|0|0</v>
       </c>
       <c r="M80" s="29"/>
       <c r="N80" s="28" t="s">
@@ -9523,7 +9523,7 @@
         <v>512</v>
       </c>
       <c r="E81" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" s="29">
         <v>200</v>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="L81" s="11" t="str">
         <f>IF(E81=2,"96|96|96|96|96|96",VLOOKUP(G81,__Sheet1!A:B,2,FALSE))</f>
-        <v>96|96|96|96|96|96</v>
+        <v>0|0|0|0|0|0</v>
       </c>
       <c r="M81" s="29"/>
       <c r="N81" s="28" t="s">
@@ -9592,7 +9592,7 @@
         <v>512</v>
       </c>
       <c r="E82" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" s="29">
         <v>200</v>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="L82" s="11" t="str">
         <f>IF(E82=2,"96|96|96|96|96|96",VLOOKUP(G82,__Sheet1!A:B,2,FALSE))</f>
-        <v>96|96|96|96|96|96</v>
+        <v>0|0|0|0|0|0</v>
       </c>
       <c r="M82" s="29"/>
       <c r="N82" s="28" t="s">

--- a/excels/config/game/shop/mysterious_shop_config.xlsx
+++ b/excels/config/game/shop/mysterious_shop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="mysterious_shop_config" sheetId="2" r:id="rId1"/>
@@ -1716,7 +1716,7 @@
   </si>
   <si>
     <t>CriticalDamage {
-"MulRegion" "0.7"
+"MulRegion" "-30"
 }</t>
   </si>
   <si>
@@ -3526,16 +3526,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{876C450F-D773-4D96-9E4D-66EAC1177611}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{76D49E94-5909-4DC4-BD3D-F3E99C4AFE6A}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8EEAC7F3-8CA8-4AD2-8E29-D026560D4642}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{EAE440DB-3716-44CB-9BBA-400C6597DC6F}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{FF0116B2-8732-44A8-879B-38915177C918}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{13EF6741-4192-4693-AF38-3CF291D9D792}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3547,7 +3547,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{BD84C492-AB24-4B2C-985C-D2A46C8D0A25}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{D887921C-CBCB-4E15-BE7B-5E912047138D}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3858,10 +3858,10 @@
   <sheetPr/>
   <dimension ref="A1:AE82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A75" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A40" workbookViewId="0">
+      <pane xSplit="6" topLeftCell="Y1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G77" sqref="G77"/>
+      <selection pane="topRight" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
